--- a/vagas_apinfo.xlsx
+++ b/vagas_apinfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I279"/>
+  <dimension ref="A1:I368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13378,6 +13378,4117 @@
         <v>20</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>82018</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Dev PHP Pleno – PJ – Híbrido (Guarulhos)</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Buscamos um(a) Dev PHP Pleno com perfil colaborativo, comprometido e em constante aprendizado. Atuará no desenvolvimento de sistemas em PHP (Laravel), com foco em GraphQL, PostgreSQL, Redis, Elasticsearch, Firebase e Vue.js.  É essencial ter experiência prática com PHP, Laravel, GraphQL e GIT, além de interesse em evoluir tecnicamente e contribuir com o time.  Requisitos: - PHP + Laravel / MVC - GraphQL (principal) e REST - PostgreSQL, Redis, Elasticsearch - Firebase, Vue.js - GIT e boas práticas  Modelo híbrido – Guarulhos/SP  Diferenciais: - Formação em áreas de TI e boa capacidade de comunicação em equipe.  Regime: PJ  Faixa: R$ 5.000 – R$ 8.000 / mês Ambiente colaborativo, com autonomia, inovação e aprendizado constante.
+Empresa .....:  Bomvalor</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 19/01/26 || Dev PHP Pleno – PJ – Híbrido (Guarulhos) || Buscamos um(a) Dev PHP Pleno com perfil colaborativo, comprometido e em constante aprendizado. Atuará no desenvolvimento de sistemas em PHP (Laravel), com foco em GraphQL, PostgreSQL, Redis, Elasticsearch, Firebase e Vue.js.  É essencial ter experiência prática com PHP, Laravel, GraphQL e GIT, além de interesse em evoluir tecnicamente e contribuir com o time.  Requisitos: - PHP + Laravel / MVC - GraphQL (principal) e REST - PostgreSQL, Redis, Elasticsearch - Firebase, Vue.js - GIT e boas práticas  Modelo híbrido – Guarulhos/SP  Diferenciais: - Formação em áreas de TI e boa capacidade de comunicação em equipe.  Regime: PJ  Faixa: R$ 5.000 – R$ 8.000 / mês Ambiente colaborativo, com autonomia, inovação e aprendizado constante. || Empresa .....:  Bomvalor</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>82072</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Analista de Dados Pleno</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Holambra - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Responsabilidades: Desenvolver a lógica de cálculo da remuneração variável do time produtivo Automatizar os indicadores já existentes Estruturar e organizar os dados disponíveis na empresa Criar e manter planilhas automatizadas com fórmulas e dashboards no Excel Garantir a integridade das informações e apoiar na transição para as áreas responsáveis após a implantação.  Requisitos: Excel intermediário a avançado (fórmulas, tabelas dinâmicas, PROCX, SOMASES, etc.) Ensino superior completo em Dados, Ciências da Computação, Engenharia, Administração, Matemática, Físca ou áreas correlatas Capacidade analítica, atenção aos detalhes e organização Desejável Conhecimento em Power BI ou ferramentas similares.  Modelo: CLT, Presencial em Holambra - SP  Benefícios: Vale Alimentação Refeição no local Ajuda de custo para deslocamento Plano Odontológico - Uniodonto Totalpass Seguro de vida.
+Empresa .....:  IVO SERVICES TECH RECRUIT</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Holambra - SP - 19/01/26 || Analista de Dados Pleno || Responsabilidades: Desenvolver a lógica de cálculo da remuneração variável do time produtivo Automatizar os indicadores já existentes Estruturar e organizar os dados disponíveis na empresa Criar e manter planilhas automatizadas com fórmulas e dashboards no Excel Garantir a integridade das informações e apoiar na transição para as áreas responsáveis após a implantação.  Requisitos: Excel intermediário a avançado (fórmulas, tabelas dinâmicas, PROCX, SOMASES, etc.) Ensino superior completo em Dados, Ciências da Computação, Engenharia, Administração, Matemática, Físca ou áreas correlatas Capacidade analítica, atenção aos detalhes e organização Desejável Conhecimento em Power BI ou ferramentas similares.  Modelo: CLT, Presencial em Holambra - SP  Benefícios: Vale Alimentação Refeição no local Ajuda de custo para deslocamento Plano Odontológico - Uniodonto Totalpass Seguro de vida. || Empresa .....:  IVO SERVICES TECH RECRUIT</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>82948</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>analista de TI pleno</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Objetivo: Atuação em projetos estratégicos, com foco em soluções para o setor de Telecomunicações, especialmente em Sistemas de Mediação. Regime: Totalmente Remoto Horário: Comercial  Experiência Necessária Vivência comprovada em projetos de Telecom, especialmente em Sistemas de Mediação. Sólido conhecimento em Linux. Programação em Python e Shell Script em ambientes produtivos. Atuação com integrações entre sistemas complexos e alto volume de dados.  Desejável Experiência em linguagens como CGDC, Java, C e JavaScript. Conhecimento em ferramentas de versionamento (Git) e pipelines de CI/CD. Experiência em metodologias ágeis (Scrum, Kanban). Vivência em ambientes de alta disponibilidade e monitoramento de aplicações.
+Empresa .....:  ITShare Soluções em Tecnologia</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26 || analista de TI pleno || Objetivo: Atuação em projetos estratégicos, com foco em soluções para o setor de Telecomunicações, especialmente em Sistemas de Mediação. Regime: Totalmente Remoto Horário: Comercial  Experiência Necessária Vivência comprovada em projetos de Telecom, especialmente em Sistemas de Mediação. Sólido conhecimento em Linux. Programação em Python e Shell Script em ambientes produtivos. Atuação com integrações entre sistemas complexos e alto volume de dados.  Desejável Experiência em linguagens como CGDC, Java, C e JavaScript. Conhecimento em ferramentas de versionamento (Git) e pipelines de CI/CD. Experiência em metodologias ágeis (Scrum, Kanban). Vivência em ambientes de alta disponibilidade e monitoramento de aplicações. || Empresa .....:  ITShare Soluções em Tecnologia</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>82872</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Analista Desenvolvedor Sênior – PJ – Part-time</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Buscamos um dev para o desenvolvimento da plataforma SaaS HPY Assessment. Responsabilidades: backend + frontend, criação de módulos administrativos, área do cliente/fornecedor, questionários dinâmicos, anexos seguros, pontuação automática, dashboards, APIs, MFA, criptografia avançada, logs de auditoria completos e arquitetura multi-tenant com isolamento. Requisitos: domínio em Node.js/NestJS (ou Django/FastAPI/Rails), React/Next.js, PostgreSQL, Docker, S3/MinIO, MFA, hashing seguro, OWASP Top 10, testes e código limpo.  Diferenciais: experiência com SaaS escalável, LGPD/ISO 27001/NIST, workflows e automações. Envio: portfólio + GitHub + arquitetura proposta + pretensão  Diferenciais (fortemente desejáveis) Experiência prévia com SaaS multi-tenant Experiência com plataformas de questionários e workflows  PJ – Part-time (20h/semana) Projeto inicial de 60 a 90 dias (MVP) Possibilidade de extensão e participação em evolução
+Empresa .....:  HPY Consulting</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26 || Analista Desenvolvedor Sênior – PJ – Part-time || Buscamos um dev para o desenvolvimento da plataforma SaaS HPY Assessment. Responsabilidades: backend + frontend, criação de módulos administrativos, área do cliente/fornecedor, questionários dinâmicos, anexos seguros, pontuação automática, dashboards, APIs, MFA, criptografia avançada, logs de auditoria completos e arquitetura multi-tenant com isolamento. Requisitos: domínio em Node.js/NestJS (ou Django/FastAPI/Rails), React/Next.js, PostgreSQL, Docker, S3/MinIO, MFA, hashing seguro, OWASP Top 10, testes e código limpo.  Diferenciais: experiência com SaaS escalável, LGPD/ISO 27001/NIST, workflows e automações. Envio: portfólio + GitHub + arquitetura proposta + pretensão  Diferenciais (fortemente desejáveis) Experiência prévia com SaaS multi-tenant Experiência com plataformas de questionários e workflows  PJ – Part-time (20h/semana) Projeto inicial de 60 a 90 dias (MVP) Possibilidade de extensão e participação em evolução || Empresa .....:  HPY Consulting</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>82750</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Cientista de Dados - Sênior</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Vaga: Cientista de Dados - Sênior  Requisitos: Formação em ciência da computação, estatística ou área relacionada  Experiência comprovada em ciência de dados: Ter um histórico sólido na área de análise de dados e aprendizado de máquina. Proficiência em linguagens de programação: Saber programar em Python, R, SQL, entre outras. Conhecimento em ferramentas de análise de dados: Familiaridade com ferramentas como TensorFlow, Keras, PyTorch, Spacy, Transformers e outras. Habilidades analíticas e de resolução de problemas: Capacidade de identificar e resolver problemas complexos de dados. Pensamento crítico para explorar padrões e tendencias nos dados. Capacidade de trabalhar em equipe: Trabalho em equipe colaborando com engenheiros de dados, analistas e outros perfis de áreas de atividades fim da organização assim como as administrativas, consultorias e outras tecnoestruturas.  Atuação: Remota
+Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26 || Cientista de Dados - Sênior || Vaga: Cientista de Dados - Sênior  Requisitos: Formação em ciência da computação, estatística ou área relacionada  Experiência comprovada em ciência de dados: Ter um histórico sólido na área de análise de dados e aprendizado de máquina. Proficiência em linguagens de programação: Saber programar em Python, R, SQL, entre outras. Conhecimento em ferramentas de análise de dados: Familiaridade com ferramentas como TensorFlow, Keras, PyTorch, Spacy, Transformers e outras. Habilidades analíticas e de resolução de problemas: Capacidade de identificar e resolver problemas complexos de dados. Pensamento crítico para explorar padrões e tendencias nos dados. Capacidade de trabalhar em equipe: Trabalho em equipe colaborando com engenheiros de dados, analistas e outros perfis de áreas de atividades fim da organização assim como as administrativas, consultorias e outras tecnoestruturas.  Atuação: Remota || Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>82033</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Data Steward (IDMC)</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Data Steward (IDMC)  - Experiência mandatória com IDMC (Intelligent Data Management Cloud). - Levantamento das regras com as áreas de negócio e mapeamento dos dados. - Documentação técnica completa da solução, processos na ferramenta, técnica e funcional da solução implementada. - Experiência com gestão de dados corporativos, garantia de qualidade, segurança e conformidade LGPD, governança de dados, curadoria de dados - Conhecimento em bancos de dados e ferramentas de ETL (Extract, Transform, Load). - Especialização em governança de dados, data management ou compliance são valorizados.  Vaga Hibrida (1x na semana no presencial) e CLT Vaga por tempo determinado - 6 meses  Temos: VA ou VR, VT, Assistência Médica Odontológica, Auxílio creche e WellHub.
+Empresa .....:  PSM COM PROFESSIONAL SERVICES MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26 || Data Steward (IDMC) || Data Steward (IDMC)  - Experiência mandatória com IDMC (Intelligent Data Management Cloud). - Levantamento das regras com as áreas de negócio e mapeamento dos dados. - Documentação técnica completa da solução, processos na ferramenta, técnica e funcional da solução implementada. - Experiência com gestão de dados corporativos, garantia de qualidade, segurança e conformidade LGPD, governança de dados, curadoria de dados - Conhecimento em bancos de dados e ferramentas de ETL (Extract, Transform, Load). - Especialização em governança de dados, data management ou compliance são valorizados.  Vaga Hibrida (1x na semana no presencial) e CLT Vaga por tempo determinado - 6 meses  Temos: VA ou VR, VT, Assistência Médica Odontológica, Auxílio creche e WellHub. || Empresa .....:  PSM COM PROFESSIONAL SERVICES MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>83046</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Front-End Sênior</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>A Pentacom IT Solutions, há mais de 20 anos no mercado, busca Desenvolvedor Front-end Sênior:  Requisitos e Conhecimentos Essenciais: - Linguagens: JavaScript (ES6+), TypeScript (Interfaces, Types, Generics) - Core  Frameworks: React.js (ou Vue.js / Angular), Next.js (ou Nuxt.js) - Estilização: CSS-in-JS - Styled-components ou Emotion, Tailwind CSS, Sass/SCSS - Gerenciamento de Estado  API: Context API, TanStack Query (React Query), Axios ou Fetch API, Zod ou Yup - Qualidade  Testes: TDD, React Testing Library - Ferramentas de Build  Documentação: Webpack, Git (CLI), Storybook, Docker (Desejável: básico para rodar ambiente)  Período: Indeterminado Início: Imediato Contratação: CLT Atuação: Home Office  Profissionais interessados, enviar currículo informando disponibilidade para início
+Empresa .....:  Pentacom IT Solutions</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26 || Desenvolvedor Front-End Sênior || A Pentacom IT Solutions, há mais de 20 anos no mercado, busca Desenvolvedor Front-end Sênior:  Requisitos e Conhecimentos Essenciais: - Linguagens: JavaScript (ES6+), TypeScript (Interfaces, Types, Generics) - Core  Frameworks: React.js (ou Vue.js / Angular), Next.js (ou Nuxt.js) - Estilização: CSS-in-JS - Styled-components ou Emotion, Tailwind CSS, Sass/SCSS - Gerenciamento de Estado  API: Context API, TanStack Query (React Query), Axios ou Fetch API, Zod ou Yup - Qualidade  Testes: TDD, React Testing Library - Ferramentas de Build  Documentação: Webpack, Git (CLI), Storybook, Docker (Desejável: básico para rodar ambiente)  Período: Indeterminado Início: Imediato Contratação: CLT Atuação: Home Office  Profissionais interessados, enviar currículo informando disponibilidade para início || Empresa .....:  Pentacom IT Solutions</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>82059</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Power Builder</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Responsabilidades: Desenvolver e manter aplicações corporativas em PowerBuilder, integradas a banco de dados Oracle. Criar e otimizar DataWindows, triggers e procedures. Garantir performance, estabilidade e segurança das aplicações. Participar de revisões de código, planejamentos ágeis e definições técnicas. Documentar soluções, versionar entregas e manter backlog atualizado.  Requisitos: Experiência sólida com PowerBuilder (versão 6.5 ou superior). Domínio de Oracle (consultas, procedures, functions, triggers e views). Vivência com Git/Bitbucket e controle de versões. Experiência em metodologias ágeis (Scrum ou Kanban). Boas práticas de Clean Code e manutenção de código legado.  Modelo de atuação: Híbrido ou Remoto.  Informações adicionais: Cliente fica localizado em São Paulo Se residir até 25km de São Paulo - 4 dias presencial e 1 home-office. Se residir mais de 25km (ou fora da grande São Paulo ou demais localizações) será home-office.
+Empresa .....:  Emphasys It Services</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26 || Desenvolvedor Power Builder || Responsabilidades: Desenvolver e manter aplicações corporativas em PowerBuilder, integradas a banco de dados Oracle. Criar e otimizar DataWindows, triggers e procedures. Garantir performance, estabilidade e segurança das aplicações. Participar de revisões de código, planejamentos ágeis e definições técnicas. Documentar soluções, versionar entregas e manter backlog atualizado.  Requisitos: Experiência sólida com PowerBuilder (versão 6.5 ou superior). Domínio de Oracle (consultas, procedures, functions, triggers e views). Vivência com Git/Bitbucket e controle de versões. Experiência em metodologias ágeis (Scrum ou Kanban). Boas práticas de Clean Code e manutenção de código legado.  Modelo de atuação: Híbrido ou Remoto.  Informações adicionais: Cliente fica localizado em São Paulo Se residir até 25km de São Paulo - 4 dias presencial e 1 home-office. Se residir mais de 25km (ou fora da grande São Paulo ou demais localizações) será home-office. || Empresa .....:  Emphasys It Services</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>83298</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Engenheiro de Software Java Backend - Sênior</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Engenheiro(a) de Software Java Backend Sênior  Sobre a CBDS Somos uma empresa brasileira focada em Squad as a Service, com mais de 16 anos de experiência. Estamos em busca de um(a) Engenheiro(a) de Software Java Backend Sênior para atuar de forma Totalmente remota.  Responsabilidades Desenvolver aplicações Java de alta performance, arquitetar microserviços com Spring Boot, criar APIs RESTful e atuar como referência técnica no time.  Experiência Obrigatória • 7+ anos em Java (11+) • Spring Boot, Spring MVC, Spring Data, Spring Security • Padrões de Projeto (GoF) e SOLID • Arquitetura de microserviços • APIs RESTful e Swagger • Hibernate/JPA e bancos relacionais • Git, Maven/Gradle • Testes: JUnit, Mockito  Diferenciais Kotlin, DDD, Kafka/RabbitMQ, NoSQL, AWS/GCP/Azure, Docker/Kubernetes, CI/CD, Spring WebFlux.  Formação Graduação em Ciência da Computação ou áreas correlatas.  Contratação: PJ, período integral, longo prazo.
+Empresa .....:  CBDS</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26 || Engenheiro de Software Java Backend - Sênior || Engenheiro(a) de Software Java Backend Sênior  Sobre a CBDS Somos uma empresa brasileira focada em Squad as a Service, com mais de 16 anos de experiência. Estamos em busca de um(a) Engenheiro(a) de Software Java Backend Sênior para atuar de forma Totalmente remota.  Responsabilidades Desenvolver aplicações Java de alta performance, arquitetar microserviços com Spring Boot, criar APIs RESTful e atuar como referência técnica no time.  Experiência Obrigatória • 7+ anos em Java (11+) • Spring Boot, Spring MVC, Spring Data, Spring Security • Padrões de Projeto (GoF) e SOLID • Arquitetura de microserviços • APIs RESTful e Swagger • Hibernate/JPA e bancos relacionais • Git, Maven/Gradle • Testes: JUnit, Mockito  Diferenciais Kotlin, DDD, Kafka/RabbitMQ, NoSQL, AWS/GCP/Azure, Docker/Kubernetes, CI/CD, Spring WebFlux.  Formação Graduação em Ciência da Computação ou áreas correlatas.  Contratação: PJ, período integral, longo prazo. || Empresa .....:  CBDS</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>81889</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Especialista em Oracle Integration Cloud</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Requisitos: Experiência comprovada e sólida no desenvolvimento de integrações usando Oracle Integration Cloud (OIC). Profundo conhecimento em arquiteturas orientadas a serviços (SOA) e padrões de integração. Habilidade para trabalhar com formatos de dados JSON e XML. Conhecimento e experiência prática com serviços REST e SOAP. Capacidade de resolver problemas e depurar falhas em fluxos de integração rapidamente. Familiaridade com conceitos de segurança em APIs e integrações (OAuth, JWT, certificados SSL).  Contratação PJ Remoto
+Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26 || Especialista em Oracle Integration Cloud || Requisitos: Experiência comprovada e sólida no desenvolvimento de integrações usando Oracle Integration Cloud (OIC). Profundo conhecimento em arquiteturas orientadas a serviços (SOA) e padrões de integração. Habilidade para trabalhar com formatos de dados JSON e XML. Conhecimento e experiência prática com serviços REST e SOAP. Capacidade de resolver problemas e depurar falhas em fluxos de integração rapidamente. Familiaridade com conceitos de segurança em APIs e integrações (OAuth, JWT, certificados SSL).  Contratação PJ Remoto || Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>82597</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Analista de Negócios TI Supply  TOTVS Protheus</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Itatiba - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>CLT + Bônus anual + Todos os Benefícios para indústria em SP (Local de Trabalho em Itatiba ou SP, zona norte) 4 x presencial e 1 x remoto  Esse Analista de Negócios de TI Sr fará atendimento da área de Supply. Imprescindível expertise em TOTVS Protheus e profundidade com sistemas de Logística.
+Empresa .....:  Umbrella Talent</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Itatiba - SP - 19/01/26 || Analista de Negócios TI Supply  TOTVS Protheus || CLT + Bônus anual + Todos os Benefícios para indústria em SP (Local de Trabalho em Itatiba ou SP, zona norte) 4 x presencial e 1 x remoto  Esse Analista de Negócios de TI Sr fará atendimento da área de Supply. Imprescindível expertise em TOTVS Protheus e profundidade com sistemas de Logística. || Empresa .....:  Umbrella Talent</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>82217</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Arquiteto de Software (.Net)</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Já pensou em trabalhar como Arquiteto de Software em uma empresa referência no desenvolvimento de projetos de rodovias?  Profissional atuará com a definição da arquitetura de referência e roadmap de evolução. Modelar sistemas com boas práticas (DDD, arquitetura hexagonal, modularização, CQRS quando aplicável). Estabelecer padrões de API (REST/GraphQL), contratos e versionamento. Experiência sólida com C#/.NET (Core/7/8) e SQL Server (otimização e tuning). Vivência prática com containers (Docker/Kubernetes), microserviços e mensageria. Experiência em cloud (Azure/AWS/GCP) com serviços gerenciados. Definição de APIs (REST/GraphQL), autenticação/autorização (OAuth2/OIDC). Conhecimentos em observabilidade (logs estruturados, métricas, tracing distribuído). Experiência com pipelines de CI/CD e Infra as Code.  Contratação: CLT Full + Benefícios Atuação no Modelo Híbrido: 3x na semana presencial Local: Rio de Janeiro
+Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 19/01/26 || Arquiteto de Software (.Net) || Já pensou em trabalhar como Arquiteto de Software em uma empresa referência no desenvolvimento de projetos de rodovias?  Profissional atuará com a definição da arquitetura de referência e roadmap de evolução. Modelar sistemas com boas práticas (DDD, arquitetura hexagonal, modularização, CQRS quando aplicável). Estabelecer padrões de API (REST/GraphQL), contratos e versionamento. Experiência sólida com C#/.NET (Core/7/8) e SQL Server (otimização e tuning). Vivência prática com containers (Docker/Kubernetes), microserviços e mensageria. Experiência em cloud (Azure/AWS/GCP) com serviços gerenciados. Definição de APIs (REST/GraphQL), autenticação/autorização (OAuth2/OIDC). Conhecimentos em observabilidade (logs estruturados, métricas, tracing distribuído). Experiência com pipelines de CI/CD e Infra as Code.  Contratação: CLT Full + Benefícios Atuação no Modelo Híbrido: 3x na semana presencial Local: Rio de Janeiro || Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>81959</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Assistente de Informática</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Oferecemos vaga para profissional  de informática com experiência em atendimento ao cliente. Deve possuir características como proatividade, trabalho em equipe, resiliência, criatividade e comunicação.  Formação: Superior completo nas áreas de informática ou cursando a partir do 5º período. Cursos extra curriculares e experiência do cliente serão um diferencial.  Pedimos experiência de pelo menos 2 anos com as seguintes habilidades técnicas: Experiência em pacote Office (avançado em Excel), Design Gráfico (CorelDraw, Adobe PhotoShop, Canva). ERP, Banco de Dados Oracle, linguagem SQL para consultas e atualizações e APIs.  HTML 5 e JavaScript. Será um diferencial conhecimento em suporte computacional e em Redes Físicas/Lógicas.  Descrição da vaga: Atuação no setor de informática e relacionamento com o associado. Trabalho presencial no Centro do Rio de Janeiro. Segunda a sexta, das 09h às 18h. Regime CLT, plano de saúde, VR e  VT.
+Empresa .....:  Sincor RJ</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 19/01/26 || Assistente de Informática || Oferecemos vaga para profissional  de informática com experiência em atendimento ao cliente. Deve possuir características como proatividade, trabalho em equipe, resiliência, criatividade e comunicação.  Formação: Superior completo nas áreas de informática ou cursando a partir do 5º período. Cursos extra curriculares e experiência do cliente serão um diferencial.  Pedimos experiência de pelo menos 2 anos com as seguintes habilidades técnicas: Experiência em pacote Office (avançado em Excel), Design Gráfico (CorelDraw, Adobe PhotoShop, Canva). ERP, Banco de Dados Oracle, linguagem SQL para consultas e atualizações e APIs.  HTML 5 e JavaScript. Será um diferencial conhecimento em suporte computacional e em Redes Físicas/Lógicas.  Descrição da vaga: Atuação no setor de informática e relacionamento com o associado. Trabalho presencial no Centro do Rio de Janeiro. Segunda a sexta, das 09h às 18h. Regime CLT, plano de saúde, VR e  VT. || Empresa .....:  Sincor RJ</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>82031</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>PMO  Pleno</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>PMO Pleno Botafogo  RJ ( Presencial)  Atuar com: Suporte às equipes responsáveis pelos projetos. Gerenciar a execução das atividades e monitorar o andamento usando KPIs. Fazer relatórios de desempenho e monitorar cronogramas, orçamentos e escopos dos projetos.  Requisitos Background de sistemas SAP Conhecer de ferramentas de ITSM será um **diferencial**
+Empresa .....:  Blend IT Consultoria</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 19/01/26 || PMO  Pleno || PMO Pleno Botafogo  RJ ( Presencial)  Atuar com: Suporte às equipes responsáveis pelos projetos. Gerenciar a execução das atividades e monitorar o andamento usando KPIs. Fazer relatórios de desempenho e monitorar cronogramas, orçamentos e escopos dos projetos.  Requisitos Background de sistemas SAP Conhecer de ferramentas de ITSM será um **diferencial** || Empresa .....:  Blend IT Consultoria</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>82777</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Agile Coach Sênior</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) AGILE COACH SENIOR para atuar em uma das maiores empresas varejista farmacêutica do Brasil.  O profissional será responsável por difundir a mentalidade ágil na organização, apoiando times na adoção e evolução de frameworks como Scrum, Kanban, Lean e SAFe. Atua conduzindo workshops, treinamentos e cerimônias, além de oferecer coaching para Scrum Masters, Product Owners e equipes. Identifica impedimentos organizacionais, avalia a maturidade ágil dos times e direciona planos de melhoria contínua, autonomia e autogestão. Também apoia iniciativas de transformação ágil em escala, garantindo alinhamento entre áreas.  Requisitos: experiência sólida com métodos ágeis, coaching de equipes, transformação organizacional, gestão de mudanças e excelentes habilidades de comunicação e facilitação.  Diferenciais: certificações como CSM, PSM, KMP, ICP-ACC, SAFe Agilist.
+Empresa .....:  3CON Consultoria e Sistemas S/A</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Agile Coach Sênior || Estamos em busca de um(a) AGILE COACH SENIOR para atuar em uma das maiores empresas varejista farmacêutica do Brasil.  O profissional será responsável por difundir a mentalidade ágil na organização, apoiando times na adoção e evolução de frameworks como Scrum, Kanban, Lean e SAFe. Atua conduzindo workshops, treinamentos e cerimônias, além de oferecer coaching para Scrum Masters, Product Owners e equipes. Identifica impedimentos organizacionais, avalia a maturidade ágil dos times e direciona planos de melhoria contínua, autonomia e autogestão. Também apoia iniciativas de transformação ágil em escala, garantindo alinhamento entre áreas.  Requisitos: experiência sólida com métodos ágeis, coaching de equipes, transformação organizacional, gestão de mudanças e excelentes habilidades de comunicação e facilitação.  Diferenciais: certificações como CSM, PSM, KMP, ICP-ACC, SAFe Agilist. || Empresa .....:  3CON Consultoria e Sistemas S/A</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>81949</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Analista Automacao</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Descrição da vaga Estamos em busca de um Analista de Automação para integrar o time técnico da NNumbers, atuando na criação, otimização e automação de rotinas de infraestrutura, redes, cloud e processos operacionais. O profissional será responsável por desenvolver scripts, pipelines e integrações que aumentem a eficiência, padronização e segurança dos ambientes da empresa e de nossos clientes corporativos.  Requisitos técnicos Experiência comprovada em automação de infraestrutura e/ou DevOps Conhecimento sólido em Python, PowerShell ou Bash Conhecimento em APIs REST e integração entre sistemas  Vivência em ambientes Windows Server
+Empresa .....:  NNumbers</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Analista Automacao || Descrição da vaga Estamos em busca de um Analista de Automação para integrar o time técnico da NNumbers, atuando na criação, otimização e automação de rotinas de infraestrutura, redes, cloud e processos operacionais. O profissional será responsável por desenvolver scripts, pipelines e integrações que aumentem a eficiência, padronização e segurança dos ambientes da empresa e de nossos clientes corporativos.  Requisitos técnicos Experiência comprovada em automação de infraestrutura e/ou DevOps Conhecimento sólido em Python, PowerShell ou Bash Conhecimento em APIs REST e integração entre sistemas  Vivência em ambientes Windows Server || Empresa .....:  NNumbers</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>82875</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>ANALISTA DE BI JÚNIOR - HÍBRIDO SÃO PAULO/SP</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO HÍBRIDA DE 2X A 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT + Benefícios  Perfil: Os analistas BI precisam ter experiência de pelo menos  02 anos com modelagem de DATA WAREHOUSE, TALEND, SQL .  As atividades serão: Desenvolvimento de arquitetura de dados utilizando a Modelagem de Data Warehouse Realizar integrações de dados utilizando Talend Desenvolvimento de dashboards utilizando a ferramenta Power BI Realizar levantamento de requisitos junto ao Key Users Manutenção de estrutura e implementação de novos processos Documentar os processos desenvolvidos.
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || ANALISTA DE BI JÚNIOR - HÍBRIDO SÃO PAULO/SP || ATUAÇÃO HÍBRIDA DE 2X A 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT + Benefícios  Perfil: Os analistas BI precisam ter experiência de pelo menos  02 anos com modelagem de DATA WAREHOUSE, TALEND, SQL .  As atividades serão: Desenvolvimento de arquitetura de dados utilizando a Modelagem de Data Warehouse Realizar integrações de dados utilizando Talend Desenvolvimento de dashboards utilizando a ferramenta Power BI Realizar levantamento de requisitos junto ao Key Users Manutenção de estrutura e implementação de novos processos Documentar os processos desenvolvidos. || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>82780</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Analista de Negócios - Pl (Presencial)</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Oportunidade para Analista de Negócios / Product Owner – Projeto Industrial  Líder global no segmento de carne bovina  Estamos em busca de um(a) profissional com forte perfil analítico e visão de negócio para atuar presencialmente no Morumbi, contribuindo na evolução de produtos e processos industriais dentro de uma operação de grande porte.  Requisitos: Experiência com regras de negócio e especificações funcionais. Vivência em ambientes industriais ou áreas de negócio. Conhecimento em BDD, UML, BPMN e Cucumber. Experiência com metodologias ágeis (Scrum/Kanban). Pacote Office avançado. Familiaridade com práticas DevSecOps.  Diferencial: Conhecimento ou certificação BPM CBOK.
+Empresa .....:  Icon</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Analista de Negócios - Pl (Presencial) || Oportunidade para Analista de Negócios / Product Owner – Projeto Industrial  Líder global no segmento de carne bovina  Estamos em busca de um(a) profissional com forte perfil analítico e visão de negócio para atuar presencialmente no Morumbi, contribuindo na evolução de produtos e processos industriais dentro de uma operação de grande porte.  Requisitos: Experiência com regras de negócio e especificações funcionais. Vivência em ambientes industriais ou áreas de negócio. Conhecimento em BDD, UML, BPMN e Cucumber. Experiência com metodologias ágeis (Scrum/Kanban). Pacote Office avançado. Familiaridade com práticas DevSecOps.  Diferencial: Conhecimento ou certificação BPM CBOK. || Empresa .....:  Icon</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>82865</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>ANALISTA DE SEGURANÇA DA INFORMAÇÃO PL</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Analista de Segurança da Informação Pleno  Requisitos e Qualificações Formação : Graduação completa em Redes, Tecnologia da Informação, Cibersegurança ou áreas correlatas.  Idiomas : Inglês  Habilidades Técnicas Diagnosticar e resolver problemas de segurança nos ambientes dos clientes. Realizar análises de logs e identificar padrões para prevenir incidentes. Atuar com equipes internas para implementar upgrades e novas configurações. Acompanhar SLAs, documentar atendimentos e garantir cumprimento dos padrões. Capacidade de realizar treinamentos e capacitações para clientes e parceiros. Forte habilidade em análise de logs, detecção de vulnerabilidades e automação. Experiência com ferramentas como firewalls, IDS/IPS, DLP e antivírus. Sólido conhecimento em infraestrutura: Windows Server, Linux, gestão de acessos, AD, DHCP, DNS, GPO, NAT, file server, terminal server, SQL Server, virtualização e cloud. Conhecimento intermediário em Microsoft SQL Server.
+Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || ANALISTA DE SEGURANÇA DA INFORMAÇÃO PL || Analista de Segurança da Informação Pleno  Requisitos e Qualificações Formação : Graduação completa em Redes, Tecnologia da Informação, Cibersegurança ou áreas correlatas.  Idiomas : Inglês  Habilidades Técnicas Diagnosticar e resolver problemas de segurança nos ambientes dos clientes. Realizar análises de logs e identificar padrões para prevenir incidentes. Atuar com equipes internas para implementar upgrades e novas configurações. Acompanhar SLAs, documentar atendimentos e garantir cumprimento dos padrões. Capacidade de realizar treinamentos e capacitações para clientes e parceiros. Forte habilidade em análise de logs, detecção de vulnerabilidades e automação. Experiência com ferramentas como firewalls, IDS/IPS, DLP e antivírus. Sólido conhecimento em infraestrutura: Windows Server, Linux, gestão de acessos, AD, DHCP, DNS, GPO, NAT, file server, terminal server, SQL Server, virtualização e cloud. Conhecimento intermediário em Microsoft SQL Server. || Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>82747</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Analista de Segurança da Informação Sênior</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Requisitos Domínio em gestão de riscos, incidentes e vulnerabilidades. Conhecimento avançado de redes, protocolos, arquitetura e modelos de segurança. Experiência com Azure (Microsoft M365) e AWS em contexto de segurança. Vivência com ferramentas SIEM, EDR/XDR e soluções de proteção de endpoint. Entendimento de LGPD e compliance regulatório aplicável. Experiência com IAM, políticas e controles de acesso.  Responsabilidades Liderar iniciativas de segurança, frameworks de mercado (NIST, CIS, LGPD). Conduzir avaliações de risco, análises de vulnerabilidade e propor planos de mitigação eficazes. Realizar Patch Management no Ambiente afim de mitigar vulnerabilidades. Coordenar investigações e resposta a incidentes de segurança de de ponta a ponta. Desenvolver, revisar e reforçar políticas, padrões e procedimentos de SI. Monitorar eventos e ameaças em ferramentas de SIEM/SOC. Realizar hardening de sistemas, aplicações, redes e ambientes cloud. Gerir identidade e acesso (IAM).
+Empresa .....:  TailorIT</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Analista de Segurança da Informação Sênior || Requisitos Domínio em gestão de riscos, incidentes e vulnerabilidades. Conhecimento avançado de redes, protocolos, arquitetura e modelos de segurança. Experiência com Azure (Microsoft M365) e AWS em contexto de segurança. Vivência com ferramentas SIEM, EDR/XDR e soluções de proteção de endpoint. Entendimento de LGPD e compliance regulatório aplicável. Experiência com IAM, políticas e controles de acesso.  Responsabilidades Liderar iniciativas de segurança, frameworks de mercado (NIST, CIS, LGPD). Conduzir avaliações de risco, análises de vulnerabilidade e propor planos de mitigação eficazes. Realizar Patch Management no Ambiente afim de mitigar vulnerabilidades. Coordenar investigações e resposta a incidentes de segurança de de ponta a ponta. Desenvolver, revisar e reforçar políticas, padrões e procedimentos de SI. Monitorar eventos e ameaças em ferramentas de SIEM/SOC. Realizar hardening de sistemas, aplicações, redes e ambientes cloud. Gerir identidade e acesso (IAM). || Empresa .....:  TailorIT</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>82822</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Analista de Sistemas Inteligência Artificial p/ BI</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Requisitos:  Atuar no desenvolvimento e integração de soluções de IA (incluindo IA Generativa) aplicadas à área de dados e Business Intelligence, garantindo governança, escalabilidade e alinhamento às diretrizes corporativas. O profissional será responsável por transformar dados em insights estratégicos, automatizar processos analíticos e potencializar a tomada de decisão com tecnologias avançadas.  Contratação CLT Híbrido 1 vz SP
+Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Analista de Sistemas Inteligência Artificial p/ BI || Requisitos:  Atuar no desenvolvimento e integração de soluções de IA (incluindo IA Generativa) aplicadas à área de dados e Business Intelligence, garantindo governança, escalabilidade e alinhamento às diretrizes corporativas. O profissional será responsável por transformar dados em insights estratégicos, automatizar processos analíticos e potencializar a tomada de decisão com tecnologias avançadas.  Contratação CLT Híbrido 1 vz SP || Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>83297</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Assistente de Infraestrutura - Presencial</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Procuramos um(a) Assistente de Infraestrutura para atuar em São Paulo, SP, em um cargo presencial e de tempo integral.  Experiência Técnica: - Linux Server - Básico de Telecom (Switches, Roteadores, Vlan, Link de Dados) - Virtualização (Hyper-V / Vmware) - Ferramentas de backup: Veeam - Ferramentas de monitoramento - Telefonia VOIP - Administração de Storage / servidores Blades - Suporte a sistemas operacionais e redes - Manutenção e Instalação de Softwares, Hardwares e Impressoras e - Atendimento Field, Microinformática, infraestrutura básica, gestão de chamados.  Local: Avenida Paulista – SP ( e duas vezes por mês em Alphaville ) Modelo: Totalmente Presencial  Somente Candidatos com Pretensão Salarial CLT serão avaliados.
+Empresa .....:  Endereco Fiscal LTDA</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Assistente de Infraestrutura - Presencial || Procuramos um(a) Assistente de Infraestrutura para atuar em São Paulo, SP, em um cargo presencial e de tempo integral.  Experiência Técnica: - Linux Server - Básico de Telecom (Switches, Roteadores, Vlan, Link de Dados) - Virtualização (Hyper-V / Vmware) - Ferramentas de backup: Veeam - Ferramentas de monitoramento - Telefonia VOIP - Administração de Storage / servidores Blades - Suporte a sistemas operacionais e redes - Manutenção e Instalação de Softwares, Hardwares e Impressoras e - Atendimento Field, Microinformática, infraestrutura básica, gestão de chamados.  Local: Avenida Paulista – SP ( e duas vezes por mês em Alphaville ) Modelo: Totalmente Presencial  Somente Candidatos com Pretensão Salarial CLT serão avaliados. || Empresa .....:  Endereco Fiscal LTDA</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>82972</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Desenvolvedor .NET Core Sr</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Somos uma empresa de tecnologia em rápido crescimento, atuando no segmento de soluções corporativas para o setor financeiro.  Responsabilidades Desenvolver e aprimorar serviços em .NET 8 e C#. Projetar e otimizar bancos de dados SQL Server e Azure SQL Participar de revisões de código, testes unitários e integração contínua Colaborar com equipes multifuncionais em metodologias ágeis Documentar soluções e manter boas práticas de desenvolvimento  Requisitos e qualificações Graduação em Ciência da Computação, Engenharia de Software ou áreas afins Experiência com desenvolvimento em .NET Core Domínio de C# e arquitetura de microserviços Experiência comprovada com SQL Server e modelagem de dados Conhecimento em Microsoft Visual Studio e GitHub/ Github actions. Facilidade em propor soluções técnicas e não apenas executá-las.  4x presencial e 1x remoto na semana, modelo CLT
+Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Desenvolvedor .NET Core Sr || Somos uma empresa de tecnologia em rápido crescimento, atuando no segmento de soluções corporativas para o setor financeiro.  Responsabilidades Desenvolver e aprimorar serviços em .NET 8 e C#. Projetar e otimizar bancos de dados SQL Server e Azure SQL Participar de revisões de código, testes unitários e integração contínua Colaborar com equipes multifuncionais em metodologias ágeis Documentar soluções e manter boas práticas de desenvolvimento  Requisitos e qualificações Graduação em Ciência da Computação, Engenharia de Software ou áreas afins Experiência com desenvolvimento em .NET Core Domínio de C# e arquitetura de microserviços Experiência comprovada com SQL Server e modelagem de dados Conhecimento em Microsoft Visual Studio e GitHub/ Github actions. Facilidade em propor soluções técnicas e não apenas executá-las.  4x presencial e 1x remoto na semana, modelo CLT || Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>81764</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR JAVA - INGLÊS - HÍBRIDO SP</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT + Benefícios  Horário de Trabalho: Das 09hs às 18hs  Requisitos: - Superior completo na área de tecnologia - INGLÊS AVANÇADO (MANDATÓRIO, INTERAÇÃO COM TIME GLOBAL) - Experiência em Java versão 21 - Experiência prática em desenvolvimento de aplicações Java, incluindo conhecimento em frameworks como Spring boot, Hibernate - Experiência em banco de dados SQL, MongoDB - Experiência na criação e consumo de APIs RESTful, garantindo a comunicação eficiente entre o front-end e o back-end. - Vivência com Git para controle de versão e colaboração em projetos de desenvolvimento. - Experiência em testes automatizados, utilizando frameworks como JUnit ou Mockito, para garantir a qualidade do código.  Escopo: será detalhado em entrevista técnica
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || DESENVOLVEDOR JAVA - INGLÊS - HÍBRIDO SP || ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT + Benefícios  Horário de Trabalho: Das 09hs às 18hs  Requisitos: - Superior completo na área de tecnologia - INGLÊS AVANÇADO (MANDATÓRIO, INTERAÇÃO COM TIME GLOBAL) - Experiência em Java versão 21 - Experiência prática em desenvolvimento de aplicações Java, incluindo conhecimento em frameworks como Spring boot, Hibernate - Experiência em banco de dados SQL, MongoDB - Experiência na criação e consumo de APIs RESTful, garantindo a comunicação eficiente entre o front-end e o back-end. - Vivência com Git para controle de versão e colaboração em projetos de desenvolvimento. - Experiência em testes automatizados, utilizando frameworks como JUnit ou Mockito, para garantir a qualidade do código.  Escopo: será detalhado em entrevista técnica || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>81731</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Python Senior - IA</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Atividades: Desenvolver e manter chatbots inteligentes integrados a WhatsApp Projetar, treinar e otimizar modelos de NLP e LLMs Integrar soluções de IA com APIs externas, CRMs e bancos de dados. Implementar arquiteturas como RAG Garantir a escalabilidade, segurança e performance das soluções de IA.  Requisitos: Python Experiência prática com frameworks de IA (LangChain, LangFuse, CrewAI ou similares). Conhecimento em NLP, embeddings e bancos de dados vetoriais. Experiência em consumo e desenvolvimento de APIs RESTful (FastAPI, Flask, etc.). Experiência com chatbots (WhatsApp Cloud API, Z-API, Gupshup, Twilio). Git, testes automatizados, CI/CD, versionamento de código. Bancos de dados relacionais e não relacionais.  Contrato: PJ ou CLT Local de trabalho: Tatuapé, SP (Presencial)
+Empresa .....:  Grupo Qualiconsig</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Desenvolvedor Python Senior - IA || Atividades: Desenvolver e manter chatbots inteligentes integrados a WhatsApp Projetar, treinar e otimizar modelos de NLP e LLMs Integrar soluções de IA com APIs externas, CRMs e bancos de dados. Implementar arquiteturas como RAG Garantir a escalabilidade, segurança e performance das soluções de IA.  Requisitos: Python Experiência prática com frameworks de IA (LangChain, LangFuse, CrewAI ou similares). Conhecimento em NLP, embeddings e bancos de dados vetoriais. Experiência em consumo e desenvolvimento de APIs RESTful (FastAPI, Flask, etc.). Experiência com chatbots (WhatsApp Cloud API, Z-API, Gupshup, Twilio). Git, testes automatizados, CI/CD, versionamento de código. Bancos de dados relacionais e não relacionais.  Contrato: PJ ou CLT Local de trabalho: Tatuapé, SP (Presencial) || Empresa .....:  Grupo Qualiconsig</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>81737</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Web Sr - (Prazo determinado)</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Estamos procurando um profissional de TI experiente e motivado para se juntar à nossa equipe como Desenvolvedor Web Se você é um especialista em CMS (Drupal, Wordpress e/ou Plone) e está procurando por um desafio que combine desenvolvimento, inovação e tecnologia, essa é a oportunidade certa para você. Atuará no desenvolvimento de novas funcionalidades, integração com sistemas legados, otimização de fluxos de trabalho e suporte técnico avançado.
+Empresa .....:  FUNDASP</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Desenvolvedor Web Sr - (Prazo determinado) || Estamos procurando um profissional de TI experiente e motivado para se juntar à nossa equipe como Desenvolvedor Web Se você é um especialista em CMS (Drupal, Wordpress e/ou Plone) e está procurando por um desafio que combine desenvolvimento, inovação e tecnologia, essa é a oportunidade certa para você. Atuará no desenvolvimento de novas funcionalidades, integração com sistemas legados, otimização de fluxos de trabalho e suporte técnico avançado. || Empresa .....:  FUNDASP</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>82146</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Segurança Cibernética Sr - Presencial SP</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Analista de Segurança Cibernética Sênior PRESENCIAL EM SP ( Não negociável) Bairro: Bela Vista - SP Efetivo CLT + Benefícios  Trata-se de uma oportunidade Efetiva, contratação CLT direta do meu cliente  Experiência sólida em modelagem de ameaças e análise de riscos em sistemas complexos Capacidade de entender fluxos de negócio, jornadas de usuário, integrações e perfis de acesso Conhecimento em revisão de código seguro nas linguagens: Python, JavaScript, C#, Java Experiência em análise de segurança de APIs REST e GraphQL Domínio de ferramentas de segurança: SAST, DAST, SCA Vivência com aplicações legadas e modernas Conhecimento em DevOps e integração de segurança nas esteiras: Jenkins, GitLab CI/CD, Azure DevOps, Docker, Kubernetes, Terraform  Familiaridade com frameworks e guias de segurança: OWASP SAMM/ASVS/MASVS, NIST SSDF, CIS Benchmarks, STRIDE, PASTA, MITRE ATTCK (para modelagem de ameaças).
+Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Segurança Cibernética Sr - Presencial SP || Analista de Segurança Cibernética Sênior PRESENCIAL EM SP ( Não negociável) Bairro: Bela Vista - SP Efetivo CLT + Benefícios  Trata-se de uma oportunidade Efetiva, contratação CLT direta do meu cliente  Experiência sólida em modelagem de ameaças e análise de riscos em sistemas complexos Capacidade de entender fluxos de negócio, jornadas de usuário, integrações e perfis de acesso Conhecimento em revisão de código seguro nas linguagens: Python, JavaScript, C#, Java Experiência em análise de segurança de APIs REST e GraphQL Domínio de ferramentas de segurança: SAST, DAST, SCA Vivência com aplicações legadas e modernas Conhecimento em DevOps e integração de segurança nas esteiras: Jenkins, GitLab CI/CD, Azure DevOps, Docker, Kubernetes, Terraform  Familiaridade com frameworks e guias de segurança: OWASP SAMM/ASVS/MASVS, NIST SSDF, CIS Benchmarks, STRIDE, PASTA, MITRE ATTCK (para modelagem de ameaças). || Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>82969</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Técnico de Bancada</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Buscamos um Técnico de Bancada organizado, analítico e comprometido com a qualidade técnica para atuar no diagnóstico, manutenção e reparo de equipamentos em bancada. Esse profissional será essencial para garantir o pleno funcionamento dos dispositivos, seguindo padrões técnicos, prazos e boas práticas.  Responsabilidades: Realizar diagnóstico técnico executar manutenções preventivas e corretivas identificar falhas e realizar reparos com precisão testar equipamentos após manutenção registrar ordens de serviço e laudos manter a organização da bancada, ferramentas e ambiente apoiar o time técnico quando necessário Utilizar sistema Salesforce.  Benefícios: VR de R$ 32,50/dia VT creditado em conta Convênio médico e odontológico (após período de experiência) Pix de aniversário Convênio com o SESC  * Presencial (não trabalhamos com home office) * Jornada: 44 horas semanais
+Empresa .....:  Dunker It</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 19/01/26 || Técnico de Bancada || Buscamos um Técnico de Bancada organizado, analítico e comprometido com a qualidade técnica para atuar no diagnóstico, manutenção e reparo de equipamentos em bancada. Esse profissional será essencial para garantir o pleno funcionamento dos dispositivos, seguindo padrões técnicos, prazos e boas práticas.  Responsabilidades: Realizar diagnóstico técnico executar manutenções preventivas e corretivas identificar falhas e realizar reparos com precisão testar equipamentos após manutenção registrar ordens de serviço e laudos manter a organização da bancada, ferramentas e ambiente apoiar o time técnico quando necessário Utilizar sistema Salesforce.  Benefícios: VR de R$ 32,50/dia VT creditado em conta Convênio médico e odontológico (após período de experiência) Pix de aniversário Convênio com o SESC  * Presencial (não trabalhamos com home office) * Jornada: 44 horas semanais || Empresa .....:  Dunker It</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>82928</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Desenvolvedor .Net Pleno</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Belo Horizonte - MG - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) .NET Pleno – Sustentação e Melhorias  Estamos em busca de uma Desenvolvedor(a) .NET Pleno para atuar em sustentação e evolução de sistemas de um cliente, realizando melhorias contínuas, correções e implementações em aplicações desktop, web e mobile. A atuação será em um ambiente ágil, com foco em qualidade, estabilidade e evolução técnica das soluções existentes.  Principais responsabilidades •	Atuar na sustentação de sistemas, realizando correções e melhorias •	Desenvolver e evoluir aplicações desktop, web e mobile •	Trabalhar com C# e .NET no desenvolvimento de soluções •	Desenvolver interfaces utilizando WPF •	Criar, otimizar e manter consultas e rotinas em SQL •	Atuar em conjunto com o time para análise de demandas e propostas de melhoria •	Utilizar GitHub para versionamento e controle de código •	Participar de cerimônias ágeis e colaborar com boas práticas de desenvolvimento.
+Empresa .....:  Plus It</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Belo Horizonte - MG - 17/01/26 || Desenvolvedor .Net Pleno || Desenvolvedor(a) .NET Pleno – Sustentação e Melhorias  Estamos em busca de uma Desenvolvedor(a) .NET Pleno para atuar em sustentação e evolução de sistemas de um cliente, realizando melhorias contínuas, correções e implementações em aplicações desktop, web e mobile. A atuação será em um ambiente ágil, com foco em qualidade, estabilidade e evolução técnica das soluções existentes.  Principais responsabilidades •	Atuar na sustentação de sistemas, realizando correções e melhorias •	Desenvolver e evoluir aplicações desktop, web e mobile •	Trabalhar com C# e .NET no desenvolvimento de soluções •	Desenvolver interfaces utilizando WPF •	Criar, otimizar e manter consultas e rotinas em SQL •	Atuar em conjunto com o time para análise de demandas e propostas de melhoria •	Utilizar GitHub para versionamento e controle de código •	Participar de cerimônias ágeis e colaborar com boas práticas de desenvolvimento. || Empresa .....:  Plus It</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>83290</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Head de Produto  Tecnologia</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Blumenau - SC - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>O que você irá fazer - Conduzir a estratégia e evolução de produtos digitais com aplicação de IA - Atuar de forma próxima ao cliente, entendendo profundamente a sua jornada - Identificar oportunidades de automação, OCR e redução de esforço operacional - Liderar a priorização do backlog, garantindo foco em valor e impacto - Coordenar o desenvolvimento dos produtos junto ao time técnico - Desenvolver e estruturar o time, identificando gaps e fortalecendo a cultura de produto - Conduzir rituais ágeis, incluindo dailys, alinhamentos estratégicos e acompanhamento de KPIs - Levar insights de mercado, tendências e diferenciais competitivos para o roadmap - Garantir que as soluções entreguem segurança jurídica, confiabilidade e escalabilidade.  Requisitos - Especialização em Gestão de Projetos ou áreas afins. - Experiência sólida em produto digital B2B, preferencialmente em ambientes SaaS ou ERP. - Vivência em escrita, especificação de requisitos e organização do backlog.
+Empresa .....:  KeepTalent</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Blumenau - SC - 17/01/26 || Head de Produto  Tecnologia || O que você irá fazer - Conduzir a estratégia e evolução de produtos digitais com aplicação de IA - Atuar de forma próxima ao cliente, entendendo profundamente a sua jornada - Identificar oportunidades de automação, OCR e redução de esforço operacional - Liderar a priorização do backlog, garantindo foco em valor e impacto - Coordenar o desenvolvimento dos produtos junto ao time técnico - Desenvolver e estruturar o time, identificando gaps e fortalecendo a cultura de produto - Conduzir rituais ágeis, incluindo dailys, alinhamentos estratégicos e acompanhamento de KPIs - Levar insights de mercado, tendências e diferenciais competitivos para o roadmap - Garantir que as soluções entreguem segurança jurídica, confiabilidade e escalabilidade.  Requisitos - Especialização em Gestão de Projetos ou áreas afins. - Experiência sólida em produto digital B2B, preferencialmente em ambientes SaaS ou ERP. - Vivência em escrita, especificação de requisitos e organização do backlog. || Empresa .....:  KeepTalent</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>83295</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>ANALISTA DE DADOS</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Atividades: Cadastro e atta de dados técnicos de veículos projeção da frota circulante no BR análise de perda total e estudos de frota apoio ao time de Mkt com dados técnicos geração de relatórios de vendas e frota análises automotivas internas e externas análise de performance de produtos desenvolvimento de dashboards no Power BI identificação de padrões e oportunidades transformação de dados em insights de negócio apoio na definição de KPIs melhoria e automação de processos de dados.  Requisitos Técnicos: Superior completo ou cursando Power BI avançado Excel com Power Query SQL básico/intermediário noções de Python ou R (diferencial) interpretação de dados com foco em IA supervisionada. Desejável certificações em BI, SQL ou análise de dados.  Condições: Seg–Sex, 8h30 às 17h30, modelo híbrido (2x home office) Local: Vila Industrial – Campinas/SP  Faixa salarial: R$ 6.500 a R$ 7.000 (PJ)  Benefícios: Plano de saúde (reembolso), VT, Wellhub, ass psicológica, etc
+Empresa .....:  SOMNIS CONSULTING</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 17/01/26 || ANALISTA DE DADOS || Atividades: Cadastro e atta de dados técnicos de veículos projeção da frota circulante no BR análise de perda total e estudos de frota apoio ao time de Mkt com dados técnicos geração de relatórios de vendas e frota análises automotivas internas e externas análise de performance de produtos desenvolvimento de dashboards no Power BI identificação de padrões e oportunidades transformação de dados em insights de negócio apoio na definição de KPIs melhoria e automação de processos de dados.  Requisitos Técnicos: Superior completo ou cursando Power BI avançado Excel com Power Query SQL básico/intermediário noções de Python ou R (diferencial) interpretação de dados com foco em IA supervisionada. Desejável certificações em BI, SQL ou análise de dados.  Condições: Seg–Sex, 8h30 às 17h30, modelo híbrido (2x home office) Local: Vila Industrial – Campinas/SP  Faixa salarial: R$ 6.500 a R$ 7.000 (PJ)  Benefícios: Plano de saúde (reembolso), VT, Wellhub, ass psicológica, etc || Empresa .....:  SOMNIS CONSULTING</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>83294</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Atividades: Desenvolvimento e manutenção de APIs REST e GraphQL participação em decisões arquiteturais modelagem e uso de bancos SQL e NoSQL atuação em ambientes containerizados com Kubernetes integração de sistemas via mensageria code reviews refatorações e melhorias técnicas colaboração com times de Produto, Arquitetura e DevOps apoio técnico ao time.  Requisitos: C#/.NET, APIs REST e GraphQL, padrões de projeto (Factory, Strategy, Repository, Builder), Clean Architecture e SOLID, bancos SQL (PostgreSQL, SQL Server, MySQL) e NoSQL (MongoDB, Redis, DynamoDB), Git, CI/CD e experiência em produção.  Requisitos Comportamentais: Proatividade, aprendizado contínuo, boa comunicação, organização, responsabilidade e foco em qualidade.  Condições: Seg–Sex, 8h30 às 17h30, modelo híbrido (2x home office). Local: Vila Industrial – Campinas/SP. Salário: R$11.000 - R$13.000 (PJ)  Benefícios: Plano de saúde (reembolso), seguro de vida, VT, Wellhub, assistência psicológica.
+Empresa .....:  SOMNIS CONSULTING</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 17/01/26 || DESENVOLVEDOR || Atividades: Desenvolvimento e manutenção de APIs REST e GraphQL participação em decisões arquiteturais modelagem e uso de bancos SQL e NoSQL atuação em ambientes containerizados com Kubernetes integração de sistemas via mensageria code reviews refatorações e melhorias técnicas colaboração com times de Produto, Arquitetura e DevOps apoio técnico ao time.  Requisitos: C#/.NET, APIs REST e GraphQL, padrões de projeto (Factory, Strategy, Repository, Builder), Clean Architecture e SOLID, bancos SQL (PostgreSQL, SQL Server, MySQL) e NoSQL (MongoDB, Redis, DynamoDB), Git, CI/CD e experiência em produção.  Requisitos Comportamentais: Proatividade, aprendizado contínuo, boa comunicação, organização, responsabilidade e foco em qualidade.  Condições: Seg–Sex, 8h30 às 17h30, modelo híbrido (2x home office). Local: Vila Industrial – Campinas/SP. Salário: R$11.000 - R$13.000 (PJ)  Benefícios: Plano de saúde (reembolso), seguro de vida, VT, Wellhub, assistência psicológica. || Empresa .....:  SOMNIS CONSULTING</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>82645</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Analista de Requisitos Pleno</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Oportunidade: Analista de Requisitos Pleno  Modelo: Presencial Flexível em Curitiba/PR Contratação: PJ + TotalPass + Alura Horário: Comercial  Dia a Dia: • Levantar e detalhar requisitos funcionais e não funcionais com as áreas de negócio • Mapear processos, propor melhorias e apoiar o desenvolvimento de soluções em ERP/CRM • Elaborar user stories, casos de uso, documentos funcionais e fluxogramas • Garantir rastreabilidade dos requisitos e apoiar a validação/homologação do software • Facilitar a comunicação entre equipes técnicas e de negócio  Requisitos • Experiência como Analista de Requisitos (+2 anos) • Imprescindível ter trabalhado em projetos de ERP • Domínio em levantamento e análise de requisitos • Vivência em Scrum/Kanban • Experiência com BPMN ou UML • Experiência com ClickUp, Jira ou Azure DevOps  Você vai se destacar se tiver: • SQL/PLSQL e análise de dados • Certificações (IREB, CPRE, BABOK ou Product Owner) • Ensino superior completo em TI
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 17/01/26 || Analista de Requisitos Pleno || Oportunidade: Analista de Requisitos Pleno  Modelo: Presencial Flexível em Curitiba/PR Contratação: PJ + TotalPass + Alura Horário: Comercial  Dia a Dia: • Levantar e detalhar requisitos funcionais e não funcionais com as áreas de negócio • Mapear processos, propor melhorias e apoiar o desenvolvimento de soluções em ERP/CRM • Elaborar user stories, casos de uso, documentos funcionais e fluxogramas • Garantir rastreabilidade dos requisitos e apoiar a validação/homologação do software • Facilitar a comunicação entre equipes técnicas e de negócio  Requisitos • Experiência como Analista de Requisitos (+2 anos) • Imprescindível ter trabalhado em projetos de ERP • Domínio em levantamento e análise de requisitos • Vivência em Scrum/Kanban • Experiência com BPMN ou UML • Experiência com ClickUp, Jira ou Azure DevOps  Você vai se destacar se tiver: • SQL/PLSQL e análise de dados • Certificações (IREB, CPRE, BABOK ou Product Owner) • Ensino superior completo em TI || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>81895</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Backend Sr - Curitiba</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Requisitos: Experiência prática com C# e .NET (Core/7/8) em projetos de médio e grande porte Experiência comprovada no desenvolvimento de APIs REST com ASP.NET Core Vivência em arquitetura de software aplicando DDD, SOLID, Clean Architecture e design patterns Atuação com Entity Framework Core e Postgree, incluindo modelagem de dados e performance tuning Experiência com testes automatizados (unitários e integrados) Conhecimento em Docker e integração de pipelines de CI/CD (Azure DevOps, GitHub Actions ou similares) Integração com mensageria (RabbitMQ, Kafka) e serviços externos Vivência em metodologias ágeis (Scrum/Kanban) Experiencia em Microsserviços Noções de front-end (react/Angular) para integração fullstack.
+Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 17/01/26 || Desenvolvedor Backend Sr - Curitiba || Requisitos: Experiência prática com C# e .NET (Core/7/8) em projetos de médio e grande porte Experiência comprovada no desenvolvimento de APIs REST com ASP.NET Core Vivência em arquitetura de software aplicando DDD, SOLID, Clean Architecture e design patterns Atuação com Entity Framework Core e Postgree, incluindo modelagem de dados e performance tuning Experiência com testes automatizados (unitários e integrados) Conhecimento em Docker e integração de pipelines de CI/CD (Azure DevOps, GitHub Actions ou similares) Integração com mensageria (RabbitMQ, Kafka) e serviços externos Vivência em metodologias ágeis (Scrum/Kanban) Experiencia em Microsserviços Noções de front-end (react/Angular) para integração fullstack. || Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>82370</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) .NET Pleno</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Buscamos profissional para atuar no desenvolvimento e manutenção de aplicações e serviços em C# / .NET Core e .NET Framework, colaborando com arquitetos e analistas de negócio. Necessário mínimo de 3 anos de experiência, sólidos conhecimentos em POO, SOLID, SQL (SQL Server, PostgreSQL, Oracle ou MySQL), APIs REST e SOAP, Entity Framework, GIT e metodologias ágeis (Scrum/Kanban).  Modelo: Híbrido – 3x remoto e 2x presencial Local: Curitiba – PR Contratação: CLT Horário: Segunda a sexta, horário comercial  Benefícios: Alimentação R$970,00 + Plano de saúde e odontológico + PLR + VT Diferenciais: Docker, DDD, AWS, DevOps, CI/CD, segurança de software, React, Angular, Flutter Vaga também disponível para PcD.
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 17/01/26 || Desenvolvedor(a) .NET Pleno || Buscamos profissional para atuar no desenvolvimento e manutenção de aplicações e serviços em C# / .NET Core e .NET Framework, colaborando com arquitetos e analistas de negócio. Necessário mínimo de 3 anos de experiência, sólidos conhecimentos em POO, SOLID, SQL (SQL Server, PostgreSQL, Oracle ou MySQL), APIs REST e SOAP, Entity Framework, GIT e metodologias ágeis (Scrum/Kanban).  Modelo: Híbrido – 3x remoto e 2x presencial Local: Curitiba – PR Contratação: CLT Horário: Segunda a sexta, horário comercial  Benefícios: Alimentação R$970,00 + Plano de saúde e odontológico + PLR + VT Diferenciais: Docker, DDD, AWS, DevOps, CI/CD, segurança de software, React, Angular, Flutter Vaga também disponível para PcD. || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>82669</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Analista Protheus – Nível Pleno</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Local: Guarulhos (Centro) – SP Modelo: Presencial Salário: Pretensão salarial a combinar  Descrição da Vaga: Buscamos um Analista Protheus Pleno com sólida experiência nos principais módulos do ERP, capaz de atuar em análises, parametrizações, suporte funcional e acompanhamento de rotinas internas. O profissional trabalhará em conjunto com as áreas usuárias, garantindo fluidez nos processos e evolução contínua do sistema.  Responsabilidades: Atuar nos módulos: Compras, Faturamento, Estoque, Financeiro e Contabilidade. Realizar análises funcionais, levantamento de requisitos e suporte aos usuários. Parametrizar, ajustar e acompanhar processos dentro do Protheus. Apoiar em testes, homologações e implementação de melhorias. Conhecimento em rotinas, integrações e parametrizações do Protheus.  Desejável: Conhecimento no módulo Configurador. Conhecimento em comandos SQL. Noções ou experiência em desenvolvimento ADVPL.
+Empresa .....:  Gestão Dinâmica Tecnologia</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 17/01/26 || Analista Protheus – Nível Pleno || Local: Guarulhos (Centro) – SP Modelo: Presencial Salário: Pretensão salarial a combinar  Descrição da Vaga: Buscamos um Analista Protheus Pleno com sólida experiência nos principais módulos do ERP, capaz de atuar em análises, parametrizações, suporte funcional e acompanhamento de rotinas internas. O profissional trabalhará em conjunto com as áreas usuárias, garantindo fluidez nos processos e evolução contínua do sistema.  Responsabilidades: Atuar nos módulos: Compras, Faturamento, Estoque, Financeiro e Contabilidade. Realizar análises funcionais, levantamento de requisitos e suporte aos usuários. Parametrizar, ajustar e acompanhar processos dentro do Protheus. Apoiar em testes, homologações e implementação de melhorias. Conhecimento em rotinas, integrações e parametrizações do Protheus.  Desejável: Conhecimento no módulo Configurador. Conhecimento em comandos SQL. Noções ou experiência em desenvolvimento ADVPL. || Empresa .....:  Gestão Dinâmica Tecnologia</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>81897</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Analista de Estatistica Sênior</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Requisitos Indispensáveis:  Graduação em curso de nível superior em Estatística acompanhado de certificado de curso de pós-graduação (especialização, mestrado ou doutorado) na área de estatística, matemática ou correlata de, no mínimo, 360 horas. SAS (SAS Enterprise Guide, SAS Enterprise Miner, SAS Forecast Studio) Mínimo de 5 anos de experiênciaem projetos SAS.  Requisitos Desejáveis: Statistics / SAS Enterprise Guide: ANOVA, Regression, and Logistic Regression Predictive Modeling Using Logistic Regression Applied Analytics Using SAS Enterprise Miner Advanced Predictive Modeling Using SAS Enterprise Miner Forecasting Using SAS Forecast Server Software Using SAS High-Performance Forecasting Software.#8203  Atividades / Responsabilidades: Profissional capacitado para preparar dados, realizar e interpretar análises estatísticas, bem como construir segmentações e modelos através das ferramentas analíticas do SAS
+Empresa .....:  TO Brasil Ltda</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Analista de Estatistica Sênior || Requisitos Indispensáveis:  Graduação em curso de nível superior em Estatística acompanhado de certificado de curso de pós-graduação (especialização, mestrado ou doutorado) na área de estatística, matemática ou correlata de, no mínimo, 360 horas. SAS (SAS Enterprise Guide, SAS Enterprise Miner, SAS Forecast Studio) Mínimo de 5 anos de experiênciaem projetos SAS.  Requisitos Desejáveis: Statistics / SAS Enterprise Guide: ANOVA, Regression, and Logistic Regression Predictive Modeling Using Logistic Regression Applied Analytics Using SAS Enterprise Miner Advanced Predictive Modeling Using SAS Enterprise Miner Forecasting Using SAS Forecast Server Software Using SAS High-Performance Forecasting Software.#8203  Atividades / Responsabilidades: Profissional capacitado para preparar dados, realizar e interpretar análises estatísticas, bem como construir segmentações e modelos através das ferramentas analíticas do SAS || Empresa .....:  TO Brasil Ltda</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>82046</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Analista Programador Dynamics Sênior</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Descrição - Desenvolvimento de plugins em C# para Dynamics. - Criação e manutenção de Azure Functions para integração com OData do Dynamics. - Integração com Kafka e Service Bus. - Monitoramento e análise de logs em Application Insights. - Realização de troubleshooting e resolução de problemas. - Criação e automação de fluxos no Power Automate.  Requisitos - Graduação em Ciência da Computação ou áreas relacionadas - Experiência sólida em desenvolvimento C#. - Experiência sólida em Dynamics 365. - Experiência com Azure Functions e OData. - Experiência com Power Automate. - Experiência com JavaScript com SDK do Dynamics. - Conhecimento em programação, banco de dados e arquitetura de software. - Certificações na área de desenvolvimento de software serão um diferencial. - Capacidade de adaptação a diferentes cenários e trabalho em equipe.
+Empresa .....:  SYSMAP SOLUTIONS SOFTWARE E CONSULT LTDA</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Analista Programador Dynamics Sênior || Descrição - Desenvolvimento de plugins em C# para Dynamics. - Criação e manutenção de Azure Functions para integração com OData do Dynamics. - Integração com Kafka e Service Bus. - Monitoramento e análise de logs em Application Insights. - Realização de troubleshooting e resolução de problemas. - Criação e automação de fluxos no Power Automate.  Requisitos - Graduação em Ciência da Computação ou áreas relacionadas - Experiência sólida em desenvolvimento C#. - Experiência sólida em Dynamics 365. - Experiência com Azure Functions e OData. - Experiência com Power Automate. - Experiência com JavaScript com SDK do Dynamics. - Conhecimento em programação, banco de dados e arquitetura de software. - Certificações na área de desenvolvimento de software serão um diferencial. - Capacidade de adaptação a diferentes cenários e trabalho em equipe. || Empresa .....:  SYSMAP SOLUTIONS SOFTWARE E CONSULT LTDA</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>81975</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Consultor Engenheiro de Telecomunicações - Inglês</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Consultor Engenheiro(a) de Telecomunicações Preferencialmente São Paulo (1x por semana no escritório do cliente/ 4x remoto).  Também serão considerados profissionais de outras localidades:  Rio de Janeiro, Brasília, Belo Horizonte, Recife, Salvador, Porto Alegre, Blumenau, Campinas, Curitiba, Fortaleza e Ribeirão Preto.  Contrato de 6 meses com possibilidade de renovação.  •	Projetar, implementar e manter sistemas e infraestrutura de telecomunicações que suportem as operações de negócio. •	Colaborar com equipes multifuncionais para coletar requisitos e garantir que as soluções de telecom atendam às necessidades da organização. •	Monitorar e solucionar problemas em sistemas de voz, dados e vídeo, assegurando desempenho e confiabilidade. •	Fornecer suporte técnico e atuar na resolução de interrupções e incidentes de telecomunicações. •	Avaliar regularmente os sistemas de telecom e recomendar melhorias para otimização de desempenho e segurança.
+Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Consultor Engenheiro de Telecomunicações - Inglês || Consultor Engenheiro(a) de Telecomunicações Preferencialmente São Paulo (1x por semana no escritório do cliente/ 4x remoto).  Também serão considerados profissionais de outras localidades:  Rio de Janeiro, Brasília, Belo Horizonte, Recife, Salvador, Porto Alegre, Blumenau, Campinas, Curitiba, Fortaleza e Ribeirão Preto.  Contrato de 6 meses com possibilidade de renovação.  •	Projetar, implementar e manter sistemas e infraestrutura de telecomunicações que suportem as operações de negócio. •	Colaborar com equipes multifuncionais para coletar requisitos e garantir que as soluções de telecom atendam às necessidades da organização. •	Monitorar e solucionar problemas em sistemas de voz, dados e vídeo, assegurando desempenho e confiabilidade. •	Fornecer suporte técnico e atuar na resolução de interrupções e incidentes de telecomunicações. •	Avaliar regularmente os sistemas de telecom e recomendar melhorias para otimização de desempenho e segurança. || Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>82239</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Consultor QA/Teste (Azure) Com inglês</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Consultor QA (Azure)– inglês Totalmente remoto Inglês: Avançado/Fluente (Conversação em Inglês)  Importante: Para esse contrato específico, o início será em Janeiro de 2026.  O contrato de prestação de serviços abrange a responsabilidade de consultoria para atuar em um novo projeto de migração para a nuvem Azure, abrangendo a responsabilidade de  Testing com envolvimento direto em iniciativas de transformação digital e modernização de sistemas legados.  Requer ter atuado em contratos anteriores com: Testes em projetos de migração para nuvem Azure DevOps, Test Plans, e ferramentas de automação Projetos de  cloud migration e conhecimento sólido sobre os stacks de tecnologia Azure. Criar e executar planos e casos de teste para ambientes Azure Realizar testes funcionais, de regressão e de integração pós-migração Identificar, documentar e acompanhar defeitos até sua resolução Colaborar com analistas para garantir qualidade de entrega Automatizar testes quando aplicável
+Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Consultor QA/Teste (Azure) Com inglês || Consultor QA (Azure)– inglês Totalmente remoto Inglês: Avançado/Fluente (Conversação em Inglês)  Importante: Para esse contrato específico, o início será em Janeiro de 2026.  O contrato de prestação de serviços abrange a responsabilidade de consultoria para atuar em um novo projeto de migração para a nuvem Azure, abrangendo a responsabilidade de  Testing com envolvimento direto em iniciativas de transformação digital e modernização de sistemas legados.  Requer ter atuado em contratos anteriores com: Testes em projetos de migração para nuvem Azure DevOps, Test Plans, e ferramentas de automação Projetos de  cloud migration e conhecimento sólido sobre os stacks de tecnologia Azure. Criar e executar planos e casos de teste para ambientes Azure Realizar testes funcionais, de regressão e de integração pós-migração Identificar, documentar e acompanhar defeitos até sua resolução Colaborar com analistas para garantir qualidade de entrega Automatizar testes quando aplicável || Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>81769</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Consultor Tasy</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Consultor Tasy (Espanhol avançado)  Local: Remoto Prazo de atuação: 6 meses, com chances de prorrogar Atuação: PJ/hora aberta  Requisitos: Implementar as integrações existentes, realizar levantamento e análise de novas integrações Contatar clientes para compreender e executar suas demandas Realizar análise de requisitos técnicos e funcionais Elaborar documentação técnica e funcional Desenvolver relatórios e dashboards Criar templates e avaliações Acompanhar processos de personalização.  Ferramentas: PL/SQL: Insert, Update, Procedures, Functions, Packages Triggers e Jobs: Tasy Interface Engine (broker de interoperabilidade Tasy) Tasy, HTML5: EMR, portais Tasy: Portal do Paciente, Portal de Resultados, Portal Clinico e Aprovações Pendentes.
+Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Consultor Tasy || Consultor Tasy (Espanhol avançado)  Local: Remoto Prazo de atuação: 6 meses, com chances de prorrogar Atuação: PJ/hora aberta  Requisitos: Implementar as integrações existentes, realizar levantamento e análise de novas integrações Contatar clientes para compreender e executar suas demandas Realizar análise de requisitos técnicos e funcionais Elaborar documentação técnica e funcional Desenvolver relatórios e dashboards Criar templates e avaliações Acompanhar processos de personalização.  Ferramentas: PL/SQL: Insert, Update, Procedures, Functions, Packages Triggers e Jobs: Tasy Interface Engine (broker de interoperabilidade Tasy) Tasy, HTML5: EMR, portais Tasy: Portal do Paciente, Portal de Resultados, Portal Clinico e Aprovações Pendentes. || Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>82848</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Coordenador Segurança da Informação AWS</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Modelo: PJ + Benefícios Atuação: Totalmente Remoto Valor máximo da vaga: 20 K  Obrigatório ter atuado como coordenador de equipe de Segurança da Informação e ser especialista em AWS  Experiência consolidada em segurança da informação com foco em ambientes de nuvem AWS.  Vivência em coordenação de times e projetos de segurança, com foco em priorização e gestão de demandas.  Conhecimento de frameworks e benchmarks de segurança (CIS, NIST, ISO 27001, LGPD, GDPR).  Entendimento prático de ferramentas e serviços AWS relacionados à segurança (IAM, KMS, Security Hub, GuardDuty, CloudTrail, Config etc.), atuando mais na definição de diretrizes do que na execução.  Familiaridade com práticas de DevSecOps, CI/CD seguro e automação de políticas de segurança.  Capacidade de traduzir riscos técnicos em insumos de decisão para áreas executivas.  Excelente comunicação, habilidade de negociação e trabalho colaborativo entre áreas de negócio e tecnologia.
+Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Coordenador Segurança da Informação AWS || Modelo: PJ + Benefícios Atuação: Totalmente Remoto Valor máximo da vaga: 20 K  Obrigatório ter atuado como coordenador de equipe de Segurança da Informação e ser especialista em AWS  Experiência consolidada em segurança da informação com foco em ambientes de nuvem AWS.  Vivência em coordenação de times e projetos de segurança, com foco em priorização e gestão de demandas.  Conhecimento de frameworks e benchmarks de segurança (CIS, NIST, ISO 27001, LGPD, GDPR).  Entendimento prático de ferramentas e serviços AWS relacionados à segurança (IAM, KMS, Security Hub, GuardDuty, CloudTrail, Config etc.), atuando mais na definição de diretrizes do que na execução.  Familiaridade com práticas de DevSecOps, CI/CD seguro e automação de políticas de segurança.  Capacidade de traduzir riscos técnicos em insumos de decisão para áreas executivas.  Excelente comunicação, habilidade de negociação e trabalho colaborativo entre áreas de negócio e tecnologia. || Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>83287</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Fullstack – GO e Svelte - REMOTO</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Buscamos um profissional para desenvolver e manter aplicações web robustas e escaláveis usando Go e SvelteKit.  Conhecimento: •	GO com framework CHI •	Svelte/Sveltekit •	HTML, CSS e Javascript •	Conhecimento em Banco de Dados SQL e NoSQL •	Experiência com ferramentas de controle de versão como GIT •	Conhecimentos em testes automatizados como Testes unitários, testes de integração e Robot. •	APIs RESTful •	Pré-processadores como SASS ou LESS •	Jenkins •	Conhecimento em boas práticas e padronização de projetos.  O que esperamos de você: •	Cumprir os ritos do Scrum •	Colaborar como front-end e back-end para garantir requisitos claros e entregas de alta qualidade •	Escrever código limpo, testável, bem documentado e realizar revisões de código. •	Familiaridades com práticas de CI/CD e ferramentas associadas  Superior completo. Preferencialmemte na área da tecnologia.da informação.
+Empresa .....:  Hammer Consult</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Desenvolvedor Fullstack – GO e Svelte - REMOTO || Buscamos um profissional para desenvolver e manter aplicações web robustas e escaláveis usando Go e SvelteKit.  Conhecimento: •	GO com framework CHI •	Svelte/Sveltekit •	HTML, CSS e Javascript •	Conhecimento em Banco de Dados SQL e NoSQL •	Experiência com ferramentas de controle de versão como GIT •	Conhecimentos em testes automatizados como Testes unitários, testes de integração e Robot. •	APIs RESTful •	Pré-processadores como SASS ou LESS •	Jenkins •	Conhecimento em boas práticas e padronização de projetos.  O que esperamos de você: •	Cumprir os ritos do Scrum •	Colaborar como front-end e back-end para garantir requisitos claros e entregas de alta qualidade •	Escrever código limpo, testável, bem documentado e realizar revisões de código. •	Familiaridades com práticas de CI/CD e ferramentas associadas  Superior completo. Preferencialmemte na área da tecnologia.da informação. || Empresa .....:  Hammer Consult</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>82976</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Nodejs Sênior</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>- Desenvolver aplicações Backend em Node.Js com MongoDB e ORACLE - Desenvolver aplicações para ambientes CLOUD (AWS e GCP) - Desenvolverá sistemas voltados para estatística e cálculos com muito fluxo em ferramentas NoCode - O profissional realizará reuniões de refinamentos técnicos - O profissional atuará em sustentação e novos projetos  Requisitos Técnicos Obrigatórios - Desenvolvimento em Node.Js, JavaScript e APIs - Alto conhecimento em GCP - Conhecimento em AWS - GIT - ORACLE - MongoDB - Metodologia Ágil SCRUM e KANBAN - Manipulação de JSON - Alto conhecimento em Clean code - Alto conhecimento em aplicar Design Patterns em soluções - Visão ampla em Arquitetura de Sistemas - Conhecimentos em sistemas de filas (RabittMQ, entre outros) - Experiências em monitoramento de sistemas (Datadog, AppDynamic, Stack Elastic)  Diferenciais - Desenvolvimento em JAVA - Conhecimentos em Seguros de Automóveis - Conhecimentos em Node-RED  Home Office Contratação
+Empresa .....:  FORNAX CONSULTORIA EM INFORMATICA</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Desenvolvedor Nodejs Sênior || - Desenvolver aplicações Backend em Node.Js com MongoDB e ORACLE - Desenvolver aplicações para ambientes CLOUD (AWS e GCP) - Desenvolverá sistemas voltados para estatística e cálculos com muito fluxo em ferramentas NoCode - O profissional realizará reuniões de refinamentos técnicos - O profissional atuará em sustentação e novos projetos  Requisitos Técnicos Obrigatórios - Desenvolvimento em Node.Js, JavaScript e APIs - Alto conhecimento em GCP - Conhecimento em AWS - GIT - ORACLE - MongoDB - Metodologia Ágil SCRUM e KANBAN - Manipulação de JSON - Alto conhecimento em Clean code - Alto conhecimento em aplicar Design Patterns em soluções - Visão ampla em Arquitetura de Sistemas - Conhecimentos em sistemas de filas (RabittMQ, entre outros) - Experiências em monitoramento de sistemas (Datadog, AppDynamic, Stack Elastic)  Diferenciais - Desenvolvimento em JAVA - Conhecimentos em Seguros de Automóveis - Conhecimentos em Node-RED  Home Office Contratação || Empresa .....:  FORNAX CONSULTORIA EM INFORMATICA</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>82861</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Desenvolvedor React Native - Remoto</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Vaga Remota – PJ  Desenvolvedor React Native  Fulltime  Responsável pelo desenvolvimento e manutenção de aplicativos React Native para Android e iOS, atuando em soluções escaláveis e de alta performance. Requer experiência sólida em TypeScript, arquitetura de software, design patterns, algoritmos e estruturas de dados. Necessário domínio avançado em MongoDB (modelagem, otimização) e conhecimentos em Message Brokers (Pub/Sub). Atuação com práticas DevOps, CI/CD, segurança de aplicações, testes avançados e monitoramento. Desejável experiência em liderança técnica, code review, definição de padrões, decisões arquiteturais e mentoria de times. Formação superior em áreas de tecnologia e experiência mínima de 5 anos em desenvolvimento de software (ideal 6 a 7 anos).
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Desenvolvedor React Native - Remoto || Vaga Remota – PJ  Desenvolvedor React Native  Fulltime  Responsável pelo desenvolvimento e manutenção de aplicativos React Native para Android e iOS, atuando em soluções escaláveis e de alta performance. Requer experiência sólida em TypeScript, arquitetura de software, design patterns, algoritmos e estruturas de dados. Necessário domínio avançado em MongoDB (modelagem, otimização) e conhecimentos em Message Brokers (Pub/Sub). Atuação com práticas DevOps, CI/CD, segurança de aplicações, testes avançados e monitoramento. Desejável experiência em liderança técnica, code review, definição de padrões, decisões arquiteturais e mentoria de times. Formação superior em áreas de tecnologia e experiência mínima de 5 anos em desenvolvimento de software (ideal 6 a 7 anos). || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>82073</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Engenheiro de Integração</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>A 200DEV é uma consultoria de TI focada em Inovação e Transformação Digital, utilizando tecnologias de ponta e profissionais orientados a resultados.  Vaga: Engenheiro de Integração e Desenvolvimento de Infraestrutura  Habilidades obrigatórias Experiência comprovada com Terraform e Ansible (IAC) Proficiência em desenvolvimento orientado a objetos (Java, .NET) e em linguagem de script de alto nível (Python, Go, Bash, etc.). Vivência prática e sólida em serviços AWS (EC2, S3, Lambda, etc.). Expertise em integração de APIs (REST, SOAP) e protocolos de segurança relacionados. Conhecimento e experiência com sistemas como Prometheus, Grafana, CheckMK, Alert Manager, APIs de monitoramento, etc. Experiência em troubleshooting de alto nível, otimização de desempenho e implementação de prática  Idioma: Inglês Avançado (leitura, escrita e conversação).  Desejável: Experiência com IBM MQ e IBM Connect Direct (IBM CD) ou soluções equivalentes.
+Empresa .....:  200DEV SVCS LTDA.</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Engenheiro de Integração || A 200DEV é uma consultoria de TI focada em Inovação e Transformação Digital, utilizando tecnologias de ponta e profissionais orientados a resultados.  Vaga: Engenheiro de Integração e Desenvolvimento de Infraestrutura  Habilidades obrigatórias Experiência comprovada com Terraform e Ansible (IAC) Proficiência em desenvolvimento orientado a objetos (Java, .NET) e em linguagem de script de alto nível (Python, Go, Bash, etc.). Vivência prática e sólida em serviços AWS (EC2, S3, Lambda, etc.). Expertise em integração de APIs (REST, SOAP) e protocolos de segurança relacionados. Conhecimento e experiência com sistemas como Prometheus, Grafana, CheckMK, Alert Manager, APIs de monitoramento, etc. Experiência em troubleshooting de alto nível, otimização de desempenho e implementação de prática  Idioma: Inglês Avançado (leitura, escrita e conversação).  Desejável: Experiência com IBM MQ e IBM Connect Direct (IBM CD) ou soluções equivalentes. || Empresa .....:  200DEV SVCS LTDA.</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>81823</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Engenheiro de Machine Learning Sênior</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Buscamos Engenheiro(a) de Machine Learning Sênior para desenvolver e manter pipelines e soluções de ML em ambiente AWS, garantindo automação, escalabilidade e rastreabilidade dos modelos em produção. Atuará junto às equipes de Data Science, Engenharia de Dados e Produto, assegurando qualidade e boas práticas.  Responsabilidades: Projetar e implementar pipelines de validação e avaliação de modelos integrar dados e métricas em fluxos automatizados modularizar pipelines para reuso e testes garantir versionamento, logging, monitoramento e testes automatizados propor melhorias na arquitetura e processos.  Requisitos: Experiência sólida em engenharia de software aplicada a dados e ML domínio de Python, PySpark, Pandas, Scikit-learn vivência com AWS (S3, Lambda, Glue, SageMaker) conhecimento em MLOps, CI/CD e orquestração de workflows código limpo e testável.  Diferenciais: Terraform, CloudForma
+Empresa .....:  Grupo Taking</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Engenheiro de Machine Learning Sênior || Buscamos Engenheiro(a) de Machine Learning Sênior para desenvolver e manter pipelines e soluções de ML em ambiente AWS, garantindo automação, escalabilidade e rastreabilidade dos modelos em produção. Atuará junto às equipes de Data Science, Engenharia de Dados e Produto, assegurando qualidade e boas práticas.  Responsabilidades: Projetar e implementar pipelines de validação e avaliação de modelos integrar dados e métricas em fluxos automatizados modularizar pipelines para reuso e testes garantir versionamento, logging, monitoramento e testes automatizados propor melhorias na arquitetura e processos.  Requisitos: Experiência sólida em engenharia de software aplicada a dados e ML domínio de Python, PySpark, Pandas, Scikit-learn vivência com AWS (S3, Lambda, Glue, SageMaker) conhecimento em MLOps, CI/CD e orquestração de workflows código limpo e testável.  Diferenciais: Terraform, CloudForma || Empresa .....:  Grupo Taking</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>82265</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Engenheiro de Machine Learning Senior</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Contrato: CLT Atuação: Remoto Projeto: Indeterminado  Requisitos: - Experiência em varejo. - Experiência sólida com engenharia de software aplicada a dados e machine learning. - Proficiência em Python e frameworks como PySpark, Pandas, Scikit-learn ou similares. - Experiência com ferramentas e serviços AWS, como S3, Lambda, Step Functions, Glue, Athena, SageMaker ou ECS. - Conhecimento em MLOps e CI/CD para pipelines de dados e modelos. - Experiência com orquestração de workflows. - Capacidade de escrever código limpo, modular e testável.  Diferenciais: - Experiência com infraestrutura como código (Terraform, CloudFormation). - Participação em projetos de ML em produção com foco em confiabilidade e rastreabilidade.  Responsabilidades: Projetar e implementar pipelines de validação de dados e avaliação de modelos em ambiente cloud (AWS) entre outras atividades.
+Empresa .....:  Runtalent</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Engenheiro de Machine Learning Senior || Contrato: CLT Atuação: Remoto Projeto: Indeterminado  Requisitos: - Experiência em varejo. - Experiência sólida com engenharia de software aplicada a dados e machine learning. - Proficiência em Python e frameworks como PySpark, Pandas, Scikit-learn ou similares. - Experiência com ferramentas e serviços AWS, como S3, Lambda, Step Functions, Glue, Athena, SageMaker ou ECS. - Conhecimento em MLOps e CI/CD para pipelines de dados e modelos. - Experiência com orquestração de workflows. - Capacidade de escrever código limpo, modular e testável.  Diferenciais: - Experiência com infraestrutura como código (Terraform, CloudFormation). - Participação em projetos de ML em produção com foco em confiabilidade e rastreabilidade.  Responsabilidades: Projetar e implementar pipelines de validação de dados e avaliação de modelos em ambiente cloud (AWS) entre outras atividades. || Empresa .....:  Runtalent</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>82914</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Engenheiro DevOps</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Realizar criação de pipelines de dados com DevOps, utilizando Terraform e Jenkins/github para automatizar criação de infraestrutura AWS e deploy de soluções Auxiliar analistas de dados na classificação de dados pessoais e sensíveis e sua configuração com AWS Lake Formation (permissão de acesso a colunas e linhas) Processar grandes volumes de dados com uso do Spark através do EMR Studio e AWS Glue Jobs e Workflow Auxiliar analistas de dados na criação de modelos dimensionais para anállise de dados (fatos e dimensões) Habilidades de programação em Python Relacionamento com a área de negócio para entendimento das origens e mapeamento dos dados Estruturação e consolidação de dados e indicadores na AWS, garantindo bases com os templates adequados para o consumo direto em ferramentas de PowerBi para construção de dashboards
+Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Engenheiro DevOps || Realizar criação de pipelines de dados com DevOps, utilizando Terraform e Jenkins/github para automatizar criação de infraestrutura AWS e deploy de soluções Auxiliar analistas de dados na classificação de dados pessoais e sensíveis e sua configuração com AWS Lake Formation (permissão de acesso a colunas e linhas) Processar grandes volumes de dados com uso do Spark através do EMR Studio e AWS Glue Jobs e Workflow Auxiliar analistas de dados na criação de modelos dimensionais para anállise de dados (fatos e dimensões) Habilidades de programação em Python Relacionamento com a área de negócio para entendimento das origens e mapeamento dos dados Estruturação e consolidação de dados e indicadores na AWS, garantindo bases com os templates adequados para o consumo direto em ferramentas de PowerBi para construção de dashboards || Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>82105</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Especialista em Redes - Palo Alto</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Especialista em Redes – Palo Alto Prisma Contrato PJ  Remoto  Atuação em ambiente global  Buscamos um(a) Especialista em Redes para garantir continuidade operacional, segurança, conectividade e alta disponibilidade durante essa transição crítica.  Requisitos: Inglês fluente – uso diário com time global. Sênior/Especialista em redes e infraestrutura, +7 anos de experiência. Experiência prática com Palo Alto (Prisma Access, Prisma Cloud e SD-WAN). Conhecimento em protocolos de roteamento, especialmente BGP. Vivência em ambientes híbridos e multicloud. Certificações Palo Alto (PCNSE, PCNSA, PCCSE). Experiência com Cisco e transição de ambientes Cisco Palo Alto. Domínio de segurança em nuvem, Zero Trust e automação.
+Empresa .....:  2Brain Group</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Especialista em Redes - Palo Alto || Especialista em Redes – Palo Alto Prisma Contrato PJ  Remoto  Atuação em ambiente global  Buscamos um(a) Especialista em Redes para garantir continuidade operacional, segurança, conectividade e alta disponibilidade durante essa transição crítica.  Requisitos: Inglês fluente – uso diário com time global. Sênior/Especialista em redes e infraestrutura, +7 anos de experiência. Experiência prática com Palo Alto (Prisma Access, Prisma Cloud e SD-WAN). Conhecimento em protocolos de roteamento, especialmente BGP. Vivência em ambientes híbridos e multicloud. Certificações Palo Alto (PCNSE, PCNSA, PCCSE). Experiência com Cisco e transição de ambientes Cisco Palo Alto. Domínio de segurança em nuvem, Zero Trust e automação. || Empresa .....:  2Brain Group</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>82038</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Administrador de Redes Pl</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Maringá - PR - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Atividades: Execução de atividades relacionadas à infraestrutura de TI. Concessão e revogação de acessos e usuários. Manutenção básica de servidores. Resolução de problemas básicos relacionados aos sistemas utilizados na empresa. Configuração básica de firewall, incluindo criação de regras e habilitação de recursos de forma supervisionada. Atualização de patches de segurança. Gerenciamento de configurações de segurança do ambiente. Monitoramento da disponibilidade do ambiente.  Requisitos Técnicos: Experiência com nuvem Azure e AWS. Familiaridade com JIRA. Conhecimento em firewall Fortinet. Experiência com a suíte Microsoft 365. Conhecimento em Grafana.  CLT - Totalmente presencial - MARINGÁ/PR Salário compatível com o mercado. Assistência médica Vale refeição/alimentação. Vale transporte. Seguro de Vida
+Empresa .....:  Zenvor</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Maringá - PR - 17/01/26 || Administrador de Redes Pl || Atividades: Execução de atividades relacionadas à infraestrutura de TI. Concessão e revogação de acessos e usuários. Manutenção básica de servidores. Resolução de problemas básicos relacionados aos sistemas utilizados na empresa. Configuração básica de firewall, incluindo criação de regras e habilitação de recursos de forma supervisionada. Atualização de patches de segurança. Gerenciamento de configurações de segurança do ambiente. Monitoramento da disponibilidade do ambiente.  Requisitos Técnicos: Experiência com nuvem Azure e AWS. Familiaridade com JIRA. Conhecimento em firewall Fortinet. Experiência com a suíte Microsoft 365. Conhecimento em Grafana.  CLT - Totalmente presencial - MARINGÁ/PR Salário compatível com o mercado. Assistência médica Vale refeição/alimentação. Vale transporte. Seguro de Vida || Empresa .....:  Zenvor</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>82051</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Analista de Sustentação Cloud</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Especialista em infraestrutura com foco em operações para absorver conhecimento sobre arquitetura cloud híbrida (SAP BTP + AWS + S/4).  • Absorver conhecimento sobre arquitetura de infraestrutura SAP BTP + AWS + S/4 • Criar documentação de procedimentos operacionais de infraestrutura • Participar do desenho de monitoramento e alertas • Criar runbooks para operação da infraestrutura híbrida  • 6+ anos de experiência em operação de infraestrutura • 3+ anos operando ambientes SAP (Basis) • Experiência sólida com Kubernetes • Experiência com monitoramento (CALM, Datadog) • Scripting para automação
+Empresa .....:  Blend IT Consultoria</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 17/01/26 || Analista de Sustentação Cloud || Especialista em infraestrutura com foco em operações para absorver conhecimento sobre arquitetura cloud híbrida (SAP BTP + AWS + S/4).  • Absorver conhecimento sobre arquitetura de infraestrutura SAP BTP + AWS + S/4 • Criar documentação de procedimentos operacionais de infraestrutura • Participar do desenho de monitoramento e alertas • Criar runbooks para operação da infraestrutura híbrida  • 6+ anos de experiência em operação de infraestrutura • 3+ anos operando ambientes SAP (Basis) • Experiência sólida com Kubernetes • Experiência com monitoramento (CALM, Datadog) • Scripting para automação || Empresa .....:  Blend IT Consultoria</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>81755</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Líder Técnico</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Estamos contratando Líder Técnico Sênior  Entendemos que para essa evolução, é necessário experiência em: C# - MVC e Web API Dapper e Entity Framework SQL Server e Oracle SOA, Webservices, APIs, Microsserviços Frameworks JavaScript como React e Vue.js Padrões de Projeto Metodologias ágeis Promover a constante busca por excelência e inovação.  Principais responsabilidades: Realizar reuniões de status com o cliente Trabalhar de forma cross em diferentes projetos Participar na definição de arquiteturas em novos desenvolvimentos Definir melhores práticas para desenvolvimento de aplicações Definir padrões de qualidade e segurança Analisar os requisitos funcionais e técnicos de um sistema Estimar o tempo de desenvolvimento de um sistema. Garantir a equipe desenvolva seguindo as prática
+Empresa .....:  Innolevels</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 17/01/26 || Líder Técnico || Estamos contratando Líder Técnico Sênior  Entendemos que para essa evolução, é necessário experiência em: C# - MVC e Web API Dapper e Entity Framework SQL Server e Oracle SOA, Webservices, APIs, Microsserviços Frameworks JavaScript como React e Vue.js Padrões de Projeto Metodologias ágeis Promover a constante busca por excelência e inovação.  Principais responsabilidades: Realizar reuniões de status com o cliente Trabalhar de forma cross em diferentes projetos Participar na definição de arquiteturas em novos desenvolvimentos Definir melhores práticas para desenvolvimento de aplicações Definir padrões de qualidade e segurança Analisar os requisitos funcionais e técnicos de um sistema Estimar o tempo de desenvolvimento de um sistema. Garantir a equipe desenvolva seguindo as prática || Empresa .....:  Innolevels</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>83282</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Product Owner-Sr</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Requisitos Obrigatórios: Experiência sólida como Product Owner e/ou Analista de Negócios Sênior Vivência em projetos regulatórios ou no segmento financeiro Experiência prática com projetos que envolvam dados sensíveis, regras fiscais ou normativas Postura hands-on, senso de responsabilidade e tomada de decisão  Principais atividades a serem desenvolvidas: Atuará como Product Owner no projeto de Inclusão de CPF em formato Alfanumérico, garantindo alinhamento entre negócio, tecnologia e qualidade. Levantar, detalhar e priorizar requisitos junto aos stakeholders, assegurando clareza das regras de negócio e critérios de aceite. Gerenciar e priorizar o Product Backlog, mantendo foco em valor, risco e dependências técnicas. Definir e validar user stories, critérios de aceite e cenários de teste relacionados à mudança do formato do CPF. Conduzir alinhamentos com times de desenvolvimento e integrações para mitigar impactos em sistemas legados.  Contratação: PJ
+Empresa .....:  SEMPRE IT SERVICOS DE TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 17/01/26 || Product Owner-Sr || Requisitos Obrigatórios: Experiência sólida como Product Owner e/ou Analista de Negócios Sênior Vivência em projetos regulatórios ou no segmento financeiro Experiência prática com projetos que envolvam dados sensíveis, regras fiscais ou normativas Postura hands-on, senso de responsabilidade e tomada de decisão  Principais atividades a serem desenvolvidas: Atuará como Product Owner no projeto de Inclusão de CPF em formato Alfanumérico, garantindo alinhamento entre negócio, tecnologia e qualidade. Levantar, detalhar e priorizar requisitos junto aos stakeholders, assegurando clareza das regras de negócio e critérios de aceite. Gerenciar e priorizar o Product Backlog, mantendo foco em valor, risco e dependências técnicas. Definir e validar user stories, critérios de aceite e cenários de teste relacionados à mudança do formato do CPF. Conduzir alinhamentos com times de desenvolvimento e integrações para mitigar impactos em sistemas legados.  Contratação: PJ || Empresa .....:  SEMPRE IT SERVICOS DE TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>82941</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Analista Dados Sênior</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Experiência sólida com Power BI (manutenção, DAX básica/intermediária, modelagem simples) Excel intermediário/avançado SQL intermediário/avançado (consultas, joins, agregações, filtros avançados) Vivência com Databricks (manipulação, consultas, extrações) Experiência comprovada com manutenção e evolução de relatórios Capacidade de comunicação, organização e alinhamento com times de negócio Autonomia para identificar inconsistências e resolver problemas sem supervisão constante. Vivência com automações simples (Power Automate, scripts básicos, etc.) Noções de ambientes de dados em nuvem Conhecimento de boas práticas de governança de dados.  Híbrido - SP Setor financeiro
+Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Analista Dados Sênior || Experiência sólida com Power BI (manutenção, DAX básica/intermediária, modelagem simples) Excel intermediário/avançado SQL intermediário/avançado (consultas, joins, agregações, filtros avançados) Vivência com Databricks (manipulação, consultas, extrações) Experiência comprovada com manutenção e evolução de relatórios Capacidade de comunicação, organização e alinhamento com times de negócio Autonomia para identificar inconsistências e resolver problemas sem supervisão constante. Vivência com automações simples (Power Automate, scripts básicos, etc.) Noções de ambientes de dados em nuvem Conhecimento de boas práticas de governança de dados.  Híbrido - SP Setor financeiro || Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>83036</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura Sênior</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Experiência Técnica: Foco em implementação de projetos. Possuir vivência com projetos de infraestrutura. Experiência na área de tecnologia, preferencialmente na área bancária/financeira. Administração de Windows Server (desejável/diferencial ter Certificação). Administração de Linux Server (RedHat). Básico de Telecom (Switches, Roteadores, Vlan, Link de Dados) - Telecom (manutenção de terminais IPC e testes de gravações Verint). DFS. Citrix e Virtualização (Vmware / Oracle OLVM). Ferramentas de backup: Veeam. Ferramentas de e-mail e ferramentas de monitoramento como: SCOM, HPOpenView for Linux, Fluke NetFlow, Cacti e NNMi. SCCM. Administração de Storage / servidores Blades. Noções de Cloud. DESEJÁVEL certificação ITIL V3.  Formação Acadêmica: Superior Completo.  Idioma: Inglês avançado para conversação.  Observações: Local de trabalho: Morumbi. Vaga Híbrida uma vez por semana presencial.
+Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Analista de Infraestrutura Sênior || Experiência Técnica: Foco em implementação de projetos. Possuir vivência com projetos de infraestrutura. Experiência na área de tecnologia, preferencialmente na área bancária/financeira. Administração de Windows Server (desejável/diferencial ter Certificação). Administração de Linux Server (RedHat). Básico de Telecom (Switches, Roteadores, Vlan, Link de Dados) - Telecom (manutenção de terminais IPC e testes de gravações Verint). DFS. Citrix e Virtualização (Vmware / Oracle OLVM). Ferramentas de backup: Veeam. Ferramentas de e-mail e ferramentas de monitoramento como: SCOM, HPOpenView for Linux, Fluke NetFlow, Cacti e NNMi. SCCM. Administração de Storage / servidores Blades. Noções de Cloud. DESEJÁVEL certificação ITIL V3.  Formação Acadêmica: Superior Completo.  Idioma: Inglês avançado para conversação.  Observações: Local de trabalho: Morumbi. Vaga Híbrida uma vez por semana presencial. || Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>82815</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Analista de Produto Pleno</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Definir, priorizar e gerenciar o backlog do produto, assegurando alinhamento com a visão estratégica e os objetivos do negócio. Colaborar com as equipes de desenvolvimento para elaboração de user stories completas, com critérios de aceitação bem definidos e compreensíveis. Assegurar entregas contínuas de valor para os stakeholders, acompanhando a evolução das funcionalidades e avaliando impactos. Participar de todas as cerimônias ágeis, incluindo planejamento, refinamento, reviews e retrospectivas, contribuindo de maneira ativa e orientada a resultados. Facilitar a comunicação entre stakeholders e a equipe de desenvolvimento, garantindo clareza, alinhamento e transparência ao longo de todo o ciclo de vida do produto.  Modelo híbrido (3x presencial, 2x home office) Local: Vila Congonhas Regime de contratação: PJ Budget: R$ 6.500,00
+Empresa .....:  Devpartner</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Analista de Produto Pleno || Definir, priorizar e gerenciar o backlog do produto, assegurando alinhamento com a visão estratégica e os objetivos do negócio. Colaborar com as equipes de desenvolvimento para elaboração de user stories completas, com critérios de aceitação bem definidos e compreensíveis. Assegurar entregas contínuas de valor para os stakeholders, acompanhando a evolução das funcionalidades e avaliando impactos. Participar de todas as cerimônias ágeis, incluindo planejamento, refinamento, reviews e retrospectivas, contribuindo de maneira ativa e orientada a resultados. Facilitar a comunicação entre stakeholders e a equipe de desenvolvimento, garantindo clareza, alinhamento e transparência ao longo de todo o ciclo de vida do produto.  Modelo híbrido (3x presencial, 2x home office) Local: Vila Congonhas Regime de contratação: PJ Budget: R$ 6.500,00 || Empresa .....:  Devpartner</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>82110</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Analista de Segurança Sr</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>•  Atuação na interface com fornecedores e com outras áreas •  Atividades relacionadas a administração, operação, implantação e suporte de equipamentos e soluções de segurança com ênfase no ambiente de Datacenter •  Proposição e execução de melhorias e projetos no ambiente •  Firewall (Checkpoint e Cisco ASA) •  IDS/IPS (Trellix) •  Packet broker (Gigamon) •  Algosec •  Cofre de Senhas •  VPN •  WAF •  NDR/XDR •  Certificação ITIL 4 Foundation  Treinamentos abaixo: •  EXIN - ISF -Information Security Foundation (ISO 27001) •  F5 101 •  F5 201 •  Cisco SCOR •  Cisco CyberOps •  Cisco CCNA •  CheckPoint CCSA •  CheckPoint CCSE •  ITILv4 Specialist Drive Stakeholder Value
+Empresa .....:  Cast</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Analista de Segurança Sr || •  Atuação na interface com fornecedores e com outras áreas •  Atividades relacionadas a administração, operação, implantação e suporte de equipamentos e soluções de segurança com ênfase no ambiente de Datacenter •  Proposição e execução de melhorias e projetos no ambiente •  Firewall (Checkpoint e Cisco ASA) •  IDS/IPS (Trellix) •  Packet broker (Gigamon) •  Algosec •  Cofre de Senhas •  VPN •  WAF •  NDR/XDR •  Certificação ITIL 4 Foundation  Treinamentos abaixo: •  EXIN - ISF -Information Security Foundation (ISO 27001) •  F5 101 •  F5 201 •  Cisco SCOR •  Cisco CyberOps •  Cisco CCNA •  CheckPoint CCSA •  CheckPoint CCSE •  ITILv4 Specialist Drive Stakeholder Value || Empresa .....:  Cast</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>83284</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Analista de Service Desk Jr. (PJ)</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Atuação como primeiro ponto de contato para suporte de TI, realizando registro, diagnóstico, resolução e acompanhamento de incidentes e requisições. Foco em atendimento ágil, organizado e dentro dos SLAs, garantindo a estabilidade do ambiente de Workplace.  - Modelo: PJ - Atuação: Presencial - Local: 3x no Butantã (Zona Oeste/SP), 2x em Barueri e 2 sábados do mês remoto  - Escalas: Seg a sex das 06:40 às 15:00 + 2 sábados/mês (06:40 às 15:00) Seg a sex das 10:40 às 19:00 + 2 sábados/mês (06:40 às 14:00)  - Remuneração: R$ 3.000,00 PJ + Totalpass  Atividades: Atendimento a usuários via telefone, portal e canais definidos Registro, classificação e tratamento de chamados em ferramenta ITSM Suporte N1 para Windows, macOS, Google Workspace, smartphones, impressoras e sistemas corporativos Acesso remoto (TeamViewer ou similares) Escalonamento e acompanhamento de tickets até a resolução Apoio à base de conhecimento, catálogo de serviços e cumprimento de SLAs
+Empresa .....:  FindUP</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Analista de Service Desk Jr. (PJ) || Atuação como primeiro ponto de contato para suporte de TI, realizando registro, diagnóstico, resolução e acompanhamento de incidentes e requisições. Foco em atendimento ágil, organizado e dentro dos SLAs, garantindo a estabilidade do ambiente de Workplace.  - Modelo: PJ - Atuação: Presencial - Local: 3x no Butantã (Zona Oeste/SP), 2x em Barueri e 2 sábados do mês remoto  - Escalas: Seg a sex das 06:40 às 15:00 + 2 sábados/mês (06:40 às 15:00) Seg a sex das 10:40 às 19:00 + 2 sábados/mês (06:40 às 14:00)  - Remuneração: R$ 3.000,00 PJ + Totalpass  Atividades: Atendimento a usuários via telefone, portal e canais definidos Registro, classificação e tratamento de chamados em ferramenta ITSM Suporte N1 para Windows, macOS, Google Workspace, smartphones, impressoras e sistemas corporativos Acesso remoto (TeamViewer ou similares) Escalonamento e acompanhamento de tickets até a resolução Apoio à base de conhecimento, catálogo de serviços e cumprimento de SLAs || Empresa .....:  FindUP</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>82902</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Analista de Sustentação</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Analista – Sustentação de Sistemas e Aplicações – Sênior Presencial – Chácara Santo Antônio Horário a definir, com escalas diurnas e noturnas.  REQUISITOS E QUALIFICAÇÕES Inglês avançado (conversação e escrita) e espanhol básico. Graduação preferencialmente em Tecnologia da Informação, Análise e Desenvolvimento de Sistemas, Engenharias em geral, Administração ou outras formações com experiência em Tecnologia. Conhecimento em ambientes de infraestrutura de TI, datacenter, cloud, redes e telecom. Experiência na área de sustentação de sistemas (mínimo de 5 anos será um diferencial). Forte senso de autodisciplina, trabalho em equipe e prontidão para tomada de decisão e escalonamento de assuntos. Resiliência para atuar em ambiente crítico (crises). Vivência com sustentação de sistemas e continuidade de negócio. Excelentes habilidades de comunicação, com escuta ativa e clareza na transmissão de informações.
+Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Analista de Sustentação || Analista – Sustentação de Sistemas e Aplicações – Sênior Presencial – Chácara Santo Antônio Horário a definir, com escalas diurnas e noturnas.  REQUISITOS E QUALIFICAÇÕES Inglês avançado (conversação e escrita) e espanhol básico. Graduação preferencialmente em Tecnologia da Informação, Análise e Desenvolvimento de Sistemas, Engenharias em geral, Administração ou outras formações com experiência em Tecnologia. Conhecimento em ambientes de infraestrutura de TI, datacenter, cloud, redes e telecom. Experiência na área de sustentação de sistemas (mínimo de 5 anos será um diferencial). Forte senso de autodisciplina, trabalho em equipe e prontidão para tomada de decisão e escalonamento de assuntos. Resiliência para atuar em ambiente crítico (crises). Vivência com sustentação de sistemas e continuidade de negócio. Excelentes habilidades de comunicação, com escuta ativa e clareza na transmissão de informações. || Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>81811</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>ANALISTA FUNCIONAL PLENO (PROTHEUS)</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Requisitos: Experiência funcional em TOTVS Protheus (módulos: Compras, Financeiro, Faturamento, Fiscal, Contábil, PCP e Estoque/Custos) Desejável conhecimento em módulos de logística (SIGAWMS, SIGAGFE) Formação ou experiência em Contabilidade Noções técnicas em ADVPL e SQL (para entendimento).  Atuação Híbrida – 2x por semana (1x Nações Unidas e 1x Bom Sucesso – Guarulhos).
+Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || ANALISTA FUNCIONAL PLENO (PROTHEUS) || Requisitos: Experiência funcional em TOTVS Protheus (módulos: Compras, Financeiro, Faturamento, Fiscal, Contábil, PCP e Estoque/Custos) Desejável conhecimento em módulos de logística (SIGAWMS, SIGAGFE) Formação ou experiência em Contabilidade Noções técnicas em ADVPL e SQL (para entendimento).  Atuação Híbrida – 2x por semana (1x Nações Unidas e 1x Bom Sucesso – Guarulhos). || Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>82291</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Analista Sênior Python (Oracle/PLSQL)</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Analista Sênior de Desenvolvimento Python (Oracle/PLSQL - TOTVS RM)  Híbrido - 4 presenciais - Bom Retiro – São Paulo/SP PJ  Domínio de Python 3.x APIs (FastAPI/Flask), testes (pytest), logging/observabilidade, packaging, virtualenv/poetry, tratamento de filas (Celery/RQ), consumo/produção de ETL e integrações PL/SQL avançado (packages, procedures, triggers), tuning (explain plan, índices, hints, estatísticas), views/materialized views, jobs (DBMS_SCHEDULER), criação de objetos para BI (consultas SQL otimizadas para cubos/relatórios), gestão de permissões Leitura do modelo de dados, consultas para cubos/visões do RM, uso de consultas SQL associadas a cubos e painéis de cenário entendimento de conectividade Oracle com o RM.  Diferenciais: Experiência no setor autopeças/distribuição Monitoramento (Prometheus/Grafana), mensageria (RabbitMQ/Redis), PowerBI/Dataviz Experiência com portabilidade/migração RM em Oracle.
+Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Analista Sênior Python (Oracle/PLSQL) || Analista Sênior de Desenvolvimento Python (Oracle/PLSQL - TOTVS RM)  Híbrido - 4 presenciais - Bom Retiro – São Paulo/SP PJ  Domínio de Python 3.x APIs (FastAPI/Flask), testes (pytest), logging/observabilidade, packaging, virtualenv/poetry, tratamento de filas (Celery/RQ), consumo/produção de ETL e integrações PL/SQL avançado (packages, procedures, triggers), tuning (explain plan, índices, hints, estatísticas), views/materialized views, jobs (DBMS_SCHEDULER), criação de objetos para BI (consultas SQL otimizadas para cubos/relatórios), gestão de permissões Leitura do modelo de dados, consultas para cubos/visões do RM, uso de consultas SQL associadas a cubos e painéis de cenário entendimento de conectividade Oracle com o RM.  Diferenciais: Experiência no setor autopeças/distribuição Monitoramento (Prometheus/Grafana), mensageria (RabbitMQ/Redis), PowerBI/Dataviz Experiência com portabilidade/migração RM em Oracle. || Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>82827</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>CIENTISTA DE DADOS - IA</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Atuação Totalmente remoto  Contratação PJ  Requisitos: - Experiência sólida em projetos de Ciência de Dados. - Conhecimento avançado em Machine Learning, LLMs e AI Agents. - Experiência em deploy de modelos em nuvem (Azure). - Fluência em Python, SQL e frameworks de Big Data. - EXPERIÊNCIA PRÁTICA COM AI AGENTES (LANGCHAIN, AUTOGEN, RAG, FRAMEWORKS LLMOps). - Experiência com CI/CD e automação de pipelines. - Vivência com monitoramento e retraining de modelos em produção. - Capacidade de traduzir problemas complexos em soluções técnicas aplicáveis ao negócio.  Diferencial: - Inglês - Experiência com Framework Web de Python (Django, Flask, FastAPI) - Experiência com Docker, Kubernetes, - Experiência em Engenharia de Dados.
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || CIENTISTA DE DADOS - IA || Atuação Totalmente remoto  Contratação PJ  Requisitos: - Experiência sólida em projetos de Ciência de Dados. - Conhecimento avançado em Machine Learning, LLMs e AI Agents. - Experiência em deploy de modelos em nuvem (Azure). - Fluência em Python, SQL e frameworks de Big Data. - EXPERIÊNCIA PRÁTICA COM AI AGENTES (LANGCHAIN, AUTOGEN, RAG, FRAMEWORKS LLMOps). - Experiência com CI/CD e automação de pipelines. - Vivência com monitoramento e retraining de modelos em produção. - Capacidade de traduzir problemas complexos em soluções técnicas aplicáveis ao negócio.  Diferencial: - Inglês - Experiência com Framework Web de Python (Django, Flask, FastAPI) - Experiência com Docker, Kubernetes, - Experiência em Engenharia de Dados. || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>81718</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>DA – Data Engineer</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>DA – Data Engineer Hibrido Esporadico Inglês avançado - CLT  Habilidade Principal: AWS, Databricks, Python, Pyspark, SQL  Qualificações Necessárias AWS, Databricks, Python, Pyspark, SQL  Principais Atividades e Responsabilidades Analista com 2 a 3 anos de experiência, com conhecimento em: Python / Spark SQL (para codificação em Databricks) Serviços AWS (S3, EC2, Lambda, SQS, SNS, DynamoDB, OpenSearch, etc.) GitHub (para controle de versão) GitHub Actions para CI/CD  Soft Skills (Características Pessoais) Boa capacidade analítica e fluência em comunicação em inglês.
+Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || DA – Data Engineer || DA – Data Engineer Hibrido Esporadico Inglês avançado - CLT  Habilidade Principal: AWS, Databricks, Python, Pyspark, SQL  Qualificações Necessárias AWS, Databricks, Python, Pyspark, SQL  Principais Atividades e Responsabilidades Analista com 2 a 3 anos de experiência, com conhecimento em: Python / Spark SQL (para codificação em Databricks) Serviços AWS (S3, EC2, Lambda, SQS, SNS, DynamoDB, OpenSearch, etc.) GitHub (para controle de versão) GitHub Actions para CI/CD  Soft Skills (Características Pessoais) Boa capacidade analítica e fluência em comunicação em inglês. || Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>83003</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Fullstack</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Prazo: 5 meses, com chances de prorrogar Local:Híbrido - São Paulo (Chácara Santo Antônio) Contratação: PJ  Requisitos: Experiência sólida com Angular (preferencialmente versões 12+) Conhecimento em TypeScript, HTML5, CSS3 e JavaScript (ES6+). Experiência com RxJS, Angular CLI, Lazy Loading e State Management (NgRx ou similar) Integração com APIs REST e consumo de serviços Conhecimento em Git/ DevOps e práticas de versionamento Familiaridade com Testes Unitários e boas práticas de qualidade Noções de CI/CD e ferramentas como Azure DevOps, GitHub Actions ou similares Conhecimento em PostgreSQL Experiência com RESTful APIs e boas práticas de arquitetura de software Plataforma .NET (C#) SQL Server 2012-2016 Github Copilot
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Desenvolvedor Fullstack || Prazo: 5 meses, com chances de prorrogar Local:Híbrido - São Paulo (Chácara Santo Antônio) Contratação: PJ  Requisitos: Experiência sólida com Angular (preferencialmente versões 12+) Conhecimento em TypeScript, HTML5, CSS3 e JavaScript (ES6+). Experiência com RxJS, Angular CLI, Lazy Loading e State Management (NgRx ou similar) Integração com APIs REST e consumo de serviços Conhecimento em Git/ DevOps e práticas de versionamento Familiaridade com Testes Unitários e boas práticas de qualidade Noções de CI/CD e ferramentas como Azure DevOps, GitHub Actions ou similares Conhecimento em PostgreSQL Experiência com RESTful APIs e boas práticas de arquitetura de software Plataforma .NET (C#) SQL Server 2012-2016 Github Copilot || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>82169</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR JAVA PLENO - HÍBRIDO SÃO PAULO/SP</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT + Benefícios  Requisitos: · Superior completo na área de Tecnologia · INGLÊS INTERMEDIÁRIO (MANDATÓRIO) · Experiência com desenvolvimento em JAVA e nos frameworks Spring MVC e Spring Boot · Histórico do projeto de varejo/comércio eletrônico · Experiência com desenvolvimento orientado a testes e frameworks de testes automatizados, como JUnit. · Familiaridade com Git, pipelines de CI/CD e metodologias de desenvolvimento Ágil   Diferencial: · Experiência com projeto de E-commerce desenvolvidos em plataforma Hybris (SAP Commerce Cloud) · Experiência com plataformas de nuvem (AWS, Azure ou SAP Cloud Platform). · Espanhol básico  Escopo: · Aprender a desenvolver na SAP Commerce(Hybris) plataforma baseada em JAVA no framework SPRING e adicionalmente aprender das suas ferramentas tais como groovy e impex
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || DESENVOLVEDOR JAVA PLENO - HÍBRIDO SÃO PAULO/SP || ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT + Benefícios  Requisitos: · Superior completo na área de Tecnologia · INGLÊS INTERMEDIÁRIO (MANDATÓRIO) · Experiência com desenvolvimento em JAVA e nos frameworks Spring MVC e Spring Boot · Histórico do projeto de varejo/comércio eletrônico · Experiência com desenvolvimento orientado a testes e frameworks de testes automatizados, como JUnit. · Familiaridade com Git, pipelines de CI/CD e metodologias de desenvolvimento Ágil   Diferencial: · Experiência com projeto de E-commerce desenvolvidos em plataforma Hybris (SAP Commerce Cloud) · Experiência com plataformas de nuvem (AWS, Azure ou SAP Cloud Platform). · Espanhol básico  Escopo: · Aprender a desenvolver na SAP Commerce(Hybris) plataforma baseada em JAVA no framework SPRING e adicionalmente aprender das suas ferramentas tais como groovy e impex || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>82759</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java Sênior Remoto ou Híbrido (SP)</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Obrigatório graduação superior completa, preferencialmente em Sistemas de Informação, Análise de Sistemas, Ciência da Computação, Engenharia da Computação ou áreas relacionadas  Experiência com Java, Design Patterns e Arquitetura de Microserviços Conhecimentos em Containers, Kubernetes e Microserviços Conhecimentos em diferentes tipos de mensageria (RabbitMQ, Kafka, etc) Conhecimentos em tecnologias AWS (EKS, SNS, SQS, S3, DocumentDB, Secret Manager, API Gateway, Lambda, Dynamo, etc) Conhecimentos com banco de dados (PostgreSQL, DocumentDB, Redis)  Desejável conhecimento de mercado financeiro Boa comunicação interpessoal e capacidade de colaboração com diferentes áreas da empresa.  Diferencial Inglês intermediário/avançado Remoto ou Híbrido (SP)
+Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Desenvolvedor Java Sênior Remoto ou Híbrido (SP) || Obrigatório graduação superior completa, preferencialmente em Sistemas de Informação, Análise de Sistemas, Ciência da Computação, Engenharia da Computação ou áreas relacionadas  Experiência com Java, Design Patterns e Arquitetura de Microserviços Conhecimentos em Containers, Kubernetes e Microserviços Conhecimentos em diferentes tipos de mensageria (RabbitMQ, Kafka, etc) Conhecimentos em tecnologias AWS (EKS, SNS, SQS, S3, DocumentDB, Secret Manager, API Gateway, Lambda, Dynamo, etc) Conhecimentos com banco de dados (PostgreSQL, DocumentDB, Redis)  Desejável conhecimento de mercado financeiro Boa comunicação interpessoal e capacidade de colaboração com diferentes áreas da empresa.  Diferencial Inglês intermediário/avançado Remoto ou Híbrido (SP) || Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>81798</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR RPA PLENO - INGLÊS - HÍBRIDO SP</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO HÍBRIDA 03 X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP  Horário de Trabalho: das 09hs às 18hs Contratação CLT + Benefícios  Requisitos: - Superior completo em Tecnologia - INGLÊS AVANÇADO (MANDATÓRIO) - Experiência de pelo menos dois anos em programação (Python ou Java). - Interesse em aprender e crescer na área de Automação de Processos Robóticos (RPA).   DESEJÁVEL: - Experiência prévia em desenvolvimento de software ou automação de processos. - Conhecimento básico em ferramentas de automação de processos RPA, como UiPath, Automation Anywhere ou Blue Prism. - Certificações em RPA ou áreas relacionadas.  Escopo* · Auxiliar no levantamento e análise de processos para identificar oportunidades de automação. · Participar do desenvolvimento e implementação de soluções de automação usando ferramentas RPA.
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || DESENVOLVEDOR RPA PLENO - INGLÊS - HÍBRIDO SP || ATUAÇÃO HÍBRIDA 03 X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP  Horário de Trabalho: das 09hs às 18hs Contratação CLT + Benefícios  Requisitos: - Superior completo em Tecnologia - INGLÊS AVANÇADO (MANDATÓRIO) - Experiência de pelo menos dois anos em programação (Python ou Java). - Interesse em aprender e crescer na área de Automação de Processos Robóticos (RPA).   DESEJÁVEL: - Experiência prévia em desenvolvimento de software ou automação de processos. - Conhecimento básico em ferramentas de automação de processos RPA, como UiPath, Automation Anywhere ou Blue Prism. - Certificações em RPA ou áreas relacionadas.  Escopo* · Auxiliar no levantamento e análise de processos para identificar oportunidades de automação. · Participar do desenvolvimento e implementação de soluções de automação usando ferramentas RPA. || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>82949</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Engenheiro de Dados</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Responsabilidades Estruturar pipelines de dados usando Databricks Desenvolver e manter processos de ETL / ELT, desde a ingestão até a consolidação Integrar dados vindos de múltiplas fontes e bancos (MySQL, Oracle, etc.) Atuar fortemente em data quality, limpeza, padronização e consistência dos dados Consolidar bases financeiras de diferentes unidades de negócio Preparar os dados para consumo futuro por ferramentas de BI e Analytics Apoiar definições de arquitetura e melhores estratégias de dados Atuar como referência técnica e mentor para o time Contribuir com análises voltadas à performance e eficiência do negócio  Req. Obrigatórios Experiência sólida como Engenheiro de Dados Sênior Domínio de Databricks (essencial) Forte conhecimento em modelagem e conceitos de banco de dados Experiência com múltiplas fontes de dados (MySQL, Oracle, entre outras) Vivência com ETL / ELT, integração e consolidação de dados Conhecimento em data quality e governança dados
+Empresa .....:  2BRAIN CONSULTORIA E ESTRATEGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Engenheiro de Dados || Responsabilidades Estruturar pipelines de dados usando Databricks Desenvolver e manter processos de ETL / ELT, desde a ingestão até a consolidação Integrar dados vindos de múltiplas fontes e bancos (MySQL, Oracle, etc.) Atuar fortemente em data quality, limpeza, padronização e consistência dos dados Consolidar bases financeiras de diferentes unidades de negócio Preparar os dados para consumo futuro por ferramentas de BI e Analytics Apoiar definições de arquitetura e melhores estratégias de dados Atuar como referência técnica e mentor para o time Contribuir com análises voltadas à performance e eficiência do negócio  Req. Obrigatórios Experiência sólida como Engenheiro de Dados Sênior Domínio de Databricks (essencial) Forte conhecimento em modelagem e conceitos de banco de dados Experiência com múltiplas fontes de dados (MySQL, Oracle, entre outras) Vivência com ETL / ELT, integração e consolidação de dados Conhecimento em data quality e governança dados || Empresa .....:  2BRAIN CONSULTORIA E ESTRATEGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>82643</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Engenheiro(a) de Infraestrutura de Dados Pleno II</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Engenheiro(a) de Infraestrutura de Dados Pleno II  Local: Híbrido - São Paulo/SP Modelo de contratação: (CLT/ PJ) Área: Tecnologia  Dados  Implementar e Manter a Infraestrutura de Dados: Projetar, construir e gerenciar ambientes escaláveis e robustos para processamento e armazenamento de dados, com foco em plataformas como Databricks Automatizar Pipelines: Desenvolver e otimizar pipelines CI/CD para implantação de infraestrutura Suporte a MLOps: Colaborar com Cientistas e Engenheiros de Dados na implementação de práticas e ferramentas de MLOps Gerenciamento de Recursos: Utilizar Terraform para provisionar e gerenciar recursos em nuvem (AWS, Azure ou GCP) Orquestração e Automação: Criar e gerenciar fluxos de trabalho de automação utilizando ferramentas como Jenkins ou GitHub Actions para deployments de infraestrutura e orquestração de tarefas de dados.
+Empresa .....:  Always On Digital</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Engenheiro(a) de Infraestrutura de Dados Pleno II || Engenheiro(a) de Infraestrutura de Dados Pleno II  Local: Híbrido - São Paulo/SP Modelo de contratação: (CLT/ PJ) Área: Tecnologia  Dados  Implementar e Manter a Infraestrutura de Dados: Projetar, construir e gerenciar ambientes escaláveis e robustos para processamento e armazenamento de dados, com foco em plataformas como Databricks Automatizar Pipelines: Desenvolver e otimizar pipelines CI/CD para implantação de infraestrutura Suporte a MLOps: Colaborar com Cientistas e Engenheiros de Dados na implementação de práticas e ferramentas de MLOps Gerenciamento de Recursos: Utilizar Terraform para provisionar e gerenciar recursos em nuvem (AWS, Azure ou GCP) Orquestração e Automação: Criar e gerenciar fluxos de trabalho de automação utilizando ferramentas como Jenkins ou GitHub Actions para deployments de infraestrutura e orquestração de tarefas de dados. || Empresa .....:  Always On Digital</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>81806</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Especialista Angular  (PJ)</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Especialista em Front-end/Angular  (PJ) Empresa portuguesa de Tecnologia em expansão no Brasil Híbrido 2X semana região de Santo Amaro ou Interlagos Contratação PJ (valor mensal  fixo + 22 dias úteis de férias / ano)  Requisitos: Experiência com micro-front-ends. Domínio de Webpack, CI/CD para front-end e server-side rendering (SSR). Conhecimento avançado em Angular (otimização de performance, state management), RxJS, testes unitários (Jasmine/Karma) e E2E (Cypress/Protractor). Conhecimento aprofundado em arquitetura de aplicações de grande escala.  Responsabilidades: Liderar o desenvolvimento de funcionalidades complexas. Definir e implementar a arquitetura de front-end. Mentoria para desenvolvedores menos experientes.Desenvolver a arquitetura de sistemas front-end críticos. Pesquisar e implementar novas tecnologias e frameworks. Garantir a performance, escalabilidade da aplicação.
+Empresa .....:  Performance and Mind</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Especialista Angular  (PJ) || Especialista em Front-end/Angular  (PJ) Empresa portuguesa de Tecnologia em expansão no Brasil Híbrido 2X semana região de Santo Amaro ou Interlagos Contratação PJ (valor mensal  fixo + 22 dias úteis de férias / ano)  Requisitos: Experiência com micro-front-ends. Domínio de Webpack, CI/CD para front-end e server-side rendering (SSR). Conhecimento avançado em Angular (otimização de performance, state management), RxJS, testes unitários (Jasmine/Karma) e E2E (Cypress/Protractor). Conhecimento aprofundado em arquitetura de aplicações de grande escala.  Responsabilidades: Liderar o desenvolvimento de funcionalidades complexas. Definir e implementar a arquitetura de front-end. Mentoria para desenvolvedores menos experientes.Desenvolver a arquitetura de sistemas front-end críticos. Pesquisar e implementar novas tecnologias e frameworks. Garantir a performance, escalabilidade da aplicação. || Empresa .....:  Performance and Mind</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>82340</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Especialista em operações BPO</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Atuar na área de BPO com foco em otimização de processos, gestão operacional e melhoria
+contínua.
+Supervisionar as operações de BPO, garantir qualidade, eficiência e cumprimento dos SLAs.
+Gerenciar o desempenho das equipes de atendimento internas ou terceiras (Call Centers).
+Mapear, revisar e otimizar processos de atendimento, suporte técnico e operacionais
+Atuar de forma integrada com as áreas de Infraestrutura, Desenvolvimento e DevOps para
+identificar e propor melhorias em sistemas e fluxos de trabalho
+Definir e acompanhar indicadores de desempenho (KPIs)
+Garantir a satisfação do cliente final.
+Requisitos:
+Experiência em operações de BPO (setor aéreo ou em empresas de grande porte)
+Experiência em Gestão de Atendimento (Call Centers) e Suporte Técnico
+Familiaridade com processos de Infraestrutura de TI, Desenvolvimento de Sistemas e práticas
+DevOp
+Horário Comercial
+PJ
+Presencial na região de Santo Amaro-SP (sexta-feira home office)
+Salário a combinar
+Empresa .....:  Soue Tech Serviços de Tecnologia Ltda</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Especialista em operações BPO || Atuar na área de BPO com foco em otimização de processos, gestão operacional e melhoria || contínua. || Supervisionar as operações de BPO, garantir qualidade, eficiência e cumprimento dos SLAs. || Gerenciar o desempenho das equipes de atendimento internas ou terceiras (Call Centers). || Mapear, revisar e otimizar processos de atendimento, suporte técnico e operacionais || Atuar de forma integrada com as áreas de Infraestrutura, Desenvolvimento e DevOps para || identificar e propor melhorias em sistemas e fluxos de trabalho || Definir e acompanhar indicadores de desempenho (KPIs) || Garantir a satisfação do cliente final. || Requisitos: || Experiência em operações de BPO (setor aéreo ou em empresas de grande porte) || Experiência em Gestão de Atendimento (Call Centers) e Suporte Técnico || Familiaridade com processos de Infraestrutura de TI, Desenvolvimento de Sistemas e práticas || DevOp || Horário Comercial || PJ || Presencial na região de Santo Amaro-SP (sexta-feira home office) || Salário a combinar || Empresa .....:  Soue Tech Serviços de Tecnologia Ltda</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>82983</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Especialista em Suporte de TI</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>O Especialista atuará como segundo nível de contato para lidar com problemas de suporte técnico dos parceiros de negócios. O foco principal é suporte documental e resolução de incidentes/solicitações de serviço enviadas de analistas de suporte do Service Desk ou por autoatendimento. Além disso, o mesmo irá orientar novos funcionários da equipe, tratar de questões complexas e também liderar e participar do projeto e do trabalho de mudança.  REQUISITOS: Inglês avançado, espanhol desejável (para contato com o time internacional) Experiência com sistema operacional Windows, Apple OS, Active Directory, MS Office Suite, sistemas de bilhetagem, call center, dispositivos móveis e antivírus/spyware. Proficiência técnica: compreensão das tecnologias de telecomunicações, incluindo VoIP, PBX e SIP (Session Initiation Protocol). Familiarizado com os processos e estrutura ITIL. Certificação ITIL v3 ou 2011 uma vantagem.  Presencial 4x na semana - 1x remoto  Morumbi, SP
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Especialista em Suporte de TI || O Especialista atuará como segundo nível de contato para lidar com problemas de suporte técnico dos parceiros de negócios. O foco principal é suporte documental e resolução de incidentes/solicitações de serviço enviadas de analistas de suporte do Service Desk ou por autoatendimento. Além disso, o mesmo irá orientar novos funcionários da equipe, tratar de questões complexas e também liderar e participar do projeto e do trabalho de mudança.  REQUISITOS: Inglês avançado, espanhol desejável (para contato com o time internacional) Experiência com sistema operacional Windows, Apple OS, Active Directory, MS Office Suite, sistemas de bilhetagem, call center, dispositivos móveis e antivírus/spyware. Proficiência técnica: compreensão das tecnologias de telecomunicações, incluindo VoIP, PBX e SIP (Session Initiation Protocol). Familiarizado com os processos e estrutura ITIL. Certificação ITIL v3 ou 2011 uma vantagem.  Presencial 4x na semana - 1x remoto  Morumbi, SP || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>82666</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Especialista em TOTVS RM</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Suporte técnico aos usuários do sistema Totvs RH (Linha RM), solucionando problemas, analisando processos, desempenho, funcionalidades, melhorias e regras de negócios. Documentação de processos, customizações e particularidades do funcionamento do sistema. Análise e levantamento de necessidades para implantação de novos módulos e rotinas visando melhorias e automatização nos processos da empresa.  Contato com o fornecedor Totvs para acompanhamento da evolução e solução de problemas no sistema. Testes de pacotes de atualização e novas versões da Totvs antes da implantação em produção. Atualização do sistema em ambiente de produção e acompanhamento da execução. Desenvolvimento de relatórios, consultas e customizações para adequação do sistema às necessidades da entidade conforme as regras de negócio aplicáveis.  Preparação e apresentação de conteúdo para instrução e treinamento dos usuários do sistema. Preferencialmente com experiencia no modulo construção.
+Empresa .....:  CRA ENGENHARIA DE INFRAESTRUTURA LTDA</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Especialista em TOTVS RM || Suporte técnico aos usuários do sistema Totvs RH (Linha RM), solucionando problemas, analisando processos, desempenho, funcionalidades, melhorias e regras de negócios. Documentação de processos, customizações e particularidades do funcionamento do sistema. Análise e levantamento de necessidades para implantação de novos módulos e rotinas visando melhorias e automatização nos processos da empresa.  Contato com o fornecedor Totvs para acompanhamento da evolução e solução de problemas no sistema. Testes de pacotes de atualização e novas versões da Totvs antes da implantação em produção. Atualização do sistema em ambiente de produção e acompanhamento da execução. Desenvolvimento de relatórios, consultas e customizações para adequação do sistema às necessidades da entidade conforme as regras de negócio aplicáveis.  Preparação e apresentação de conteúdo para instrução e treinamento dos usuários do sistema. Preferencialmente com experiencia no modulo construção. || Empresa .....:  CRA ENGENHARIA DE INFRAESTRUTURA LTDA</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>83006</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Field - JR</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>execução do serviço de Mapeamento e Inventário Físico Detalhado dos ativos de tecnologia (servidores, switches, etc.) instalados em Data Centers Presencial - SP - 1 mês - PJ
+Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Field - JR || execução do serviço de Mapeamento e Inventário Físico Detalhado dos ativos de tecnologia (servidores, switches, etc.) instalados em Data Centers Presencial - SP - 1 mês - PJ || Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>83292</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Gerente de Projetos</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Gerente de Projetos Sênior  Você é um(a) profissional experiente na gestão de iniciativas complexas e de grande escala, com histórico comprovado de entregas bem-sucedidas? Tem interesse em coordenar múltiplas atividades interdependentes e garantir a evolução contínua dos projetos?  Estamos em busca de um(a) Gerente de Projetos Sênior para liderar a integração geral do CS Latam. com foco principal na incorporação do stack tecnológico do Brasil ao Banco.  Principais responsabilidades: Apoiar a integração de soluções tecnológicas, viabilizando a expansão da oferta de produtos do Banco Desenvolver planos e garantir o progresso da refatoração de aplicações conforme os Padrões Tecnológicos do Banco, incluindo rebranding e integração de sistemas core em uma plataforma única Conduzir a reestruturação e padronização das aplicações para consumo de serviços bancários, substituindo modelos independentes
+Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Gerente de Projetos || Gerente de Projetos Sênior  Você é um(a) profissional experiente na gestão de iniciativas complexas e de grande escala, com histórico comprovado de entregas bem-sucedidas? Tem interesse em coordenar múltiplas atividades interdependentes e garantir a evolução contínua dos projetos?  Estamos em busca de um(a) Gerente de Projetos Sênior para liderar a integração geral do CS Latam. com foco principal na incorporação do stack tecnológico do Brasil ao Banco.  Principais responsabilidades: Apoiar a integração de soluções tecnológicas, viabilizando a expansão da oferta de produtos do Banco Desenvolver planos e garantir o progresso da refatoração de aplicações conforme os Padrões Tecnológicos do Banco, incluindo rebranding e integração de sistemas core em uma plataforma única Conduzir a reestruturação e padronização das aplicações para consumo de serviços bancários, substituindo modelos independentes || Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>83293</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Gerente de Projetos - CRM</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Vaga: Gerente de Projetos — Implantação de CRM  Transformação Digital  Estamos buscando um(a) Gerente de Projetos com forte atuação em implantação de CRM e condução de iniciativas corporativas estratégicas. A pessoa ideal para a posição possui perfil estruturado, visão de negócios, excelente comunicação com executivos e experiência na liderança de times multidisciplinares.  Requisitos Técnicos Experiência sólida em gestão de projetos complexos e corporativos (7–10+ anos). Experiência comprovada em projetos de implantação de CRM. Vivência em transformação digital, integrações sistêmicas e otimização de processos. Domínio de ferramentas de gestão de projetos (MS Project, Project Online, Planner ou similares). Forte atuação com gestão de stakeholders e reporte executivo.  Modelo de Trabalho Híbrido — 2x por semana presencial Local: Consolação — São Paulo/SP
+Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Gerente de Projetos - CRM || Vaga: Gerente de Projetos — Implantação de CRM  Transformação Digital  Estamos buscando um(a) Gerente de Projetos com forte atuação em implantação de CRM e condução de iniciativas corporativas estratégicas. A pessoa ideal para a posição possui perfil estruturado, visão de negócios, excelente comunicação com executivos e experiência na liderança de times multidisciplinares.  Requisitos Técnicos Experiência sólida em gestão de projetos complexos e corporativos (7–10+ anos). Experiência comprovada em projetos de implantação de CRM. Vivência em transformação digital, integrações sistêmicas e otimização de processos. Domínio de ferramentas de gestão de projetos (MS Project, Project Online, Planner ou similares). Forte atuação com gestão de stakeholders e reporte executivo.  Modelo de Trabalho Híbrido — 2x por semana presencial Local: Consolação — São Paulo/SP || Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>83296</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Pessoa Desenvolvedora Full Stack (React + .Net)</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>VAGA REMOTA  Requisitos Obrigatórios: Experiência sólida com React, Hooks e TypeScript. Experiência com .NET Core / .NET 6/7 e C#. Vivência com Cloud (Azure ou AWS). Conhecimento em Docker e containerização. Experiência com consumo de APIs REST e definição de contratos (Swagger/OpenAPI). Conhecimentos de HTML5, CSS3, CSS-in-JS (styled-components, emotion) ou frameworks CSS. Experiência com testes front-end (Jest, React Testing Library) e testes backend. Familiaridade com Git e boas práticas de versionamento. Experiência com ferramentas de build/packaging (Webpack, Vite) e pipelines de CI/CD.  Diferenciais (Desejáveis): Experiência com SSR/Next.js. Conhecimento em bibliotecas de estado (Redux, Zustand) e otimização de performance. Vivência com mensageria ou WebSockets. Experiência prática com acessibilidade (a11y).
+Empresa .....:  MJV</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Pessoa Desenvolvedora Full Stack (React + .Net) || VAGA REMOTA  Requisitos Obrigatórios: Experiência sólida com React, Hooks e TypeScript. Experiência com .NET Core / .NET 6/7 e C#. Vivência com Cloud (Azure ou AWS). Conhecimento em Docker e containerização. Experiência com consumo de APIs REST e definição de contratos (Swagger/OpenAPI). Conhecimentos de HTML5, CSS3, CSS-in-JS (styled-components, emotion) ou frameworks CSS. Experiência com testes front-end (Jest, React Testing Library) e testes backend. Familiaridade com Git e boas práticas de versionamento. Experiência com ferramentas de build/packaging (Webpack, Vite) e pipelines de CI/CD.  Diferenciais (Desejáveis): Experiência com SSR/Next.js. Conhecimento em bibliotecas de estado (Redux, Zustand) e otimização de performance. Vivência com mensageria ou WebSockets. Experiência prática com acessibilidade (a11y). || Empresa .....:  MJV</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>83289</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Tecnico de Informatica em Campo</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um Técnico de Campo para atuar em visitas técnicas a clientes, realizando entrega e retirada de equipamentos, troca de equipamentos e, em alguns casos, configuração de impressoras  Principais atividades: Realizar visitas técnicas a clientes externos Efetuar entrega e retirada de equipamentos Executar troca de equipamentos quando necessário Configurar impressoras e prestar suporte básico em alguns atendimentos Preencher registros de atendimento e seguir os processos internos.  Requisitos: Conhecimentos básicos em informática e equipamentos de TI Desejável experiência anterior como técnico de campo ou suporte técnico Boa comunicação, organização e responsabilidade Disponibilidade para trabalho externo.  Horário de trabalho: Segunda a sexta-feira, das 09h às 18h. Salario: R$ 2.250,00  Vale-refeição no valor R$ 30,00 Vale-Transporte
+Empresa .....:  Allugga</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Tecnico de Informatica em Campo || Estamos em busca de um Técnico de Campo para atuar em visitas técnicas a clientes, realizando entrega e retirada de equipamentos, troca de equipamentos e, em alguns casos, configuração de impressoras  Principais atividades: Realizar visitas técnicas a clientes externos Efetuar entrega e retirada de equipamentos Executar troca de equipamentos quando necessário Configurar impressoras e prestar suporte básico em alguns atendimentos Preencher registros de atendimento e seguir os processos internos.  Requisitos: Conhecimentos básicos em informática e equipamentos de TI Desejável experiência anterior como técnico de campo ou suporte técnico Boa comunicação, organização e responsabilidade Disponibilidade para trabalho externo.  Horário de trabalho: Segunda a sexta-feira, das 09h às 18h. Salario: R$ 2.250,00  Vale-refeição no valor R$ 30,00 Vale-Transporte || Empresa .....:  Allugga</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>82133</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>UX Designer Freelancer – Validação e Otimização de</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um UX Designer freelancer para validar e otimizar telas de um sistema web complexo, com grande volume de informações e múltiplos fluxos de uso. O objetivo é preservar a estrutura existente e melhorar a experiência do usuário, tornando a navegação mais fluida, intuitiva e eficiente.  O profissional deverá analisar telas e fluxos, propor soluções, criar protótipos, conduzir testes de usabilidade e documentar recomendações para a equipe de desenvolvimento.  Requisitos: experiência comprovada em UX para sistemas corporativos, ERPs ou CRMs domínio de ferramentas conhecimento em mapeamento de jornada, arquitetura da informação e testes de usabilidade capacidade analítica para transformar processos complexos em experiências intuitivas.  Formato freelancer remoto, com entregas por etapas.
+Empresa .....:  Poliview Tecnologia</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || UX Designer Freelancer – Validação e Otimização de || Estamos em busca de um UX Designer freelancer para validar e otimizar telas de um sistema web complexo, com grande volume de informações e múltiplos fluxos de uso. O objetivo é preservar a estrutura existente e melhorar a experiência do usuário, tornando a navegação mais fluida, intuitiva e eficiente.  O profissional deverá analisar telas e fluxos, propor soluções, criar protótipos, conduzir testes de usabilidade e documentar recomendações para a equipe de desenvolvimento.  Requisitos: experiência comprovada em UX para sistemas corporativos, ERPs ou CRMs domínio de ferramentas conhecimento em mapeamento de jornada, arquitetura da informação e testes de usabilidade capacidade analítica para transformar processos complexos em experiências intuitivas.  Formato freelancer remoto, com entregas por etapas. || Empresa .....:  Poliview Tecnologia</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>82978</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Analista de Suporte NOC</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Sorocaba - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-Responsabilidades Monitorar redes/servidores/serviços críticos em tempo real Identificar/analisar/resolver incidentes de forma rápida e eficiente Escalar problemas conforme procedimentos Garantir a disponibilidade/performance dos sistemas monitorados Documentar ocorrências/manter registros atualizados Colaborar com equipes de suporte/engenharia para resolução de problemas  Trabalho presencial - Sorocaba  -Requisitos Técnicos Conhecimento em redes (TCP/IP, DNS, VPN, roteamento, switching) Experiência com ferramentas de monitoramento (Zabbix/Grafana/ITSM) Noções de SO’s (Linux/Windows) Familiaridade com protocolos/troubleshooting básico Inglês técnico - leitura/escrita/conversação  -Comportamental Atenção aos detalhes/proatividade Capacidade de trabalhar sob pressão/regime de plantão Boa comunicação/trabalho em equipe Organização/disciplina para seguir processos  -Desejável Certificações (ITIL/CCNA/similar). Experiência prévia em monitorar de ambientes críticos ou NOC
+Empresa .....:  VEGACON TECNOLOGIA EM INFORMATICA LTDA</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Sorocaba - SP - 17/01/26 || Analista de Suporte NOC || -Responsabilidades Monitorar redes/servidores/serviços críticos em tempo real Identificar/analisar/resolver incidentes de forma rápida e eficiente Escalar problemas conforme procedimentos Garantir a disponibilidade/performance dos sistemas monitorados Documentar ocorrências/manter registros atualizados Colaborar com equipes de suporte/engenharia para resolução de problemas  Trabalho presencial - Sorocaba  -Requisitos Técnicos Conhecimento em redes (TCP/IP, DNS, VPN, roteamento, switching) Experiência com ferramentas de monitoramento (Zabbix/Grafana/ITSM) Noções de SO’s (Linux/Windows) Familiaridade com protocolos/troubleshooting básico Inglês técnico - leitura/escrita/conversação  -Comportamental Atenção aos detalhes/proatividade Capacidade de trabalhar sob pressão/regime de plantão Boa comunicação/trabalho em equipe Organização/disciplina para seguir processos  -Desejável Certificações (ITIL/CCNA/similar). Experiência prévia em monitorar de ambientes críticos ou NOC || Empresa .....:  VEGACON TECNOLOGIA EM INFORMATICA LTDA</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>82691</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Consultor SAP MM Sênior</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 16/01/26</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Buscamos uma pessoa para aumentar nossa equipe de AMS.  Requisitos Obrigatórios:  Sólida experiência no módulo MM em projetos de implementação e suporte AMS Experiência em atendimento a Clientes atuando em equipes de Suportes Solido conhecimento de configurações e dos processos envolvidos no modulo: Compras, Tipos de documentos,Transferência, Subcontratação, Consignação, Estratégias de aprovação, Gestão de Estoques e Movimentações, Contabilização, Tipos de movimentos, Inventário, Movimentação de material, Integraçaõ com WM, Faturamento de Fornecedores, Faturas, Notas de Crédito, Impostos, BP Planejamento de necessidades de material (MRP) e políticas de reabastecimento Processos de devoluções, cancelamentos, notas de crédito e bloqueio de fatura Experiência e conhecimento de Localização Brasil Conhecimento de integração MM com FI, CO, SD e GRC Experiência em levantamento de requisitos, configuração, testes e suporte pós go-live  Híbrido em Campinas - SP
+Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 16/01/26 || Consultor SAP MM Sênior || Buscamos uma pessoa para aumentar nossa equipe de AMS.  Requisitos Obrigatórios:  Sólida experiência no módulo MM em projetos de implementação e suporte AMS Experiência em atendimento a Clientes atuando em equipes de Suportes Solido conhecimento de configurações e dos processos envolvidos no modulo: Compras, Tipos de documentos,Transferência, Subcontratação, Consignação, Estratégias de aprovação, Gestão de Estoques e Movimentações, Contabilização, Tipos de movimentos, Inventário, Movimentação de material, Integraçaõ com WM, Faturamento de Fornecedores, Faturas, Notas de Crédito, Impostos, BP Planejamento de necessidades de material (MRP) e políticas de reabastecimento Processos de devoluções, cancelamentos, notas de crédito e bloqueio de fatura Experiência e conhecimento de Localização Brasil Conhecimento de integração MM com FI, CO, SD e GRC Experiência em levantamento de requisitos, configuração, testes e suporte pós go-live  Híbrido em Campinas - SP || Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>82891</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Consultor Oracle APEX Sr</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 16/01/26</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Responsabilidades Criar aplicações web seguras utilizando Oracle APEX. Construir interfaces rápidas, funcionais e responsivas. Desenvolver lógica de negócio utilizando PL/SQL. Integrar APIs internas e externas (REST). Configurar autenticação, controle de acessos e auditoria. Garantir a qualidade das entregas e realizar testes funcionais. Documentar soluções de maneira objetiva e clara. Competências Técnicas Experiência com Oracle APEX (versões recentes). Domínio de PL/SQL avançado. Forte conhecimento em Oracle Database (índices, planos de execução, performance tuning). Conhecimento em JavaScript e HTML para customizações. Experiência com RESTful Web Services / ORDS. Uso de Git para versionamento de código.
+Empresa .....:  GRUPO TAKING</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 16/01/26 || Consultor Oracle APEX Sr || Responsabilidades Criar aplicações web seguras utilizando Oracle APEX. Construir interfaces rápidas, funcionais e responsivas. Desenvolver lógica de negócio utilizando PL/SQL. Integrar APIs internas e externas (REST). Configurar autenticação, controle de acessos e auditoria. Garantir a qualidade das entregas e realizar testes funcionais. Documentar soluções de maneira objetiva e clara. Competências Técnicas Experiência com Oracle APEX (versões recentes). Domínio de PL/SQL avançado. Forte conhecimento em Oracle Database (índices, planos de execução, performance tuning). Conhecimento em JavaScript e HTML para customizações. Experiência com RESTful Web Services / ORDS. Uso de Git para versionamento de código. || Empresa .....:  GRUPO TAKING</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>81876</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Oracle Cloud Operations-Líder de Suporte Funcional</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 16/01/26</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Requisitos: Sólido conhecimento funcional em Oracle ERP Cloud, especialmente nos módulos General Ledger, Ativos Fixos e Cash Management. Participação em 3+ implementações completas do Oracle Cloud Financials. Familiaridade com localizações e relatórios LACLS para o Brasil. Experiência em liderança de equipe (5 a 10 pessoas) e gestão de demandas dentro de SLAs. Domínio de BIP, PLSQL, FBDI, ADFDi, integrações SOAP/REST e boas práticas contábeis.  Excelente comunicação, resolução de problemas e capacidade de colaboração com times globais.  Fluência em português e inglês (mandatório).
+Empresa .....:  LIGHTHOUSE SOLUCOES EM INFORMATICA LTDA</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 16/01/26 || Oracle Cloud Operations-Líder de Suporte Funcional || Requisitos: Sólido conhecimento funcional em Oracle ERP Cloud, especialmente nos módulos General Ledger, Ativos Fixos e Cash Management. Participação em 3+ implementações completas do Oracle Cloud Financials. Familiaridade com localizações e relatórios LACLS para o Brasil. Experiência em liderança de equipe (5 a 10 pessoas) e gestão de demandas dentro de SLAs. Domínio de BIP, PLSQL, FBDI, ADFDi, integrações SOAP/REST e boas práticas contábeis.  Excelente comunicação, resolução de problemas e capacidade de colaboração com times globais.  Fluência em português e inglês (mandatório). || Empresa .....:  LIGHTHOUSE SOLUCOES EM INFORMATICA LTDA</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>81761</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Profissional de TI com Experiência em Licitações e</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 16/01/26</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Vaga para Analista de TI com experiência em licitações públicas, contratos administrativos e termos de referência. O profissional atuará na elaboração de documentos técnicos, planilhas de custos e especificações de equipamentos, além de apoiar processos de aquisição e acompanhar projetos de infraestrutura de rede. É necessário conhecimento em servidores, switches, access points, fibra óptica e demais equipamentos de TI, bem como compreensão das exigências legais da Lei nº 14.133/2021.  Desejável formação em TI, Engenharia de Redes, Sistemas ou áreas correlatas, experiência com licitações, boa redação técnica, organização e atenção a detalhes.  Conhecimento intermediário em Excel e ferramentas Google Workspace é essencial. Conhecimentos em certificações como FCC, CE, RoHS e ISO serão considerados diferenciais. Modalidade home office, regime PJ ou autônomo, horário flexível.
+Empresa .....:  Santa Alianca Serviços de Tecnologia</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 16/01/26 || Profissional de TI com Experiência em Licitações e || Vaga para Analista de TI com experiência em licitações públicas, contratos administrativos e termos de referência. O profissional atuará na elaboração de documentos técnicos, planilhas de custos e especificações de equipamentos, além de apoiar processos de aquisição e acompanhar projetos de infraestrutura de rede. É necessário conhecimento em servidores, switches, access points, fibra óptica e demais equipamentos de TI, bem como compreensão das exigências legais da Lei nº 14.133/2021.  Desejável formação em TI, Engenharia de Redes, Sistemas ou áreas correlatas, experiência com licitações, boa redação técnica, organização e atenção a detalhes.  Conhecimento intermediário em Excel e ferramentas Google Workspace é essencial. Conhecimentos em certificações como FCC, CE, RoHS e ISO serão considerados diferenciais. Modalidade home office, regime PJ ou autônomo, horário flexível. || Empresa .....:  Santa Alianca Serviços de Tecnologia</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>82775</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>ANALISTA DE SISTEMAS</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 16/01/26</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Analista de Sistemas  Requisitos: Conhecimentos avançados em : Fullstack (SpringBoot + Angular) Experiência e conhecimento com: Frontend: Angular 14+ Backend (SpringBoot) Linguagem: Java 17 Conhecimento em APIs REST, integração com serviços externos Conhecimento: com CI/CD e versionamento (Git) Familiaridade com bancos de dados relacionais Experiência e vivência, com projetos de desenvolvimento  Modelo de atuação: Hibrido (Região da Bela Vista - São Paulo - SP)  O que oferecemos? Contratação CLT Vale Refeição ou Alimentação Assistência Médica e Assistência Odontológica Auxílio creche Convênio com Farmácia Parcerias com Universidades e Escolas de Idiomas Parceria de descontos com Seguro Auto e Residência Gympass Seguro de Vida
+Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 16/01/26 || ANALISTA DE SISTEMAS || Analista de Sistemas  Requisitos: Conhecimentos avançados em : Fullstack (SpringBoot + Angular) Experiência e conhecimento com: Frontend: Angular 14+ Backend (SpringBoot) Linguagem: Java 17 Conhecimento em APIs REST, integração com serviços externos Conhecimento: com CI/CD e versionamento (Git) Familiaridade com bancos de dados relacionais Experiência e vivência, com projetos de desenvolvimento  Modelo de atuação: Hibrido (Região da Bela Vista - São Paulo - SP)  O que oferecemos? Contratação CLT Vale Refeição ou Alimentação Assistência Médica e Assistência Odontológica Auxílio creche Convênio com Farmácia Parcerias com Universidades e Escolas de Idiomas Parceria de descontos com Seguro Auto e Residência Gympass Seguro de Vida || Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>82836</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Analista Protheus</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 16/01/26</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>O profissional será responsável pela administração do sistema Totvs PROTHEUS e demais sistemas utilizados pela empresa, gerenciando correções, automações e ferramentas de IA. Atuará na coordenação da implantação de novos clientes, organização e personalização dos sistemas, além de treinar as áreas para uso correto e integral das ferramentas. Também será o ponto focal para suporte diário da equipe.  É necessário: - Possuir domínio do sistema Protheus - Ter experiência com implantação de sistemas - Possuir superior completo ou cursando TI - Ser apaixonado por inovação tecnológica - Disponibilidade para trabalhar híbrido (3 dias presencial e 2 dias home-office) - ficamos localizados próximo a estação de metrô Brigadeiro.
+Empresa .....:  Baker Tilly BPO</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 16/01/26 || Analista Protheus || O profissional será responsável pela administração do sistema Totvs PROTHEUS e demais sistemas utilizados pela empresa, gerenciando correções, automações e ferramentas de IA. Atuará na coordenação da implantação de novos clientes, organização e personalização dos sistemas, além de treinar as áreas para uso correto e integral das ferramentas. Também será o ponto focal para suporte diário da equipe.  É necessário: - Possuir domínio do sistema Protheus - Ter experiência com implantação de sistemas - Possuir superior completo ou cursando TI - Ser apaixonado por inovação tecnológica - Disponibilidade para trabalhar híbrido (3 dias presencial e 2 dias home-office) - ficamos localizados próximo a estação de metrô Brigadeiro. || Empresa .....:  Baker Tilly BPO</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>82125</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Cloud Migration Data to Analytics Senior</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 16/01/26</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Cargo: Cloud Migration Data to Analytics Senior Atuação: Barueri/SP – Híbrido (1x presencial) Modelo de contratação: CLT + Benefícios  Skill / Requisitos obrigatórios: Experiência com ETL  Integração de dados Planejamento estratégico com base em dados Conhecimento em Algorithms and Data Structures Capacidade analítica e resolutiva Agilidade e proatividade Inglês  Diferenciais: Experiência com pipelines de dados e validações pré e pós ETL Experiência com governança e qualidade de dados Experiência atuando junto a áreas de Analytics  Benefícios: Assistência médica e odontológica VR e VA flexível Gympass e Wellz Parceria com o SESC Descontos em restaurantes Descontos em cursos técnicos e de ensino superior Descontos em escolas e plataformas de idiomas
+Empresa .....:  Foursys</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 16/01/26 || Cloud Migration Data to Analytics Senior || Cargo: Cloud Migration Data to Analytics Senior Atuação: Barueri/SP – Híbrido (1x presencial) Modelo de contratação: CLT + Benefícios  Skill / Requisitos obrigatórios: Experiência com ETL  Integração de dados Planejamento estratégico com base em dados Conhecimento em Algorithms and Data Structures Capacidade analítica e resolutiva Agilidade e proatividade Inglês  Diferenciais: Experiência com pipelines de dados e validações pré e pós ETL Experiência com governança e qualidade de dados Experiência atuando junto a áreas de Analytics  Benefícios: Assistência médica e odontológica VR e VA flexível Gympass e Wellz Parceria com o SESC Descontos em restaurantes Descontos em cursos técnicos e de ensino superior Descontos em escolas e plataformas de idiomas || Empresa .....:  Foursys</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>82801</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Backend Python</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 16/01/26</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Prazo: 5 meses, com chance de prorrogar Contratação: PJ Local: Remoto - 1x no mês no escritório, Grande SP  Inglês avançado Experiência em Python e desenvolvimento backend, incluindo boas práticas e padrões de projetos, testes automatizados e otimização de código. (FastAPI, Flask, Django) Conhecimento profundo em frameworks para IA generativa, especialmente LangChain e LangGraph, e familiaridade com conceitos de Orquestração de Multi-Agentes Sólida base em arquitetura de containers, com habilidade para criar imagens eficientes e configurar orquestradores para ambientes escaláveis utilizando Kubernetes Proficiência em bancos de dados relacionais, com foco em modelagem, tuning de performance e integridade em PostgreSQL Experiência com construção de ferramentas utilizando MCP (Model Context Protocol) e sistemas RAG (Retrieval-Augmented Generation). Experiência em ambientes cloud (AWS, Azure ou GCP), envolvendo deploy, monitoramento e otimização de recursos.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 16/01/26 || Desenvolvedor Backend Python || Prazo: 5 meses, com chance de prorrogar Contratação: PJ Local: Remoto - 1x no mês no escritório, Grande SP  Inglês avançado Experiência em Python e desenvolvimento backend, incluindo boas práticas e padrões de projetos, testes automatizados e otimização de código. (FastAPI, Flask, Django) Conhecimento profundo em frameworks para IA generativa, especialmente LangChain e LangGraph, e familiaridade com conceitos de Orquestração de Multi-Agentes Sólida base em arquitetura de containers, com habilidade para criar imagens eficientes e configurar orquestradores para ambientes escaláveis utilizando Kubernetes Proficiência em bancos de dados relacionais, com foco em modelagem, tuning de performance e integridade em PostgreSQL Experiência com construção de ferramentas utilizando MCP (Model Context Protocol) e sistemas RAG (Retrieval-Augmented Generation). Experiência em ambientes cloud (AWS, Azure ou GCP), envolvendo deploy, monitoramento e otimização de recursos. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vagas_apinfo.xlsx
+++ b/vagas_apinfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I368"/>
+  <dimension ref="A1:I480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17489,6 +17489,5177 @@
         <v>20</v>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>82322</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Liderança / Coordenador Técnico</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Belo Horizonte - MG - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Perfil: Liderança / Coordenador Técnico  Requisitos: •	Experiência comprovada em gestão de equipes de suporte ou operações de TI •	Habilidade para liderar projetos, definir prioridades e garantir entregas dentro dos prazos •	Excelente comunicação, visão estratégica e foco em resultados  Conhecimento em ServiceNow: o	Administração da plataforma o	Gestão de incidentes, requisições, problemas e mudanças o	Criação de relatórios e dashboards o	Integrações e automações de processos  Diferenciais: •	Certificações ITIL, PMP ou ServiceNow •	Vivência em ambientes corporativos com alta demanda e SLA crítico •	Capacidade de atuar como ponte entre áreas técnicas e de negócio  Modelo de contratação: PJ (MEI) Local de Trabalho: AVENIDA BERNARDO DE VASCONCELOS - BELO HORIZONTE, MINAS GERAIS
+Empresa .....:  GMUD TECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Belo Horizonte - MG - 21/01/26 || Liderança / Coordenador Técnico || Perfil: Liderança / Coordenador Técnico  Requisitos: •	Experiência comprovada em gestão de equipes de suporte ou operações de TI •	Habilidade para liderar projetos, definir prioridades e garantir entregas dentro dos prazos •	Excelente comunicação, visão estratégica e foco em resultados  Conhecimento em ServiceNow: o	Administração da plataforma o	Gestão de incidentes, requisições, problemas e mudanças o	Criação de relatórios e dashboards o	Integrações e automações de processos  Diferenciais: •	Certificações ITIL, PMP ou ServiceNow •	Vivência em ambientes corporativos com alta demanda e SLA crítico •	Capacidade de atuar como ponte entre áreas técnicas e de negócio  Modelo de contratação: PJ (MEI) Local de Trabalho: AVENIDA BERNARDO DE VASCONCELOS - BELO HORIZONTE, MINAS GERAIS || Empresa .....:  GMUD TECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>83338</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Analista Design Thinking (DT)</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Analista de Design Thinking (DT)  Requisitos: Planejar e conduzir pesquisas exploratórias e generativas, com foco em apoiar o desenvolvimento de produtos e serviços Analisar dados qualitativos para identificar comportamentos, necessidades e motivações, transformando-os em insights acionáveis Identificar, desenvolver e implementar novas ferramentas de pesquisa, promovendo inovação e melhoria contínua Idear e prototipar soluções para produtos, serviços e sistemas, incluindo a criação de esboços, storyboards e outros artefatos para comunicar, validar e aperfeiçoar ideias Transformar os insights de pesquisa em informações acionáveis para jornadas de produto e/ou de serviço Usar abordagens iterativas para transformar ideias em protótipos conceituais, incorporando feedback dos usuários para aprimorar a solução Planejar e desenvolver oficinas de cocriação para facilitar a resolução de problemas organizacionais e/ou o desenvolvimento de produtos e serviços
+Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 21/01/26 || Analista Design Thinking (DT) || Analista de Design Thinking (DT)  Requisitos: Planejar e conduzir pesquisas exploratórias e generativas, com foco em apoiar o desenvolvimento de produtos e serviços Analisar dados qualitativos para identificar comportamentos, necessidades e motivações, transformando-os em insights acionáveis Identificar, desenvolver e implementar novas ferramentas de pesquisa, promovendo inovação e melhoria contínua Idear e prototipar soluções para produtos, serviços e sistemas, incluindo a criação de esboços, storyboards e outros artefatos para comunicar, validar e aperfeiçoar ideias Transformar os insights de pesquisa em informações acionáveis para jornadas de produto e/ou de serviço Usar abordagens iterativas para transformar ideias em protótipos conceituais, incorporando feedback dos usuários para aprimorar a solução Planejar e desenvolver oficinas de cocriação para facilitar a resolução de problemas organizacionais e/ou o desenvolvimento de produtos e serviços || Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>83337</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Analista User Experience - UX</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>O que Buscamos? Analista User Experience - UX  Experiência e conhecimentos técnicos necessários Sólida experiência com pesquisa em UX e métodos qualitativos e quantitativos Conhecimento em acessibilidade digital Vivência na aplicação de métricas de UX e capacidade de gerar insights acionáveis Experiência com Design Thinking, processos de discovery e metodologias ágeis (Scrum, Lean, etc.) Conduzir pesquisas qualitativas e quantitativas com usuários, desde o planejamento até a análise e Realizar entrevistas com usuários e stakeholders, testes de usabilidade e sessões de validação de hipóteses Mapear jornadas completas do usuário (antes, durante e depois do uso do serviço), identificando pontos de fricção e oportunidades de melhoria Criar fluxos, mapas de empatia, personas e outras representações que suportem a tomada de decisão em produto e design Atuar na estruturação e acompanhamento de métricas de experiência do usuário
+Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 21/01/26 || Analista User Experience - UX || O que Buscamos? Analista User Experience - UX  Experiência e conhecimentos técnicos necessários Sólida experiência com pesquisa em UX e métodos qualitativos e quantitativos Conhecimento em acessibilidade digital Vivência na aplicação de métricas de UX e capacidade de gerar insights acionáveis Experiência com Design Thinking, processos de discovery e metodologias ágeis (Scrum, Lean, etc.) Conduzir pesquisas qualitativas e quantitativas com usuários, desde o planejamento até a análise e Realizar entrevistas com usuários e stakeholders, testes de usabilidade e sessões de validação de hipóteses Mapear jornadas completas do usuário (antes, durante e depois do uso do serviço), identificando pontos de fricção e oportunidades de melhoria Criar fluxos, mapas de empatia, personas e outras representações que suportem a tomada de decisão em produto e design Atuar na estruturação e acompanhamento de métricas de experiência do usuário || Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>83334</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Supervisor BPO (Campinas)</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Requisitos Necessários • Ensino superior completo (Administração, Gestão de Processos, Engenharia de Produção ou áreas correlatas). • Experiência prévia em supervisão de equipes, preferencialmente em operações BPO ou áreas de atendimento. • Conhecimento em gestão de indicadores de qualidade e métricas de treinamento. • Habilidade para análise de dados e elaboração de relatórios gerenciais. • Boa comunicação, liderança e capacidade de tomada de decisão.
+Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 21/01/26 || Supervisor BPO (Campinas) || Requisitos Necessários • Ensino superior completo (Administração, Gestão de Processos, Engenharia de Produção ou áreas correlatas). • Experiência prévia em supervisão de equipes, preferencialmente em operações BPO ou áreas de atendimento. • Conhecimento em gestão de indicadores de qualidade e métricas de treinamento. • Habilidade para análise de dados e elaboração de relatórios gerenciais. • Boa comunicação, liderança e capacidade de tomada de decisão. || Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>83328</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Consultor SAP FI CO</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Exterior - EX - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Somos a iem IT, uma empresa de consultoria e desenvolvimento de sistemas que tem o propósito de construir uma organização centrada nas pessoas. Para isso, nos baseamos nos princípios de empatia, diversidade e humanidade.  Estamos em busca de uma pessoa Consultor SAP FI CO, para atuação em Querétano/México, com atividades:  Atuação sênior e autônoma e integração com outros módulos SAP (SD, MM, PP, etc.) Resolver problemas complexos e liderar projetos  Domínio funcional completo dos módulos: Contabilidade Geral (GL) Contas a Pagar (AP) e Receber (AR) Ativos Fixos (FI-AA) Centro de Custo (CCA), Ordens Internas e CO-PA  Experiência sólida em SAP S/4HANA, incluindo participação ou liderança em projetos de migração ECC S/4HANA Conhecimento contábil e fiscal consistente (BR GAAP, IFRS, US GAAP) e legislação brasileira vigente.  Venha fazer parte da iem IT
+Empresa .....:  iem IT</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Exterior - EX - 21/01/26 || Consultor SAP FI CO || Somos a iem IT, uma empresa de consultoria e desenvolvimento de sistemas que tem o propósito de construir uma organização centrada nas pessoas. Para isso, nos baseamos nos princípios de empatia, diversidade e humanidade.  Estamos em busca de uma pessoa Consultor SAP FI CO, para atuação em Querétano/México, com atividades:  Atuação sênior e autônoma e integração com outros módulos SAP (SD, MM, PP, etc.) Resolver problemas complexos e liderar projetos  Domínio funcional completo dos módulos: Contabilidade Geral (GL) Contas a Pagar (AP) e Receber (AR) Ativos Fixos (FI-AA) Centro de Custo (CCA), Ordens Internas e CO-PA  Experiência sólida em SAP S/4HANA, incluindo participação ou liderança em projetos de migração ECC S/4HANA Conhecimento contábil e fiscal consistente (BR GAAP, IFRS, US GAAP) e legislação brasileira vigente.  Venha fazer parte da iem IT || Empresa .....:  iem IT</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>83349</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Consultor Funcional FI Sênior</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Fortaleza - CE - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>*Candidatos de todo Brasil podem participar do processo seletivo.  Requisitos: Longa experiência como consultor funcional de FI Atuação em projetos S/4HANA, implementando ou reimplementando o FI Total domínio em AP, AR, New GL, Configuração de Bancos e AA.  Disponibilidade para atuação híbrida no cliente em Fortaleza-CE, com atividades em períodos presenciais e remotas e despesas custeadas pela empresa.  Atividades: Atuará nas fases de Explore, Realize, Deploy e Hypercare, sendo: Reuniões com o time de negócio para levantamento dos requisitos Elaboração e apresentação dos workshops A e B Elaboração do BPDD, identificando os gaps e validando os processos core Configurações, especificações funcionais, testes unitários, treinamento Acompanhar os Testes Integrados Elaboração e execução do Plano de Cutover Acompanhar o hypercare, prestando o suporte necessário.
+Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Fortaleza - CE - 21/01/26 || Consultor Funcional FI Sênior || *Candidatos de todo Brasil podem participar do processo seletivo.  Requisitos: Longa experiência como consultor funcional de FI Atuação em projetos S/4HANA, implementando ou reimplementando o FI Total domínio em AP, AR, New GL, Configuração de Bancos e AA.  Disponibilidade para atuação híbrida no cliente em Fortaleza-CE, com atividades em períodos presenciais e remotas e despesas custeadas pela empresa.  Atividades: Atuará nas fases de Explore, Realize, Deploy e Hypercare, sendo: Reuniões com o time de negócio para levantamento dos requisitos Elaboração e apresentação dos workshops A e B Elaboração do BPDD, identificando os gaps e validando os processos core Configurações, especificações funcionais, testes unitários, treinamento Acompanhar os Testes Integrados Elaboração e execução do Plano de Cutover Acompanhar o hypercare, prestando o suporte necessário. || Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>83351</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Consultor Funcional SAP FI (Cash Management) Sr</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Fortaleza - CE - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>* Candidatura para todo Brasil*  Requisitos: Vasta experiência como consultor funcional SAP Experiência em, no mínimo, 6 anos como consultor funcional Cash Management Atuação em projetos S4, implementando ou reimplementando o Cash Management full Conhecimento das estruturas de campos e tabelas para desenho de integrações com sistemas legados.  Atividades: Atuará nas fases de Explore, Realize, Deploy e Hypercare, sendo: Reuniões com o time de negócio para levantamento dos requisitos Elaboração e apresentação dos workshops A e B Elaboração do BPDD, identificando os gaps e validando os processos core Configurações, especificações funcionais, testes unitários, treinamento Acompanhar os Testes Integrados Elaboração e execução do Plano de Cutover Acompanhar o hypercare, prestando o suporte necessário.  Disponibilidade para híbrido no cliente em Fortaleza-CE, com atividades em períodos presenciais e remotos, com despesas custeadas pela empresa Tempo: Indeterminado
+Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Fortaleza - CE - 21/01/26 || Consultor Funcional SAP FI (Cash Management) Sr || * Candidatura para todo Brasil*  Requisitos: Vasta experiência como consultor funcional SAP Experiência em, no mínimo, 6 anos como consultor funcional Cash Management Atuação em projetos S4, implementando ou reimplementando o Cash Management full Conhecimento das estruturas de campos e tabelas para desenho de integrações com sistemas legados.  Atividades: Atuará nas fases de Explore, Realize, Deploy e Hypercare, sendo: Reuniões com o time de negócio para levantamento dos requisitos Elaboração e apresentação dos workshops A e B Elaboração do BPDD, identificando os gaps e validando os processos core Configurações, especificações funcionais, testes unitários, treinamento Acompanhar os Testes Integrados Elaboração e execução do Plano de Cutover Acompanhar o hypercare, prestando o suporte necessário.  Disponibilidade para híbrido no cliente em Fortaleza-CE, com atividades em períodos presenciais e remotos, com despesas custeadas pela empresa Tempo: Indeterminado || Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>82197</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Auxiliar de TI</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Local: Guarulhos/SP — Totalmente Presencial  Horário: Seg a sex, das 08h às 18h (1h de almoço) Benefícios: Café da manhã no local, VR e VT Salário: R$ 1.900,00  Responsabilidades Atender clientes via acesso remoto para resolução de chamados de TI Padronizar e atualizar documentações técnicas dos clientes Elaborar relatórios gerais e registros de atendimento Montar e desmontar máquinas, realizar formatações, backups e configurações gerais  O que esperamos de você Procuramos alguém comprometido, pontual e eficiente, que saiba lidar bem com pessoas e tenha vontade de aprender todos os dias. Se você é organizado, curioso e tem prazer em resolver problemas, vai se encaixar perfeitamente no nosso time Ter experiência anterior em TI (mesmo que estágio) será considerado um diferencial.  Requisitos Residir em Guarulhos/SP (obrigatório) Curso técnico ou superior em TI
+Empresa .....:  CADDI</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 21/01/26 || Auxiliar de TI || Local: Guarulhos/SP — Totalmente Presencial  Horário: Seg a sex, das 08h às 18h (1h de almoço) Benefícios: Café da manhã no local, VR e VT Salário: R$ 1.900,00  Responsabilidades Atender clientes via acesso remoto para resolução de chamados de TI Padronizar e atualizar documentações técnicas dos clientes Elaborar relatórios gerais e registros de atendimento Montar e desmontar máquinas, realizar formatações, backups e configurações gerais  O que esperamos de você Procuramos alguém comprometido, pontual e eficiente, que saiba lidar bem com pessoas e tenha vontade de aprender todos os dias. Se você é organizado, curioso e tem prazer em resolver problemas, vai se encaixar perfeitamente no nosso time Ter experiência anterior em TI (mesmo que estágio) será considerado um diferencial.  Requisitos Residir em Guarulhos/SP (obrigatório) Curso técnico ou superior em TI || Empresa .....:  CADDI</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>83339</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Analista de Testes Automatizados</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Buscamos profissional de QA Automation para atuar com testes automatizados de API, performance e cenários financeiros complexos, garantindo qualidade em sistemas de pagamentos.  Atividades: •	Automação de testes de API (RestAssured, Postman/Newman) •	Testes de carga e stress (JMeter, K6 ou Gatling) •	Validação de cenários financeiros (PIX, Open Finance) •	Execução de testes em pipeline CI/CD  Requisitos: •	Conhecimento em meios de pagamento e regulatórios •	Lógica de programação (preferencialmente Java) •	Testes de API (Postman, Insomnia, Swagger) •	Queries em banco de dados (MariaDB/Mongo) •	Experiência com BDD (Gherkin/Cucumber)
+Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Analista de Testes Automatizados || Buscamos profissional de QA Automation para atuar com testes automatizados de API, performance e cenários financeiros complexos, garantindo qualidade em sistemas de pagamentos.  Atividades: •	Automação de testes de API (RestAssured, Postman/Newman) •	Testes de carga e stress (JMeter, K6 ou Gatling) •	Validação de cenários financeiros (PIX, Open Finance) •	Execução de testes em pipeline CI/CD  Requisitos: •	Conhecimento em meios de pagamento e regulatórios •	Lógica de programação (preferencialmente Java) •	Testes de API (Postman, Insomnia, Swagger) •	Queries em banco de dados (MariaDB/Mongo) •	Experiência com BDD (Gherkin/Cucumber) || Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>82738</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Analista de Testes Sênior</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Analista de Testes Sênior para liderar QA em migrações para Azure. Planejará e executará testes automatizados (frontend/back-end), integrará scripts a CI/CD e atuará com devs em squads ágeis.  Requisitos: experiência comprovada em projetos de cloud (Azure), automação de testes (Selenium, Cypress, Playwright ou Appium), APIs REST, Git, programação (Java/JS/Python), Jira/Confluence e inglês avançado.  Ambiente dinâmico, colaborativo e focado em entregas. Modalidade: PJ Local: Home Office.
+Empresa .....:  Taking Results e Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Analista de Testes Sênior || Analista de Testes Sênior para liderar QA em migrações para Azure. Planejará e executará testes automatizados (frontend/back-end), integrará scripts a CI/CD e atuará com devs em squads ágeis.  Requisitos: experiência comprovada em projetos de cloud (Azure), automação de testes (Selenium, Cypress, Playwright ou Appium), APIs REST, Git, programação (Java/JS/Python), Jira/Confluence e inglês avançado.  Ambiente dinâmico, colaborativo e focado em entregas. Modalidade: PJ Local: Home Office. || Empresa .....:  Taking Results e Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>82819</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Analista Linux – Projetos Zabbix, Wazuh, pfSense</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Estamos buscando um Analista Linux para atuar em projetos SaaS, monitoramento, segurança e infraestrutura. Trabalho Totalmente remoto, modelo PJ.  Responsável por implantar, configurar e manter Zabbix, Wazuh, pfSense, Grafana e Graylog administrar servidores Linux criar dashboards, alertas e integrações implementar VPNs, regras, NAT, VLAN, HA e políticas de segurança realizar hardening, tuning, análise de logs e troubleshooting avançado além de apoiar implantações e melhorias em ambientes corporativos distribuídos.  Requisitos: domínio em Linux, experiência comprovada com Zabbix / Wazuh / Grafana / pfSense / Graylog, vivência em SaaS, sólidos conhecimentos de redes e segurança e disponibilidade remota.  Diferenciais: experiência com HAProxy, Nginx, Docker, Proxmox ou Kubernetes, certificações e integrações via API.  Contratação PJ para atuação contínua e sob demanda REMOTO - TODO O BRASIL.
+Empresa .....:  HPY Consulting</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Analista Linux – Projetos Zabbix, Wazuh, pfSense || Estamos buscando um Analista Linux para atuar em projetos SaaS, monitoramento, segurança e infraestrutura. Trabalho Totalmente remoto, modelo PJ.  Responsável por implantar, configurar e manter Zabbix, Wazuh, pfSense, Grafana e Graylog administrar servidores Linux criar dashboards, alertas e integrações implementar VPNs, regras, NAT, VLAN, HA e políticas de segurança realizar hardening, tuning, análise de logs e troubleshooting avançado além de apoiar implantações e melhorias em ambientes corporativos distribuídos.  Requisitos: domínio em Linux, experiência comprovada com Zabbix / Wazuh / Grafana / pfSense / Graylog, vivência em SaaS, sólidos conhecimentos de redes e segurança e disponibilidade remota.  Diferenciais: experiência com HAProxy, Nginx, Docker, Proxmox ou Kubernetes, certificações e integrações via API.  Contratação PJ para atuação contínua e sob demanda REMOTO - TODO O BRASIL. || Empresa .....:  HPY Consulting</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>83346</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Arquiteto de Software / Tech Lead .NET (Sênior)</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Buscamos um(a) Staff Engineer .NET para atuar em ambiente corporativo de alta complexidade, com papel estratégico na definição de arquitetura, padronização técnica e evolução de soluções backend em .NET C#. O profissional atuará de forma transversal aos times, apoiando decisões técnicas, garantindo qualidade, escalabilidade e sustentabilidade das aplicações.  Atividades: Desenvolvimento e evolução de aplicações em .NET C#, atuação com microserviços e DDD, aplicação de padrões como CQRS, Mediator e Clean Architecture, testes unitários com xUnit, integração com banco Oracle (PL/SQL), apoio a CI/CD (Azure DevOps) e mentoria técnica.  Requisitos: Experiência sólida com .NET Core / .NET 6+, microserviços, DDD, testes unitários (xUnit), Oracle/PLSQL, Docker, Kubernetes e CI/CD.  Diferenciais: Arquitetura orientada a eventos (Kafka/RabbitMQ), experiência como Staff, Arquiteto ou Tech Lead, cloud (Azure/AWS).  Enviar currículo com pretensão salarial PJ
+Empresa .....:  AJV Sistemas</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Arquiteto de Software / Tech Lead .NET (Sênior) || Buscamos um(a) Staff Engineer .NET para atuar em ambiente corporativo de alta complexidade, com papel estratégico na definição de arquitetura, padronização técnica e evolução de soluções backend em .NET C#. O profissional atuará de forma transversal aos times, apoiando decisões técnicas, garantindo qualidade, escalabilidade e sustentabilidade das aplicações.  Atividades: Desenvolvimento e evolução de aplicações em .NET C#, atuação com microserviços e DDD, aplicação de padrões como CQRS, Mediator e Clean Architecture, testes unitários com xUnit, integração com banco Oracle (PL/SQL), apoio a CI/CD (Azure DevOps) e mentoria técnica.  Requisitos: Experiência sólida com .NET Core / .NET 6+, microserviços, DDD, testes unitários (xUnit), Oracle/PLSQL, Docker, Kubernetes e CI/CD.  Diferenciais: Arquitetura orientada a eventos (Kafka/RabbitMQ), experiência como Staff, Arquiteto ou Tech Lead, cloud (Azure/AWS).  Enviar currículo com pretensão salarial PJ || Empresa .....:  AJV Sistemas</t>
+        </is>
+      </c>
+      <c r="I380" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>82812</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Arquiteto de Software SR</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Vaga Remota - com idas esporádicas ao Cliente Contrato PJ  Atuará como especialista em arquitetura para soluções em uma empresa de Agronegócios. Será responsável por garantir que as integrações, regras de negócio e compliance estejam alinhadas às exigências da companhia.  Principais responsabilidades: • Definir arquitetura • Garantir integração segura e eficiente com sistemas internos • Apoiar squads na evolução e na transformação digital.  Competências Técnicas:	Requisitos técnicos: • Experiência com integrações via APIs e mensageria.  A empresa busca um arquiteto não ligada a nenhuma linguagem específica mas que tenha bastante experiência para poder sugerir as melhores soluções para a empresa.
+Empresa .....:  Plus-It</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Arquiteto de Software SR || Vaga Remota - com idas esporádicas ao Cliente Contrato PJ  Atuará como especialista em arquitetura para soluções em uma empresa de Agronegócios. Será responsável por garantir que as integrações, regras de negócio e compliance estejam alinhadas às exigências da companhia.  Principais responsabilidades: • Definir arquitetura • Garantir integração segura e eficiente com sistemas internos • Apoiar squads na evolução e na transformação digital.  Competências Técnicas:	Requisitos técnicos: • Experiência com integrações via APIs e mensageria.  A empresa busca um arquiteto não ligada a nenhuma linguagem específica mas que tenha bastante experiência para poder sugerir as melhores soluções para a empresa. || Empresa .....:  Plus-It</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>82237</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Business Analyst Sênior ( Foco Azure) - Remoto</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Atuação remoto Inglês: Avançado/Fluente ( Conversação em Inglês)  Importante: Para esse contrato específico, o início será em Janeiro de 2026. O contrato de prestação de serviços abrange a responsabilidade de consultoria como  Business Analyst, com envolvimento direto em iniciativas de transformação digital e modernização de sistemas legados.  Requer ter já atuado em contratos anteriores com projetos de cloud migration e conhecimento sólido sobre os stacks de tecnologia Azure. (projetos de migração de aplicações para a nuvem (Azure) Vivência com metodologias ágeis (Scrum/Kanban) Inglês avançado ou fluente para comunicação Levantar, analisar e documentar requisitos funcionais e técnicos relacionados à migração para Azure Mapear processos de negócio e identificar oportunidades de otimização Atuar como ponte entre o time técnico e as áreas de negócio Elaborar documentação detalhada (BRD, FRD, User Stories, etc.) Apoiar nas fases de teste e validação pós-migração
+Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Business Analyst Sênior ( Foco Azure) - Remoto || Atuação remoto Inglês: Avançado/Fluente ( Conversação em Inglês)  Importante: Para esse contrato específico, o início será em Janeiro de 2026. O contrato de prestação de serviços abrange a responsabilidade de consultoria como  Business Analyst, com envolvimento direto em iniciativas de transformação digital e modernização de sistemas legados.  Requer ter já atuado em contratos anteriores com projetos de cloud migration e conhecimento sólido sobre os stacks de tecnologia Azure. (projetos de migração de aplicações para a nuvem (Azure) Vivência com metodologias ágeis (Scrum/Kanban) Inglês avançado ou fluente para comunicação Levantar, analisar e documentar requisitos funcionais e técnicos relacionados à migração para Azure Mapear processos de negócio e identificar oportunidades de otimização Atuar como ponte entre o time técnico e as áreas de negócio Elaborar documentação detalhada (BRD, FRD, User Stories, etc.) Apoiar nas fases de teste e validação pós-migração || Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>82824</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java Sr - Swing, JavaFX</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Experiência em desenvolvimento e sustentação das soluções suportadas pelo time ágil, considerando todo o ciclo de vida, desde a etapa de concepção, análise, projeto, implementação, testes, implantação.  Frameworks: JavaFX, Spring Boot e AngularJS SQL para consultas e manipulação de dados Git para versionamento de código  Superior completo em cursos relacionados a TI. Atuação Totalmente remota
+Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Desenvolvedor Java Sr - Swing, JavaFX || Experiência em desenvolvimento e sustentação das soluções suportadas pelo time ágil, considerando todo o ciclo de vida, desde a etapa de concepção, análise, projeto, implementação, testes, implantação.  Frameworks: JavaFX, Spring Boot e AngularJS SQL para consultas e manipulação de dados Git para versionamento de código  Superior completo em cursos relacionados a TI. Atuação Totalmente remota || Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="I383" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>83344</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Mendix Sênior</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Oportunidade: Desenvolvedor Mendix Sênior  Período: 4 meses podendo ser postergado Modelo de atuação: Remoto Contrato: PJ  Requisitos: Experiência com desenvolvimento de aplicações utilizando a plataforma Mendix Experiência nível sênior na função de Dev. Mendix Fornecer orientação técnica e funcional para a equipe de desenvolvimento Definir critérios de aceitação e realizar testes de aceitação do usuário Inglês intermediário.  Atividades: Projeto de melhorias
+Empresa .....:  Runtalent</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Desenvolvedor Mendix Sênior || Oportunidade: Desenvolvedor Mendix Sênior  Período: 4 meses podendo ser postergado Modelo de atuação: Remoto Contrato: PJ  Requisitos: Experiência com desenvolvimento de aplicações utilizando a plataforma Mendix Experiência nível sênior na função de Dev. Mendix Fornecer orientação técnica e funcional para a equipe de desenvolvimento Definir critérios de aceitação e realizar testes de aceitação do usuário Inglês intermediário.  Atividades: Projeto de melhorias || Empresa .....:  Runtalent</t>
+        </is>
+      </c>
+      <c r="I384" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>82873</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Desenvolvedor TypeScript, Node, React, NextJS</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Manutenção e Atualizações de Sistemas: Realizar manutenções preventivas e corretivas em sistemas de software. Implementar atualizações e patches de software para garantir a segurança e a funcionalidade dos sistemas.  Monitorar o desempenho dos sistemas e identificar possíveis melhorias Documentação: Manter registros precisos de todos os problemas, soluções e atividades de suporte em sistemas de gerenciamento de tickets  Criar e atualizar documentação de sistemas, manuais de usuário e procedimentos operacionais. Elaborar relatórios de desempenho e incidentes de sistemas.  Colaboração com Equipes Internas e Fornecedores: Trabalhar em conjunto com outras equipes de TI para resolver problemas complexos e implementar novos sistemas.  Coordenar com fornecedores de software para solucionar problemas e implementar atualizações. Garantia de Qualidade: Seguir os padrões de qualidade e conformidade estabelecidos. Colaborar com elaboração de procedimentos instruções de trabalhos
+Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Desenvolvedor TypeScript, Node, React, NextJS || Manutenção e Atualizações de Sistemas: Realizar manutenções preventivas e corretivas em sistemas de software. Implementar atualizações e patches de software para garantir a segurança e a funcionalidade dos sistemas.  Monitorar o desempenho dos sistemas e identificar possíveis melhorias Documentação: Manter registros precisos de todos os problemas, soluções e atividades de suporte em sistemas de gerenciamento de tickets  Criar e atualizar documentação de sistemas, manuais de usuário e procedimentos operacionais. Elaborar relatórios de desempenho e incidentes de sistemas.  Colaboração com Equipes Internas e Fornecedores: Trabalhar em conjunto com outras equipes de TI para resolver problemas complexos e implementar novos sistemas.  Coordenar com fornecedores de software para solucionar problemas e implementar atualizações. Garantia de Qualidade: Seguir os padrões de qualidade e conformidade estabelecidos. Colaborar com elaboração de procedimentos instruções de trabalhos || Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="I385" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>82869</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) Java Kotlin Sênior</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Estamos buscando pessoas que sejam comprometidas com resultados, que busquem ser protagonistas de sua carreira e que estejam prontas para oferecer soluções criativas e impactantes.  Oportunidade para Desenvolvedor(a) Java/Kotlin Sênior  Requisitos: Experiência sólida com Kotlin em aplicações backend Conhecimento profundo em desenvolvimento de APIs REST Conhecimento em banco de dados: PostgreSQL, MySQL ou similar Experiência com microsserviços e arquitetura baseada em eventos Sólido conhecimento em integrações assíncronas via mensageria (Kafka, SQS, etc.) Prática com testes automatizados e ferramentas de qualidade de código Experiência com ambientes de nuvem (AWS, GCP ou Azure) e conteinerização (Docker, Kubernetes). Ser flexível, independente e responsável Ter curiosidade e muita vontade de experimentar e aprender coisas novas.  Informações sobre a vaga: Modelo de trabalho Totalmente Home Office Contratação PJ , com possibilidade de efetivação CLT
+Empresa .....:  Onebrain</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Desenvolvedor(a) Java Kotlin Sênior || Estamos buscando pessoas que sejam comprometidas com resultados, que busquem ser protagonistas de sua carreira e que estejam prontas para oferecer soluções criativas e impactantes.  Oportunidade para Desenvolvedor(a) Java/Kotlin Sênior  Requisitos: Experiência sólida com Kotlin em aplicações backend Conhecimento profundo em desenvolvimento de APIs REST Conhecimento em banco de dados: PostgreSQL, MySQL ou similar Experiência com microsserviços e arquitetura baseada em eventos Sólido conhecimento em integrações assíncronas via mensageria (Kafka, SQS, etc.) Prática com testes automatizados e ferramentas de qualidade de código Experiência com ambientes de nuvem (AWS, GCP ou Azure) e conteinerização (Docker, Kubernetes). Ser flexível, independente e responsável Ter curiosidade e muita vontade de experimentar e aprender coisas novas.  Informações sobre a vaga: Modelo de trabalho Totalmente Home Office Contratação PJ , com possibilidade de efetivação CLT || Empresa .....:  Onebrain</t>
+        </is>
+      </c>
+      <c r="I386" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>82266</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Engenheiro de Software Full-Stack Pleno</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Formação acadêmica obrigatória: Graduação em nível superior na área de Tecnologia da Informação (Engenharia de Software, Ciência da Computação, Engenharia da Computação, Sistemas de Informação).  Experiência exigida: Mínimo 3 anos de atividade prática relacionada à engenharia de software  Conhecimentos técnicos: Javascript, Angular, HTML 5, CSS, SQL e sólidos conhecimentos em Java.  Desejável: Certificado SCJP (Sun Certified Java Programmer), OCP (Oracle Certified Java Developer) ou OCA (Oracle Certified Java Associate)  Benefícios: Salário (CLT) de R$ 7.500 / 40h semanais / Ticket alimentação / Plano de saúde
+Empresa .....:  CRJA Consultoria</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || Engenheiro de Software Full-Stack Pleno || Formação acadêmica obrigatória: Graduação em nível superior na área de Tecnologia da Informação (Engenharia de Software, Ciência da Computação, Engenharia da Computação, Sistemas de Informação).  Experiência exigida: Mínimo 3 anos de atividade prática relacionada à engenharia de software  Conhecimentos técnicos: Javascript, Angular, HTML 5, CSS, SQL e sólidos conhecimentos em Java.  Desejável: Certificado SCJP (Sun Certified Java Programmer), OCP (Oracle Certified Java Developer) ou OCA (Oracle Certified Java Associate)  Benefícios: Salário (CLT) de R$ 7.500 / 40h semanais / Ticket alimentação / Plano de saúde || Empresa .....:  CRJA Consultoria</t>
+        </is>
+      </c>
+      <c r="I387" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>83345</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>GMO - Gestão de Mudanças</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Tipo de projeto: Pontual (2 meses) Modelo de atuação: Remoto  Sobre a oportunidade Buscamos um(a) profissional para atuar como GMO – Gestão de Mudança Organizacional, com papel estratégico em um projeto de transformação. A pessoa será responsável por liderar as iniciativas de Change Management, garantindo engajamento dos stakeholders, adoção das mudanças e sustentabilidade dos resultados ao longo do projeto.  Requisitos Experiência sólida em Gestão de Mudança Organizacional, preferencialmente em ambientes de consultoria ou projetos de transformação. Domínio de metodologias de Change Management (ex.: ADKAR, Kotter, HCMBOK, entre outras). Vivência em projetos corporativos de média ou alta complexidade, com múltiplos stakeholders. Experiência em projetos de transformação digital, ERP, reestruturação organizacional ou inovação. Conhecimento em Gestão de Projetos (PMO e/ou metodologias Ágeis) Inglês intermediário ou avançado
+Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 21/01/26 || GMO - Gestão de Mudanças || Tipo de projeto: Pontual (2 meses) Modelo de atuação: Remoto  Sobre a oportunidade Buscamos um(a) profissional para atuar como GMO – Gestão de Mudança Organizacional, com papel estratégico em um projeto de transformação. A pessoa será responsável por liderar as iniciativas de Change Management, garantindo engajamento dos stakeholders, adoção das mudanças e sustentabilidade dos resultados ao longo do projeto.  Requisitos Experiência sólida em Gestão de Mudança Organizacional, preferencialmente em ambientes de consultoria ou projetos de transformação. Domínio de metodologias de Change Management (ex.: ADKAR, Kotter, HCMBOK, entre outras). Vivência em projetos corporativos de média ou alta complexidade, com múltiplos stakeholders. Experiência em projetos de transformação digital, ERP, reestruturação organizacional ou inovação. Conhecimento em Gestão de Projetos (PMO e/ou metodologias Ágeis) Inglês intermediário ou avançado || Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="I388" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>83331</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>ANALISTA DE SISTEMAS (Protheus)</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Jundiaí - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Requisitos: Superior completo em Ciências da computação ou áreas relacionadas a tecnologia Experiência com ERP TOTVS Protheus Infraestrutura Protheus: controle de binários, aplicação de patchs, uso de VSCode e UPDDISTR Conhecimento em linguagem SQL para consultas e manipulação de dados Conhecimento em ADVPL será considerado um diferencial Desejável conhecimento nos módulos: Gestão de pessoal, ponto eletrônico e TAF (RH) Capacidade de análise de processos e levantamento de requisitos.  Principais Atividades: Prestar suporte funcional e técnico aos usuários Analisar e propor melhorias em processos relacionados ao ERP Protheus Desenvolver ou ajustar rotinas em ADVPL Realizar consultas, análises e manipulações de dados utilizando SQL Participar de projetos de implantação, atualização e integração de sistemas Documentar processos, configurações e personalizações realizadas Atuar em parceria com áreas de negócio e fornecedores de tecnologia Apoiar em integrações via API
+Empresa .....:  TRAGETTA</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Jundiaí - SP - 21/01/26 || ANALISTA DE SISTEMAS (Protheus) || Requisitos: Superior completo em Ciências da computação ou áreas relacionadas a tecnologia Experiência com ERP TOTVS Protheus Infraestrutura Protheus: controle de binários, aplicação de patchs, uso de VSCode e UPDDISTR Conhecimento em linguagem SQL para consultas e manipulação de dados Conhecimento em ADVPL será considerado um diferencial Desejável conhecimento nos módulos: Gestão de pessoal, ponto eletrônico e TAF (RH) Capacidade de análise de processos e levantamento de requisitos.  Principais Atividades: Prestar suporte funcional e técnico aos usuários Analisar e propor melhorias em processos relacionados ao ERP Protheus Desenvolver ou ajustar rotinas em ADVPL Realizar consultas, análises e manipulações de dados utilizando SQL Participar de projetos de implantação, atualização e integração de sistemas Documentar processos, configurações e personalizações realizadas Atuar em parceria com áreas de negócio e fornecedores de tecnologia Apoiar em integrações via API || Empresa .....:  TRAGETTA</t>
+        </is>
+      </c>
+      <c r="I389" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>82249</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Estagiário TI</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Pouso Alegre - MG - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Cursando Ciência da Computação ou Sistemas de Informação ou Técnico em informática ou Tecnologia em Redes de Computadores ou Análise e Desenvolvimento de Sistemas ou cursos correlatos na área de TI.  Cursos e Conhecimentos (Desejáveis): •	Noções de redes (TCP/IP, DHCP, DNS). •	Sistemas operacionais (Windows, Linux). •	Pacote Office (especialmente Outlook e Excel). •	Ferramentas de acesso remoto. •	Conceitos básicos do Active Directory. •	Desejável: conhecimento em ITIL ou interesse em aprender boas práticas  Atribuições / Atividades a serem desempenhadas por este novo cargo: •	Suporte técnico de primeiro nível (help desk) aos usuários (presencial e remoto). •	Auxílio na manutenção de computadores, impresso
+Empresa .....:  Ramagui Consultoria</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Pouso Alegre - MG - 21/01/26 || Estagiário TI || Cursando Ciência da Computação ou Sistemas de Informação ou Técnico em informática ou Tecnologia em Redes de Computadores ou Análise e Desenvolvimento de Sistemas ou cursos correlatos na área de TI.  Cursos e Conhecimentos (Desejáveis): •	Noções de redes (TCP/IP, DHCP, DNS). •	Sistemas operacionais (Windows, Linux). •	Pacote Office (especialmente Outlook e Excel). •	Ferramentas de acesso remoto. •	Conceitos básicos do Active Directory. •	Desejável: conhecimento em ITIL ou interesse em aprender boas práticas  Atribuições / Atividades a serem desempenhadas por este novo cargo: •	Suporte técnico de primeiro nível (help desk) aos usuários (presencial e remoto). •	Auxílio na manutenção de computadores, impresso || Empresa .....:  Ramagui Consultoria</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>82403</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Desenvolvedor de Software PHP Sênior</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Recife - PE - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Codificação, testes unitários, implementação e manutenção de software com foco em alta qualidade e aplicação de técnicas, normas e procedimentos atualizados. Atuação em PHP, back-end, front-end e full-stack, com projetos complexos e criação de novas soluções. Experiência mínima de 5 anos como Desenvolvedor de Software, com 3 certificações profissionais na área.  Formação superior em ciências exatas, computação ou áreas correlatas, ou graduação com pós- graduação mínima de 360 horas nas mesmas áreas. Domínio em linguagens orientadas a objeto, PHP (Composer), JavaScript, TypeScript, React e Angular. Conhecimento em SQL, Hibernate, práticas ágeis (Scrum, XP, Kanban), análise de requisitos, design patterns, microservices, modelagem de dados e arquitetura web. Experiência em JavaEE, JSF, MVC, Spring Boot, mensageria (RabbitMQ, Kafka) e integração REST.  Salário R$ 13.549 + benefícios.
+Empresa .....:  FSBR  FABRICA DE SOFTWARE DO BRASIL</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Recife - PE - 21/01/26 || Desenvolvedor de Software PHP Sênior || Codificação, testes unitários, implementação e manutenção de software com foco em alta qualidade e aplicação de técnicas, normas e procedimentos atualizados. Atuação em PHP, back-end, front-end e full-stack, com projetos complexos e criação de novas soluções. Experiência mínima de 5 anos como Desenvolvedor de Software, com 3 certificações profissionais na área.  Formação superior em ciências exatas, computação ou áreas correlatas, ou graduação com pós- graduação mínima de 360 horas nas mesmas áreas. Domínio em linguagens orientadas a objeto, PHP (Composer), JavaScript, TypeScript, React e Angular. Conhecimento em SQL, Hibernate, práticas ágeis (Scrum, XP, Kanban), análise de requisitos, design patterns, microservices, modelagem de dados e arquitetura web. Experiência em JavaEE, JSF, MVC, Spring Boot, mensageria (RabbitMQ, Kafka) e integração REST.  Salário R$ 13.549 + benefícios. || Empresa .....:  FSBR  FABRICA DE SOFTWARE DO BRASIL</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>82376</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Analista de Sistemas .NET</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Integração de sistemas industriais com plataformas de automação e IoT. Modelagem, implementação e otimização de bancos de dados em SQL Server. Implementação de soluções de Inteligência Artificial e Machine Learning para análise preditiva, automação de processos e otimização de operações industriais. Colaboração com equipes multidisciplinares para transformar desafios complexos em soluções tecnológicas inovadoras.  Requisitos Obrigatórios: Ensino superior em Análise de Sistemas, Engenharia de Software, Ciência da Computação, Engenharia de Controle e Automação ou áreas correlatas. Experiência sólida em desenvolvimento full stack com C# e .NET, Angular, SQL Server Conhecimento em Inteligência Artificial, Machine Learning ou Data Science, com aplicação em projetos práticos. Vivência com integração de sistemas industriais e protocolos de comunicação.  Diferenciais: Experiência anterior no setor siderúrgico ou em ambientes industriais de grande porte.
+Empresa .....:  Vija</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 21/01/26 || Analista de Sistemas .NET || Integração de sistemas industriais com plataformas de automação e IoT. Modelagem, implementação e otimização de bancos de dados em SQL Server. Implementação de soluções de Inteligência Artificial e Machine Learning para análise preditiva, automação de processos e otimização de operações industriais. Colaboração com equipes multidisciplinares para transformar desafios complexos em soluções tecnológicas inovadoras.  Requisitos Obrigatórios: Ensino superior em Análise de Sistemas, Engenharia de Software, Ciência da Computação, Engenharia de Controle e Automação ou áreas correlatas. Experiência sólida em desenvolvimento full stack com C# e .NET, Angular, SQL Server Conhecimento em Inteligência Artificial, Machine Learning ou Data Science, com aplicação em projetos práticos. Vivência com integração de sistemas industriais e protocolos de comunicação.  Diferenciais: Experiência anterior no setor siderúrgico ou em ambientes industriais de grande porte. || Empresa .....:  Vija</t>
+        </is>
+      </c>
+      <c r="I392" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>83343</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Analista de Suporte Jr</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um profissional que tenha acesso fácil ao ABC, motivado e com vontade de aprender, para atuar na área de suporte técnico. O candidato dará apoio na manutenção de computadores, atendimento aos usuários e configuração de softwares e sistemas.  Responsabilidades: Instalação e configuração de Windows 10 e Windows 11 Suporte remoto a clientes via Anydesk, TeamViewer e etc... Instalação, atualização e remoção de programas Execução de varreduras e análises com antivírus Configuração de contas de e-mail no Microsoft Outlook Suporte ao usuário (presencial e/ou remoto) Manutenção básica de hardware: troca de memória, HDs e SSDs Organização e registro dos atendimentos no sistema de chamados  Requisitos: Conhecimentos de suporte de Windows 10/11 Conhecimento de suporte no pacote Office Conhecimentos suporte de softwares de impressoras Noções de manutenção de computadores Capacidade de identificar problemas e seguir procedimentos Boa comunicação e organização
+Empresa .....:  CoreSystemIT</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 21/01/26 || Analista de Suporte Jr || Estamos em busca de um profissional que tenha acesso fácil ao ABC, motivado e com vontade de aprender, para atuar na área de suporte técnico. O candidato dará apoio na manutenção de computadores, atendimento aos usuários e configuração de softwares e sistemas.  Responsabilidades: Instalação e configuração de Windows 10 e Windows 11 Suporte remoto a clientes via Anydesk, TeamViewer e etc... Instalação, atualização e remoção de programas Execução de varreduras e análises com antivírus Configuração de contas de e-mail no Microsoft Outlook Suporte ao usuário (presencial e/ou remoto) Manutenção básica de hardware: troca de memória, HDs e SSDs Organização e registro dos atendimentos no sistema de chamados  Requisitos: Conhecimentos de suporte de Windows 10/11 Conhecimento de suporte no pacote Office Conhecimentos suporte de softwares de impressoras Noções de manutenção de computadores Capacidade de identificar problemas e seguir procedimentos Boa comunicação e organização || Empresa .....:  CoreSystemIT</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>82365</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Desenvolvedor de Sistemas</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Responsável pelo mapeamento, análise, manutenção, suporte aos sistemas, implementações de novas funcionalidades, desenvolvimentos, integrações e otimização de processos sistêmicos.  Responsabilidades e atribuições: Atuar na análise de viabilidade e desenho de soluções sistemas Desenvolver e dar manutenção em rotinas, processos de integração sistêmica, APIs e novas funcionalidades Atuar em projetos de reformulação de sistemas, análises de dados e uso de IA Atuar na melhoria dos processos e manter as diretrizes de usabilidade, performance, integração, operação e sustentabilidade dos sistemas.
+Empresa .....:  Tecnogera</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 21/01/26 || Desenvolvedor de Sistemas || Responsável pelo mapeamento, análise, manutenção, suporte aos sistemas, implementações de novas funcionalidades, desenvolvimentos, integrações e otimização de processos sistêmicos.  Responsabilidades e atribuições: Atuar na análise de viabilidade e desenho de soluções sistemas Desenvolver e dar manutenção em rotinas, processos de integração sistêmica, APIs e novas funcionalidades Atuar em projetos de reformulação de sistemas, análises de dados e uso de IA Atuar na melhoria dos processos e manter as diretrizes de usabilidade, performance, integração, operação e sustentabilidade dos sistemas. || Empresa .....:  Tecnogera</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>83342</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Executivo de Vendas</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Responsável por identificar oportunidades de negócios, prospectar clientes, apresentar soluções de software, conduzir negociações comerciais e fechar contratos, garantindo o crescimento da receita e a satisfação dos clientes. - Prospecção e geração de leads: identificar potenciais clientes por meio de pesquisas de mercado, networking e ferramentas de prospecção. - Apresentação de soluções: realizar demonstrações de software, destacando benefícios e diferenciais competitivos. - Gestão de pipeline de vendas: acompanhar oportunidades em todas as etapas do funil,. - Negociação e fechamento: elaborar propostas comerciais, negociar condições e concluir contratos. - Relacionamento com clientes: manter contato contínuo para garantir satisfação, identificar novas necessidades e promover upsell/cross-sell. - Colaboração interna: trabalhar em conjunto com equipes de marketing, pré-vendas,  para alinhar estratégias e atender às demandas dos Clientes.
+Empresa .....:  Leads Tecnologia da Informação Ltda</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 21/01/26 || Executivo de Vendas || Responsável por identificar oportunidades de negócios, prospectar clientes, apresentar soluções de software, conduzir negociações comerciais e fechar contratos, garantindo o crescimento da receita e a satisfação dos clientes. - Prospecção e geração de leads: identificar potenciais clientes por meio de pesquisas de mercado, networking e ferramentas de prospecção. - Apresentação de soluções: realizar demonstrações de software, destacando benefícios e diferenciais competitivos. - Gestão de pipeline de vendas: acompanhar oportunidades em todas as etapas do funil,. - Negociação e fechamento: elaborar propostas comerciais, negociar condições e concluir contratos. - Relacionamento com clientes: manter contato contínuo para garantir satisfação, identificar novas necessidades e promover upsell/cross-sell. - Colaboração interna: trabalhar em conjunto com equipes de marketing, pré-vendas,  para alinhar estratégias e atender às demandas dos Clientes. || Empresa .....:  Leads Tecnologia da Informação Ltda</t>
+        </is>
+      </c>
+      <c r="I395" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>82807</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Programador .Net</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Desenvolvedor C# .NET (Web Forms)  Responsabilidades: Atuar no desenvolvimento e manutenção de aplicações utilizando C# .NET (Web Forms). Criar e ajustar consultas e procedimentos em SQL Server. Implementar funcionalidades no front-end utilizando JavaScript e jQuery. Realizar correções de bugs, melhorias e novas implementações no sistema. Trabalhar em conjunto com outros desenvolvedores para evoluir aplicações internas.  Requisitos Técnicos: Conhecimentos básicos em C# .NET com foco em Web Forms. Experiência com SQL (consultas, inserts, updates e joins). Noções de JavaScript e jQuery. Capacidade de compreender código legado e aplicar boas práticas.
+Empresa .....:  Solid Consultoria em Gestão Empresarial</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 21/01/26 || Programador .Net || Desenvolvedor C# .NET (Web Forms)  Responsabilidades: Atuar no desenvolvimento e manutenção de aplicações utilizando C# .NET (Web Forms). Criar e ajustar consultas e procedimentos em SQL Server. Implementar funcionalidades no front-end utilizando JavaScript e jQuery. Realizar correções de bugs, melhorias e novas implementações no sistema. Trabalhar em conjunto com outros desenvolvedores para evoluir aplicações internas.  Requisitos Técnicos: Conhecimentos básicos em C# .NET com foco em Web Forms. Experiência com SQL (consultas, inserts, updates e joins). Noções de JavaScript e jQuery. Capacidade de compreender código legado e aplicar boas práticas. || Empresa .....:  Solid Consultoria em Gestão Empresarial</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>82310</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Administrador de Sistemas</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Você gosta de trabalhar com tecnologia de ponta e quer fazer parte de uma equipe que mantém serviços essenciais de internet funcionando no país? Então essa oportunidade é para você  Estamos procurando um Administrador de Sistemas que será responsável por instalar, configurar e administrar sistemas Linux e outras plataformas Unix-like, além de trabalhar com aplicações críticas relacionadas a DNS, redes, virtualização, monitoramento, bancos de dados, web e e-mail.  No dia a dia, você terá contato com todo o ciclo de vida de servidores e máquinas virtuais, garantindo que os serviços estejam sempre disponíveis e seguros.  Redes TCP/IP e Ethernet Fundamentos sólidos de Linux Virtualização Programação ou scripting em Python e Shell Ferramentas de automação (Ansible ou Salt) Controle de versionamento (Git, GitLab)  Configuração de aplicações como Apache, NGINX, Postfix, Bind, Unbound, Samba, Asterisk.  Contratação: CLT Atuação no Modelo Híbrido Local: Zona Sul
+Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Administrador de Sistemas || Você gosta de trabalhar com tecnologia de ponta e quer fazer parte de uma equipe que mantém serviços essenciais de internet funcionando no país? Então essa oportunidade é para você  Estamos procurando um Administrador de Sistemas que será responsável por instalar, configurar e administrar sistemas Linux e outras plataformas Unix-like, além de trabalhar com aplicações críticas relacionadas a DNS, redes, virtualização, monitoramento, bancos de dados, web e e-mail.  No dia a dia, você terá contato com todo o ciclo de vida de servidores e máquinas virtuais, garantindo que os serviços estejam sempre disponíveis e seguros.  Redes TCP/IP e Ethernet Fundamentos sólidos de Linux Virtualização Programação ou scripting em Python e Shell Ferramentas de automação (Ansible ou Salt) Controle de versionamento (Git, GitLab)  Configuração de aplicações como Apache, NGINX, Postfix, Bind, Unbound, Samba, Asterisk.  Contratação: CLT Atuação no Modelo Híbrido Local: Zona Sul || Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>82253</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Analista de Governança</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Analista de Governança de TI - Modelo híbrido - 3 dias semana presencial - Zona Norte de São Paulo - Modalidade PJ  Sobre a posição: Elaboração, análise e gestão de indicadores de desempenho (KPIs) relacionados à operação de TI, assegurando a aderência às boas práticas de governança, como ITIL. Papel estratégico na consolidação de dados, produção de análises e desenvolvimento de materiais executivos voltados à alta liderança, utilizando ferramentas como Power BI e Service Now.  Requisitos imprescindíveis: - Exp. comprovada em Governança de TI, com foco em indicadores e análise de dados - Sólidos conhecimentos em frameworks de governança, especialmente ITIL - Domínio de Power BI (modelagem de dados, criação de relatórios, DAX) - Experiência no uso de ServiceNow, especialmente módulos de ITSM e relatórios - Habilidade avançada em análise crítica, visão sistêmica e comunicação clara - Capacidade de organização, priorização de demandas e atenção a detalhes
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Analista de Governança || Analista de Governança de TI - Modelo híbrido - 3 dias semana presencial - Zona Norte de São Paulo - Modalidade PJ  Sobre a posição: Elaboração, análise e gestão de indicadores de desempenho (KPIs) relacionados à operação de TI, assegurando a aderência às boas práticas de governança, como ITIL. Papel estratégico na consolidação de dados, produção de análises e desenvolvimento de materiais executivos voltados à alta liderança, utilizando ferramentas como Power BI e Service Now.  Requisitos imprescindíveis: - Exp. comprovada em Governança de TI, com foco em indicadores e análise de dados - Sólidos conhecimentos em frameworks de governança, especialmente ITIL - Domínio de Power BI (modelagem de dados, criação de relatórios, DAX) - Experiência no uso de ServiceNow, especialmente módulos de ITSM e relatórios - Habilidade avançada em análise crítica, visão sistêmica e comunicação clara - Capacidade de organização, priorização de demandas e atenção a detalhes || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>82280</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Analista de Implantação Sênior - ERP Varejo</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>A CAPTA, é uma software house, atuamos no mercado a mais de 35 anos. Está em busca de um Consultor(a) de Implantação Sr para atuar em projetos de implantação e integração de sistemas ERP no setor varejista.  Candidato(a) ideal deve possuir experiência em implantação de sistemas ERP no varejo, com conhecimento em módulos-chave do sistema, incluindo Estoque, Compras, Fiscal, Financeiro.  Requisitos: Experiência na parametrização de sistemas ERP de alta configuração. Sólida experiência em implantação nos módulos: Fiscal, Financeiro, Estoque, Compras, Vendas.  Experiência em Levantamento de Requisitos e Especificações Funcionais para entender as necessidades de negócio e traduzi-las em requisitos técnicos para a equipe de desenvolvimento. Migração de Dados.  Local: bairro Aclimação (presencial).  A Capta investe em seus analistas e promove um treinamento de imersão de aproximadamente 3 semanas no sistema para que ele tenha condições de desempenhar suas funções
+Empresa .....:  Capta Tecnologia</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Analista de Implantação Sênior - ERP Varejo || A CAPTA, é uma software house, atuamos no mercado a mais de 35 anos. Está em busca de um Consultor(a) de Implantação Sr para atuar em projetos de implantação e integração de sistemas ERP no setor varejista.  Candidato(a) ideal deve possuir experiência em implantação de sistemas ERP no varejo, com conhecimento em módulos-chave do sistema, incluindo Estoque, Compras, Fiscal, Financeiro.  Requisitos: Experiência na parametrização de sistemas ERP de alta configuração. Sólida experiência em implantação nos módulos: Fiscal, Financeiro, Estoque, Compras, Vendas.  Experiência em Levantamento de Requisitos e Especificações Funcionais para entender as necessidades de negócio e traduzi-las em requisitos técnicos para a equipe de desenvolvimento. Migração de Dados.  Local: bairro Aclimação (presencial).  A Capta investe em seus analistas e promove um treinamento de imersão de aproximadamente 3 semanas no sistema para que ele tenha condições de desempenhar suas funções || Empresa .....:  Capta Tecnologia</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>82173</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura Sênior (2 MESES)</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Requisitos e qualificações: Experiência comprovada em ambientes Oracle Cloud e AWS Domínio em VMWare e projetos de migração para Cloud Conhecimentos avançados em sistemas operacionais Windows e Linux Capacidade de análise crítica, resolução de problemas e trabalho colaborativo Boa comunicação e organização.  Diferenciais: Certificações em Cloud (AWS, Oracle) ou VMWare Experiência com ferramentas de automação e infraestrutura como código (IaC) Vivência em ambientes corporativos com alta disponibilidade.  *TEMPO: 2 MESES COM POSSIBILIDADE DE PRORROGAÇÃO*
+Empresa .....:  3CON CONSULTORIA E SISTEMAS</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Analista de Infraestrutura Sênior (2 MESES) || Requisitos e qualificações: Experiência comprovada em ambientes Oracle Cloud e AWS Domínio em VMWare e projetos de migração para Cloud Conhecimentos avançados em sistemas operacionais Windows e Linux Capacidade de análise crítica, resolução de problemas e trabalho colaborativo Boa comunicação e organização.  Diferenciais: Certificações em Cloud (AWS, Oracle) ou VMWare Experiência com ferramentas de automação e infraestrutura como código (IaC) Vivência em ambientes corporativos com alta disponibilidade.  *TEMPO: 2 MESES COM POSSIBILIDADE DE PRORROGAÇÃO* || Empresa .....:  3CON CONSULTORIA E SISTEMAS</t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>82929</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Analista de Negocios Vida</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Levantar, analisar e documentar requisitos de negócio e técnicos Atuar como ponte entre as áreas de negócio e TI Mapear processos (AS-IS / TO-BE) e propor melhorias Apoiar o time de desenvolvimento e testes durante o ciclo de vida do projeto Participar de reuniões com stakeholders, garantindo alinhamento e clareza das demandas Acompanhar cronogramas, entregas e impactos das mudanças.  Experiência prévia como Analista de Negócios e/ou Analista de TI Vivência em projetos de médio a grande porte Conhecimento em levantamento de requisitos, modelagem de processos e documentação funcional Boa comunicação para interação com áreas técnicas e de negócio  Desejável experiência no mercado segurador.  Diferencial Importante Conhecimento do produto de Vida – Universal Life.  PJ / Hibrido(São Paulo-SP) 3x Presencial na semana
+Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Analista de Negocios Vida || Levantar, analisar e documentar requisitos de negócio e técnicos Atuar como ponte entre as áreas de negócio e TI Mapear processos (AS-IS / TO-BE) e propor melhorias Apoiar o time de desenvolvimento e testes durante o ciclo de vida do projeto Participar de reuniões com stakeholders, garantindo alinhamento e clareza das demandas Acompanhar cronogramas, entregas e impactos das mudanças.  Experiência prévia como Analista de Negócios e/ou Analista de TI Vivência em projetos de médio a grande porte Conhecimento em levantamento de requisitos, modelagem de processos e documentação funcional Boa comunicação para interação com áreas técnicas e de negócio  Desejável experiência no mercado segurador.  Diferencial Importante Conhecimento do produto de Vida – Universal Life.  PJ / Hibrido(São Paulo-SP) 3x Presencial na semana || Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>82354</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Analista de Redes / Infraestrutura – Presencial</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Buscamos Analista de Redes/Infraestrutura junior para atuar presencialmente em São Paulo (SP), das 8h às 17h. Responsável por administrar redes (TCP/IP, VLAN, VPN, DNS, DHCP), servidores Windows (2012 a 2022), virtualização (VMware, Proxmox), Active Directory, backup e monitoramento com Zabbix e PRTG. Atuação em manutenções preventivas, suporte técnico e estabilidade dos serviços de TI.  Requisitos: Experiência com redes, servidores e ferramentas de monitoramento. Boa comunicação e trabalho em equipe.  Diferenciais: Zabbix e Virtualização.  Tipo: CLT Salário: R$2.000,00 a R$2.352,00 Benefícios: VT, VR, auxílio-combustível, convênio odontológico, 13º, hora extra, adicional noturno.
+Empresa .....:  MCFINFO SOLUÇÕES EM TI</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Analista de Redes / Infraestrutura – Presencial || Buscamos Analista de Redes/Infraestrutura junior para atuar presencialmente em São Paulo (SP), das 8h às 17h. Responsável por administrar redes (TCP/IP, VLAN, VPN, DNS, DHCP), servidores Windows (2012 a 2022), virtualização (VMware, Proxmox), Active Directory, backup e monitoramento com Zabbix e PRTG. Atuação em manutenções preventivas, suporte técnico e estabilidade dos serviços de TI.  Requisitos: Experiência com redes, servidores e ferramentas de monitoramento. Boa comunicação e trabalho em equipe.  Diferenciais: Zabbix e Virtualização.  Tipo: CLT Salário: R$2.000,00 a R$2.352,00 Benefícios: VT, VR, auxílio-combustível, convênio odontológico, 13º, hora extra, adicional noturno. || Empresa .....:  MCFINFO SOLUÇÕES EM TI</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>83348</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Analista de Redes Senior (ThousandEyes)</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Profissional sênior com sólida experiência em ambientes de redes LAN, WAN, Cloud e Firewall, atuando com foco em monitoramento avançado, análise de desempenho, resolução de incidentes críticos e projetos de infraestrutura complexa. Domínio da plataforma Cisco ThousandEyes, garantindo visibilidade ponta a ponta e suporte estratégico na performance de redes e aplicações distribuídas. Experiência em diagnóstico e resolução de problemas de latência, perda de pacotes, anomalias TCP, variações BGP e demais falhas críticas, sustentando ambientes de alta disponibilidade com atuação proativa e estratégica.
+Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Analista de Redes Senior (ThousandEyes) || Profissional sênior com sólida experiência em ambientes de redes LAN, WAN, Cloud e Firewall, atuando com foco em monitoramento avançado, análise de desempenho, resolução de incidentes críticos e projetos de infraestrutura complexa. Domínio da plataforma Cisco ThousandEyes, garantindo visibilidade ponta a ponta e suporte estratégico na performance de redes e aplicações distribuídas. Experiência em diagnóstico e resolução de problemas de latência, perda de pacotes, anomalias TCP, variações BGP e demais falhas críticas, sustentando ambientes de alta disponibilidade com atuação proativa e estratégica. || Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>82835</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Analista de TI - Infraestrutura</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Suporte de TI – Totalmente Presencial em São Paulo - Cooperativa/PJ  Estamos em busca de alguém proativo e com vontade de crescer para fazer parte da nossa consultoria de desenvolvimento de softwares.  O que você vai fazer: Formatar e configurar notebooks Instalar ferramentas para dev e possibilidade de participar de projetos de desenvolvimento Gerenciar e documentar a rede Garantir segurança da rede interna, mantendo as tecnologias atualizadas e com monitoramento Apoiar migração para nuvem Suporte em demais rotinas de TI do dia a dia  O que buscamos: Experiência com suporte de TI Conhecimentos em redes e segurança Noções de cloud (AWS, Azure ou GCP) Organização e boa comunicação Autonomia + vontade de aprender Disponibilidade imediata  Remuneração: R$3.000,00 Benefícios: Vale alimentação/Refeição flexível na carteira Caju
+Empresa .....:  Antlia Serviços</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Analista de TI - Infraestrutura || Suporte de TI – Totalmente Presencial em São Paulo - Cooperativa/PJ  Estamos em busca de alguém proativo e com vontade de crescer para fazer parte da nossa consultoria de desenvolvimento de softwares.  O que você vai fazer: Formatar e configurar notebooks Instalar ferramentas para dev e possibilidade de participar de projetos de desenvolvimento Gerenciar e documentar a rede Garantir segurança da rede interna, mantendo as tecnologias atualizadas e com monitoramento Apoiar migração para nuvem Suporte em demais rotinas de TI do dia a dia  O que buscamos: Experiência com suporte de TI Conhecimentos em redes e segurança Noções de cloud (AWS, Azure ou GCP) Organização e boa comunicação Autonomia + vontade de aprender Disponibilidade imediata  Remuneração: R$3.000,00 Benefícios: Vale alimentação/Refeição flexível na carteira Caju || Empresa .....:  Antlia Serviços</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>82313</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Analista Desenvolvedor Back-end (Node)</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Você é apaixonado por desenvolvimento web e gosta de trabalhar em projetos desafiadores que exigem criatividade, qualidade e performance? Então esta oportunidade é para você  Estamos em busca de um Desenvolvedor Pleno para atuar em projetos modernos, colaborando com equipes multidisciplinares, entregando soluções escaláveis, seguras e de alta performance.  Atuação com desenvolvimento de novos projetos e manutenção de aplicação usando PHP, Node.js e MySQL. Criação e consumo APIs REST para integração entre sistemas. Garantir a qualidade do código através de testes e boas práticas. Colaborar com equipes multidisciplinares para entregar projetos dentro dos prazos.  O que esperamos de você: Sólida experiência com PHP e Node.js. Conhecimento em MySQL (modelagem e consultas otimizadas). Desenvolvimento e consumo de APIs REST. Controle de versão (Git).  Contratação: PJ Atuação 1x na semana presencial Local: Zona Sul
+Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Analista Desenvolvedor Back-end (Node) || Você é apaixonado por desenvolvimento web e gosta de trabalhar em projetos desafiadores que exigem criatividade, qualidade e performance? Então esta oportunidade é para você  Estamos em busca de um Desenvolvedor Pleno para atuar em projetos modernos, colaborando com equipes multidisciplinares, entregando soluções escaláveis, seguras e de alta performance.  Atuação com desenvolvimento de novos projetos e manutenção de aplicação usando PHP, Node.js e MySQL. Criação e consumo APIs REST para integração entre sistemas. Garantir a qualidade do código através de testes e boas práticas. Colaborar com equipes multidisciplinares para entregar projetos dentro dos prazos.  O que esperamos de você: Sólida experiência com PHP e Node.js. Conhecimento em MySQL (modelagem e consultas otimizadas). Desenvolvimento e consumo de APIs REST. Controle de versão (Git).  Contratação: PJ Atuação 1x na semana presencial Local: Zona Sul || Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>83353</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Assistente de Informática</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Dar suporte  técnico de campo aos clientes, manutenção em impressoras. Configurar e instalar sistema em geral, instalação e manutenção dos equipamentos/Impressoras. Atuando na instalação de softwares e auxiliando na correção de erros e configuração e instalação de impressoras (matricial, laser e fiscal)  Fara manutenção das impressoras no cliente (utilizará veículo da empresa). Possuir CNH  A empresa localiza-se próximo ao metrô Praça da Árvore Horário de trabalho: de segunda a sexta-feira das 9h as 19h Benefícios: VT, VR e Pl Médico
+Empresa .....:  Athelas RH</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Assistente de Informática || Dar suporte  técnico de campo aos clientes, manutenção em impressoras. Configurar e instalar sistema em geral, instalação e manutenção dos equipamentos/Impressoras. Atuando na instalação de softwares e auxiliando na correção de erros e configuração e instalação de impressoras (matricial, laser e fiscal)  Fara manutenção das impressoras no cliente (utilizará veículo da empresa). Possuir CNH  A empresa localiza-se próximo ao metrô Praça da Árvore Horário de trabalho: de segunda a sexta-feira das 9h as 19h Benefícios: VT, VR e Pl Médico || Empresa .....:  Athelas RH</t>
+        </is>
+      </c>
+      <c r="I406" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>83340</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Business Developer – Data  Analytics</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Requisitos Experiência comprovada em Business Development, Vendas Consultivas ou Gestão de Contas B2B. Vivência em ambientes corporativos complexos e contas enterprise. Experiência em venda de soluções tecnológicas, projetos digitais ou serviços profissionais. Forte capacidade de negociação, influência e relacionamento com decisores. Perfil orientado a resultados, expansão de receita e construção de relacionamento de longo prazo. Boa comunicação verbal e escrita. Organização e familiaridade com ferramentas de CRM. Experiência com Data  Analytics, BI, IA, Big Data, Cloud ou Engenharia de Dados. Atuação prévia nos segmentos Financeiro, Bancário, Telecom ou Seguros. Vivência em venda de soluções complexas, projetos sob medida, squads ou outsourcing especializado. Experiência em consultorias digitais ou empresas de tecnologia.  Disponibilidade para atuação híbrida  3x na semana ( Região Sul SP) - atuação em multicontas.
+Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Business Developer – Data  Analytics || Requisitos Experiência comprovada em Business Development, Vendas Consultivas ou Gestão de Contas B2B. Vivência em ambientes corporativos complexos e contas enterprise. Experiência em venda de soluções tecnológicas, projetos digitais ou serviços profissionais. Forte capacidade de negociação, influência e relacionamento com decisores. Perfil orientado a resultados, expansão de receita e construção de relacionamento de longo prazo. Boa comunicação verbal e escrita. Organização e familiaridade com ferramentas de CRM. Experiência com Data  Analytics, BI, IA, Big Data, Cloud ou Engenharia de Dados. Atuação prévia nos segmentos Financeiro, Bancário, Telecom ou Seguros. Vivência em venda de soluções complexas, projetos sob medida, squads ou outsourcing especializado. Experiência em consultorias digitais ou empresas de tecnologia.  Disponibilidade para atuação híbrida  3x na semana ( Região Sul SP) - atuação em multicontas. || Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>82364</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Cyber Security Analyst Sr - Hibrido SP</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>Cliente da área Financeira. Local de trabalho: São Paulo - SP (Hibrido 2 a 3x na semana) Horário: Segunda a Sexta 9h as 18h Contratação: Prestador PJ  Diferencial : Experiência prática em fintechs, bancos digitais ou empresas de tecnologia financeira.  Requisitos: Experiência prévia com Infraestrutura de TI (redes, servidores, sistemas operacionais, cloud, virtualização). Vivência com firewalls, roteadores, switches, AD, VPNs, backup e gestão de acessos. Conhecimento em gestão de vulnerabilidades, SIEM, análise de incidentes e resposta a ataques. Familiaridade com sistemas Linux e Windows Server.  Desejável: certificações como CompTIA Security+, CEH, AZ-500, ISO 27001, CISSP (ou em andamento).
+Empresa .....:  NEXMUV</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Cyber Security Analyst Sr - Hibrido SP || Cliente da área Financeira. Local de trabalho: São Paulo - SP (Hibrido 2 a 3x na semana) Horário: Segunda a Sexta 9h as 18h Contratação: Prestador PJ  Diferencial : Experiência prática em fintechs, bancos digitais ou empresas de tecnologia financeira.  Requisitos: Experiência prévia com Infraestrutura de TI (redes, servidores, sistemas operacionais, cloud, virtualização). Vivência com firewalls, roteadores, switches, AD, VPNs, backup e gestão de acessos. Conhecimento em gestão de vulnerabilidades, SIEM, análise de incidentes e resposta a ataques. Familiaridade com sistemas Linux e Windows Server.  Desejável: certificações como CompTIA Security+, CEH, AZ-500, ISO 27001, CISSP (ou em andamento). || Empresa .....:  NEXMUV</t>
+        </is>
+      </c>
+      <c r="I408" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>82284</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>DBA Oracle / PostgreSQL Sênior</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Vaga empresa de TI - SP/ Região da Berrini PJ - Horário de Trabalho: 12:30 às 21:30 Plantão 24 x 7: Uma ou Duas semas no mês Formação: (Ciência, Engenharia da computação, SI, Redes) Inglês intermediário  - Atendimento de telefone direto com o cliente final - Atendimento na fila de chamados (diversos) - Atendimento para as tecnologias de Oracle e PostgreSQL - Dia a dia no suporte de consultoria atendendo a demandas diversas, atuando em problemas e sugerindo soluções inteligentes para Oracle e PostgreSQL.  Garantir a disponibilidade, segurança e performance dos ambientes de banco de dados. Executar instalação, configuração, upgrade e patching das instâncias. Realizar tuning de performance (SQL, índices, parâmetros e I/O). Gerenciar backup, restore e estratégias de alta disponibilidade (RMAN, Data Guard, streaming replication). Monitorar recursos e eventos críticos, automatizando alertas e rotinas. Implementar políticas de segurança, auditoria e controle de acessos.
+Empresa .....:  DBACORP</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || DBA Oracle / PostgreSQL Sênior || Vaga empresa de TI - SP/ Região da Berrini PJ - Horário de Trabalho: 12:30 às 21:30 Plantão 24 x 7: Uma ou Duas semas no mês Formação: (Ciência, Engenharia da computação, SI, Redes) Inglês intermediário  - Atendimento de telefone direto com o cliente final - Atendimento na fila de chamados (diversos) - Atendimento para as tecnologias de Oracle e PostgreSQL - Dia a dia no suporte de consultoria atendendo a demandas diversas, atuando em problemas e sugerindo soluções inteligentes para Oracle e PostgreSQL.  Garantir a disponibilidade, segurança e performance dos ambientes de banco de dados. Executar instalação, configuração, upgrade e patching das instâncias. Realizar tuning de performance (SQL, índices, parâmetros e I/O). Gerenciar backup, restore e estratégias de alta disponibilidade (RMAN, Data Guard, streaming replication). Monitorar recursos e eventos críticos, automatizando alertas e rotinas. Implementar políticas de segurança, auditoria e controle de acessos. || Empresa .....:  DBACORP</t>
+        </is>
+      </c>
+      <c r="I409" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>82874</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Desenvolvedor .NET C# Pleno</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Desenvolvedor(a) .NET C# Pleno para atuar em uma de nossas squads de sustentação de sistemas satélites, participando da implementação de melhorias solicitadas pelo cliente e da atuação em incidentes, em um ambiente colaborativo e organizado. Modelo de trabalho: Híbrido – 1x por semana presencial na Liberdade (SP) Contratação: PJ ou Cooperativa  Requisitos técnicos Experiência mínima comprovada de 5 anos em desenvolvimento .NET C# Vivência na construção e consumo de APIs REST e serviços WCF Experiência em projetos MVC (Framework 4 ou superior) Experiência com Angular Conhecimento em SQL Experiência com GIT e Azure DevOps  Perfil comportamental Organização, proatividade e boa comunicação Clareza na comunicação escrita, essencial para o modelo remoto Facilidade para atuar com demandas de sustentação e melhoria contínua  Diferenciais Experiência com AngularJS Conhecimentos em Web Forms, HTML, JavaScript e jQuery
+Empresa .....:  G.B. Inovação - Participações Ltda</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Desenvolvedor .NET C# Pleno || Estamos em busca de um(a) Desenvolvedor(a) .NET C# Pleno para atuar em uma de nossas squads de sustentação de sistemas satélites, participando da implementação de melhorias solicitadas pelo cliente e da atuação em incidentes, em um ambiente colaborativo e organizado. Modelo de trabalho: Híbrido – 1x por semana presencial na Liberdade (SP) Contratação: PJ ou Cooperativa  Requisitos técnicos Experiência mínima comprovada de 5 anos em desenvolvimento .NET C# Vivência na construção e consumo de APIs REST e serviços WCF Experiência em projetos MVC (Framework 4 ou superior) Experiência com Angular Conhecimento em SQL Experiência com GIT e Azure DevOps  Perfil comportamental Organização, proatividade e boa comunicação Clareza na comunicação escrita, essencial para o modelo remoto Facilidade para atuar com demandas de sustentação e melhoria contínua  Diferenciais Experiência com AngularJS Conhecimentos em Web Forms, HTML, JavaScript e jQuery || Empresa .....:  G.B. Inovação - Participações Ltda</t>
+        </is>
+      </c>
+      <c r="I410" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>82177</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Desenvolvedor .NET Sênior</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Requisitos: Ensino Superior em Tecnologia ou Ciência da Computação#8203 Experiência sólida em .NET Core, C#, Entity Framework e Web APIs RESTful. Domínio de Angular 10+, TypeScript, RxJS, HTML5 e CSS3. Conhecimento e prática em Clean Code, SOLID, testes unitários e versionamento com Git. Experiência em integrações entre sistemas e arquitetura em nuvem (Azure, GCP). Experiência com integração a APIs REST, componentes reutilizáveis e boas práticas de UI/UX. Conhecimento em design systems e metodologias de versionamento (GitFlow). Experiência em projetos de transformação digital e interfaces corporativas. Experiência com integração de dados e dashboards interativos (BI/Geo) será considerado diferencial.  Presencial SP Contratação CLT
+Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Desenvolvedor .NET Sênior || Requisitos: Ensino Superior em Tecnologia ou Ciência da Computação#8203 Experiência sólida em .NET Core, C#, Entity Framework e Web APIs RESTful. Domínio de Angular 10+, TypeScript, RxJS, HTML5 e CSS3. Conhecimento e prática em Clean Code, SOLID, testes unitários e versionamento com Git. Experiência em integrações entre sistemas e arquitetura em nuvem (Azure, GCP). Experiência com integração a APIs REST, componentes reutilizáveis e boas práticas de UI/UX. Conhecimento em design systems e metodologias de versionamento (GitFlow). Experiência em projetos de transformação digital e interfaces corporativas. Experiência com integração de dados e dashboards interativos (BI/Geo) será considerado diferencial.  Presencial SP Contratação CLT || Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="I411" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>83341</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Front  e  Back Pleno</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Experiências: Requisitos obrigatórios •	2+ anos de experiência comprovada como Front e Back ou em funções similares •	Experiência com React e Next.js •	Experiência com C# .NET / .NET Core •	Conhecimento de REST APIs •	Domínio de JavaScript e TypeScript •	Experiência com SQL Server, PostgreSQL ou bancos equivalentes •	Controle de versão com Git •	Familiaridade com princípios SOLID, Clean Architecture ou padrões similares  Modelo Hibrido 2 vezes  no escritório e 3 home office.
+Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Desenvolvedor Front  e  Back Pleno || Experiências: Requisitos obrigatórios •	2+ anos de experiência comprovada como Front e Back ou em funções similares •	Experiência com React e Next.js •	Experiência com C# .NET / .NET Core •	Conhecimento de REST APIs •	Domínio de JavaScript e TypeScript •	Experiência com SQL Server, PostgreSQL ou bancos equivalentes •	Controle de versão com Git •	Familiaridade com princípios SOLID, Clean Architecture ou padrões similares  Modelo Hibrido 2 vezes  no escritório e 3 home office. || Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="I412" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>82309</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack Angular</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um Desenvolvedor FullStack Sênior - Angular (Front) C# (Back-end) para a nossa equipe  Local: São Paulo – Tatuapé (próximo ao Metrô Carrão) Modelo Híbrido: 3 dias no escritório e 2 dias home office  Responsabilidades: Manter e desenvolver aplicações Web integradas ao ERP, garantindo qualidade, performance e boas práticas no processo de desenvolvimento.  Requisitos Técnicos: * Angular (Front) * C# (Back-end) * Javaescript * Typescript * Python * Versionamento com Git (GitHub) * SQL Server / MySQL * APIs e Webservices  Perfil que buscamos: Profissional comprometido com prazos e entregas, com boa comunicação, organização, dinamismo e facilidade para atuar em projetos simultâneos e compreender regras de negócio.  Benefícios: Assistência Médica e Odontológica Vale Refeição e Vale Alimentação Vale-Transporte Seguro de Vida 2 bolsas para filhos após a exp.
+Empresa .....:  SAEA  - Educação e Assistência</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Desenvolvedor Full Stack Angular || Estamos em busca de um Desenvolvedor FullStack Sênior - Angular (Front) C# (Back-end) para a nossa equipe  Local: São Paulo – Tatuapé (próximo ao Metrô Carrão) Modelo Híbrido: 3 dias no escritório e 2 dias home office  Responsabilidades: Manter e desenvolver aplicações Web integradas ao ERP, garantindo qualidade, performance e boas práticas no processo de desenvolvimento.  Requisitos Técnicos: * Angular (Front) * C# (Back-end) * Javaescript * Typescript * Python * Versionamento com Git (GitHub) * SQL Server / MySQL * APIs e Webservices  Perfil que buscamos: Profissional comprometido com prazos e entregas, com boa comunicação, organização, dinamismo e facilidade para atuar em projetos simultâneos e compreender regras de negócio.  Benefícios: Assistência Médica e Odontológica Vale Refeição e Vale Alimentação Vale-Transporte Seguro de Vida 2 bolsas para filhos após a exp. || Empresa .....:  SAEA  - Educação e Assistência</t>
+        </is>
+      </c>
+      <c r="I413" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>82398</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack Pleno</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Responsabilidades: Desenvolver e manter aplicações web full-stack, atuando tanto no front-end quanto no back-end. Criar e integrar APIs REST com bancos de dados relacionais (SQL Server ou Oracle). Implementar rotinas batch e online voltadas ao processamento e análise de dados. Garantir performance, escalabilidade e segurança das aplicações. Colaborar com o time técnico, propondo melhorias, boas práticas e inovações nos processos de desenvolvimento.  Requisitos: Experiência sólida em C# e ASP.Net. Domínio de frameworks front-end modernos (como Angular, React ou Vue.js). Conhecimento em bancos de dados relacionais (SQL Server ou Oracle). Experiência com desenvolvimento e consumo de APIs REST. Habilidade para escrever código limpo, eficiente e de fácil manutenção. Experiência com Git e versionamento de código. Noções de DevOps, integração contínua (CI/CD) e boas práticas ágeis. Capacidade de aprendizado rápido e perfil colaborativo.  Hibrido SP PJ
+Empresa .....:  2BRAIN CONSULTORIA E ESTRATEGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Desenvolvedor Full Stack Pleno || Responsabilidades: Desenvolver e manter aplicações web full-stack, atuando tanto no front-end quanto no back-end. Criar e integrar APIs REST com bancos de dados relacionais (SQL Server ou Oracle). Implementar rotinas batch e online voltadas ao processamento e análise de dados. Garantir performance, escalabilidade e segurança das aplicações. Colaborar com o time técnico, propondo melhorias, boas práticas e inovações nos processos de desenvolvimento.  Requisitos: Experiência sólida em C# e ASP.Net. Domínio de frameworks front-end modernos (como Angular, React ou Vue.js). Conhecimento em bancos de dados relacionais (SQL Server ou Oracle). Experiência com desenvolvimento e consumo de APIs REST. Habilidade para escrever código limpo, eficiente e de fácil manutenção. Experiência com Git e versionamento de código. Noções de DevOps, integração contínua (CI/CD) e boas práticas ágeis. Capacidade de aprendizado rápido e perfil colaborativo.  Hibrido SP PJ || Empresa .....:  2BRAIN CONSULTORIA E ESTRATEGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I414" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>82293</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Prazo: 3 meses, com chances de prorrogação Local: Hibrido - SP Contratação: PJ  Requisitos: Experiência sólida em Java 11+ e Spring Boot. Vivência em design e análise de arquiteturas de software. Experiência na construção e manutenção de APIs RESTful. Domínio em controle de versão com Git e ferramentas de CI/CD. Conhecimento em bancos de dados relacionais (MySQL Server ou PostgreSQL). Experiência com monitoramento e observabilidade (Dynatrace, Jaeger, Kibana etc.). Vivência com metodologias ágeis (Scrum, Kanban). Experiência com testes automatizados (JUnit, Mockito etc.). Experiência com ambientes em nuvem (AWS, Azure ou GCP): Kubernetes API Gateway Buckets / Storage Boa comunicação para interação com times técnicos e áreas de negócio.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Desenvolvedor Java || Prazo: 3 meses, com chances de prorrogação Local: Hibrido - SP Contratação: PJ  Requisitos: Experiência sólida em Java 11+ e Spring Boot. Vivência em design e análise de arquiteturas de software. Experiência na construção e manutenção de APIs RESTful. Domínio em controle de versão com Git e ferramentas de CI/CD. Conhecimento em bancos de dados relacionais (MySQL Server ou PostgreSQL). Experiência com monitoramento e observabilidade (Dynatrace, Jaeger, Kibana etc.). Vivência com metodologias ágeis (Scrum, Kanban). Experiência com testes automatizados (JUnit, Mockito etc.). Experiência com ambientes em nuvem (AWS, Azure ou GCP): Kubernetes API Gateway Buckets / Storage Boa comunicação para interação com times técnicos e áreas de negócio. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I415" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>82207</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java- Híbrido SP</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Requisitos Técnicos: Conhecimento em Java 17+Conhecimento de criação de microsserviçosConhecimento de Frameworks (Spring Boot 3, Hibernate)Conhecimento em Multi Cloud (Azure, AWS)Conhecimento em Cloud Services (Openshift)Conhecimento em Integração de Sistemas utilizando Serviços e/ou APIsConhecimento em DevSecOps (Integração contínua com Jenkins, GitLab, Sonar, FortFy, ArtiFactory)Conhecimento de banco de dados relacional e não relacional (PostgreSQL, MongoDB, Redis, Oracle, CosmosDB)Conhecimento básico em ferramentas de observabilidade: Dynatrace, Grafana, Kibana  Contratação CLT Híbrido SP
+Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Desenvolvedor Java- Híbrido SP || Requisitos Técnicos: Conhecimento em Java 17+Conhecimento de criação de microsserviçosConhecimento de Frameworks (Spring Boot 3, Hibernate)Conhecimento em Multi Cloud (Azure, AWS)Conhecimento em Cloud Services (Openshift)Conhecimento em Integração de Sistemas utilizando Serviços e/ou APIsConhecimento em DevSecOps (Integração contínua com Jenkins, GitLab, Sonar, FortFy, ArtiFactory)Conhecimento de banco de dados relacional e não relacional (PostgreSQL, MongoDB, Redis, Oracle, CosmosDB)Conhecimento básico em ferramentas de observabilidade: Dynatrace, Grafana, Kibana  Contratação CLT Híbrido SP || Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="I416" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>83336</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Sênior</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Experiência mínima de 5 anos em desenvolvimento .NET Sólido conhecimento em C# Full Framework e .NET Core (2.x ou superior) Forte domínio em Programação Orientada a Objetos Experiência prática com arquiteturas MVC e MVVM Vivência com Scrum e práticas ágeis Experiência com Git e Gitflow Conhecimento em SQL Server e Transact-SQL, incluindo modelagem e otimização de consultas Experiência comprovada com MVC, Web Forms, Web API e Windows Services Experiência no desenvolvimento e integração de APIs Capacidade de alinhar necessidades de negócio com soluções técnicas, com boa comunicação e colaboração. Experiência com front-end moderno, especialmente React Vivência com Angular ou Vue Conhecimento em containers (Docker) Experiência com CI/CD e pipelines de entrega Vivência em ambientes corporativos de médio e grande porte.  Híbrido - SP Setor financeiro
+Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Desenvolvedor Sênior || Experiência mínima de 5 anos em desenvolvimento .NET Sólido conhecimento em C# Full Framework e .NET Core (2.x ou superior) Forte domínio em Programação Orientada a Objetos Experiência prática com arquiteturas MVC e MVVM Vivência com Scrum e práticas ágeis Experiência com Git e Gitflow Conhecimento em SQL Server e Transact-SQL, incluindo modelagem e otimização de consultas Experiência comprovada com MVC, Web Forms, Web API e Windows Services Experiência no desenvolvimento e integração de APIs Capacidade de alinhar necessidades de negócio com soluções técnicas, com boa comunicação e colaboração. Experiência com front-end moderno, especialmente React Vivência com Angular ou Vue Conhecimento em containers (Docker) Experiência com CI/CD e pipelines de entrega Vivência em ambientes corporativos de médio e grande porte.  Híbrido - SP Setor financeiro || Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>83329</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) FullStack / Dados</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Somos a iem IT, uma empresa de consultoria e desenvolvimento de sistemas que tem o propósito de construir uma organização centrada nas pessoas. Para isso, nos baseamos nos princípios de empatia, diversidade e humanidade.  Estamos em busca de uma pessoa desenvolvedora para atuar na evolução e sustentação de sistemas orientados a dados, com foco em qualidade, performance e escalabilidade. Essa posição envolve contato próximo com backend, engenharia de dados e apoio pontual em front-end, atuando de forma colaborativa com times multidisciplinares.  Requisitos técnicos Java para desenvolvimento backend e implementação de regras de negócio Python para automação, processamento de dados e suporte a pipelines SQL para modelagem, consultas e otimização de queries AWS para deploy, monitoramento e escalabilidade em nuvem Conhecimentos em front-end para correções e evoluções de interfaces, garantindo boa integração com o backend.  Venha fazer parte da iem IT
+Empresa .....:  iem IT</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Desenvolvedor(a) FullStack / Dados || Somos a iem IT, uma empresa de consultoria e desenvolvimento de sistemas que tem o propósito de construir uma organização centrada nas pessoas. Para isso, nos baseamos nos princípios de empatia, diversidade e humanidade.  Estamos em busca de uma pessoa desenvolvedora para atuar na evolução e sustentação de sistemas orientados a dados, com foco em qualidade, performance e escalabilidade. Essa posição envolve contato próximo com backend, engenharia de dados e apoio pontual em front-end, atuando de forma colaborativa com times multidisciplinares.  Requisitos técnicos Java para desenvolvimento backend e implementação de regras de negócio Python para automação, processamento de dados e suporte a pipelines SQL para modelagem, consultas e otimização de queries AWS para deploy, monitoramento e escalabilidade em nuvem Conhecimentos em front-end para correções e evoluções de interfaces, garantindo boa integração com o backend.  Venha fazer parte da iem IT || Empresa .....:  iem IT</t>
+        </is>
+      </c>
+      <c r="I418" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>82202</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Engenheiro de Software C++</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Experiência em análise e desenvolvimento de sistemas e definições de arquitetura Domínio da linguagem de programação C/C++ para o desenvolvimento de sistemas complexos, seguros e repletos de integrações Dominar a linguagem implica em ter experiência com ponteiros, manipulação de arquivos, estrutura de dados, gerenciamento dinâmico de memória, estruturas condicionais, biblioteca dinâmicas e estáticas, scripts de compilação, cygwin, makefile e outros recursos Experiência na implementação de bibliotecas estáticas e dinâmicas que possam ser utilizadas com outras linguagens de programação  Experiência na elaboração de testes unitários e funcionais Codifique: Crie soluções de pagamento que simplificam a vida dos nossos clientes. Analise: Avalie impactos, riscos e esforços com olhar investigativo. Teste: Gere qualidade, evitando retrabalho e falhas. Automatize: Escreva uma vez  Mais informações Contratação: PJ
+Empresa .....:  Approvata</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Engenheiro de Software C++ || Experiência em análise e desenvolvimento de sistemas e definições de arquitetura Domínio da linguagem de programação C/C++ para o desenvolvimento de sistemas complexos, seguros e repletos de integrações Dominar a linguagem implica em ter experiência com ponteiros, manipulação de arquivos, estrutura de dados, gerenciamento dinâmico de memória, estruturas condicionais, biblioteca dinâmicas e estáticas, scripts de compilação, cygwin, makefile e outros recursos Experiência na implementação de bibliotecas estáticas e dinâmicas que possam ser utilizadas com outras linguagens de programação  Experiência na elaboração de testes unitários e funcionais Codifique: Crie soluções de pagamento que simplificam a vida dos nossos clientes. Analise: Avalie impactos, riscos e esforços com olhar investigativo. Teste: Gere qualidade, evitando retrabalho e falhas. Automatize: Escreva uma vez  Mais informações Contratação: PJ || Empresa .....:  Approvata</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>83335</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Gerente Comercial</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>5+ anos em atuação comercial no setor financeiro (bancário, seguros, meios de pagamento, fintechs). Experiência comprovada em venda consultiva de serviços: inovação, digital, tecnologia, cloud ou AI. Histórico de relacionamento com executivos e capacidade de conduzir ciclos de vendas complexos, longos e multistakeholder. Experiência em negociação comercial e fechamento de contratos. Identificar e expandir oportunidades em clientes existentes (aumentar share-of-wallet). Prospectar e abrir novas contas no mercado financeiro, em parceria com marketing e pré-vendas para geração de leads qualificados. Construir e manter relacionamento com C-levels e heads (ex.: CIO, COO, CMO, Head of Digital, Head of Data). Alinhar expectativas com delivery, engenharia e inovação para garantir viabilidade e qualidade das entregas.  Híbrido - SP
+Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Gerente Comercial || 5+ anos em atuação comercial no setor financeiro (bancário, seguros, meios de pagamento, fintechs). Experiência comprovada em venda consultiva de serviços: inovação, digital, tecnologia, cloud ou AI. Histórico de relacionamento com executivos e capacidade de conduzir ciclos de vendas complexos, longos e multistakeholder. Experiência em negociação comercial e fechamento de contratos. Identificar e expandir oportunidades em clientes existentes (aumentar share-of-wallet). Prospectar e abrir novas contas no mercado financeiro, em parceria com marketing e pré-vendas para geração de leads qualificados. Construir e manter relacionamento com C-levels e heads (ex.: CIO, COO, CMO, Head of Digital, Head of Data). Alinhar expectativas com delivery, engenharia e inovação para garantir viabilidade e qualidade das entregas.  Híbrido - SP || Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>83333</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Líder React (React Lead)</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>• Forte proficiência em ReactJS e seu ecossistema (Hooks, Context API, Redux, etc.). • Excelente domínio de JavaScript (ES6+) e TypeScript. • Sólido conhecimento em HTML5, CSS3, SASS/LESS e princípios de design responsivo. • Experiência com ferramentas de build frontend como Webpack, Babel, Vite ou similares. • Familiaridade com APIs RESTful, GraphQL e padrões de integração frontend. • Experiência prática com frameworks de testes como Jest, React Testing Library ou Cypress. • Forte entendimento de técnicas de otimização de performance frontend. • Excelentes habilidades de resolução de problemas e liderança. • Comunicação eficaz em inglês e português, tanto escrita quanto verbal.
+Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Líder React (React Lead) || • Forte proficiência em ReactJS e seu ecossistema (Hooks, Context API, Redux, etc.). • Excelente domínio de JavaScript (ES6+) e TypeScript. • Sólido conhecimento em HTML5, CSS3, SASS/LESS e princípios de design responsivo. • Experiência com ferramentas de build frontend como Webpack, Babel, Vite ou similares. • Familiaridade com APIs RESTful, GraphQL e padrões de integração frontend. • Experiência prática com frameworks de testes como Jest, React Testing Library ou Cypress. • Forte entendimento de técnicas de otimização de performance frontend. • Excelentes habilidades de resolução de problemas e liderança. • Comunicação eficaz em inglês e português, tanto escrita quanto verbal. || Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="I421" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>82314</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Líder Técnico III (.Net/Angular)</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Detalhes da Vaga Contratação: CLT + Benefícios Modelo: Totalmente remoto  Buscamos Especialista em Desenvolvimento de Software para atuar na liderança técnica de projetos, apoiando times e propondo soluções inovadoras, escaláveis e performáticas.  Responsabilidades: Liderar projetos e equipes definir e documentar arquiteturas especificar e desenvolver soluções web revisar código apoiar QA planejar e monitorar atividades técnicas orientar e capacitar desenvolvedores.  Requisitos: Experiência com C#, .NET Core, Angular, DevOps e metodologias ágeis. Domínio em arquitetura web, bancos relacionais/não relacionais, APIs, design patterns, Docker/Kubernetes, Git e SonarQube. Desejável conhecimento em SAP, CI/CD, testes automatizados e UX/UI. Formação: Superior completo em cursos da área de tecnologia como Engenharia, Sistemas de Informação ou Ciência da Computação  Desejável: Inglês intermediário.
+Empresa .....:  CODE GROUP</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Líder Técnico III (.Net/Angular) || Detalhes da Vaga Contratação: CLT + Benefícios Modelo: Totalmente remoto  Buscamos Especialista em Desenvolvimento de Software para atuar na liderança técnica de projetos, apoiando times e propondo soluções inovadoras, escaláveis e performáticas.  Responsabilidades: Liderar projetos e equipes definir e documentar arquiteturas especificar e desenvolver soluções web revisar código apoiar QA planejar e monitorar atividades técnicas orientar e capacitar desenvolvedores.  Requisitos: Experiência com C#, .NET Core, Angular, DevOps e metodologias ágeis. Domínio em arquitetura web, bancos relacionais/não relacionais, APIs, design patterns, Docker/Kubernetes, Git e SonarQube. Desejável conhecimento em SAP, CI/CD, testes automatizados e UX/UI. Formação: Superior completo em cursos da área de tecnologia como Engenharia, Sistemas de Informação ou Ciência da Computação  Desejável: Inglês intermediário. || Empresa .....:  CODE GROUP</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>82275</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Program Manager</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Experiências: Requisitos: * gerente de projeto em  pelo menos dois projetos completos. Desde Kick Off até encerramento * Experiência como gestão de custos de projeto, cronograma e escopo * Experiência com gestão de projetos utilizando MS Project * Experiência com apresentação de status de projeto para diretores e gerentes executivos * Disposição para executar atividades operacionais como, por exemplo, organizar agendas de treinamentos, controle de custos em ferramenta da empresa, fazer follow up na equipe  Diferenciais * Experiência com projetos de implementação de sistemas de planejamento * Experiência com projetos Globais * Certificação PMP ou MBA em gestão de Projetos  Necessário inglês avançado
+Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Program Manager || Experiências: Requisitos: * gerente de projeto em  pelo menos dois projetos completos. Desde Kick Off até encerramento * Experiência como gestão de custos de projeto, cronograma e escopo * Experiência com gestão de projetos utilizando MS Project * Experiência com apresentação de status de projeto para diretores e gerentes executivos * Disposição para executar atividades operacionais como, por exemplo, organizar agendas de treinamentos, controle de custos em ferramenta da empresa, fazer follow up na equipe  Diferenciais * Experiência com projetos de implementação de sistemas de planejamento * Experiência com projetos Globais * Certificação PMP ou MBA em gestão de Projetos  Necessário inglês avançado || Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>82331</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Programador Java Pleno</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Artium Soluções está contratando em São Paulo: ANALISTA PROGRAMADOR JAVA PLENO  Experiência em Java, MySQL, Docker (desejável). Análise e desenvolvimento de sistemas.  Formato de contratação PJ ou CLT com 4 dias presenciais e 1 home office Localização próximo ao metrô na região da Faria Lima, São Paulo
+Empresa .....:  ARTIUM SOLUÇÕES</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Programador Java Pleno || Artium Soluções está contratando em São Paulo: ANALISTA PROGRAMADOR JAVA PLENO  Experiência em Java, MySQL, Docker (desejável). Análise e desenvolvimento de sistemas.  Formato de contratação PJ ou CLT com 4 dias presenciais e 1 home office Localização próximo ao metrô na região da Faria Lima, São Paulo || Empresa .....:  ARTIUM SOLUÇÕES</t>
+        </is>
+      </c>
+      <c r="I424" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>82779</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Suporte - Junior</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>A vaga envolve suporte técnico a sistemas internos e externos, garantindo o funcionamento das aplicações. Inclui análise de incidentes, consultas e extrações em banco de dados, interpretação de XML, monitoramento de aplicações com ferramentas de observabilidade e gestão de chamados. Requer experiência em suporte e análise, conhecimento sólido em XML, SQL, uso de Jira e Grafana. Busca-se perfil analítico, atento a detalhes, proativo e com boa comunicação. Necessário inglês avançado e disponibilidade para atuar em escala, incluindo turnos diurnos e noturnos. Atuação presencial em Santo André ou na Avenida Paulista, com possibilidade de transitar entre as duas localidades.
+Empresa .....:  Grupo Taking</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Suporte - Junior || A vaga envolve suporte técnico a sistemas internos e externos, garantindo o funcionamento das aplicações. Inclui análise de incidentes, consultas e extrações em banco de dados, interpretação de XML, monitoramento de aplicações com ferramentas de observabilidade e gestão de chamados. Requer experiência em suporte e análise, conhecimento sólido em XML, SQL, uso de Jira e Grafana. Busca-se perfil analítico, atento a detalhes, proativo e com boa comunicação. Necessário inglês avançado e disponibilidade para atuar em escala, incluindo turnos diurnos e noturnos. Atuação presencial em Santo André ou na Avenida Paulista, com possibilidade de transitar entre as duas localidades. || Empresa .....:  Grupo Taking</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>83350</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Técnico de Informática em Campo</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um Técnico de Informática em Campo para atuar no atendimento presencial a clientes.  Principais atividades: Entrega, troca e retirada de equipamentos de informática Atendimento técnico em campo, conforme demandas dos clientes Apoio no controle e organização dos equipamentos.  Requisitos: CNH categoria B válida Conhecimentos básicos em informática e equipamentos de TI Boa comunicação, responsabilidade e organização Disponibilidade para trabalho externo.  Horário de trabalho: De segunda a sexta-feira, das 09h às 18h.  Remuneração e benefícios: Salário: R$ 2.250,00 Vale-refeição: R$ 30,00 por dia Vale-transporte (passagem).
+Empresa .....:  Allugga</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 21/01/26 || Técnico de Informática em Campo || Estamos em busca de um Técnico de Informática em Campo para atuar no atendimento presencial a clientes.  Principais atividades: Entrega, troca e retirada de equipamentos de informática Atendimento técnico em campo, conforme demandas dos clientes Apoio no controle e organização dos equipamentos.  Requisitos: CNH categoria B válida Conhecimentos básicos em informática e equipamentos de TI Boa comunicação, responsabilidade e organização Disponibilidade para trabalho externo.  Horário de trabalho: De segunda a sexta-feira, das 09h às 18h.  Remuneração e benefícios: Salário: R$ 2.250,00 Vale-refeição: R$ 30,00 por dia Vale-transporte (passagem). || Empresa .....:  Allugga</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>83318</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Analista de Sistemas Sênior – WMS</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Cotia - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>(TOTVS Protheus)**  **PJ (tempo integral)**  **Presencial**  **Cotia – São Paulo**  **Início imediato**  Acreditamos no poder transformador da tecnologia e no impacto positivo de um ambiente **diverso, inclusivo e respeitoso**. Buscamos profissional para o time de **Serviços**, atuando com **implantação e sustentação** de soluções **TOTVS Protheus (WMS)**.  **Atividades:**  realizar **parametrizações, simulações e testes funcionais**, sustentar operações em clientes, orientar usuários e produzir documentação, atuar na **análise de causa raiz** e prevenção de recorrências, além de propor **melhorias e inovações**.  **Requisitos:** superior completo experiência em **WMS Protheus** e regras de negócio  **Diferencial:** **MSSQL/estrutura de dados** , **ADVPL** e vivência no segmento.
+Empresa .....:  Grupo PB Consultoria</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Cotia - SP - 20/01/26 || Analista de Sistemas Sênior – WMS || (TOTVS Protheus)**  **PJ (tempo integral)**  **Presencial**  **Cotia – São Paulo**  **Início imediato**  Acreditamos no poder transformador da tecnologia e no impacto positivo de um ambiente **diverso, inclusivo e respeitoso**. Buscamos profissional para o time de **Serviços**, atuando com **implantação e sustentação** de soluções **TOTVS Protheus (WMS)**.  **Atividades:**  realizar **parametrizações, simulações e testes funcionais**, sustentar operações em clientes, orientar usuários e produzir documentação, atuar na **análise de causa raiz** e prevenção de recorrências, além de propor **melhorias e inovações**.  **Requisitos:** superior completo experiência em **WMS Protheus** e regras de negócio  **Diferencial:** **MSSQL/estrutura de dados** , **ADVPL** e vivência no segmento. || Empresa .....:  Grupo PB Consultoria</t>
+        </is>
+      </c>
+      <c r="I427" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>83315</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Analista Sistemas Senior Backoffice</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Cotia - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Acreditamos no poder transformador da tecnologia e no impacto positivo de um ambiente **diverso, inclusivo e respeitoso**. Buscamos profissional para o time de **Serviços**, atuando com **implantação e sustentação** de soluções **TOTVS Protheus (Backoffice)**.  **Atividades:**  realizar **parametrizações, simulações e testes funcionais**, sustentar operações em clientes, orientar usuários e produzir documentação, atuar na **análise de causa raiz** e prevenção de recorrências, além de propor **melhorias e inovações**.  **Requisitos:** superior completo experiência em **Backoffice Protheus** e módulos **Faturamento, Financeiro, Fiscal, Compras, TAF e Estoque** regras de negócio  **Diferencial:** **MSSQL/estrutura de dados** , **ADVPL** e vivência no segmento.  (TOTVS Protheus)**  **PJ **  **2x semana**  **Cotia/SP**
+Empresa .....:  Grupo PB Consultoria</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>Cotia - SP - 20/01/26 || Analista Sistemas Senior Backoffice || Acreditamos no poder transformador da tecnologia e no impacto positivo de um ambiente **diverso, inclusivo e respeitoso**. Buscamos profissional para o time de **Serviços**, atuando com **implantação e sustentação** de soluções **TOTVS Protheus (Backoffice)**.  **Atividades:**  realizar **parametrizações, simulações e testes funcionais**, sustentar operações em clientes, orientar usuários e produzir documentação, atuar na **análise de causa raiz** e prevenção de recorrências, além de propor **melhorias e inovações**.  **Requisitos:** superior completo experiência em **Backoffice Protheus** e módulos **Faturamento, Financeiro, Fiscal, Compras, TAF e Estoque** regras de negócio  **Diferencial:** **MSSQL/estrutura de dados** , **ADVPL** e vivência no segmento.  (TOTVS Protheus)**  **PJ **  **2x semana**  **Cotia/SP** || Empresa .....:  Grupo PB Consultoria</t>
+        </is>
+      </c>
+      <c r="I428" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>83302</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Analista de Suporte - Goiânia</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Goiânia - GO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Vaga: Analista de Suporte Técnico Jr. Goiânia – GO  Híbrido (2x/semana) Contratação: CLT temporário  Atividades: Atendimento e suporte técnico a clientes, resolução de dúvidas de baixa complexidade, abertura e acompanhamento de tickets, registro e categorização de chamados, atualização de status ao cliente, escalonamento de demandas e apoio aos indicadores da área.  Requisitos: •	Ensino superior completo (desejável) •	Experiência em tecnologia ou suporte •	Conhecimentos em lógica de programação, banco de dados, regras de negócio e Pacote Microsoft •	Desejável experiência com atendimento ao cliente.
+Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Goiânia - GO - 20/01/26 || Analista de Suporte - Goiânia || Vaga: Analista de Suporte Técnico Jr. Goiânia – GO  Híbrido (2x/semana) Contratação: CLT temporário  Atividades: Atendimento e suporte técnico a clientes, resolução de dúvidas de baixa complexidade, abertura e acompanhamento de tickets, registro e categorização de chamados, atualização de status ao cliente, escalonamento de demandas e apoio aos indicadores da área.  Requisitos: •	Ensino superior completo (desejável) •	Experiência em tecnologia ou suporte •	Conhecimentos em lógica de programação, banco de dados, regras de negócio e Pacote Microsoft •	Desejável experiência com atendimento ao cliente. || Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="I429" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>83303</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>ANALISTA DE INFRAESTRUTURA DE REDE SENIOR N3</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>•	ANALISTA DE INFRAESTRUTURA DE REDE SÊNIOR •	Jardim Maia  Guarulhos  SP •	Horário: Comercial •	Previsão de Início: FEV/2026  •	Idade acima de 25 anos •	Superior: Tecn. da Informação, Redes de Computadores ou áreas correlatas •	5 anos de exper. em redes corporativas de grande porte, com atuação em projetos e operações •	Conhec avançado em protocolos e arquiteturas de rede •	Exper. comprovada com redes Wi-Fi corporativas (WPA2/WPA3, 802.11k/v/r, otimização de cobertura e desempenho) •	Vivência com firewalls Fortinet, Sophos, OPNsense, pfSense •	Adm. switches L2/L3 de múltiplos fabricantes (Cisco Nexus, Aruba, HP, Extreme, Dell) •	Exper. em ambientes virtualizados com integração de rede. •	Capac. de executar assessments de rede e elaborar documentação técnica detalhada. •	Conhec. em plataformas de gerenciamento de rede (Aruba Central ou equivalentes).  REMUNERAÇÃO  BENEFÍCIOS: A combinar
+Empresa .....:  Quality Technology</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 20/01/26 || ANALISTA DE INFRAESTRUTURA DE REDE SENIOR N3 || •	ANALISTA DE INFRAESTRUTURA DE REDE SÊNIOR •	Jardim Maia  Guarulhos  SP •	Horário: Comercial •	Previsão de Início: FEV/2026  •	Idade acima de 25 anos •	Superior: Tecn. da Informação, Redes de Computadores ou áreas correlatas •	5 anos de exper. em redes corporativas de grande porte, com atuação em projetos e operações •	Conhec avançado em protocolos e arquiteturas de rede •	Exper. comprovada com redes Wi-Fi corporativas (WPA2/WPA3, 802.11k/v/r, otimização de cobertura e desempenho) •	Vivência com firewalls Fortinet, Sophos, OPNsense, pfSense •	Adm. switches L2/L3 de múltiplos fabricantes (Cisco Nexus, Aruba, HP, Extreme, Dell) •	Exper. em ambientes virtualizados com integração de rede. •	Capac. de executar assessments de rede e elaborar documentação técnica detalhada. •	Conhec. em plataformas de gerenciamento de rede (Aruba Central ou equivalentes).  REMUNERAÇÃO  BENEFÍCIOS: A combinar || Empresa .....:  Quality Technology</t>
+        </is>
+      </c>
+      <c r="I430" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>83304</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>ANALISTA DE MONITORAMENTO N1 (JR)</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>•	ANALISTA DE MONITORAMENTO N1 - TIC (JR) •	Jardim Maia  Guarulhos  SP •	Horário: Segunda a quinta – das 8h00 às 18h00  Sexta das 8h00 às 17h00 •	Disponibilidade para modalidade de sobreaviso. •	Previsão de Início: FEV/2026  REQUISITOS: •	Acima de 20 anos  Formação técnica em Redes de Computadores, Ciência da Computação, Eng. Computação, Sistemas de Informação ou áreas correlatas. •	Exper. mínima de 1 ano em suporte técnico, NOC ou áreas afins •	Conhec. básico em Zabbix e Grafana para monitoração de redes e servidores •	Noções de redes (TCP/IP, VLANs, SNMP, ICMP) •	Conhec. básico em Firewalls, Switches, VPNs, sistema operacional Windows e Linux e gestão de links (voz e dados) •	Noções de Telecom Avaya (IP Office, telefonia VoIP e ramais) •	Noções de adm. servidores Windows Server e Linux •	Familiaridade com ferramentas de ITSM (GLPI ou similares) •	Conhec. básico de Cloud Privada (VMware e/ou Proxmox) •	Facilidade para elaborar e seguir documentação técnica.
+Empresa .....:  Quality Technology</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 20/01/26 || ANALISTA DE MONITORAMENTO N1 (JR) || •	ANALISTA DE MONITORAMENTO N1 - TIC (JR) •	Jardim Maia  Guarulhos  SP •	Horário: Segunda a quinta – das 8h00 às 18h00  Sexta das 8h00 às 17h00 •	Disponibilidade para modalidade de sobreaviso. •	Previsão de Início: FEV/2026  REQUISITOS: •	Acima de 20 anos  Formação técnica em Redes de Computadores, Ciência da Computação, Eng. Computação, Sistemas de Informação ou áreas correlatas. •	Exper. mínima de 1 ano em suporte técnico, NOC ou áreas afins •	Conhec. básico em Zabbix e Grafana para monitoração de redes e servidores •	Noções de redes (TCP/IP, VLANs, SNMP, ICMP) •	Conhec. básico em Firewalls, Switches, VPNs, sistema operacional Windows e Linux e gestão de links (voz e dados) •	Noções de Telecom Avaya (IP Office, telefonia VoIP e ramais) •	Noções de adm. servidores Windows Server e Linux •	Familiaridade com ferramentas de ITSM (GLPI ou similares) •	Conhec. básico de Cloud Privada (VMware e/ou Proxmox) •	Facilidade para elaborar e seguir documentação técnica. || Empresa .....:  Quality Technology</t>
+        </is>
+      </c>
+      <c r="I431" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>83310</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Consultor Sênior TOTVS Protheus – Materiais</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) profissional para atuar no time de Serviços, com foco em implantação, evolução e sustentação de soluções TOTVS Protheus, contribuindo para entregas com qualidade, aderência ao negócio e geração de valor ao cliente.Responsabilidades Conduzir atividades de implantação e sustentação dos módulos de Materiais, com foco em PCP e Estoque.  Requisitos Ensino superior completo. Vivência em regras de negócio e implantação dos módulos PCP e Estoque (Protheus). Conhecimento em ADVPL.  Diferenciais Experiência no segmento de atuação. Conhecimento em estrutura de dados e/ou MS SQL Server (MSSQL). Conhecimento em módulos de Qualidade.  Informações da vaga Contratação: Pessoa Jurídica (PJ) Modelo de trabalho: Presencial Local: Guarulhos/SP Início previsto: Fev/2026
+Empresa .....:  Grupo PB Consultoria</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Guarulhos - SP - 20/01/26 || Consultor Sênior TOTVS Protheus – Materiais || Estamos em busca de um(a) profissional para atuar no time de Serviços, com foco em implantação, evolução e sustentação de soluções TOTVS Protheus, contribuindo para entregas com qualidade, aderência ao negócio e geração de valor ao cliente.Responsabilidades Conduzir atividades de implantação e sustentação dos módulos de Materiais, com foco em PCP e Estoque.  Requisitos Ensino superior completo. Vivência em regras de negócio e implantação dos módulos PCP e Estoque (Protheus). Conhecimento em ADVPL.  Diferenciais Experiência no segmento de atuação. Conhecimento em estrutura de dados e/ou MS SQL Server (MSSQL). Conhecimento em módulos de Qualidade.  Informações da vaga Contratação: Pessoa Jurídica (PJ) Modelo de trabalho: Presencial Local: Guarulhos/SP Início previsto: Fev/2026 || Empresa .....:  Grupo PB Consultoria</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>82229</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Administrador de Navegador Corporativo</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Administrador de Navegador Corporativo (Enterprise Browser Admin) Local: com presença 1x por semana no escritório do cliente  Buscamos prestadores de serviços em alguma das cidades: Rio de Janeiro (Capital), Brasília, Belo Horizonte, Recife, Salvador, Porto Alegre, Blumenau, Campinas, Curitiba, Fortaleza e Ribeirão Preto,  pois o contrato contempla a ida ao escritório em alguma destas cidades.  Atuação com administração de navegadores corporativos ou funções similares. Ferramentas e tecnologias de gerenciamento de navegadores. Familiaridade com protocolos de segurança e boas práticas de proteção web. Excelente capacidade de resolução de problemas e atenção aos detalhes. Inglês intermediário a avançado, principalmente para comunicação escrita e verbal. Gerenciar e manter ambientes de navegador corporativo, garantindo desempenho e segurança ideais. Configurar e implantar políticas e definições de navegador em toda a organização.
+Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Administrador de Navegador Corporativo || Administrador de Navegador Corporativo (Enterprise Browser Admin) Local: com presença 1x por semana no escritório do cliente  Buscamos prestadores de serviços em alguma das cidades: Rio de Janeiro (Capital), Brasília, Belo Horizonte, Recife, Salvador, Porto Alegre, Blumenau, Campinas, Curitiba, Fortaleza e Ribeirão Preto,  pois o contrato contempla a ida ao escritório em alguma destas cidades.  Atuação com administração de navegadores corporativos ou funções similares. Ferramentas e tecnologias de gerenciamento de navegadores. Familiaridade com protocolos de segurança e boas práticas de proteção web. Excelente capacidade de resolução de problemas e atenção aos detalhes. Inglês intermediário a avançado, principalmente para comunicação escrita e verbal. Gerenciar e manter ambientes de navegador corporativo, garantindo desempenho e segurança ideais. Configurar e implantar políticas e definições de navegador em toda a organização. || Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I433" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>83299</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura - Esporadico</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Vaga para trabalho Totalmente em HO, remuneração por projeto atendido, não tendo a necessidade de vinculo permanente, também não há a necessidade de exclusividade para empresa. O analista será acionado para atendimento de projetos específicos e deverá ter os seguintes conhecimentos:  Configuração de Grupos de Discos e RAID Criação de Volumes Lógicos (LUNs) Criação de objetos de host no Storage Virtualize Organização em grupos de hosts (clusters) LUN Masking e Mapeamento de Volumes Instalação e Configuração do Veeam Essentials Migração de Dados e Serviços DC, AD, DNS, DHCP, BD. Instalação e configuraçção de Hipervisor Instalação e configuração vCenter, Windows Admin Center, VME Manager Instalação e configuraão de VMs Configuração de virtual switches por plataforma: VME: bridges com Open vSwitch (OVS). Configuração do iSCSI initiator (IQN), discovery de targets, binding quando aplicável e ativação de MPIO. Validação de HBAs Fibre Channel e ativação de multipath.
+Empresa .....:  Worldcon Tecnologia</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Analista de Infraestrutura - Esporadico || Vaga para trabalho Totalmente em HO, remuneração por projeto atendido, não tendo a necessidade de vinculo permanente, também não há a necessidade de exclusividade para empresa. O analista será acionado para atendimento de projetos específicos e deverá ter os seguintes conhecimentos:  Configuração de Grupos de Discos e RAID Criação de Volumes Lógicos (LUNs) Criação de objetos de host no Storage Virtualize Organização em grupos de hosts (clusters) LUN Masking e Mapeamento de Volumes Instalação e Configuração do Veeam Essentials Migração de Dados e Serviços DC, AD, DNS, DHCP, BD. Instalação e configuraçção de Hipervisor Instalação e configuração vCenter, Windows Admin Center, VME Manager Instalação e configuraão de VMs Configuração de virtual switches por plataforma: VME: bridges com Open vSwitch (OVS). Configuração do iSCSI initiator (IQN), discovery de targets, binding quando aplicável e ativação de MPIO. Validação de HBAs Fibre Channel e ativação de multipath. || Empresa .....:  Worldcon Tecnologia</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>83020</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>analista de TI sênior</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Atuação em projetos estratégicos, com foco em soluções para o setor de Telecomunicações, especialmente em Sistemas de Mediação. Regime: Totalmente Remoto Horário: Comercial  Descrição do Cargo Profissional responsável por projetar, implementar e suportar soluções de software críticas para o negócio de Telecom, com foco em sistemas de mediação e integração de dados. Atua de forma autônoma no desenvolvimento, manutenção e otimização de sistemas, além de orientar e apoiar equipes mais juniores.  Experiência Necessária Vivência comprovada em projetos de Telecom, especialmente em Sistemas de Mediação. Sólido conhecimento em Linux. Programação em Python e Shell Script em ambientes produtivos. Atuação com integrações entre sistemas complexos e alto volume de dados.  Desejável Experiência em linguagens como CGDC, Java, C e JavaScript. Conhecimento em ferramentas de versionamento (Git) e pipelines de CI/CD. Experiência em metodologias ágeis (Scrum, Kanban).
+Empresa .....:  ITShare Soluções em Tecnologia</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || analista de TI sênior || Atuação em projetos estratégicos, com foco em soluções para o setor de Telecomunicações, especialmente em Sistemas de Mediação. Regime: Totalmente Remoto Horário: Comercial  Descrição do Cargo Profissional responsável por projetar, implementar e suportar soluções de software críticas para o negócio de Telecom, com foco em sistemas de mediação e integração de dados. Atua de forma autônoma no desenvolvimento, manutenção e otimização de sistemas, além de orientar e apoiar equipes mais juniores.  Experiência Necessária Vivência comprovada em projetos de Telecom, especialmente em Sistemas de Mediação. Sólido conhecimento em Linux. Programação em Python e Shell Script em ambientes produtivos. Atuação com integrações entre sistemas complexos e alto volume de dados.  Desejável Experiência em linguagens como CGDC, Java, C e JavaScript. Conhecimento em ferramentas de versionamento (Git) e pipelines de CI/CD. Experiência em metodologias ágeis (Scrum, Kanban). || Empresa .....:  ITShare Soluções em Tecnologia</t>
+        </is>
+      </c>
+      <c r="I435" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>82816</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Analista Sistemas de Preços</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Descrição da área: A área de Sistemas de Preços compõe a Diretoria de Preços e Dados da Vertical de Seguros e é responsável pela implementação do preço do seguro para o produto Automóvel. Essas implementações são realizadas para o Auto Individual e Auto Frota. Utilizamos tecnologias e recursos computacionais, com o objetivo de criar componentes de cálculo e bibliotecas de sistema para integração com os diversos canais e plataformas de cálculo. Usamos algumas tecnologias como Java, SQL, GCP (Google Cloud Platform), Oracle, Python e o Multitarifador (ferramenta interna) e buscamos pessoas que tenham conhecimento em lógica de programação/técnico, viés de qualidade. Por ser uma área de interface entre negócio e tecnologia, valorizamos habilidades como protagonismo, negociação, comunicação, coragem, sentimento de dono e senso de urgência.  Pré-requisitos: Experiência com análise de sistemas Conhecimento dos Produtos de Seguros
+Empresa .....:  FORNAX CONSULTORIA EM INFORMATICA</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Analista Sistemas de Preços || Descrição da área: A área de Sistemas de Preços compõe a Diretoria de Preços e Dados da Vertical de Seguros e é responsável pela implementação do preço do seguro para o produto Automóvel. Essas implementações são realizadas para o Auto Individual e Auto Frota. Utilizamos tecnologias e recursos computacionais, com o objetivo de criar componentes de cálculo e bibliotecas de sistema para integração com os diversos canais e plataformas de cálculo. Usamos algumas tecnologias como Java, SQL, GCP (Google Cloud Platform), Oracle, Python e o Multitarifador (ferramenta interna) e buscamos pessoas que tenham conhecimento em lógica de programação/técnico, viés de qualidade. Por ser uma área de interface entre negócio e tecnologia, valorizamos habilidades como protagonismo, negociação, comunicação, coragem, sentimento de dono e senso de urgência.  Pré-requisitos: Experiência com análise de sistemas Conhecimento dos Produtos de Seguros || Empresa .....:  FORNAX CONSULTORIA EM INFORMATICA</t>
+        </is>
+      </c>
+      <c r="I436" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>82739</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Backend Developer Senior</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Backend Developer Senior Inglês Avançado PJ Remoto Tecnologias obrigatórias: .NET Core 6, AWS (principais serviços) e PostgreSQL.  Responsabilidades: Desenvolver e manter APIs e serviços backend em .NET Core 6. Integrar aplicações com serviços AWS (Lambda, S3, API Gateway, RDS etc.). Criar e otimizar modelos e consultas em PostgreSQL. Participar de decisões de arquitetura, garantindo performance e segurança. Monitorar aplicações, corrigir incidentes e implementar melhorias contínuas. Colaborar com times internos e documentar soluções técnicas.  Perfil desejado: Experiência sólida em backend (.NET Core 6). Conhecimento avançado em AWS e PostgreSQL. Perfil analítico, proativo e colaborativo, com boa comunicação.
+Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Backend Developer Senior || Backend Developer Senior Inglês Avançado PJ Remoto Tecnologias obrigatórias: .NET Core 6, AWS (principais serviços) e PostgreSQL.  Responsabilidades: Desenvolver e manter APIs e serviços backend em .NET Core 6. Integrar aplicações com serviços AWS (Lambda, S3, API Gateway, RDS etc.). Criar e otimizar modelos e consultas em PostgreSQL. Participar de decisões de arquitetura, garantindo performance e segurança. Monitorar aplicações, corrigir incidentes e implementar melhorias contínuas. Colaborar com times internos e documentar soluções técnicas.  Perfil desejado: Experiência sólida em backend (.NET Core 6). Conhecimento avançado em AWS e PostgreSQL. Perfil analítico, proativo e colaborativo, com boa comunicação. || Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="I437" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>83321</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Consultor Funcional</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Consultor SAP IS-U CCS - Sênior - Atuação Totalmente Remota  Sólida experiência em projetos de implementação e melhorias SAP Utilities / CCS Billing  Vivência com migração de dados Projeto de longa duração.
+Empresa .....:  Simply</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Consultor Funcional || Consultor SAP IS-U CCS - Sênior - Atuação Totalmente Remota  Sólida experiência em projetos de implementação e melhorias SAP Utilities / CCS Billing  Vivência com migração de dados Projeto de longa duração. || Empresa .....:  Simply</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>82805</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>DBA em PostgreSQL (Oracle)</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Prazo: 12 meses, com chances de prorrogar Local: Remoto Contratação: CLT  Requisitos Obrigatórios: Conhecimento avançado e comprovado em PostgreSQL, incluindo tuning, performance e particionamento de tabelas volumétricas Experiência prática em projetos de integração entre bancos de dados, especialmente Oracle e PostgreSQL Conhecimento com ferramentas de replicação, especialmente Oracle Golden Gate (OGG).
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || DBA em PostgreSQL (Oracle) || Prazo: 12 meses, com chances de prorrogar Local: Remoto Contratação: CLT  Requisitos Obrigatórios: Conhecimento avançado e comprovado em PostgreSQL, incluindo tuning, performance e particionamento de tabelas volumétricas Experiência prática em projetos de integração entre bancos de dados, especialmente Oracle e PostgreSQL Conhecimento com ferramentas de replicação, especialmente Oracle Golden Gate (OGG). || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I439" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>82866</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Backend</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Backend – Node.js Sênior REMOTO PJ  Responsabilidades: Migrar e reescrever funcionalidades backend dos bolt-ons para Node.js na BTP. Desenvolver APIs, integrações e serviços de backend. Trabalhar em conjunto com o arquiteto e o time frontend na criação das novas soluções. Garantir código limpo, testável e escalável.  Requisitos: Experiência com Node.js e desenvolvimento de APIs. Conhecimento de BTP será um diferencial. Entendimento de integrações SAP (REST, RFC, OData) é desejável
+Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Desenvolvedor Backend || Desenvolvedor Backend – Node.js Sênior REMOTO PJ  Responsabilidades: Migrar e reescrever funcionalidades backend dos bolt-ons para Node.js na BTP. Desenvolver APIs, integrações e serviços de backend. Trabalhar em conjunto com o arquiteto e o time frontend na criação das novas soluções. Garantir código limpo, testável e escalável.  Requisitos: Experiência com Node.js e desenvolvimento de APIs. Conhecimento de BTP será um diferencial. Entendimento de integrações SAP (REST, RFC, OData) é desejável || Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="I440" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>82811</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Backend SR</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Vaga Totalmente remota - contrato PJ  Competências Técnicas: Requisitos Técnicos Obrigatórios - Mínimo de 5 anos de experiência com .NET (C#), incluindo profundo domínio da linguagem e seu ecossistema. - Experiência com arquitetura de microsserviços e soluções distribuídas. - Conhecimento avançado em PostgreSQL e modelagem de dados relacional. - Experiência com bancos NoSQL (preferencialmente MongoDB). - Aplicação prática dos princípios SOLID e design patterns. - Vivência com Domain-Driven Design (DDD). - Experiência com ORM Entity Framework. - Conhecimento em arquitetura de soluções e estratégias de cache. - Uso prático de API Gateways, especialmente Azure API Management. - Conhecimento em DevSecOps, com foco em segurança e detecção de vulnerabilidades. - Vivência com monitoramento, telemetria e logging com ferramentas como Grafana ou Application Insights.  Diferencial: Conhecimento em Python
+Empresa .....:  Plus-It</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Desenvolvedor Backend SR || Vaga Totalmente remota - contrato PJ  Competências Técnicas: Requisitos Técnicos Obrigatórios - Mínimo de 5 anos de experiência com .NET (C#), incluindo profundo domínio da linguagem e seu ecossistema. - Experiência com arquitetura de microsserviços e soluções distribuídas. - Conhecimento avançado em PostgreSQL e modelagem de dados relacional. - Experiência com bancos NoSQL (preferencialmente MongoDB). - Aplicação prática dos princípios SOLID e design patterns. - Vivência com Domain-Driven Design (DDD). - Experiência com ORM Entity Framework. - Conhecimento em arquitetura de soluções e estratégias de cache. - Uso prático de API Gateways, especialmente Azure API Management. - Conhecimento em DevSecOps, com foco em segurança e detecção de vulnerabilidades. - Vivência com monitoramento, telemetria e logging com ferramentas como Grafana ou Application Insights.  Diferencial: Conhecimento em Python || Empresa .....:  Plus-It</t>
+        </is>
+      </c>
+      <c r="I441" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>82855</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Desenvolvedor FullStack Sr.</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>Quais serão as suas responsabilidades: Desenvolver e manter aplicações web com Java e Angular Desenhar, estruturar e integrar de soluções complexas Alinhar visão técnica à estratégia de negócio, garantindo escalabilidade, performance e qualidade das entregas.  O que você precisa para concorrer a essa oportunidade: Domínio avançado em Java e Angular.JS Design de aplicações distribuídas, microsserviços, integrações entre sistemas, APIs REST/SOAP, mensageria Experiência em banco de dados postgres Atuação em ambientes AWS Aplicação de boas práticas, orientação de times, code review, automação de testes, CI/CD Experiência na resolução de problemas críticos de performance e na atualização de soluções defasadas.  Desejável: Visão técnica ampla para apoiar decisões estratégicas de arquitetura Capacidade de mentorar e orientar times de desenvolvimento Forte atuação em ambientes dinâmicos, garantindo estabilidade e evolução contínua dos sistemas.
+Empresa .....:  Singularis RH</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Desenvolvedor FullStack Sr. || Quais serão as suas responsabilidades: Desenvolver e manter aplicações web com Java e Angular Desenhar, estruturar e integrar de soluções complexas Alinhar visão técnica à estratégia de negócio, garantindo escalabilidade, performance e qualidade das entregas.  O que você precisa para concorrer a essa oportunidade: Domínio avançado em Java e Angular.JS Design de aplicações distribuídas, microsserviços, integrações entre sistemas, APIs REST/SOAP, mensageria Experiência em banco de dados postgres Atuação em ambientes AWS Aplicação de boas práticas, orientação de times, code review, automação de testes, CI/CD Experiência na resolução de problemas críticos de performance e na atualização de soluções defasadas.  Desejável: Visão técnica ampla para apoiar decisões estratégicas de arquitetura Capacidade de mentorar e orientar times de desenvolvimento Forte atuação em ambientes dinâmicos, garantindo estabilidade e evolução contínua dos sistemas. || Empresa .....:  Singularis RH</t>
+        </is>
+      </c>
+      <c r="I442" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>82802</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java / Go</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Prazo: indeterminado Local: remoto Contratação: PJ  Inglês: fluente Ampla experiência em programação Java/JEE e Go Forte proficiência em ambientes Linux e shell scripting Conhecimento avançado em Oracle, PL/SQL e scripts SQL complexos Habilidade em IDEs como JBoss Developer Studio e IntelliJ Experiência prática com Spring Framework, incluindo Spring Boot Proficiência na criação de dashboards e métricas de observabilidade usando Splunk, Dynatrace, Grafana e Prometheus Conhecimento prático de tecnologias em nuvem, incluindo Cloud Foundry e Kubernetes
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Desenvolvedor Java / Go || Prazo: indeterminado Local: remoto Contratação: PJ  Inglês: fluente Ampla experiência em programação Java/JEE e Go Forte proficiência em ambientes Linux e shell scripting Conhecimento avançado em Oracle, PL/SQL e scripts SQL complexos Habilidade em IDEs como JBoss Developer Studio e IntelliJ Experiência prática com Spring Framework, incluindo Spring Boot Proficiência na criação de dashboards e métricas de observabilidade usando Splunk, Dynatrace, Grafana e Prometheus Conhecimento prático de tecnologias em nuvem, incluindo Cloud Foundry e Kubernetes || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I443" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>83312</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Mainframe</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Local: Remoto Contratação: PJ Período: 12 meses, com chances de prorrogar  Requisitos: COBOL CICS DB2 JCL CONTROL-M VSAM NATURAL ROSCOE RDZ/IDZ/KDZ Testes automatizados T-REXX Trabalho em equipe, colaborando com front-end, QA e DevOps Atuação em equipe SCRUM como desenvolvedor e boa capacidade de comunicação e negociação.
+Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Desenvolvedor Mainframe || Local: Remoto Contratação: PJ Período: 12 meses, com chances de prorrogar  Requisitos: COBOL CICS DB2 JCL CONTROL-M VSAM NATURAL ROSCOE RDZ/IDZ/KDZ Testes automatizados T-REXX Trabalho em equipe, colaborando com front-end, QA e DevOps Atuação em equipe SCRUM como desenvolvedor e boa capacidade de comunicação e negociação. || Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="I444" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>82833</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Full Stack Developer (React/Node) Remoto</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Estamos buscando um Dev Pleno Full Stack para atuar no ciclo completo de desenvolvimento, criando soluções escaláveis e performáticas.  O que você precisa dominar: Front-end: ReactJS (Hooks, Context API). Back-end: Node.js/Express. Dados: MySQL, MongoDB e Redis (Cache/Mensageria). Infra/DevOps: Docker, Linux e AWS (EC2/S3/ECS/Rabbit).  Responsabilidades: Desenvolver e manter APIs RESTful e interfaces web responsivas. Criar e orquestrar containers Docker. Realizar deploys e monitoramento básico em ambiente AWS. Atuar na modelagem de dados (Relacional e NoSQL). Trabalhar com terminal Linux no dia a dia.  Requisitos: Experiência comprovada com JavaScript e Typescript no front e back, vivência com metodologias ágeis e familiaridade com ambiente Cloud. Buscamos autonomia e foco em código limpo.
+Empresa .....:  SprintHub</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Full Stack Developer (React/Node) Remoto || Estamos buscando um Dev Pleno Full Stack para atuar no ciclo completo de desenvolvimento, criando soluções escaláveis e performáticas.  O que você precisa dominar: Front-end: ReactJS (Hooks, Context API). Back-end: Node.js/Express. Dados: MySQL, MongoDB e Redis (Cache/Mensageria). Infra/DevOps: Docker, Linux e AWS (EC2/S3/ECS/Rabbit).  Responsabilidades: Desenvolver e manter APIs RESTful e interfaces web responsivas. Criar e orquestrar containers Docker. Realizar deploys e monitoramento básico em ambiente AWS. Atuar na modelagem de dados (Relacional e NoSQL). Trabalhar com terminal Linux no dia a dia.  Requisitos: Experiência comprovada com JavaScript e Typescript no front e back, vivência com metodologias ágeis e familiaridade com ambiente Cloud. Buscamos autonomia e foco em código limpo. || Empresa .....:  SprintHub</t>
+        </is>
+      </c>
+      <c r="I445" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>82769</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Segurança da informação SR</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Experiência comprovada com arquitetura de segurança da informação, incluindo redes, aplicações, infraestrutura e segurança de dados. Conhecimento avançado em frameworks e normas de segurança, como NIST, ISO 27001, CIS Controls e MITRE ATTCK. Experiência com segurança em ambientes de nuvem (especialmente AWS) e boas práticas de hardening para serviços de dados. Foco no pilar de arquitetura de dados, garantindo segurança da informação em ambientes de dados estruturados e não estruturados, incluindo Data Lakes e Data Warehouses. Domínio de conceitos de criptografia, segurança de identidade (IAM), autenticação multifator (MFA) e controle de acesso baseado em funções (RBAC). Experiência com ferramentas e tecnologias de segurança voltadas para proteção de dados, como DLP (Data Loss Prevention), mascaramento de dados, tokenização e SIEM. Habilidade em análise de riscos e definição de planos de mitigação de ameaças em ambientes de analytics e inteligência artificial.
+Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || Segurança da informação SR || Experiência comprovada com arquitetura de segurança da informação, incluindo redes, aplicações, infraestrutura e segurança de dados. Conhecimento avançado em frameworks e normas de segurança, como NIST, ISO 27001, CIS Controls e MITRE ATTCK. Experiência com segurança em ambientes de nuvem (especialmente AWS) e boas práticas de hardening para serviços de dados. Foco no pilar de arquitetura de dados, garantindo segurança da informação em ambientes de dados estruturados e não estruturados, incluindo Data Lakes e Data Warehouses. Domínio de conceitos de criptografia, segurança de identidade (IAM), autenticação multifator (MFA) e controle de acesso baseado em funções (RBAC). Experiência com ferramentas e tecnologias de segurança voltadas para proteção de dados, como DLP (Data Loss Prevention), mascaramento de dados, tokenização e SIEM. Habilidade em análise de riscos e definição de planos de mitigação de ameaças em ambientes de analytics e inteligência artificial. || Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="I446" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>83308</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>UX Designer</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Vaga: UX Designer Prazo: 12 meses, com chances de prorrogação Local: Remoto Contratação: PJ  Requisitos: Definir visão, objetivos e roadmap do(s) produto(s) de cartão (PF/PJ/Gov ou parcerias), alinhado a estratégia da unidade e metas de crescimento e rentabilidade. Descobrir oportunidades com base em análise de mercado e dados (segmentos, concorrência, tendências, regulação), priorizando com frameworks (RICE, WSJF, ICE). Especificar problemas e outcomes (PRDs, hipóteses, critérios de sucesso, métricas norteadoras) e apoiar na atuação de ciclos ágeis em conjunto com a tecnologia Avaliar oportunidades: aquisição/ativação, engajamento (spend), retenção, cross/up-sell e churn, conectando alavancas (pricing, benefícios, parceria, UX, canais). Tomar decisões baseadas em evidências: definir KPIs (LTV, CAC, ARPU, NPS, ativação,  revolve, inadimplência controlada), ler experimentos e ajustar rota.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 20/01/26 || UX Designer || Vaga: UX Designer Prazo: 12 meses, com chances de prorrogação Local: Remoto Contratação: PJ  Requisitos: Definir visão, objetivos e roadmap do(s) produto(s) de cartão (PF/PJ/Gov ou parcerias), alinhado a estratégia da unidade e metas de crescimento e rentabilidade. Descobrir oportunidades com base em análise de mercado e dados (segmentos, concorrência, tendências, regulação), priorizando com frameworks (RICE, WSJF, ICE). Especificar problemas e outcomes (PRDs, hipóteses, critérios de sucesso, métricas norteadoras) e apoiar na atuação de ciclos ágeis em conjunto com a tecnologia Avaliar oportunidades: aquisição/ativação, engajamento (spend), retenção, cross/up-sell e churn, conectando alavancas (pricing, benefícios, parceria, UX, canais). Tomar decisões baseadas em evidências: definir KPIs (LTV, CAC, ARPU, NPS, ativação,  revolve, inadimplência controlada), ler experimentos e ajustar rota. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I447" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>83323</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Analista Data Science Pleno</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Porto Alegre - RS - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Desenvolver e implementar arquiteturas em Python e Django para sistemas de análise espacial.  Processar e analisar dados geográficos com ferramentas como PostGIS, integrando bibliotecas como Pandas, GeoPandas, Geocoder, Rasterio, Redis, GDAL e NumPy.  Aplicar métodos analíticos para resolver problemas reais, como otimização de rotas agrícolas, mapeamento de solos ou previsão de colheitas baseadas em dados espaciais.  Colaborar com equipes multidisciplinares para integrar soluções de dados em fluxos de trabalho operacionais.  Realizar testes, depuração e otimização de códigos para garantir eficiência e escalabilidade. Gerar relatórios e visualizações de dados para suportar decisões estratégicas na Agromai.  Requisitos: Formação superior em Física, Matemática, Estatística. Experiência comprovada - 3 anos Conhecimento em processamento de dados geográficos e bibliotecas como Pandas, GeoPandas, Rasterio e NumPy.
+Empresa .....:  Agromai</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Porto Alegre - RS - 20/01/26 || Analista Data Science Pleno || Desenvolver e implementar arquiteturas em Python e Django para sistemas de análise espacial.  Processar e analisar dados geográficos com ferramentas como PostGIS, integrando bibliotecas como Pandas, GeoPandas, Geocoder, Rasterio, Redis, GDAL e NumPy.  Aplicar métodos analíticos para resolver problemas reais, como otimização de rotas agrícolas, mapeamento de solos ou previsão de colheitas baseadas em dados espaciais.  Colaborar com equipes multidisciplinares para integrar soluções de dados em fluxos de trabalho operacionais.  Realizar testes, depuração e otimização de códigos para garantir eficiência e escalabilidade. Gerar relatórios e visualizações de dados para suportar decisões estratégicas na Agromai.  Requisitos: Formação superior em Física, Matemática, Estatística. Experiência comprovada - 3 anos Conhecimento em processamento de dados geográficos e bibliotecas como Pandas, GeoPandas, Rasterio e NumPy. || Empresa .....:  Agromai</t>
+        </is>
+      </c>
+      <c r="I448" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>83322</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Programador Full Stack Pleno</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Porto Alegre - RS - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>Procuramos alguém com boa autonomia, base sólida e vontade de crescer em um ambiente tech-first.  Tech Stack Backend: Python, Django, Django REST Framework, fastAPI Frontend: React, TypeScript, HTML, CSS Banco de Dados: PostgreSQL Cloud: Google Cloud Platform (Compute Engine, Cloud Run, Cloud Functions) Infra: Docker, CI/CD, Github Actions Arquitetura: APIs REST Qualidade: Testes automatizados, code review  O que você vai fazer Desenvolver funcionalidades completas, do backend ao frontend Construir e evoluir APIs REST com Python, Django e fastAPI Desenvolver interfaces web performáticas com React e TypeScript Atuar na correção de bugs e melhoria contínua do código Trabalhar junto aos times de produto, design e engenharia Otimizar queries e estrutura de dados no PostgreSQL
+Empresa .....:  Agromai</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Porto Alegre - RS - 20/01/26 || Programador Full Stack Pleno || Procuramos alguém com boa autonomia, base sólida e vontade de crescer em um ambiente tech-first.  Tech Stack Backend: Python, Django, Django REST Framework, fastAPI Frontend: React, TypeScript, HTML, CSS Banco de Dados: PostgreSQL Cloud: Google Cloud Platform (Compute Engine, Cloud Run, Cloud Functions) Infra: Docker, CI/CD, Github Actions Arquitetura: APIs REST Qualidade: Testes automatizados, code review  O que você vai fazer Desenvolver funcionalidades completas, do backend ao frontend Construir e evoluir APIs REST com Python, Django e fastAPI Desenvolver interfaces web performáticas com React e TypeScript Atuar na correção de bugs e melhoria contínua do código Trabalhar junto aos times de produto, design e engenharia Otimizar queries e estrutura de dados no PostgreSQL || Empresa .....:  Agromai</t>
+        </is>
+      </c>
+      <c r="I449" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>83313</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Cientista de Dados</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Recife - PE - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Remoto (Residir em Recife ou Região próxima) PJ 12 meses, com chances de prorrogação  Requisitos: Estatística e modelagem preditiva (regressões, classificação, séries temporais, etc.) Machine Learning e IA aplicada NLP e modelos de linguagem (tratamento de texto, classificação de documentos, RAG) Programação em Python (pandas, scikitlearn, PySpark, TensorFlow, etc.) SQL avançado para manipulação de dados em larga escala Criação e orquestração de pipelines analíticos (Vertex AI Pipelines, Spark, Databricks, etc.) Manipulação de dados em ambientes distribuídos ou com volume elevado Experiência com modelos em produção: monitoramento, revalidação, reentreinamento Conhecimento de infraestrutura analítica (BigQuery, GCP, Databricks, Azure) Capacidade de traduzir problemas de negócio em hipóteses/modelos Experiência colaborando com áreas como jurídico, crédito, fraude, marketing, operações, entre outras.
+Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Recife - PE - 20/01/26 || Cientista de Dados || Remoto (Residir em Recife ou Região próxima) PJ 12 meses, com chances de prorrogação  Requisitos: Estatística e modelagem preditiva (regressões, classificação, séries temporais, etc.) Machine Learning e IA aplicada NLP e modelos de linguagem (tratamento de texto, classificação de documentos, RAG) Programação em Python (pandas, scikitlearn, PySpark, TensorFlow, etc.) SQL avançado para manipulação de dados em larga escala Criação e orquestração de pipelines analíticos (Vertex AI Pipelines, Spark, Databricks, etc.) Manipulação de dados em ambientes distribuídos ou com volume elevado Experiência com modelos em produção: monitoramento, revalidação, reentreinamento Conhecimento de infraestrutura analítica (BigQuery, GCP, Databricks, Azure) Capacidade de traduzir problemas de negócio em hipóteses/modelos Experiência colaborando com áreas como jurídico, crédito, fraude, marketing, operações, entre outras. || Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="I450" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>83300</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Project Manager Sênior</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Project Manager	Sênior Disponibilidade imediata Contratação PJ Período estimado de 12 meses  Inglês Fluente Atuação Hibrida - Anchieta SBC  Comunicação clara com stakeholders globais. Preparação de relatórios e apresentações executivas. Experiência em Gestão de Projetos (TI) Planejamento, acompanhamento e controle de projetos. Capacidade de atuar como proxy do líder do projeto. Habilidades de Organização e Governança Documentação completa (cronogramas, atas, relatórios). Gestão de riscos, mudanças e indicadores. Autonomia e Proatividade Tomada de decisão dentro das diretrizes do projeto. Capacidade de conduzir reuniões e representar o projeto. Buscamos um Project Manager com perfil de apoio direto à liderança do projeto capaz de atuar como braço direito do líder de projeto  Esse profissional deverá: Apoiar nas atividades estratégicas e operacionais do projeto. Assumir responsabilidades quando o líder de projeto não puder estar presente.
+Empresa .....:  THERA CONSULTING</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 20/01/26 || Project Manager Sênior || Project Manager	Sênior Disponibilidade imediata Contratação PJ Período estimado de 12 meses  Inglês Fluente Atuação Hibrida - Anchieta SBC  Comunicação clara com stakeholders globais. Preparação de relatórios e apresentações executivas. Experiência em Gestão de Projetos (TI) Planejamento, acompanhamento e controle de projetos. Capacidade de atuar como proxy do líder do projeto. Habilidades de Organização e Governança Documentação completa (cronogramas, atas, relatórios). Gestão de riscos, mudanças e indicadores. Autonomia e Proatividade Tomada de decisão dentro das diretrizes do projeto. Capacidade de conduzir reuniões e representar o projeto. Buscamos um Project Manager com perfil de apoio direto à liderança do projeto capaz de atuar como braço direito do líder de projeto  Esse profissional deverá: Apoiar nas atividades estratégicas e operacionais do projeto. Assumir responsabilidades quando o líder de projeto não puder estar presente. || Empresa .....:  THERA CONSULTING</t>
+        </is>
+      </c>
+      <c r="I451" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>83044</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>.NET Developer SR</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>.NET Developer SR Desenvolvedor C# (.Net/Core) com conhecimento em Oracle e SQL Server, Windows Forms, API, Angular Experiência nível senior Experiência com desenho orientado a objeto e padrões de design Qualificações preferíveis: Conhecimento de GIT, experiência de participar em um projeto desde requisitos de escopo até o lançamento, experiência com desenvolvimento de aplicações distribuídas e escaláveis. Conhecimento de mercado financeiro.  Diferencial: Conhecimento de React, PostgreSQL e Azure Local São Paulo - Híbrido
+Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || .NET Developer SR || .NET Developer SR Desenvolvedor C# (.Net/Core) com conhecimento em Oracle e SQL Server, Windows Forms, API, Angular Experiência nível senior Experiência com desenho orientado a objeto e padrões de design Qualificações preferíveis: Conhecimento de GIT, experiência de participar em um projeto desde requisitos de escopo até o lançamento, experiência com desenvolvimento de aplicações distribuídas e escaláveis. Conhecimento de mercado financeiro.  Diferencial: Conhecimento de React, PostgreSQL e Azure Local São Paulo - Híbrido || Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="I452" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>82230</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Analista de Sistemas Protheus</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Analista de Sistemas – ERP Protheus  Contratação: CLT Modelo: Híbrido (3 dias presenciais e 2 remotos na semana) – Vila Olímpia / São Paulo Horário: Segunda a sexta das 08h as 17h48  O profissional será responsável por atuar na administração, suporte e melhorias no ERP Protheus, garantindo o funcionamento adequado dos módulos utilizados pela empresa.  Principais Responsabilidades: Atuar na sustentação, suporte e melhorias do sistema ERP Protheus nos módulos: Compras, Estoque/Custos, OMS, Financeiro, Fiscal e Ativo Fixo. Analisar e solucionar incidentes, propondo melhorias e otimizações nos processos do ERP. Realizar levantamento de requisitos junto aos usuários e traduzir as necessidades do negócio para parametrizações e customizações no sistema. Apoiar na implantação de novas funcionalidades e módulos do Protheus.  Requisitos: Experiência com ERP Protheus nos módulos mencionados. Conhecimento em parametrizações, atualizações e manutenção do sistema.
+Empresa .....:  Alcateia Consulting</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Analista de Sistemas Protheus || Analista de Sistemas – ERP Protheus  Contratação: CLT Modelo: Híbrido (3 dias presenciais e 2 remotos na semana) – Vila Olímpia / São Paulo Horário: Segunda a sexta das 08h as 17h48  O profissional será responsável por atuar na administração, suporte e melhorias no ERP Protheus, garantindo o funcionamento adequado dos módulos utilizados pela empresa.  Principais Responsabilidades: Atuar na sustentação, suporte e melhorias do sistema ERP Protheus nos módulos: Compras, Estoque/Custos, OMS, Financeiro, Fiscal e Ativo Fixo. Analisar e solucionar incidentes, propondo melhorias e otimizações nos processos do ERP. Realizar levantamento de requisitos junto aos usuários e traduzir as necessidades do negócio para parametrizações e customizações no sistema. Apoiar na implantação de novas funcionalidades e módulos do Protheus.  Requisitos: Experiência com ERP Protheus nos módulos mencionados. Conhecimento em parametrizações, atualizações e manutenção do sistema. || Empresa .....:  Alcateia Consulting</t>
+        </is>
+      </c>
+      <c r="I453" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>83019</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Analista de SOC - N1</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>A Blockbit, maior fabricante brasileira de soluções de cibersegurança, está em busca de um(a) Analista de SOC (MDR) para integrar o time de operações de segurança. Se você é analítico, curioso e gosta de investigar incidentes e proteger ambientes críticos, essa oportunidade é para você.  Principais Atividades: • Monitorar, investigar e responder a alertas dos produtos Blockbit (SIEM, XDR, SOAR, Monitoring) e Grafana • Realizar triagem (T1/T2), análise de logs e telemetrias, correlação de eventos e abertura/acompanhamento de incidentes • Executar playbooks, sugerir contenções e apoiar na erradicação e recuperação • Elaborar relatórios, indicadores e post-mortems • Ajustar regras, dashboards e integrações • Colaborar com times de produto e clientes, incluindo atividades de implantação e instalação in loco.  Requisitos: • Superior completo ou em andamento em Segurança da Informação, Redes ou áreas correlatas.  Diferenciais: • Experiência prévia em SOC ou MDR.
+Empresa .....:  BLOCKBIT TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Analista de SOC - N1 || A Blockbit, maior fabricante brasileira de soluções de cibersegurança, está em busca de um(a) Analista de SOC (MDR) para integrar o time de operações de segurança. Se você é analítico, curioso e gosta de investigar incidentes e proteger ambientes críticos, essa oportunidade é para você.  Principais Atividades: • Monitorar, investigar e responder a alertas dos produtos Blockbit (SIEM, XDR, SOAR, Monitoring) e Grafana • Realizar triagem (T1/T2), análise de logs e telemetrias, correlação de eventos e abertura/acompanhamento de incidentes • Executar playbooks, sugerir contenções e apoiar na erradicação e recuperação • Elaborar relatórios, indicadores e post-mortems • Ajustar regras, dashboards e integrações • Colaborar com times de produto e clientes, incluindo atividades de implantação e instalação in loco.  Requisitos: • Superior completo ou em andamento em Segurança da Informação, Redes ou áreas correlatas.  Diferenciais: • Experiência prévia em SOC ou MDR. || Empresa .....:  BLOCKBIT TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I454" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>83314</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Analista de Suporte</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>RESPONSABILIDADES: - Efetuar atendimentos N1, N2(Dependerá do conhecimento técnico) - Ter experiência e agilidade para dar atendimento aos clientes  via telefone, email e suporte remoto - Controle e organização de chamados, suportes, tarefas, prazos e entrada/saída de equipamentos no laboratório - Ter boa comunicação verbal e escrita para remediar tratativas com clientes na tomada de decisões - Realizar visitas e atendimentos para clientes externos.  REQUISITOS BÁSICO/INTERMEDIÁRIO EM: - Formatação, Instalação, configuração e manutenção de S.O Win 7, 10, 11 - Backup Outlook, arquivos pessoais, atualização e programas diversos - Cloud Office 365, Azure, Exchange, Teams, OneDrive, Dropbox, Google Drive e etc - Paineis de antivírus corporativo Kaspersky, BitDefender - Certificados Digitais, PJE, NF-e, Sebrae, Shodo e TRT para contabilidade e advocacia- Softwares de backup local, HDs externos e nuvem - Configuração de Modens, impressoras rede, roteadores, ZL de São Paulo
+Empresa .....:  JLA INFORMÁTICA</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Analista de Suporte || RESPONSABILIDADES: - Efetuar atendimentos N1, N2(Dependerá do conhecimento técnico) - Ter experiência e agilidade para dar atendimento aos clientes  via telefone, email e suporte remoto - Controle e organização de chamados, suportes, tarefas, prazos e entrada/saída de equipamentos no laboratório - Ter boa comunicação verbal e escrita para remediar tratativas com clientes na tomada de decisões - Realizar visitas e atendimentos para clientes externos.  REQUISITOS BÁSICO/INTERMEDIÁRIO EM: - Formatação, Instalação, configuração e manutenção de S.O Win 7, 10, 11 - Backup Outlook, arquivos pessoais, atualização e programas diversos - Cloud Office 365, Azure, Exchange, Teams, OneDrive, Dropbox, Google Drive e etc - Paineis de antivírus corporativo Kaspersky, BitDefender - Certificados Digitais, PJE, NF-e, Sebrae, Shodo e TRT para contabilidade e advocacia- Softwares de backup local, HDs externos e nuvem - Configuração de Modens, impressoras rede, roteadores, ZL de São Paulo || Empresa .....:  JLA INFORMÁTICA</t>
+        </is>
+      </c>
+      <c r="I455" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>82737</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Analista de Testes Pleno</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Buscamos Analista de Testes Pleno para garantir a qualidade de produtos em projetos de migração para Azure. Você planejará, desenvolverá e executará testes automatizados (frontend e backend), criará cenários baseados em requisitos funcionais e não funcionais, integrará scripts aos pipelines CI/CD e acompanhará defeitos até a resolução. Atuará lado a lado com devs e analistas de negócios em ambiente ágil (Scrum/Kanban), colaborando pela excelência desde o início do ciclo. É imprescindível experiência em migração para Cloud (preferencialmente Azure), automação de testes (Selenium, Cypress, Playwright, Appium), APIs REST (Postman/Swagger/Insomnia), Git e linguagens como Java, JavaScript ou Python. Esperamos boa comunicação, visão de negócios, foco em produtividade e inglês avançado. Oferecemos ambiente dinâmico, orientado a entregas e oportunidade de contribuir na melhoria contínua das práticas de QA.  Modalidade: PJ Atuação: Home Office.
+Empresa .....:  Taking Results e Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Analista de Testes Pleno || Buscamos Analista de Testes Pleno para garantir a qualidade de produtos em projetos de migração para Azure. Você planejará, desenvolverá e executará testes automatizados (frontend e backend), criará cenários baseados em requisitos funcionais e não funcionais, integrará scripts aos pipelines CI/CD e acompanhará defeitos até a resolução. Atuará lado a lado com devs e analistas de negócios em ambiente ágil (Scrum/Kanban), colaborando pela excelência desde o início do ciclo. É imprescindível experiência em migração para Cloud (preferencialmente Azure), automação de testes (Selenium, Cypress, Playwright, Appium), APIs REST (Postman/Swagger/Insomnia), Git e linguagens como Java, JavaScript ou Python. Esperamos boa comunicação, visão de negócios, foco em produtividade e inglês avançado. Oferecemos ambiente dinâmico, orientado a entregas e oportunidade de contribuir na melhoria contínua das práticas de QA.  Modalidade: PJ Atuação: Home Office. || Empresa .....:  Taking Results e Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="I456" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>83012</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Analista de Testes Pleno - QA Pleno</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Analista de QA Pleno para atuar em uma das maiores empresas varejista farmacêutica do Brasil  Requisitos e qualificações: Experiência em testes manuais e automatizados. Conhecimento em processos de Recrutamento e Seleção. Familiaridade com Git. Conhecimento com IA: teoria e prática de LLM - multiagentes. Conhecimento em Recrutamento e Seleção: Etapas dos processos (Atração, triagem, recrutamento, seleção e admissão), no que diz respeito a governança e projetos (estrutura de como funciona o processo). Boa comunicação e atenção aos detalhes. Experiência com testes de performance e segurança. Conhecimento com Python ou N8N é um diferencial.  ***Vaga Temporária por 04 meses.***
+Empresa .....:  3CON Consultoria e Sistemas S/A</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Analista de Testes Pleno - QA Pleno || Estamos em busca de um(a) Analista de QA Pleno para atuar em uma das maiores empresas varejista farmacêutica do Brasil  Requisitos e qualificações: Experiência em testes manuais e automatizados. Conhecimento em processos de Recrutamento e Seleção. Familiaridade com Git. Conhecimento com IA: teoria e prática de LLM - multiagentes. Conhecimento em Recrutamento e Seleção: Etapas dos processos (Atração, triagem, recrutamento, seleção e admissão), no que diz respeito a governança e projetos (estrutura de como funciona o processo). Boa comunicação e atenção aos detalhes. Experiência com testes de performance e segurança. Conhecimento com Python ou N8N é um diferencial.  ***Vaga Temporária por 04 meses.*** || Empresa .....:  3CON Consultoria e Sistemas S/A</t>
+        </is>
+      </c>
+      <c r="I457" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>83309</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Analista Funcional</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Analista Funcional Pleno  Oportunidade em uma grande operadora de Saúde  Atividades: Levantamento e documentação de requisitos Interface entre negócio e time técnico Apoio a testes, validações e implantações Atuação em projetos com metodologias ágeis Atuar como elo entre usuários, stakeholders e equipes técnicas (desenvolvimento, QA etc). Elaborar e manter documentação funcional, como especificações, casos de uso, fluxos de processos e histórias de usuário.  Formação: Superior em Tecnologia (completo ou cursando) Diferencial: Experiência no segmento de Saúde  Local: Zona Sul – SP (híbrido  2x presencial) Horário: Seg a sex  8h às 18h Contratação: PJ  44h semanais Equipamento: necessário computador próprio
+Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Analista Funcional || Analista Funcional Pleno  Oportunidade em uma grande operadora de Saúde  Atividades: Levantamento e documentação de requisitos Interface entre negócio e time técnico Apoio a testes, validações e implantações Atuação em projetos com metodologias ágeis Atuar como elo entre usuários, stakeholders e equipes técnicas (desenvolvimento, QA etc). Elaborar e manter documentação funcional, como especificações, casos de uso, fluxos de processos e histórias de usuário.  Formação: Superior em Tecnologia (completo ou cursando) Diferencial: Experiência no segmento de Saúde  Local: Zona Sul – SP (híbrido  2x presencial) Horário: Seg a sex  8h às 18h Contratação: PJ  44h semanais Equipamento: necessário computador próprio || Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="I458" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>83306</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Consultor Comercial</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Consultor Comercial  Desafio Atuação estratégica e consultiva com foco principal em alocação de profissionais de TI Experiência com alocação de profissionais e fábrica de software Experiência com prospecção ativa e desenvolvimento de novos clientes, vendas de serviços e vendas de produtos Necessária vivência com vendas de outsourcing Vivência em consultoria de TI Experiência em serviços e comercialização na área de Tecnologia da Informação.  Modelo de trabalho: Home Office  Local: São Paulo
+Empresa .....:  GTCON Tecnologia  Serviços Ltda.</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Consultor Comercial || Consultor Comercial  Desafio Atuação estratégica e consultiva com foco principal em alocação de profissionais de TI Experiência com alocação de profissionais e fábrica de software Experiência com prospecção ativa e desenvolvimento de novos clientes, vendas de serviços e vendas de produtos Necessária vivência com vendas de outsourcing Vivência em consultoria de TI Experiência em serviços e comercialização na área de Tecnologia da Informação.  Modelo de trabalho: Home Office  Local: São Paulo || Empresa .....:  GTCON Tecnologia  Serviços Ltda.</t>
+        </is>
+      </c>
+      <c r="I459" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>83307</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Backend</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Estamos buscando um(a) Desenvolvedor(a) Backend em formação para apoiar a evolução dos nossos
+sistemas internos, integrações e automações.
+Principais atividades
+Manutenção e evolução de sistemas internos em Laravel
+Implementação e ajustes em APIs REST
+Apoio em integrações com sistemas de terceiros e ERP legado
+Desenvolvimento de rotinas simples de backend (CRUDs, jobs e correções)
+Ajustes leves no frontend, quando necessário
+Requisitos
+Conhecimento em PHP e Laravel (nível inicial ou intermediário)
+Noções de banco de dados relacional
+Experiência com APIs REST
+Git básico
+HTML, CSS e JavaScript para ajustes simples
+Diferenciais
+Projetos próprios ou acadêmicos em Laravel
+Experiência com integrações via API
+Interesse em automações, jobs e sistemas legados
+Modelo de contratação: PJ - Híbrido
+Local: Barra Funda – São Paulo (SP)
+Empresa .....:  Hope Asset</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Desenvolvedor Backend || Estamos buscando um(a) Desenvolvedor(a) Backend em formação para apoiar a evolução dos nossos || sistemas internos, integrações e automações. || Principais atividades || Manutenção e evolução de sistemas internos em Laravel || Implementação e ajustes em APIs REST || Apoio em integrações com sistemas de terceiros e ERP legado || Desenvolvimento de rotinas simples de backend (CRUDs, jobs e correções) || Ajustes leves no frontend, quando necessário || Requisitos || Conhecimento em PHP e Laravel (nível inicial ou intermediário) || Noções de banco de dados relacional || Experiência com APIs REST || Git básico || HTML, CSS e JavaScript para ajustes simples || Diferenciais || Projetos próprios ou acadêmicos em Laravel || Experiência com integrações via API || Interesse em automações, jobs e sistemas legados || Modelo de contratação: PJ - Híbrido || Local: Barra Funda – São Paulo (SP) || Empresa .....:  Hope Asset</t>
+        </is>
+      </c>
+      <c r="I460" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>83325</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack .Net + React  Sênior</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Desenvolver interfaces responsivas em React (TypeScript preferencial). Desenvolver e consumir APIs .NET (.NET Core / .NET 6/7). Auxiliar na definição de contratos de API e versionamento. Trabalhar com CI/CD para front e backend automatizar builds e deploys. Monitorar performance e resolver bugs em produção.  Requisitos (obrigatórios): Cloud (Azure/AWS) e containerização (Docker). Experiência com React (preferencialmente com Hooks e TypeScript). Experiência com .NET Core / .NET 6/7 e C#. Experiência em consumo de APIs REST e em definir contratos (OpenAPI/Swagger). Conhecimentos em HTML5, CSS3, CSS-in-JS (styled-components / emotion) ou frameworks CSS. Experiência com testes front-end (Jest, React Testing Library) e testes backend.  Formato: Híbrido - Em SP e MG Formato :Remoto para o restante de outros estados.  CLT Setor financeiro
+Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Desenvolvedor Full Stack .Net + React  Sênior || Desenvolver interfaces responsivas em React (TypeScript preferencial). Desenvolver e consumir APIs .NET (.NET Core / .NET 6/7). Auxiliar na definição de contratos de API e versionamento. Trabalhar com CI/CD para front e backend automatizar builds e deploys. Monitorar performance e resolver bugs em produção.  Requisitos (obrigatórios): Cloud (Azure/AWS) e containerização (Docker). Experiência com React (preferencialmente com Hooks e TypeScript). Experiência com .NET Core / .NET 6/7 e C#. Experiência em consumo de APIs REST e em definir contratos (OpenAPI/Swagger). Conhecimentos em HTML5, CSS3, CSS-in-JS (styled-components / emotion) ou frameworks CSS. Experiência com testes front-end (Jest, React Testing Library) e testes backend.  Formato: Híbrido - Em SP e MG Formato :Remoto para o restante de outros estados.  CLT Setor financeiro || Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I461" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>83017</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Desenvolvedor FullStack (NET/C#AWSAngular)</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>•	Experiência sólida e C# e NET •	Vivencia sólida em desenvolvimento frontend em Angular •	Conhecimento e experiência com serviços  da AWS. •	Metodologias ágeis.
+Empresa .....:  Tessa IT</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Desenvolvedor FullStack (NET/C#AWSAngular) || •	Experiência sólida e C# e NET •	Vivencia sólida em desenvolvimento frontend em Angular •	Conhecimento e experiência com serviços  da AWS. •	Metodologias ágeis. || Empresa .....:  Tessa IT</t>
+        </is>
+      </c>
+      <c r="I462" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>82806</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java (Remoto)</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Experiência com desenvolvimento em Java.  Frameworks e desenvolvimento: Spring (Spring Boot, Spring MVC), Hibernate, JPA, Criação, documentação e consumo de APIs RESTful, Boas práticas: Clean Code, SOLID e Design Patterns  Arquitetura: Arquitetura de software: Microservices, SOA, Arquitetura orientada a eventos, Design e implementação de pipelines assíncronos, Uso de mensagerias: Kafka ou RabbitMQ  Cloud: AWS (EKS, Lambda, SQS, SNS, S3, DynamoDB, API Gateway e demais serviços correlatos)  Containers e Orquestração: Containers (Docker), Kubernetes (EKS desejável).  Bancos de Dados: Relacionais: PostgreSQL, Oracle, NoSQL: DynamoDB, Redis, DocumentDB, OpenSearch  Infra, build e versionamento: Maven ou Gradle, Git, Pipelines CI/CD (diferencial)  Segurança: OAuth 2.0, JWT, Criptografia, Ferramentas e práticas: SAST, DAST  Serverless: Lambda, API Gateway, SQS, SNS  Inglês (Diferencial, não obrigatório)  Vagas para Perfis Junior
+Empresa .....:  MJV Tecnologia  Inovação</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Desenvolvedor Java (Remoto) || Experiência com desenvolvimento em Java.  Frameworks e desenvolvimento: Spring (Spring Boot, Spring MVC), Hibernate, JPA, Criação, documentação e consumo de APIs RESTful, Boas práticas: Clean Code, SOLID e Design Patterns  Arquitetura: Arquitetura de software: Microservices, SOA, Arquitetura orientada a eventos, Design e implementação de pipelines assíncronos, Uso de mensagerias: Kafka ou RabbitMQ  Cloud: AWS (EKS, Lambda, SQS, SNS, S3, DynamoDB, API Gateway e demais serviços correlatos)  Containers e Orquestração: Containers (Docker), Kubernetes (EKS desejável).  Bancos de Dados: Relacionais: PostgreSQL, Oracle, NoSQL: DynamoDB, Redis, DocumentDB, OpenSearch  Infra, build e versionamento: Maven ou Gradle, Git, Pipelines CI/CD (diferencial)  Segurança: OAuth 2.0, JWT, Criptografia, Ferramentas e práticas: SAST, DAST  Serverless: Lambda, API Gateway, SQS, SNS  Inglês (Diferencial, não obrigatório)  Vagas para Perfis Junior || Empresa .....:  MJV Tecnologia  Inovação</t>
+        </is>
+      </c>
+      <c r="I463" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>82881</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java Pleno - Remoto</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java (PJ – Remoto) Você é um Desenvolvedor Java em busca de novos desafios e quer atuar em projetos de grande relevância no setor financeiro?  Etapas do processo seletivo: Entrevista com a nossa consultoria Exame técnico Entrevista com o cliente final.  Requisitos técnicos obrigatórios: Java 11 ou superior (idealmente 17) Spring Boot (Web, Data, Security) Spring Cloud (Eureka, Gateway, Hystrix, Config Server) Gradle ou Maven Microservices Angular 12 ou superior Angular Material Bitbucket (Git Flow) Oracle PL/SQL.  Diferenciais que valorizamos: Testes unitários (JUnit, Mockito, JaCoCo) Fundamentos de DDD Arquitetura Hexagonal Microfrontends.  Quem somos Somos uma consultoria de tecnologia com quase 20 anos de atuação no mercado. Desde 2009, mantemos uma parceria sólida com esse cliente global, atuando em diversas frentes de desenvolvimento e gestão de projetos. Envie seu CV.
+Empresa .....:  ANTLIA CONSULTORIA E TECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Desenvolvedor Java Pleno - Remoto || Desenvolvedor Java (PJ – Remoto) Você é um Desenvolvedor Java em busca de novos desafios e quer atuar em projetos de grande relevância no setor financeiro?  Etapas do processo seletivo: Entrevista com a nossa consultoria Exame técnico Entrevista com o cliente final.  Requisitos técnicos obrigatórios: Java 11 ou superior (idealmente 17) Spring Boot (Web, Data, Security) Spring Cloud (Eureka, Gateway, Hystrix, Config Server) Gradle ou Maven Microservices Angular 12 ou superior Angular Material Bitbucket (Git Flow) Oracle PL/SQL.  Diferenciais que valorizamos: Testes unitários (JUnit, Mockito, JaCoCo) Fundamentos de DDD Arquitetura Hexagonal Microfrontends.  Quem somos Somos uma consultoria de tecnologia com quase 20 anos de atuação no mercado. Desde 2009, mantemos uma parceria sólida com esse cliente global, atuando em diversas frentes de desenvolvimento e gestão de projetos. Envie seu CV. || Empresa .....:  ANTLIA CONSULTORIA E TECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="I464" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>82771</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR RPA JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT  + Benefícios Horário de Trabalho: Das 09hs às 18hs  Requisitos: •	Superior completo na área de Tecnologia •	Conhecimento básico em programação (preferencialmente em linguagens como Python, C# ou Java). •	Interesse em aprender e crescer na área de Automação de Processos Robóticos (RPA). •	Experiência prévia em desenvolvimento de software ou automação de processos. •	Conhecimento básico em ferramentas de automação de processos RPA, como UiPath, Automation Anywhere ou Blue Prism.  Desejável: •	Certificações em RPA ou áreas relacionadas.  Escopo: •	Auxiliar no levantamento e análise de processos para identificar oportunidades de automação. •	Participar do desenvolvimento e implementação de soluções de automação usando ferramentas RPA. •	Apoiar na criação e manutenção de scripts de automação.
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || DESENVOLVEDOR RPA JÚNIOR || ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT  + Benefícios Horário de Trabalho: Das 09hs às 18hs  Requisitos: •	Superior completo na área de Tecnologia •	Conhecimento básico em programação (preferencialmente em linguagens como Python, C# ou Java). •	Interesse em aprender e crescer na área de Automação de Processos Robóticos (RPA). •	Experiência prévia em desenvolvimento de software ou automação de processos. •	Conhecimento básico em ferramentas de automação de processos RPA, como UiPath, Automation Anywhere ou Blue Prism.  Desejável: •	Certificações em RPA ou áreas relacionadas.  Escopo: •	Auxiliar no levantamento e análise de processos para identificar oportunidades de automação. •	Participar do desenvolvimento e implementação de soluções de automação usando ferramentas RPA. •	Apoiar na criação e manutenção de scripts de automação. || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I465" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>82736</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Desenvolvedor VB6</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>O que é esperado? • Analisar e desenvolver novos projetos em VB6 • Realizar manutenção corretiva em sistemas legados desenvolvidos em VB6. • Colaborar com a equipe de suporte na definição de soluções e correções.  Requisitos necessários: Experiência em programação VB6. Conhecimento em Mysql  VAGA PRESENCIAL - região Zona Leste de SP  Contratação CLT (Preferencialmente) ou PJ a negociar.
+Empresa .....:  Keysystems Informatica</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Desenvolvedor VB6 || O que é esperado? • Analisar e desenvolver novos projetos em VB6 • Realizar manutenção corretiva em sistemas legados desenvolvidos em VB6. • Colaborar com a equipe de suporte na definição de soluções e correções.  Requisitos necessários: Experiência em programação VB6. Conhecimento em Mysql  VAGA PRESENCIAL - região Zona Leste de SP  Contratação CLT (Preferencialmente) ou PJ a negociar. || Empresa .....:  Keysystems Informatica</t>
+        </is>
+      </c>
+      <c r="I466" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>82465</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>DevOps Pleno</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>Seja a ponte entre desenvolvimento e infraestrutura Responsável por pipelines CI/CD, automação com Terraform e Shell/Python, gestão de clusters Kubernetes e ambientes em nuvem (AWS, Azure, OCI).  Requisitos: Experiência com cloud computing, containers, GitOps, observabilidade e metodologias ágeis.
+Empresa .....:  NCM Sistemas e Consultoria Ltda</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || DevOps Pleno || Seja a ponte entre desenvolvimento e infraestrutura Responsável por pipelines CI/CD, automação com Terraform e Shell/Python, gestão de clusters Kubernetes e ambientes em nuvem (AWS, Azure, OCI).  Requisitos: Experiência com cloud computing, containers, GitOps, observabilidade e metodologias ágeis. || Empresa .....:  NCM Sistemas e Consultoria Ltda</t>
+        </is>
+      </c>
+      <c r="I467" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>83320</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Estágio em TI em empresa de Tecnologia e Sistemas</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Estágio</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Pagamento: A partir de R$1.400,00 por mês  Descrição da vaga:  Atuar no atendimento aos clientes e novos projetos de implantação de sistemas Fará manutenção de equipamentos, preparação de hardwares e software, suporte a clientes, implantação de sistemas e atendimento remoto.  Desenvolverá experiência com: Sistemas, arquitetura de redes, banco de dados, atendimento a usuários, regras de negócios.  Empresa em expansão, excelente oportunidade de crescimento profissional.  Vaga Totalmente presencial Tipo de vaga: Estágio / Trainee Duração do contrato: 12 meses  Benefícios: Convênios e descontos comerciais Vale-alimentação Vale-transporte  Horário de trabalho: De segunda à sexta-feira, das 14 às 20h  Pagamento adicional: 13º salário  Pergunta(s) de seleção: Você tem fácil acesso a região central de São Paulo-SP?  Escolaridade: Ensino Técnico cursando ou interrompido (Obrigatório)
+Empresa .....:  Sim Mobile</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Estágio em TI em empresa de Tecnologia e Sistemas || Pagamento: A partir de R$1.400,00 por mês  Descrição da vaga:  Atuar no atendimento aos clientes e novos projetos de implantação de sistemas Fará manutenção de equipamentos, preparação de hardwares e software, suporte a clientes, implantação de sistemas e atendimento remoto.  Desenvolverá experiência com: Sistemas, arquitetura de redes, banco de dados, atendimento a usuários, regras de negócios.  Empresa em expansão, excelente oportunidade de crescimento profissional.  Vaga Totalmente presencial Tipo de vaga: Estágio / Trainee Duração do contrato: 12 meses  Benefícios: Convênios e descontos comerciais Vale-alimentação Vale-transporte  Horário de trabalho: De segunda à sexta-feira, das 14 às 20h  Pagamento adicional: 13º salário  Pergunta(s) de seleção: Você tem fácil acesso a região central de São Paulo-SP?  Escolaridade: Ensino Técnico cursando ou interrompido (Obrigatório) || Empresa .....:  Sim Mobile</t>
+        </is>
+      </c>
+      <c r="I468" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>83324</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Pessoa Líder de Dados</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Requisitos técnicos: Experiência sólida como Engenheiro de Dados Sênior ou Arquiteto de Dados. Domínio de SQL avançado (views, procedures, triggers e otimização de performance). Experiência consistente com Python e bibliotecas aplicadas à engenharia de dados. Forte atuação em arquitetura e engenharia em AWS, incluindo Redshift, S3, Athena e ecossistema Apache (Spark / Hive). Experiência com bancos de dados relacionais e NoSQL, como MySQL e Redshift.  Outras informações: Híbrido - 3x presenciais - Zona Sul - SP Enviar pretensão salarial.
+Empresa .....:  MJV</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Pessoa Líder de Dados || Requisitos técnicos: Experiência sólida como Engenheiro de Dados Sênior ou Arquiteto de Dados. Domínio de SQL avançado (views, procedures, triggers e otimização de performance). Experiência consistente com Python e bibliotecas aplicadas à engenharia de dados. Forte atuação em arquitetura e engenharia em AWS, incluindo Redshift, S3, Athena e ecossistema Apache (Spark / Hive). Experiência com bancos de dados relacionais e NoSQL, como MySQL e Redshift.  Outras informações: Híbrido - 3x presenciais - Zona Sul - SP Enviar pretensão salarial. || Empresa .....:  MJV</t>
+        </is>
+      </c>
+      <c r="I469" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>83319</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Programador C# .net - Próx. Metro Sé</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>A JHealth Informatics contrata analista .Net próximo ao metrô Sé para trabalhar em grande empresa do ramo da saúde.  * C# MVC * Entity Framework * Bootstrap * API Rest * Modelo Entidade Relacionamento * SQL Server * Oracle  Diferencial: ASP .net VB  Enviar currículo com pretensão salarial Contratação CLT (benefícios) ou PJ tempo indeterminado Vaga em regime PRESENCIAL
+Empresa .....:  JHealth Informatics Ltda</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Programador C# .net - Próx. Metro Sé || A JHealth Informatics contrata analista .Net próximo ao metrô Sé para trabalhar em grande empresa do ramo da saúde.  * C# MVC * Entity Framework * Bootstrap * API Rest * Modelo Entidade Relacionamento * SQL Server * Oracle  Diferencial: ASP .net VB  Enviar currículo com pretensão salarial Contratação CLT (benefícios) ou PJ tempo indeterminado Vaga em regime PRESENCIAL || Empresa .....:  JHealth Informatics Ltda</t>
+        </is>
+      </c>
+      <c r="I470" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>82960</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Programador Python Júnior (CLT)</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>Somos a ProCoworking  Responsabilidades -Desenvolver rotinas e serviços em Python focados em automação e integrações. -Consumir e integrar APIs REST (autenticação, paginação, rate limit, webhooks). -Manipular dados (ETL leve), gerar relatórios e alimentar banco de dados (MySQL/PostgreSQL). -Criar scripts e pequenos serviços com logging, tratamento de erros e reprocessamento. -Trabalhar com Git (branches, pull requests, revisão de código). -Documentar o básico (README, instruções de execução) e manter padrão de organização.  Requisitos -2 anos de experiência prática com Python (projetos reais). -Noções boas de APIs, JSON, HTTP e integração de sistemas. -Experiência com banco relacional (consultas SQL, estrutura de tabelas). -Git básico  CLT - Totalmente Presencial Segunda a sexta, horário comercial Base: Av. Paulista  Benefícios (sem desconto em holerite) -Vale Transporte -Vale Refeição R$ 35,00/dia -Plano de Saúde Amil Fácil  ENVIAR PRETENSÃO SALARIAL
+Empresa .....:  Endereco Fiscal Alphaville LTDA</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Programador Python Júnior (CLT) || Somos a ProCoworking  Responsabilidades -Desenvolver rotinas e serviços em Python focados em automação e integrações. -Consumir e integrar APIs REST (autenticação, paginação, rate limit, webhooks). -Manipular dados (ETL leve), gerar relatórios e alimentar banco de dados (MySQL/PostgreSQL). -Criar scripts e pequenos serviços com logging, tratamento de erros e reprocessamento. -Trabalhar com Git (branches, pull requests, revisão de código). -Documentar o básico (README, instruções de execução) e manter padrão de organização.  Requisitos -2 anos de experiência prática com Python (projetos reais). -Noções boas de APIs, JSON, HTTP e integração de sistemas. -Experiência com banco relacional (consultas SQL, estrutura de tabelas). -Git básico  CLT - Totalmente Presencial Segunda a sexta, horário comercial Base: Av. Paulista  Benefícios (sem desconto em holerite) -Vale Transporte -Vale Refeição R$ 35,00/dia -Plano de Saúde Amil Fácil  ENVIAR PRETENSÃO SALARIAL || Empresa .....:  Endereco Fiscal Alphaville LTDA</t>
+        </is>
+      </c>
+      <c r="I471" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>82959</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Scrum Master</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>Prazo: 12 meses, com chances de prorrogar Local: Remoto Contratação: PJ  Requisitos: Inglês - Avançado para conversação Experiência comprovada como Scrum Master em projetos ágeis. Conhecimento em Scrum, Kanban Experiência em conduzir as cerimonias ágeis: Daily, Restrospective, etc. Experiência em gestão de backlog e métricas ágeis (Velocity, Burndown, Lead Time). Conhecimento em ferramentas de gestão ágil (Jira, Azure ou similares). Capacidade de identificar e remover impedimentos, promovendo a entrega contínua.  Conhecimentos Técnicos Desejáveis: Experiência em ambientes híbridos (Ágil + Waterfall). Familiaridade com métricas de qualidade e indicadores de performance.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Scrum Master || Prazo: 12 meses, com chances de prorrogar Local: Remoto Contratação: PJ  Requisitos: Inglês - Avançado para conversação Experiência comprovada como Scrum Master em projetos ágeis. Conhecimento em Scrum, Kanban Experiência em conduzir as cerimonias ágeis: Daily, Restrospective, etc. Experiência em gestão de backlog e métricas ágeis (Velocity, Burndown, Lead Time). Conhecimento em ferramentas de gestão ágil (Jira, Azure ou similares). Capacidade de identificar e remover impedimentos, promovendo a entrega contínua.  Conhecimentos Técnicos Desejáveis: Experiência em ambientes híbridos (Ágil + Waterfall). Familiaridade com métricas de qualidade e indicadores de performance. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I472" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>82279</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Senior Full Stack Developer (.NET  Angular)</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) Sênior Full Stack – Sintel (SP, híbrido)  Responsável por atuar em todo o ciclo de desenvolvimento de software, definindo arquitetura, garantindo performance, segurança e referência técnica no time. Tecnologias principais: C#/.NET, Node.js, Angular, AWS e DevSecOps.  Principais responsabilidades: Desenvolver e manter aplicações web escaláveis Definir arquitetura e assegurar qualidade, segurança e performance Otimizar sistemas existentes Colaborar com times locais e globais Realizar code reviews, testes e mentorias Contribuir para melhoria contínua de processos e padrões.  Requisitos: 5+ anos em desenvolvimento web Domínio em C#/.NET, JavaScript/TypeScript, Angular, Node.js Experiência com APIs, bancos SQL e NoSQL Conhecimento sólido em AWS e práticas CI/CD / DevSecOps Inglês avançado.  Diferenciais: Experiência em liderança técnica Microserviços, arquiteturas orientadas a eventos e serverless Testes automatizados e observabilidade
+Empresa .....:  Sintel</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Senior Full Stack Developer (.NET  Angular) || Desenvolvedor(a) Sênior Full Stack – Sintel (SP, híbrido)  Responsável por atuar em todo o ciclo de desenvolvimento de software, definindo arquitetura, garantindo performance, segurança e referência técnica no time. Tecnologias principais: C#/.NET, Node.js, Angular, AWS e DevSecOps.  Principais responsabilidades: Desenvolver e manter aplicações web escaláveis Definir arquitetura e assegurar qualidade, segurança e performance Otimizar sistemas existentes Colaborar com times locais e globais Realizar code reviews, testes e mentorias Contribuir para melhoria contínua de processos e padrões.  Requisitos: 5+ anos em desenvolvimento web Domínio em C#/.NET, JavaScript/TypeScript, Angular, Node.js Experiência com APIs, bancos SQL e NoSQL Conhecimento sólido em AWS e práticas CI/CD / DevSecOps Inglês avançado.  Diferenciais: Experiência em liderança técnica Microserviços, arquiteturas orientadas a eventos e serverless Testes automatizados e observabilidade || Empresa .....:  Sintel</t>
+        </is>
+      </c>
+      <c r="I473" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>83316</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Tecnico Telecom</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Experiência em: Telecomunicações - Trabalho em altura - Conectores de Campo - Configuração de equipamentos de rede Gpon - Fusão  Horário: Segunda a sexta: 9:00 as 17:00 h. Disponibilidade : Finais de semana e eventualmente horário noturno Enviar curriculum com pretensão salarial
+Empresa .....:  Conecttar Informatica e Tecnologia</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 20/01/26 || Tecnico Telecom || Experiência em: Telecomunicações - Trabalho em altura - Conectores de Campo - Configuração de equipamentos de rede Gpon - Fusão  Horário: Segunda a sexta: 9:00 as 17:00 h. Disponibilidade : Finais de semana e eventualmente horário noturno Enviar curriculum com pretensão salarial || Empresa .....:  Conecttar Informatica e Tecnologia</t>
+        </is>
+      </c>
+      <c r="I474" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Supervisor de Service Desk - Governança de TI</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Você tem experiência em liderança de equipes de call center, service desk ou operações de atendimento e busca um próximo passo na carreira com foco em governança de TI? Essa vaga pode ser para você  O que você vai fazer:  Acompanhar times de atendimento (SD, FS e N3), engajando e acompanhando performance Atuar em governança de TI (ITIL/ITSM), monitorando KPIs, backlog e planos de ação Conduzir reuniões de resultados e planos de melhoria Promover treinamentos, feedbacks e desenvolvimento do time Apoiar certificações HDI, relatórios e auditorias Garantir a qualidade do atendimento com monitorias e análises de desvios.  O que buscamos: Experiência em coordenação/liderança de operações de call center ou service desk Vivência em gestão de indicadores e governança de TI Conhecimentos em ITIL/ITSM (certificações são diferenciais) Perfil analítico, comunicativo e orientado a resultados.
+Empresa .....:  Engemon IT</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 19/01/26 || Supervisor de Service Desk - Governança de TI || Você tem experiência em liderança de equipes de call center, service desk ou operações de atendimento e busca um próximo passo na carreira com foco em governança de TI? Essa vaga pode ser para você  O que você vai fazer:  Acompanhar times de atendimento (SD, FS e N3), engajando e acompanhando performance Atuar em governança de TI (ITIL/ITSM), monitorando KPIs, backlog e planos de ação Conduzir reuniões de resultados e planos de melhoria Promover treinamentos, feedbacks e desenvolvimento do time Apoiar certificações HDI, relatórios e auditorias Garantir a qualidade do atendimento com monitorias e análises de desvios.  O que buscamos: Experiência em coordenação/liderança de operações de call center ou service desk Vivência em gestão de indicadores e governança de TI Conhecimentos em ITIL/ITSM (certificações são diferenciais) Perfil analítico, comunicativo e orientado a resultados. || Empresa .....:  Engemon IT</t>
+        </is>
+      </c>
+      <c r="I475" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>82867</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Frontend</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Frontend – Fiori / UI5 / React Sênior REMOTO PJ  Responsabilidades: Migrar e reconstruir as interfaces das soluções legadas para Fiori/UI5/React. Implementar telas, componentes e lógica de frontend conforme arquitetura definida. Trabalhar alinhado com backend e arquitetos para garantir aderência técnica. Aplicar boas práticas de usabilidade, testes e desenvolvimento responsivo.  Requisitos: Experiência sólida em SAP UI5 e Fiori. Conhecimento em React (desejável). Vivência com desenvolvimento para BTP é diferencial. Experiência prévia em migração de interfaces é um plus.
+Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 19/01/26 || Desenvolvedor Frontend || Desenvolvedor Frontend – Fiori / UI5 / React Sênior REMOTO PJ  Responsabilidades: Migrar e reconstruir as interfaces das soluções legadas para Fiori/UI5/React. Implementar telas, componentes e lógica de frontend conforme arquitetura definida. Trabalhar alinhado com backend e arquitetos para garantir aderência técnica. Aplicar boas práticas de usabilidade, testes e desenvolvimento responsivo.  Requisitos: Experiência sólida em SAP UI5 e Fiori. Conhecimento em React (desejável). Vivência com desenvolvimento para BTP é diferencial. Experiência prévia em migração de interfaces é um plus. || Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="I476" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>83286</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Analista de CRM SR- Alphaville</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Definir  padrões  de  desenvolvimento,  governar  o  ciclo  de  vida  das  demandas  (demanda  management)  e garantir a qualidade técnica das entregas da plataforma. Validar  propostas  técnicas,  revisar  estimativas  de  esforço  e  garantir  que  as  soluções  sigam  a  arquitetura definida.  Colaborar  com  a  liderança  para  definir  o  roadmap  estratégico  da  plataforma  Salesforce,  avaliando  novas features e construindo business cases para novas iniciativas. Atuar  como  tradutor  entre  as  áreas  de  negócio  e  as  equipes  técnicas,  facilitando  workshops  de  design, definindo requisitos e garantindo o alinhamento das expectativas.  Apoiar na validação das solicitações entregues e nos testes funcionais mais complexos. Verificar  os  processos executados  automaticamente  pelos  servidores  e  analisar  problemas  de  fluxo  de sistemas e erros de software de maior impacto.  Orientar os usuários quando houver a necessidade de intervenção do T.I.
+Empresa .....:  CONSIGAZ</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 17/01/26 || Analista de CRM SR- Alphaville || Definir  padrões  de  desenvolvimento,  governar  o  ciclo  de  vida  das  demandas  (demanda  management)  e garantir a qualidade técnica das entregas da plataforma. Validar  propostas  técnicas,  revisar  estimativas  de  esforço  e  garantir  que  as  soluções  sigam  a  arquitetura definida.  Colaborar  com  a  liderança  para  definir  o  roadmap  estratégico  da  plataforma  Salesforce,  avaliando  novas features e construindo business cases para novas iniciativas. Atuar  como  tradutor  entre  as  áreas  de  negócio  e  as  equipes  técnicas,  facilitando  workshops  de  design, definindo requisitos e garantindo o alinhamento das expectativas.  Apoiar na validação das solicitações entregues e nos testes funcionais mais complexos. Verificar  os  processos executados  automaticamente  pelos  servidores  e  analisar  problemas  de  fluxo  de sistemas e erros de software de maior impacto.  Orientar os usuários quando houver a necessidade de intervenção do T.I. || Empresa .....:  CONSIGAZ</t>
+        </is>
+      </c>
+      <c r="I477" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>83283</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Desenvolvedor .NET Fullstack PL - React</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Superior completo preferencialmente, nas áreas correlatas à Ciência da Computação Engenharias ou outra área voltada para Desenvolvimento ou Engenharia de Software.  Experiência com metodologias ágeis, desenvolvimento de aplicações Web Fullstack React . NET, .NET Core, C#. Habilidades em programação e controle de versão GIT.  Desejável alguma experiência com Python ou interesse em aprender futuramente.
+Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Desenvolvedor .NET Fullstack PL - React || Superior completo preferencialmente, nas áreas correlatas à Ciência da Computação Engenharias ou outra área voltada para Desenvolvimento ou Engenharia de Software.  Experiência com metodologias ágeis, desenvolvimento de aplicações Web Fullstack React . NET, .NET Core, C#. Habilidades em programação e controle de versão GIT.  Desejável alguma experiência com Python ou interesse em aprender futuramente. || Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="I478" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>82210</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Especialista DBA DB2</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Especialista em Administração de Banco de Dados DB2 IMS/ZO  Requisitos Graduação completa na área de Tecnologia da Informação, ou conclusão de qualquer curso superior acompanhado de certificado de curso de pós graduação (especialização, mestrado ou doutorado) na área de Tecnologia da Informação de, no mínimo, 360 horas.  Experiência requerida: 5 anos de atuação em administração, performance e suporte a bases de dados relacionais, analíticas e NoSQL, incluindo ambientes de missão crítica e alto volume de dados. Foco em DB2  CONHECIMENTOS MÍNIMOS: Modelagem de dados relacional e ultidimensional Ferramentas de administração e manipulação de dados (relacional, analítico, NoSQL) Consultas complexas com foco em performance (query tuning) Técnicas de particionamento de tabelas e manipulação de grandes volumes de dados (VLDB) Rotinas de ETL e integração de dados entre sistemas.  Contrato CLT Atuação remoto
+Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 17/01/26 || Especialista DBA DB2 || Especialista em Administração de Banco de Dados DB2 IMS/ZO  Requisitos Graduação completa na área de Tecnologia da Informação, ou conclusão de qualquer curso superior acompanhado de certificado de curso de pós graduação (especialização, mestrado ou doutorado) na área de Tecnologia da Informação de, no mínimo, 360 horas.  Experiência requerida: 5 anos de atuação em administração, performance e suporte a bases de dados relacionais, analíticas e NoSQL, incluindo ambientes de missão crítica e alto volume de dados. Foco em DB2  CONHECIMENTOS MÍNIMOS: Modelagem de dados relacional e ultidimensional Ferramentas de administração e manipulação de dados (relacional, analítico, NoSQL) Consultas complexas com foco em performance (query tuning) Técnicas de particionamento de tabelas e manipulação de grandes volumes de dados (VLDB) Rotinas de ETL e integração de dados entre sistemas.  Contrato CLT Atuação remoto || Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="I479" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>83035</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura Pleno</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Experiência Técnica: Avançado em Windows Server e Linux Server (RedHat). Básico de Telecom (Switches, Roteadores, Vlan, Link de Dados). Conhecimento em DFS, Citrix e Virtualização (Hyper-V / Vmware). Conhecimento de ferramentas de backup: Veeam. Conhecimento de ferramentas de monitoramento: SCOM, HPOpenView for Linux, OBM. Conhecimento de SCCM. Conhecimento de telefonia Skype, Teams. Experiência em Administração de Storage / servidores Blades. Certificação ITIL V3 (diferencial).  Formação Acadêmica: Superior Completo.  Idioma: IMPRESCINDÍVEL Inglês nível Avançado.  Informações Adicionais: Disponibilidade para trabalhar fora do horário comercial (turnos) e eventualmente finais de semana. Horário: 14h00 as 22h00. Modelo de trabalho Híbrido - 1x no presencial. Local de atuação - São Paulo, SP.
+Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 17/01/26 || Analista de Infraestrutura Pleno || Experiência Técnica: Avançado em Windows Server e Linux Server (RedHat). Básico de Telecom (Switches, Roteadores, Vlan, Link de Dados). Conhecimento em DFS, Citrix e Virtualização (Hyper-V / Vmware). Conhecimento de ferramentas de backup: Veeam. Conhecimento de ferramentas de monitoramento: SCOM, HPOpenView for Linux, OBM. Conhecimento de SCCM. Conhecimento de telefonia Skype, Teams. Experiência em Administração de Storage / servidores Blades. Certificação ITIL V3 (diferencial).  Formação Acadêmica: Superior Completo.  Idioma: IMPRESCINDÍVEL Inglês nível Avançado.  Informações Adicionais: Disponibilidade para trabalhar fora do horário comercial (turnos) e eventualmente finais de semana. Horário: 14h00 as 22h00. Modelo de trabalho Híbrido - 1x no presencial. Local de atuação - São Paulo, SP. || Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="I480" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vagas_apinfo.xlsx
+++ b/vagas_apinfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I480"/>
+  <dimension ref="A1:I606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22660,6 +22660,5806 @@
         <v>20</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>83171</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Analista de Qualidade (com certificação)</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>PRINCIPAIS ATIVIDADES: Responsável por elaborar e manter atualizada a estratégia de teste do sistema, construir os artefatos necessários para execução dos testes, manter os scripts e artefatos de testes atualizados, acompanhar o desenvolvimento das demandas desde a sua concepção.  Requisitos Graduação completa na área de Tecnologia da Informação.  CERTIFICAÇÃO REQUERIDA: • ATC – Analista de Teste Certificado do IBQTS – Instituto Brasileiro de Qualidade em Testes de Software • CBTS - Certificação Brasileira de Teste de Software da ALATS • Associação Latino Americana de Teste de Software ou equivalente ou certificações similares • CTFL - Certified Tester Foundation Level • CTFL-AT - Certificação Certified Tester Foundation Level  Experiência desejável: 03 anos de experiência na área.
+Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 24/01/26 || Analista de Qualidade (com certificação) || PRINCIPAIS ATIVIDADES: Responsável por elaborar e manter atualizada a estratégia de teste do sistema, construir os artefatos necessários para execução dos testes, manter os scripts e artefatos de testes atualizados, acompanhar o desenvolvimento das demandas desde a sua concepção.  Requisitos Graduação completa na área de Tecnologia da Informação.  CERTIFICAÇÃO REQUERIDA: • ATC – Analista de Teste Certificado do IBQTS – Instituto Brasileiro de Qualidade em Testes de Software • CBTS - Certificação Brasileira de Teste de Software da ALATS • Associação Latino Americana de Teste de Software ou equivalente ou certificações similares • CTFL - Certified Tester Foundation Level • CTFL-AT - Certificação Certified Tester Foundation Level  Experiência desejável: 03 anos de experiência na área. || Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="I481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>83121</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Analista SOC Jr - PRESENCIAL Brasília</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Atividades: Monitorar, investigar e responder a ameaças e incidentes cibernéticos com base em frameworks como NIST, MITRE e SANS. Realizar threat hunting e identificar vulnerabilidades com foco no negócio. Conduzir processos de resposta a incidentes de forma autônoma. Definir e implementar baselines, políticas e controles de segurança para redução de riscos e conformidade. Avaliar riscos cibernéticos e propor ações de mitigação. Liderar e orientar a equipe de SOC, promovendo capacitação técnica. Elaborar indicadores de performance, organizar demandas, projetos e tickets. Integrar práticas de segurança às operações internas e acompanhar tendências da área.  Requisitos Formação em TI ou áreas correlatas. Experiência com Trellix, EDR/XDR (ex.: CrowdStrike Falcon), SIEM e operações de SOC. Conhecimentos em Windows e Linux. Inglês técnico intermediário. Diferenciais: certificações CISSP, CISM, ISO 27001.  CLT + Benefícios
+Empresa .....:  Bricon It Solution</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 24/01/26 || Analista SOC Jr - PRESENCIAL Brasília || Atividades: Monitorar, investigar e responder a ameaças e incidentes cibernéticos com base em frameworks como NIST, MITRE e SANS. Realizar threat hunting e identificar vulnerabilidades com foco no negócio. Conduzir processos de resposta a incidentes de forma autônoma. Definir e implementar baselines, políticas e controles de segurança para redução de riscos e conformidade. Avaliar riscos cibernéticos e propor ações de mitigação. Liderar e orientar a equipe de SOC, promovendo capacitação técnica. Elaborar indicadores de performance, organizar demandas, projetos e tickets. Integrar práticas de segurança às operações internas e acompanhar tendências da área.  Requisitos Formação em TI ou áreas correlatas. Experiência com Trellix, EDR/XDR (ex.: CrowdStrike Falcon), SIEM e operações de SOC. Conhecimentos em Windows e Linux. Inglês técnico intermediário. Diferenciais: certificações CISSP, CISM, ISO 27001.  CLT + Benefícios || Empresa .....:  Bricon It Solution</t>
+        </is>
+      </c>
+      <c r="I482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>82963</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Consultor SAP MM Sênior Híbrido em Campinas/SP</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Requisitos Obrigatórios: Sólida experiência no módulo MM em projetos de implementação e suporte AMS Experiência em atendimento a Clientes atuando em equipes de Suportes Solido conhecimento de configurações e dos processos envolvidos no modulo: Compras, Tipos de documentos,Transferência, Subcontratação, Consignação, Estratégias de aprovação, Gestão de Estoques e Movimentações, Contabilização, Tipos de movimentos, Inventário, Movimentação de material, Integraçaõ com WM, Faturamento de Fornecedores, Faturas, Notas de Crédito, Impostos, BP Planejamento de necessidades de material (MRP) e políticas de reabastecimento Processos de devoluções, cancelamentos, notas de crédito e bloqueio de fatura Experiência e conhecimento de Localização Brasil Conhecimento de integração MM com FI, CO, SD e GRC Experiência em levantamento de requisitos, configuração, testes e suporte pós go-live Capacidade de redigir especificações funcionais e técnicas claras para ABAP.
+Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 24/01/26 || Consultor SAP MM Sênior Híbrido em Campinas/SP || Requisitos Obrigatórios: Sólida experiência no módulo MM em projetos de implementação e suporte AMS Experiência em atendimento a Clientes atuando em equipes de Suportes Solido conhecimento de configurações e dos processos envolvidos no modulo: Compras, Tipos de documentos,Transferência, Subcontratação, Consignação, Estratégias de aprovação, Gestão de Estoques e Movimentações, Contabilização, Tipos de movimentos, Inventário, Movimentação de material, Integraçaõ com WM, Faturamento de Fornecedores, Faturas, Notas de Crédito, Impostos, BP Planejamento de necessidades de material (MRP) e políticas de reabastecimento Processos de devoluções, cancelamentos, notas de crédito e bloqueio de fatura Experiência e conhecimento de Localização Brasil Conhecimento de integração MM com FI, CO, SD e GRC Experiência em levantamento de requisitos, configuração, testes e suporte pós go-live Capacidade de redigir especificações funcionais e técnicas claras para ABAP. || Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="I483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>82892</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>QA Sênior – Modelo Híbrido (Cascavel/PR)</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Cascavel - PR - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Buscamos um(a) QA Sênior para atuar no modelo híbrido em Cascavel/PR, responsável por estruturar e evoluir todo o processo de qualidade da empresa. A vaga exige experiência com testes manuais e automatizados, criação de planos de teste, testes de API, E2E, integração e contrato.  É necessário domínio de ferramentas como Postman, Cypress, Selenium, além de conhecimento em CI/CD, GitHub e PostgreSQL. A pessoa será responsável por implementar padrões, definir estratégias, criar automações, apoiar desenvolvedores na abordagem shift-left e garantir entregas consistentes.  Espera-se autonomia, visão de processo, comunicação clara, capacidade de liderança técnica e atuação colaborativa com o time de tecnologia. Profissional com perfil implementador, organizado e capaz de estruturar a área de QA do zero terá forte destaque.
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Cascavel - PR - 24/01/26 || QA Sênior – Modelo Híbrido (Cascavel/PR) || Buscamos um(a) QA Sênior para atuar no modelo híbrido em Cascavel/PR, responsável por estruturar e evoluir todo o processo de qualidade da empresa. A vaga exige experiência com testes manuais e automatizados, criação de planos de teste, testes de API, E2E, integração e contrato.  É necessário domínio de ferramentas como Postman, Cypress, Selenium, além de conhecimento em CI/CD, GitHub e PostgreSQL. A pessoa será responsável por implementar padrões, definir estratégias, criar automações, apoiar desenvolvedores na abordagem shift-left e garantir entregas consistentes.  Espera-se autonomia, visão de processo, comunicação clara, capacidade de liderança técnica e atuação colaborativa com o time de tecnologia. Profissional com perfil implementador, organizado e capaz de estruturar a área de QA do zero terá forte destaque. || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>83067</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Analista de Redes Pleno (LGPD</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Buscamos um Analista de Redes Pleno (LGPD / Segurança da Informação) para atuar na administração e segurança da infraestrutura de redes e servidores, garantindo estabilidade, performance, segurança da informação e conformidade com a LGPD.  Modelo: Híbrido (3x presencial) – Curitiba/PR Contratação: PJ  Responsabilidades: administrar ambientes Windows e Linux, suporte a desktops corporativos, configuração e monitoramento de servidores, gestão de redes (IP, VLANs, roteamento, portas e protocolos), administração de firewalls, implementação de boas práticas de Segurança da Informação, apoio à LGPD, atuação preventiva na mitigação de riscos, resposta a incidentes e documentação técnica.  Requisitos: experiência sólida como Analista de Redes, domínio de Windows e Linux, vivência com servidores, redes e firewalls, conhecimentos em Segurança da Informação e LGPD, troubleshooting e documentação.
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 24/01/26 || Analista de Redes Pleno (LGPD || Buscamos um Analista de Redes Pleno (LGPD / Segurança da Informação) para atuar na administração e segurança da infraestrutura de redes e servidores, garantindo estabilidade, performance, segurança da informação e conformidade com a LGPD.  Modelo: Híbrido (3x presencial) – Curitiba/PR Contratação: PJ  Responsabilidades: administrar ambientes Windows e Linux, suporte a desktops corporativos, configuração e monitoramento de servidores, gestão de redes (IP, VLANs, roteamento, portas e protocolos), administração de firewalls, implementação de boas práticas de Segurança da Informação, apoio à LGPD, atuação preventiva na mitigação de riscos, resposta a incidentes e documentação técnica.  Requisitos: experiência sólida como Analista de Redes, domínio de Windows e Linux, vivência com servidores, redes e firewalls, conhecimentos em Segurança da Informação e LGPD, troubleshooting e documentação. || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>83164</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Arquiteto Pleno</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Especialista em Performance DB2 para atuar em análises críticas de performance e apoio a projetos regulatórios e de migração de dados em ambientes Mainframe / AS400.  Atividades Analisar impactos de performance em DB2/VSAM durante processos de conversão de CNPJs Propor ajustes em índices, queries e rotinas críticas, garantindo eficiência e estabilidade Apoiar a definição de janelas de migração, bem como a execução de testes de carga e stress Atuar preventivamente na identificação de riscos de degradação de performance.  Skills Esperadas Experiência sólida em tuning de bancos DB2 em AS400 Conhecimento em análise de performance de aplicações COBOL Vivência em projetos regulatórios ou de migração de dados Forte capacidade analítica e visão sistêmica de ambientes críticos.  Exigências Técnicas Atuação mínima de 8 anos em ambientes Mainframe Experiência comprovada na identificação e mitigação de gargalos de performance.  Projeto CLT: 3 Meses.
+Empresa .....:  Grupo Taking</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26 || Arquiteto Pleno || Estamos em busca de um(a) Especialista em Performance DB2 para atuar em análises críticas de performance e apoio a projetos regulatórios e de migração de dados em ambientes Mainframe / AS400.  Atividades Analisar impactos de performance em DB2/VSAM durante processos de conversão de CNPJs Propor ajustes em índices, queries e rotinas críticas, garantindo eficiência e estabilidade Apoiar a definição de janelas de migração, bem como a execução de testes de carga e stress Atuar preventivamente na identificação de riscos de degradação de performance.  Skills Esperadas Experiência sólida em tuning de bancos DB2 em AS400 Conhecimento em análise de performance de aplicações COBOL Vivência em projetos regulatórios ou de migração de dados Forte capacidade analítica e visão sistêmica de ambientes críticos.  Exigências Técnicas Atuação mínima de 8 anos em ambientes Mainframe Experiência comprovada na identificação e mitigação de gargalos de performance.  Projeto CLT: 3 Meses. || Empresa .....:  Grupo Taking</t>
+        </is>
+      </c>
+      <c r="I486" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>83395</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Backend Sênior</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Backend Developer (.NET Core)  Modelo: Remoto  Contratação: PJ  Idioma: Inglês Avançado  Atuar no desenvolvimento, manutenção e otimização de aplicações backend em .NET Core 6, garantindo performance, segurança, escalabilidade e integração com AWS e PostgreSQL.  Requisitos Experiência sólida em Backend com .NET Core 6 Forte conhecimento em AWS e seus principais serviços Experiência com PostgreSQL, modelagem de dados e otimização de queries Perfil proativo, analítico e colaborativo Boa comunicação e capacidade de traduzir demandas de negócio em soluções técnicas
+Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26 || Backend Sênior || Backend Developer (.NET Core)  Modelo: Remoto  Contratação: PJ  Idioma: Inglês Avançado  Atuar no desenvolvimento, manutenção e otimização de aplicações backend em .NET Core 6, garantindo performance, segurança, escalabilidade e integração com AWS e PostgreSQL.  Requisitos Experiência sólida em Backend com .NET Core 6 Forte conhecimento em AWS e seus principais serviços Experiência com PostgreSQL, modelagem de dados e otimização de queries Perfil proativo, analítico e colaborativo Boa comunicação e capacidade de traduzir demandas de negócio em soluções técnicas || Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="I487" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>82937</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Consultor Oracle Cloud ERP</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>O desafio Atuar funcionalmente nos módulos TAX, OM (Order Management), FDG e AR (Accounts Receivable), apoiando a adequação dos processos fiscais e financeiros às novas exigências legais, garantindo aderência ao negócio e estabilidade do ambiente durante o projeto.  Principais atividades Atuação funcional nos módulos Oracle Cloud ERP Análise de impactos da reforma tributária e proposição de soluções Levantamento de requisitos e mapeamento de processos Parametrizações, testes e validações funcionais integradas Interface com times técnicos, fiscais e de negócio Documentação funcional e apoio à estabilização do ambiente  Perfil esperado Experiência como Consultor(a) Funcional Sênior em Oracle Cloud ERP Domínio dos módulos TAX, OM, FDG e AR Vivência em projetos fiscais/tributários (reforma tributária será um diferencial importante) Forte capacidade analítica e visão integrada de processos financeiros
+Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26 || Consultor Oracle Cloud ERP || O desafio Atuar funcionalmente nos módulos TAX, OM (Order Management), FDG e AR (Accounts Receivable), apoiando a adequação dos processos fiscais e financeiros às novas exigências legais, garantindo aderência ao negócio e estabilidade do ambiente durante o projeto.  Principais atividades Atuação funcional nos módulos Oracle Cloud ERP Análise de impactos da reforma tributária e proposição de soluções Levantamento de requisitos e mapeamento de processos Parametrizações, testes e validações funcionais integradas Interface com times técnicos, fiscais e de negócio Documentação funcional e apoio à estabilização do ambiente  Perfil esperado Experiência como Consultor(a) Funcional Sênior em Oracle Cloud ERP Domínio dos módulos TAX, OM, FDG e AR Vivência em projetos fiscais/tributários (reforma tributária será um diferencial importante) Forte capacidade analítica e visão integrada de processos financeiros || Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="I488" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>82379</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Consultor SAP FM</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Consultor SAP FM - Sênior para integrar nosso time de tecnologia  Requisitos Técnicos: Consultor FM com ampla experiência em S/4 Hana Ter participado de implantação e migração de ambientes S/4 Hana. Conhecimento em processos de controle e gestão de orçamento em FM. Experiencia em especificação funcional, teste e homologação de desenvolvimentos e interfaces com outros sistemas.  Necessário possuir experiência com migração de ambiente S/4, configuração, especificação, testes unitários, testes integrados, cutover e suporte a produção.  Atuação: Remoto
+Empresa .....:  Softtek</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26 || Consultor SAP FM || Estamos em busca de um(a) Consultor SAP FM - Sênior para integrar nosso time de tecnologia  Requisitos Técnicos: Consultor FM com ampla experiência em S/4 Hana Ter participado de implantação e migração de ambientes S/4 Hana. Conhecimento em processos de controle e gestão de orçamento em FM. Experiencia em especificação funcional, teste e homologação de desenvolvimentos e interfaces com outros sistemas.  Necessário possuir experiência com migração de ambiente S/4, configuração, especificação, testes unitários, testes integrados, cutover e suporte a produção.  Atuação: Remoto || Empresa .....:  Softtek</t>
+        </is>
+      </c>
+      <c r="I489" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>82225</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Backend Sênior  Neptune DXP (SAP)</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Vaga: Desenvolvedor Backend Sênior  Neptune DXP (SAP) Estamos em busca de um Desenvolvedor Backend Sênior com experiência sólida em Neptune Server Script para integrar um projeto.  Local: Remoto, com primeiro dia presencial / SP Duração: 12 meses (com forte possibilidade de prorrogação) Idioma: Inglês fluente (ambiente global)  Perfil técnico desejado: Desenvolvedor Backend Sênior com experiência em Neptune DXP (SAP) Para desenvolvimento Core (Backend): •	Conhecimento de Neptune Server Script (NodeJS/TypeORM/SQL) •	Conhecimento de POO (Programação Orientada a Objetos) •	Conhecimento do framework MVC (Modelo/Visão/Controlador) •	BÔNUS: Conhecimento em desenvolvimento ABAP  Obs.: Terá que desenvolver com Neptune usando SAP, criar aplicações Web que vão comunicar com SAP, skill mais visual.
+Empresa .....:  WA Fênix IT Service  Solutions</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26 || Desenvolvedor Backend Sênior  Neptune DXP (SAP) || Vaga: Desenvolvedor Backend Sênior  Neptune DXP (SAP) Estamos em busca de um Desenvolvedor Backend Sênior com experiência sólida em Neptune Server Script para integrar um projeto.  Local: Remoto, com primeiro dia presencial / SP Duração: 12 meses (com forte possibilidade de prorrogação) Idioma: Inglês fluente (ambiente global)  Perfil técnico desejado: Desenvolvedor Backend Sênior com experiência em Neptune DXP (SAP) Para desenvolvimento Core (Backend): •	Conhecimento de Neptune Server Script (NodeJS/TypeORM/SQL) •	Conhecimento de POO (Programação Orientada a Objetos) •	Conhecimento do framework MVC (Modelo/Visão/Controlador) •	BÔNUS: Conhecimento em desenvolvimento ABAP  Obs.: Terá que desenvolver com Neptune usando SAP, criar aplicações Web que vão comunicar com SAP, skill mais visual. || Empresa .....:  WA Fênix IT Service  Solutions</t>
+        </is>
+      </c>
+      <c r="I490" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>82841</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Dynamics Sênior</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Experiência com desenvolvimento de plugins, workflows, custom APIs, actions e extensões de interface. Vivência em customização de model-driven apps e automação de processos com Power Platform (Power Automate, Power Apps, PCF). Integração de sistemas externos usando Dataverse e Web API. Práticas de segurança, logging e versionamento de soluções gerenciadas. Desejável: experiência com Customer Insights (customer journeys, marketing automation, data modelling) e governança de dados.
+Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26 || Desenvolvedor Dynamics Sênior || Experiência com desenvolvimento de plugins, workflows, custom APIs, actions e extensões de interface. Vivência em customização de model-driven apps e automação de processos com Power Platform (Power Automate, Power Apps, PCF). Integração de sistemas externos usando Dataverse e Web API. Práticas de segurança, logging e versionamento de soluções gerenciadas. Desejável: experiência com Customer Insights (customer journeys, marketing automation, data modelling) e governança de dados. || Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="I491" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>83388</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Líder Técnico (Tech Lead .Net)</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Oportunidade em uma das maiores operadoras de saúde do Brasil para atuar com liderança técnica, desenvolvimento e sustentação de sistemas corporativos críticos.  Atuação como Líder técnico com perfil mão na massa. Liderança técnica e apoio ao time. Desenvolvimento, manutenção e APIs. Sustentação e resolução de incidentes. Code review e apoio à arquitetura.  Requisitos: .NET Core, Asp Clássico, Oracle PL/SQL, SOAP/REST, Git e CI/CD, Diferencial: Docker, Kubernetes, RabbitMQ e saúde Experiência com operadoras de Saúde.  Contratação: PJ  44h semanais  Contrato indeterminado
+Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26 || Líder Técnico (Tech Lead .Net) || Oportunidade em uma das maiores operadoras de saúde do Brasil para atuar com liderança técnica, desenvolvimento e sustentação de sistemas corporativos críticos.  Atuação como Líder técnico com perfil mão na massa. Liderança técnica e apoio ao time. Desenvolvimento, manutenção e APIs. Sustentação e resolução de incidentes. Code review e apoio à arquitetura.  Requisitos: .NET Core, Asp Clássico, Oracle PL/SQL, SOAP/REST, Git e CI/CD, Diferencial: Docker, Kubernetes, RabbitMQ e saúde Experiência com operadoras de Saúde.  Contratação: PJ  44h semanais  Contrato indeterminado || Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="I492" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>82996</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>SAP PI PO</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>Realizar análise de performance e correção de bugs complexos em interfaces e programas customizados.  Desenvolvimento de Alta Performance: Atuar com programação ABAP/OO, criação de CDS Views e serviços OData para soluções S/4HANA.  Domínio de Integração: Experiência sólida com SAP BTP Integration Suite e SAP PO/PI. Forte Background em ABAP: Experiência avançada em ABAP OO, CDS Views e OData. Conhecimento em SAP Connector: Configuração e gestão de túneis de comunicação.
+Empresa .....:  Simply</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26 || SAP PI PO || Realizar análise de performance e correção de bugs complexos em interfaces e programas customizados.  Desenvolvimento de Alta Performance: Atuar com programação ABAP/OO, criação de CDS Views e serviços OData para soluções S/4HANA.  Domínio de Integração: Experiência sólida com SAP BTP Integration Suite e SAP PO/PI. Forte Background em ABAP: Experiência avançada em ABAP OO, CDS Views e OData. Conhecimento em SAP Connector: Configuração e gestão de túneis de comunicação. || Empresa .....:  Simply</t>
+        </is>
+      </c>
+      <c r="I493" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>83390</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Tech Lead Salesforce</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Tech Lead Salesforce  Liderar implementações Salesforce (configurações, customizações e migração de dados) Definir arquitetura de soluções com foco em boas práticas, escalabilidade e segurança Desenvolver soluções programáticas e declarativas Implementar integrações com sistemas externos (APIs REST/SOAP, Web Services, ETL) Apoiar levantamento de requisitos, troubleshooting e decisões técnicas Atuar em ambiente ágil e colaborativo  Requisitos: Experiência sólida em Salesforce Service Cloud, Sales Cloud e Marketing Cloud Experiência com integrações, versionamento e deploy no Salesforce Conhecimento em arquitetura MVC, OO e RDBMS Perfil analítico e experiência em projetos complexos  Diferenciais: Certificações Salesforce Conhecimento em CRM  Contratação: PJ + benefícios Valor: até R$ 20.000 Modelo: Totalmente remoto
+Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 24/01/26 || Tech Lead Salesforce || Tech Lead Salesforce  Liderar implementações Salesforce (configurações, customizações e migração de dados) Definir arquitetura de soluções com foco em boas práticas, escalabilidade e segurança Desenvolver soluções programáticas e declarativas Implementar integrações com sistemas externos (APIs REST/SOAP, Web Services, ETL) Apoiar levantamento de requisitos, troubleshooting e decisões técnicas Atuar em ambiente ágil e colaborativo  Requisitos: Experiência sólida em Salesforce Service Cloud, Sales Cloud e Marketing Cloud Experiência com integrações, versionamento e deploy no Salesforce Conhecimento em arquitetura MVC, OO e RDBMS Perfil analítico e experiência em projetos complexos  Diferenciais: Certificações Salesforce Conhecimento em CRM  Contratação: PJ + benefícios Valor: até R$ 20.000 Modelo: Totalmente remoto || Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="I494" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>82584</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>IDAA Support</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Hortolândia - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>A Randstad busca Analista de Suporte IDAA (DB2 Analytics Accelerator) para cliente líder global em TI.  O profissional será responsável por instalar, configurar, atualizar e dar suporte à ferramenta IDAA em ambientes mainframe e zLinux, além de atuar em plataformas Windows e Linux. Foco na resolução de problemas e suporte ao usuário.  Requisitos: Profundo conhecimento em ambientes mainframe, incluindo DB2 Analytics Accelerator e zLinux. Sólida experiência prática com sistemas operacionais Windows e Linux. Experiência comprovada em instalação, configuração, atualização, aplicação de patches e suporte ao usuário do DB2 Analytics Accelerator.  Inglês Avançado  Modelo de contrato: CLT, Híbrido (idas esporádicas no escritório em Hortolândia/SP) + benefícios.
+Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>Hortolândia - SP - 24/01/26 || IDAA Support || A Randstad busca Analista de Suporte IDAA (DB2 Analytics Accelerator) para cliente líder global em TI.  O profissional será responsável por instalar, configurar, atualizar e dar suporte à ferramenta IDAA em ambientes mainframe e zLinux, além de atuar em plataformas Windows e Linux. Foco na resolução de problemas e suporte ao usuário.  Requisitos: Profundo conhecimento em ambientes mainframe, incluindo DB2 Analytics Accelerator e zLinux. Sólida experiência prática com sistemas operacionais Windows e Linux. Experiência comprovada em instalação, configuração, atualização, aplicação de patches e suporte ao usuário do DB2 Analytics Accelerator.  Inglês Avançado  Modelo de contrato: CLT, Híbrido (idas esporádicas no escritório em Hortolândia/SP) + benefícios. || Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="I495" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>82494</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Auxiliar Técnico de Cabeamento Estruturado</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Piracicaba - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>Empresa de Tecnologia da Informação contrata Auxiliar de Cabeamento. Não é necessária experiência prévia Necessário CNH  Salário + Diária + Benefícios NR10 será um diferencial Início Imediato
+Empresa .....:  AssistRh Recrutamento e Seleção</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Piracicaba - SP - 24/01/26 || Auxiliar Técnico de Cabeamento Estruturado || Empresa de Tecnologia da Informação contrata Auxiliar de Cabeamento. Não é necessária experiência prévia Necessário CNH  Salário + Diária + Benefícios NR10 será um diferencial Início Imediato || Empresa .....:  AssistRh Recrutamento e Seleção</t>
+        </is>
+      </c>
+      <c r="I496" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>82882</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Consultor SAP ABAP (AMS)</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Recife - PE - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>Descrição das atividades: Liderança técnica da equipe responsável pelas entregas de suporte (AMS) em SAP ABAP. Desenvolvimento e manutenção em ambiente SAP ABAP, focado no módulo SAP Utilities. Garantir a qualidade técnica e o cumprimento dos prazos nas entregas do suporte. Atuar como referência técnica para a equipe de desenvolvimento.  Requisitos: Experiência sólida em Desenvolvimento SAP ABAP. Conhecimento e experiência em SAP Utilities. Experiência em projetos de AMS (Application Management Services). Capacidade de Liderança Técnica de equipe de suporte/desenvolvimento (Level 8).  Desejáveis: Conhecimento em processos e funcionalidades do módulo SAP Utilities.
+Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Recife - PE - 24/01/26 || Consultor SAP ABAP (AMS) || Descrição das atividades: Liderança técnica da equipe responsável pelas entregas de suporte (AMS) em SAP ABAP. Desenvolvimento e manutenção em ambiente SAP ABAP, focado no módulo SAP Utilities. Garantir a qualidade técnica e o cumprimento dos prazos nas entregas do suporte. Atuar como referência técnica para a equipe de desenvolvimento.  Requisitos: Experiência sólida em Desenvolvimento SAP ABAP. Conhecimento e experiência em SAP Utilities. Experiência em projetos de AMS (Application Management Services). Capacidade de Liderança Técnica de equipe de suporte/desenvolvimento (Level 8).  Desejáveis: Conhecimento em processos e funcionalidades do módulo SAP Utilities. || Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="I497" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>82506</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>CONSULTOR SAP FI / CO</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Consultor SAP FI/CO - Pleno  Requisitos Experiência mínima de 4 anos como Consultor de SAP FI/CO. Vivência em configurações no ambiente S4/Hana Rise. Atuação na sustentação dos módulos.  Desejável Atuação mínima de 2 anos em cada módulo Experiência no segmento Industrial ou Varejo
+Empresa .....:  Laboris Consultoria LTDA</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 24/01/26 || CONSULTOR SAP FI / CO || Consultor SAP FI/CO - Pleno  Requisitos Experiência mínima de 4 anos como Consultor de SAP FI/CO. Vivência em configurações no ambiente S4/Hana Rise. Atuação na sustentação dos módulos.  Desejável Atuação mínima de 2 anos em cada módulo Experiência no segmento Industrial ou Varejo || Empresa .....:  Laboris Consultoria LTDA</t>
+        </is>
+      </c>
+      <c r="I498" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>82991</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Engenheiro DevOps SRE Sênior</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Requisitos Obrigatórios Linux Avançado: Capacidade de realizar troubleshooting via linha de comando (CLI), gestão de processos, permissões e scripts em Shell Git  Versionamento: Domínio completo de Git Flow, resolução de conflitos de merge e boas práticas de versionamento de código Conteinerização (Docker): Escrita de Dockerfiles otimizados (Multistage build), entendimento profundo de camadas de imagem e redes bridge/host Servidores Web  Proxy (Nginx): Configuração de Nginx como Reverse Proxy e Load Balancer  Responsabilidades Gerenciar a infraestrutura em nuvem AWS, foco em clusters elásticos (ECS) e Kubernetes (EKS) Liderar a migração de pipelines de CI/CD GitHub Actions para GitLab CI Garantir a observabilidade e monitoramento através da stack Grafana Automatizar processos de infraestrutura utilizando AWS Lambda e Python Realizar troubleshooting de sistemas e aplicações (microsserviços Java e Python)
+Empresa .....:  TO Brasil Ltda</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 24/01/26 || Engenheiro DevOps SRE Sênior || Requisitos Obrigatórios Linux Avançado: Capacidade de realizar troubleshooting via linha de comando (CLI), gestão de processos, permissões e scripts em Shell Git  Versionamento: Domínio completo de Git Flow, resolução de conflitos de merge e boas práticas de versionamento de código Conteinerização (Docker): Escrita de Dockerfiles otimizados (Multistage build), entendimento profundo de camadas de imagem e redes bridge/host Servidores Web  Proxy (Nginx): Configuração de Nginx como Reverse Proxy e Load Balancer  Responsabilidades Gerenciar a infraestrutura em nuvem AWS, foco em clusters elásticos (ECS) e Kubernetes (EKS) Liderar a migração de pipelines de CI/CD GitHub Actions para GitLab CI Garantir a observabilidade e monitoramento através da stack Grafana Automatizar processos de infraestrutura utilizando AWS Lambda e Python Realizar troubleshooting de sistemas e aplicações (microsserviços Java e Python) || Empresa .....:  TO Brasil Ltda</t>
+        </is>
+      </c>
+      <c r="I499" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>82375</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>ESPECIALISTA OPEN VMS - PRESENCIAL RIO DE JANEIRO</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO Totalmente PRESENCIAL NO BAIRRO DE CAMPO GRANDE, ZONA OESTE DO RIO DE JANEIRO / RJ Contratação PJ Horário de Trabalho: Das 09hs às 18hs  Requisitos: - Experiência com administração, manutenção e monitoramento de sistemas OpenVMS - Experiência no gerenciamento e suporte de bancos de dados Oracle RDB  Escopo: - Será detalhado em entrevista técnica
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 24/01/26 || ESPECIALISTA OPEN VMS - PRESENCIAL RIO DE JANEIRO || ATUAÇÃO Totalmente PRESENCIAL NO BAIRRO DE CAMPO GRANDE, ZONA OESTE DO RIO DE JANEIRO / RJ Contratação PJ Horário de Trabalho: Das 09hs às 18hs  Requisitos: - Experiência com administração, manutenção e monitoramento de sistemas OpenVMS - Experiência no gerenciamento e suporte de bancos de dados Oracle RDB  Escopo: - Será detalhado em entrevista técnica || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I500" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>83387</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Delivery Manager Sênior</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>Vaga: Delivery Manager (PJ) Local: São Paulo – atuação presencial 1x/semana Valor: até R$ 17.000 + benefícios  Requisitos: Experiência mínima de 5 anos como Delivery Manager Certificações ágeis (CSM, PSM, CSPO, PSPO ou equivalentes) Experiência com múltiplos times ágeis Conhecimento em Scrum, Kanban, métricas ágeis e Jira Forte gestão de stakeholders e perfil analítico  Atividades: Acompanhar e desenvolver Scrum Masters e Product Owners Garantir correta aplicação de frameworks ágeis e boas práticas Gestão de performance, maturidade e evolução dos times Apoiar POs na priorização e refinamento de backlog Garantir qualidade e cadência dos rituais ágeis Analisar indicadores de produtividade, qualidade e previsibilidade Remover impedimentos e promover melhoria contínua Atuar como interface entre times técnicos, liderança e stakeholders  Perfil comportamental: Comunicação clara, liderança servidora, visão sistêmica, organização, adaptabilidade e foco em resultados.
+Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 24/01/26 || Delivery Manager Sênior || Vaga: Delivery Manager (PJ) Local: São Paulo – atuação presencial 1x/semana Valor: até R$ 17.000 + benefícios  Requisitos: Experiência mínima de 5 anos como Delivery Manager Certificações ágeis (CSM, PSM, CSPO, PSPO ou equivalentes) Experiência com múltiplos times ágeis Conhecimento em Scrum, Kanban, métricas ágeis e Jira Forte gestão de stakeholders e perfil analítico  Atividades: Acompanhar e desenvolver Scrum Masters e Product Owners Garantir correta aplicação de frameworks ágeis e boas práticas Gestão de performance, maturidade e evolução dos times Apoiar POs na priorização e refinamento de backlog Garantir qualidade e cadência dos rituais ágeis Analisar indicadores de produtividade, qualidade e previsibilidade Remover impedimentos e promover melhoria contínua Atuar como interface entre times técnicos, liderança e stakeholders  Perfil comportamental: Comunicação clara, liderança servidora, visão sistêmica, organização, adaptabilidade e foco em resultados. || Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="I501" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>82617</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Analista Citrix Pleno</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>Analista Citrix Pleno Disponibilidade imediata Contratação PJ Atuação Hibrida – São Bernardo do Campo SP Período estimado de 12 meses (podendo ser prorrogado) Inglês Intermediário  Conhecimento Obrigatório: Citrix App  Desktop Virtualization Windows Systems – GPO Citrix Endopint Managerment Netscaler Application Delivery  Sec. Xen Server  Profissional com experiência sólida em administração e suporte de ambientes Citrix, virtualização de servidores e gestão de infraestrutura Windows Atuará no diagnóstico e solução de incidentes complexos, implementação de melhorias, aplicação de políticas de segurança e garantia de alta disponibilidade dos serviços corporativos Forte capacidade analítica, comunicação clara, postura colaborativa e foco em estabilidade operacional  Competências Técnicas: Monitoramento, documentação e automação Troubleshooting avançado.
+Empresa .....:  THERA CONSULTING</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 24/01/26 || Analista Citrix Pleno || Analista Citrix Pleno Disponibilidade imediata Contratação PJ Atuação Hibrida – São Bernardo do Campo SP Período estimado de 12 meses (podendo ser prorrogado) Inglês Intermediário  Conhecimento Obrigatório: Citrix App  Desktop Virtualization Windows Systems – GPO Citrix Endopint Managerment Netscaler Application Delivery  Sec. Xen Server  Profissional com experiência sólida em administração e suporte de ambientes Citrix, virtualização de servidores e gestão de infraestrutura Windows Atuará no diagnóstico e solução de incidentes complexos, implementação de melhorias, aplicação de políticas de segurança e garantia de alta disponibilidade dos serviços corporativos Forte capacidade analítica, comunicação clara, postura colaborativa e foco em estabilidade operacional  Competências Técnicas: Monitoramento, documentação e automação Troubleshooting avançado. || Empresa .....:  THERA CONSULTING</t>
+        </is>
+      </c>
+      <c r="I502" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>82290</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Analista ServiceNow Sênior</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>A Tech For TI está com oportunidade para Analista ServiceNow Sênior, atuar em projeto de cliente empresa multinacional alemã. Híbrido (São Bernardo do Campo - Centro). PJ Com Inglês Avançado  Requisitos mandatórios: - Certificação em Administração ou Desenvolvimento de Sistemas ServiceNow. - Experiência com outras plataformas e ferramentas de integração. - Familiaridade com os processos e melhores práticas do ITIL. - Experiência comprovada em projetar e implementar soluções de integração utilizando a plataforma ServiceNow. - Proficiência em serviços Web, APIs e técnicas de integração de dados. - Experiência com linguagens de script como JavaScript e familiaridade com o ambiente de script do ServiceNow. - Excelentes habilidades de resolução de problemas e capacidade de solucionar questões complexas de integração. - Fortes habilidades de comunicação e colaboração
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 24/01/26 || Analista ServiceNow Sênior || A Tech For TI está com oportunidade para Analista ServiceNow Sênior, atuar em projeto de cliente empresa multinacional alemã. Híbrido (São Bernardo do Campo - Centro). PJ Com Inglês Avançado  Requisitos mandatórios: - Certificação em Administração ou Desenvolvimento de Sistemas ServiceNow. - Experiência com outras plataformas e ferramentas de integração. - Familiaridade com os processos e melhores práticas do ITIL. - Experiência comprovada em projetar e implementar soluções de integração utilizando a plataforma ServiceNow. - Proficiência em serviços Web, APIs e técnicas de integração de dados. - Experiência com linguagens de script como JavaScript e familiaridade com o ambiente de script do ServiceNow. - Excelentes habilidades de resolução de problemas e capacidade de solucionar questões complexas de integração. - Fortes habilidades de comunicação e colaboração || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I503" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>82214</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Cadista - Elétrica</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>Desenvolver projetos em CAD para cabeamento estruturado e telecomunicações. Interagir com a equipe técnica para alinhamento e execução dos projetos. Realizar vistorias em campo para levantamento de informações. Atualizar e organizar documentações técnicas conforme necessidade.  Requisitos Desejável - Formação técnica, preferencialmente com conhecimento em cabeamento estruturado (infra seca, cabling, conexões, patch panel, DIO, racks, tabelas de ligações, cabos UTPs, entre outros). Carteira de Habilitação (CNH) válida.  Desejável - Conhecimento em materiais de infraestrutura, cabling e fibras ópticas. Desejável - Experiência com elaboração e atualização de documentações técnicas (As Built).
+Empresa .....:  Tecnocomp</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 24/01/26 || Cadista - Elétrica || Desenvolver projetos em CAD para cabeamento estruturado e telecomunicações. Interagir com a equipe técnica para alinhamento e execução dos projetos. Realizar vistorias em campo para levantamento de informações. Atualizar e organizar documentações técnicas conforme necessidade.  Requisitos Desejável - Formação técnica, preferencialmente com conhecimento em cabeamento estruturado (infra seca, cabling, conexões, patch panel, DIO, racks, tabelas de ligações, cabos UTPs, entre outros). Carteira de Habilitação (CNH) válida.  Desejável - Conhecimento em materiais de infraestrutura, cabling e fibras ópticas. Desejável - Experiência com elaboração e atualização de documentações técnicas (As Built). || Empresa .....:  Tecnocomp</t>
+        </is>
+      </c>
+      <c r="I504" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>83180</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>ANALISTA DE TECNOLOGIA DA INFORMAÇÃO BILÍNGUE PL</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>Responsabilidades Atendimento e resolução de chamados técnicos, com priorização adequada e comunicação clara. Suporte presencial e remoto a usuários com diferentes níveis de conhecimento em tecnologia, sempre com empatia e paciência.  Atuação Totalmente presencial, com no mínimo 2 anos de experiência em suporte técnico. Conhecimento em hardware, sistemas operacionais (Windows, macOS e Linux), redes (LAN, Wi-Fi, VPN, TCP/IP, DHCP e DNS), segurança da informação, instalação e configuração de aplicações, Active Directory, Microsoft 365, impressoras e dispositivos móveis. Vivência com ITSM, documentação de processos, ferramentas de acesso remoto, diagnóstico e resolução de problemas à distância, além de boa comunicação e disciplina com horários.  Diferenciais Certificações HDI, ITIL, ISO 20000 ou ISO 27002 e experiência no mercado financeiro.  Remuneração Pleno: R$ 2.964,55  Benefícios VR, VT, PLR, DAY OFF, Assistência Médica
+Empresa .....:  KVM TECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || ANALISTA DE TECNOLOGIA DA INFORMAÇÃO BILÍNGUE PL || Responsabilidades Atendimento e resolução de chamados técnicos, com priorização adequada e comunicação clara. Suporte presencial e remoto a usuários com diferentes níveis de conhecimento em tecnologia, sempre com empatia e paciência.  Atuação Totalmente presencial, com no mínimo 2 anos de experiência em suporte técnico. Conhecimento em hardware, sistemas operacionais (Windows, macOS e Linux), redes (LAN, Wi-Fi, VPN, TCP/IP, DHCP e DNS), segurança da informação, instalação e configuração de aplicações, Active Directory, Microsoft 365, impressoras e dispositivos móveis. Vivência com ITSM, documentação de processos, ferramentas de acesso remoto, diagnóstico e resolução de problemas à distância, além de boa comunicação e disciplina com horários.  Diferenciais Certificações HDI, ITIL, ISO 20000 ou ISO 27002 e experiência no mercado financeiro.  Remuneração Pleno: R$ 2.964,55  Benefícios VR, VT, PLR, DAY OFF, Assistência Médica || Empresa .....:  KVM TECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="I505" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>83396</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Analista de teste/QA</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>Descrição do Cargo Desenvolver planos de testes detalhados com base nos requisitos do software e nas especificações do projeto. Isso inclui definir os objetivos, abordagens, recursos e cronogramas de testes Realizar testes manuais ou automatizados conforme os casos de teste e documentar os resultados das execuções Desenvolver e manter scripts de automação para efetuar testes repetitivos Conduzir testes de regressão Executar testes unitários  Qualificações Superior completo em desenvolvimento de sistemas ou em áreas relacionadas Experiência comprovada de, ao menos, 1 ano como analista de teste ou Q.A. Conhecimento em ferramentas de automação, gestão e realização de testes, tais como: Selenium, Postman, Jira, TestRail, soluções Smartbear, etc. Conhecimento em banco de dados para consultas SQL Facilidade para trabalhar em equipe. Comunicação clara e eficaz.
+Empresa .....:  Amar Assist.</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Analista de teste/QA || Descrição do Cargo Desenvolver planos de testes detalhados com base nos requisitos do software e nas especificações do projeto. Isso inclui definir os objetivos, abordagens, recursos e cronogramas de testes Realizar testes manuais ou automatizados conforme os casos de teste e documentar os resultados das execuções Desenvolver e manter scripts de automação para efetuar testes repetitivos Conduzir testes de regressão Executar testes unitários  Qualificações Superior completo em desenvolvimento de sistemas ou em áreas relacionadas Experiência comprovada de, ao menos, 1 ano como analista de teste ou Q.A. Conhecimento em ferramentas de automação, gestão e realização de testes, tais como: Selenium, Postman, Jira, TestRail, soluções Smartbear, etc. Conhecimento em banco de dados para consultas SQL Facilidade para trabalhar em equipe. Comunicação clara e eficaz. || Empresa .....:  Amar Assist.</t>
+        </is>
+      </c>
+      <c r="I506" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>83400</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Analista Desenvolvedor Full Cycle SR - AWS</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>Estamos em busca de profissionais desenvolvedores(as) Full Cycle com especialidade em Cloud AWS, apaixonados(as) por tecnologia, com espírito inovador e atitude proativa, para nos ajudar a compor a área de precificação auto e seus projetos.  Responsabilidades Implementar soluções em AWS, incluindo uso de serviços como Lambda, API Gateway, Step Functions, S3, CloudWatch, entre outros Criar e manter APIs serverless (Lambda) utilizando TypeScript Trabalhar com DynamoDB, Oracle e PL/SQL quando necessário Desenvolver e manter APIs back-end robustas e escaláveis em Java Spring Boot Implementar testes unitários, garantindo qualidade e cobertura de código Colaborar em ambientes com Kubernetes (EKS) Participar ativamente das cerimônias ágeis (Scrum), contribuindo para a resolução de desafios técnicos e entregas Investigar problemas de ponta a ponta, analisando e depurando o código do projeto
+Empresa .....:  SYSMAP SOLUTIONS SOFTWARE E CONSULT LTDA</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Analista Desenvolvedor Full Cycle SR - AWS || Estamos em busca de profissionais desenvolvedores(as) Full Cycle com especialidade em Cloud AWS, apaixonados(as) por tecnologia, com espírito inovador e atitude proativa, para nos ajudar a compor a área de precificação auto e seus projetos.  Responsabilidades Implementar soluções em AWS, incluindo uso de serviços como Lambda, API Gateway, Step Functions, S3, CloudWatch, entre outros Criar e manter APIs serverless (Lambda) utilizando TypeScript Trabalhar com DynamoDB, Oracle e PL/SQL quando necessário Desenvolver e manter APIs back-end robustas e escaláveis em Java Spring Boot Implementar testes unitários, garantindo qualidade e cobertura de código Colaborar em ambientes com Kubernetes (EKS) Participar ativamente das cerimônias ágeis (Scrum), contribuindo para a resolução de desafios técnicos e entregas Investigar problemas de ponta a ponta, analisando e depurando o código do projeto || Empresa .....:  SYSMAP SOLUTIONS SOFTWARE E CONSULT LTDA</t>
+        </is>
+      </c>
+      <c r="I507" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>82880</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Analista Funcional Oracle EBS  (AR, AP, OM)</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>•	Experiência comprovada como Analista Funcional em projetos com Oracle EBS. •	Conhecimento funcional nos módulos financeiros e de faturamento (AR, AP, OM). •	Vivência com meios de pagamento: gateways, adquirentes, APIs de pagamento, conciliação. •	Possuir conhecimento de API, ler uma API, estruturar uma documentação, estrutura de microserviços. •	Conhecimento em Banco de dados Oracle fazer uma Query executar Script, fazer análise. •	Nuvem – noção de AWS, OCI, Oracle Cloud. •	Capacidade de traduzir requisitos de negócio em especificações funcionais claras. •	Habilidade de comunicação com áreas técnicas e não técnicas. •	Boa visão analítica sobre produtos.
+Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Analista Funcional Oracle EBS  (AR, AP, OM) || •	Experiência comprovada como Analista Funcional em projetos com Oracle EBS. •	Conhecimento funcional nos módulos financeiros e de faturamento (AR, AP, OM). •	Vivência com meios de pagamento: gateways, adquirentes, APIs de pagamento, conciliação. •	Possuir conhecimento de API, ler uma API, estruturar uma documentação, estrutura de microserviços. •	Conhecimento em Banco de dados Oracle fazer uma Query executar Script, fazer análise. •	Nuvem – noção de AWS, OCI, Oracle Cloud. •	Capacidade de traduzir requisitos de negócio em especificações funcionais claras. •	Habilidade de comunicação com áreas técnicas e não técnicas. •	Boa visão analítica sobre produtos. || Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="I508" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>83392</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Analista Requisitos Pleno</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>Buscamos para nosso quadro de consultores:  Analista de requisitos em nível PLENO. Experiência com ferramentas de BI (Power BI, Tableau, Qlikview). Conhecimento em requisitos  e negócio com modelagem de processos Experiência com APIs e integração de sistemas.  Vaga presencial de  Segunda as sextas feiras , próximo ao metrô Pinheiros.  Tem estacionamento e refeição gratuita no local. Contratação Pessoa Jurídica, inicio imediato.
+Empresa .....:  Inex Consultoria de Informática</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Analista Requisitos Pleno || Buscamos para nosso quadro de consultores:  Analista de requisitos em nível PLENO. Experiência com ferramentas de BI (Power BI, Tableau, Qlikview). Conhecimento em requisitos  e negócio com modelagem de processos Experiência com APIs e integração de sistemas.  Vaga presencial de  Segunda as sextas feiras , próximo ao metrô Pinheiros.  Tem estacionamento e refeição gratuita no local. Contratação Pessoa Jurídica, inicio imediato. || Empresa .....:  Inex Consultoria de Informática</t>
+        </is>
+      </c>
+      <c r="I509" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>82943</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Arquiteto de Soluções  - Hibrido em SP</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>Arquiteto(a) de Soluções Atuação de forma Hibrida  3x presencial no cliente  na Zona Sul - SP  Buscamos prestadores de serviços para contrato de  Arquitetura de Soluções  • Experiência em arquitetura de soluções digitais ou corporativas, preferencialmente em grandes empresas ou telecomunicações. • Domínio de AWS (Lambda, ECS/Fargate, API Gateway, SQS, DynamoDB, etc.) ou plataformas equivalentes. • Frameworks e tecnologias modernas de desenvolvimento (Java, Spring Boot, Node.js, React/Angular). • Conhecimento em microsserviços, containers (Docker/Kubernetes) e integrações REST/GraphQL. • Vivência com CI/CD, Infraestrutura como Código (Terraform, CloudFormation), observabilidade (Grafana, Prometheus, CloudWatch) e cultura Data-Driven . • Noções sólidas de segurança em nuvem, IAM e compliance. • Experiência com metodologias ágeis (Scrum, Kanban).
+Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Arquiteto de Soluções  - Hibrido em SP || Arquiteto(a) de Soluções Atuação de forma Hibrida  3x presencial no cliente  na Zona Sul - SP  Buscamos prestadores de serviços para contrato de  Arquitetura de Soluções  • Experiência em arquitetura de soluções digitais ou corporativas, preferencialmente em grandes empresas ou telecomunicações. • Domínio de AWS (Lambda, ECS/Fargate, API Gateway, SQS, DynamoDB, etc.) ou plataformas equivalentes. • Frameworks e tecnologias modernas de desenvolvimento (Java, Spring Boot, Node.js, React/Angular). • Conhecimento em microsserviços, containers (Docker/Kubernetes) e integrações REST/GraphQL. • Vivência com CI/CD, Infraestrutura como Código (Terraform, CloudFormation), observabilidade (Grafana, Prometheus, CloudWatch) e cultura Data-Driven . • Noções sólidas de segurança em nuvem, IAM e compliance. • Experiência com metodologias ágeis (Scrum, Kanban). || Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I510" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>83027</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Assistente Comercial</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>A Emphasys it Services contrata :  Atividades:  •	Atuar na prospecção ativa de novos clientes com foco em alocação de profissionais principalmente no ramo tecnologia. •	Conduzir o ciclo completo de vendas: identificação da oportunidade, abordagem, proposta, negociação e fechamento. •	Desenvolver estratégias para aquisição de novos clientes, expansão de contas existentes e garantindo o atingimento das metas de receita e rentabilidade. •	Elaborar e executar o plano estratégico comercial para serviços de outsourcing de TI. •	Gerenciar o pipeline de vendas, garantindo previsibilidade e cumprimento das metas. •	Negociar contratos e condições comerciais, assegurando margens adequadas e conformidade com políticas internas. •	Experiência comprovada em vendas consultivas de serviços de alocação de profissionais (bodyshop)  principalmente de Tecnologia da Informação (Infraestrutura, Networking, Desenvolvedores, Gerentes, Suporte etc...).  COntratação imediata
+Empresa .....:  Emphasys</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Assistente Comercial || A Emphasys it Services contrata :  Atividades:  •	Atuar na prospecção ativa de novos clientes com foco em alocação de profissionais principalmente no ramo tecnologia. •	Conduzir o ciclo completo de vendas: identificação da oportunidade, abordagem, proposta, negociação e fechamento. •	Desenvolver estratégias para aquisição de novos clientes, expansão de contas existentes e garantindo o atingimento das metas de receita e rentabilidade. •	Elaborar e executar o plano estratégico comercial para serviços de outsourcing de TI. •	Gerenciar o pipeline de vendas, garantindo previsibilidade e cumprimento das metas. •	Negociar contratos e condições comerciais, assegurando margens adequadas e conformidade com políticas internas. •	Experiência comprovada em vendas consultivas de serviços de alocação de profissionais (bodyshop)  principalmente de Tecnologia da Informação (Infraestrutura, Networking, Desenvolvedores, Gerentes, Suporte etc...).  COntratação imediata || Empresa .....:  Emphasys</t>
+        </is>
+      </c>
+      <c r="I511" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>82977</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Assistente Técnico Eletrônico Jr</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>Ter cursado: Técnico em Eletrônica Saber soldar SMD para manutenção Saber eletrônica para avaliação do defeito Saber a língua portuguesa escrita e falada Saber trabalhar em equipe e seguir a Hierarquia  Desejável: Saber utilizar instrumentos como multímetro e fonte de bancada Inglês básico/intermediário Algum conhecimento de programação, C++, PHP, Java Script, HTML, CSS e SQL Saber programar micro controlador Arduino e ESP32  Atividades: Auxiliar na manutenção preventiva e corretiva de equipamentos eletrônicos com microprocessadores, realizar troca de peças, algumas sendo SMD, realizar testes funcionais, preencher relatórios técnicos e ordens de serviço, auxiliar na organização do laboratório, auxiliar no atendimento e suporte ao cliente e expedição de equipamentos.  Oferecemos Salario de R$ 1.650,00 + VT, VR.  Este valor poderá ser negociado Este é um cargo de tempo integral e requer presença no local. Enviar Currículo com pretensão salarial dentro do razoável
+Empresa .....:  DM System Informática Ltda</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Assistente Técnico Eletrônico Jr || Ter cursado: Técnico em Eletrônica Saber soldar SMD para manutenção Saber eletrônica para avaliação do defeito Saber a língua portuguesa escrita e falada Saber trabalhar em equipe e seguir a Hierarquia  Desejável: Saber utilizar instrumentos como multímetro e fonte de bancada Inglês básico/intermediário Algum conhecimento de programação, C++, PHP, Java Script, HTML, CSS e SQL Saber programar micro controlador Arduino e ESP32  Atividades: Auxiliar na manutenção preventiva e corretiva de equipamentos eletrônicos com microprocessadores, realizar troca de peças, algumas sendo SMD, realizar testes funcionais, preencher relatórios técnicos e ordens de serviço, auxiliar na organização do laboratório, auxiliar no atendimento e suporte ao cliente e expedição de equipamentos.  Oferecemos Salario de R$ 1.650,00 + VT, VR.  Este valor poderá ser negociado Este é um cargo de tempo integral e requer presença no local. Enviar Currículo com pretensão salarial dentro do razoável || Empresa .....:  DM System Informática Ltda</t>
+        </is>
+      </c>
+      <c r="I512" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Consultor Devops Pleno c/ Inglês</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr"/>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Consultor Devops Pleno c/ Inglês</t>
+        </is>
+      </c>
+      <c r="I513" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>82638</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>Não Informado</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr"/>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I514" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>82451</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Consultor SAP ABAP</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>Estamos buscando um Consultor Especialista em ABAP com experiências em:  Fiori, IDOCS, APPIs, Smartforms, Sapscript, Adobe form, Method and Class, Reports, Dinamic developments, Excel creation e ALV reports O candidato deve realizar DEBUG em Standar Code, conhecer S4Hana e ECC, analisar e criar soluções com o usuário funcional e trabalhar qualquer requerimento com velocidade e qualidade.  Vaga híbrida - SP Enviar cv + pretensão PJ
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Consultor SAP ABAP || Estamos buscando um Consultor Especialista em ABAP com experiências em:  Fiori, IDOCS, APPIs, Smartforms, Sapscript, Adobe form, Method and Class, Reports, Dinamic developments, Excel creation e ALV reports O candidato deve realizar DEBUG em Standar Code, conhecer S4Hana e ECC, analisar e criar soluções com o usuário funcional e trabalhar qualquer requerimento com velocidade e qualidade.  Vaga híbrida - SP Enviar cv + pretensão PJ || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I515" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>82380</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Consultor SAP PP</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Consultor(a) SAP PP para atuar em um projeto desafiador alocado(a) em um dos nossos grandes clientes Se você tem experiência em projetos de rollout de template global e experiência no módulo PP, essa pode ser a sua próxima oportunidade  Local: São Bernardo do Campo/SP – modelo híbrido 2x Idioma: Inglês avançado (interações frequentes com o time na Alemanha)  Requisitos: Experiência sólida em projetos de rollout de template global (Europa #8594 Brasil) Forte atuação com o módulo SAP PP (Production Planning) no SAP ECC Experiência em modelagem e especificação de interfaces entre SAP e sistemas legados  Responsabilidades: Aplicação e adaptação do template global SAP para o contexto brasileiro Condução de apresentações para usuários locais Avaliação de aderência à operação nacional e ajustes de configuração específicos Elaboração de especificações funcionais para GAPs identificados Participação em testes técnicos etc...
+Empresa .....:  Conquest One</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Consultor SAP PP || Estamos em busca de um(a) Consultor(a) SAP PP para atuar em um projeto desafiador alocado(a) em um dos nossos grandes clientes Se você tem experiência em projetos de rollout de template global e experiência no módulo PP, essa pode ser a sua próxima oportunidade  Local: São Bernardo do Campo/SP – modelo híbrido 2x Idioma: Inglês avançado (interações frequentes com o time na Alemanha)  Requisitos: Experiência sólida em projetos de rollout de template global (Europa #8594 Brasil) Forte atuação com o módulo SAP PP (Production Planning) no SAP ECC Experiência em modelagem e especificação de interfaces entre SAP e sistemas legados  Responsabilidades: Aplicação e adaptação do template global SAP para o contexto brasileiro Condução de apresentações para usuários locais Avaliação de aderência à operação nacional e ajustes de configuração específicos Elaboração de especificações funcionais para GAPs identificados Participação em testes técnicos etc... || Empresa .....:  Conquest One</t>
+        </is>
+      </c>
+      <c r="I516" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>82567</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Consultor SAP S/4HANA DRC</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>Responsável por atuar na implementação e sustentação de processos fiscais relacionados ao Document and Reporting Compliance (DRC) no SAP S/4HANA, com foco em documentos fiscais eletrônicos de entrada (Inbound) e saída (Outbound).  Requisitos: Experiência comprovada com SAP S/4HANA DRC (Inbound e Outbound) Conhecimento em Localização Brasil (impostos, NF-e, processos fiscais) Experiência em integração via CPI ou GRC Inglês intermediário para leitura e escrita técnica  Diferenciais: Experiência prévia em projetos S/4HANA Greenfield ou Brownfield Conhecimento em cenários de eDocuments e automação fiscal.  Enviar cv e pretensão PJ
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Consultor SAP S/4HANA DRC || Responsável por atuar na implementação e sustentação de processos fiscais relacionados ao Document and Reporting Compliance (DRC) no SAP S/4HANA, com foco em documentos fiscais eletrônicos de entrada (Inbound) e saída (Outbound).  Requisitos: Experiência comprovada com SAP S/4HANA DRC (Inbound e Outbound) Conhecimento em Localização Brasil (impostos, NF-e, processos fiscais) Experiência em integração via CPI ou GRC Inglês intermediário para leitura e escrita técnica  Diferenciais: Experiência prévia em projetos S/4HANA Greenfield ou Brownfield Conhecimento em cenários de eDocuments e automação fiscal.  Enviar cv e pretensão PJ || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I517" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>82350</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>CONSULTOR SAP SD SÊNIOR - HÍBRIDO SÃO PAULO/SP</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO HÍBRIDA 2x POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP CONTRATAÇÃO CLT ou PJ  Requisitos:  - Superior completo na área de Tecnologia  - INGLÊS INTERMEDIÁRIO PARA ESCRITA - Experiência de no mínimo 6 anos ou mais nos dados abaixo: - Participação na aplicação de testes, análise de funcionalidade e elaboração de documentação técnica. - Implementação de notas técnicas e melhorias no módulo SD. - Profissional com experiência em suporte no modulo de SD e notas fiscais - Implementação de projetos relacionados a SD e Localização Brasil (standard e customizados). - Participação em testes unitários e integrados. - Sólidos conhecimentos ABAP para debug - Elaboração de especificação funcional e técnica  Desejável: - BTP/ DRC Outbound (Nfe) no modulo SD. - Participação em projetos de invoice Eletrônica ( países da América Latina ) para processo de Vendas
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || CONSULTOR SAP SD SÊNIOR - HÍBRIDO SÃO PAULO/SP || ATUAÇÃO HÍBRIDA 2x POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP CONTRATAÇÃO CLT ou PJ  Requisitos:  - Superior completo na área de Tecnologia  - INGLÊS INTERMEDIÁRIO PARA ESCRITA - Experiência de no mínimo 6 anos ou mais nos dados abaixo: - Participação na aplicação de testes, análise de funcionalidade e elaboração de documentação técnica. - Implementação de notas técnicas e melhorias no módulo SD. - Profissional com experiência em suporte no modulo de SD e notas fiscais - Implementação de projetos relacionados a SD e Localização Brasil (standard e customizados). - Participação em testes unitários e integrados. - Sólidos conhecimentos ABAP para debug - Elaboração de especificação funcional e técnica  Desejável: - BTP/ DRC Outbound (Nfe) no modulo SD. - Participação em projetos de invoice Eletrônica ( países da América Latina ) para processo de Vendas || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I518" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>83399</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Front-end Pleno</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>Atividades da Vaga: - Desenvolver e manter interfaces web modernas, responsivas e performáticas. - Criar componentes reutilizáveis e escaláveis, seguindo padrões de design system. - Implementar layouts com foco em usabilidade, acessibilidade e experiência do usuário. - Integrar aplicações front-end com APIs REST e serviços back-end, garantindo correto consumo de dados. - Realizar testes, correções e otimizações de performance das interfaces.  Requisitos da Vaga: - Experiência sólida com HTML, CSS, JavaScript e TypeScript. - Domínio de frameworks front-end como React, Angular ou Vue.js. - Experiência com consumo de APIs REST e integração de sistemas. - Vivência com bibliotecas de estilo e componentes (Material UI, Tailwind ou similares). - Conhecimentos em boas práticas de front-end, performance e acessibilidade.
+Empresa .....:  Be Solution</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Desenvolvedor Front-end Pleno || Atividades da Vaga: - Desenvolver e manter interfaces web modernas, responsivas e performáticas. - Criar componentes reutilizáveis e escaláveis, seguindo padrões de design system. - Implementar layouts com foco em usabilidade, acessibilidade e experiência do usuário. - Integrar aplicações front-end com APIs REST e serviços back-end, garantindo correto consumo de dados. - Realizar testes, correções e otimizações de performance das interfaces.  Requisitos da Vaga: - Experiência sólida com HTML, CSS, JavaScript e TypeScript. - Domínio de frameworks front-end como React, Angular ou Vue.js. - Experiência com consumo de APIs REST e integração de sistemas. - Vivência com bibliotecas de estilo e componentes (Material UI, Tailwind ou similares). - Conhecimentos em boas práticas de front-end, performance e acessibilidade. || Empresa .....:  Be Solution</t>
+        </is>
+      </c>
+      <c r="I519" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>82790</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack Go e Angular Sênior</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Posição: Desenvolvedor Full Stack Go e Angular Sênior Modelo: Totalmente Home Office Local: Até 100 km de São Paulo (para futura efetivação com reunião pontual em SP) Contratação: CLT + pacote de benefícios super atrativo  Experiências essenciais: +5 anos de experiência com Go +2 anos de experiência com Angular Versionamento com Git Estruturas de dados e algoritmos Observability e monitoramento em ambientes remotos Clean Code e Clean Architecture Mensageria: Kafka / RabbitMQ / SQS Automação com Maven Bancos de dados relacionais e não relacionais Modelagem de dados Testes unitários, integração e performance Formatos: XML, XSD, JSON Serviços Web: SOA, REST AWS Contêineres (Docker) Integrações: Conexão direta, XFB, CFT Segurança: Criptografia, Certificado Digital, Protocolo SPB Sistemas operacionais Linux/Unix  Diferencial: Conhecimento em Java
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Desenvolvedor Full Stack Go e Angular Sênior || Posição: Desenvolvedor Full Stack Go e Angular Sênior Modelo: Totalmente Home Office Local: Até 100 km de São Paulo (para futura efetivação com reunião pontual em SP) Contratação: CLT + pacote de benefícios super atrativo  Experiências essenciais: +5 anos de experiência com Go +2 anos de experiência com Angular Versionamento com Git Estruturas de dados e algoritmos Observability e monitoramento em ambientes remotos Clean Code e Clean Architecture Mensageria: Kafka / RabbitMQ / SQS Automação com Maven Bancos de dados relacionais e não relacionais Modelagem de dados Testes unitários, integração e performance Formatos: XML, XSD, JSON Serviços Web: SOA, REST AWS Contêineres (Docker) Integrações: Conexão direta, XFB, CFT Segurança: Criptografia, Certificado Digital, Protocolo SPB Sistemas operacionais Linux/Unix  Diferencial: Conhecimento em Java || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I520" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>83112</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Low-Code</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Low-Code Buscamos um profissional com experiência no ecossistema Microsoft 365 para um projeto de transformação digital. O objetivo principal é a eliminação de processos manuais através da criação de fluxos automatizados, garantindo rastreabilidade e centralização de dados. Análise e Desenho Desenvolvimento Low-Code: Criar aplicativos (Power Apps) e fluxos de automação (Power Automate) robustos. Segurança e Acessos Power Automate: Domínio em fluxos de aprovação complexos (Approvals) e integrações. Power Apps: Experiência em Canvas Apps (aplicativos de tela). SharePoint: Ecossistema MS
+Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Desenvolvedor Low-Code || Desenvolvedor Low-Code Buscamos um profissional com experiência no ecossistema Microsoft 365 para um projeto de transformação digital. O objetivo principal é a eliminação de processos manuais através da criação de fluxos automatizados, garantindo rastreabilidade e centralização de dados. Análise e Desenho Desenvolvimento Low-Code: Criar aplicativos (Power Apps) e fluxos de automação (Power Automate) robustos. Segurança e Acessos Power Automate: Domínio em fluxos de aprovação complexos (Approvals) e integrações. Power Apps: Experiência em Canvas Apps (aplicativos de tela). SharePoint: Ecossistema MS || Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="I521" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>83401</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Python SR</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>Estamos em busca de profissionais desenvolvedores(as) Full Cycle com especialidade em Cloud AWS, apaixonados(as) por tecnologia, com espírito inovador e atitude proativa, para nos ajudar a compor a área de precificação auto e seus projetos.  *Hibrida de 1 a 2 vezes na semana em Pinheiros*  Responsabilidades  Implementar soluções em AWS, incluindo uso de serviços como Lambda, API Gateway, Step Functions, S3, CloudWatch, entre outros Criar e manter APIs serverless (Lambda) utilizando TypeScript Trabalhar com DynamoDB, Oracle e PL/SQL quando necessário Desenvolver e manter APIs back-end robustas e escaláveis em Java Spring Boot Implementar testes unitários, garantindo qualidade e cobertura de código Colaborar em ambientes com Kubernetes (EKS) Participar ativamente das cerimônias ágeis (Scrum), contribuindo para a resolução de desafios técnicos e entregas.
+Empresa .....:  SYSMAP SOLUTIONS SOFTWARE E CONSULT LTDA</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Desenvolvedor Python SR || Estamos em busca de profissionais desenvolvedores(as) Full Cycle com especialidade em Cloud AWS, apaixonados(as) por tecnologia, com espírito inovador e atitude proativa, para nos ajudar a compor a área de precificação auto e seus projetos.  *Hibrida de 1 a 2 vezes na semana em Pinheiros*  Responsabilidades  Implementar soluções em AWS, incluindo uso de serviços como Lambda, API Gateway, Step Functions, S3, CloudWatch, entre outros Criar e manter APIs serverless (Lambda) utilizando TypeScript Trabalhar com DynamoDB, Oracle e PL/SQL quando necessário Desenvolver e manter APIs back-end robustas e escaláveis em Java Spring Boot Implementar testes unitários, garantindo qualidade e cobertura de código Colaborar em ambientes com Kubernetes (EKS) Participar ativamente das cerimônias ágeis (Scrum), contribuindo para a resolução de desafios técnicos e entregas. || Empresa .....:  SYSMAP SOLUTIONS SOFTWARE E CONSULT LTDA</t>
+        </is>
+      </c>
+      <c r="I522" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>82782</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) Full-Stack SR</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) Full-Stack – Marfrig  Presencial – Torre Jequitibá (Av. das Nações Unidas)  Buscamos profissional com forte domínio em .NET Core 6, Blazor, MVC, Xamarin, desenvolvimento mobile e modernização para MAUI. Atuação em soluções escaláveis, com uso de REST, GRPC, Minimal APIs, arquitetura distribuída, SOLID, Design Patterns, DevSecOps, documentação UML e metodologias ágeis.  Necessário conhecimento em SQL Server, MongoDB, mensageria com RabbitMQ e Redis, boas práticas de segurança e modelagem de sistemas. Diferenciais: Apache Ignite, Hexagonal, Event Sourcing, Kafka, GraphQL, OAuth2/OpenID, TDD e WebAssembly.  Atuação Totalmente presencial, colaborando com times multidisciplinares. Início imediato.
+Empresa .....:  Icon</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Desenvolvedor(a) Full-Stack SR || Desenvolvedor(a) Full-Stack – Marfrig  Presencial – Torre Jequitibá (Av. das Nações Unidas)  Buscamos profissional com forte domínio em .NET Core 6, Blazor, MVC, Xamarin, desenvolvimento mobile e modernização para MAUI. Atuação em soluções escaláveis, com uso de REST, GRPC, Minimal APIs, arquitetura distribuída, SOLID, Design Patterns, DevSecOps, documentação UML e metodologias ágeis.  Necessário conhecimento em SQL Server, MongoDB, mensageria com RabbitMQ e Redis, boas práticas de segurança e modelagem de sistemas. Diferenciais: Apache Ignite, Hexagonal, Event Sourcing, Kafka, GraphQL, OAuth2/OpenID, TDD e WebAssembly.  Atuação Totalmente presencial, colaborando com times multidisciplinares. Início imediato. || Empresa .....:  Icon</t>
+        </is>
+      </c>
+      <c r="I523" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>83192</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) WMS – Squad Logística</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>Desenvolvedor WMS – Plataforma Korber (HighJump) – Híbrido (3x presenciais) – CLT + Benefícios  Atue no desenvolvimento e evolução da jornada logística, garantindo performance, escalabilidade e qualidade. Você irá desenvolver e manter soluções na plataforma Korber, corrigir bugs, otimizar processos logísticos, aplicar boas práticas de arquitetura, criar consultas em T-SQL/SQL Server, implementar integrações via APIs e Web Services, apoiar integrações com ERP Totvs e dispositivos de automação logística (RF, voice picking, esteiras). Também participará de cerimônias ágeis, gerenciará releases, desenvolverá testes unitários e automatizados, e documentará soluções técnicas.  Requisitos: Experiência em WMS, T-SQL/SQL Server, .NET/C#, versionamento de código e code review, arquitetura de aplicações, integrações com dispositivos de automação e ERP Totvs, conhecimento sólido em processos logísticos e SOA.
+Empresa .....:  Conquest One</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Desenvolvedor(a) WMS – Squad Logística || Desenvolvedor WMS – Plataforma Korber (HighJump) – Híbrido (3x presenciais) – CLT + Benefícios  Atue no desenvolvimento e evolução da jornada logística, garantindo performance, escalabilidade e qualidade. Você irá desenvolver e manter soluções na plataforma Korber, corrigir bugs, otimizar processos logísticos, aplicar boas práticas de arquitetura, criar consultas em T-SQL/SQL Server, implementar integrações via APIs e Web Services, apoiar integrações com ERP Totvs e dispositivos de automação logística (RF, voice picking, esteiras). Também participará de cerimônias ágeis, gerenciará releases, desenvolverá testes unitários e automatizados, e documentará soluções técnicas.  Requisitos: Experiência em WMS, T-SQL/SQL Server, .NET/C#, versionamento de código e code review, arquitetura de aplicações, integrações com dispositivos de automação e ERP Totvs, conhecimento sólido em processos logísticos e SOA. || Empresa .....:  Conquest One</t>
+        </is>
+      </c>
+      <c r="I524" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>83269</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Engenheiro de IA  Python - Sr</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>- Experiência comprovada com IA: Profissional com experiência comprovada com soluções de IA. - Conhecimento em RAG, MCP, Frameworks Python (LangChain, LangGraph, CrewAI, Agno IA). - Experiência com APIs: APIs REST, WebServices SOAP, FastAPI - Experiência Sênior em Python: Vasta experiência no desenvolvimento de soluções robustas com Python, especialmente com bibliotecas focadas em dados e IA. - Manipulação de Dados: Proficiência comprovada em todo o pipeline de análise de dados, desde a coleta e limpeza e visualização (exemplo: SQL Server, CosmosDB, e outros), tratamento de dados não estruturados (texto, áudio e imagem). - Habilidades de Comunicação: Excelentes habilidades de comunicação verbal e escrita, com  capacidade de liderar discussões técnicas e apresentar projetos de forma eficaz. - Levantamento de requisitos: Experiência prática no levantamento e documentação de requisitos funcionais e não funcionais junto à áreas de negócio.
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Engenheiro de IA  Python - Sr || - Experiência comprovada com IA: Profissional com experiência comprovada com soluções de IA. - Conhecimento em RAG, MCP, Frameworks Python (LangChain, LangGraph, CrewAI, Agno IA). - Experiência com APIs: APIs REST, WebServices SOAP, FastAPI - Experiência Sênior em Python: Vasta experiência no desenvolvimento de soluções robustas com Python, especialmente com bibliotecas focadas em dados e IA. - Manipulação de Dados: Proficiência comprovada em todo o pipeline de análise de dados, desde a coleta e limpeza e visualização (exemplo: SQL Server, CosmosDB, e outros), tratamento de dados não estruturados (texto, áudio e imagem). - Habilidades de Comunicação: Excelentes habilidades de comunicação verbal e escrita, com  capacidade de liderar discussões técnicas e apresentar projetos de forma eficaz. - Levantamento de requisitos: Experiência prática no levantamento e documentação de requisitos funcionais e não funcionais junto à áreas de negócio. || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I525" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>82761</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Engenheiro de Machine Learning Pleno</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>Requisitos Obrigatórios: - Certificação Professional Machine Learning Engineer - Google Cloud. - Experiência com frameworks de ML como TensorFlow, PyTorch, Scikit-learn e XGBoost. - Conhecimento avançado em Python e SQL. - Experiência com Google Cloud AI  Data Services (Vertex AI, BigQuery ML, AutoML, Dataflow, Dataproc, AI Platform). - Prática em MLOps e deployment de modelos escaláveis. - Experiência com pipelines de dados e processamento distribuído (Spark, Beam). - Familiaridade com conceitos de Explainable AI, fairness e mitigação de bias.
+Empresa .....:  Be Solution</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Engenheiro de Machine Learning Pleno || Requisitos Obrigatórios: - Certificação Professional Machine Learning Engineer - Google Cloud. - Experiência com frameworks de ML como TensorFlow, PyTorch, Scikit-learn e XGBoost. - Conhecimento avançado em Python e SQL. - Experiência com Google Cloud AI  Data Services (Vertex AI, BigQuery ML, AutoML, Dataflow, Dataproc, AI Platform). - Prática em MLOps e deployment de modelos escaláveis. - Experiência com pipelines de dados e processamento distribuído (Spark, Beam). - Familiaridade com conceitos de Explainable AI, fairness e mitigação de bias. || Empresa .....:  Be Solution</t>
+        </is>
+      </c>
+      <c r="I526" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>83096</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>ENGENHEIRO MACHINE LEARNING - INGLÊS AVANÇADO</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO Totalmente REMOTA CONTRATAÇÃO PJ  Requisitos Técnicos: - INGLÊS AVANÇADO (MANDATÓRIO) - Linguagens: Python (avançado), SQL. - Cloud: Experiência comprovada com Microsoft Azure, incluindo: Azure Databricks Azure Data Lake Storage (ADLS) Azure Data Factory (ADF) Azure DevOps (pipelines CI/CD, versionamento e automação) Azure Key Vault, Azure Monitor. - Frameworks e ferramentas de dados: Spark, Delta Lake, MLflow, Unity Catalog, Databricks. Infraestrutura como código (IaC): Terraform. Versionamento e colaboração: Azure Devops, Git. Armazenamento e mensageria: Event Hubs, Kafka, Cosmos DB, Blob Storage.  Responsabilidades: - Desenvolver e manter o Feature Store — componente central da plataforma de ML do cliente, que armazena, serve e versiona features de machine learning. Evoluir a arquitetura do Feature Store, garantindo alta performance, escalabilidade e baixo acoplamento, com foco em ambientes baseados em Azure.
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || ENGENHEIRO MACHINE LEARNING - INGLÊS AVANÇADO || ATUAÇÃO Totalmente REMOTA CONTRATAÇÃO PJ  Requisitos Técnicos: - INGLÊS AVANÇADO (MANDATÓRIO) - Linguagens: Python (avançado), SQL. - Cloud: Experiência comprovada com Microsoft Azure, incluindo: Azure Databricks Azure Data Lake Storage (ADLS) Azure Data Factory (ADF) Azure DevOps (pipelines CI/CD, versionamento e automação) Azure Key Vault, Azure Monitor. - Frameworks e ferramentas de dados: Spark, Delta Lake, MLflow, Unity Catalog, Databricks. Infraestrutura como código (IaC): Terraform. Versionamento e colaboração: Azure Devops, Git. Armazenamento e mensageria: Event Hubs, Kafka, Cosmos DB, Blob Storage.  Responsabilidades: - Desenvolver e manter o Feature Store — componente central da plataforma de ML do cliente, que armazena, serve e versiona features de machine learning. Evoluir a arquitetura do Feature Store, garantindo alta performance, escalabilidade e baixo acoplamento, com foco em ambientes baseados em Azure. || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I527" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>83398</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Especialista CMDB</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>Requisitos: Ensino Superior completo em TI e afins Experiência com ServiceNow Experiência com gestão de CMDB Conhecimento do módulo de Discovery ITOM da Service Now Criação de Dashboards e Reports no ServiceNow Estrutura de dados da CMDB e relacionamento de Itens de Configuração Noções de lógica de programação e scripts Performance Analytics (diferencial) Integrações e automações no Service Now (diferencial)  *** Vaga híbrida no cliente, com 2x na semana, em Interlagos/SP. ****
+Empresa .....:  TO BRASIL</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Especialista CMDB || Requisitos: Ensino Superior completo em TI e afins Experiência com ServiceNow Experiência com gestão de CMDB Conhecimento do módulo de Discovery ITOM da Service Now Criação de Dashboards e Reports no ServiceNow Estrutura de dados da CMDB e relacionamento de Itens de Configuração Noções de lógica de programação e scripts Performance Analytics (diferencial) Integrações e automações no Service Now (diferencial)  *** Vaga híbrida no cliente, com 2x na semana, em Interlagos/SP. **** || Empresa .....:  TO BRASIL</t>
+        </is>
+      </c>
+      <c r="I528" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>82566</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Especialista SUSE Rancher</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>Consultor SUSE RANCHER  PJ: em torno de R$140/ 150h (negociável) Local: São Paulo - Zona Sul Formação superior  Experiência comprovada mínima de 5 anos, para atuação presencial (em horário comercial) junto ao time de Suporte Técnico da Claro Gestão de Incidentes Atuação em War Room Gestão de Atualizações Intermediação de Chamados relativos a Incidentes junto ao fornecedor SUSE Orientação do time de Suporte Técnico da Claro na execução de ajustes e atualizações FollowUp semanal de Incidentes Análise de RCA de Incidentes Certificações mínimas necessárias:  LFCS - Linux Foundation Certified System Administrator CCA – Cilium Certified Associate CKS - Certified Kubernetes Security Specialist CKA - Certified Kubernetes Administrator ITIL Foundation IT Service Management V2
+Empresa .....:  We Hunt Recrutamento e Selecao</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Especialista SUSE Rancher || Consultor SUSE RANCHER  PJ: em torno de R$140/ 150h (negociável) Local: São Paulo - Zona Sul Formação superior  Experiência comprovada mínima de 5 anos, para atuação presencial (em horário comercial) junto ao time de Suporte Técnico da Claro Gestão de Incidentes Atuação em War Room Gestão de Atualizações Intermediação de Chamados relativos a Incidentes junto ao fornecedor SUSE Orientação do time de Suporte Técnico da Claro na execução de ajustes e atualizações FollowUp semanal de Incidentes Análise de RCA de Incidentes Certificações mínimas necessárias:  LFCS - Linux Foundation Certified System Administrator CCA – Cilium Certified Associate CKS - Certified Kubernetes Security Specialist CKA - Certified Kubernetes Administrator ITIL Foundation IT Service Management V2 || Empresa .....:  We Hunt Recrutamento e Selecao</t>
+        </is>
+      </c>
+      <c r="I529" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>82749</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>SDR - Remoto  PJ</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>Estamos aumentando  nosso time Comercial.  Está em busca de novos desafios? Tem experiência como SDR ofertando serviços de TI? (Obrigatório, ok?)  Oferecemos:  - Ambiente altamente colaborativo  - Atuação Totalmente Remoto  - Fixo  - Bonificação por fechamentos.  Contratação PJ.
+Empresa .....:  Ritec Informática Ltda</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || SDR - Remoto  PJ || Estamos aumentando  nosso time Comercial.  Está em busca de novos desafios? Tem experiência como SDR ofertando serviços de TI? (Obrigatório, ok?)  Oferecemos:  - Ambiente altamente colaborativo  - Atuação Totalmente Remoto  - Fixo  - Bonificação por fechamentos.  Contratação PJ. || Empresa .....:  Ritec Informática Ltda</t>
+        </is>
+      </c>
+      <c r="I530" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>82457</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Tech Recruiter</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>Requisitos: Experiência comprovada na área de RS com ênfase em candidatos de TI e/ou posições estratégicas Ensino superior cursando ou completo em: Administração, Recursos Humanos, Psicologia ou áreas similares Facilidade em conduzir processos seletivos de ponta a ponta, desde o alinhamento da vaga até a aprovação do candidato Inglês ou Espanhol avançado.  Dia a dia: Alinhamento da vaga com os clientes, quando necessário Triagem de perfis e entrevistas iniciais Formatação de currículos no perfil TOPMIND Validação de idioma, quando necessário Realização de parecer de perfil dos candidatos para envio aos clientes Atuar como ponto de contato entre candidatos e gestores/clientes Agendamento de entrevista com cliente e abertura de entrevista Utilizar ferramentas de recrutamento (ATS, LinkedIn, banco de talentos) para mapear e atrair candidatos.  Híbrido - 2x presencial SP (Brooklin) Contratação PJ Enviar cv e pretensão
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 24/01/26 || Tech Recruiter || Requisitos: Experiência comprovada na área de RS com ênfase em candidatos de TI e/ou posições estratégicas Ensino superior cursando ou completo em: Administração, Recursos Humanos, Psicologia ou áreas similares Facilidade em conduzir processos seletivos de ponta a ponta, desde o alinhamento da vaga até a aprovação do candidato Inglês ou Espanhol avançado.  Dia a dia: Alinhamento da vaga com os clientes, quando necessário Triagem de perfis e entrevistas iniciais Formatação de currículos no perfil TOPMIND Validação de idioma, quando necessário Realização de parecer de perfil dos candidatos para envio aos clientes Atuar como ponto de contato entre candidatos e gestores/clientes Agendamento de entrevista com cliente e abertura de entrevista Utilizar ferramentas de recrutamento (ATS, LinkedIn, banco de talentos) para mapear e atrair candidatos.  Híbrido - 2x presencial SP (Brooklin) Contratação PJ Enviar cv e pretensão || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I531" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>82443</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Android</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>Sorocaba - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>Desenvolvedor de Software (Android)  Principais Atividades: Desenvolver e manter aplicativos móveis Android. Colaborar com designers e equipes multidisciplinares para transformar requisitos de negócio em soluções técnicas. Aplicar boas práticas de desenvolvimento para garantir qualidade, eficiência e segurança do código. Participar de revisões de código, oferecendo feedbacks construtivos.  Requisitos Obrigatórios: Inglês avançado, necessário para comunicação com o time internacional. A entrevista também será realizada em inglês. Experiência com as tecnologias: Kotlin, Jetpack Compose, Gradle e GitLab. Sólida base em Jetpack Compose. Conhecimento intermediário/avançado em Kotlin, com foco em Async Contexts. Noções básicas de testes unitários em Android (JVM). Conhecimento básico/intermediário em configuração de Gradle.
+Empresa .....:  Formel D</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Sorocaba - SP - 24/01/26 || Desenvolvedor Android || Desenvolvedor de Software (Android)  Principais Atividades: Desenvolver e manter aplicativos móveis Android. Colaborar com designers e equipes multidisciplinares para transformar requisitos de negócio em soluções técnicas. Aplicar boas práticas de desenvolvimento para garantir qualidade, eficiência e segurança do código. Participar de revisões de código, oferecendo feedbacks construtivos.  Requisitos Obrigatórios: Inglês avançado, necessário para comunicação com o time internacional. A entrevista também será realizada em inglês. Experiência com as tecnologias: Kotlin, Jetpack Compose, Gradle e GitLab. Sólida base em Jetpack Compose. Conhecimento intermediário/avançado em Kotlin, com foco em Async Contexts. Noções básicas de testes unitários em Android (JVM). Conhecimento básico/intermediário em configuração de Gradle. || Empresa .....:  Formel D</t>
+        </is>
+      </c>
+      <c r="I532" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>83389</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Técnico de Automação - ATM</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>Três Lagoas - MS - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>A Randstad, líder mundial em soluções de RH, recruta Técnico de Campo (ATMs) para Três Lagoas - MS para multinacional americana líder em tecnologia de caixas eletrônicos. O profissional atuará na instalação, manutenção e reparo de equipamentos para garantir a operação contínua do cliente.  Principais Atividades: - Manutenção preventiva e corretiva (Nível I) em ATMs, PCs, POS e periféricos. - Diagnóstico de problemas, substituição de módulos e preparação de local (cabos/testes). - Atendimento e relacionamento direto com o cliente.  Requisitos: - Ensino Médio Técnico completo. - Experiência em manutenção de hardware de PC e sistema Windows. - Conhecimento em Pacote Office.  Diferencial: Certificação A+ ITE ou formação em Eletrônica/Comunicações.  Detalhes da Vaga: - Contrato: CLT por tempo indeterminado (direto com a empresa). - Horário: Segunda a sexta, das 09h às 18h. - Local: Três Lagoas, MS.
+Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>Três Lagoas - MS - 24/01/26 || Técnico de Automação - ATM || A Randstad, líder mundial em soluções de RH, recruta Técnico de Campo (ATMs) para Três Lagoas - MS para multinacional americana líder em tecnologia de caixas eletrônicos. O profissional atuará na instalação, manutenção e reparo de equipamentos para garantir a operação contínua do cliente.  Principais Atividades: - Manutenção preventiva e corretiva (Nível I) em ATMs, PCs, POS e periféricos. - Diagnóstico de problemas, substituição de módulos e preparação de local (cabos/testes). - Atendimento e relacionamento direto com o cliente.  Requisitos: - Ensino Médio Técnico completo. - Experiência em manutenção de hardware de PC e sistema Windows. - Conhecimento em Pacote Office.  Diferencial: Certificação A+ ITE ou formação em Eletrônica/Comunicações.  Detalhes da Vaga: - Contrato: CLT por tempo indeterminado (direto com a empresa). - Horário: Segunda a sexta, das 09h às 18h. - Local: Três Lagoas, MS. || Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="I533" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>82628</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Especialista SAP ABAP</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>Vinhedo - SP - 24/01/26</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>Requisitos: Experiência em desenvolvimento ABAP, incluindo ABAP Clássico, ABAP Orientado a Objetos, ALV, BAPIs, BADIs, User Exits, RFCs, Web Services e SmartForms/Adobe Forms.  Conhecimento Funcional (Desejável): Familiaridade com módulos SAP como SD, MM e PP ou outros relevantes para o nosso negócio.  Visão Analítica: Habilidade para analisar problemas complexos e propor soluções eficientes e inovadoras. Efetuar levantamentos das necessidades de sistemas entrevistando o usuário e colhendo informações necessárias para a análise do sistema, desenvolvendo solução funcional e técnica para atender as necessidades preestabelecidas.  Formação: Graduação em Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas correlatas.  Inglês Avançado/Fluente.  Contratação: PJ Período: 6 meses de alocação Atuação: Hibrido, 2 dias presenciais em Vinhedo/SP, e 3 dias remoto.
+Empresa .....:  Taking Results</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>Vinhedo - SP - 24/01/26 || Especialista SAP ABAP || Requisitos: Experiência em desenvolvimento ABAP, incluindo ABAP Clássico, ABAP Orientado a Objetos, ALV, BAPIs, BADIs, User Exits, RFCs, Web Services e SmartForms/Adobe Forms.  Conhecimento Funcional (Desejável): Familiaridade com módulos SAP como SD, MM e PP ou outros relevantes para o nosso negócio.  Visão Analítica: Habilidade para analisar problemas complexos e propor soluções eficientes e inovadoras. Efetuar levantamentos das necessidades de sistemas entrevistando o usuário e colhendo informações necessárias para a análise do sistema, desenvolvendo solução funcional e técnica para atender as necessidades preestabelecidas.  Formação: Graduação em Ciência da Computação, Engenharia de Software, Sistemas de Informação ou áreas correlatas.  Inglês Avançado/Fluente.  Contratação: PJ Período: 6 meses de alocação Atuação: Hibrido, 2 dias presenciais em Vinhedo/SP, e 3 dias remoto. || Empresa .....:  Taking Results</t>
+        </is>
+      </c>
+      <c r="I534" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>83176</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) ADVPL Sênior</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>Alto Paraná - PR - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>Detalhes da Vaga Modelo: Presencial - Curitiba/PR Contratação: Cooperado Carga horária: Full-time  Segunda a sexta-feira  Horário comercial  Principais Responsabilidades Desenvolvimento e manutenção de aplicações em ADVPL/TL++ Desenvolvimento de Jobs e Schedules Desenvolvimento de Webservices e configurações Soap e Rest  Requisitos Conhecimento em Regras de Negócios Conhecimento em banco de dados SQL Conhecimento em programação de ADVPL/TL++
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>Alto Paraná - PR - 23/01/26 || Desenvolvedor(a) ADVPL Sênior || Detalhes da Vaga Modelo: Presencial - Curitiba/PR Contratação: Cooperado Carga horária: Full-time  Segunda a sexta-feira  Horário comercial  Principais Responsabilidades Desenvolvimento e manutenção de aplicações em ADVPL/TL++ Desenvolvimento de Jobs e Schedules Desenvolvimento de Webservices e configurações Soap e Rest  Requisitos Conhecimento em Regras de Negócios Conhecimento em banco de dados SQL Conhecimento em programação de ADVPL/TL++ || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I535" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>82261</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Analista de Storage</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>Gerenciamento de volumes em EVS, SFS e OBS. Implementação de políticas de retenção e recuperação. Validação de desempenho de IOPS e replicação. Armazenamento e Backup Implementação e administração de storages corporativos, NetApp Certified Data Administrator, Dell EMC Specialist, Huawei HCIP-Storage.  Inglês Avançado para conversação global  CLT Full Presencial Brasília - DF
+Empresa .....:  MOOT Consulting</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 23/01/26 || Analista de Storage || Gerenciamento de volumes em EVS, SFS e OBS. Implementação de políticas de retenção e recuperação. Validação de desempenho de IOPS e replicação. Armazenamento e Backup Implementação e administração de storages corporativos, NetApp Certified Data Administrator, Dell EMC Specialist, Huawei HCIP-Storage.  Inglês Avançado para conversação global  CLT Full Presencial Brasília - DF || Empresa .....:  MOOT Consulting</t>
+        </is>
+      </c>
+      <c r="I536" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>82962</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Consultor SAP FI Sênior Híbrido em Campinas/SP</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>Requisitos Obrigatórios:  Experiência de 5 anos em SAP FI – GL/AA/AR/AP/TR/Bank/NewGl/TV/Fiori/S4Hana Participação em projetos de Grande Porte Experiência com A.M.S Experiência de realização de Cargas de Dados Mestres de Ambiente utilizando LSMW/LTMC Conhecimentos de Localização Brazil Experiência em elaborção de especificações funcionais Conhecimentos de processos nas aréas Financeira e Contábil Configurações Experiência em Carga de Dados via LSMW, LTMC/LTMOM e Cockpit Migration Trabalho com Fiori e seus aplicativos Trabalho com BP.  Atividades: Atuar no atendimento de incidentes e demandas compartilhadas AMS.
+Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 23/01/26 || Consultor SAP FI Sênior Híbrido em Campinas/SP || Requisitos Obrigatórios:  Experiência de 5 anos em SAP FI – GL/AA/AR/AP/TR/Bank/NewGl/TV/Fiori/S4Hana Participação em projetos de Grande Porte Experiência com A.M.S Experiência de realização de Cargas de Dados Mestres de Ambiente utilizando LSMW/LTMC Conhecimentos de Localização Brazil Experiência em elaborção de especificações funcionais Conhecimentos de processos nas aréas Financeira e Contábil Configurações Experiência em Carga de Dados via LSMW, LTMC/LTMOM e Cockpit Migration Trabalho com Fiori e seus aplicativos Trabalho com BP.  Atividades: Atuar no atendimento de incidentes e demandas compartilhadas AMS. || Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="I537" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>82964</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Consultor SAP SD Sênior Híbrido em Campinas/SP</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>Requisitos Obrigatórios:  Domínio em Localização Brasil (Tax  Pricing): Sólido conhecimento em direitos fiscais, regras e fórmulas de cálculo de impostos, tipos de condições de preço e impostos (J1BTAX, VKOA), com foco em conformidade tributária no cenário brasileiro Especificações Técnicas e Estimativas: Elaboração de especificações funcionais e técnicas para desenvolvimento ABAP, além de estimativas de esforço e prazos para projetos e demandas Conhecimento em Business Partners (BP): Domínio dos processos de integração, manutenção e modelagem de Business Partners no ambiente SAP S/4HANA. Atuação em AMS e Projetos de Melhoria: Experiência em suporte (Application Management Services), correção de incidentes, gestão de demandas e implementação de melhorias contínuas nos processos SAP Liderança Técnica: Vivência na coordenação de equipes técnicas, definição de soluções, revisão de código e suporte estratégico em entregas de alta complexidade.
+Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 23/01/26 || Consultor SAP SD Sênior Híbrido em Campinas/SP || Requisitos Obrigatórios:  Domínio em Localização Brasil (Tax  Pricing): Sólido conhecimento em direitos fiscais, regras e fórmulas de cálculo de impostos, tipos de condições de preço e impostos (J1BTAX, VKOA), com foco em conformidade tributária no cenário brasileiro Especificações Técnicas e Estimativas: Elaboração de especificações funcionais e técnicas para desenvolvimento ABAP, além de estimativas de esforço e prazos para projetos e demandas Conhecimento em Business Partners (BP): Domínio dos processos de integração, manutenção e modelagem de Business Partners no ambiente SAP S/4HANA. Atuação em AMS e Projetos de Melhoria: Experiência em suporte (Application Management Services), correção de incidentes, gestão de demandas e implementação de melhorias contínuas nos processos SAP Liderança Técnica: Vivência na coordenação de equipes técnicas, definição de soluções, revisão de código e suporte estratégico em entregas de alta complexidade. || Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="I538" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>83118</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Consultor SAP BI SAC</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Cotia - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>SAP BI SAC - Mandatório Inglês - Full Home Office  Projetar e implementar modelos de dados escaláveis e visualizações no SAP Datasphere Desenvolver e gerenciar conexões de dados a partir de diversas fontes (SAP S/4HANA, BW, HANA, bancos de dados externos, APIs). Criar modelos de dados virtuais (VDMs), camadas semânticas e entidades de negócios para permitir o consumo no SAC e em outras ferramentas. Integrar o SAP Analytics Cloud (SAC) para painéis dinâmicos, histórias e aplicativos analíticos. Garantir a precisão, linhagem, segurança e conformidade dos dados dentro do framework do SAP SAC. Otimizar o desempenho de fluxos de dados, transformações e visualizações. Dar suporte às práticas de governança de dados e gerenciamento de metadados. Manter-se atualizado com o roadmap da SAP e as tecnologias emergentes no ecossistema da Business Technology Platform (BTP).
+Empresa .....:  Simply</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>Cotia - SP - 23/01/26 || Consultor SAP BI SAC || SAP BI SAC - Mandatório Inglês - Full Home Office  Projetar e implementar modelos de dados escaláveis e visualizações no SAP Datasphere Desenvolver e gerenciar conexões de dados a partir de diversas fontes (SAP S/4HANA, BW, HANA, bancos de dados externos, APIs). Criar modelos de dados virtuais (VDMs), camadas semânticas e entidades de negócios para permitir o consumo no SAC e em outras ferramentas. Integrar o SAP Analytics Cloud (SAC) para painéis dinâmicos, histórias e aplicativos analíticos. Garantir a precisão, linhagem, segurança e conformidade dos dados dentro do framework do SAP SAC. Otimizar o desempenho de fluxos de dados, transformações e visualizações. Dar suporte às práticas de governança de dados e gerenciamento de metadados. Manter-se atualizado com o roadmap da SAP e as tecnologias emergentes no ecossistema da Business Technology Platform (BTP). || Empresa .....:  Simply</t>
+        </is>
+      </c>
+      <c r="I539" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>83120</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>SAP Ariba</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>Cotia - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>Consultor SAP Ariba - Full remote  Buscamos um(a) profissional com experiência em SAP Ariba  para atuar em projetos de sustentação e integração de processos. O(a) consultor(a) será responsável por soluções que otimizem o fluxo de aprovação, garantindo eficiência, conformidade e automação no ciclo.  Qualificações Experiência comprovada com SAP Ariba Experiência em SAP Public Cloud Experiência Ariba e BTP é desejável
+Empresa .....:  Simply</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>Cotia - SP - 23/01/26 || SAP Ariba || Consultor SAP Ariba - Full remote  Buscamos um(a) profissional com experiência em SAP Ariba  para atuar em projetos de sustentação e integração de processos. O(a) consultor(a) será responsável por soluções que otimizem o fluxo de aprovação, garantindo eficiência, conformidade e automação no ciclo.  Qualificações Experiência comprovada com SAP Ariba Experiência em SAP Public Cloud Experiência Ariba e BTP é desejável || Empresa .....:  Simply</t>
+        </is>
+      </c>
+      <c r="I540" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>82945</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Desenvolvedor ADVPL Sênior Presencial Curitiba/PR</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>Oportunidade: Desenvolvedor(a) ADVPL Sênior - Presencial - Curitiba/PR  Buscamos profissionais com experiência em desenvolvimento ADVPL Protheus, com excelente capacidade de comunicação e relacionamento, atuando de forma próxima ao cliente, com postura consultiva, colaborativa e foco em solução.  Detalhes da Vaga Modelo: Presencial - Curitiba/PR Contratação: Cooperado Carga horária: Full-time  Segunda a sexta-feira  Horário comercial  Principais Responsabilidades Desenvolvimento e manutenção de aplicações em ADVPL/TL++ Desenvolvimento de Jobs e Schedules Desenvolvimento de Webservices e configurações Soap e Rest  Requisitos Conhecimento em Regras de Negócios Conhecimento em banco de dados SQL Conhecimento em programação de ADVPL/TL++
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 23/01/26 || Desenvolvedor ADVPL Sênior Presencial Curitiba/PR || Oportunidade: Desenvolvedor(a) ADVPL Sênior - Presencial - Curitiba/PR  Buscamos profissionais com experiência em desenvolvimento ADVPL Protheus, com excelente capacidade de comunicação e relacionamento, atuando de forma próxima ao cliente, com postura consultiva, colaborativa e foco em solução.  Detalhes da Vaga Modelo: Presencial - Curitiba/PR Contratação: Cooperado Carga horária: Full-time  Segunda a sexta-feira  Horário comercial  Principais Responsabilidades Desenvolvimento e manutenção de aplicações em ADVPL/TL++ Desenvolvimento de Jobs e Schedules Desenvolvimento de Webservices e configurações Soap e Rest  Requisitos Conhecimento em Regras de Negócios Conhecimento em banco de dados SQL Conhecimento em programação de ADVPL/TL++ || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I541" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>82277</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Senior Adobe AEM EDS Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>Required competencies  Relevant university degree (Bachelors and/or Masters degree) Excellent communication, teamwork, and responsibility. Takes initiative in solving problems and making recommendations for efficiencies and improvements Fluent proficiency in English (fluent Spanish considered a plus) Strong development experience in Adobe EDS, familiar with Adobe Experience Manager, AdobeAssets, Dynamic Media Microsoft Sharepoint, Google Drive/Docs, Template, JavaScript, CSS, SCSS,HTML, JQuery, nodeJS, React, etc Solid performance working as an AEM Developer and continuous improvement is in your mindset Collaborative work, self-driven studying, analytical and a problem-solver Solid experience in EDS technologies
+Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 23/01/26 || Senior Adobe AEM EDS Full Stack Developer || Required competencies  Relevant university degree (Bachelors and/or Masters degree) Excellent communication, teamwork, and responsibility. Takes initiative in solving problems and making recommendations for efficiencies and improvements Fluent proficiency in English (fluent Spanish considered a plus) Strong development experience in Adobe EDS, familiar with Adobe Experience Manager, AdobeAssets, Dynamic Media Microsoft Sharepoint, Google Drive/Docs, Template, JavaScript, CSS, SCSS,HTML, JQuery, nodeJS, React, etc Solid performance working as an AEM Developer and continuous improvement is in your mindset Collaborative work, self-driven studying, analytical and a problem-solver Solid experience in EDS technologies || Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="I542" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>82347</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Administrador de Sistemas com NinjaOne</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>Exterior - EX - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>Administrador de Sistemas com NinjaOne Disponibilidade imediata Contratação PJ Período estimado de 03 a 06 meses (podendo ser prorrogado) Atuação remota - Exterior Inglês Avançado (mandatório)  Habilidades: Gerenciamento de dispositivos através do NinjaOne em nível Sênior ou Especialista. Administração remota. Criação de scripts. Gerenciamento de ambientes de cluster. Ciclo de gerenciamento de patches de servidor. Gerenciamento de inventário de servidores. Provisionamento de servidores. Manutenção da infraestrutura de servidores. Suporte a sistemas operacionais relacionado a solicitações de aplicativos.
+Empresa .....:  THERA CONSULTING</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>Exterior - EX - 23/01/26 || Administrador de Sistemas com NinjaOne || Administrador de Sistemas com NinjaOne Disponibilidade imediata Contratação PJ Período estimado de 03 a 06 meses (podendo ser prorrogado) Atuação remota - Exterior Inglês Avançado (mandatório)  Habilidades: Gerenciamento de dispositivos através do NinjaOne em nível Sênior ou Especialista. Administração remota. Criação de scripts. Gerenciamento de ambientes de cluster. Ciclo de gerenciamento de patches de servidor. Gerenciamento de inventário de servidores. Provisionamento de servidores. Manutenção da infraestrutura de servidores. Suporte a sistemas operacionais relacionado a solicitações de aplicativos. || Empresa .....:  THERA CONSULTING</t>
+        </is>
+      </c>
+      <c r="I543" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>82939</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Arquiteto de Soluções – Oracle PSRM</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Arquiteto(a) de Soluções Oracle PSRM para projetar, desenvolver e entregar soluções integradas no Oracle Public Sector Revenue Management. O(a) profissional atuará em projetos do setor público, configurando, suportando e otimizando processos de receita e tributação, além de colaborar com desenvolvedores, stakeholders e equipes multifuncionais para garantir entregas de alta qualidade.  Requisitos: Experiência prática com Oracle PSRM 2.2+, módulos como Tributos, Pessoa  Conta, Obrigações, Penalidades  Juros, Transações Financeiras, Ajustes  Pagamentos, Taxas, Inadimplência, Pagamentos em Excesso, Crédito  Cobrança, Reembolsos, Fluxos de Processo e Gestão de Casos conhecimento em integrações e analytics do PSRM domínio técnico em parametrização, OUAF, Java/J2EE e Inbound Web Services.   Local de Trabalho: São Paulo/SP ou Curitiba/PR (modelo híbrido: 3x/semana presencial)
+Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || Arquiteto de Soluções – Oracle PSRM || Estamos em busca de um(a) Arquiteto(a) de Soluções Oracle PSRM para projetar, desenvolver e entregar soluções integradas no Oracle Public Sector Revenue Management. O(a) profissional atuará em projetos do setor público, configurando, suportando e otimizando processos de receita e tributação, além de colaborar com desenvolvedores, stakeholders e equipes multifuncionais para garantir entregas de alta qualidade.  Requisitos: Experiência prática com Oracle PSRM 2.2+, módulos como Tributos, Pessoa  Conta, Obrigações, Penalidades  Juros, Transações Financeiras, Ajustes  Pagamentos, Taxas, Inadimplência, Pagamentos em Excesso, Crédito  Cobrança, Reembolsos, Fluxos de Processo e Gestão de Casos conhecimento em integrações e analytics do PSRM domínio técnico em parametrização, OUAF, Java/J2EE e Inbound Web Services.   Local de Trabalho: São Paulo/SP ou Curitiba/PR (modelo híbrido: 3x/semana presencial) || Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="I544" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>83098</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Consultor ServiceNow II - ITOM/ITAM</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>Experiência prática em ITOM/ITAM Conhecimento em JavaScript e APIs JavaScript do ServiceNow. Experiência com integrações (REST, SOAP, servidores MID, etc.). Conhecimento em Framework CSDM. Mínimo de 2 anos de experiência com ServiceNow. Certificação ServiceNow CSA é obrigatoria Certificação CIS nos modulos de ITOM / ITAM Certificação ITIL desajável Experiência com metodologias ágeis (Scrum, Kanban). Conhecimento em Desenvolvimento de portais no ServiceNow.  Experiências que realmente nos encantam  Experiência prática em outros módulos como por exemplo: Information Technology Service Management (ITSM), Portal, AppEngine e Customer Service Management (CSM) na plataforma ServiceNow.  Ceriticações (CIS) de outros módulos do ServiceNow
+Empresa .....:  Extreme Group</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || Consultor ServiceNow II - ITOM/ITAM || Experiência prática em ITOM/ITAM Conhecimento em JavaScript e APIs JavaScript do ServiceNow. Experiência com integrações (REST, SOAP, servidores MID, etc.). Conhecimento em Framework CSDM. Mínimo de 2 anos de experiência com ServiceNow. Certificação ServiceNow CSA é obrigatoria Certificação CIS nos modulos de ITOM / ITAM Certificação ITIL desajável Experiência com metodologias ágeis (Scrum, Kanban). Conhecimento em Desenvolvimento de portais no ServiceNow.  Experiências que realmente nos encantam  Experiência prática em outros módulos como por exemplo: Information Technology Service Management (ITSM), Portal, AppEngine e Customer Service Management (CSM) na plataforma ServiceNow.  Ceriticações (CIS) de outros módulos do ServiceNow || Empresa .....:  Extreme Group</t>
+        </is>
+      </c>
+      <c r="I545" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>82632</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Consultor Tasy</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>Espanhol Fluente Contratação PJ 6 meses, com chances de prorrogar Remoto.  Conhecimentos Necessários: Implementar as integrações existentes, realizar levantamento e analise de novas integrações, contatar clientes para compreender e executar suas demandas, realizar análise de requisitos técnicos e funcionais elaborar documentação técnica e funcional, desenvolver relatórios e dashboards, criar templates e avaliações, acompanhar processos de personalização.  Ferramentas: PL/SQL: Insert, Update, Procedures, Functions, Packages, Triggers e Jobs: Tasy Interface Engine (broker de interoperabilidade Tasy), Tasy, HTML5: EMR, portais Tasy: Portal do Paciente, Portal de Resultados, Portal Clinico e Aprovações Pendentes.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || Consultor Tasy || Espanhol Fluente Contratação PJ 6 meses, com chances de prorrogar Remoto.  Conhecimentos Necessários: Implementar as integrações existentes, realizar levantamento e analise de novas integrações, contatar clientes para compreender e executar suas demandas, realizar análise de requisitos técnicos e funcionais elaborar documentação técnica e funcional, desenvolver relatórios e dashboards, criar templates e avaliações, acompanhar processos de personalização.  Ferramentas: PL/SQL: Insert, Update, Procedures, Functions, Packages, Triggers e Jobs: Tasy Interface Engine (broker de interoperabilidade Tasy), Tasy, HTML5: EMR, portais Tasy: Portal do Paciente, Portal de Resultados, Portal Clinico e Aprovações Pendentes. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I546" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>83376</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Desenvolvedor (.NET, React) Pleno Remoto</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>Oportunidade:  Desenvolvedor Full Stack (C#, React) Pleno  Detalhes da Vaga Modelo: Remoto Contratação: Cooperado Carga horária: Full-time  Segunda a sexta-feira  Horário comercial  Atividades diárias/Responsabilidades: Desenvolver e manter APIs em C# (.NET / .NET Core) Desenvolver interfaces web utilizando React Integrar front-end e back-end garantindo performance e qualidade Participar de melhorias contínuas, correções e evolução do produto Trabalhar com versionamento de código (Git) Colaborar com times de produto e negócio  Requisitos Experiência sólida com C# (.NET) Experiência com React Conhecimento em APIs REST Experiência com banco de dados (SQL Server, PostgreSQL ou similares) Boa comunicação e autonomia para trabalho remoto
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || Desenvolvedor (.NET, React) Pleno Remoto || Oportunidade:  Desenvolvedor Full Stack (C#, React) Pleno  Detalhes da Vaga Modelo: Remoto Contratação: Cooperado Carga horária: Full-time  Segunda a sexta-feira  Horário comercial  Atividades diárias/Responsabilidades: Desenvolver e manter APIs em C# (.NET / .NET Core) Desenvolver interfaces web utilizando React Integrar front-end e back-end garantindo performance e qualidade Participar de melhorias contínuas, correções e evolução do produto Trabalhar com versionamento de código (Git) Colaborar com times de produto e negócio  Requisitos Experiência sólida com C# (.NET) Experiência com React Conhecimento em APIs REST Experiência com banco de dados (SQL Server, PostgreSQL ou similares) Boa comunicação e autonomia para trabalho remoto || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I547" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>83065</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Golang Pleno</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um Desenvolvedor Golang Pleno para atuar em uma squad estratégica de Tokenização, dentro de uma tribo focada em Novos Ativos. O profissional atuará no desenvolvimento de soluções de alta performance, escalabilidade e segurança, em ambientes críticos e de grande impacto no negócio.  Modelo de trabalho: Remoto Contratação: CLT  Responsabilidades: Analisar e modelar soluções escaláveis, propor melhorias técnicas alinhadas às boas práticas de mercado, apoiar definições técnicas junto aos times de TI, garantir qualidade do software com testes, atuar no suporte a incidentes, apoiar releases e colaborar com times de infraestrutura, suporte e QA.  Requisitos: Experiência mínima de 3 anos como desenvolvedor, sólida experiência com Golang, Git, estruturas de dados e algoritmos, observabilidade, Clean Code e Clean Architecture, mensageria (Kafka, RabbitMQ ou SQS), bancos de dados.
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || Desenvolvedor Golang Pleno || Estamos em busca de um Desenvolvedor Golang Pleno para atuar em uma squad estratégica de Tokenização, dentro de uma tribo focada em Novos Ativos. O profissional atuará no desenvolvimento de soluções de alta performance, escalabilidade e segurança, em ambientes críticos e de grande impacto no negócio.  Modelo de trabalho: Remoto Contratação: CLT  Responsabilidades: Analisar e modelar soluções escaláveis, propor melhorias técnicas alinhadas às boas práticas de mercado, apoiar definições técnicas junto aos times de TI, garantir qualidade do software com testes, atuar no suporte a incidentes, apoiar releases e colaborar com times de infraestrutura, suporte e QA.  Requisitos: Experiência mínima de 3 anos como desenvolvedor, sólida experiência com Golang, Git, estruturas de dados e algoritmos, observabilidade, Clean Code e Clean Architecture, mensageria (Kafka, RabbitMQ ou SQS), bancos de dados. || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I548" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>83386</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Engenheiro de Dados/SoT(AWS). Home Office</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>Engenheiro de Dados (AWS) Totalmente Remoto  Brasil Contrato:6 meses (com possibilidade de prorrogação)  Construção e evolução do Source of Truth (SoT) e no desenvolvimento de pipelines de dados robustos em AWS. Experiência sólida em engenharia de dados e Source of Truth Forte conhecimento em modelagem de dados Domínio de Python e/ou PySpark Experiência em construção, modernização e migração de pipelines em AWS Conhecimento em AWS Glue, Lambda e S3 Boas práticas de engenharia: versionamento, modularização, testes e CI/CD Desenho e implementação de modelos únicos de dados (SoT) Desenvolvimento e evolução de pipelines em AWS Garantia de qualidade, governança e escalabilidade dos dados Apoio à modernização e melhoria contínua das soluções de dados
+Empresa .....:  Decision</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || Engenheiro de Dados/SoT(AWS). Home Office || Engenheiro de Dados (AWS) Totalmente Remoto  Brasil Contrato:6 meses (com possibilidade de prorrogação)  Construção e evolução do Source of Truth (SoT) e no desenvolvimento de pipelines de dados robustos em AWS. Experiência sólida em engenharia de dados e Source of Truth Forte conhecimento em modelagem de dados Domínio de Python e/ou PySpark Experiência em construção, modernização e migração de pipelines em AWS Conhecimento em AWS Glue, Lambda e S3 Boas práticas de engenharia: versionamento, modularização, testes e CI/CD Desenho e implementação de modelos únicos de dados (SoT) Desenvolvimento e evolução de pipelines em AWS Garantia de qualidade, governança e escalabilidade dos dados Apoio à modernização e melhoria contínua das soluções de dados || Empresa .....:  Decision</t>
+        </is>
+      </c>
+      <c r="I549" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>83084</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Engenheiro de Observabilidade - Datadog</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>Engenheiro de Observabilidade Sênior  Remoto  Domínio de: DATADOG APM Logs Tracing distribuído Testes sintéticos Vivência prática com Kubernetes Experiência com ambientes em cloud (AWS e Azure) Conhecimento sólido em: HTTP, APIs, microserviços Arquiteturas distribuídas Protocolos de integração Capacidade de desenhar e manter: SLOs, SLIs, KPIs operacionais Estratégias de alertas orientadas a negócio Experiência com monitoramento de integrações complexas (Dynamics, ERPs, sistemas corporativos, etc.) Conhecimento de automação e infraestrutura como código (Terraform, pipelines, etc.)  Responsável técnico pela estratégia, implementação e evolução do ecossistema de observabilidade corporativa, garantindo visibilidade ponta a ponta da plataforma, detecção proativa de falhas, melhoria contínua de confiabilidade e suporte direto à tomada de decisão operacional e de negócio.  Contrato com empresa/prestador de serviços em  Engenheiro de Observabilidade Datadog
+Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || Engenheiro de Observabilidade - Datadog || Engenheiro de Observabilidade Sênior  Remoto  Domínio de: DATADOG APM Logs Tracing distribuído Testes sintéticos Vivência prática com Kubernetes Experiência com ambientes em cloud (AWS e Azure) Conhecimento sólido em: HTTP, APIs, microserviços Arquiteturas distribuídas Protocolos de integração Capacidade de desenhar e manter: SLOs, SLIs, KPIs operacionais Estratégias de alertas orientadas a negócio Experiência com monitoramento de integrações complexas (Dynamics, ERPs, sistemas corporativos, etc.) Conhecimento de automação e infraestrutura como código (Terraform, pipelines, etc.)  Responsável técnico pela estratégia, implementação e evolução do ecossistema de observabilidade corporativa, garantindo visibilidade ponta a ponta da plataforma, detecção proativa de falhas, melhoria contínua de confiabilidade e suporte direto à tomada de decisão operacional e de negócio.  Contrato com empresa/prestador de serviços em  Engenheiro de Observabilidade Datadog || Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I550" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>83370</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Product Onwer</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>Buscamos um(a) Proxy Product Owner com  inglês fluente para atuar no suporte e evolução de sistemas operacionais locais (USA) e corporativos, com forte interação com usuários, times técnicos e fornecedores internacionais. Será responsável pela gestão de tickets no Jira (bugs, melhorias e sprints), apoio a projetos, testes, QA, releases e comunicação contínua com stakeholders, especialmente dos EUA. Atuará também em integrações de sistemas, gestão de acessos, treinamentos e implementação de novas soluções. Requer graduação em TI ou áreas correlatas, experiência em suporte e gestão de tickets, vivência com testes/homologação. Perfil organizado, comunicativo, colaborativo e orientado ao usuário.  Modalidade: PJ Local: Home Office
+Empresa .....:  Taking Results e Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || Product Onwer || Buscamos um(a) Proxy Product Owner com  inglês fluente para atuar no suporte e evolução de sistemas operacionais locais (USA) e corporativos, com forte interação com usuários, times técnicos e fornecedores internacionais. Será responsável pela gestão de tickets no Jira (bugs, melhorias e sprints), apoio a projetos, testes, QA, releases e comunicação contínua com stakeholders, especialmente dos EUA. Atuará também em integrações de sistemas, gestão de acessos, treinamentos e implementação de novas soluções. Requer graduação em TI ou áreas correlatas, experiência em suporte e gestão de tickets, vivência com testes/homologação. Perfil organizado, comunicativo, colaborativo e orientado ao usuário.  Modalidade: PJ Local: Home Office || Empresa .....:  Taking Results e Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="I551" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>82883</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>SAP ABAP</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>Idioma: Inglês avançado para conversação Vaga: Consultor Especialista SAP ABAP Prazo: Indeterminado Local: Remoto Contratação: PJ  Requisitos: • Inglês avançado para conversação • Proficiência no Modelo de Programação de Aplicativos RESTful ABAP (ABAP RAP) • Conhecimento de desenvolvimento SAP Fiori e serviços OData • Experiência prática com Adobe Forms (Adobe Lifecycle Designer) • Profundo conhecimento dos conceitos de extensibilidade no SAP S/4HANA • Familiaridade com Core Data Services (CDS) • Sólido conhecimento de ABAP Orientado a Objetos, Relatórios ALV, BAPIs, BADIs e User Exits • Experiência com IDocs, RFCs e Web Services • Expertise no Modelo de Desenvolvimento ABAP Cloud (ABAP Cloud / ABAP CDM) (desejável)
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || SAP ABAP || Idioma: Inglês avançado para conversação Vaga: Consultor Especialista SAP ABAP Prazo: Indeterminado Local: Remoto Contratação: PJ  Requisitos: • Inglês avançado para conversação • Proficiência no Modelo de Programação de Aplicativos RESTful ABAP (ABAP RAP) • Conhecimento de desenvolvimento SAP Fiori e serviços OData • Experiência prática com Adobe Forms (Adobe Lifecycle Designer) • Profundo conhecimento dos conceitos de extensibilidade no SAP S/4HANA • Familiaridade com Core Data Services (CDS) • Sólido conhecimento de ABAP Orientado a Objetos, Relatórios ALV, BAPIs, BADIs e User Exits • Experiência com IDocs, RFCs e Web Services • Expertise no Modelo de Desenvolvimento ABAP Cloud (ABAP Cloud / ABAP CDM) (desejável) || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I552" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>83007</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>SAP BTP</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>Skills principais são ABAP RAP, CAP, CPI, Fiori Ui5, Workflow e BPA (SAP Build process Automation). Detalhamento da atuação: experiência em desenvolvimentos utilizando o Abap cloud (Estamos usando a última release da variante do ATC da SAP (documentação de agosto de 2025) e o cliente requer que utilizemos o flag do ABAP Cloud nos objetos criados (a exceção é se a SAP não possuir um objeto no novo modelo) e soluções clean core (Nível A e B). Os desenvolvimentos ABAP serão feitos utilizando o ADT no Eclipse e o modelo de desenvolvimento RAP. Precisamos de consultores com experiência em criação de CDS Views, ABAP RAP, ABAP OO, Odata V2 e V4, workflow (Clássico, Flexível e no BTP (BPA)), BRF+, Fiori elements, Fiori Freestyle(UI5) , formulários Adobe Forms (utilizando o serviço configurado pelo OPD e não pela NACE), Template e Classe para o Application Jobs, BOPF (Desenvolvimentos do módulo de TM), IDOC.
+Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || SAP BTP || Skills principais são ABAP RAP, CAP, CPI, Fiori Ui5, Workflow e BPA (SAP Build process Automation). Detalhamento da atuação: experiência em desenvolvimentos utilizando o Abap cloud (Estamos usando a última release da variante do ATC da SAP (documentação de agosto de 2025) e o cliente requer que utilizemos o flag do ABAP Cloud nos objetos criados (a exceção é se a SAP não possuir um objeto no novo modelo) e soluções clean core (Nível A e B). Os desenvolvimentos ABAP serão feitos utilizando o ADT no Eclipse e o modelo de desenvolvimento RAP. Precisamos de consultores com experiência em criação de CDS Views, ABAP RAP, ABAP OO, Odata V2 e V4, workflow (Clássico, Flexível e no BTP (BPA)), BRF+, Fiori elements, Fiori Freestyle(UI5) , formulários Adobe Forms (utilizando o serviço configurado pelo OPD e não pela NACE), Template e Classe para o Application Jobs, BOPF (Desenvolvimentos do módulo de TM), IDOC. || Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="I553" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>82263</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>SAP MM</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>SAP MM Sênior Inglês Avançado  Fluxos do SAP MM, tabelas, processos de negócio, compras diretas ou de terceiros, subcontratação, gestão de inventário, estratégia de liberação, exposição a WM (Warehouse Management). Conhecimento prático nas principais configurações do módulo MM, integração do MM com os módulos SD/FI/PP, interfaces iDOC e 3PL.  Qualificações Necessárias Especialista em localização LATAM.  Principais Atividades e Responsabilidades Implementação e implantação de projetos S/4HANA. Tópicos principais: DRC, interfaces 3PL, S/4HANA, localizações da América Latina (Colômbia, Argentina, Brasil e México), precificação, workflow flexível e BRF.
+Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 23/01/26 || SAP MM || SAP MM Sênior Inglês Avançado  Fluxos do SAP MM, tabelas, processos de negócio, compras diretas ou de terceiros, subcontratação, gestão de inventário, estratégia de liberação, exposição a WM (Warehouse Management). Conhecimento prático nas principais configurações do módulo MM, integração do MM com os módulos SD/FI/PP, interfaces iDOC e 3PL.  Qualificações Necessárias Especialista em localização LATAM.  Principais Atividades e Responsabilidades Implementação e implantação de projetos S/4HANA. Tópicos principais: DRC, interfaces 3PL, S/4HANA, localizações da América Latina (Colômbia, Argentina, Brasil e México), precificação, workflow flexível e BRF. || Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="I554" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>82793</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR PYTHON PL</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>Itajaí - SC - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>Requisitos: Python com experiência prática em automações e integrações. Consumo de APIs REST (OAuth2, paginação, retries e tratamento de erros). SQL (joins, consultas operacionais e modelagem básica). Git/GitHub (PRs, branches e versionamento seguro). Experiência com ambientes de produção, logs, monitoramento e CI/CD. Integrações com sistemas corporativos (ex.: SAP, Senior, Jira, Active Directory).  Diferenciais Experiência com Docker, Playwright ou Selenium. Vivência com pipelines de IA, RAG e automações integradas a Copilot.  Local de atuação: Itajaí (SC) Presencial de segunda à sexta em horário comercial.
+Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>Itajaí - SC - 23/01/26 || DESENVOLVEDOR PYTHON PL || Requisitos: Python com experiência prática em automações e integrações. Consumo de APIs REST (OAuth2, paginação, retries e tratamento de erros). SQL (joins, consultas operacionais e modelagem básica). Git/GitHub (PRs, branches e versionamento seguro). Experiência com ambientes de produção, logs, monitoramento e CI/CD. Integrações com sistemas corporativos (ex.: SAP, Senior, Jira, Active Directory).  Diferenciais Experiência com Docker, Playwright ou Selenium. Vivência com pipelines de IA, RAG e automações integradas a Copilot.  Local de atuação: Itajaí (SC) Presencial de segunda à sexta em horário comercial. || Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="I555" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>82572</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Programador Sênior</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>Manaus - AM - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>VAGA PRESENCIAL EM MANAUS DESENVOLVEDOR(A) MOBILE SÊNIOR  Trabalhe em uma empresa sólida, inovadora e em crescimento no coração da Amazônia Estamos buscando um(a) Dev Mobile Sênior para atuar Totalmente presencial em Manaus, liderando a evolução de aplicativos nativos Android (Kotlin) e iOS (Swift).  Uma oportunidade única para quem quer fazer parte de projetos reais, de impacto, com tecnologia moderna e liberdade para criar soluções de alto nível.
+Empresa .....:  Velosonet</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>Manaus - AM - 23/01/26 || Programador Sênior || VAGA PRESENCIAL EM MANAUS DESENVOLVEDOR(A) MOBILE SÊNIOR  Trabalhe em uma empresa sólida, inovadora e em crescimento no coração da Amazônia Estamos buscando um(a) Dev Mobile Sênior para atuar Totalmente presencial em Manaus, liderando a evolução de aplicativos nativos Android (Kotlin) e iOS (Swift).  Uma oportunidade única para quem quer fazer parte de projetos reais, de impacto, com tecnologia moderna e liberdade para criar soluções de alto nível. || Empresa .....:  Velosonet</t>
+        </is>
+      </c>
+      <c r="I556" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>83104</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Especialista em Devops - Com inglês</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>Porto Alegre - RS - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>Oportunidade Imperdível: Especialista em DevOps – Projeto Internacional
+Se você tem inglês fluente, domina práticas de DevOps, CI/CD, automação
+e infraestrutura em cloud, vale a pena conferir essa vaga incrível
+O que você vai fazer:
+* Expandir e manter pipelines de CI/CD com ferramentas como Jenkins, Docker e Kubernetes
+* Trabalhar com Python, scripting em Linux e automação de infraestrutura
+* Integrar soluções com Terraform, AWS, Prometheus e Grafana
+* Colaborar com equipes globais e cultura DevOps/SRE.
+Requisitos que fazem diferença:
+* Python, Linux/Shell, YAML, APIs REST/SOAP
+* Git / GitLab CI, Docker, Kubernetes, Terraform
+* Experiência em AWS e ferramentas de observabilidade
+Modalidade Totalmente remota, contrato CLT, benefícios como VA/VR, plano de
+saúde/odontológico,
+Wellhub, seguro de vida e ambiente colaborativo
+Empresa .....:  Deliver IT</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>Porto Alegre - RS - 23/01/26 || Especialista em Devops - Com inglês || Oportunidade Imperdível: Especialista em DevOps – Projeto Internacional || Se você tem inglês fluente, domina práticas de DevOps, CI/CD, automação || e infraestrutura em cloud, vale a pena conferir essa vaga incrível || O que você vai fazer: || * Expandir e manter pipelines de CI/CD com ferramentas como Jenkins, Docker e Kubernetes || * Trabalhar com Python, scripting em Linux e automação de infraestrutura || * Integrar soluções com Terraform, AWS, Prometheus e Grafana || * Colaborar com equipes globais e cultura DevOps/SRE. || Requisitos que fazem diferença: || * Python, Linux/Shell, YAML, APIs REST/SOAP || * Git / GitLab CI, Docker, Kubernetes, Terraform || * Experiência em AWS e ferramentas de observabilidade || Modalidade Totalmente remota, contrato CLT, benefícios como VA/VR, plano de || saúde/odontológico, || Wellhub, seguro de vida e ambiente colaborativo || Empresa .....:  Deliver IT</t>
+        </is>
+      </c>
+      <c r="I557" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>82402</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Engenheiro DevOps Sênior – Presencial Recife/PE</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>Recife - PE - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>Experiência mínima de 5 anos na área de DevOps ou funções correlatas. Graduação em ciências exatas ou áreas ligadas à computação. Pós-graduação opcional com carga mínima de 360 horas.  Requer, no mínimo, duas certificações entre: AWS Cloud Practitioner, Azure Fundamentals, Associate Cloud Engineer, Microsoft DevOps Engineer Expert, AWS DevOps Engineer Professional, AWS Developer Associate, DevOps Tools Engineer (LPI), KCNA, CKA, CKAD, Professional Cloud DevOps Engineer, Professional Cloud Architect, Red Hat OpenShift Administrator ou Developer.  Responsável pela configuração e gerenciamento de servidores físicos e virtuais, automação de processos (Ansible, Puppet, Terraform), pipelines CI/CD (Jenkins, GitLab), containers e clusters Kubernetes, infraestrutura em nuvem (AWS, Azure, GCP), monitoramento (Prometheus, Grafana, Zabbix), logging (ELK, Splunk) e segurança em pipelines (DevSecOps).
+Empresa .....:  FSBR  FABRICA DE SOFTWARE DO BRASIL</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>Recife - PE - 23/01/26 || Engenheiro DevOps Sênior – Presencial Recife/PE || Experiência mínima de 5 anos na área de DevOps ou funções correlatas. Graduação em ciências exatas ou áreas ligadas à computação. Pós-graduação opcional com carga mínima de 360 horas.  Requer, no mínimo, duas certificações entre: AWS Cloud Practitioner, Azure Fundamentals, Associate Cloud Engineer, Microsoft DevOps Engineer Expert, AWS DevOps Engineer Professional, AWS Developer Associate, DevOps Tools Engineer (LPI), KCNA, CKA, CKAD, Professional Cloud DevOps Engineer, Professional Cloud Architect, Red Hat OpenShift Administrator ou Developer.  Responsável pela configuração e gerenciamento de servidores físicos e virtuais, automação de processos (Ansible, Puppet, Terraform), pipelines CI/CD (Jenkins, GitLab), containers e clusters Kubernetes, infraestrutura em nuvem (AWS, Azure, GCP), monitoramento (Prometheus, Grafana, Zabbix), logging (ELK, Splunk) e segurança em pipelines (DevSecOps). || Empresa .....:  FSBR  FABRICA DE SOFTWARE DO BRASIL</t>
+        </is>
+      </c>
+      <c r="I558" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>82264</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>SAP MM</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>Ribeirão Preto - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>Vaga: Consultor SAP MM Sênior  Local: Híbrido – Ribeirão Preto (2x por semana) Contrato: PJ Tipo de Projeto: Migração / Separação de ambiente SAP – S/4HANA  Requisitos: Experiência sólida em SAP MM. Atuação prévia em projetos de migração ou separação de sistemas. Boa comunicação e postura consultiva.  Inglês será considerado um diferencial.
+Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>Ribeirão Preto - SP - 23/01/26 || SAP MM || Vaga: Consultor SAP MM Sênior  Local: Híbrido – Ribeirão Preto (2x por semana) Contrato: PJ Tipo de Projeto: Migração / Separação de ambiente SAP – S/4HANA  Requisitos: Experiência sólida em SAP MM. Atuação prévia em projetos de migração ou separação de sistemas. Boa comunicação e postura consultiva.  Inglês será considerado um diferencial. || Empresa .....:  CIDIC</t>
+        </is>
+      </c>
+      <c r="I559" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>83052</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Consultor Oracle Hyperion</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>Estamos contratando Consultor Oracle EPM Cloud (Oracle Hyperion)  Home Office  Requisitos: • Experiência sólida com Oracle Hyperion (EPM) • Vivência com HFM, Planning e/ou Essbase • Administração, modelagem e criação de regras de negócio no Hyperion • Experiência com processos de planejamento, orçamento e consolidação financeira • Integração do Hyperion com ERP, Data Warehouse e AWS • Atuação em sustentação, troubleshooting e análise de performance • Boa comunicação para interação com times de Finanças  Diferenciais: • Experiência com Oracle EPM Cloud, ODI, OIC e Data Management • Conhecimento em SQL e ferramentas ETL • Vivência em projetos de implantação, migração ou upgrade do Hyperion • Conhecimentos em serviços AWS
+Empresa .....:  Innolevels</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 23/01/26 || Consultor Oracle Hyperion || Estamos contratando Consultor Oracle EPM Cloud (Oracle Hyperion)  Home Office  Requisitos: • Experiência sólida com Oracle Hyperion (EPM) • Vivência com HFM, Planning e/ou Essbase • Administração, modelagem e criação de regras de negócio no Hyperion • Experiência com processos de planejamento, orçamento e consolidação financeira • Integração do Hyperion com ERP, Data Warehouse e AWS • Atuação em sustentação, troubleshooting e análise de performance • Boa comunicação para interação com times de Finanças  Diferenciais: • Experiência com Oracle EPM Cloud, ODI, OIC e Data Management • Conhecimento em SQL e ferramentas ETL • Vivência em projetos de implantação, migração ou upgrade do Hyperion • Conhecimentos em serviços AWS || Empresa .....:  Innolevels</t>
+        </is>
+      </c>
+      <c r="I560" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>83384</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Instrutor de Programação e Robótica</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>Você é apaixonado(a) por tecnologia e gostaria de ensinar crianças e adolescentes a programarem seus próprios games, robôs e aplicativos? Então essa oportunidade é para você  Suas principais atividades: Ministrar aulas de Programação, Games e Robótica para crianças e adolescentes Acompanhar o desenvolvimento técnico e humano dos alunos Realizar reuniões com responsáveis e alunos Apoiar a linha de frente no atendimento e suporte aos alunos e responsáveis Colaborar com as equipes de Atendimento, Vendas e Pedagógico, compartilhando insights e informações.  Requisitos: Ensino Superior (cursando ou completo) em Jogos Digitais, Licenciatura (Matemática ou Física), Engenharia, Ciência da Computação, Pedagogia ou áreas afins Conhecimento em linguagens de programação como Python, C, C# (Unity), JavaScript, entre outras  Desejável conhecimento em Arduino e/ou micro:bit Inglês intermediário Afinidade e gosto por ensinar crianças e adolescentes
+Empresa .....:  Ctrl Play Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 23/01/26 || Instrutor de Programação e Robótica || Você é apaixonado(a) por tecnologia e gostaria de ensinar crianças e adolescentes a programarem seus próprios games, robôs e aplicativos? Então essa oportunidade é para você  Suas principais atividades: Ministrar aulas de Programação, Games e Robótica para crianças e adolescentes Acompanhar o desenvolvimento técnico e humano dos alunos Realizar reuniões com responsáveis e alunos Apoiar a linha de frente no atendimento e suporte aos alunos e responsáveis Colaborar com as equipes de Atendimento, Vendas e Pedagógico, compartilhando insights e informações.  Requisitos: Ensino Superior (cursando ou completo) em Jogos Digitais, Licenciatura (Matemática ou Física), Engenharia, Ciência da Computação, Pedagogia ou áreas afins Conhecimento em linguagens de programação como Python, C, C# (Unity), JavaScript, entre outras  Desejável conhecimento em Arduino e/ou micro:bit Inglês intermediário Afinidade e gosto por ensinar crianças e adolescentes || Empresa .....:  Ctrl Play Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I561" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>82877</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Consultor Protheus SIGAEST, SIGAPCP, SIGAACD</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>Consultor Protheus SIGAEST, SIGAPCP, SIGAACD  Atividades: 	Implementação Módulo SIGAEST, SIGAPCP, SIGAACD  Requisitos: 	Experiência comprovada em implementação do módulo SIGAEST, SIGAPCP, SIGAACD  Local:		São Bernardo do Campo/SP e São Paulo/SP (Cambuci)  Contratação: 	Contração PJ
+Empresa .....:  SIXIT Sistemas de informaçao</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 23/01/26 || Consultor Protheus SIGAEST, SIGAPCP, SIGAACD || Consultor Protheus SIGAEST, SIGAPCP, SIGAACD  Atividades: 	Implementação Módulo SIGAEST, SIGAPCP, SIGAACD  Requisitos: 	Experiência comprovada em implementação do módulo SIGAEST, SIGAPCP, SIGAACD  Local:		São Bernardo do Campo/SP e São Paulo/SP (Cambuci)  Contratação: 	Contração PJ || Empresa .....:  SIXIT Sistemas de informaçao</t>
+        </is>
+      </c>
+      <c r="I562" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>82776</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Consultor SAP EWM</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>Consultor Funcional SAP Sênior com sólida experiência em: SD S/4HANA com foco em Localização Brasil e DRC para NFe EWM Embedded, liderando discussões de processos logísticos e implantação Domínio em Inbound/Outbound, Storage Control, Slotting, Wave Management Vivência com RF, WMS, Master Data, blueprint, testes, cutover e go-live  A comunicação em inglês fluente é mandatória, pois o projeto envolve times em vários países.  Responsabilidades principais: Liderar a frente funcional SAP EWM em projeto ERP global Mapear, adaptar e implementar processos conforme o template global Conduzir workshops, discussões de processo e sessões SAP Activate (Discover #8594 Go-live) Atuar hands-on em configuração EWM Embedded Interagir com stakeholders internacionais Garantir entrada em produção e estabilização  Presencial 3x por semana em São Bernardo do Campo ou Jabaquara (dependendo da trilha) Disponibilidade para viagens (nacionais/internacional)
+Empresa .....:  Randstad Brasil Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 23/01/26 || Consultor SAP EWM || Consultor Funcional SAP Sênior com sólida experiência em: SD S/4HANA com foco em Localização Brasil e DRC para NFe EWM Embedded, liderando discussões de processos logísticos e implantação Domínio em Inbound/Outbound, Storage Control, Slotting, Wave Management Vivência com RF, WMS, Master Data, blueprint, testes, cutover e go-live  A comunicação em inglês fluente é mandatória, pois o projeto envolve times em vários países.  Responsabilidades principais: Liderar a frente funcional SAP EWM em projeto ERP global Mapear, adaptar e implementar processos conforme o template global Conduzir workshops, discussões de processo e sessões SAP Activate (Discover #8594 Go-live) Atuar hands-on em configuração EWM Embedded Interagir com stakeholders internacionais Garantir entrada em produção e estabilização  Presencial 3x por semana em São Bernardo do Campo ou Jabaquara (dependendo da trilha) Disponibilidade para viagens (nacionais/internacional) || Empresa .....:  Randstad Brasil Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="I563" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>82748</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>SAP Funcional - Data Migration - Híbrido - SP</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>Atividades/Responsabilidades: - Atuar como Líder Funcional na discussão e desenho de processos de Procurement, garantindo a adaptação do Brasil ao template global da implantação. - Planejar e conduzir as fases do projeto, seguindo a metodologia SAP Activate (Discover, Explore, Implantação). - Representar a frente SAP Master Data (MD) localmente, interagindo com equipes e stakeholders chave em diferentes países. - Suportar o time técnico especializado em Greenfield e atuar com Hands-on na arquitetura de soluções e configuração de SAP MM/S2P. - Mapear e implementar processos Source to Pay, conduzindo workshops e discussões de processo. - Garantir o sucesso na entrada em produção (Go-Live) e estabilização do projeto.  Requisitos: - Residir em São Paulo/SP (Obrigatório). - Inglês Avançado/Fluente. - Profundo conhecimento em MDG, cadastro de materiais e BPs (Fornecedores e Clientes). - Experiência ou conhecimento em S/4HANA / MDG.
+Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 23/01/26 || SAP Funcional - Data Migration - Híbrido - SP || Atividades/Responsabilidades: - Atuar como Líder Funcional na discussão e desenho de processos de Procurement, garantindo a adaptação do Brasil ao template global da implantação. - Planejar e conduzir as fases do projeto, seguindo a metodologia SAP Activate (Discover, Explore, Implantação). - Representar a frente SAP Master Data (MD) localmente, interagindo com equipes e stakeholders chave em diferentes países. - Suportar o time técnico especializado em Greenfield e atuar com Hands-on na arquitetura de soluções e configuração de SAP MM/S2P. - Mapear e implementar processos Source to Pay, conduzindo workshops e discussões de processo. - Garantir o sucesso na entrada em produção (Go-Live) e estabilização do projeto.  Requisitos: - Residir em São Paulo/SP (Obrigatório). - Inglês Avançado/Fluente. - Profundo conhecimento em MDG, cadastro de materiais e BPs (Fornecedores e Clientes). - Experiência ou conhecimento em S/4HANA / MDG. || Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="I564" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>83377</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Analista de Dados</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>Buscamos um(a) Analista de Dados para atuar na gestão e análise de indicadores, dashboards e bases de dados, apoiando a tomada de decisão do negócio. O profissional terá atuação próxima ao PMO e em parceria com Engenharia de Dados, garantindo qualidade, consistência e confiabilidade das informações.  Responsabilidades: Atuar na gestão de dados de BI, acompanhando indicadores e dashboards, realizando ajustes em bancos de dados, reprocessamento e validação de dados. Utilizar Python e Excel para elaboração de relatórios de vendas, estoque e sellout. Apoiar a estruturação de dados para Power BI, com foco na orientação e gestão da construção dos painéis.  Contratação CLT + Benefícios Atuação no modelo híbrido São Paulo (3 dias presenciais e 2 dias home)
+Empresa .....:  MJV Technology  Innovation</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Analista de Dados || Buscamos um(a) Analista de Dados para atuar na gestão e análise de indicadores, dashboards e bases de dados, apoiando a tomada de decisão do negócio. O profissional terá atuação próxima ao PMO e em parceria com Engenharia de Dados, garantindo qualidade, consistência e confiabilidade das informações.  Responsabilidades: Atuar na gestão de dados de BI, acompanhando indicadores e dashboards, realizando ajustes em bancos de dados, reprocessamento e validação de dados. Utilizar Python e Excel para elaboração de relatórios de vendas, estoque e sellout. Apoiar a estruturação de dados para Power BI, com foco na orientação e gestão da construção dos painéis.  Contratação CLT + Benefícios Atuação no modelo híbrido São Paulo (3 dias presenciais e 2 dias home) || Empresa .....:  MJV Technology  Innovation</t>
+        </is>
+      </c>
+      <c r="I565" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>83042</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Analista de ESG</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>A Emphasys contrata : Entendimento de leis ambientais sobre embargos e alertas dentro do agronegócio e clientes corporativos Executar as análises da central de monitoramento geográfico para elaborar pareceres técnicos Executar as análises de embargos (Ibama, ICMBio, SEMAs, etc) através de análise documental e elaborar pareceres com uso de imagens de satélite – entendimento sobre PRODES, DETER, imagens geoespaciais (MapBiomas, etc) Executar análises relacionadas a mídias desabonadoras/adversas e elaborar pareceres técnicos Propor ações de melhoria contínua de análises técnicas acerca de temas relacionados a sustentabilidade (menos relevante) Experiência em legislação ambiental Conhecimento das plataformas QGIS, ESRI é desejável Conhecimento em Python é desejável Conhecimento em DRSAC, PRSAC e GRSAC é desejável Experiência em temas de sustentabilidade e agronegócio Experiência em legislação ambiental Conhecimento das plataformas QGIS, ESRI é desejável
+Empresa .....:  Emphasys</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Analista de ESG || A Emphasys contrata : Entendimento de leis ambientais sobre embargos e alertas dentro do agronegócio e clientes corporativos Executar as análises da central de monitoramento geográfico para elaborar pareceres técnicos Executar as análises de embargos (Ibama, ICMBio, SEMAs, etc) através de análise documental e elaborar pareceres com uso de imagens de satélite – entendimento sobre PRODES, DETER, imagens geoespaciais (MapBiomas, etc) Executar análises relacionadas a mídias desabonadoras/adversas e elaborar pareceres técnicos Propor ações de melhoria contínua de análises técnicas acerca de temas relacionados a sustentabilidade (menos relevante) Experiência em legislação ambiental Conhecimento das plataformas QGIS, ESRI é desejável Conhecimento em Python é desejável Conhecimento em DRSAC, PRSAC e GRSAC é desejável Experiência em temas de sustentabilidade e agronegócio Experiência em legislação ambiental Conhecimento das plataformas QGIS, ESRI é desejável || Empresa .....:  Emphasys</t>
+        </is>
+      </c>
+      <c r="I566" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>83378</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Analista de help desk - Bilingue</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Analista de Suporte Técnico Bilíngue para atuar no atendimento e suporte técnico/operacional a usuários internos e externos.  •	Prestar atendimento de suporte aos clientes via Microsoft Teams, e-mail, acesso remoto ou sistema de chamados. •	Atender clientes em português, inglês e ou espanhol (escrito e falado) •	Registrar, acompanhar e resolver chamados de suporte •	Identificar problemas, analisar causas e propor soluções •	Escalar incidentes para áreas responsáveis quando necessário •	Garantir o cumprimento do SLA de atendimento •	Atualizar documentações e base de conhecimento •	Manter comunicação clara e profissional com clientes e equipes internas  Conhecimentos sólidos em suporte a microinformática e redes.  Ensino superior completo ou em andamento (Ciências da Computação, Sistemas de informação e ou áreas relacionadas a tecnologia da informação).  Imprescindível inglês ou espanhol avançados.
+Empresa .....:  CALVI-IT</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Analista de help desk - Bilingue || Estamos em busca de um(a) Analista de Suporte Técnico Bilíngue para atuar no atendimento e suporte técnico/operacional a usuários internos e externos.  •	Prestar atendimento de suporte aos clientes via Microsoft Teams, e-mail, acesso remoto ou sistema de chamados. •	Atender clientes em português, inglês e ou espanhol (escrito e falado) •	Registrar, acompanhar e resolver chamados de suporte •	Identificar problemas, analisar causas e propor soluções •	Escalar incidentes para áreas responsáveis quando necessário •	Garantir o cumprimento do SLA de atendimento •	Atualizar documentações e base de conhecimento •	Manter comunicação clara e profissional com clientes e equipes internas  Conhecimentos sólidos em suporte a microinformática e redes.  Ensino superior completo ou em andamento (Ciências da Computação, Sistemas de informação e ou áreas relacionadas a tecnologia da informação).  Imprescindível inglês ou espanhol avançados. || Empresa .....:  CALVI-IT</t>
+        </is>
+      </c>
+      <c r="I567" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>83373</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura / Suporte Técnico</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>Analista de Suporte Técnico Pleno (Infraestrutura) Regime: CLT  Modelo: Presencial  Atuar com suporte técnico presencial e remoto aos usuários, garantindo atendimento eficiente de chamados de TI, suporte a estações de trabalho, sistemas corporativos e serviços Microsoft 365.  Atividades: • Suporte técnico N1 e N2 • Tratamento de chamados • Suporte a Windows, Linux • Instalação, configuração e manutenção de hardware e software • Apoio básico em redes (TCP/IP) e antivírus corporativo • Controle de inventário de TIC • Apoio a atendimentos externos, quando necessário • ELIMINATÓRIO - Suporte a Microsoft 365 (Entra, Office, Outlook, Exchange, Teams, OneDrive e SharePoint)  Requisitos: • Experiência em suporte técnico ou infraestrutura • Conhecimentos em Microsoft 365 • Noções de redes e segurança da informação • Ensino superior completo ou em andamento (desejável)  Diferencial: • Certificação Microsoft (365)  - Presencial  Próximo ao metrô Marechal -
+Empresa .....:  Buddha Spa</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Analista de Infraestrutura / Suporte Técnico || Analista de Suporte Técnico Pleno (Infraestrutura) Regime: CLT  Modelo: Presencial  Atuar com suporte técnico presencial e remoto aos usuários, garantindo atendimento eficiente de chamados de TI, suporte a estações de trabalho, sistemas corporativos e serviços Microsoft 365.  Atividades: • Suporte técnico N1 e N2 • Tratamento de chamados • Suporte a Windows, Linux • Instalação, configuração e manutenção de hardware e software • Apoio básico em redes (TCP/IP) e antivírus corporativo • Controle de inventário de TIC • Apoio a atendimentos externos, quando necessário • ELIMINATÓRIO - Suporte a Microsoft 365 (Entra, Office, Outlook, Exchange, Teams, OneDrive e SharePoint)  Requisitos: • Experiência em suporte técnico ou infraestrutura • Conhecimentos em Microsoft 365 • Noções de redes e segurança da informação • Ensino superior completo ou em andamento (desejável)  Diferencial: • Certificação Microsoft (365)  - Presencial  Próximo ao metrô Marechal - || Empresa .....:  Buddha Spa</t>
+        </is>
+      </c>
+      <c r="I568" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>82718</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>bys Sr. Business Partner</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>Requisitos: Experiência sólida como Product Owner ou Analista Funcional Sênior com atuação equivalente. Experiência com projetos de dados, transformação digital e soluções para Vendas. Atuação em projetos complexos e ambientes corporativos multinacionais. Experiência LATAM. Inglês e espanhol avançados para conversação. Perfil analítico, comunicativo e orientado a valor de negócio. Experiência em plataformas de e-commerce como: salesforce, vtex, dentre outras.  Diferenciais: Experiência com metodologias ágeis (Scrum/Kanban). Conhecimento em CRM, BI ou ferramentas de integração de dados. Híbrido: 3x presencial no escritório e 2x home office  Contratação PJ Horário de trabalho das 09h às 18h
+Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || bys Sr. Business Partner || Requisitos: Experiência sólida como Product Owner ou Analista Funcional Sênior com atuação equivalente. Experiência com projetos de dados, transformação digital e soluções para Vendas. Atuação em projetos complexos e ambientes corporativos multinacionais. Experiência LATAM. Inglês e espanhol avançados para conversação. Perfil analítico, comunicativo e orientado a valor de negócio. Experiência em plataformas de e-commerce como: salesforce, vtex, dentre outras.  Diferenciais: Experiência com metodologias ágeis (Scrum/Kanban). Conhecimento em CRM, BI ou ferramentas de integração de dados. Híbrido: 3x presencial no escritório e 2x home office  Contratação PJ Horário de trabalho das 09h às 18h || Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="I569" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>82458</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>CG Lead / Pipeline Manager  Híbrido SP</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>Conhecimento técnico bom da criação de meshes, e sua importação e uso dentro da unity Será responsável por coordenar o time de CG como um todo, alocando seus recursos pra atenderem as demandas dos demais produtos conforme necessário Responsável por criar, manter, e enforçar a Pipeline de CG  Pipeline de CG diz respeito à: Criação das meshes Validação com os professores Texturização já tendo em mente a otimização necessária pra uso em Mobile e VR Organização das estruturas dentro dos Corpos Suas nomenclaturas, formatos, e parâmetros de exportação Otimização dessas meshes pra Mobile e VR Exportação controlada fazendo uso de plugins custom pro Maya ou outros recursos equivalentes, mantendo o vínculo das estruturas modeladas (meshes) com suas informações anatômicas (planilhas de informação do corpo) Importação dentro da Unity (trabalhando em conjunto com os Dev Unity de Mobile e VR, principalmente)  Vaga híbrida 2x presencial SP Contratação CLT (enviar pretensão)
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || CG Lead / Pipeline Manager  Híbrido SP || Conhecimento técnico bom da criação de meshes, e sua importação e uso dentro da unity Será responsável por coordenar o time de CG como um todo, alocando seus recursos pra atenderem as demandas dos demais produtos conforme necessário Responsável por criar, manter, e enforçar a Pipeline de CG  Pipeline de CG diz respeito à: Criação das meshes Validação com os professores Texturização já tendo em mente a otimização necessária pra uso em Mobile e VR Organização das estruturas dentro dos Corpos Suas nomenclaturas, formatos, e parâmetros de exportação Otimização dessas meshes pra Mobile e VR Exportação controlada fazendo uso de plugins custom pro Maya ou outros recursos equivalentes, mantendo o vínculo das estruturas modeladas (meshes) com suas informações anatômicas (planilhas de informação do corpo) Importação dentro da Unity (trabalhando em conjunto com os Dev Unity de Mobile e VR, principalmente)  Vaga híbrida 2x presencial SP Contratação CLT (enviar pretensão) || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I570" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>83147</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Cientista de Dados</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>Cientista de Dados: Empresa de grande porte do setor alimentício, com atuação internacional  Contratação: CLT + benefícios, 08h às 18h, Totalmente presencial em São Paulo/SP - Vila Jaguara  Atividades principais: Desenvolvimento, treinamento e publicação de modelos de Machine Learning e IA Atuação com Databricks e AWS SageMaker Implementação e automação de pipelines de dados em Python Monitoramento, manutenção e melhoria contínua de modelos em produção Análises estatísticas, testes de hipóteses e geração de insights de negócio  Requisitos Domínio de Python (pandas, scikit-learn, pyspark, statsmodels) Experiência prática com Databricks e AWS SageMaker Conhecimento em modelos de regressão, classificação, séries temporais, árvores de decisão, random forest, XGBoost e clustering Vivência com métricas de avaliação como AUC, RMSE e F1-score  Diferenciais Experiência com MLOps, MLflow, Delta Lake e automação de pipelines Participação em projetos de inovação ou PD
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Cientista de Dados || Cientista de Dados: Empresa de grande porte do setor alimentício, com atuação internacional  Contratação: CLT + benefícios, 08h às 18h, Totalmente presencial em São Paulo/SP - Vila Jaguara  Atividades principais: Desenvolvimento, treinamento e publicação de modelos de Machine Learning e IA Atuação com Databricks e AWS SageMaker Implementação e automação de pipelines de dados em Python Monitoramento, manutenção e melhoria contínua de modelos em produção Análises estatísticas, testes de hipóteses e geração de insights de negócio  Requisitos Domínio de Python (pandas, scikit-learn, pyspark, statsmodels) Experiência prática com Databricks e AWS SageMaker Conhecimento em modelos de regressão, classificação, séries temporais, árvores de decisão, random forest, XGBoost e clustering Vivência com métricas de avaliação como AUC, RMSE e F1-score  Diferenciais Experiência com MLOps, MLflow, Delta Lake e automação de pipelines Participação em projetos de inovação ou PD || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I571" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>83382</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Consultor Oracle Retail</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Desenvolvedor(a) com experiência comprovada e habilidades nas seguintes aplicações: • 	Oracle Retail Predictive Application Server (RPAS) • 	Oracle Demand Forecasting (RDF) • 	Oracle Advanced Inventory Planning (AIP) • 	Scripting em Unix  Modelo de trabalho: Totalmente remoto Se você possui experiência nessas tecnologias e deseja atuar em um ambiente dinâmico e desafiador, será um prazer conhecer seu perfil. Por favor, encaminhe seu currículo atualizado para avaliação.
+Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor Oracle Retail || Estamos em busca de um(a) Desenvolvedor(a) com experiência comprovada e habilidades nas seguintes aplicações: • 	Oracle Retail Predictive Application Server (RPAS) • 	Oracle Demand Forecasting (RDF) • 	Oracle Advanced Inventory Planning (AIP) • 	Scripting em Unix  Modelo de trabalho: Totalmente remoto Se você possui experiência nessas tecnologias e deseja atuar em um ambiente dinâmico e desafiador, será um prazer conhecer seu perfil. Por favor, encaminhe seu currículo atualizado para avaliação. || Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="I572" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>82274</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Consultor SAP APO SR</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>Experiências: Implementar, melhorar e manter soluções de IT Finanças. Traduzir requerimentos técnicos em especificações funcionais para atender aos requerimentos de negocio. Ter experiência com implantação do zero, mapear problemas, desenhar soluções e go live.  Experiência com implantação de sistemas e conhecimento em sistemas de fábrica. Participar de projetos de implementação de novas soluções, projetos de fusão ou aquisição. Atuar junto a equipe de centro de serviços compartilhado NBS.  Adotar praticas de gestão de mudança em IT usando a ferramenta Service Now e uso da metodologia NCE. Solidos conhecimentos nos processos de S2P (Source to Pay), contas a pagar e Contabilidade Financeira Conhecimento em gestão de pagamentos a transportadores e conhecimentos fiscais será um diferencial.  Modelo de Trabalho Hibrido 02 vezes no escritório  Inglês Avançado, Espanhol Desejável.
+Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor SAP APO SR || Experiências: Implementar, melhorar e manter soluções de IT Finanças. Traduzir requerimentos técnicos em especificações funcionais para atender aos requerimentos de negocio. Ter experiência com implantação do zero, mapear problemas, desenhar soluções e go live.  Experiência com implantação de sistemas e conhecimento em sistemas de fábrica. Participar de projetos de implementação de novas soluções, projetos de fusão ou aquisição. Atuar junto a equipe de centro de serviços compartilhado NBS.  Adotar praticas de gestão de mudança em IT usando a ferramenta Service Now e uso da metodologia NCE. Solidos conhecimentos nos processos de S2P (Source to Pay), contas a pagar e Contabilidade Financeira Conhecimento em gestão de pagamentos a transportadores e conhecimentos fiscais será um diferencial.  Modelo de Trabalho Hibrido 02 vezes no escritório  Inglês Avançado, Espanhol Desejável. || Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="I573" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>82767</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Consultor SAP CCS Billing SR</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>Graduação completa em Administração, Engenharia, Sistemas de Informação ou áreas correlatas Experiência sólida na configuração e manutenção de processos de faturamento (Billing  Invoicing), incluindo regras de apuração de impostos Vivência com integração do módulo Billing  Invoicing com os módulos SAP DM e FI-CA Atuação em testes de soluções, envolvendo criação e execução de cenários de teste para validação dos processos de cálculo, faturamento e impressão Participação em projetos de implementação ou melhorias no SAP IS-U (CCS), com foco em cálculo, faturamento e impressão, em empresas do setor de energia.  Modelo de contratação CLT. Plano de Saúde subsidiado pela empresa para o titular. Opção de inclusão de dependentes no Plano de Saúde com desconto em folha de pagamento. Assistência Odontológica (opcional). Opção de inclusão de dependentes no Plano de Assistência Odontológica com desconto em folha de pagamento. Vale Refeição ou Vale Alimentação.
+Empresa .....:  Indra</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor SAP CCS Billing SR || Graduação completa em Administração, Engenharia, Sistemas de Informação ou áreas correlatas Experiência sólida na configuração e manutenção de processos de faturamento (Billing  Invoicing), incluindo regras de apuração de impostos Vivência com integração do módulo Billing  Invoicing com os módulos SAP DM e FI-CA Atuação em testes de soluções, envolvendo criação e execução de cenários de teste para validação dos processos de cálculo, faturamento e impressão Participação em projetos de implementação ou melhorias no SAP IS-U (CCS), com foco em cálculo, faturamento e impressão, em empresas do setor de energia.  Modelo de contratação CLT. Plano de Saúde subsidiado pela empresa para o titular. Opção de inclusão de dependentes no Plano de Saúde com desconto em folha de pagamento. Assistência Odontológica (opcional). Opção de inclusão de dependentes no Plano de Assistência Odontológica com desconto em folha de pagamento. Vale Refeição ou Vale Alimentação. || Empresa .....:  Indra</t>
+        </is>
+      </c>
+      <c r="I574" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>83383</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Consultor SAP CO/PS Sênior</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>Consultor SAP CO/PS Sênior  Requisitos  Experiência comprovada em implementação de SAP ECC + S4HANA, com a utilização de Material Ledger Conhecimento de CO com diagrama de rede Conhecimento dos mecanismos de PS e suas integrações com CO e MM, centro de lucro  Diferencial Noções de CO-PA  Presencial Formato: CLT
+Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor SAP CO/PS Sênior || Consultor SAP CO/PS Sênior  Requisitos  Experiência comprovada em implementação de SAP ECC + S4HANA, com a utilização de Material Ledger Conhecimento de CO com diagrama de rede Conhecimento dos mecanismos de PS e suas integrações com CO e MM, centro de lucro  Diferencial Noções de CO-PA  Presencial Formato: CLT || Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="I575" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>82455</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Consultor SAP MM</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>Forte experiência em implementações e migrações SAP S/4 Hana do módulo MM, com projetos completos de acordo com as metodologias oficiais de implementação Fortes habilidades de configuração logística e de compras em S/4 HANA Experiência com os pontos de integração entre MM e outros módulos Conhecimento das melhores práticas integradas ao software SAP Conhecimentos sobre a configuração de Localização Brasileira e Impostos (TAXBRA), processos de Compras, Gestão de Serviços, Estoques e Movimentações, Verificação de Faturas, Business Partners e Nota Fiscal Eletronica (incluindo os sub-módulos PUR, INV, IM e IV).  Contratação PJ - Remoto  Enviar cv + pretensão
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor SAP MM || Forte experiência em implementações e migrações SAP S/4 Hana do módulo MM, com projetos completos de acordo com as metodologias oficiais de implementação Fortes habilidades de configuração logística e de compras em S/4 HANA Experiência com os pontos de integração entre MM e outros módulos Conhecimento das melhores práticas integradas ao software SAP Conhecimentos sobre a configuração de Localização Brasileira e Impostos (TAXBRA), processos de Compras, Gestão de Serviços, Estoques e Movimentações, Verificação de Faturas, Business Partners e Nota Fiscal Eletronica (incluindo os sub-módulos PUR, INV, IM e IV).  Contratação PJ - Remoto  Enviar cv + pretensão || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I576" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>82454</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Consultor SAP SD</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>Experiência em implementação completa de SAP S/4HANA – Módulo SD Consultores com conhecimento e experiência em projetos complexos de SAP S/4HANA, perfil consultivo, com domínio das funcionalidades específicas do módulo SD, no contexto do SAP S/4HANA Conhecimento e experiência como consultor Sênior de SAP SD, incluindo processos ponta a ponta de vendas, faturamento, gestão de crédito, parceiros comerciais, transporte, exportações e integração com nota fiscal eletrônica. Conhecimento e monitoramento de interfaces para geração de ordens de venda Conhecimento profundo do SAP SD, com experiência prática em diferentes indústrias Conhecimento de outros módulos SAP (como MM, FI), com visão ampla e integrada que permita propor a melhor definição da estrutura organizacional e dos processos de negócio.  Vaga remota - Contratação PJ Enviar cv e pretensão
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor SAP SD || Experiência em implementação completa de SAP S/4HANA – Módulo SD Consultores com conhecimento e experiência em projetos complexos de SAP S/4HANA, perfil consultivo, com domínio das funcionalidades específicas do módulo SD, no contexto do SAP S/4HANA Conhecimento e experiência como consultor Sênior de SAP SD, incluindo processos ponta a ponta de vendas, faturamento, gestão de crédito, parceiros comerciais, transporte, exportações e integração com nota fiscal eletrônica. Conhecimento e monitoramento de interfaces para geração de ordens de venda Conhecimento profundo do SAP SD, com experiência prática em diferentes indústrias Conhecimento de outros módulos SAP (como MM, FI), com visão ampla e integrada que permita propor a melhor definição da estrutura organizacional e dos processos de negócio.  Vaga remota - Contratação PJ Enviar cv e pretensão || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I577" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>82651</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Consultor SAP SD (IS-OIL)</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>Consultor SAP SD (IS-OIL)  Hibrido - São Paulo (Faria Lima) Contratação PJ  Consultor SAP SD com ampla experiência comprovada em implantações SAP, na Indústria de Óleo  Gás, especialmente com experiência na configuração da solução SAP IS-Oil para os cenários de Order to Cash.  Requisitos: •	Experiência em projetos SAP SD (mínimo 5 anos, com ao menos 1 ciclo completo de implementação em Oil  Gas). •	Conhecimento funcional de IS-Oil (HPM, TSW, contratos e distribuição downstream). •	Integração com módulos MM e FI/CO. •	Vivência em SAP S/4HANA é um diferencial. •	Inglês desejável para interface com times globais.  Vem fazer parte do nosso time
+Empresa .....:  3AM-IT</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor SAP SD (IS-OIL) || Consultor SAP SD (IS-OIL)  Hibrido - São Paulo (Faria Lima) Contratação PJ  Consultor SAP SD com ampla experiência comprovada em implantações SAP, na Indústria de Óleo  Gás, especialmente com experiência na configuração da solução SAP IS-Oil para os cenários de Order to Cash.  Requisitos: •	Experiência em projetos SAP SD (mínimo 5 anos, com ao menos 1 ciclo completo de implementação em Oil  Gas). •	Conhecimento funcional de IS-Oil (HPM, TSW, contratos e distribuição downstream). •	Integração com módulos MM e FI/CO. •	Vivência em SAP S/4HANA é um diferencial. •	Inglês desejável para interface com times globais.  Vem fazer parte do nosso time || Empresa .....:  3AM-IT</t>
+        </is>
+      </c>
+      <c r="I578" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>82685</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Consultor SAP SD (IS-OIL)</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>Consultor SAP SD (IS-OIL)  Hibrido - São Paulo (Faria Lima) Contratação PJ  Consultor SAP SD com ampla experiência comprovada em implantações SAP, na Indústria de Óleo e Gás, especialmente com experiência na configuração da solução SAP IS-Oil para os cenários de Order to Cash.  Requisitos: •	Experiência em projetos SAP SD (mínimo 5 anos, com ao menos 1 ciclo completo de implementação em Oil Gas). •	Conhecimento funcional de IS-Oil (HPM, TSW, contratos e distribuição downstream). •	Integração com módulos MM e FI/CO. •	Vivência em SAP S/4HANA é um diferencial. •	Inglês desejável para interface com times globais.  Vem fazer parte do nosso time
+Empresa .....:  3AM-IT</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor SAP SD (IS-OIL) || Consultor SAP SD (IS-OIL)  Hibrido - São Paulo (Faria Lima) Contratação PJ  Consultor SAP SD com ampla experiência comprovada em implantações SAP, na Indústria de Óleo e Gás, especialmente com experiência na configuração da solução SAP IS-Oil para os cenários de Order to Cash.  Requisitos: •	Experiência em projetos SAP SD (mínimo 5 anos, com ao menos 1 ciclo completo de implementação em Oil Gas). •	Conhecimento funcional de IS-Oil (HPM, TSW, contratos e distribuição downstream). •	Integração com módulos MM e FI/CO. •	Vivência em SAP S/4HANA é um diferencial. •	Inglês desejável para interface com times globais.  Vem fazer parte do nosso time || Empresa .....:  3AM-IT</t>
+        </is>
+      </c>
+      <c r="I579" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>82742</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Consultor SAP WM</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>Local: São Bernardo do Campo/SP – modelo híbrido 2x Idioma: Inglês avançado (interações frequentes com o time na Alemanha)  Requisitos: Experiência sólida em projetos de rollout de template global (Europa / Brasil) Forte atuação com o módulo SAP WM Experiência em modelagem e especificação de interfaces entre SAP e sistemas legados  Responsabilidades: Aplicação e adaptação do template global SAP para o contexto brasileiro Condução de apresentações para usuários locais Avaliação de aderência à operação nacional e ajustes de configuração específicos Elaboração de especificações funcionais para GAPs identificados Participação em testes técnicos, suporte à homologação e go live Treinamentos e suporte pós-implantação
+Empresa .....:  Conquest One</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor SAP WM || Local: São Bernardo do Campo/SP – modelo híbrido 2x Idioma: Inglês avançado (interações frequentes com o time na Alemanha)  Requisitos: Experiência sólida em projetos de rollout de template global (Europa / Brasil) Forte atuação com o módulo SAP WM Experiência em modelagem e especificação de interfaces entre SAP e sistemas legados  Responsabilidades: Aplicação e adaptação do template global SAP para o contexto brasileiro Condução de apresentações para usuários locais Avaliação de aderência à operação nacional e ajustes de configuração específicos Elaboração de especificações funcionais para GAPs identificados Participação em testes técnicos, suporte à homologação e go live Treinamentos e suporte pós-implantação || Empresa .....:  Conquest One</t>
+        </is>
+      </c>
+      <c r="I580" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>83372</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Consultor Sênior - TOTVS Protheus</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>Local: Hibrido - SP Contratação: PJ Período: 3 meses, com chances de prorrogar  Requisitos: Experiência comprovada em TOTVS Protheus (implantação, suporte ou evolução) Conhecimento em linguagem ADVPL e banco de dados (SQL Server, Oracle) Familiaridade com módulos financeiros, contábeis e fiscais Experiência em integração com sistemas externos via API ou Webservice Habilidade em análise de processos e geração de relatórios Disponibilidade para viagens, conforme necessidade do projeto  Conhecimentos Desejáveis: Certificação TOTVS Protheus Experiência com Fluig, Analytics, Gestão Fiscal e soluções complementares TOTVS Vivência em projetos de transformação digital e migração para cloud
+Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Consultor Sênior - TOTVS Protheus || Local: Hibrido - SP Contratação: PJ Período: 3 meses, com chances de prorrogar  Requisitos: Experiência comprovada em TOTVS Protheus (implantação, suporte ou evolução) Conhecimento em linguagem ADVPL e banco de dados (SQL Server, Oracle) Familiaridade com módulos financeiros, contábeis e fiscais Experiência em integração com sistemas externos via API ou Webservice Habilidade em análise de processos e geração de relatórios Disponibilidade para viagens, conforme necessidade do projeto  Conhecimentos Desejáveis: Certificação TOTVS Protheus Experiência com Fluig, Analytics, Gestão Fiscal e soluções complementares TOTVS Vivência em projetos de transformação digital e migração para cloud || Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="I581" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>83371</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Back End Java Sênior/PL</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>Desenvolvimento e sustentação de aplicações em Java (Java 8+ / 11+ / 17+) Implementação e manutenção de padrões arquiteturais e frameworks como Spring MVC e Spring Boot Construção e integração de serviços e APIs (REST) Atuação com componentes/sistemas legados quando necessário (ex.: JSP/Servlets, JSF, EJB e servidores de aplicação) Versionamento e gestão de branches com Git e Gitflow Criação e otimização de queries, views e rotinas em bancos relacionais (SQL) Experiência mínima de 5 anos em desenvolvimento Java Sólido conhecimento em Java (8+ / 11+) e Spring Boot (2.x ou superior) Forte domínio em Programação Orientada a Objetos Experiência prática com APIs REST e integração entre serviços Vivência com Scrum e práticas ágeis Experiência com Git e Gitflo  Híbrido - SP
+Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Desenvolvedor Back End Java Sênior/PL || Desenvolvimento e sustentação de aplicações em Java (Java 8+ / 11+ / 17+) Implementação e manutenção de padrões arquiteturais e frameworks como Spring MVC e Spring Boot Construção e integração de serviços e APIs (REST) Atuação com componentes/sistemas legados quando necessário (ex.: JSP/Servlets, JSF, EJB e servidores de aplicação) Versionamento e gestão de branches com Git e Gitflow Criação e otimização de queries, views e rotinas em bancos relacionais (SQL) Experiência mínima de 5 anos em desenvolvimento Java Sólido conhecimento em Java (8+ / 11+) e Spring Boot (2.x ou superior) Forte domínio em Programação Orientada a Objetos Experiência prática com APIs REST e integração entre serviços Vivência com Scrum e práticas ágeis Experiência com Git e Gitflo  Híbrido - SP || Empresa .....:  MJV SOLUCOES EM TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I582" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>82829</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Oracle EBS R12</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>Prazo: 1 mês, com chances de prorrogar Local: Remoto Contratação: PJ  Inglês: Avançado Desenvolvedor(a) Oracle EBS (Forms/Reports  PL/SQL), Business Suíte (R12) A pessoa será referência técnica em Oracle Forms/Reports e PL/SQL, liderando entregas de (Reports, Interfaces, Forms, Workflows), integrações e melhorias, com foco em performance.  Conhecimentos Técnicos Desejáveis: Experiência em Oracle EBS R12 (12.1/12.2) como desenvolvedor(a). Domínio de Oracle Forms/Reports e PL/SQL (incluindo performance, otimização de consultas e desenho de objetos).
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Desenvolvedor Oracle EBS R12 || Prazo: 1 mês, com chances de prorrogar Local: Remoto Contratação: PJ  Inglês: Avançado Desenvolvedor(a) Oracle EBS (Forms/Reports  PL/SQL), Business Suíte (R12) A pessoa será referência técnica em Oracle Forms/Reports e PL/SQL, liderando entregas de (Reports, Interfaces, Forms, Workflows), integrações e melhorias, com foco em performance.  Conhecimentos Técnicos Desejáveis: Experiência em Oracle EBS R12 (12.1/12.2) como desenvolvedor(a). Domínio de Oracle Forms/Reports e PL/SQL (incluindo performance, otimização de consultas e desenho de objetos). || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I583" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>82951</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Sênior - Híbrido (Berrini, SP)</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>Buscamos um(a) Desenvolvedor(a) Sênior com sólida experiência em GCP, PHP aplicado a sistemas de planejamento, e Golang, além de forte conhecimento em bancos de dados SQL Server e MySQL. Esse profissional terá papel estratégico no time, atuando tanto no desenvolvimento de soluções, quanto na liderança técnica e mentoria de desenvolvedores juniores.  Requisitos: Experiência comprovada com GCP Domínio de PHP e Golang Sólido conhecimento em SQL Server e MySQL Capacidade de liderança técnica  Diferenciais: Inglês avançado Excelente comunicação e organização  Contratação PJ + Benefícios (AM, AO e Totalpass após 3 meses)
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Desenvolvedor Sênior - Híbrido (Berrini, SP) || Buscamos um(a) Desenvolvedor(a) Sênior com sólida experiência em GCP, PHP aplicado a sistemas de planejamento, e Golang, além de forte conhecimento em bancos de dados SQL Server e MySQL. Esse profissional terá papel estratégico no time, atuando tanto no desenvolvimento de soluções, quanto na liderança técnica e mentoria de desenvolvedores juniores.  Requisitos: Experiência comprovada com GCP Domínio de PHP e Golang Sólido conhecimento em SQL Server e MySQL Capacidade de liderança técnica  Diferenciais: Inglês avançado Excelente comunicação e organização  Contratação PJ + Benefícios (AM, AO e Totalpass após 3 meses) || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I584" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>83379</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>ENGENHEIRO DE DADOS</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>Experiência comprovada em CI/CD com Azure DevOps Pipelines Uso de Azure DevOps (Repos, branches, Pull Requests, tarefas e GIT) Python para desenvolvimento de pipelines e automações Domínio em SQL (DDL e DML) Experiência com Azure Data Factory (ADF) Experiência com Azure Databricks (clusters, Repos, SQL e PySpark) Implementação de ETL/ELT e integração de dados entre múltiplas fontes Conhecimento no ecossistema Azure Atuação em projetos ágeis com boa comunicação e autonomia técnica  LOCAL: Vila Olímpia - SP FORMATO: Híbrido (3x/ semana presencialmente) REGIME DE CONTRATAÇÃO: PJ
+Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || ENGENHEIRO DE DADOS || Experiência comprovada em CI/CD com Azure DevOps Pipelines Uso de Azure DevOps (Repos, branches, Pull Requests, tarefas e GIT) Python para desenvolvimento de pipelines e automações Domínio em SQL (DDL e DML) Experiência com Azure Data Factory (ADF) Experiência com Azure Databricks (clusters, Repos, SQL e PySpark) Implementação de ETL/ELT e integração de dados entre múltiplas fontes Conhecimento no ecossistema Azure Atuação em projetos ágeis com boa comunicação e autonomia técnica  LOCAL: Vila Olímpia - SP FORMATO: Híbrido (3x/ semana presencialmente) REGIME DE CONTRATAÇÃO: PJ || Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="I585" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>82984</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Engenheiro de Desenvolvimento de Hardware Sr</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>Requisitos: Experiência em C para sistemas embarcados e conhecimento em engenharia de software. Experiência com módulos celulares (2G/3G/4G-LTE, Cat-M1, NB-IoT), GPS, WiFi, Bluetooth, LoRa e outros.  Inglês avançado.  Mínimo de 10 anos de experiência na área de hardware. Conhecimento em projetos de PCBs multicamadas (analógico, digital e RF) e em desenvolvimento de firmware C para testes e validação. Capacidade de realizar testes funcionais, usar equipamentos de medição (multímetros, osciloscópios, fontes programáveis) e gerar documentação técnica (Gerbers, BOM). Habilidade para propor melhorias de dispositivos, acompanhar montagem/testes com fornecedores e colaborar com setores de compras e manutenção. Familiaridade com metodologias de gerenciamento de projetos (PMBOK).  Desejável disponibilidade para possíveis viagens
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Engenheiro de Desenvolvimento de Hardware Sr || Requisitos: Experiência em C para sistemas embarcados e conhecimento em engenharia de software. Experiência com módulos celulares (2G/3G/4G-LTE, Cat-M1, NB-IoT), GPS, WiFi, Bluetooth, LoRa e outros.  Inglês avançado.  Mínimo de 10 anos de experiência na área de hardware. Conhecimento em projetos de PCBs multicamadas (analógico, digital e RF) e em desenvolvimento de firmware C para testes e validação. Capacidade de realizar testes funcionais, usar equipamentos de medição (multímetros, osciloscópios, fontes programáveis) e gerar documentação técnica (Gerbers, BOM). Habilidade para propor melhorias de dispositivos, acompanhar montagem/testes com fornecedores e colaborar com setores de compras e manutenção. Familiaridade com metodologias de gerenciamento de projetos (PMBOK).  Desejável disponibilidade para possíveis viagens || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I586" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>83010</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Especialista Elipse</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>Descrição da Vaga – Analista/Engenheiro de Sistemas Elipse E3  **Local de trabalho:** Remoto (com disponibilidade para viagens eventuais) **Início:** Imediato  Requisitos obrigatórios - Certificação **Elipse E3** válida e atualizada - Experiência comprovada em desenvolvimento, manutenção e suporte de aplicações Elipse E3 - Conhecimento em integração de sistemas industriais e/ou utilitários - Boa comunicação e capacidade de trabalho colaborativo em ambiente remoto - Disponibilidade para viagens pontuais, conforme necessidade dos projetos  Diferenciais desejáveis - Experiência com **Elipse Water** ou outros módulos da plataforma Elipse - Vivência em projetos de automação e utilities (energia, água, saneamento) - Inglês técnico para leitura de documentação
+Empresa .....:  Elliot Cloud Sistemas LTDA</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Especialista Elipse || Descrição da Vaga – Analista/Engenheiro de Sistemas Elipse E3  **Local de trabalho:** Remoto (com disponibilidade para viagens eventuais) **Início:** Imediato  Requisitos obrigatórios - Certificação **Elipse E3** válida e atualizada - Experiência comprovada em desenvolvimento, manutenção e suporte de aplicações Elipse E3 - Conhecimento em integração de sistemas industriais e/ou utilitários - Boa comunicação e capacidade de trabalho colaborativo em ambiente remoto - Disponibilidade para viagens pontuais, conforme necessidade dos projetos  Diferenciais desejáveis - Experiência com **Elipse Water** ou outros módulos da plataforma Elipse - Vivência em projetos de automação e utilities (energia, água, saneamento) - Inglês técnico para leitura de documentação || Empresa .....:  Elliot Cloud Sistemas LTDA</t>
+        </is>
+      </c>
+      <c r="I587" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>82916</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Especialista em SAP PP e/ou QM</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>Será a principal referência das soluções SAP PP (Planejamento e Produção) e QM (Gestão da Qualidade), garantindo sua integração com todo o ecossistema SAP. A pessoa atuará desde a visão conceitual até a definição técnica das soluções, alinhadas à estratégia do negócio, definindo padrões, boas práticas e garantindo a entrega junto aos times funcionais e técnicos.  Será responsável por entender as necessidades do negócio, traduzir em soluções integradas, manter e evoluir processos, atuar como parceiro estratégico para melhoria contínua e apoiar iniciativas globais, incluindo projetos S/4HANA.  Responsabilidades: • Ownership dos processos SAP PP  QM e integrações • Desenho de soluções e fluxos end-to-end • Gestão do relacionamento com o negócio e priorização de valor • Proposição de melhorias contínuas e resolução de incidentes recorrentes  Requisitos: • Experiência sólida em SAP PP e QM • Conhecimento em SAP IM • Boas práticas de TI • Inglês avançado
+Empresa .....:  Adecco Paulista</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Especialista em SAP PP e/ou QM || Será a principal referência das soluções SAP PP (Planejamento e Produção) e QM (Gestão da Qualidade), garantindo sua integração com todo o ecossistema SAP. A pessoa atuará desde a visão conceitual até a definição técnica das soluções, alinhadas à estratégia do negócio, definindo padrões, boas práticas e garantindo a entrega junto aos times funcionais e técnicos.  Será responsável por entender as necessidades do negócio, traduzir em soluções integradas, manter e evoluir processos, atuar como parceiro estratégico para melhoria contínua e apoiar iniciativas globais, incluindo projetos S/4HANA.  Responsabilidades: • Ownership dos processos SAP PP  QM e integrações • Desenho de soluções e fluxos end-to-end • Gestão do relacionamento com o negócio e priorização de valor • Proposição de melhorias contínuas e resolução de incidentes recorrentes  Requisitos: • Experiência sólida em SAP PP e QM • Conhecimento em SAP IM • Boas práticas de TI • Inglês avançado || Empresa .....:  Adecco Paulista</t>
+        </is>
+      </c>
+      <c r="I588" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>82348</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>ESPECIALISTA SAP MM - INGLÊS - HÍBRIDO SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO HÍBRIDA 3X POR SEMANA, NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP CONTRATAÇÃO PJ  Requisitos: - INGLÊS AVANÇADO E/OU FLUENTE (MANDATÓRIO, INTERAÇÃO COM TIME GLOBAL) - Experiência para a implementação da Reforma tributária, Hypercare do projeto de migração do ECC.  - Imprescindível conhecer da Reforma, tendo grande  conhecimento em configuração de Localização Brasil, tanto para MM.  Escopo: - Será detalhado em entrevista técnica
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || ESPECIALISTA SAP MM - INGLÊS - HÍBRIDO SÃO PAULO || ATUAÇÃO HÍBRIDA 3X POR SEMANA, NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP CONTRATAÇÃO PJ  Requisitos: - INGLÊS AVANÇADO E/OU FLUENTE (MANDATÓRIO, INTERAÇÃO COM TIME GLOBAL) - Experiência para a implementação da Reforma tributária, Hypercare do projeto de migração do ECC.  - Imprescindível conhecer da Reforma, tendo grande  conhecimento em configuração de Localização Brasil, tanto para MM.  Escopo: - Será detalhado em entrevista técnica || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I589" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>82472</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Funcional EBS</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>Experiência comprovada como Analista Funcional em projetos com Oracle EBS. Conhecimento funcional nos módulos financeiros e de faturamento (AR, AP, OM). Vivência com meios de pagamento: gateways, adquirentes, APIs de pagamento, conciliação. Capacidade de traduzir requisitos de negócio em especificações funcionais claras. Habilidade de comunicação com áreas técnicas e não técnicas. Boa visão analítica sobre produtos. Forte senso de responsabilidade - ter postura de dono do produto.  Superior Completo.
+Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || Funcional EBS || Experiência comprovada como Analista Funcional em projetos com Oracle EBS. Conhecimento funcional nos módulos financeiros e de faturamento (AR, AP, OM). Vivência com meios de pagamento: gateways, adquirentes, APIs de pagamento, conciliação. Capacidade de traduzir requisitos de negócio em especificações funcionais claras. Habilidade de comunicação com áreas técnicas e não técnicas. Boa visão analítica sobre produtos. Forte senso de responsabilidade - ter postura de dono do produto.  Superior Completo. || Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="I590" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>83045</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>High Jump Consultant</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>High Jump Consultant  Escala da Vaga: quarta a domingo a das 13:00 as 23:00  Inglês avançado  Buscamos um Consultor Técnico Júnior focado na plataforma Körber (HighJump) para atuar no desenvolvimento de correções, melhorias e suporte técnico avançado. O profissional será responsável por garantir a estabilidade do WMS, atuando diretamente no código da ferramenta (Advantage Architect) e no banco de dados para resolver falhas operacionais e de integração.  Desenvolvimento e Correções: Desenvolver correções de bugs (bug fixes), realizar testes unitários e analisar potenciais novos erros dentro do ecossistema WMS.  Sustentação de Operações: Atuar na resolução de falhas críticas, como falhas de processamento de embarques (shipment fails) e erros de configuração de fluxo.  Customização de Interface: Utilizar o WebWise Page Editor para ajustes e criação de telas e fluxos de interface para o usuário. Gestão de Chamados e Tarefas: Utilizar ServiceNow para supor
+Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || High Jump Consultant || High Jump Consultant  Escala da Vaga: quarta a domingo a das 13:00 as 23:00  Inglês avançado  Buscamos um Consultor Técnico Júnior focado na plataforma Körber (HighJump) para atuar no desenvolvimento de correções, melhorias e suporte técnico avançado. O profissional será responsável por garantir a estabilidade do WMS, atuando diretamente no código da ferramenta (Advantage Architect) e no banco de dados para resolver falhas operacionais e de integração.  Desenvolvimento e Correções: Desenvolver correções de bugs (bug fixes), realizar testes unitários e analisar potenciais novos erros dentro do ecossistema WMS.  Sustentação de Operações: Atuar na resolução de falhas críticas, como falhas de processamento de embarques (shipment fails) e erros de configuração de fluxo.  Customização de Interface: Utilizar o WebWise Page Editor para ajustes e criação de telas e fluxos de interface para o usuário. Gestão de Chamados e Tarefas: Utilizar ServiceNow para supor || Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="I591" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>82980</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>IT Business Analyst - SAP APO and OMP</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>Buscamos um profissional com conhecimento avançado em OMP e vivência na implementação do mesmo. É essencial possuir domínio em SAP APO, abrangendo Demand Planning, Supply Planning e Production Planning, além de vivência com outras soluções de planejamento, especialmente OMP. Necessária experiência comprovada em modelagem e planejamento de Supply Chain, bem como participação em grandes projetos na área.  Inglês avançado  Modalidade híbrida 2 a 3x presencial - Morumbi, SP
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || IT Business Analyst - SAP APO and OMP || Buscamos um profissional com conhecimento avançado em OMP e vivência na implementação do mesmo. É essencial possuir domínio em SAP APO, abrangendo Demand Planning, Supply Planning e Production Planning, além de vivência com outras soluções de planejamento, especialmente OMP. Necessária experiência comprovada em modelagem e planejamento de Supply Chain, bem como participação em grandes projetos na área.  Inglês avançado  Modalidade híbrida 2 a 3x presencial - Morumbi, SP || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I592" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>82619</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>MarTech Specialist</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>Estamos crescendo Buscamos um(a) MarTech Specialist para atuar no aprimoramento das nossas soluções digitais, contribuindo para a evolução contínua dos sistemas da empresa (foco em desenvolvimento de software).  Responsabilidades: Arquitetar Informações Digitais e Soluções MarTech coletar, gerenciar e garantir governança dos dados digitais implementar e gerenciar tags zelar pela esteira de dados configurar ferramentas MarTech, pesquisas, experimentos e rollouts configurar testes A/B e ações de CRO prestar consultoria técnica a stakeholders de Marketing, Produto e Tecnologia.  Habilidades Técnicas: MarTech, AdTech e Gestão de Dados Agile (Scrum/Kanban) Javascript, Python, SQL GA4, Amplitude, Firebase, AppsFlyer ferramentas de CRO (VWO, Hotjar) TMS (GTM, GTMSS) desenvolvimento mobile (Kotlin, Swift) CDP (Salesforce, Tealium) CMP (OneTrust) soluções Big Data em cloud (GCP, AWS, Azure)
+Empresa .....:  Cyber Tools And Solutions</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || MarTech Specialist || Estamos crescendo Buscamos um(a) MarTech Specialist para atuar no aprimoramento das nossas soluções digitais, contribuindo para a evolução contínua dos sistemas da empresa (foco em desenvolvimento de software).  Responsabilidades: Arquitetar Informações Digitais e Soluções MarTech coletar, gerenciar e garantir governança dos dados digitais implementar e gerenciar tags zelar pela esteira de dados configurar ferramentas MarTech, pesquisas, experimentos e rollouts configurar testes A/B e ações de CRO prestar consultoria técnica a stakeholders de Marketing, Produto e Tecnologia.  Habilidades Técnicas: MarTech, AdTech e Gestão de Dados Agile (Scrum/Kanban) Javascript, Python, SQL GA4, Amplitude, Firebase, AppsFlyer ferramentas de CRO (VWO, Hotjar) TMS (GTM, GTMSS) desenvolvimento mobile (Kotlin, Swift) CDP (Salesforce, Tealium) CMP (OneTrust) soluções Big Data em cloud (GCP, AWS, Azure) || Empresa .....:  Cyber Tools And Solutions</t>
+        </is>
+      </c>
+      <c r="I593" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>83381</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>SAP ABAP Sênior</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>SAP ABAP Sênior  Requisitos Formação em Tecnologia da Informação ou área relacionada. Conhecimento profundo da linguagem de programação SAP ABAP. Experiência com programação voltada a objetos, objetos ABAP e ABAP Workbench. Conhecimento SAP BTP com ênfase na estratégia Clean Core Participação em projetos de implementação S/4 Hanna Experiência em migrações de dados entre sistemas Certificações em ABAP.  Presencial
+Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || SAP ABAP Sênior || SAP ABAP Sênior  Requisitos Formação em Tecnologia da Informação ou área relacionada. Conhecimento profundo da linguagem de programação SAP ABAP. Experiência com programação voltada a objetos, objetos ABAP e ABAP Workbench. Conhecimento SAP BTP com ênfase na estratégia Clean Core Participação em projetos de implementação S/4 Hanna Experiência em migrações de dados entre sistemas Certificações em ABAP.  Presencial || Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="I594" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>82973</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>SAP MM ( Funcional)</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>Vaga: SAP MM ( Funcional)  Requisitos Formação em Tecnologia da Informação, área relacionada. Conhecimento sólido em SAP MM Participação em projetos de implementação S/4 Hanna na modalidade Greenfield utilizando a metodologia SAP Activate. Conhecimento em processos de negócios relacionados a movimentação de materiais, recebimento físico e fiscal, localização Brasil entre outros Experiência em migrações de dados entre sistemas Certificações em SAP MM.  Mandatório: Consultor tenha participado de Projetos de Implantação Greenfield.  Modelo de Trabalho: Presencial
+Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || SAP MM ( Funcional) || Vaga: SAP MM ( Funcional)  Requisitos Formação em Tecnologia da Informação, área relacionada. Conhecimento sólido em SAP MM Participação em projetos de implementação S/4 Hanna na modalidade Greenfield utilizando a metodologia SAP Activate. Conhecimento em processos de negócios relacionados a movimentação de materiais, recebimento físico e fiscal, localização Brasil entre outros Experiência em migrações de dados entre sistemas Certificações em SAP MM.  Mandatório: Consultor tenha participado de Projetos de Implantação Greenfield.  Modelo de Trabalho: Presencial || Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="I595" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>82636</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>SAP MM Sênior</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>Vaga: Consultor MM Sênior Para apoio em  projeto que dará Go Live em Janeiro.  Requisitos: Experiência com Implementação S/4Hana, desenho de melhorias SAP, especificações, testes e validações, processos gerais do módulo Experiência em projetos no segmento de Farma Visão integrada de processos e desenho de GAPs.  Disponibilidade para atuar Full Time durante o horário comercial  Projeto previsto até 15/12
+Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || SAP MM Sênior || Vaga: Consultor MM Sênior Para apoio em  projeto que dará Go Live em Janeiro.  Requisitos: Experiência com Implementação S/4Hana, desenho de melhorias SAP, especificações, testes e validações, processos gerais do módulo Experiência em projetos no segmento de Farma Visão integrada de processos e desenho de GAPs.  Disponibilidade para atuar Full Time durante o horário comercial  Projeto previsto até 15/12 || Empresa .....:  GTCON Tecnologia  Serviços</t>
+        </is>
+      </c>
+      <c r="I596" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>82765</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>SAP VIM S4Hana</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>Funcional SAP VIM Sênior com experiência em projetos que envolvam DRC Inbound. Conversação em inglês é mandatória.  Modalidade: Híbrido em São Paulo/SP Prazo: aproximadamente 7 meses
+Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || SAP VIM S4Hana || Funcional SAP VIM Sênior com experiência em projetos que envolvam DRC Inbound. Conversação em inglês é mandatória.  Modalidade: Híbrido em São Paulo/SP Prazo: aproximadamente 7 meses || Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>83141</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>UX/UI GENERALISTA SÊNIOR - HÍBRIDO SP</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP (COM FLEXIBILIDADE PARA MAIS DIAS NO CLIENTE, QUANDO FOR PRECISO  Contratação CLT + benefícios  Requisitos: •       Domínio em arquitetura da informação, mapeamento de fluxos e jornadas •       Capacidade de interpretar e aplicar insights de pesquisa •       Experiência com testes de usabilidade (planejamento e análise) •       Excelente domínio de Figma e ferramentas de edição de imagens •       Capacidade de atuar de forma integrada entre UX e UI •       Vivência com sistemas robustos e restrições de negócio  Será um diferencial •       Experiência prévia com produtos financeiros •       Conhecimento de acessibilidade •       Vivência em modernização de sistemas legados •       Uso de IA como apoio ao processo de design
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 23/01/26 || UX/UI GENERALISTA SÊNIOR - HÍBRIDO SP || ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP (COM FLEXIBILIDADE PARA MAIS DIAS NO CLIENTE, QUANDO FOR PRECISO  Contratação CLT + benefícios  Requisitos: •       Domínio em arquitetura da informação, mapeamento de fluxos e jornadas •       Capacidade de interpretar e aplicar insights de pesquisa •       Experiência com testes de usabilidade (planejamento e análise) •       Excelente domínio de Figma e ferramentas de edição de imagens •       Capacidade de atuar de forma integrada entre UX e UI •       Vivência com sistemas robustos e restrições de negócio  Será um diferencial •       Experiência prévia com produtos financeiros •       Conhecimento de acessibilidade •       Vivência em modernização de sistemas legados •       Uso de IA como apoio ao processo de design || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I598" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>82631</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Analista de TI PL - Aplicações do Chão de Fábrica</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>Vinhedo - SP - 23/01/26</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>Educação e Experiência necessária:  Mínimo de uma graduação em áreas relacionadas e experiência no uso de software de supervisão de produção, ou um mínimo de experiência de três anos com o software de supervisão de produção.  Conhecimento e experiência com hardware: PCs, placas de extensão (como Applicom / Molex / Woodhead), RS232 (linhas seriais), protocolos de comunicação (principalmente Ethernet/IP) e sistemas de câmeras de controle.  Automação e interface: compreensão básica de sistemas PLC (Siemens S7, Allen-Bradley), I/O e sua interface com PCs, bem como soluções OPC.  Conhecimento da linguagem SQL e ambientes de banco de dados (SQL Server). Um entendimento básico de PLC (I/Os, interfaces com PC) Proficiência avançada em ferramentas de ticket para rastreamento e gestão de incidentes.  Necessária Inglês Avançado/Fluente.  Modalidade de trabalho: Presencial em Vinhedo/SP. Contratação: CLT Tempo de contratação: 12 meses.
+Empresa .....:  Taking Results</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Vinhedo - SP - 23/01/26 || Analista de TI PL - Aplicações do Chão de Fábrica || Educação e Experiência necessária:  Mínimo de uma graduação em áreas relacionadas e experiência no uso de software de supervisão de produção, ou um mínimo de experiência de três anos com o software de supervisão de produção.  Conhecimento e experiência com hardware: PCs, placas de extensão (como Applicom / Molex / Woodhead), RS232 (linhas seriais), protocolos de comunicação (principalmente Ethernet/IP) e sistemas de câmeras de controle.  Automação e interface: compreensão básica de sistemas PLC (Siemens S7, Allen-Bradley), I/O e sua interface com PCs, bem como soluções OPC.  Conhecimento da linguagem SQL e ambientes de banco de dados (SQL Server). Um entendimento básico de PLC (I/Os, interfaces com PC) Proficiência avançada em ferramentas de ticket para rastreamento e gestão de incidentes.  Necessária Inglês Avançado/Fluente.  Modalidade de trabalho: Presencial em Vinhedo/SP. Contratação: CLT Tempo de contratação: 12 meses. || Empresa .....:  Taking Results</t>
+        </is>
+      </c>
+      <c r="I599" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>83360</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Consultor SAP FI Sênior / Lead - (ICMR)</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>Fortaleza - CE - 22/01/26</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>*Candidatos nível Brasil*  Experiência sênior/lead em S/4HANA Finance, atuando como líder de frente FI em projetos de implementação Dominio da metodologia Activate incluindo suas etapas, rituais e artefatos: Explore, Realize, Deploy e Run Atuação em projetos S/4, implementando ou reimplementando o FI Experiência comprovada em gestão e coordenação de time funcional, liderando consultores responsáveis pelos módulos Necessário: GL, AA, AP, AR, TR, CO, Bancos e demais temas inerentes a uma implementação Experiência hands-on e liderança técnica na implementação do SAP ICMR (Intercompany Matching and Reconciliation): Desenho funcional, configuração avançada, definição de governança de reconciliação, estabilização pós go-live Domínio de processos de fechamento contábil e financeiro (local e corporativo).  Disponibilidade para atuação presencial no cliente em Fortaleza, com despesas custeadas pela empresa, algumas etapas do projeto serão remotas.
+Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>Fortaleza - CE - 22/01/26 || Consultor SAP FI Sênior / Lead - (ICMR) || *Candidatos nível Brasil*  Experiência sênior/lead em S/4HANA Finance, atuando como líder de frente FI em projetos de implementação Dominio da metodologia Activate incluindo suas etapas, rituais e artefatos: Explore, Realize, Deploy e Run Atuação em projetos S/4, implementando ou reimplementando o FI Experiência comprovada em gestão e coordenação de time funcional, liderando consultores responsáveis pelos módulos Necessário: GL, AA, AP, AR, TR, CO, Bancos e demais temas inerentes a uma implementação Experiência hands-on e liderança técnica na implementação do SAP ICMR (Intercompany Matching and Reconciliation): Desenho funcional, configuração avançada, definição de governança de reconciliação, estabilização pós go-live Domínio de processos de fechamento contábil e financeiro (local e corporativo).  Disponibilidade para atuação presencial no cliente em Fortaleza, com despesas custeadas pela empresa, algumas etapas do projeto serão remotas. || Empresa .....:  Essence IT</t>
+        </is>
+      </c>
+      <c r="I600" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>82303</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Analista de Dados / Especialista em Banco de Dados</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Analista de dados / Especialista em Bancos de dados para atuar em uma das maiores indústrias do Brasil.  Responsabilidades e atribuições: Administrar e manter bancos de dados Oracle, SQL Server e DB2 (mainframe). Desenvolver e otimizar queries SQL, stored procedures, views e rotinas de integração. Realizar tuning de performance de banco e consultas. Conduzir análises de integridade e consistência dos dados. Realizar troubleshooting de incidentes críticos. Apoiar projetos de migração, integração e transformação de dados. Definir e manter modelos de dados conceitual, lógico e físico. Documentar dicionário de dados, fluxos e integrações. Necessário experiencia com : Oracle (PL/SQL), SQL Server (T-SQL), DB2 em ambiente Mainframe (z/OS), Domínio de SQL avançado e ajuste de queries, Experiência em ETL/ELT ou integrações de dados, Conhecimento de modelagem de dados relacional e dimensional.  INGLÊS FLUENTE IMPRESCINDÍVEL
+Empresa .....:  3CON Consultoria e Sistemas S/A</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26 || Analista de Dados / Especialista em Banco de Dados || Estamos em busca de um(a) Analista de dados / Especialista em Bancos de dados para atuar em uma das maiores indústrias do Brasil.  Responsabilidades e atribuições: Administrar e manter bancos de dados Oracle, SQL Server e DB2 (mainframe). Desenvolver e otimizar queries SQL, stored procedures, views e rotinas de integração. Realizar tuning de performance de banco e consultas. Conduzir análises de integridade e consistência dos dados. Realizar troubleshooting de incidentes críticos. Apoiar projetos de migração, integração e transformação de dados. Definir e manter modelos de dados conceitual, lógico e físico. Documentar dicionário de dados, fluxos e integrações. Necessário experiencia com : Oracle (PL/SQL), SQL Server (T-SQL), DB2 em ambiente Mainframe (z/OS), Domínio de SQL avançado e ajuste de queries, Experiência em ETL/ELT ou integrações de dados, Conhecimento de modelagem de dados relacional e dimensional.  INGLÊS FLUENTE IMPRESCINDÍVEL || Empresa .....:  3CON Consultoria e Sistemas S/A</t>
+        </is>
+      </c>
+      <c r="I601" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>82244</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Arquiteto de Cloud</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>Vaga: Arquiteto(a) de Cloud  Tipo de contratação: PJ Empresa: Be Solution  Responsabilidades Projetar e implementar arquiteturas em nuvem escaláveis, seguras e resilientes. Gerenciar e orquestrar contêineres com Kubernetes e ferramentas do ecossistema. Criar e manter infraestruturas como código (IaC) utilizando Terraform. Levantar e validar requisitos técnicos para novos ambientes ou migrações. Elaborar projeções de custo (TCO) e recomendações de FinOps para otimização de recursos. Definir arquiteturas de rede (VPC, sub-redes, VPN, peering) com foco em isolamento e conectividade. Projetar soluções de Alta Disponibilidade (HA) e Recuperação de Desastres (DR). Implementar políticas de backup, segurança e compliance (LGPD, PCI-DSS, entre outros). Modelar políticas de IAM com base no princípio do mínimo privilégio. Apoiar times de desenvolvimento e operações na adoção de boas práticas de Cloud, CI/CD e segurança.
+Empresa .....:  Be Solution</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26 || Arquiteto de Cloud || Vaga: Arquiteto(a) de Cloud  Tipo de contratação: PJ Empresa: Be Solution  Responsabilidades Projetar e implementar arquiteturas em nuvem escaláveis, seguras e resilientes. Gerenciar e orquestrar contêineres com Kubernetes e ferramentas do ecossistema. Criar e manter infraestruturas como código (IaC) utilizando Terraform. Levantar e validar requisitos técnicos para novos ambientes ou migrações. Elaborar projeções de custo (TCO) e recomendações de FinOps para otimização de recursos. Definir arquiteturas de rede (VPC, sub-redes, VPN, peering) com foco em isolamento e conectividade. Projetar soluções de Alta Disponibilidade (HA) e Recuperação de Desastres (DR). Implementar políticas de backup, segurança e compliance (LGPD, PCI-DSS, entre outros). Modelar políticas de IAM com base no princípio do mínimo privilégio. Apoiar times de desenvolvimento e operações na adoção de boas práticas de Cloud, CI/CD e segurança. || Empresa .....:  Be Solution</t>
+        </is>
+      </c>
+      <c r="I602" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>82245</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Arquiteto Frontend Sr</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>Frontend: Angular (Versão 16+) Domínio em Standalone Components Pipes Directives State Management (NGRX / Signals) Lazy Loading Formulários reativos Angular CLI e ferramentas de build (Webpack ou mais novas) Testes unitários e de integração (Jasmine/Karma) Experiencia com HTML5 / CSS / JavaScript - Bootstrap / Tailwind CSS Estruturação de aplicações Experiência em uso de pipelines CI/CD (Azure DevOps, GitHub Actions) Docker (criação e uso de imagens, multi-stage builds) Uso de mensageria qualquer uma das tecnologias (IBMMQ, RabbitMQ, Kafka, Azure service Bus, outros) CLI / Bash / PowerShel para automações e troubleshooting Conhecimento em Clean Architecture, Microservices CQS e separação de responsabilidades Design Patterns aplicados a sistemas distribuídos Uso de ferrameta de analise e qualidade de codigo (SonarQube/Prisma/Docker Scout, eslint), GIT
+Empresa .....:  3CON</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26 || Arquiteto Frontend Sr || Frontend: Angular (Versão 16+) Domínio em Standalone Components Pipes Directives State Management (NGRX / Signals) Lazy Loading Formulários reativos Angular CLI e ferramentas de build (Webpack ou mais novas) Testes unitários e de integração (Jasmine/Karma) Experiencia com HTML5 / CSS / JavaScript - Bootstrap / Tailwind CSS Estruturação de aplicações Experiência em uso de pipelines CI/CD (Azure DevOps, GitHub Actions) Docker (criação e uso de imagens, multi-stage builds) Uso de mensageria qualquer uma das tecnologias (IBMMQ, RabbitMQ, Kafka, Azure service Bus, outros) CLI / Bash / PowerShel para automações e troubleshooting Conhecimento em Clean Architecture, Microservices CQS e separação de responsabilidades Design Patterns aplicados a sistemas distribuídos Uso de ferrameta de analise e qualidade de codigo (SonarQube/Prisma/Docker Scout, eslint), GIT || Empresa .....:  3CON</t>
+        </is>
+      </c>
+      <c r="I603" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>83367</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Arquiteto Salesforce</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>Estamos contratando Arquiteto Salesforce Home Office  Requisitos: • Salesforce Industries • Area de Telecom (desejado) • Communications Cloud • Vlocity.
+Empresa .....:  Innolevels</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26 || Arquiteto Salesforce || Estamos contratando Arquiteto Salesforce Home Office  Requisitos: • Salesforce Industries • Area de Telecom (desejado) • Communications Cloud • Vlocity. || Empresa .....:  Innolevels</t>
+        </is>
+      </c>
+      <c r="I604" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>83365</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Consultor SAP TM</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>Estamos contratando Consultor SAP TM Home Office  Requisitos: · Experiência em implantação de SAP TM · Experiência prática em processos de transporte inbound e/ou outbound · Inglês intermediário/avançado.
+Empresa .....:  Innolevels</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26 || Consultor SAP TM || Estamos contratando Consultor SAP TM Home Office  Requisitos: · Experiência em implantação de SAP TM · Experiência prática em processos de transporte inbound e/ou outbound · Inglês intermediário/avançado. || Empresa .....:  Innolevels</t>
+        </is>
+      </c>
+      <c r="I605" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>82410</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Desenvolvedor backend Python - Tratamento de dados</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>Buscamos um Desenvolvedor Backend Python Pleno com experiência sólida em tratamento de dados e aplicações de IA. O profissional atuará no desenvolvimento de pipelines inteligentes e sistemas de automação capazes de transformar dados em informação útil e aplicável ao negócio.  Descrição das atividades da vaga Desenvolver e manter serviços backend em Python voltados ao tratamento, análise e enriquecimento de dados. Criar e otimizar pipelines de dados aplicando técnicas de Inteligência Artificial e automação. Implementar modelos de machine learning para classificação, previsão e extração de padrões em grandes volumes de dados. Realizar processos de limpeza, normalização e transformação de dados estruturados e não estruturados. Integrar dados de múltiplas fontes (APIs, bancos de dados e arquivos) em fluxos automatizados e escaláveis. Colaborar com times de Data Science e Engenharia de Dados na implantação e otimização de modelos em produção.
+Empresa .....:  200DEV SVCS LTDA</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 22/01/26 || Desenvolvedor backend Python - Tratamento de dados || Buscamos um Desenvolvedor Backend Python Pleno com experiência sólida em tratamento de dados e aplicações de IA. O profissional atuará no desenvolvimento de pipelines inteligentes e sistemas de automação capazes de transformar dados em informação útil e aplicável ao negócio.  Descrição das atividades da vaga Desenvolver e manter serviços backend em Python voltados ao tratamento, análise e enriquecimento de dados. Criar e otimizar pipelines de dados aplicando técnicas de Inteligência Artificial e automação. Implementar modelos de machine learning para classificação, previsão e extração de padrões em grandes volumes de dados. Realizar processos de limpeza, normalização e transformação de dados estruturados e não estruturados. Integrar dados de múltiplas fontes (APIs, bancos de dados e arquivos) em fluxos automatizados e escaláveis. Colaborar com times de Data Science e Engenharia de Dados na implantação e otimização de modelos em produção. || Empresa .....:  200DEV SVCS LTDA</t>
+        </is>
+      </c>
+      <c r="I606" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vagas_apinfo.xlsx
+++ b/vagas_apinfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I606"/>
+  <dimension ref="A1:I700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28460,6 +28460,4330 @@
         <v>20</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>83552</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura e Cloud 365</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>Responsável por administrar, manter e evoluir ambientes de Infraestrutura e Cloud, com foco em Microsoft Office 365, garantindo segurança, disponibilidade, desempenho e conformidade dos serviços. Atuará na gestão das plataformas Microsoft, apoiando usuários e áreas de negócio, além de contribuir para projetos de melhoria contínua e governança do ambiente  Administrar e manter o ambiente Microsoft 365 (Exchange Online, SharePoint Online, Teams, OneDrive e Power Apps). Gerenciar políticas de segurança e conformidade utilizando Microsoft Defender e Microsoft Purview. Atuar na administração de dispositivos e identidades por meio do Microsoft Intune e Entra ID (Azure AD). Prestar suporte técnico de nível avançado (N2/N3) aos usuários e áreas internas. Atuar na resolução de incidentes, análise de causa raiz e melhoria contínua dos serviços. Apoiar projetos de migração, integração e otimização
+Empresa .....:  Mk Tech</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 03/02/26 || Analista de Infraestrutura e Cloud 365 || Responsável por administrar, manter e evoluir ambientes de Infraestrutura e Cloud, com foco em Microsoft Office 365, garantindo segurança, disponibilidade, desempenho e conformidade dos serviços. Atuará na gestão das plataformas Microsoft, apoiando usuários e áreas de negócio, além de contribuir para projetos de melhoria contínua e governança do ambiente  Administrar e manter o ambiente Microsoft 365 (Exchange Online, SharePoint Online, Teams, OneDrive e Power Apps). Gerenciar políticas de segurança e conformidade utilizando Microsoft Defender e Microsoft Purview. Atuar na administração de dispositivos e identidades por meio do Microsoft Intune e Entra ID (Azure AD). Prestar suporte técnico de nível avançado (N2/N3) aos usuários e áreas internas. Atuar na resolução de incidentes, análise de causa raiz e melhoria contínua dos serviços. Apoiar projetos de migração, integração e otimização || Empresa .....:  Mk Tech</t>
+        </is>
+      </c>
+      <c r="I607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>82591</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Product Owner - Meios de Pagamento</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>A Tech For está com oportunidade para Product Owner Sênior, atuar em projeto de sustentação em cliente do segmento bancário.  PJ  Requisitos Mandatórios: - Ter atuado nos segmentos de Tecnologia da Informação - Ter atuado em squads ágeis (frameworks Scrum e/ou Kanban) - Ferramentas de Gestão de backlog: Jira, Asana, GenTi, BusinessMap - Experiência nas áreas de negócio com Foco em Meios de Pagamento - CARTÕES - Experiência em levantamento de requisitos e detalhamento das necessidades (especificações funcionais) - Perfil integrador / dinâmico, flexível, boa desenvoltura (condução de reuniões) - Foco em melhoria contínua e qualidade na entrega de resultados.
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>Brasília - DF - 03/02/26 || Product Owner - Meios de Pagamento || A Tech For está com oportunidade para Product Owner Sênior, atuar em projeto de sustentação em cliente do segmento bancário.  PJ  Requisitos Mandatórios: - Ter atuado nos segmentos de Tecnologia da Informação - Ter atuado em squads ágeis (frameworks Scrum e/ou Kanban) - Ferramentas de Gestão de backlog: Jira, Asana, GenTi, BusinessMap - Experiência nas áreas de negócio com Foco em Meios de Pagamento - CARTÕES - Experiência em levantamento de requisitos e detalhamento das necessidades (especificações funcionais) - Perfil integrador / dinâmico, flexível, boa desenvoltura (condução de reuniões) - Foco em melhoria contínua e qualidade na entrega de resultados. || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>82518</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>QA Sênior</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>Cascavel - PR - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>Missão Principal Ser o responsável por implantar, padronizar e evoluir o processo de QA, garantindo entregas consistentes, automatizadas e integradas ao fluxo de desenvolvimento do produto.  Requisitos e Experiências: -Experiência com testes manuais e automatizados -Experiência na definição e implementação de estratégias de teste (unitário, integração, E2E, contrato) -Experiência prática com BDD (Cucumber, Gherkin) e/ou TDD -Experiência com testes de API REST (validação, autenticação e headers) -Domínio das ferramentas: Postman, Selenium, Cypress, Jira, TestRail, JMeter e k6 -Conhecimento em GitHub, PostgreSQL e pipelines de CI/CD (CircleCI) -Conhecimento básico em JavaScript/TypeScript aplicado à automação de testes.  Formação: Ensino superior completo ou em andamento na área de tecnologia. Idioma: Inglês técnico básico (leitura de documentação).
+Empresa .....:  CODE GROUP</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>Cascavel - PR - 03/02/26 || QA Sênior || Missão Principal Ser o responsável por implantar, padronizar e evoluir o processo de QA, garantindo entregas consistentes, automatizadas e integradas ao fluxo de desenvolvimento do produto.  Requisitos e Experiências: -Experiência com testes manuais e automatizados -Experiência na definição e implementação de estratégias de teste (unitário, integração, E2E, contrato) -Experiência prática com BDD (Cucumber, Gherkin) e/ou TDD -Experiência com testes de API REST (validação, autenticação e headers) -Domínio das ferramentas: Postman, Selenium, Cypress, Jira, TestRail, JMeter e k6 -Conhecimento em GitHub, PostgreSQL e pipelines de CI/CD (CircleCI) -Conhecimento básico em JavaScript/TypeScript aplicado à automação de testes.  Formação: Ensino superior completo ou em andamento na área de tecnologia. Idioma: Inglês técnico básico (leitura de documentação). || Empresa .....:  CODE GROUP</t>
+        </is>
+      </c>
+      <c r="I609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>83554</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura e Cloud 365</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>Conceição do Jacuípe - BA - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>Responsável por administrar, manter e evoluir ambientes de Infraestrutura e Cloud, com foco em Microsoft Office 365, garantindo segurança, disponibilidade, desempenho e conformidade dos serviços. Atuará na gestão das plataformas Microsoft, apoiando usuários e áreas de negócio, além de contribuir para projetos de melhoria contínua e governança do ambiente Administrar e manter o ambiente Microsoft 365 (Exchange Online, SharePoint Online, Teams, OneDrive e Power Apps). Gerenciar políticas de segurança e conformidade utilizando Microsoft Defender e Microsoft Purview. Atuar na administração de dispositivos e identidades por meio do Microsoft Intune e Entra ID (Azure AD). Implementar e manter políticas de acesso condicional, DLP, classificação e retenção de dados. Prestar suporte técnico de nível avançado (N2/N3) aos usuários e áreas internas. Atuar na resolução de incidentes, análise de causa raiz e melhoria contínua dos serviços.
+Empresa .....:  Mk Tech</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>Conceição do Jacuípe - BA - 03/02/26 || Analista de Infraestrutura e Cloud 365 || Responsável por administrar, manter e evoluir ambientes de Infraestrutura e Cloud, com foco em Microsoft Office 365, garantindo segurança, disponibilidade, desempenho e conformidade dos serviços. Atuará na gestão das plataformas Microsoft, apoiando usuários e áreas de negócio, além de contribuir para projetos de melhoria contínua e governança do ambiente Administrar e manter o ambiente Microsoft 365 (Exchange Online, SharePoint Online, Teams, OneDrive e Power Apps). Gerenciar políticas de segurança e conformidade utilizando Microsoft Defender e Microsoft Purview. Atuar na administração de dispositivos e identidades por meio do Microsoft Intune e Entra ID (Azure AD). Implementar e manter políticas de acesso condicional, DLP, classificação e retenção de dados. Prestar suporte técnico de nível avançado (N2/N3) aos usuários e áreas internas. Atuar na resolução de incidentes, análise de causa raiz e melhoria contínua dos serviços. || Empresa .....:  Mk Tech</t>
+        </is>
+      </c>
+      <c r="I610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>83548</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Consultor Tasy - Espahol Avançado</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>Vaga: Consultor Tasy Prazo: 6 meses, com chances de prorrogar Local: Remoto  Requisitos Tecnicos: Espanhol Avançado Implementar as integrações existentes, realizar levantamento e analise de novas integrações, contatar  clientes para compreender e executar suas demandas, realizar análise de requisitos técnicos e funcionais elaborar documentação técnica e funcional, desenvolver relatórios e dashboards, criar templates e avaliações, acompanhar processos de personalização.  Ferramentas: PL/SQL: Insert, Update, Procedures, Functions, Packages, Triggers e Jobs: Tasy Interface Engine (broker de interoperabilidade Tasy), Tasy, HTML5: EMR, portais Tasy: Portal do Paciente, Portal de Resultados, Portal Clinico e Aprovações Pendentes.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26 || Consultor Tasy - Espahol Avançado || Vaga: Consultor Tasy Prazo: 6 meses, com chances de prorrogar Local: Remoto  Requisitos Tecnicos: Espanhol Avançado Implementar as integrações existentes, realizar levantamento e analise de novas integrações, contatar  clientes para compreender e executar suas demandas, realizar análise de requisitos técnicos e funcionais elaborar documentação técnica e funcional, desenvolver relatórios e dashboards, criar templates e avaliações, acompanhar processos de personalização.  Ferramentas: PL/SQL: Insert, Update, Procedures, Functions, Packages, Triggers e Jobs: Tasy Interface Engine (broker de interoperabilidade Tasy), Tasy, HTML5: EMR, portais Tasy: Portal do Paciente, Portal de Resultados, Portal Clinico e Aprovações Pendentes. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I611" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>82587</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Desenvolvedor C/C++ Sênior</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>Desenvolvedor C/C++  - Totalmente REMOTO   Estamos em busca de um Desenvolvedor de Software Embarcado para integrar nossa equipe de engenharia. O profissional será responsável pelo desenvolvimento e manutenção de soluções em sistemas embarcados, com foco em performance, confiabilidade e escalabilidade.  Responsabilidades Desenvolver e manter aplicações em Linux embarcado. Programar em C/C++ para sistemas de alto desempenho. Utilizar Qt 5 para desenvolvimento de interfaces gráficas. Gerenciar versionamento de código utilizando Git. Colaborar com equipes multidisciplinares em ambiente internacional. Documentar processos e soluções técnicas de forma clara e organizada.  Requisitos Experiência comprovada em Linux embarcado. Domínio de C/C++. Experiência com Qt 5. Conhecimento em Git e boas práticas de versionamento. Inglês intermediário ou superior (capaz de participar de reuniões técnicas e compreender documentação).
+Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26 || Desenvolvedor C/C++ Sênior || Desenvolvedor C/C++  - Totalmente REMOTO   Estamos em busca de um Desenvolvedor de Software Embarcado para integrar nossa equipe de engenharia. O profissional será responsável pelo desenvolvimento e manutenção de soluções em sistemas embarcados, com foco em performance, confiabilidade e escalabilidade.  Responsabilidades Desenvolver e manter aplicações em Linux embarcado. Programar em C/C++ para sistemas de alto desempenho. Utilizar Qt 5 para desenvolvimento de interfaces gráficas. Gerenciar versionamento de código utilizando Git. Colaborar com equipes multidisciplinares em ambiente internacional. Documentar processos e soluções técnicas de forma clara e organizada.  Requisitos Experiência comprovada em Linux embarcado. Domínio de C/C++. Experiência com Qt 5. Conhecimento em Git e boas práticas de versionamento. Inglês intermediário ou superior (capaz de participar de reuniões técnicas e compreender documentação). || Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="I612" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>82773</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack - Remoto</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>- Atuar no suporte técnico de nível avançado, realizando atendimentos, interações com clientes e aplicando correções ou soluções no sistema. - Apoiar processos de implantação do sistema junto a clientes, garantindo boa comunicação e estabilidade no deploy. - Corrigir falhas e implementar melhorias contínuas nas aplicações existentes. - Criar e manter documentações técnicas, arquiteturais e operacionais. - Participar da definição de projetos e tarefas, avaliando arquitetura, impactos, estratégias de deploy e entregáveis. - Desenvolver e manter pipelines de Integração Contínua (CI). - Estruturar monitoramento, alarmes, logs e ferramentas de troubleshooting. - Investigar incidentes de produção, realizando análise detalhada e correção da causa raiz. - Antecipar impactos de mudanças e novos produtos na arquitetura existente, propondo ações de mitigação. - Contribuir para a construção de soluções escaláveis, resilientes e observáveis.  Segunda a sexta-feira, das 09h às 18h
+Empresa .....:  Infonova</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26 || Desenvolvedor Full Stack - Remoto || - Atuar no suporte técnico de nível avançado, realizando atendimentos, interações com clientes e aplicando correções ou soluções no sistema. - Apoiar processos de implantação do sistema junto a clientes, garantindo boa comunicação e estabilidade no deploy. - Corrigir falhas e implementar melhorias contínuas nas aplicações existentes. - Criar e manter documentações técnicas, arquiteturais e operacionais. - Participar da definição de projetos e tarefas, avaliando arquitetura, impactos, estratégias de deploy e entregáveis. - Desenvolver e manter pipelines de Integração Contínua (CI). - Estruturar monitoramento, alarmes, logs e ferramentas de troubleshooting. - Investigar incidentes de produção, realizando análise detalhada e correção da causa raiz. - Antecipar impactos de mudanças e novos produtos na arquitetura existente, propondo ações de mitigação. - Contribuir para a construção de soluções escaláveis, resilientes e observáveis.  Segunda a sexta-feira, das 09h às 18h || Empresa .....:  Infonova</t>
+        </is>
+      </c>
+      <c r="I613" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>83162</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack PHP/Vue Sr</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>A Tech For TI está com oportunidade para Desenvolvedor Full Stack PHP/Vue Sr, atuar em projeto de cliente AutoTech, focada no mercado B2B, presente em diversos países.  - PJ - Totalmente home  Backend - Sólida experiência com PHP, incluindo domínio das versões 5.6 e 7.0 - Proficiência em MySQL 5.6, incluindo otimização de queries e performance - Experiência com Docker e containerização - Domínio de Git e boas práticas de controle de versão - Experiência com sistemas de cache, especialmente Redis - Desejável conhecimentos em Google Cloud Platform.  Frontend - Experiência sólida com Vue.js e seus ecossistemas (Se encontrar com as outras características exceto esta, pode nos enviar mesmo assim) - Domínio de JavaScript - Experiência com jQuery em sistemas legados - Conhecimentos em HTML5 e CSS3 - Experiência com integração de APIs RESTful.
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26 || Desenvolvedor Full Stack PHP/Vue Sr || A Tech For TI está com oportunidade para Desenvolvedor Full Stack PHP/Vue Sr, atuar em projeto de cliente AutoTech, focada no mercado B2B, presente em diversos países.  - PJ - Totalmente home  Backend - Sólida experiência com PHP, incluindo domínio das versões 5.6 e 7.0 - Proficiência em MySQL 5.6, incluindo otimização de queries e performance - Experiência com Docker e containerização - Domínio de Git e boas práticas de controle de versão - Experiência com sistemas de cache, especialmente Redis - Desejável conhecimentos em Google Cloud Platform.  Frontend - Experiência sólida com Vue.js e seus ecossistemas (Se encontrar com as outras características exceto esta, pode nos enviar mesmo assim) - Domínio de JavaScript - Experiência com jQuery em sistemas legados - Conhecimentos em HTML5 e CSS3 - Experiência com integração de APIs RESTful. || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I614" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>83116</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Desenvolvedor FullStack PHP</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>- Experiência comprovada em desenvolvimento fullstack utilizando tecnologias como PHP, JavaScript, HTML5 e CSS3. - Experiência com frameworks modernos de frontend (React, Vue ou similares). - Conhecimento e experiência com WordPress é um diferencial, especialmente em ambientes de mídia. - Familiaridade com bancos de dados relacionais (MySQL, PostgreSQL), não relacionais e vetoriais. - *Habilidades sólidas de resolução de problemas e depuração.* - Capacidade de trabalho colaborativo com equipes multidisciplinares. - Excelentes habilidades de comunicação verbal e escrita. - *Compromisso com qualidade de código, escalabilidade e desempenho.* - Flexibilidade para lidar com tecnologias emergentes e ambientes dinâmicos.  - Experiência com arquitetura em Cloud (AWS, Google Cloud) - Familiaridade com ferramentas como Google Analytics, Chartbeat - Conhecimento prático em Google Search Console - Noções de SEO e AEO aplicadas a produtos digitais
+Empresa .....:  Tessa IT</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26 || Desenvolvedor FullStack PHP || - Experiência comprovada em desenvolvimento fullstack utilizando tecnologias como PHP, JavaScript, HTML5 e CSS3. - Experiência com frameworks modernos de frontend (React, Vue ou similares). - Conhecimento e experiência com WordPress é um diferencial, especialmente em ambientes de mídia. - Familiaridade com bancos de dados relacionais (MySQL, PostgreSQL), não relacionais e vetoriais. - *Habilidades sólidas de resolução de problemas e depuração.* - Capacidade de trabalho colaborativo com equipes multidisciplinares. - Excelentes habilidades de comunicação verbal e escrita. - *Compromisso com qualidade de código, escalabilidade e desempenho.* - Flexibilidade para lidar com tecnologias emergentes e ambientes dinâmicos.  - Experiência com arquitetura em Cloud (AWS, Google Cloud) - Familiaridade com ferramentas como Google Analytics, Chartbeat - Conhecimento prático em Google Search Console - Noções de SEO e AEO aplicadas a produtos digitais || Empresa .....:  Tessa IT</t>
+        </is>
+      </c>
+      <c r="I615" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>83544</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java Sênior</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>Experiência com ferramentas de desenvolvimento: IntelliJ, Visual Studio, Chrome DevTools Monitoramento e observabilidade: Grafana, Kibana, Elastic, Dynatrace Frameworks Java: Spring, Spring Boot, Spring Cloud, Spring Data, Spring Security Linguagens de programação: Java (principal), JavaScript Relacionais: SQL Server, DBeaver, Google Cloud SQL Não-relacionais: Redis Plataformas de Integração: Sensedia, Mulesoft API Clients: Postman, Insomnia Arquitetura SOA Versionamento de código: Git Serviços em nuvem: AWS Desenvolvimento e documentação de APIs REST: Swagger, HTML Docs Automação: Jenkins Testes automatizados: Cucumber, Teste de Mutação  Diferenciais Desejáveis Ter trabalhado no RE Porto, ou em times relacionados a sistemas Financeiros Conhecimento em metodologias ágeis: Scrum, Kanban Criação de scripts para automação de tarefas repetitivas Experiência com DataStage Experiência com API Gateway Vivência no segmento de seguros
+Empresa .....:  FORNAX CONSULTORIA EM INFORMATICA</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26 || Desenvolvedor Java Sênior || Experiência com ferramentas de desenvolvimento: IntelliJ, Visual Studio, Chrome DevTools Monitoramento e observabilidade: Grafana, Kibana, Elastic, Dynatrace Frameworks Java: Spring, Spring Boot, Spring Cloud, Spring Data, Spring Security Linguagens de programação: Java (principal), JavaScript Relacionais: SQL Server, DBeaver, Google Cloud SQL Não-relacionais: Redis Plataformas de Integração: Sensedia, Mulesoft API Clients: Postman, Insomnia Arquitetura SOA Versionamento de código: Git Serviços em nuvem: AWS Desenvolvimento e documentação de APIs REST: Swagger, HTML Docs Automação: Jenkins Testes automatizados: Cucumber, Teste de Mutação  Diferenciais Desejáveis Ter trabalhado no RE Porto, ou em times relacionados a sistemas Financeiros Conhecimento em metodologias ágeis: Scrum, Kanban Criação de scripts para automação de tarefas repetitivas Experiência com DataStage Experiência com API Gateway Vivência no segmento de seguros || Empresa .....:  FORNAX CONSULTORIA EM INFORMATICA</t>
+        </is>
+      </c>
+      <c r="I616" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>82516</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Especialista em Infraestrutura  Segurança Genetec</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>Consultor / Especialista em Infraestrutura  Segurança (Genetec)  Local: Totalmente remoto  (atuação remota e com interação internacional) Inglês fluente obrigatório  Buscamos, parceiro, prestador de serviços para integrar o time de Produto responsável por soluções de Segurança Global, atuando diretamente no suporte a sistemas críticos utilizados em todas as unidades do cliente.  Senioridade em consultoria em Infraestrutura (Fundação). Domínio de servidores, dispositivos de rede, bancos de dados e Azure. Certificação Genetec Security Center (ou disponibilidade para se certificar). Proficiência em PowerShell e/ou scripts SQL. Responsável por implantar e manter o sistema de controle de acesso físico e vídeo (Genetec), garantindo a segurança dos colaboradores e ativos da empresa.
+Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26 || Especialista em Infraestrutura  Segurança Genetec || Consultor / Especialista em Infraestrutura  Segurança (Genetec)  Local: Totalmente remoto  (atuação remota e com interação internacional) Inglês fluente obrigatório  Buscamos, parceiro, prestador de serviços para integrar o time de Produto responsável por soluções de Segurança Global, atuando diretamente no suporte a sistemas críticos utilizados em todas as unidades do cliente.  Senioridade em consultoria em Infraestrutura (Fundação). Domínio de servidores, dispositivos de rede, bancos de dados e Azure. Certificação Genetec Security Center (ou disponibilidade para se certificar). Proficiência em PowerShell e/ou scripts SQL. Responsável por implantar e manter o sistema de controle de acesso físico e vídeo (Genetec), garantindo a segurança dos colaboradores e ativos da empresa. || Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I617" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>82708</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Analista de Suporte a Sistemas Pleno</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>Responsabilidades: Prestar suporte técnico a sistemas internos e externos, garantindo o funcionamento adequado das aplicações. Realizar análise, extração e consultas em banco de dados para investigação e solução de incidentes. Interpretar e manipular arquivos XML para apoio às atividades de suporte. Monitorar aplicações e serviços utilizando ferramentas de observabilidade. Registrar, acompanhar e atualizar chamados técnicos em ferramentas de gestão.  Requisitos Técnicos: Experiência com suporte a sistemas e análise de incidentes. Conhecimento sólido em XML. Capacidade de realizar consultas e extrações em banco de dados (SQL). Conhecimento em Jira para gerenciamento de demandas. Conhecimento em Grafana para monitoramento e análise de indicadores.  Inglês avançado (leitura, escrita e conversação).  Disponibilidade: Disponibilidade para atuar em escala, incluindo períodos diurnos e noturnos.
+Empresa .....:  TAKING</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 03/02/26 || Analista de Suporte a Sistemas Pleno || Responsabilidades: Prestar suporte técnico a sistemas internos e externos, garantindo o funcionamento adequado das aplicações. Realizar análise, extração e consultas em banco de dados para investigação e solução de incidentes. Interpretar e manipular arquivos XML para apoio às atividades de suporte. Monitorar aplicações e serviços utilizando ferramentas de observabilidade. Registrar, acompanhar e atualizar chamados técnicos em ferramentas de gestão.  Requisitos Técnicos: Experiência com suporte a sistemas e análise de incidentes. Conhecimento sólido em XML. Capacidade de realizar consultas e extrações em banco de dados (SQL). Conhecimento em Jira para gerenciamento de demandas. Conhecimento em Grafana para monitoramento e análise de indicadores.  Inglês avançado (leitura, escrita e conversação).  Disponibilidade: Disponibilidade para atuar em escala, incluindo períodos diurnos e noturnos. || Empresa .....:  TAKING</t>
+        </is>
+      </c>
+      <c r="I618" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>83550</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Estágio de TI - Monitoramento e suporte</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Estágio</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>ATIVIDADES • Monitorar performance dos sistemas e disponibilidade dos serviços (Milvus) • Manter e alimentar a ferramenta de monitoramento • Instalar e configurar agentes, drivers e aplicativos • Acompanhar rotinas de backup • Auxiliar na manutenção física e lógica de computadores • Identificar e registrar falhas de hardware e software • Elaborar relatórios • Criar e manter documentações.  REQUISITOS • Cursando ensino superior em TI, Redes de Computadores, Sistemas de Informação ou áreas relacionadas • Noções básicas de manutenção de computadores e sistemas operacionais • Boa comunicação, organização, adaptabilidade e trabalho em equipe • Conhecimentos em Pacote Office e sistemas operacionais Windows e/ou Linux.  EXPERIÊNCIA • Não é necessária.  BENEFÍCIOS • Regime de estágio, com possibilidade de efetivação • Bolsa auxílio: R$ 1.000,00 + Ajuda de custo: R$ 900,00 • Local: Santo André – SP • Segunda a sexta-feira, das 11h às 18h.
+Empresa .....:  TC do Brasil</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 03/02/26 || Estágio de TI - Monitoramento e suporte || ATIVIDADES • Monitorar performance dos sistemas e disponibilidade dos serviços (Milvus) • Manter e alimentar a ferramenta de monitoramento • Instalar e configurar agentes, drivers e aplicativos • Acompanhar rotinas de backup • Auxiliar na manutenção física e lógica de computadores • Identificar e registrar falhas de hardware e software • Elaborar relatórios • Criar e manter documentações.  REQUISITOS • Cursando ensino superior em TI, Redes de Computadores, Sistemas de Informação ou áreas relacionadas • Noções básicas de manutenção de computadores e sistemas operacionais • Boa comunicação, organização, adaptabilidade e trabalho em equipe • Conhecimentos em Pacote Office e sistemas operacionais Windows e/ou Linux.  EXPERIÊNCIA • Não é necessária.  BENEFÍCIOS • Regime de estágio, com possibilidade de efetivação • Bolsa auxílio: R$ 1.000,00 + Ajuda de custo: R$ 900,00 • Local: Santo André – SP • Segunda a sexta-feira, das 11h às 18h. || Empresa .....:  TC do Brasil</t>
+        </is>
+      </c>
+      <c r="I619" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>82295</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Analista de Automação de Processos (VBA)</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>Requisitos: Conhecimentos em VBA Mapeamento de processos e sistemas  Atividades: Identificar, mapear e documentar várias macros em VBA construídas no âmbito departamental do extinto DCPS.  Presencial Osasco SP Contratação CLT
+Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Analista de Automação de Processos (VBA) || Requisitos: Conhecimentos em VBA Mapeamento de processos e sistemas  Atividades: Identificar, mapear e documentar várias macros em VBA construídas no âmbito departamental do extinto DCPS.  Presencial Osasco SP Contratação CLT || Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="I620" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>82894</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Analista de Implantação e Sustentação Sênior</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>Atividades: - Liderar tecnicamente a equipe e atuar como ponto de escala final (N3) antes do fornecedor - Gerenciar o relacionamento técnico com o fornecedor externo - Garantir padronização e qualidade dos processos de implantação e sustentação - Assegurar a consistência técnica na estruturação de processos de Service Desk ou reestruturações de Suporte.  Requisitos: - Experiência em Suporte (N2 e N3) ou Análise de Sistemas - Sólidos conhecimentos em ITIL - Experiência em gestão de fornecedores de T.I - Conhecimento em SLA s, OLA s e Gestão de problemas (análise de causa raiz) - Habilidade de comunicação com diretoria, fornecedores e clientes - Experiência prévia na estruturação de processos de Service Desk ou Reestruturações de Suporte.  Informações Adicionais: - Salário: A combinar - Benefícios: Assistência Médica + Seguro de Vida + Cesta Básica + Vale Transporte - Regime de contratação: CLT (Efetivo) - Horário: A combinar
+Empresa .....:  UNIP</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Analista de Implantação e Sustentação Sênior || Atividades: - Liderar tecnicamente a equipe e atuar como ponto de escala final (N3) antes do fornecedor - Gerenciar o relacionamento técnico com o fornecedor externo - Garantir padronização e qualidade dos processos de implantação e sustentação - Assegurar a consistência técnica na estruturação de processos de Service Desk ou reestruturações de Suporte.  Requisitos: - Experiência em Suporte (N2 e N3) ou Análise de Sistemas - Sólidos conhecimentos em ITIL - Experiência em gestão de fornecedores de T.I - Conhecimento em SLA s, OLA s e Gestão de problemas (análise de causa raiz) - Habilidade de comunicação com diretoria, fornecedores e clientes - Experiência prévia na estruturação de processos de Service Desk ou Reestruturações de Suporte.  Informações Adicionais: - Salário: A combinar - Benefícios: Assistência Médica + Seguro de Vida + Cesta Básica + Vale Transporte - Regime de contratação: CLT (Efetivo) - Horário: A combinar || Empresa .....:  UNIP</t>
+        </is>
+      </c>
+      <c r="I621" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>83165</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura Pleno</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>• Experiência com criação e sustentação de ambientes de Infraestrutura de TI nível Datacenter • Vivência em JBOSS EAP, realizando Deploy de aplicações e atuando na correção de problemas de instalação de aplicações baseadas em JAVA • Experiência em gestão de ambientes Linux Redhat, tratativa de vulnerabilidades em sistemas operacionais, rotinas de Backup e gestão de Storage e administração de recursos de servidores (provisionamento de memória, processador e disco) • Conhecimento com GMUD e Middleware  Hibrido (Vila Olímpia - São Paulo/SP) Contratação CLT  Oferecemos: VR ou VA, Assistência Médica e Odontológica, Auxílio creche, parcerias com Universidades e WellHub.
+Empresa .....:  PSM COM PROFESSIONAL SERVICES MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Analista de Infraestrutura Pleno || • Experiência com criação e sustentação de ambientes de Infraestrutura de TI nível Datacenter • Vivência em JBOSS EAP, realizando Deploy de aplicações e atuando na correção de problemas de instalação de aplicações baseadas em JAVA • Experiência em gestão de ambientes Linux Redhat, tratativa de vulnerabilidades em sistemas operacionais, rotinas de Backup e gestão de Storage e administração de recursos de servidores (provisionamento de memória, processador e disco) • Conhecimento com GMUD e Middleware  Hibrido (Vila Olímpia - São Paulo/SP) Contratação CLT  Oferecemos: VR ou VA, Assistência Médica e Odontológica, Auxílio creche, parcerias com Universidades e WellHub. || Empresa .....:  PSM COM PROFESSIONAL SERVICES MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="I622" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>82682</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Analista de Redes Sênior</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>Analista de Redes Sênior Profissional responsável pela administração e manutenção de redes LAN, WAN e WLAN, atuando em troubleshooting avançado de conectividade, roteamento e desempenho. Irá gerenciar equipamentos como switches, roteadores, firewalls e access points, além de implementar políticas de segurança (VPNs, segmentação, regras de firewall e controle de acesso). Também realizará monitoramento (Zabbix/Grafana), documentação técnica e participação em projetos de evolução da infraestrutura, seguindo boas práticas de gestão de mudanças.  Requisitos essenciais: – Experiência em redes de médio/grande porte e forte vivência em ambiente Cisco (Catalyst/Nexus). – Domínio de TCP/IP, VLAN, STP, OSPF, BGP, DNS, DHCP, switching L2/L3 e Wi-Fi corporativo. – Experiência com firewall Palo Alto, Cisco ISE/NAC e troubleshooting de LAN/WAN. – Noções de ITIL – Certificação CCNA.  -Contratação CLT - Atuação hibrida - (3x presencial na região de Bela Vista - SP)
+Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Analista de Redes Sênior || Analista de Redes Sênior Profissional responsável pela administração e manutenção de redes LAN, WAN e WLAN, atuando em troubleshooting avançado de conectividade, roteamento e desempenho. Irá gerenciar equipamentos como switches, roteadores, firewalls e access points, além de implementar políticas de segurança (VPNs, segmentação, regras de firewall e controle de acesso). Também realizará monitoramento (Zabbix/Grafana), documentação técnica e participação em projetos de evolução da infraestrutura, seguindo boas práticas de gestão de mudanças.  Requisitos essenciais: – Experiência em redes de médio/grande porte e forte vivência em ambiente Cisco (Catalyst/Nexus). – Domínio de TCP/IP, VLAN, STP, OSPF, BGP, DNS, DHCP, switching L2/L3 e Wi-Fi corporativo. – Experiência com firewall Palo Alto, Cisco ISE/NAC e troubleshooting de LAN/WAN. – Noções de ITIL – Certificação CCNA.  -Contratação CLT - Atuação hibrida - (3x presencial na região de Bela Vista - SP) || Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="I623" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>82792</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Analista de Segurança da Informação - Híbrido 1x</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>A missão do Analista de Segurança é garantir a proteção e o bom funcionamento da infraestrutura local e em nuvem da empresa. Atuando no monitoramento de redes, servidores e dispositivos, identificando vulnerabilidades e implementando soluções de segurança. Configura firewalls, políticas de acesso e criptografia, além de realizar análises de risco e troubleshooting. .  Requisitos necessários:  Conhecimentos em  ZTNA, Conhecimento em Netskope e/ou Fortinet e/ou CDN (Cloudflare). Firewall Fortinet e filtro de conteúdo EDR, cofre de senha, Tunnel GRE/IpSec, Abrangente conhecimento em redes. Conhecimento de protocolos web.  *Atuação: Híbrido - 1x presencial na Chácara Santo Antônio - São Paulo - SP* Formação: Graduação  Concluída ou cursando  Ramo da empresa: Segurança da Informação  Contratação CLT R$3.000,00 + Benefícios
+Empresa .....:  Moot Consulting</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Analista de Segurança da Informação - Híbrido 1x || A missão do Analista de Segurança é garantir a proteção e o bom funcionamento da infraestrutura local e em nuvem da empresa. Atuando no monitoramento de redes, servidores e dispositivos, identificando vulnerabilidades e implementando soluções de segurança. Configura firewalls, políticas de acesso e criptografia, além de realizar análises de risco e troubleshooting. .  Requisitos necessários:  Conhecimentos em  ZTNA, Conhecimento em Netskope e/ou Fortinet e/ou CDN (Cloudflare). Firewall Fortinet e filtro de conteúdo EDR, cofre de senha, Tunnel GRE/IpSec, Abrangente conhecimento em redes. Conhecimento de protocolos web.  *Atuação: Híbrido - 1x presencial na Chácara Santo Antônio - São Paulo - SP* Formação: Graduação  Concluída ou cursando  Ramo da empresa: Segurança da Informação  Contratação CLT R$3.000,00 + Benefícios || Empresa .....:  Moot Consulting</t>
+        </is>
+      </c>
+      <c r="I624" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>82614</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Analista de Service Desk Bilingue</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>Vaga Remota para Analistas de Service Desk.  Requisitos Essenciais: Inglês Fluente (Atendimento global). Residência em SP (Obrigatório devido à contratação e CCT). Disponibilidade total para escala 12 x 36 (incluindo fins de semana/feriados). Experiência (ou interesse em aprender) com ServiceNow.  Atividades: Atendimento de chamados (tickets globais) com escopo fechado (6 tipos principais - FCR). Treinamento inicial de 2-3 semanas será fornecido pelo cliente. Equipamento de trabalho fornecido pelo cliente.  Buscamos profissionais com disciplina para a escala 12x36 e foco em qualidade de atendimento sob pressão (alta demanda). Início imediato.
+Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Analista de Service Desk Bilingue || Vaga Remota para Analistas de Service Desk.  Requisitos Essenciais: Inglês Fluente (Atendimento global). Residência em SP (Obrigatório devido à contratação e CCT). Disponibilidade total para escala 12 x 36 (incluindo fins de semana/feriados). Experiência (ou interesse em aprender) com ServiceNow.  Atividades: Atendimento de chamados (tickets globais) com escopo fechado (6 tipos principais - FCR). Treinamento inicial de 2-3 semanas será fornecido pelo cliente. Equipamento de trabalho fornecido pelo cliente.  Buscamos profissionais com disciplina para a escala 12x36 e foco em qualidade de atendimento sob pressão (alta demanda). Início imediato. || Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="I625" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>83174</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Analista de Sistema Jr / Analista de Requisitos Jr</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>Principais responsabilidades Receber, registrar e acompanhar demandas dos clientes. Elaborar, organizar e controlar backlog de projetos de baixa complexidade. Gerar e compartilhar status recorrentes dos projetos. Atender clientes, esclarecendo prazos, consumos e andamento das demandas. Abrir, atualizar e acompanhar chamados e demandas no Jira. Realizar follow-ups com clientes e equipe técnica, garantindo alinhamento e prazos. Preparar e conduzir homologações junto aos clientes. Executar operação assistida após entregas. Acompanhar e atualizar projetos na Release Wiki, conforme entregáveis. Apoiar chamados da área de suporte. Atuar em apoio aos analistas de processos na execução e tratativa das demandas.  Competências Técnicas Obrigatórias Experiência mínima de 1 ano em organizações públicas ou privadas, atuando com: inovação de modelos de negócio, configuração, parametrização e uso de sistemas, apoio à gestão e operação de soluções tecnológicas. Pacote Office.
+Empresa .....:  BRBPO</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Analista de Sistema Jr / Analista de Requisitos Jr || Principais responsabilidades Receber, registrar e acompanhar demandas dos clientes. Elaborar, organizar e controlar backlog de projetos de baixa complexidade. Gerar e compartilhar status recorrentes dos projetos. Atender clientes, esclarecendo prazos, consumos e andamento das demandas. Abrir, atualizar e acompanhar chamados e demandas no Jira. Realizar follow-ups com clientes e equipe técnica, garantindo alinhamento e prazos. Preparar e conduzir homologações junto aos clientes. Executar operação assistida após entregas. Acompanhar e atualizar projetos na Release Wiki, conforme entregáveis. Apoiar chamados da área de suporte. Atuar em apoio aos analistas de processos na execução e tratativa das demandas.  Competências Técnicas Obrigatórias Experiência mínima de 1 ano em organizações públicas ou privadas, atuando com: inovação de modelos de negócio, configuração, parametrização e uso de sistemas, apoio à gestão e operação de soluções tecnológicas. Pacote Office. || Empresa .....:  BRBPO</t>
+        </is>
+      </c>
+      <c r="I626" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>83542</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>CONSULTOR DE PROCESSOS</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>Local: Híbrido - 1x semana - Chácara Santo Antônio/SP Prazo: 6 meses, com chances de prorrogação Contratação: PJ  Requisitos: Inglês intermediário/avançado Ensino superior completo em Engenharia de Produção, Administração, Contabilidade, Economia, Análise e Desenvolvimento de Sistemas, ou áreas correlatas Conhecimento de processos financeiros, fiscais e contábeis Mapeamento e otimização de processos Documentação de processos e fluxos BPMN Projetos de melhoria contínua e implantação de sistemas Análise de tempos e métodos Levantamento de requisitos e análise de causa raiz.  Diferenciais: Sistemas ERP (Oracle, SAP, entre outros) Sistemas fiscais (Ex: Mastersaf Dfe, entre outros) Arquitetura de sistemas com foco fiscal Ferramentas de automação de processos Metodologias Lean e Seis Sigma.
+Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || CONSULTOR DE PROCESSOS || Local: Híbrido - 1x semana - Chácara Santo Antônio/SP Prazo: 6 meses, com chances de prorrogação Contratação: PJ  Requisitos: Inglês intermediário/avançado Ensino superior completo em Engenharia de Produção, Administração, Contabilidade, Economia, Análise e Desenvolvimento de Sistemas, ou áreas correlatas Conhecimento de processos financeiros, fiscais e contábeis Mapeamento e otimização de processos Documentação de processos e fluxos BPMN Projetos de melhoria contínua e implantação de sistemas Análise de tempos e métodos Levantamento de requisitos e análise de causa raiz.  Diferenciais: Sistemas ERP (Oracle, SAP, entre outros) Sistemas fiscais (Ex: Mastersaf Dfe, entre outros) Arquitetura de sistemas com foco fiscal Ferramentas de automação de processos Metodologias Lean e Seis Sigma. || Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="I627" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>83540</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Consultor PJ_Suporte Sistemas Bancários</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>Empresa Portuguesa de Tecnologia, busca profissionais em modalidade PJ para atuar em cliente do ramo Financeiro / Banco.  Local de trabalho: híbrido na Faria Lima - SP (4xsemana) e Home Office (1xsemana) Contratação PJ (valor fixo mensal + 22 dias de férias/ano).  Requisitos: Experiência com suporte Nível 1 a sistemas bancários (Altbank, Função, Altair, outros) Inglês avançado para escrever relatórios  Já tenha atuado em Suporte à Produção Nivel 1, ou seja: Abertura de tickets Análise preliminar para definição e encaminhamento da resolução de defeitos Monitorar a resolução de tickets por parte do provedor Preparar estatísticas sobre tickets de problemas de Produção Comunicar o status de resolução de incidentes aos usuários  Desejável: experiência com Matera ou Change e conhecimento de Espanhol (oral e escrita)
+Empresa .....:  Performance and Mind</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Consultor PJ_Suporte Sistemas Bancários || Empresa Portuguesa de Tecnologia, busca profissionais em modalidade PJ para atuar em cliente do ramo Financeiro / Banco.  Local de trabalho: híbrido na Faria Lima - SP (4xsemana) e Home Office (1xsemana) Contratação PJ (valor fixo mensal + 22 dias de férias/ano).  Requisitos: Experiência com suporte Nível 1 a sistemas bancários (Altbank, Função, Altair, outros) Inglês avançado para escrever relatórios  Já tenha atuado em Suporte à Produção Nivel 1, ou seja: Abertura de tickets Análise preliminar para definição e encaminhamento da resolução de defeitos Monitorar a resolução de tickets por parte do provedor Preparar estatísticas sobre tickets de problemas de Produção Comunicar o status de resolução de incidentes aos usuários  Desejável: experiência com Matera ou Change e conhecimento de Espanhol (oral e escrita) || Empresa .....:  Performance and Mind</t>
+        </is>
+      </c>
+      <c r="I628" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>83553</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack Pleno</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>A GTI Solution é uma das maiores integradoras de Soluções de TI, onde temos como premissa a liberdade de criação e a busca pelo bem-estar dos colaboradores, além de acreditarmos na diversidade da oferta, especialização do atendimento e na valorização da demanda do cliente.  Estamos buscando: Desenvolvedor Full Stack Pleno Node.js Next.js Experiência com APIs REST Boas práticas de desenvolvimento (código limpo, segurança, testes, versionamento) Ter atuado na área de Seguros  Desejáveis AWS (Lambda, API Gateway, S3, SQS, Elastic Beanstalk, RDS, DynamoDB, CodePipeline) SQL Server DynamoDB Docker PHP (para lidar pontualmente com sistemas legados) Conhecimento básico de LGPD (opcional, mas valorizado)  CLT do cliente Atuação híbrida: 03 x presencial por semana - zona sul
+Empresa .....:  GTI SOLUTION</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Desenvolvedor Full Stack Pleno || A GTI Solution é uma das maiores integradoras de Soluções de TI, onde temos como premissa a liberdade de criação e a busca pelo bem-estar dos colaboradores, além de acreditarmos na diversidade da oferta, especialização do atendimento e na valorização da demanda do cliente.  Estamos buscando: Desenvolvedor Full Stack Pleno Node.js Next.js Experiência com APIs REST Boas práticas de desenvolvimento (código limpo, segurança, testes, versionamento) Ter atuado na área de Seguros  Desejáveis AWS (Lambda, API Gateway, S3, SQS, Elastic Beanstalk, RDS, DynamoDB, CodePipeline) SQL Server DynamoDB Docker PHP (para lidar pontualmente com sistemas legados) Conhecimento básico de LGPD (opcional, mas valorizado)  CLT do cliente Atuação híbrida: 03 x presencial por semana - zona sul || Empresa .....:  GTI SOLUTION</t>
+        </is>
+      </c>
+      <c r="I629" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>82477</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Desenvolvedor FullStack</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>Prazo: 12 meses, com chances de prorrogar Local: Remoto Contratação: PJ  Inglês Avançado para conversação Desenvolver interfaces de usuário a partir de mockups de design utilizando HTML, CSS e JavaScript Criar funcionalidades interativas com frameworks como React, Angular ou Vue.js Garantir experiências de usuário responsivas e compatíveis com diferentes navegadores Projetar e implementar lógica do lado do servidor utilizando Python, Java, Node.js ou linguagens similares Criar e manter APIs e gerenciar interações com bancos de dados Integrar software com sistemas e plataformas de terceiros Escrever testes unitários e depurar código em toda a pilha de tecnologia Implementar medidas de segurança para integridade de dados e aplicações Colaborar com designers, desenvolvedores e stakeholders ao longo do ciclo de vida de desenvolvimento de software (SDLC), especialmente em ambientes ágeis Manter-se atualizado com as tecnologias e tendências de front-end e back-end
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Desenvolvedor FullStack || Prazo: 12 meses, com chances de prorrogar Local: Remoto Contratação: PJ  Inglês Avançado para conversação Desenvolver interfaces de usuário a partir de mockups de design utilizando HTML, CSS e JavaScript Criar funcionalidades interativas com frameworks como React, Angular ou Vue.js Garantir experiências de usuário responsivas e compatíveis com diferentes navegadores Projetar e implementar lógica do lado do servidor utilizando Python, Java, Node.js ou linguagens similares Criar e manter APIs e gerenciar interações com bancos de dados Integrar software com sistemas e plataformas de terceiros Escrever testes unitários e depurar código em toda a pilha de tecnologia Implementar medidas de segurança para integridade de dados e aplicações Colaborar com designers, desenvolvedores e stakeholders ao longo do ciclo de vida de desenvolvimento de software (SDLC), especialmente em ambientes ágeis Manter-se atualizado com as tecnologias e tendências de front-end e back-end || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I630" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>82673</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Fullstack</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>Prazo: 6 meses, com chances de prorrogação Local: remoto Contratação: PJ  Experiência em .Net e Angular Conhecimento em GCP.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Desenvolvedor Fullstack || Prazo: 6 meses, com chances de prorrogação Local: remoto Contratação: PJ  Experiência em .Net e Angular Conhecimento em GCP. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I631" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>82388</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Desenvolvedor FullStack (.Net e ReactJS)</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>Prazo: 12 meses, com chances de prorrogar Local: Remoto Contratação: PJ  Requisitos: Inglês - Avançado para conversação Experiência em Projetos Globais, Melhorias ou Suporte a AMS. Experiência prática em Microsoft .NET Framework (.NET Core) e ReactJS. Conhecimento em Azure Cloud e experiência prática em DevOps são imprescindíveis. Conhecimento em banco de dados é imprescindível.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Desenvolvedor FullStack (.Net e ReactJS) || Prazo: 12 meses, com chances de prorrogar Local: Remoto Contratação: PJ  Requisitos: Inglês - Avançado para conversação Experiência em Projetos Globais, Melhorias ou Suporte a AMS. Experiência prática em Microsoft .NET Framework (.NET Core) e ReactJS. Conhecimento em Azure Cloud e experiência prática em DevOps são imprescindíveis. Conhecimento em banco de dados é imprescindível. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I632" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>82470</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR JAVA PLENO PRESENCIAL</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>ANALISTA PROGRAMADOR JAVA PLENO PRESENCIAL Experiência em Java, MySQL, Docker (desejável). Análise e desenvolvimento de sistemas. Contratação PJ: 4 dias presenciais e 1 dia home office
+Empresa .....:  ARTIUM SOLUÇÕES</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || DESENVOLVEDOR JAVA PLENO PRESENCIAL || ANALISTA PROGRAMADOR JAVA PLENO PRESENCIAL Experiência em Java, MySQL, Docker (desejável). Análise e desenvolvimento de sistemas. Contratação PJ: 4 dias presenciais e 1 dia home office || Empresa .....:  ARTIUM SOLUÇÕES</t>
+        </is>
+      </c>
+      <c r="I633" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>83555</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java Sênior</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>A GTI Solution é uma das maiores integradoras de Soluções de TI, onde temos como premissa a liberdade de criação e a busca pelo bem-estar dos colaboradores, além de acreditarmos na diversidade da oferta, especialização do atendimento e na valorização da demanda do cliente.  Requisitos Obrigatórios Java 8+ Spring Boot 2+ Angular 16+ SQL e NoSQL Filas  Diferencial: Clean Architecture Clean Code Design Patterns  Atuação híbrida: 03 x presencial por semana - SP - SP CLT + benefícios GTI Solution
+Empresa .....:  GTI SOLUTION</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Desenvolvedor Java Sênior || A GTI Solution é uma das maiores integradoras de Soluções de TI, onde temos como premissa a liberdade de criação e a busca pelo bem-estar dos colaboradores, além de acreditarmos na diversidade da oferta, especialização do atendimento e na valorização da demanda do cliente.  Requisitos Obrigatórios Java 8+ Spring Boot 2+ Angular 16+ SQL e NoSQL Filas  Diferencial: Clean Architecture Clean Code Design Patterns  Atuação híbrida: 03 x presencial por semana - SP - SP CLT + benefícios GTI Solution || Empresa .....:  GTI SOLUTION</t>
+        </is>
+      </c>
+      <c r="I634" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>83117</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Desenvolvedor JR</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>Requisitos obrigatórios - JavaScript (lógica, funções, estruturas condicionais) - Node.js (conceitos básicos de backend, APIs, scripts) - SQL (Postgres, Oracle ou similar) - Git (clone, commit, branch, pull request) - React ou Vue.js (conceitos básicos)  Conhecimentos desejáveis (diferencial) - Linux (linha de comando básicos) - Shell Script  Caso não possua esses conhecimentos, há espaço para aprendizado.
+Empresa .....:  Amix Serviços de Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Desenvolvedor JR || Requisitos obrigatórios - JavaScript (lógica, funções, estruturas condicionais) - Node.js (conceitos básicos de backend, APIs, scripts) - SQL (Postgres, Oracle ou similar) - Git (clone, commit, branch, pull request) - React ou Vue.js (conceitos básicos)  Conhecimentos desejáveis (diferencial) - Linux (linha de comando básicos) - Shell Script  Caso não possua esses conhecimentos, há espaço para aprendizado. || Empresa .....:  Amix Serviços de Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="I635" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>82570</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Web Sênior</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>Requisitos Técnicos : C#: Proficiência na linguagem. NET 8+: Experiência comprovada no desenvolvimento de aplicações escaláveis utilizando as versões mais recentes do framework .NET. Conhecimento avançado e experiência na implementação de Event Sourcing e CQRS DDD (Domain-Driven Design): Sólida vivência na aplicação dos princípios e padrões do DDD. Bancos de Dados Relacionais: Experiência prática e otimização de consultas com SQL Server e Firebird. Vivência com mensageria e processamento assíncrono  Habilidades: Demonstrar proatividade na identificação e resolução de problemas, e comprometimento com a equipe e a qualidade dos projetos. Capacidade de cumprir prazos de entrega previamente definidos, com organização e foco na finalização das tarefas Possuir boa comunicação e facilidade de interação com a equipe interna. Habilidade para liderar novos projetos WEB e transmitir o conhecimento para o time como um todo.
+Empresa .....:  Poliview Tecnologia S/A</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Desenvolvedor Web Sênior || Requisitos Técnicos : C#: Proficiência na linguagem. NET 8+: Experiência comprovada no desenvolvimento de aplicações escaláveis utilizando as versões mais recentes do framework .NET. Conhecimento avançado e experiência na implementação de Event Sourcing e CQRS DDD (Domain-Driven Design): Sólida vivência na aplicação dos princípios e padrões do DDD. Bancos de Dados Relacionais: Experiência prática e otimização de consultas com SQL Server e Firebird. Vivência com mensageria e processamento assíncrono  Habilidades: Demonstrar proatividade na identificação e resolução de problemas, e comprometimento com a equipe e a qualidade dos projetos. Capacidade de cumprir prazos de entrega previamente definidos, com organização e foco na finalização das tarefas Possuir boa comunicação e facilidade de interação com a equipe interna. Habilidade para liderar novos projetos WEB e transmitir o conhecimento para o time como um todo. || Empresa .....:  Poliview Tecnologia S/A</t>
+        </is>
+      </c>
+      <c r="I636" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>82594</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Especialista de Suporte</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>A Emphasys it Services:contrata:  Fornecer suporte técnico oportuno e eficaz aos usuários finais. Diagnosticar e resolver problemas de hardware e software. Auxiliar na instalação, configuração e manutenção de equipamentos de TI Assistência ao usuário Responder às dúvidas dos usuários e fornecer orientação sobre assuntos relacionados a TI. Gerenciamento de incidentes: Implante construções de estações de trabalho e laptops, mantenha o inventário de equipamentos Forte conhecimento em solução de problemas de hardware e software. A certificação ITIL é uma vantagem. Compreensão avançada do SCCM para implantação de pacotes e gerenciamento de patches. Paciência e comunicação clara com os usuários finais internos. Experiência de arquiteto de soluções com Microsoft Windows 11 e Office 365 conhecimento de scripts do Windows PowerShell. A experiência VDI é uma vantagem  Inglês avançado
+Empresa .....:  Emphasys</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Especialista de Suporte || A Emphasys it Services:contrata:  Fornecer suporte técnico oportuno e eficaz aos usuários finais. Diagnosticar e resolver problemas de hardware e software. Auxiliar na instalação, configuração e manutenção de equipamentos de TI Assistência ao usuário Responder às dúvidas dos usuários e fornecer orientação sobre assuntos relacionados a TI. Gerenciamento de incidentes: Implante construções de estações de trabalho e laptops, mantenha o inventário de equipamentos Forte conhecimento em solução de problemas de hardware e software. A certificação ITIL é uma vantagem. Compreensão avançada do SCCM para implantação de pacotes e gerenciamento de patches. Paciência e comunicação clara com os usuários finais internos. Experiência de arquiteto de soluções com Microsoft Windows 11 e Office 365 conhecimento de scripts do Windows PowerShell. A experiência VDI é uma vantagem  Inglês avançado || Empresa .....:  Emphasys</t>
+        </is>
+      </c>
+      <c r="I637" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>82450</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Gerente de Projetos/Trade</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>Buscamos um Gerente de Projetos com experiência na área de Trade.  Responsabilidades: Garantir comunicação clara e eficaz com stakeholders internos e externos Acompanhar tendências e movimentações do mercado de vendas, propondo estratégias eficazes por canal Garantir rastreabilidade e compliance Suporte e treinamento às áreas de negócio Construção de dashboards em BI para KPIs de promoção Integração de dados de sell in e sell out por SKU/PLU com foco em desempenho de vendas, rentabilidade e cobertura de portfólio Reduzir atividades manuais e conciliação de promoções.  Requisitos: Experiência comprovada em trade Conhecimento de SKU/PLU Visão estratégica sobre o mercado de vendas no geral, incluindo canais diretos e indiretos Forte habilidade analítica e orientação a resultados Conhecimento em Visualfabriq, O9 e Osprey.  Necessário espanhol avançado Desejável inglês avançado.  Híbrido 2x por semana Enviar pretensão PJ e CV
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Gerente de Projetos/Trade || Buscamos um Gerente de Projetos com experiência na área de Trade.  Responsabilidades: Garantir comunicação clara e eficaz com stakeholders internos e externos Acompanhar tendências e movimentações do mercado de vendas, propondo estratégias eficazes por canal Garantir rastreabilidade e compliance Suporte e treinamento às áreas de negócio Construção de dashboards em BI para KPIs de promoção Integração de dados de sell in e sell out por SKU/PLU com foco em desempenho de vendas, rentabilidade e cobertura de portfólio Reduzir atividades manuais e conciliação de promoções.  Requisitos: Experiência comprovada em trade Conhecimento de SKU/PLU Visão estratégica sobre o mercado de vendas no geral, incluindo canais diretos e indiretos Forte habilidade analítica e orientação a resultados Conhecimento em Visualfabriq, O9 e Osprey.  Necessário espanhol avançado Desejável inglês avançado.  Híbrido 2x por semana Enviar pretensão PJ e CV || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I638" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>82484</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Product Owner</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>Buscamos um Product Owner para liderar iniciativas de implementação de dados, transformação digital e soluções estratégicas para a área de Vendas em um ambiente multinacional.  Requisitos: Experiência sólida como Product Owner ou Analista Funcional Sênior com atuação equivalente. Experiência com projetos de dados, transformação digital e soluções para Vendas. Atuação em projetos complexos e ambientes corporativos multinacionais. Experiência LATAM. Inglês e espanhol avançados para conversação. Perfil analítico, comunicativo e orientado a valor de negócio.  Diferenciais: Experiência com metodologias ágeis (Scrum/Kanban). Conhecimento em CRM, BI ou ferramentas de integração de dados. Híbrido: 3x presencial no escritório e 2x home office  Contratação PJ Horário de trabalho das 09h às 18h
+Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Product Owner || Buscamos um Product Owner para liderar iniciativas de implementação de dados, transformação digital e soluções estratégicas para a área de Vendas em um ambiente multinacional.  Requisitos: Experiência sólida como Product Owner ou Analista Funcional Sênior com atuação equivalente. Experiência com projetos de dados, transformação digital e soluções para Vendas. Atuação em projetos complexos e ambientes corporativos multinacionais. Experiência LATAM. Inglês e espanhol avançados para conversação. Perfil analítico, comunicativo e orientado a valor de negócio.  Diferenciais: Experiência com metodologias ágeis (Scrum/Kanban). Conhecimento em CRM, BI ou ferramentas de integração de dados. Híbrido: 3x presencial no escritório e 2x home office  Contratação PJ Horário de trabalho das 09h às 18h || Empresa .....:  TOPMIND</t>
+        </is>
+      </c>
+      <c r="I639" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>82215</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Programador Web Pleno - São Paulo - Zona Leste</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>* Escrever códigos bem estruturados, eficientes e testáveis utilizando as melhores práticas de desenvolvimento de softwares * Criar layout/interface de usuário de sites * Integrar dados de vários serviços de back-end e bancos de dados * Reunir e refinar especificações e requisitos com base em necessidades técnicas * Criar e manter documentação de softwares * Manter-se atualizado sobre tecnologias emergentes e tendências da indústria e aplicá-las em operações e atividades * Cooperar com web designers para atender à concepção visual do projeto.  Conhecimentos necessários: * Angular (JavaScript, typescript) * C# * Python * Versionamento com Git (github) * SQL Server/MySQL * APIs * Webservices  Conhecimentos desejáveis * PHP * Laravel * Nuvem Pública * Desenvolvimento mobile * Sharepoint * UX  Salário Compatível com mercado e benefícios: AM. AO, VR, VA, SV e 2 Bolsas para filhos após o período de experiência.
+Empresa .....:  SAEA  - Educação e Assistência</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Programador Web Pleno - São Paulo - Zona Leste || * Escrever códigos bem estruturados, eficientes e testáveis utilizando as melhores práticas de desenvolvimento de softwares * Criar layout/interface de usuário de sites * Integrar dados de vários serviços de back-end e bancos de dados * Reunir e refinar especificações e requisitos com base em necessidades técnicas * Criar e manter documentação de softwares * Manter-se atualizado sobre tecnologias emergentes e tendências da indústria e aplicá-las em operações e atividades * Cooperar com web designers para atender à concepção visual do projeto.  Conhecimentos necessários: * Angular (JavaScript, typescript) * C# * Python * Versionamento com Git (github) * SQL Server/MySQL * APIs * Webservices  Conhecimentos desejáveis * PHP * Laravel * Nuvem Pública * Desenvolvimento mobile * Sharepoint * UX  Salário Compatível com mercado e benefícios: AM. AO, VR, VA, SV e 2 Bolsas para filhos após o período de experiência. || Empresa .....:  SAEA  - Educação e Assistência</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>83189</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Suporte Técnico Campo</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>Estamos contratando técnico de suporte: Conhecimento em sistemas operacionais windows 10/11 Pró Conhecimento em hardware Conhecimento comprovado em redes, lan e wan.  Desejável Conhecimento em switchs Conhecimento em roteadores Possuir CNH  Contratação: CLT Benefícios: VR/VT/VA e Auxilio Saúde
+Empresa .....:  DryIT Services Intermediação de Negócios</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Suporte Técnico Campo || Estamos contratando técnico de suporte: Conhecimento em sistemas operacionais windows 10/11 Pró Conhecimento em hardware Conhecimento comprovado em redes, lan e wan.  Desejável Conhecimento em switchs Conhecimento em roteadores Possuir CNH  Contratação: CLT Benefícios: VR/VT/VA e Auxilio Saúde || Empresa .....:  DryIT Services Intermediação de Negócios</t>
+        </is>
+      </c>
+      <c r="I641" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>83547</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Supply Analyst SR</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>O Supply Analyst conectará a estratégia comercial às dinâmicas de mercado, garantindo decisões eficientes de compra, hedge e precificação de energia, com foco em confiabilidade e custo-benefício. Atuará em parceria com a célula de dados, apoiando previsão de carga, avaliação de estratégias, monitoramento de riscos e decisões orientadas por dados.  Responsabilidades Avaliar e otimizar processos de supply ponta a ponta Desenvolver e acompanhar KPIs do portfólio (previsibilidade, hedge, custos e margens) Produzir previsões de carga, análises de cenário e impactos de sazonalidade, clima e mix Apoiar decisões de compra e hedge, monitorando posições vs. políticas e limites Acompanhar fundamentos de mercado e gerar relatórios de performance e margem Documentar e comunicar análises e recomendações a stakeholders  Requisitos 3+ anos de experiência (5+ diferencial) Experiência com SQL Formação em Engenharia, Matemática ou áreas correlatas Forte capacidade analítica e autonomia.
+Empresa .....:  Farol plus (Consultoria de RH)</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Supply Analyst SR || O Supply Analyst conectará a estratégia comercial às dinâmicas de mercado, garantindo decisões eficientes de compra, hedge e precificação de energia, com foco em confiabilidade e custo-benefício. Atuará em parceria com a célula de dados, apoiando previsão de carga, avaliação de estratégias, monitoramento de riscos e decisões orientadas por dados.  Responsabilidades Avaliar e otimizar processos de supply ponta a ponta Desenvolver e acompanhar KPIs do portfólio (previsibilidade, hedge, custos e margens) Produzir previsões de carga, análises de cenário e impactos de sazonalidade, clima e mix Apoiar decisões de compra e hedge, monitorando posições vs. políticas e limites Acompanhar fundamentos de mercado e gerar relatórios de performance e margem Documentar e comunicar análises e recomendações a stakeholders  Requisitos 3+ anos de experiência (5+ diferencial) Experiência com SQL Formação em Engenharia, Matemática ou áreas correlatas Forte capacidade analítica e autonomia. || Empresa .....:  Farol plus (Consultoria de RH)</t>
+        </is>
+      </c>
+      <c r="I642" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>83191</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Trainee Analista de Sistemas</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>Estamos contratando analista de sistemas trainee / junior.  Formado em análise de sistemas ou correlato.  Contratação: CLT Benefícios: VT / VR / VA - Aux. Saúde
+Empresa .....:  DryIT Services Intermediação de Negócios</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Trainee Analista de Sistemas || Estamos contratando analista de sistemas trainee / junior.  Formado em análise de sistemas ou correlato.  Contratação: CLT Benefícios: VT / VR / VA - Aux. Saúde || Empresa .....:  DryIT Services Intermediação de Negócios</t>
+        </is>
+      </c>
+      <c r="I643" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>82476</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Pleno DELPHI</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>Americana - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>Desenvolvedor de Software em linguagem DELPHI  Requisitos: Experiência em desenvolvimento de software em Delphi nível Pleno Domino de TSQL
+Empresa .....:  Microdata Sistemas</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Americana - SP - 02/02/26 || Desenvolvedor Pleno DELPHI || Desenvolvedor de Software em linguagem DELPHI  Requisitos: Experiência em desenvolvimento de software em Delphi nível Pleno Domino de TSQL || Empresa .....:  Microdata Sistemas</t>
+        </is>
+      </c>
+      <c r="I644" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>83140</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura Cloud Azure e Segurança</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>Modelo: Remoto  Nível: Pleno  -- Responsabilidades: - Administração da infraestrutura em Azure incluindo: Web Apps, Azure SQL, Virtual Machines, Data Factory, Databricks e Blob Storage - Implementação de automação de scaling e boas práticas de FinOps (controle, análise e otimização de custos) - Gestão do Cloudflare, domínios, DNS e WAF - Implementação e manutenção de políticas de DLP (Data Loss Prevention) - Monitoramento dos recursos com Grafana, dashboards e alertas - Atuação preventiva e corretiva em incidentes de infraestrutura - Gestão do ambiente Microsoft 365, com administração de contas, acessos e licenças  -- Requisitos: - Experiência sólida com Azure e seus principais serviços - Vivência com Cloudflare e firewalls  **Obrigatório conhecimento implantação de ferramentas para DLP
+Empresa .....:  Target Software</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 02/02/26 || Analista de Infraestrutura Cloud Azure e Segurança || Modelo: Remoto  Nível: Pleno  -- Responsabilidades: - Administração da infraestrutura em Azure incluindo: Web Apps, Azure SQL, Virtual Machines, Data Factory, Databricks e Blob Storage - Implementação de automação de scaling e boas práticas de FinOps (controle, análise e otimização de custos) - Gestão do Cloudflare, domínios, DNS e WAF - Implementação e manutenção de políticas de DLP (Data Loss Prevention) - Monitoramento dos recursos com Grafana, dashboards e alertas - Atuação preventiva e corretiva em incidentes de infraestrutura - Gestão do ambiente Microsoft 365, com administração de contas, acessos e licenças  -- Requisitos: - Experiência sólida com Azure e seus principais serviços - Vivência com Cloudflare e firewalls  **Obrigatório conhecimento implantação de ferramentas para DLP || Empresa .....:  Target Software</t>
+        </is>
+      </c>
+      <c r="I645" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>83093</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Arquiteto de Soluções Corporativas Temporário</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>Buscamos Arquiteto(a) de Soluções corporativas com atuação estratégica e transversal, focado em automações, IA, integrações, cloud e dados. Perfil voltado a desenho e governança de arquitetura, apoiando decisões técnicas sem atuação como desenvolvedor full-time.  Responsabilidades: •	Definição de arquitetura de soluções (AS-IS / TO-BE) •	Desenho de integrações (APIs, eventos, mensageria, dados) •	Avaliação técnica de soluções, fornecedores e riscos •	Apoio técnico a times internos, parceiros e áreas de negócio •	Atuação em padrões, governança, segurança e escalabilidade  Requisitos: •	Experiência em arquitetura corporativa •	Visão multicloud (AWS, Azure, GCP) •	Conhecimento em APIs, microsserviços, eventos, dados e automação •	Segurança (OAuth2, OIDC) e observabilidade  Obs: Vaga temporária por 6 meses mas, com chances de se estender. Contratação PJ.
+Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 02/02/26 || Arquiteto de Soluções Corporativas Temporário || Buscamos Arquiteto(a) de Soluções corporativas com atuação estratégica e transversal, focado em automações, IA, integrações, cloud e dados. Perfil voltado a desenho e governança de arquitetura, apoiando decisões técnicas sem atuação como desenvolvedor full-time.  Responsabilidades: •	Definição de arquitetura de soluções (AS-IS / TO-BE) •	Desenho de integrações (APIs, eventos, mensageria, dados) •	Avaliação técnica de soluções, fornecedores e riscos •	Apoio técnico a times internos, parceiros e áreas de negócio •	Atuação em padrões, governança, segurança e escalabilidade  Requisitos: •	Experiência em arquitetura corporativa •	Visão multicloud (AWS, Azure, GCP) •	Conhecimento em APIs, microsserviços, eventos, dados e automação •	Segurança (OAuth2, OIDC) e observabilidade  Obs: Vaga temporária por 6 meses mas, com chances de se estender. Contratação PJ. || Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="I646" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>83109</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Engenheiro FullStack</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>Vaga: Engenheiro FullStack Prazo: 6 meses, com chances de prorrogar Local: Remoto Contratação: PJ  Requisitos Técnicos: Buscamos um(a) Desenvolvedor(a) Full Stack com foco em Inteligência Artificial para atuar no desenvolvimento de aplicações ponta a ponta, integrando frontend, backend e modelos de IA/ML. A pessoa colaborará com times de produto e dados na criação de soluções escaláveis, testáveis e orientadas ao valor de negócio. Experiência em frontend (React, Angular ou Vue HTML, CSS, JavaScript/TypeScript), backend (Node.js, Python, Java ou .NET), APIs REST/GraphQL, integração com serviços de IA/LLMs, fundamentos de IA/ML, bancos de dados relacionais e NoSQL, testes automatizados, boas práticas de engenharia e arquiteturas RAG com uso de vetores e mecanismos de busca.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 02/02/26 || Engenheiro FullStack || Vaga: Engenheiro FullStack Prazo: 6 meses, com chances de prorrogar Local: Remoto Contratação: PJ  Requisitos Técnicos: Buscamos um(a) Desenvolvedor(a) Full Stack com foco em Inteligência Artificial para atuar no desenvolvimento de aplicações ponta a ponta, integrando frontend, backend e modelos de IA/ML. A pessoa colaborará com times de produto e dados na criação de soluções escaláveis, testáveis e orientadas ao valor de negócio. Experiência em frontend (React, Angular ou Vue HTML, CSS, JavaScript/TypeScript), backend (Node.js, Python, Java ou .NET), APIs REST/GraphQL, integração com serviços de IA/LLMs, fundamentos de IA/ML, bancos de dados relacionais e NoSQL, testes automatizados, boas práticas de engenharia e arquiteturas RAG com uso de vetores e mecanismos de busca. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I647" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>82511</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Técnicos de operações de TI São Paulo</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>Osasco - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>Possui conhecimento amplo e aprofundado sobre operações de TI e seus processos relacionados. É capaz de realizar análises proativas de risco, identificar potenciais ameaças e definir medidas de controle para as atividades de TI em datacenters (IDC) ou parques tecnológicos. Atua na otimização contínua dos processos de EOP e SOP.
+Empresa .....:  KUNYUCOMM TECH BRASIL LTDA.</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>Osasco - SP - 02/02/26 || Técnicos de operações de TI São Paulo || Possui conhecimento amplo e aprofundado sobre operações de TI e seus processos relacionados. É capaz de realizar análises proativas de risco, identificar potenciais ameaças e definir medidas de controle para as atividades de TI em datacenters (IDC) ou parques tecnológicos. Atua na otimização contínua dos processos de EOP e SOP. || Empresa .....:  KUNYUCOMM TECH BRASIL LTDA.</t>
+        </is>
+      </c>
+      <c r="I648" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>82818</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura Pleno</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>São Caetano do Sul - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>Suporte e sustentação de servidores, redes, firewalls, cloud e segurança.  Conhecimentos necessários: Microsoft 365 Nextgen Firewall Windows Server / AD Antivírus EDR / XDR Backup (Acromis, Arcserv ou outro) Administração de Redes  CLT VAGAS PARA PLENO: a partir de R$ 3.000,00 + Beneficios (VR, VT, GYMPASS. PLANO DE SAUDE SULAMERICA)
+Empresa .....:  Multipoint It Solutions</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>São Caetano do Sul - SP - 02/02/26 || Analista de Infraestrutura Pleno || Suporte e sustentação de servidores, redes, firewalls, cloud e segurança.  Conhecimentos necessários: Microsoft 365 Nextgen Firewall Windows Server / AD Antivírus EDR / XDR Backup (Acromis, Arcserv ou outro) Administração de Redes  CLT VAGAS PARA PLENO: a partir de R$ 3.000,00 + Beneficios (VR, VT, GYMPASS. PLANO DE SAUDE SULAMERICA) || Empresa .....:  Multipoint It Solutions</t>
+        </is>
+      </c>
+      <c r="I649" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>83536</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Analista de Dados Power BI – Pleno</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>Criar e manter dashboards e relatórios interativos no Power BI Desenvolver modelos de dados eficientes e performáticos Aplicar DAX e Power Query para criação de métricas e transformação de dados Integrar diferentes fontes (MySQL, APIs, Excel, SharePoint, DW e Data Lake) Transformar dados em insights acionáveis para o negócio Garantir qualidade, governança e segurança dos dados Colaborar com times multidisciplinares em soluções analíticas  - Requisitos Experiência com Power BI (DAX, Power Query e modelagem de dados) Conhecimento em SQL Experiência com ETL e tratamento de dados Noções de Data Warehouse, Data Lake e governança de dados Perfil analítico e boa comunicação com stakeholders  Conhecimento em Figma será considerado diferencial  - O que oferecemos - R$ 7.500,00 - Bônus anual - Cartão FLASH (refeição/alimentação) - TotalPass - Clude Saúde + Cartão de TODOS - Modelo híbrido (3x presencial / 2x remoto
+Empresa .....:  NCM Sistemas e Consultoria</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Analista de Dados Power BI – Pleno || Criar e manter dashboards e relatórios interativos no Power BI Desenvolver modelos de dados eficientes e performáticos Aplicar DAX e Power Query para criação de métricas e transformação de dados Integrar diferentes fontes (MySQL, APIs, Excel, SharePoint, DW e Data Lake) Transformar dados em insights acionáveis para o negócio Garantir qualidade, governança e segurança dos dados Colaborar com times multidisciplinares em soluções analíticas  - Requisitos Experiência com Power BI (DAX, Power Query e modelagem de dados) Conhecimento em SQL Experiência com ETL e tratamento de dados Noções de Data Warehouse, Data Lake e governança de dados Perfil analítico e boa comunicação com stakeholders  Conhecimento em Figma será considerado diferencial  - O que oferecemos - R$ 7.500,00 - Bônus anual - Cartão FLASH (refeição/alimentação) - TotalPass - Clude Saúde + Cartão de TODOS - Modelo híbrido (3x presencial / 2x remoto || Empresa .....:  NCM Sistemas e Consultoria</t>
+        </is>
+      </c>
+      <c r="I650" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>83115</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura Sênior (hibrido)</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>REQUISITOS E QUALIFICAÇÕES Experiência comprovada em ambientes Oracle Cloud e AWS Domínio em VMWare e projetos de migração para Cloud Conhecimentos avançados em sistemas operacionais Windows e Linux Capacidade de análise crítica, resolução de problemas e trabalho colaborativo Boa comunicação e organização.  Diferenciais: Certificações em Cloud (AWS, Oracle) ou VMWare Experiência com ferramentas de automação e infraestrutura como código (IaC) Vivência em ambientes corporativos com alta disponibilidade.
+Empresa .....:  3CON CONSULTORIA E SISTEMAS</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Analista de Infraestrutura Sênior (hibrido) || REQUISITOS E QUALIFICAÇÕES Experiência comprovada em ambientes Oracle Cloud e AWS Domínio em VMWare e projetos de migração para Cloud Conhecimentos avançados em sistemas operacionais Windows e Linux Capacidade de análise crítica, resolução de problemas e trabalho colaborativo Boa comunicação e organização.  Diferenciais: Certificações em Cloud (AWS, Oracle) ou VMWare Experiência com ferramentas de automação e infraestrutura como código (IaC) Vivência em ambientes corporativos com alta disponibilidade. || Empresa .....:  3CON CONSULTORIA E SISTEMAS</t>
+        </is>
+      </c>
+      <c r="I651" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>83103</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Analista de Segurança da Informação</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>Requisitos necessários:  Conhecimentos em  ZTNA, Conhecimento em Netskope e/ou Fortinet e/ou CDN (Cloudflare).#8203 Firewall Fortinet e filtro de conteúdo EDR, cofre de senha, Tunnel GRE/IpSec, Abrangente conhecimento em redes. Conhecimento de protocolos web.#8203 Inglês Intermediário (leitura, escrita e conversação).  Atuação: Híbrido - 1x presencial na Chácara Santo Antônio - São Paulo - SP  Formação: Graduação  Concluída ou cursando Vaga efetiva Ramo da empresa: Segurança da Informação Contratação CLT + Benefícios
+Empresa .....:  Moot Consulting</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Analista de Segurança da Informação || Requisitos necessários:  Conhecimentos em  ZTNA, Conhecimento em Netskope e/ou Fortinet e/ou CDN (Cloudflare).#8203 Firewall Fortinet e filtro de conteúdo EDR, cofre de senha, Tunnel GRE/IpSec, Abrangente conhecimento em redes. Conhecimento de protocolos web.#8203 Inglês Intermediário (leitura, escrita e conversação).  Atuação: Híbrido - 1x presencial na Chácara Santo Antônio - São Paulo - SP  Formação: Graduação  Concluída ou cursando Vaga efetiva Ramo da empresa: Segurança da Informação Contratação CLT + Benefícios || Empresa .....:  Moot Consulting</t>
+        </is>
+      </c>
+      <c r="I652" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>82234</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Analista de sistemas MV Pleno</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>• Experiência com sistemas de gestão hospitalar (ERP MV Saúde). • Domínio de banco de dados e consultas SQL. • Vivência com ferramentas de análise e visualização de dados (Power BI ou equivalentes). • Conhecimento em mapeamento e modelagem de processos (fluxogramas, BPMN, Visio). • Habilidade em documentação técnica, elaboração de manuais e definição de fluxos operacionais. • Conhecimento em boas práticas de governança de TI e controle de acessos. • Domínio do pacote Microsoft Office, especialmente Excel avançado, PowerQuery e PowerPivot.
+Empresa .....:  WTime</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Analista de sistemas MV Pleno || • Experiência com sistemas de gestão hospitalar (ERP MV Saúde). • Domínio de banco de dados e consultas SQL. • Vivência com ferramentas de análise e visualização de dados (Power BI ou equivalentes). • Conhecimento em mapeamento e modelagem de processos (fluxogramas, BPMN, Visio). • Habilidade em documentação técnica, elaboração de manuais e definição de fluxos operacionais. • Conhecimento em boas práticas de governança de TI e controle de acessos. • Domínio do pacote Microsoft Office, especialmente Excel avançado, PowerQuery e PowerPivot. || Empresa .....:  WTime</t>
+        </is>
+      </c>
+      <c r="I653" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>83182</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>ANALISTA DE TECNOLOGIA DA INFORMAÇÃO JR</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>ANALISTA DE TECNOLOGIA DA INFORMAÇÃO JÚNIOR I – PRESENCIAL São Paulo/SP  Ambiente leve, ético, diverso e comprometido com impacto positivo na sociedade e no meio ambiente.  Buscamos uma pessoa responsável, organizada, proativa e com bom relacionamento interpessoal, que queira se desenvolver na área de Tecnologia da Informação.  Principais responsabilidades: Suporte e manutenção de hardware, realização de testes lógicos e físicos, troca de componentes, conhecimentos básicos em VPN, Microsoft Teams e Office 365, boa comunicação escrita e verbal, organização, dinamismo e capacidade de trabalhar sob pressão.  Competências necessárias: Cursando Ciência da Computação, Sistemas de Informação, Redes ou áreas correlatas. Conhecimento básico em sistemas operacionais, hardware, software, Excel, além de empatia e boa comunicação.  Benefícios: Vale Refeição, Vale Transporte, Assistência Médica e Odontológica, Auxílio Creche e Seguro de Vida.  Salario R$ 2.245,00
+Empresa .....:  KVM TECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || ANALISTA DE TECNOLOGIA DA INFORMAÇÃO JR || ANALISTA DE TECNOLOGIA DA INFORMAÇÃO JÚNIOR I – PRESENCIAL São Paulo/SP  Ambiente leve, ético, diverso e comprometido com impacto positivo na sociedade e no meio ambiente.  Buscamos uma pessoa responsável, organizada, proativa e com bom relacionamento interpessoal, que queira se desenvolver na área de Tecnologia da Informação.  Principais responsabilidades: Suporte e manutenção de hardware, realização de testes lógicos e físicos, troca de componentes, conhecimentos básicos em VPN, Microsoft Teams e Office 365, boa comunicação escrita e verbal, organização, dinamismo e capacidade de trabalhar sob pressão.  Competências necessárias: Cursando Ciência da Computação, Sistemas de Informação, Redes ou áreas correlatas. Conhecimento básico em sistemas operacionais, hardware, software, Excel, além de empatia e boa comunicação.  Benefícios: Vale Refeição, Vale Transporte, Assistência Médica e Odontológica, Auxílio Creche e Seguro de Vida.  Salario R$ 2.245,00 || Empresa .....:  KVM TECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="I654" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>82512</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Arquiteto de Software - Java</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>- Escrever um código limpo e eficiente usando Java e suas tecnologias relacionadas, aderindo às melhores práticas e padrões de codificação. - Utilizar ferramentas de automação de testes, como JUnit, para garantir a qualidade do software desenvolvido.  Experiência em desenvolvimento de software, com sólidos conhecimentos em Java e arquitetura de sistemas. Experiência com tecnologias como Spring, Hibernate, Maven, JUnit, Docker, Kubernetes e cloud Azure é necessária.  Modelo de Alocação: Híbrida - 2x por semana na Vila Olímpia. Período de Alocação: Tempo indeterminado - PJ
+Empresa .....:  SOW Serviços</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Arquiteto de Software - Java || - Escrever um código limpo e eficiente usando Java e suas tecnologias relacionadas, aderindo às melhores práticas e padrões de codificação. - Utilizar ferramentas de automação de testes, como JUnit, para garantir a qualidade do software desenvolvido.  Experiência em desenvolvimento de software, com sólidos conhecimentos em Java e arquitetura de sistemas. Experiência com tecnologias como Spring, Hibernate, Maven, JUnit, Docker, Kubernetes e cloud Azure é necessária.  Modelo de Alocação: Híbrida - 2x por semana na Vila Olímpia. Período de Alocação: Tempo indeterminado - PJ || Empresa .....:  SOW Serviços</t>
+        </is>
+      </c>
+      <c r="I655" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>82564</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Consultor de Transformação de Negócios/Treinamento</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>Acompanhar o requisitos do treinamento junto com time de projeto •    Acompanhar a estratégia de execução do treinamento •    Acompanhar e validar formatos de treinamentos •    Produzir os materiais de treinamentos •    Acompanhar  sessões de treinamentos com Key Users •    Revisar e manter os treinamentos atualizados  Vaga remota Enviar cv com pretensão CLT e PJ
+Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Consultor de Transformação de Negócios/Treinamento || Acompanhar o requisitos do treinamento junto com time de projeto •    Acompanhar a estratégia de execução do treinamento •    Acompanhar e validar formatos de treinamentos •    Produzir os materiais de treinamentos •    Acompanhar  sessões de treinamentos com Key Users •    Revisar e manter os treinamentos atualizados  Vaga remota Enviar cv com pretensão CLT e PJ || Empresa .....:  TOPMIND IT</t>
+        </is>
+      </c>
+      <c r="I656" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>82502</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>Local: Vila Congonhas – São Paulo/SP Modalidade: Híbrido (3x presencial  2x remoto) Contratação: PJ Remuneração: A combinar  Requisitos Técnicos: • Back-end: .NET, ASP.NET Core, MVC, Web Forms • Front-end: React ou Angular (desejável) • Arquitetura: Microservices • Sistemas: Experiência com sistema de controle de fila e mensageria • Banco de Dados: SQL Server e MongoDB • Metodologias: Atuação com metodologias ágeis (preferencialmente Scrum)
+Empresa .....:  Devpartner</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Desenvolvedor Full Stack || Local: Vila Congonhas – São Paulo/SP Modalidade: Híbrido (3x presencial  2x remoto) Contratação: PJ Remuneração: A combinar  Requisitos Técnicos: • Back-end: .NET, ASP.NET Core, MVC, Web Forms • Front-end: React ou Angular (desejável) • Arquitetura: Microservices • Sistemas: Experiência com sistema de controle de fila e mensageria • Banco de Dados: SQL Server e MongoDB • Metodologias: Atuação com metodologias ágeis (preferencialmente Scrum) || Empresa .....:  Devpartner</t>
+        </is>
+      </c>
+      <c r="I657" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>82720</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java Oracle Híbrido SP</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>•	Ensino Superior em Tecnologia ou Ciência da Computação. •	Domínio em Java (JSE, JEE, JSP, Servlets, Spring Boot, Spring MVC, Hibernate, JPA) e JavaScript, HTML5, CSS3, JSON, AJAX. •	Experiência com APIs RESTful e SOAP. •	Conhecimento em Spring (Boot, Data, Security), Hibernate, Angular ou React, Bootstrap, Maven, Git, Jenkins ou GitLab CI/CD. •	Vivência com IDEs (Eclipse, IntelliJ, VS Code, NetBeans) e servidores de aplicação (Apache Tomcat, JBoss, WebLogic). •	Sólido conhecimento em SQL e PL/SQL (Oracle, PostgreSQL ou MySQL), modelagem de dados (DER) e integração via JDBC/JPA. •	Experiência com arquitetura e padrões de projeto (MVC, DAO, Factory, Singleton, Observer, UML). •	Atuação com metodologias ágeis (Scrum, Kanban) e práticas de Integração Contínua e Entrega Contínua (CI/CD).  Contratação CLT Híbrido SP  Caso tenha interesse é só enviar o cv atualizado com a pretensão salarial CLT
+Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Desenvolvedor Java Oracle Híbrido SP || •	Ensino Superior em Tecnologia ou Ciência da Computação. •	Domínio em Java (JSE, JEE, JSP, Servlets, Spring Boot, Spring MVC, Hibernate, JPA) e JavaScript, HTML5, CSS3, JSON, AJAX. •	Experiência com APIs RESTful e SOAP. •	Conhecimento em Spring (Boot, Data, Security), Hibernate, Angular ou React, Bootstrap, Maven, Git, Jenkins ou GitLab CI/CD. •	Vivência com IDEs (Eclipse, IntelliJ, VS Code, NetBeans) e servidores de aplicação (Apache Tomcat, JBoss, WebLogic). •	Sólido conhecimento em SQL e PL/SQL (Oracle, PostgreSQL ou MySQL), modelagem de dados (DER) e integração via JDBC/JPA. •	Experiência com arquitetura e padrões de projeto (MVC, DAO, Factory, Singleton, Observer, UML). •	Atuação com metodologias ágeis (Scrum, Kanban) e práticas de Integração Contínua e Entrega Contínua (CI/CD).  Contratação CLT Híbrido SP  Caso tenha interesse é só enviar o cv atualizado com a pretensão salarial CLT || Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="I658" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>82561</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Engenheiro de Dados</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>Prazo: 3 meses, com chance de prorrogação. Local: Remoto Contratação: PJ  Python: Para scripts de ETL, análise ou automações. C# e .NET Core(desejável): Experiência em desenvolvimento de serviços de dados. Desenvolver soluções em linguagens como: Python, SQL e .NET * Bancos de Dados SQL Server / PostgreSQL: Domínio em consultas, modelagem e tuning. NoSQL: Conhecimento em MongoDB e Redis é um diferencial. Mensageria RabbitMQ e/ou Kafka: Experiência com processamento assíncrono, eventos e alta performance. ETL e Pipelines Construção e manutenção de pipelines de dados automatizados (batch ou streaming). Experiência com ferramentas de orquestração (ex: Apache Airflow, Azure Data Factory, Luigi, etc.). DevOps / Integração Contínua Experiência com Git, Azure DevOps ou ferramentas similares para versionamento e CI/CD. Automatização de deploys de pipelines e monitoramento. Distribuição e Sincronização de Dados
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Engenheiro de Dados || Prazo: 3 meses, com chance de prorrogação. Local: Remoto Contratação: PJ  Python: Para scripts de ETL, análise ou automações. C# e .NET Core(desejável): Experiência em desenvolvimento de serviços de dados. Desenvolver soluções em linguagens como: Python, SQL e .NET * Bancos de Dados SQL Server / PostgreSQL: Domínio em consultas, modelagem e tuning. NoSQL: Conhecimento em MongoDB e Redis é um diferencial. Mensageria RabbitMQ e/ou Kafka: Experiência com processamento assíncrono, eventos e alta performance. ETL e Pipelines Construção e manutenção de pipelines de dados automatizados (batch ou streaming). Experiência com ferramentas de orquestração (ex: Apache Airflow, Azure Data Factory, Luigi, etc.). DevOps / Integração Contínua Experiência com Git, Azure DevOps ou ferramentas similares para versionamento e CI/CD. Automatização de deploys de pipelines e monitoramento. Distribuição e Sincronização de Dados || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I659" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>83535</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Gerente de Inteligência de Negócios</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>Liderar e desenvolver a equipe de Inteligência de Negócios e BI, promovendo alta performance e aprendizado contínuo Definir e executar a estratégia de BI alinhada aos objetivos corporativos e à evolução do Marketplace das Oportunidades Antecipar necessidades de dados das áreas de Vendas, Marketing, Operações, Finanças e Produto Desenvolver e manter dashboards, relatórios e modelos de dados complexos Analisar tendências de mercado, desempenho da plataforma, métricas de crescimento e concorrência Avaliar e implementar novas ferramentas e tecnologias de BI Atuar como agente de disseminação da cultura data-driven Garantir governança, qualidade e segurança da informação (LGPD)  - Desafios da posição Garantir a integridade, governança e escalabilidade dos dados Apresentar insights estratégicos para a alta gestão e parceiros do ecossistema  - Requisitos Formação superior em Ciência da Computação, Engenharia, Estatística
+Empresa .....:  NCM Sistemas e Consultoria</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Gerente de Inteligência de Negócios || Liderar e desenvolver a equipe de Inteligência de Negócios e BI, promovendo alta performance e aprendizado contínuo Definir e executar a estratégia de BI alinhada aos objetivos corporativos e à evolução do Marketplace das Oportunidades Antecipar necessidades de dados das áreas de Vendas, Marketing, Operações, Finanças e Produto Desenvolver e manter dashboards, relatórios e modelos de dados complexos Analisar tendências de mercado, desempenho da plataforma, métricas de crescimento e concorrência Avaliar e implementar novas ferramentas e tecnologias de BI Atuar como agente de disseminação da cultura data-driven Garantir governança, qualidade e segurança da informação (LGPD)  - Desafios da posição Garantir a integridade, governança e escalabilidade dos dados Apresentar insights estratégicos para a alta gestão e parceiros do ecossistema  - Requisitos Formação superior em Ciência da Computação, Engenharia, Estatística || Empresa .....:  NCM Sistemas e Consultoria</t>
+        </is>
+      </c>
+      <c r="I660" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>83089</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Técnico de Informatica JR II - Guarulhos</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>Realizar atendimento para solucionar problemas de baixa a media complexidade. Conceder acesso as telas do sistema Metodo. Instalar e configurar programas no ambiente Windows, pacote office e outros executados nesse ambiente. Realizar a movimentação de computadores, impressoras e demais ativos de TI.  Criar usuários e alterar senhas na rede. Criar conta de e-mail e alterar senha de acesso. Criar usuário e alterar senha no portal. Criar usuários, alteração e bloqueio de acesso ao sistema Metodo.  Realizar suporte remoto aos computadores por VNC. Prestar atendimento aos colaboradores da Unidade. Realizar manutenção e reparos em ativos de TI (Computadores). Realizar suporte remoto nos polos por team viewer. Atuar em ações voltadas à captação e retenção dos alunos, a partir de orientações prévias. Apoiar eventos e outras atividades que tem como objetivo a promoção da marca e dos cursos da instituição.
+Empresa .....:  OBRAS SOCIAIS E EDUCACIONAIS DE LUZ</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 02/02/26 || Técnico de Informatica JR II - Guarulhos || Realizar atendimento para solucionar problemas de baixa a media complexidade. Conceder acesso as telas do sistema Metodo. Instalar e configurar programas no ambiente Windows, pacote office e outros executados nesse ambiente. Realizar a movimentação de computadores, impressoras e demais ativos de TI.  Criar usuários e alterar senhas na rede. Criar conta de e-mail e alterar senha de acesso. Criar usuário e alterar senha no portal. Criar usuários, alteração e bloqueio de acesso ao sistema Metodo.  Realizar suporte remoto aos computadores por VNC. Prestar atendimento aos colaboradores da Unidade. Realizar manutenção e reparos em ativos de TI (Computadores). Realizar suporte remoto nos polos por team viewer. Atuar em ações voltadas à captação e retenção dos alunos, a partir de orientações prévias. Apoiar eventos e outras atividades que tem como objetivo a promoção da marca e dos cursos da instituição. || Empresa .....:  OBRAS SOCIAIS E EDUCACIONAIS DE LUZ</t>
+        </is>
+      </c>
+      <c r="I661" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>83215</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Analista de Sistemas Sr (Protheus)</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>• Atender as demandas de suporte e sustentação, visando a continuidade das atividades • Analisar, diagnosticar e resolver erros sistêmicos, chamados recorrentes e demandas de evolução. • Realizar parametrizações, ajustes e configurações nos módulos utilizados pela empresa. • Construir e revisar documentações técnicas e funcionais dos processos. • Realizar testes, validações, homologações e acompanhamento pós-implantação. • Colaborar com times internos (TI, negócios, infraestrutura) e parceiros TOTVS em demandas sistêmicas.  Conhecimentos técnicos necessários: • Experiência com ERP Protheus (TOTVS) em sustentação e suporte. • Conhecimento em Linguagem ADVPL e TL++ (leitura / ajustes básicos). • Parametrização de módulos, ajustar conforme necessidade da empresa). • Utilização de ferramentas TOTVS: • TDS / VS Code • DBAccess / AppServer • Configuração de ambientes e Builds • Conhecimento em bancos de dados SQL Server ou Progress. • Noções de arquit. Protheus.
+Empresa .....:  Grupo MPR</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 31/01/26 || Analista de Sistemas Sr (Protheus) || • Atender as demandas de suporte e sustentação, visando a continuidade das atividades • Analisar, diagnosticar e resolver erros sistêmicos, chamados recorrentes e demandas de evolução. • Realizar parametrizações, ajustes e configurações nos módulos utilizados pela empresa. • Construir e revisar documentações técnicas e funcionais dos processos. • Realizar testes, validações, homologações e acompanhamento pós-implantação. • Colaborar com times internos (TI, negócios, infraestrutura) e parceiros TOTVS em demandas sistêmicas.  Conhecimentos técnicos necessários: • Experiência com ERP Protheus (TOTVS) em sustentação e suporte. • Conhecimento em Linguagem ADVPL e TL++ (leitura / ajustes básicos). • Parametrização de módulos, ajustar conforme necessidade da empresa). • Utilização de ferramentas TOTVS: • TDS / VS Code • DBAccess / AppServer • Configuração de ambientes e Builds • Conhecimento em bancos de dados SQL Server ou Progress. • Noções de arquit. Protheus. || Empresa .....:  Grupo MPR</t>
+        </is>
+      </c>
+      <c r="I662" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>83520</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>DCEO</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>Estamos com uma oportunidade para atuar como Operador de Datacenter - Eletricidade em um de nossos clientes, do setor Telecomunicações, localizada na região São Paulo/SP com mais de 07 unidades espalhadas por todo o país.  Descrição das atividades:  Gerenciar e supervisionar as operações e a manutenção diária de equipamentos mecânicos e elétricos em um datacenter.  Identificar riscos e realizar avaliação da qualidade de operação e manutenção de fornecedores de IDC.  Atuar como profissional técnico para todas as questões relacionadas às instalações dentro do datacenter, escalando para a equipe técnica da sede (HQ) conforme necessário.  Realizar Análise de Causa Raiz (RCA) de falhas críticas de equipamentos.  Solucionar problemas e reportar eventos de nível de instalação e servidor dentro dos SLAs internos.  Criar e implementar novas práticas padrão para técnicos e equipes de suporte de fornecedores de IDC.
+Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 31/01/26 || DCEO || Estamos com uma oportunidade para atuar como Operador de Datacenter - Eletricidade em um de nossos clientes, do setor Telecomunicações, localizada na região São Paulo/SP com mais de 07 unidades espalhadas por todo o país.  Descrição das atividades:  Gerenciar e supervisionar as operações e a manutenção diária de equipamentos mecânicos e elétricos em um datacenter.  Identificar riscos e realizar avaliação da qualidade de operação e manutenção de fornecedores de IDC.  Atuar como profissional técnico para todas as questões relacionadas às instalações dentro do datacenter, escalando para a equipe técnica da sede (HQ) conforme necessário.  Realizar Análise de Causa Raiz (RCA) de falhas críticas de equipamentos.  Solucionar problemas e reportar eventos de nível de instalação e servidor dentro dos SLAs internos.  Criar e implementar novas práticas padrão para técnicos e equipes de suporte de fornecedores de IDC. || Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="I663" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>82641</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Mainframe Sr. (Híbrido - São Paulo)</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>Resumo das atividades: Executar levantamento e documentação de programas, subprogramas e base de dados (VSAMS e tabelas DB2) Entender o ambiente de testes mainframe do cliente Analisar e entender o teste do analista de sistemas do cliente Analisar transações, jobs e programas COBOL e, a partir deste contexto Levantar requisitos e mapear/documentar processos Levantamento de árvore de impacto  Conhecimentos obrigatórios:  Linguagem COBOL e JCL Desenvolvimento de CICS (Programação CICS em Command Level: CEDF/CEDX, CEMT/CECI, acesso arquivos VSAMs, CICS c/ DB2, análise de programas CICS...) ISPF/ TSO (SDSF, Skells, Criação de arquivos e Análise de Dumps) DB2 (Table Space, Database, Comandos SQL/Querys, Catálogo DB2, Comandos DB2 e Utilitários DB2) ChangeMan e Control-M para Mainframe VSAM, z/OS e Utilitários IBM XPEDITER – Monitor de testes. Ambiente de desenvolvimento e testes de Bancos e Seguradoras.
+Empresa .....:  Eccox Software S.A</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 31/01/26 || Desenvolvedor Mainframe Sr. (Híbrido - São Paulo) || Resumo das atividades: Executar levantamento e documentação de programas, subprogramas e base de dados (VSAMS e tabelas DB2) Entender o ambiente de testes mainframe do cliente Analisar e entender o teste do analista de sistemas do cliente Analisar transações, jobs e programas COBOL e, a partir deste contexto Levantar requisitos e mapear/documentar processos Levantamento de árvore de impacto  Conhecimentos obrigatórios:  Linguagem COBOL e JCL Desenvolvimento de CICS (Programação CICS em Command Level: CEDF/CEDX, CEMT/CECI, acesso arquivos VSAMs, CICS c/ DB2, análise de programas CICS...) ISPF/ TSO (SDSF, Skells, Criação de arquivos e Análise de Dumps) DB2 (Table Space, Database, Comandos SQL/Querys, Catálogo DB2, Comandos DB2 e Utilitários DB2) ChangeMan e Control-M para Mainframe VSAM, z/OS e Utilitários IBM XPEDITER – Monitor de testes. Ambiente de desenvolvimento e testes de Bancos e Seguradoras. || Empresa .....:  Eccox Software S.A</t>
+        </is>
+      </c>
+      <c r="I664" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>83072</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>Principais Responsabilidades: •	Elaborar Planejamento para execução de testes •	Preparar dados e Ambiente para testes •	Descrever, documentar e manter os casos de teste •	Executar, validar e registrar os resultados dos casos de teste  Perfil da função: •	Comunicação •	Habilidade Analítica •	Gestão do Tempo •	Aprendizado •	Foco no Usuário  Formação/ Pré-requisitos: •	Cursando ou Superior completo em Sistemas de Informação, Engenharia de Software, Ciência da Computação ou área afins •	Desejável: Certificações: QAI ou ISTQB
+Empresa .....:  Ti9  Sistemas de Informação Ltda</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 31/01/26 || Tester || Principais Responsabilidades: •	Elaborar Planejamento para execução de testes •	Preparar dados e Ambiente para testes •	Descrever, documentar e manter os casos de teste •	Executar, validar e registrar os resultados dos casos de teste  Perfil da função: •	Comunicação •	Habilidade Analítica •	Gestão do Tempo •	Aprendizado •	Foco no Usuário  Formação/ Pré-requisitos: •	Cursando ou Superior completo em Sistemas de Informação, Engenharia de Software, Ciência da Computação ou área afins •	Desejável: Certificações: QAI ou ISTQB || Empresa .....:  Ti9  Sistemas de Informação Ltda</t>
+        </is>
+      </c>
+      <c r="I665" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>82238</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Analista de Requisitos Sênior</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>A FábricaDS está buscando profissional no seguinte perfil:  Experiência como Analista de Requisitos/ Funcional, realizando a interface entre as áreas de negócios e a área de desenvolvimento ( atuando em Mapear, descrever e documentar os requisitos funcionais e não funcionais dos projetos). O projeto é para uma grande empresa. Local: Curitiba -  Híbrido ( 03 x por semana presencial)..  Os interessados favor encaminhar currículo atualizado e pretensão salarial por hora
+Empresa .....:  FábricaDS Soluções em Tecnologia</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 31/01/26 || Analista de Requisitos Sênior || A FábricaDS está buscando profissional no seguinte perfil:  Experiência como Analista de Requisitos/ Funcional, realizando a interface entre as áreas de negócios e a área de desenvolvimento ( atuando em Mapear, descrever e documentar os requisitos funcionais e não funcionais dos projetos). O projeto é para uma grande empresa. Local: Curitiba -  Híbrido ( 03 x por semana presencial)..  Os interessados favor encaminhar currículo atualizado e pretensão salarial por hora || Empresa .....:  FábricaDS Soluções em Tecnologia</t>
+        </is>
+      </c>
+      <c r="I666" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>83522</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Desenvolvedor .NET Sênior</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>Requisitos essenciais - Superior completo ou cursando em TI, Engenharia de Software ou áreas correlatas - 5+ anos de experiência com desenvolvimento (mínimo 1 ano como sênior) - Domínio em .NET (C# – Core e Framework) - Criação de bibliotecas internas, SDKs ou frameworks - Desenvolvimento de APIs RESTful - Bancos: SQL Server e PostgreSQL - Mensageria (RabbitMQ, Kafka ou similares) - CI/CD, Git, Azure DevOps (ou similares) - Segurança no desenvolvimento - Docker - Boas práticas: SOLID, Clean Code, DDD, Design Patterns  Diferenciais - Contribuições em open source (especialmente em .NET) - Experiência com engenharia de plataforma ou developer experience - Ferramentas como: SonarQube, StyleCop, FxCop, Roslyn Analyzers - Arquitetura orientada a eventos - DevOps e automação de infraestrutura - Participação na definição de padrões técnicos corporativos - Templates de projeto, linters, automações de dev - MongoDB,
+Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 31/01/26 || Desenvolvedor .NET Sênior || Requisitos essenciais - Superior completo ou cursando em TI, Engenharia de Software ou áreas correlatas - 5+ anos de experiência com desenvolvimento (mínimo 1 ano como sênior) - Domínio em .NET (C# – Core e Framework) - Criação de bibliotecas internas, SDKs ou frameworks - Desenvolvimento de APIs RESTful - Bancos: SQL Server e PostgreSQL - Mensageria (RabbitMQ, Kafka ou similares) - CI/CD, Git, Azure DevOps (ou similares) - Segurança no desenvolvimento - Docker - Boas práticas: SOLID, Clean Code, DDD, Design Patterns  Diferenciais - Contribuições em open source (especialmente em .NET) - Experiência com engenharia de plataforma ou developer experience - Ferramentas como: SonarQube, StyleCop, FxCop, Roslyn Analyzers - Arquitetura orientada a eventos - DevOps e automação de infraestrutura - Participação na definição de padrões técnicos corporativos - Templates de projeto, linters, automações de dev - MongoDB, || Empresa .....:  Code Group</t>
+        </is>
+      </c>
+      <c r="I667" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>82526</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Analista Funcional EBS</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>Ser referência funcional de produtos digitais voltados a meios de pagamento. Levantamento e análise de requisitos funcionais - área de produto / negócio. Atuação em módulos Oracle EBS (principalmente AR (Contas a Receber), AP (Contas a Pagar), OM (Vendas) - processo OTC. Experiência comprovada como Analista Funcional em projetos com Oracle EBS. Conhecimento funcional nos módulos financeiros e de faturamento (AR, AP, OM). Vivência com meios de pagamento: gateways, adquirentes, APIs de pagamento, conciliação. Capacidade de traduzir requisitos de negócio em especificações funcionais claras. Habilidade de comunicação com áreas técnicas e não técnicas. Boa visão analítica sobre produtos.  Superior Completo. Vaga Home Office.
+Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || Analista Funcional EBS || Ser referência funcional de produtos digitais voltados a meios de pagamento. Levantamento e análise de requisitos funcionais - área de produto / negócio. Atuação em módulos Oracle EBS (principalmente AR (Contas a Receber), AP (Contas a Pagar), OM (Vendas) - processo OTC. Experiência comprovada como Analista Funcional em projetos com Oracle EBS. Conhecimento funcional nos módulos financeiros e de faturamento (AR, AP, OM). Vivência com meios de pagamento: gateways, adquirentes, APIs de pagamento, conciliação. Capacidade de traduzir requisitos de negócio em especificações funcionais claras. Habilidade de comunicação com áreas técnicas e não técnicas. Boa visão analítica sobre produtos.  Superior Completo. Vaga Home Office. || Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="I668" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>82374</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>CONSULTOR PROTHEUS - TOTVS</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>Configurador de Tributos com sólida experiência em TOTVS Protheus para atuar de forma remota (PJ) em projetos desafiadores e com excelente remuneração.  Responsabilidades - Configurar e parametrizar regras fiscais no Protheus (TOTVS) - Realizar ajustes em rotinas de ICMS, IPI, PIS, COFINS, ISS e demais tributos - Apoiar as áreas contábil e fiscal na análise e correção de inconsistências - Implementar melhorias e garantir conformidade com a legislação tributária - Acompanhar atualizações e evoluções do sistema.  Requisitos - Experiência comprovada como Configurador de Tributos ou Analista Fiscal Protheus - Domínio dos módulos SIGAFIS, SIGACFG, SIGAFAT, SIGACTB - Conhecimento em TSS, SPED Fiscal, SPED Contribuições e Bloco K - Entendimento atualizado da legislação fiscal brasileira - Perfil analítico, detalhista e com boa comunicação.  Condições - Contratação PJ - Totalmente Remoto - Excelente remuneração, compatível com o nível de experiência
+Empresa .....:  DMS</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || CONSULTOR PROTHEUS - TOTVS || Configurador de Tributos com sólida experiência em TOTVS Protheus para atuar de forma remota (PJ) em projetos desafiadores e com excelente remuneração.  Responsabilidades - Configurar e parametrizar regras fiscais no Protheus (TOTVS) - Realizar ajustes em rotinas de ICMS, IPI, PIS, COFINS, ISS e demais tributos - Apoiar as áreas contábil e fiscal na análise e correção de inconsistências - Implementar melhorias e garantir conformidade com a legislação tributária - Acompanhar atualizações e evoluções do sistema.  Requisitos - Experiência comprovada como Configurador de Tributos ou Analista Fiscal Protheus - Domínio dos módulos SIGAFIS, SIGACFG, SIGAFAT, SIGACTB - Conhecimento em TSS, SPED Fiscal, SPED Contribuições e Bloco K - Entendimento atualizado da legislação fiscal brasileira - Perfil analítico, detalhista e com boa comunicação.  Condições - Contratação PJ - Totalmente Remoto - Excelente remuneração, compatível com o nível de experiência || Empresa .....:  DMS</t>
+        </is>
+      </c>
+      <c r="I669" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>83517</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Consultor RM Totvs Backoffice</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>Buscamos um(a) Consultor(a) RM TOTVS Backoffice para atuar na implantação, parametrização e sustentação dos módulos administrativos e financeiros do TOTVS RM.  Conhecimentos Técnicos: - Domínio dos módulos do TOTVS RM (Folha, Financeiro, Contábil, Patrimônio e Compras). - Conhecimento em integração entre módulos e rotinas operacionais do RM. - Experiência na criação e customização de relatórios RM. - Noções de processos contábeis, financeiros e administrativos. - Conhecimento em boas práticas de implantação e sustentação de sistemas ERP.  Competências Comportamentais: - Perfil analítico e organizado. - Boa comunicação e facilidade para lidar com usuários e clientes. - Capacidade de diagnóstico e resolução de problemas. - Comprometimento com prazos e qualidade das entregas.  Diferenciais: Certificações TOTVS RM. - Experiência em projetos de migração ou upgrade de versão. - Conhecimento em SQL ou banco de dados aplicado ao RM. - Atuação em consultorias/ projetos
+Empresa .....:  Onebrain</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || Consultor RM Totvs Backoffice || Buscamos um(a) Consultor(a) RM TOTVS Backoffice para atuar na implantação, parametrização e sustentação dos módulos administrativos e financeiros do TOTVS RM.  Conhecimentos Técnicos: - Domínio dos módulos do TOTVS RM (Folha, Financeiro, Contábil, Patrimônio e Compras). - Conhecimento em integração entre módulos e rotinas operacionais do RM. - Experiência na criação e customização de relatórios RM. - Noções de processos contábeis, financeiros e administrativos. - Conhecimento em boas práticas de implantação e sustentação de sistemas ERP.  Competências Comportamentais: - Perfil analítico e organizado. - Boa comunicação e facilidade para lidar com usuários e clientes. - Capacidade de diagnóstico e resolução de problemas. - Comprometimento com prazos e qualidade das entregas.  Diferenciais: Certificações TOTVS RM. - Experiência em projetos de migração ou upgrade de versão. - Conhecimento em SQL ou banco de dados aplicado ao RM. - Atuação em consultorias/ projetos || Empresa .....:  Onebrain</t>
+        </is>
+      </c>
+      <c r="I670" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>82658</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Coordenadora  Segurança AWS</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>Vaga Afirmativa para Mulheres – Coordenadora de Segurança em Cloud AWS  A Venice Tech busca profissional para atuar como Coordenadora de Segurança em AWS, responsável por arquitetura de segurança, IAM, monitoramento e resposta a incidentes, automação, proteção de dados, gestão de riscos e liderança do time. Necessário experiência sólida em Segurança da Informação com foco em AWS, vivência em liderança, conhecimento em CIS, NIST, ISO 27001, LGPD/GDPR e domínio de serviços como IAM, KMS, GuardDuty, Security Hub e CloudTrail. Diferenciais: AWS Security Specialty, outras certificações (CISSP, CISM, Architect), inglês técnico e experiência com compliance e ambientes híbridos.  Modelo PJ, home office, horário comercial e notebook fornecido.
+Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || Coordenadora  Segurança AWS || Vaga Afirmativa para Mulheres – Coordenadora de Segurança em Cloud AWS  A Venice Tech busca profissional para atuar como Coordenadora de Segurança em AWS, responsável por arquitetura de segurança, IAM, monitoramento e resposta a incidentes, automação, proteção de dados, gestão de riscos e liderança do time. Necessário experiência sólida em Segurança da Informação com foco em AWS, vivência em liderança, conhecimento em CIS, NIST, ISO 27001, LGPD/GDPR e domínio de serviços como IAM, KMS, GuardDuty, Security Hub e CloudTrail. Diferenciais: AWS Security Specialty, outras certificações (CISSP, CISM, Architect), inglês técnico e experiência com compliance e ambientes híbridos.  Modelo PJ, home office, horário comercial e notebook fornecido. || Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="I671" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>83523</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Desenvolvedor FullStack - React Node</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>A Tech For TI está com oportunidade para Desenvolvedor (a) de Software FullStack Sênior atuar em projeto de cliente AutoTech.  Uma plataforma de inteligência automotiva que utiliza IA e Machine Learning para transformar a forma como o mercado compra e vende veículos. Processamos uma grande massa de dados para gerar insights estratégicos que ajudam concessionárias e revendedores a tomar decisões mais inteligentes.  O Desafio: Você vai atuar em um produto já existente em Go e React, com foco em: - Escalar a aplicação para suportar o crescimento acelerado - Evoluir features que utilizam IA/ML para geração de insights - Trabalhar com grande volume de dados do mercado automotivo  Requisitos imprescindíveis: - Experiência comprovada com GoLang no desenvolvimento backend - Sólida experiência com React em projetos de produção - Domínio de MySQL em aplicações de alta escala. - Experiência com ferramentas de IA para desenvolvimento (Copilot, Claude, etc.)
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || Desenvolvedor FullStack - React Node || A Tech For TI está com oportunidade para Desenvolvedor (a) de Software FullStack Sênior atuar em projeto de cliente AutoTech.  Uma plataforma de inteligência automotiva que utiliza IA e Machine Learning para transformar a forma como o mercado compra e vende veículos. Processamos uma grande massa de dados para gerar insights estratégicos que ajudam concessionárias e revendedores a tomar decisões mais inteligentes.  O Desafio: Você vai atuar em um produto já existente em Go e React, com foco em: - Escalar a aplicação para suportar o crescimento acelerado - Evoluir features que utilizam IA/ML para geração de insights - Trabalhar com grande volume de dados do mercado automotivo  Requisitos imprescindíveis: - Experiência comprovada com GoLang no desenvolvimento backend - Sólida experiência com React em projetos de produção - Domínio de MySQL em aplicações de alta escala. - Experiência com ferramentas de IA para desenvolvimento (Copilot, Claude, etc.) || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I672" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>83136</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Fullstack - Remoto</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>O Desafio: Atuar em modelo de alocação em um projeto para um cliente do setor financeiro, contribuindo na migração de sistemas legados para soluções modernas.Também dará suporte na definição de soluções técnicas, garantindo alinhamento com os padrões arquiteturais e com os requisitos do negócio.  O Que Esperamos de Você:     Backend: - Java – JEE - Servidor de aplicação JBoss EAP 7.+ - Spring Boot - SGBD Oracle 11g ou superior - JPA/Hibernate, JDBC - CDI, EJB - JUnit 4 ou superior - Mensageria, Web Services, REST API - Maven - Jenkins / Sonar - Métodos ágeis (Scrum e Kanban) - Containers (Docker, Kubernetes/OpenShift) - Segurança: OAuth2, OpenID Connect - Git para controle de versão  Frontend: - Java – JEE - Frameworks de interface: AngularJS, Angular 2+, React - JavaScript e TypeScript - Maven - Jenkins / Sonar  Informar pretensão salarial no currículo.
+Empresa .....:  Pitang</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || Desenvolvedor Fullstack - Remoto || O Desafio: Atuar em modelo de alocação em um projeto para um cliente do setor financeiro, contribuindo na migração de sistemas legados para soluções modernas.Também dará suporte na definição de soluções técnicas, garantindo alinhamento com os padrões arquiteturais e com os requisitos do negócio.  O Que Esperamos de Você:     Backend: - Java – JEE - Servidor de aplicação JBoss EAP 7.+ - Spring Boot - SGBD Oracle 11g ou superior - JPA/Hibernate, JDBC - CDI, EJB - JUnit 4 ou superior - Mensageria, Web Services, REST API - Maven - Jenkins / Sonar - Métodos ágeis (Scrum e Kanban) - Containers (Docker, Kubernetes/OpenShift) - Segurança: OAuth2, OpenID Connect - Git para controle de versão  Frontend: - Java – JEE - Frameworks de interface: AngularJS, Angular 2+, React - JavaScript e TypeScript - Maven - Jenkins / Sonar  Informar pretensão salarial no currículo. || Empresa .....:  Pitang</t>
+        </is>
+      </c>
+      <c r="I673" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>83521</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Fullstack Java</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>Vem fazer parte da Spassu Estamos em uma busca de Desenvolvedor Fullstack Java com angular para atuar em projeto de transformação digital e financeiro.  Requisitos: Graduação completa na área de Tecnologia da Informação. Experiência comprovada com desenvolvimento de sistemas Experiência em Java SE 8+, Java EE, Spring Framework 3.x+, Microprofile JPA, JDBC, Hibernate, Angular 8+ SQL Design Patterns, MVC, arquitetura em 3 camadas APIs RESTful, SOAP, Swagger/OpenAPI Servidores de aplicação: IBM WebSphere Application Server (WAS), IBM WebSphere Liberty (Liberty Profile), Red Hat JBoss EAP (WildFly), Quarkus (Red Hat) Jenkins, Git, Maven, SonarQube Testes: JUnit, TDD, ATDD Mensageria com MQ Series (IBM WebSphere MQ, JMS).  Atuação Híbrido/Remoto Contratação CLT  Favor enviar pretensão salarial CLT.  Benefícios: Plano de Saúde Plano Odontológico Seguro de Vida Vale Alimentação ou Refeição Vale Transporte WellHub - Gympass Parcerias com empresas educacionais
+Empresa .....:  Spassu</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || Desenvolvedor Fullstack Java || Vem fazer parte da Spassu Estamos em uma busca de Desenvolvedor Fullstack Java com angular para atuar em projeto de transformação digital e financeiro.  Requisitos: Graduação completa na área de Tecnologia da Informação. Experiência comprovada com desenvolvimento de sistemas Experiência em Java SE 8+, Java EE, Spring Framework 3.x+, Microprofile JPA, JDBC, Hibernate, Angular 8+ SQL Design Patterns, MVC, arquitetura em 3 camadas APIs RESTful, SOAP, Swagger/OpenAPI Servidores de aplicação: IBM WebSphere Application Server (WAS), IBM WebSphere Liberty (Liberty Profile), Red Hat JBoss EAP (WildFly), Quarkus (Red Hat) Jenkins, Git, Maven, SonarQube Testes: JUnit, TDD, ATDD Mensageria com MQ Series (IBM WebSphere MQ, JMS).  Atuação Híbrido/Remoto Contratação CLT  Favor enviar pretensão salarial CLT.  Benefícios: Plano de Saúde Plano Odontológico Seguro de Vida Vale Alimentação ou Refeição Vale Transporte WellHub - Gympass Parcerias com empresas educacionais || Empresa .....:  Spassu</t>
+        </is>
+      </c>
+      <c r="I674" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>83099</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Python (IA / LLM)</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>Estamos ampliando nosso time de tecnologia para atuar em projetos estratégicos de Inteligência Artificial. Buscamos um(a) Desenvolvedor(a) Python com foco em IA/LLM para trabalhar com aplicações reais, integrações complexas e soluções de alto impacto.  O que você vai fazer: - Desenvolver e manter aplicações em Python - Integrar e ajustar modelos LLM (RAG, fine-tuning, embeddings) - Estruturar e otimizar prompts e bases de conhecimento - Integrar soluções de IA com sistemas legados e APIs corporativas - Atuar próximo ao time de negócio e tecnologia do cliente  O que esperamos de você: - Python em nível Pleno - Experiência com LangChain, LlamaIndex, CrewAI ou similares - Conhecimento prático em LLMs e arquiteturas RAG - Boa capacidade de comunicação e autonomia técnica - Experiência prévia em ambientes corporativos é um diferencial  O que oferecemos: - Projeto de longo prazo - Atuação em soluções reais de IA (não apenas POCs) - Ambiente técnico desafiador e colaborativo
+Empresa .....:  CADS DIGITAL</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || Desenvolvedor Python (IA / LLM) || Estamos ampliando nosso time de tecnologia para atuar em projetos estratégicos de Inteligência Artificial. Buscamos um(a) Desenvolvedor(a) Python com foco em IA/LLM para trabalhar com aplicações reais, integrações complexas e soluções de alto impacto.  O que você vai fazer: - Desenvolver e manter aplicações em Python - Integrar e ajustar modelos LLM (RAG, fine-tuning, embeddings) - Estruturar e otimizar prompts e bases de conhecimento - Integrar soluções de IA com sistemas legados e APIs corporativas - Atuar próximo ao time de negócio e tecnologia do cliente  O que esperamos de você: - Python em nível Pleno - Experiência com LangChain, LlamaIndex, CrewAI ou similares - Conhecimento prático em LLMs e arquiteturas RAG - Boa capacidade de comunicação e autonomia técnica - Experiência prévia em ambientes corporativos é um diferencial  O que oferecemos: - Projeto de longo prazo - Atuação em soluções reais de IA (não apenas POCs) - Ambiente técnico desafiador e colaborativo || Empresa .....:  CADS DIGITAL</t>
+        </is>
+      </c>
+      <c r="I675" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>83529</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) Full Stack  Sr</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>Sólida experiência em desenvolvimento e manutenção de features em .NET Core e React. Conhecimento avançado em AWS (Lambda, API Gateway, S3, SQS, SNS, Step Functions, CloudFormation). •	Publica no SNS #8594 SQS consome #8594 Lambda executa a lógica •	RabbitMQ e IBM MQ •	SOLID e Design Patterns  Design Patterns, com uso frequente de: •	Strategy •	Command •	Repository •	Injeção de Dependência (DI)  Bancos de Dados: •	PostgreSQL •	DynamoDB •	SQL Server (diferencial em projetos legados)  Azure DevOps: •	Repositórios Git •	Pipelines (CI/CD) •	Boards para acompanhamento de features e entregas  Atividades desenvolvidas: Desenvolvimento e manutenção de features em .NET Core e React. Arquiteturas baseadas em mensageria, principalmente em AWS. Desenvolver soluções usando: SNS, SQS  e Lambda.  Formato de contratação: CLT/ PJ Local de trabalho: Home Office
+Empresa .....:  SEMPRE IT SERVICOS DE TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || Desenvolvedor(a) Full Stack  Sr || Sólida experiência em desenvolvimento e manutenção de features em .NET Core e React. Conhecimento avançado em AWS (Lambda, API Gateway, S3, SQS, SNS, Step Functions, CloudFormation). •	Publica no SNS #8594 SQS consome #8594 Lambda executa a lógica •	RabbitMQ e IBM MQ •	SOLID e Design Patterns  Design Patterns, com uso frequente de: •	Strategy •	Command •	Repository •	Injeção de Dependência (DI)  Bancos de Dados: •	PostgreSQL •	DynamoDB •	SQL Server (diferencial em projetos legados)  Azure DevOps: •	Repositórios Git •	Pipelines (CI/CD) •	Boards para acompanhamento de features e entregas  Atividades desenvolvidas: Desenvolvimento e manutenção de features em .NET Core e React. Arquiteturas baseadas em mensageria, principalmente em AWS. Desenvolver soluções usando: SNS, SQS  e Lambda.  Formato de contratação: CLT/ PJ Local de trabalho: Home Office || Empresa .....:  SEMPRE IT SERVICOS DE TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I676" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>82646</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Engenheiro Machine Learning Sr.</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>Totalmente Remoto - 6 meses com possibilidade de renovação - PJ  O profissional será responsável por projetar, desenvolver e implantar soluções de Machine Learning, e IA Generativa aplicada a diferentes áreas de negócio.  Requisitos Técnicos (Obrigatórios) · Domínio de SQL e ferramentas de processamento de dados (PySpark, Pandas). · Experiência em plataformas de nuvem (Azure, AWS ou GCP) e serviços de IA. · Familiaridade com Databricks ou plataformas equivalentes de dados/ML. · Conhecimento sólido em integração de APIs (REST, GraphQL).  Diferenciais Desejáveis · Experiência com LLMs, LangChain, LangGraph ou orquestração multiagente. · Conhecimento em arquitetura de MLOps e deploy de modelos em produção. · Vivência com ferramentas de observabilidade de IA (ex: MLflow, Weights  Biases). · Inglês técnico para leitura e documentação.
+Empresa .....:  4Solution Group</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 31/01/26 || Engenheiro Machine Learning Sr. || Totalmente Remoto - 6 meses com possibilidade de renovação - PJ  O profissional será responsável por projetar, desenvolver e implantar soluções de Machine Learning, e IA Generativa aplicada a diferentes áreas de negócio.  Requisitos Técnicos (Obrigatórios) · Domínio de SQL e ferramentas de processamento de dados (PySpark, Pandas). · Experiência em plataformas de nuvem (Azure, AWS ou GCP) e serviços de IA. · Familiaridade com Databricks ou plataformas equivalentes de dados/ML. · Conhecimento sólido em integração de APIs (REST, GraphQL).  Diferenciais Desejáveis · Experiência com LLMs, LangChain, LangGraph ou orquestração multiagente. · Conhecimento em arquitetura de MLOps e deploy de modelos em produção. · Vivência com ferramentas de observabilidade de IA (ex: MLflow, Weights  Biases). · Inglês técnico para leitura e documentação. || Empresa .....:  4Solution Group</t>
+        </is>
+      </c>
+      <c r="I677" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>82732</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Analista de Produtos Sr.</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>Osasco - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>Esta oportunidade é destinada para pessoas com deficiência (PcD). Se você procura um ambiente onde suas habilidades são reconhecidas e deseja crescer ao lado de uma empresa de grande porte, inscreva-se agora e venha fazer parte do nosso time  A Randstad, líder mundial em soluções de talentos, busca um(a) Analista Sênior e/ou Especialista de Produtos para gerir e liderar iniciativas estratégicas. Os desafios envolvem atuar com equipes de TI e Negócio, gerir o product backlog definindo prioridades, objetivos e roadmaps de curto a longo prazo, e liderar a definição de iniciativas, negociando trade-offs para garantir a melhor experiência do usuário e o benefício global da empresa. O profissional será responsável por acompanhar a performance e o impacto dos projetos, garantindo a visibilidade para os stakeholders, e realizando análises de mercado/concorrência. É essencial ter experiência comprovada em Produto e/ou Gerenciamento de Projetos.
+Empresa .....:  randstad Brasil</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>Osasco - SP - 31/01/26 || Analista de Produtos Sr. || Esta oportunidade é destinada para pessoas com deficiência (PcD). Se você procura um ambiente onde suas habilidades são reconhecidas e deseja crescer ao lado de uma empresa de grande porte, inscreva-se agora e venha fazer parte do nosso time  A Randstad, líder mundial em soluções de talentos, busca um(a) Analista Sênior e/ou Especialista de Produtos para gerir e liderar iniciativas estratégicas. Os desafios envolvem atuar com equipes de TI e Negócio, gerir o product backlog definindo prioridades, objetivos e roadmaps de curto a longo prazo, e liderar a definição de iniciativas, negociando trade-offs para garantir a melhor experiência do usuário e o benefício global da empresa. O profissional será responsável por acompanhar a performance e o impacto dos projetos, garantindo a visibilidade para os stakeholders, e realizando análises de mercado/concorrência. É essencial ter experiência comprovada em Produto e/ou Gerenciamento de Projetos. || Empresa .....:  randstad Brasil</t>
+        </is>
+      </c>
+      <c r="I678" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>82728</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java Sr.</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>Osasco - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>Estamos buscando um(a) S.r. Software Engineer Backend (Online Payments).  Esta oportunidade é destinada para pessoas com deficiência (PcD).  Se você procura um ambiente onde suas habilidades são reconhecidas e deseja crescer ao lado de uma empresa de grande porte, inscreva-se agora e venha fazer parte do nosso time), para atuar em um ambiente de grande porte onde suas habilidades serão valorizadas.  Procuramos um profissional experiente, curioso(a) e com iniciativa, com amplo conhecimento em arquitetura, microsserviços, bancos de dados e observabilidade. É essencial ter experiência prática em Java e/ou Golang, familiaridade com AWS e dominar conceitos como SOLID, Design Patterns, Clean ou Hexagonal Architecture.  As responsabilidades incluem desenvolver software escalável e de alto desempenho, oferecer mentoria à equipe, apoiar a evolução tecnológica do projeto e colaborar em demandas Cross. Se você busca crescimento e possui este background técnico avançado, candidate-se.
+Empresa .....:  randstad Brasil</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Osasco - SP - 31/01/26 || Desenvolvedor Java Sr. || Estamos buscando um(a) S.r. Software Engineer Backend (Online Payments).  Esta oportunidade é destinada para pessoas com deficiência (PcD).  Se você procura um ambiente onde suas habilidades são reconhecidas e deseja crescer ao lado de uma empresa de grande porte, inscreva-se agora e venha fazer parte do nosso time), para atuar em um ambiente de grande porte onde suas habilidades serão valorizadas.  Procuramos um profissional experiente, curioso(a) e com iniciativa, com amplo conhecimento em arquitetura, microsserviços, bancos de dados e observabilidade. É essencial ter experiência prática em Java e/ou Golang, familiaridade com AWS e dominar conceitos como SOLID, Design Patterns, Clean ou Hexagonal Architecture.  As responsabilidades incluem desenvolver software escalável e de alto desempenho, oferecer mentoria à equipe, apoiar a evolução tecnológica do projeto e colaborar em demandas Cross. Se você busca crescimento e possui este background técnico avançado, candidate-se. || Empresa .....:  randstad Brasil</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>82693</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Desenvolvedor PHP Pleno</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>Presidente Prudente - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>Desenvolvedor PHP Pleno, atuar na modalidade PJ, presencial em cliente situado no interior SP (Presidente Prudente).  Requisitos imprescindíveis: - Experiência com frameworks PHP (Laravel, CodeIgniter, entre outros). - Experiência com bancos de dados relacionais e NoSQL. - Experiência com ferramentas de versionamento de código como Git. - Experiência com metodologias ágeis de desenvolvimento. - Excelentes conhecimentos em PHP e frameworks relacionados. - Conhecimento em Arquitetura de Software. - Habilidade para escrever código limpo, eficiente e bem documentado. - Habilidade para solucionar problemas complexos de forma criativa. - Excelentes habilidades de comunicação escrita e verbal. - Capacidade de trabalhar de forma independente e como parte de uma equipe. - Entendimento de Processos de Negócio.
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Presidente Prudente - SP - 31/01/26 || Desenvolvedor PHP Pleno || Desenvolvedor PHP Pleno, atuar na modalidade PJ, presencial em cliente situado no interior SP (Presidente Prudente).  Requisitos imprescindíveis: - Experiência com frameworks PHP (Laravel, CodeIgniter, entre outros). - Experiência com bancos de dados relacionais e NoSQL. - Experiência com ferramentas de versionamento de código como Git. - Experiência com metodologias ágeis de desenvolvimento. - Excelentes conhecimentos em PHP e frameworks relacionados. - Conhecimento em Arquitetura de Software. - Habilidade para escrever código limpo, eficiente e bem documentado. - Habilidade para solucionar problemas complexos de forma criativa. - Excelentes habilidades de comunicação escrita e verbal. - Capacidade de trabalhar de forma independente e como parte de uma equipe. - Entendimento de Processos de Negócio. || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>82706</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack Jr III - RJ</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>Atividades - Atuar na manutenção e sustentação dos produtos SIPE e DJE - Diagnosticar, corrigir e evoluir sistemas em produção - Implementar integrações, automações e ajustes pontuais em APIs  Requisitos - Formação superior completa ou em andamento em Análise e Desenvolvimento de Sistemas, Ciência da Computação ou áreas correlatas. - Possuir experiência mínima de 1 ano em desenvolvimento de softwares - .NET / C# - SQL Server - Conhecimento desejável em ASP.NET MVC - Git - Residir na cidade do RJ (imprescindível)  Escala: 2ª à 5ª de 9h às 18h / sexta-feira home office, até às 17h (39h/semanais) Modelo de contratação: CLT  Remuneração: R$ 5.299,00  Benefícios: Vale transporte / Vale refeição / Assistência médica / Assistência odontológica / Convênio com faculdades / TotalPass
+Empresa .....:  Iprazos Tecnologia e Serviços</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 31/01/26 || Desenvolvedor Full Stack Jr III - RJ || Atividades - Atuar na manutenção e sustentação dos produtos SIPE e DJE - Diagnosticar, corrigir e evoluir sistemas em produção - Implementar integrações, automações e ajustes pontuais em APIs  Requisitos - Formação superior completa ou em andamento em Análise e Desenvolvimento de Sistemas, Ciência da Computação ou áreas correlatas. - Possuir experiência mínima de 1 ano em desenvolvimento de softwares - .NET / C# - SQL Server - Conhecimento desejável em ASP.NET MVC - Git - Residir na cidade do RJ (imprescindível)  Escala: 2ª à 5ª de 9h às 18h / sexta-feira home office, até às 17h (39h/semanais) Modelo de contratação: CLT  Remuneração: R$ 5.299,00  Benefícios: Vale transporte / Vale refeição / Assistência médica / Assistência odontológica / Convênio com faculdades / TotalPass || Empresa .....:  Iprazos Tecnologia e Serviços</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>82599</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Gerente de Projetos SAP</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>Local: Rio de Janeiro – Centro (presencial 3x/semana) Início imediato  Projeto de 6 meses (prorrogável)  Estamos buscando um(a) Gerente de Projetos SAP para liderar projeto de implementação (carve-in), migração e melhoria contínua do SAP S/4 RISE 2021 Foundation na EDF Power Solutions.  Requisitos: - +10 anos de experiência em gestão de projetos de TI - Forte atuação em projetos SAP (S/4HANA, ECC, etc.) - Experiência com PMBOK/PMI e metodologias ágeis - Excelentes habilidades de liderança e gestão de stakeholders  Diferenciais: PMP, CSM, SAP Activate, inglês avançado.
+Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 31/01/26 || Gerente de Projetos SAP || Local: Rio de Janeiro – Centro (presencial 3x/semana) Início imediato  Projeto de 6 meses (prorrogável)  Estamos buscando um(a) Gerente de Projetos SAP para liderar projeto de implementação (carve-in), migração e melhoria contínua do SAP S/4 RISE 2021 Foundation na EDF Power Solutions.  Requisitos: - +10 anos de experiência em gestão de projetos de TI - Forte atuação em projetos SAP (S/4HANA, ECC, etc.) - Experiência com PMBOK/PMI e metodologias ágeis - Excelentes habilidades de liderança e gestão de stakeholders  Diferenciais: PMP, CSM, SAP Activate, inglês avançado. || Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>83082</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Analista de Suporte  Junior</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>Santana de Parnaíba - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>Estamos buscando um profissional com experiência em suporte técnico voltado para voz e dados, incluindo configuração, implantação e manutenção de sistemas de telefonia e redes IP. Executara manutenção preventiva e corretiva em equipamentos e hardware do sistema de telefonia Alcatel-Lucent.  É essencial ter boa comunicação, habilidade para solucionar problemas e facilidade no relacionamento com clientes e equipe.   Diferenciais:  Certificações em Alcatel, Huawei, CCNA, Voice ou similares  Inglês desejável  CNH B será um diferencial  Vivencia com sistemas de telefonia: PABX, ASTERISK, e Voip   Perfil Ideal:  Comunicação clara  Raciocínio rápido  Organização e precisão  Abertura para aprender sempre  Local de Trabalho: Santana de Parnaiba   Horário: Escala: 12x36 - Diurno 07:00 as 19hs  Salário: R$ 2.800,00 (CLT)   Benefícios:  Refeição na Empresa  TotalPass  Assistência médica Bradesco +odontológica  VT Pago em Dinheiro  Seguro de Vida
+Empresa .....:  3CORPTECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Santana de Parnaíba - SP - 31/01/26 || Analista de Suporte  Junior || Estamos buscando um profissional com experiência em suporte técnico voltado para voz e dados, incluindo configuração, implantação e manutenção de sistemas de telefonia e redes IP. Executara manutenção preventiva e corretiva em equipamentos e hardware do sistema de telefonia Alcatel-Lucent.  É essencial ter boa comunicação, habilidade para solucionar problemas e facilidade no relacionamento com clientes e equipe.   Diferenciais:  Certificações em Alcatel, Huawei, CCNA, Voice ou similares  Inglês desejável  CNH B será um diferencial  Vivencia com sistemas de telefonia: PABX, ASTERISK, e Voip   Perfil Ideal:  Comunicação clara  Raciocínio rápido  Organização e precisão  Abertura para aprender sempre  Local de Trabalho: Santana de Parnaiba   Horário: Escala: 12x36 - Diurno 07:00 as 19hs  Salário: R$ 2.800,00 (CLT)   Benefícios:  Refeição na Empresa  TotalPass  Assistência médica Bradesco +odontológica  VT Pago em Dinheiro  Seguro de Vida || Empresa .....:  3CORPTECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>82480</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Programador / Desenvolvedor</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>Requisitos: Conhecimento em Vue 2 e/ou 3 Domínio de HTML, CSS e JavaScript Domínio em NodeJS express, axios, mssql Conhecimentos em MSSQL Conhecimento básico em versionamento com Git Habilidade em integração / criação de APIs RESTful  Horário de trabalho: seg - sex, 07:00 - 16:48, presencial  Beneficios : Vale Transporte , Restaurante café da manhã e almoço, Convênio Médico Notredame ( opcional) a empresa paga 50  + Convênio Dental Amil a empresa paga 50  opcional + Cartão Alimentação Alelo ( R$ 257,00) + Convênio Farmacia.
+Empresa .....:  RM Empresarial</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 31/01/26 || Programador / Desenvolvedor || Requisitos: Conhecimento em Vue 2 e/ou 3 Domínio de HTML, CSS e JavaScript Domínio em NodeJS express, axios, mssql Conhecimentos em MSSQL Conhecimento básico em versionamento com Git Habilidade em integração / criação de APIs RESTful  Horário de trabalho: seg - sex, 07:00 - 16:48, presencial  Beneficios : Vale Transporte , Restaurante café da manhã e almoço, Convênio Médico Notredame ( opcional) a empresa paga 50  + Convênio Dental Amil a empresa paga 50  opcional + Cartão Alimentação Alelo ( R$ 257,00) + Convênio Farmacia. || Empresa .....:  RM Empresarial</t>
+        </is>
+      </c>
+      <c r="I684" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>82429</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Analista de Migração de Dados</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>Migração de Dados (SAS para PySpark)  Área: Dados e Analytics / Engenharia de Dados Modalidade: PJ Modelo: Remoto  Projeto estratégico de modernização de uma plataforma de dados, efetuando a migração de processos e códigos legados em SAS para uma arquitetura moderna baseada em PySpark e Microsoft Fabric.  Profundo conhecimento em SAS, sendo capaz de interpretar, otimizar e traduzir lógicas complexas, e ao mesmo tempo, dominar o ecossistema PySpark para desenvolver soluções de dados escaláveis e eficientes.  Requisitos: -Exp. em SAS: linguagem SAS, incluindo SAS Base, SAS Macro e PROC SQL -Exp.prática na análise e manutenção de códigos SAS complexos e de grande volume. -Proficiência em PySpark:desenvolvimento de soluções de processamento de dados com PySpark, incluindo otimização de performance (tuning de jobs Spark) -Ecossistemas de Big Data-conceitos de computação distribuída e arquiteturas de dados modernas
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Analista de Migração de Dados || Migração de Dados (SAS para PySpark)  Área: Dados e Analytics / Engenharia de Dados Modalidade: PJ Modelo: Remoto  Projeto estratégico de modernização de uma plataforma de dados, efetuando a migração de processos e códigos legados em SAS para uma arquitetura moderna baseada em PySpark e Microsoft Fabric.  Profundo conhecimento em SAS, sendo capaz de interpretar, otimizar e traduzir lógicas complexas, e ao mesmo tempo, dominar o ecossistema PySpark para desenvolver soluções de dados escaláveis e eficientes.  Requisitos: -Exp. em SAS: linguagem SAS, incluindo SAS Base, SAS Macro e PROC SQL -Exp.prática na análise e manutenção de códigos SAS complexos e de grande volume. -Proficiência em PySpark:desenvolvimento de soluções de processamento de dados com PySpark, incluindo otimização de performance (tuning de jobs Spark) -Ecossistemas de Big Data-conceitos de computação distribuída e arquiteturas de dados modernas || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I685" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>83158</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>ANALISTA DE PROCESSOS PLENO</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>Transformação digital de serviços, participando diretamente da construção de soluções inovadoras, com impacto real no negócio e na experiência do usuário.  O que você vai fazer no dia a dia Planejamento estratégico: Participar de discussões e planejamento de demandas, conduzir reuniões e realizar visitas técnicas aos clientes. Mapeamento e modelagem de processos: Analisar processos atuais (AS-IS) e desenhar cenários futuros (TO-BE), focando eficiência, inovação e digitalização. Pesquisa e experiência do usuário: Conduzir pesquisas com usuários, elaborar jornadas, blueprints de serviços e pesquisas online. Levantamento de requisitos: Apoiar a definição de requisitos e regras de negócio em conjunto com stakeholders. Documentação e implantação: Criar diagramas em BPMN, estruturar requisitos de formulários e apoiar o time de implantação com parâmetros técnicos. Melhoria contínua: Analisar legislações, normas e regras internas para propor melhorias
+Empresa .....:  BR BPO TECNOLOGIA S/A</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || ANALISTA DE PROCESSOS PLENO || Transformação digital de serviços, participando diretamente da construção de soluções inovadoras, com impacto real no negócio e na experiência do usuário.  O que você vai fazer no dia a dia Planejamento estratégico: Participar de discussões e planejamento de demandas, conduzir reuniões e realizar visitas técnicas aos clientes. Mapeamento e modelagem de processos: Analisar processos atuais (AS-IS) e desenhar cenários futuros (TO-BE), focando eficiência, inovação e digitalização. Pesquisa e experiência do usuário: Conduzir pesquisas com usuários, elaborar jornadas, blueprints de serviços e pesquisas online. Levantamento de requisitos: Apoiar a definição de requisitos e regras de negócio em conjunto com stakeholders. Documentação e implantação: Criar diagramas em BPMN, estruturar requisitos de formulários e apoiar o time de implantação com parâmetros técnicos. Melhoria contínua: Analisar legislações, normas e regras internas para propor melhorias || Empresa .....:  BR BPO TECNOLOGIA S/A</t>
+        </is>
+      </c>
+      <c r="I686" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>82704</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Analista de Redes Sênior</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>Oportunidade para Analista de Redes Sênior, atuar no REMOTAMENTE, PORÉM COM IDAS AO ESCRITÓRIO ESPORÁDICAS E PROGRAMADAS (região Sul de SP, Berrini), em projeto de cliente do segmento de seguro.  Requisitos técnicos: - Cisco Switches (L2 e L3): Políticas de roteamento (VRFs), OSPF, BGP - Avançado. - Cisco Firewalls: Validação de vazamento e fluxo de tráfego, criação de regras, SSL Inspection, Intrusion Rules, VPNs (Site-to-Site e - Remote Access)  - Intermediário. - Redes Wi-Fi: Meraki / Aironet - Básico. - F5: GTM, LTM, publicação de URLs, configuração de WAF, mitigação DDoS, Anti-Bot, iRules, Global DNS  - Intermediário. - Cisco ISE: Controle de acesso via VPN, rede cabeada e Wireless, postura  - Intermediário. - Cloud Networking: VPC, Direct Connect, Transit Gateway (AWS / Google) - Intermediário.  Diferencial: Certificações CCIE e CCNP
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Analista de Redes Sênior || Oportunidade para Analista de Redes Sênior, atuar no REMOTAMENTE, PORÉM COM IDAS AO ESCRITÓRIO ESPORÁDICAS E PROGRAMADAS (região Sul de SP, Berrini), em projeto de cliente do segmento de seguro.  Requisitos técnicos: - Cisco Switches (L2 e L3): Políticas de roteamento (VRFs), OSPF, BGP - Avançado. - Cisco Firewalls: Validação de vazamento e fluxo de tráfego, criação de regras, SSL Inspection, Intrusion Rules, VPNs (Site-to-Site e - Remote Access)  - Intermediário. - Redes Wi-Fi: Meraki / Aironet - Básico. - F5: GTM, LTM, publicação de URLs, configuração de WAF, mitigação DDoS, Anti-Bot, iRules, Global DNS  - Intermediário. - Cisco ISE: Controle de acesso via VPN, rede cabeada e Wireless, postura  - Intermediário. - Cloud Networking: VPC, Direct Connect, Transit Gateway (AWS / Google) - Intermediário.  Diferencial: Certificações CCIE e CCNP || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I687" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>82563</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Analista de Segurança Operacional</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>Analista de Segurança Operacional  Requisitos: Experiencia e conhecimento, conforme abaixo: Controles de KPI Controles de planos de ação Controles de remediação Comunicação com os owners Políticas de Segurança Compliance check Análises Semanais Monitoração de Remediação Ferramenta de PAM TAM - Technical Account Manager IAM - Identity and Access Management PAM - Privileged Access Management Revisão de acessos de contas privilegiadas  Requisitos obrigatórios: Inglês nível: intermediário Espanhol nível: intermediário  Modelo de atuação: Hibrido (zona sul de São Paulo - SP)  Contratação CLT Vale Refeição ou Alimentação Assistência Médica e Assistência Odontológica Auxílio creche Convênio com Farmácia Parcerias com Universidades e Escolas de Idiomas Parceria de descontos com Seguro Auto e Residência Gympass Seguro de Vida
+Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Analista de Segurança Operacional || Analista de Segurança Operacional  Requisitos: Experiencia e conhecimento, conforme abaixo: Controles de KPI Controles de planos de ação Controles de remediação Comunicação com os owners Políticas de Segurança Compliance check Análises Semanais Monitoração de Remediação Ferramenta de PAM TAM - Technical Account Manager IAM - Identity and Access Management PAM - Privileged Access Management Revisão de acessos de contas privilegiadas  Requisitos obrigatórios: Inglês nível: intermediário Espanhol nível: intermediário  Modelo de atuação: Hibrido (zona sul de São Paulo - SP)  Contratação CLT Vale Refeição ou Alimentação Assistência Médica e Assistência Odontológica Auxílio creche Convênio com Farmácia Parcerias com Universidades e Escolas de Idiomas Parceria de descontos com Seguro Auto e Residência Gympass Seguro de Vida || Empresa .....:  PSM COMPANY</t>
+        </is>
+      </c>
+      <c r="I688" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>83090</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Analista de Sistemas WEB JR I - Marechal Deodoro</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>Analisar, avaliar a viabilidade, desenvolver , testar e homologar os sistemas de informações, utilizando ferramentas e procedimento adequados à sua implantação. Analisar o desempenho dos sistemas implantados, reavaliar e/ou atualizar os procedimentos, conversando e colhendo informações dos usuários. Treinar e acompanhar os usuários na utilização dos sistemas desenvolvidos, demonstrando e realizando suporte quanto a sua utilização. Corrigir eventuais falhas nos sistemas e/ou dados, através da análise, dos chamados técnicos e outros meios de atendimento. Alterar ou atualizar os sistemas devido à mudanças nas regras de procedimentos ou mudanças nas leis, através das solicitações dos seus superiores. Apresentar, treinar e orientar em relação ao desenvolvimento e manutenção dos sistemas. Prover a integração sistêmica/suporte entre os sistemas desenvolvidos internamente, no ambiente Web, com sistemas de fornecedores prestadores de serviços.
+Empresa .....:  OBRAS SOCIAIS E EDUCACIONAIS DE LUZ</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Analista de Sistemas WEB JR I - Marechal Deodoro || Analisar, avaliar a viabilidade, desenvolver , testar e homologar os sistemas de informações, utilizando ferramentas e procedimento adequados à sua implantação. Analisar o desempenho dos sistemas implantados, reavaliar e/ou atualizar os procedimentos, conversando e colhendo informações dos usuários. Treinar e acompanhar os usuários na utilização dos sistemas desenvolvidos, demonstrando e realizando suporte quanto a sua utilização. Corrigir eventuais falhas nos sistemas e/ou dados, através da análise, dos chamados técnicos e outros meios de atendimento. Alterar ou atualizar os sistemas devido à mudanças nas regras de procedimentos ou mudanças nas leis, através das solicitações dos seus superiores. Apresentar, treinar e orientar em relação ao desenvolvimento e manutenção dos sistemas. Prover a integração sistêmica/suporte entre os sistemas desenvolvidos internamente, no ambiente Web, com sistemas de fornecedores prestadores de serviços. || Empresa .....:  OBRAS SOCIAIS E EDUCACIONAIS DE LUZ</t>
+        </is>
+      </c>
+      <c r="I689" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>83527</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Analista de Suporte Sênior</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>Analista de Suporte SR – Temporário  Empresa localizada na Vila Olímpia contrata Analista de Suporte SR para cobertura de férias (de 30 a 60 dias), início em Fev/2026.  Atividades: Atuação no Service Desk, organizando e controlando processos técnicos suporte aos usuários presencial, remoto e telefônico manutenção básica de hardware gestão de telefonia fixa e móvel suporte a ambiente Microsoft (Windows) acessos de rede, e-mail, internet, Active Directory e segurança da informação suporte a salas de reunião diagnóstico de falhas em hardware, redes e sistemas uso de Google Workspace SAP desejável controle de chamados, relatórios semanais e mensais inventário e gerenciamento de ativos de hardware e software. Requisitos: Formação em TI ou áreas correlatas experiência como Suporte/Service Desk Sênior inglês ou espanhol intermediário (escrita) / avançado disponibilidade presencial de segunda a sexta, das 8h às 18h.  R$ 6.500 + VA e VR 650,00  VT (Pagos em dinheiro)
+Empresa .....:  Enfok RH</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Analista de Suporte Sênior || Analista de Suporte SR – Temporário  Empresa localizada na Vila Olímpia contrata Analista de Suporte SR para cobertura de férias (de 30 a 60 dias), início em Fev/2026.  Atividades: Atuação no Service Desk, organizando e controlando processos técnicos suporte aos usuários presencial, remoto e telefônico manutenção básica de hardware gestão de telefonia fixa e móvel suporte a ambiente Microsoft (Windows) acessos de rede, e-mail, internet, Active Directory e segurança da informação suporte a salas de reunião diagnóstico de falhas em hardware, redes e sistemas uso de Google Workspace SAP desejável controle de chamados, relatórios semanais e mensais inventário e gerenciamento de ativos de hardware e software. Requisitos: Formação em TI ou áreas correlatas experiência como Suporte/Service Desk Sênior inglês ou espanhol intermediário (escrita) / avançado disponibilidade presencial de segunda a sexta, das 8h às 18h.  R$ 6.500 + VA e VR 650,00  VT (Pagos em dinheiro) || Empresa .....:  Enfok RH</t>
+        </is>
+      </c>
+      <c r="I690" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>82189</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Analista Funcional Protheus (Negócios) - Sr</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um Consultor Funcional Protheus Sênior para atuar em projetos de implantação do ERP Protheus.  Híbrido 2x na Semana – Bairro Saúde - São Paulo   Atuar como consultor funcional nos módulos de Backoffice (COM, FAT, EST, FIN, FIS, CTB, ATF) Conduzir parametrizações e ajustes no módulo de Gestão de Contratos Apoiar em demais módulos (CRM, PCP, etc.) – considerado diferencial Realizar levantamento de requisitos, testes, homologações e treinamentos Apoiar desenvolvedores com conhecimento básico de ADVPL (nível intermediário será diferencial)  Participar ativamente das fases de implantação do ERP junto ao cliente.  Requisitos: Experiência sólida como Consultor Funcional Protheus em implantação de ERP Forte conhecimento nos módulos de Backoffice e Gestão de Contratos Conhecimento em demais módulos (CRM, PCP, etc.) será considerado diferencial Conhecimento em ADVPL básico  Diferencial: conhecimento da Metodologia de Implantação TOTVS (MIT).
+Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Analista Funcional Protheus (Negócios) - Sr || Estamos em busca de um Consultor Funcional Protheus Sênior para atuar em projetos de implantação do ERP Protheus.  Híbrido 2x na Semana – Bairro Saúde - São Paulo   Atuar como consultor funcional nos módulos de Backoffice (COM, FAT, EST, FIN, FIS, CTB, ATF) Conduzir parametrizações e ajustes no módulo de Gestão de Contratos Apoiar em demais módulos (CRM, PCP, etc.) – considerado diferencial Realizar levantamento de requisitos, testes, homologações e treinamentos Apoiar desenvolvedores com conhecimento básico de ADVPL (nível intermediário será diferencial)  Participar ativamente das fases de implantação do ERP junto ao cliente.  Requisitos: Experiência sólida como Consultor Funcional Protheus em implantação de ERP Forte conhecimento nos módulos de Backoffice e Gestão de Contratos Conhecimento em demais módulos (CRM, PCP, etc.) será considerado diferencial Conhecimento em ADVPL básico  Diferencial: conhecimento da Metodologia de Implantação TOTVS (MIT). || Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="I691" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>82397</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Arquiteto Corporativo</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>Vaga: Arquiteto(a) Corporativo(a)  Requisitos: •	Domínio do padrão estratégico de DDD (Domain-Driven Design), ADM do TOGAF e, preferencialmente, conhecimento em Microservices. •	Experiência com mapas de cadeia de valor, Diagrama de Ishikawa e fluxos de valor.  Principais Atividades e Desafios: •	Definir padrões, convenções e boas práticas para identificação de subdomínios, contextos de negócios e funcionalidades que emergem desses contextos. •	Atuar de forma estratégica na modelagem e evolução da arquitetura corporativa, alinhando soluções às necessidades do negócio. •	Contribuir para a integração entre áreas de negócio e tecnologia, garantindo que os princípios arquiteturais apoiem objetivos de longo prazo. •	Auxiliar na identificação de oportunidades de melhoria e inovação, utilizando mapas de valor e técnicas analíticas para apoiar decisões de arquitetura.
+Empresa .....:  Verx Tecnologia e Inovação</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Arquiteto Corporativo || Vaga: Arquiteto(a) Corporativo(a)  Requisitos: •	Domínio do padrão estratégico de DDD (Domain-Driven Design), ADM do TOGAF e, preferencialmente, conhecimento em Microservices. •	Experiência com mapas de cadeia de valor, Diagrama de Ishikawa e fluxos de valor.  Principais Atividades e Desafios: •	Definir padrões, convenções e boas práticas para identificação de subdomínios, contextos de negócios e funcionalidades que emergem desses contextos. •	Atuar de forma estratégica na modelagem e evolução da arquitetura corporativa, alinhando soluções às necessidades do negócio. •	Contribuir para a integração entre áreas de negócio e tecnologia, garantindo que os princípios arquiteturais apoiem objetivos de longo prazo. •	Auxiliar na identificação de oportunidades de melhoria e inovação, utilizando mapas de valor e técnicas analíticas para apoiar decisões de arquitetura. || Empresa .....:  Verx Tecnologia e Inovação</t>
+        </is>
+      </c>
+      <c r="I692" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>82327</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Arquiteto de Software Sênior/Google Cloud</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>A Tech For TI está com oportunidade para Arquiteto de Software Sênior, atuar em projeto de cliente - AutoTech, focada no mercado B2B, presente em diversos países. - pj - Remoto  Requisitos mandatórios: Experiência prática comprovada como Arquiteto de Software em ambientes complexos. Experiência com PHP, Node.js e C# Experiência em front-end (Angular, React, Vue) Integração com apps mobile (Android/iOS via APIs) Experiência com Google Cloud Platform (GCP), incluindo práticas para otimização de custos. (Mandatório) Conhecimentos em segurança de aplicações e performance. Capacidade de traduzir requisitos de negócio em soluções técnicas claras.
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Arquiteto de Software Sênior/Google Cloud || A Tech For TI está com oportunidade para Arquiteto de Software Sênior, atuar em projeto de cliente - AutoTech, focada no mercado B2B, presente em diversos países. - pj - Remoto  Requisitos mandatórios: Experiência prática comprovada como Arquiteto de Software em ambientes complexos. Experiência com PHP, Node.js e C# Experiência em front-end (Angular, React, Vue) Integração com apps mobile (Android/iOS via APIs) Experiência com Google Cloud Platform (GCP), incluindo práticas para otimização de custos. (Mandatório) Conhecimentos em segurança de aplicações e performance. Capacidade de traduzir requisitos de negócio em soluções técnicas claras. || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I693" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>82449</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Arquiteto de Soluções (presencial 3x/semana)</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>Definir a arquitetura de produtos bancários com foco em antecipação de recebíveis: modelagem de fluxos, regras de negócio, integração e escalabilidade da solução. Projetar e validar a solução completa — da captura dos recebíveis, registro, liquidação, à antecipação e repasse — garantindo conformidade regulatória, performance e segurança. Trabalhar com equipes multifuncionais (produto, TI, compliance, operações, risco) para transformar requisitos de negócio em soluções técnicas robustas. Selecionar, configurar ou propor plataformas tecnológicas (ex: módulo de antecipação, integração com registradoras, APIs de análise de crédito) e definir padrões de integração (REST, event-driven, microserviços). Garantir que a arquitetura atenda aos requisitos de compliance, normas do mercado financeiro e integração de dados (como registro de recebíveis em entidades autorizadas). Fomentar boas práticas de arquitetura: modularidade, reutilização, governança, monitoramento e segurança
+Empresa .....:  CBDS</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Arquiteto de Soluções (presencial 3x/semana) || Definir a arquitetura de produtos bancários com foco em antecipação de recebíveis: modelagem de fluxos, regras de negócio, integração e escalabilidade da solução. Projetar e validar a solução completa — da captura dos recebíveis, registro, liquidação, à antecipação e repasse — garantindo conformidade regulatória, performance e segurança. Trabalhar com equipes multifuncionais (produto, TI, compliance, operações, risco) para transformar requisitos de negócio em soluções técnicas robustas. Selecionar, configurar ou propor plataformas tecnológicas (ex: módulo de antecipação, integração com registradoras, APIs de análise de crédito) e definir padrões de integração (REST, event-driven, microserviços). Garantir que a arquitetura atenda aos requisitos de compliance, normas do mercado financeiro e integração de dados (como registro de recebíveis em entidades autorizadas). Fomentar boas práticas de arquitetura: modularidade, reutilização, governança, monitoramento e segurança || Empresa .....:  CBDS</t>
+        </is>
+      </c>
+      <c r="I694" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>83066</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Delivery Manager Sênior</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>Cargo: Delivery Manager Sênior (SDM) Empresa: Venice Technology Modelo: Híbrido – Santo André/SP (1x por semana presencial) Contratação: PJ + Benefícios  Descrição: Atuar como Delivery Manager Sênior apoiando Scrum Masters e Product Owners, garantindo a correta aplicação de frameworks ágeis (Scrum/Kanban), qualidade das entregas, previsibilidade e melhoria contínua. Responsável por acompanhar performance dos times, apoiar priorização de backlog, garantir ritos ágeis, remover impedimentos e atuar em iniciativas estratégicas junto ao cliente, promovendo governança e boas práticas ágeis.  Requisitos: Certificações em Agilidade (CSM, PSM, CSPO, PSPO ou similares) – obrigatório. Experiência com múltiplos times ágeis, conhecimento sólido em práticas, frameworks e métricas ágeis, experiência com Jira e indicadores. Excelente comunicação, gestão de stakeholders e capacidade analítica.
+Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Delivery Manager Sênior || Cargo: Delivery Manager Sênior (SDM) Empresa: Venice Technology Modelo: Híbrido – Santo André/SP (1x por semana presencial) Contratação: PJ + Benefícios  Descrição: Atuar como Delivery Manager Sênior apoiando Scrum Masters e Product Owners, garantindo a correta aplicação de frameworks ágeis (Scrum/Kanban), qualidade das entregas, previsibilidade e melhoria contínua. Responsável por acompanhar performance dos times, apoiar priorização de backlog, garantir ritos ágeis, remover impedimentos e atuar em iniciativas estratégicas junto ao cliente, promovendo governança e boas práticas ágeis.  Requisitos: Certificações em Agilidade (CSM, PSM, CSPO, PSPO ou similares) – obrigatório. Experiência com múltiplos times ágeis, conhecimento sólido em práticas, frameworks e métricas ágeis, experiência com Jira e indicadores. Excelente comunicação, gestão de stakeholders e capacidade analítica. || Empresa .....:  Venice Tech</t>
+        </is>
+      </c>
+      <c r="I695" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>83533</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Backend (AWS Lambda)</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>Híbrido (3x por semana no escritório em São Paulo - Morumbi) CLT e por tempo indeterminado  Você fará parte de um time que está conduzindo a transformação de sistemas legados para uma arquitetura moderna em microserviços e serverless na AWS.  Requisitos Experiência em AWS Domínio AWS Lambda (codificação) Experiência em migração de sistema legado para arquitetura moderna. Experiência sólida Node.js. e/ou Java Experiência sólida Typescript Forte domínio de boas práticas back-end e arquitetura.  Responsabilidades Desenvolver e manter APIs back-end escaláveis. Criar e manter APIs serverless (Lambda). Implementar testes unitários garantindo qualidade e cobertura. Atuar com PostgreSQL, DynamoDB e PL/SQL quando necessário. Contribuir em soluções e integrações utilizando serviços AWS: Lambda, API Gateway, SQS, S3, Step Functions, CloudWatch, entre outros.
+Empresa .....:  Conquest One</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Desenvolvedor Backend (AWS Lambda) || Híbrido (3x por semana no escritório em São Paulo - Morumbi) CLT e por tempo indeterminado  Você fará parte de um time que está conduzindo a transformação de sistemas legados para uma arquitetura moderna em microserviços e serverless na AWS.  Requisitos Experiência em AWS Domínio AWS Lambda (codificação) Experiência em migração de sistema legado para arquitetura moderna. Experiência sólida Node.js. e/ou Java Experiência sólida Typescript Forte domínio de boas práticas back-end e arquitetura.  Responsabilidades Desenvolver e manter APIs back-end escaláveis. Criar e manter APIs serverless (Lambda). Implementar testes unitários garantindo qualidade e cobertura. Atuar com PostgreSQL, DynamoDB e PL/SQL quando necessário. Contribuir em soluções e integrações utilizando serviços AWS: Lambda, API Gateway, SQS, S3, Step Functions, CloudWatch, entre outros. || Empresa .....:  Conquest One</t>
+        </is>
+      </c>
+      <c r="I696" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>83173</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR FRONT-END</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>Atividades: Atuação em evolução e manutenção de aplicações, ajustes de layout, testes unitários, integração com APIs, code review e colaboração técnica com o time.  Requisitos: Angular ou React Metodologias ágeis Git  CLT  Presencial – Av. Paulista (Brazilian Financial Center)
+Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || DESENVOLVEDOR FRONT-END || Atividades: Atuação em evolução e manutenção de aplicações, ajustes de layout, testes unitários, integração com APIs, code review e colaboração técnica com o time.  Requisitos: Angular ou React Metodologias ágeis Git  CLT  Presencial – Av. Paulista (Brazilian Financial Center) || Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="I697" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>83532</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR FRONT-END PLENO</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>REQUISITOS: Javascript TypeScript Git Teste unitarios jasmine ou jest Teste end-to-end Angular 2+ SASS Métodologia BEM Gerenciamento de estado Clean Code Jenkins  Atuação: Hibrido 4x/semana  (Av. Paulista - Bela Vista.)
+Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || DESENVOLVEDOR FRONT-END PLENO || REQUISITOS: Javascript TypeScript Git Teste unitarios jasmine ou jest Teste end-to-end Angular 2+ SASS Métodologia BEM Gerenciamento de estado Clean Code Jenkins  Atuação: Hibrido 4x/semana  (Av. Paulista - Bela Vista.) || Empresa .....:  CAPITANI CONSULTORIA E SISTEMAS LTDA</t>
+        </is>
+      </c>
+      <c r="I698" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>83178</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack (PHP/React)</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>Buscamos profissionais Pleno/Senior para atuar no desenvolvimento, manutenção e evolução dos nossos sistemas web, com visão completa da aplicação (frontend, backend e banco de dados).  Como será o seu dia a dia: Desenvolver e manter novas funcionalidades nos sistemas web utilizando PHP (com framework Laravel) no backend.  Criar e implementar interfaces de usuário responsivas e interativas utilizando JavaScript e React.  Projetar, otimizar e gerenciar estruturas de banco de dados PostgreSQL, escrevendo queries eficientes para relatórios.  Integrar os sistemas internos com APIs externas e desenvolver suas próprias APIs RESTful.  Atuar na correção de bugs e resolução de problemas técnicos reportados pelos usuários e pela equipe de produto.  Utilizar Git para versionamento de código e colaborar através de fluxos de trabalho como Git Flow ou GitHub Flow.  Forma de trabalho: híbrido no centro de São Paulo Contratação: PJ  Faixa Salarial entre R$ 6.000 - R$ 8.000
+Empresa .....:  Análise Editorial</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Desenvolvedor Full Stack (PHP/React) || Buscamos profissionais Pleno/Senior para atuar no desenvolvimento, manutenção e evolução dos nossos sistemas web, com visão completa da aplicação (frontend, backend e banco de dados).  Como será o seu dia a dia: Desenvolver e manter novas funcionalidades nos sistemas web utilizando PHP (com framework Laravel) no backend.  Criar e implementar interfaces de usuário responsivas e interativas utilizando JavaScript e React.  Projetar, otimizar e gerenciar estruturas de banco de dados PostgreSQL, escrevendo queries eficientes para relatórios.  Integrar os sistemas internos com APIs externas e desenvolver suas próprias APIs RESTful.  Atuar na correção de bugs e resolução de problemas técnicos reportados pelos usuários e pela equipe de produto.  Utilizar Git para versionamento de código e colaborar através de fluxos de trabalho como Git Flow ou GitHub Flow.  Forma de trabalho: híbrido no centro de São Paulo Contratação: PJ  Faixa Salarial entre R$ 6.000 - R$ 8.000 || Empresa .....:  Análise Editorial</t>
+        </is>
+      </c>
+      <c r="I699" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>83080</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Fullstack Net Sênior</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>VAGA  Desenvolvedor Fullstack .NET / Vue.js Sênior  Presencial – Av. Juscelino Kubitschek  São Paulo (Cliente do setor financeiro)  Estamos em busca de um(a) Desenvolvedor(a) Fullstack Sênior para atuar em um ambiente desafiador, com foco em tecnologia e inovação no mercado financeiro.  Requisitos Forte experiência com C# e .NET Core Sólidos conhecimentos em front-end, incluindo HTML, CSS responsivo e JavaScript, além de experiência com Single Page Applications (SPA), especificamente com Vue.JS e Flutter. Vivência em desenvolvimento back-end utilizando ASP.NET Web Forms e ASP.NET MVC. Conhecimento em microsserviços, design patterns e mensageria Bancos de dados SQL / T-SQL e NoSQL Metodologias ágeis e Git  Diferenciais Experiência no setor financeiro Uso de IA no desenvolvimento (ex: GitHub Copilot) Docker / Kubernetes e CI/CD Monitoramento com Splunk e Dynatrace Análise de performance de banco de dados (DPA)
+Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 31/01/26 || Desenvolvedor Fullstack Net Sênior || VAGA  Desenvolvedor Fullstack .NET / Vue.js Sênior  Presencial – Av. Juscelino Kubitschek  São Paulo (Cliente do setor financeiro)  Estamos em busca de um(a) Desenvolvedor(a) Fullstack Sênior para atuar em um ambiente desafiador, com foco em tecnologia e inovação no mercado financeiro.  Requisitos Forte experiência com C# e .NET Core Sólidos conhecimentos em front-end, incluindo HTML, CSS responsivo e JavaScript, além de experiência com Single Page Applications (SPA), especificamente com Vue.JS e Flutter. Vivência em desenvolvimento back-end utilizando ASP.NET Web Forms e ASP.NET MVC. Conhecimento em microsserviços, design patterns e mensageria Bancos de dados SQL / T-SQL e NoSQL Metodologias ágeis e Git  Diferenciais Experiência no setor financeiro Uso de IA no desenvolvimento (ex: GitHub Copilot) Docker / Kubernetes e CI/CD Monitoramento com Splunk e Dynatrace Análise de performance de banco de dados (DPA) || Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="I700" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vagas_apinfo.xlsx
+++ b/vagas_apinfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I700"/>
+  <dimension ref="A1:I776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32784,6 +32784,3509 @@
         <v>20</v>
       </c>
     </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>82497</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Product Owner</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>Oportunidade híbrida 2x  Alphaville Modalidade PJ  Responsabilidades: Gerenciar e priorizar o Product Backlog Garantir clareza e transparência dos itens para o time Maximizar valor das entregas Atuar junto ao Scrum Master nas cerimônias Assegurar entendimento do backlog pelo time de desenvolvimento.  Requisitos: Inglês fluente Experiência sólida como PO Conhecimento em Trello, Jira, Kanban, SAFe, XP  Desejável: Design Thinking, Design Sprint, Lean Inception Boa comunicação e organização.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 04/02/26 || Product Owner || Oportunidade híbrida 2x  Alphaville Modalidade PJ  Responsabilidades: Gerenciar e priorizar o Product Backlog Garantir clareza e transparência dos itens para o time Maximizar valor das entregas Atuar junto ao Scrum Master nas cerimônias Assegurar entendimento do backlog pelo time de desenvolvimento.  Requisitos: Inglês fluente Experiência sólida como PO Conhecimento em Trello, Jira, Kanban, SAFe, XP  Desejável: Design Thinking, Design Sprint, Lean Inception Boa comunicação e organização. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>82573</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Especialista de Sistemas e TI - Presencial</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>Profissional com formação superior completa em Análise de Sistemas, Ciências da Computação ou Engenharia da Computação, experiência sólida em gestão de sistemas e projetos.  Principais responsabilidades Ser referência técnica para o time de Analistas Atuar como ponto focal entre empresa e fornecedores, garantindo qualidade, prazo e escopo Sustentação de sistemas: atendimento a incidentes, problemas e mudanças Gestão de projetos (Waterfall e Ágil) Monitoramento de performance e integração entre sistemas Levantamento de requisitos técnicos e funcionais Desenho e implementação de APIs Mapeamento de processos (BPMN) e análise de melhorias.  Conhecimentos desejados Bancos de dados Oracle, MS SQL Server e Progress ITIL e COBIT (desejável).
+Empresa .....:  Aeroporto Internacional de Viracopos</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>Campinas - SP - 04/02/26 || Especialista de Sistemas e TI - Presencial || Profissional com formação superior completa em Análise de Sistemas, Ciências da Computação ou Engenharia da Computação, experiência sólida em gestão de sistemas e projetos.  Principais responsabilidades Ser referência técnica para o time de Analistas Atuar como ponto focal entre empresa e fornecedores, garantindo qualidade, prazo e escopo Sustentação de sistemas: atendimento a incidentes, problemas e mudanças Gestão de projetos (Waterfall e Ágil) Monitoramento de performance e integração entre sistemas Levantamento de requisitos técnicos e funcionais Desenho e implementação de APIs Mapeamento de processos (BPMN) e análise de melhorias.  Conhecimentos desejados Bancos de dados Oracle, MS SQL Server e Progress ITIL e COBIT (desejável). || Empresa .....:  Aeroporto Internacional de Viracopos</t>
+        </is>
+      </c>
+      <c r="I702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>83558</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Desenvolvedor ADVPL Pleno</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>Buscamos profissionais com experiência em desenvolvimento ADVPL Protheus, com boa comunicação e habilidade de relacionamento. Espera-se atuação próxima ao cliente, com postura consultiva, colaborativa e foco em solução, além de maturidade profissional para interação com diferentes áreas e forte espírito de equipe.  Detalhes da Vaga Modelo: Presencial – Curitiba/PR Contratação: Cooperado Carga horária: Full-time  Segunda a sexta-feira  Horário comercial  9Atividades Desenvolvimento e manutenção de aplicações em ADVPL/TL++ Criação de Jobs e Schedules Desenvolvimento de Webservices (SOAP e REST).  Requisitos Conhecimento em regras de negócio Banco de dados SQL Programação em ADVPL/TL++.  Perfil Comportamental Boa comunicação, atuação consultiva, perfil colaborativo, senso de responsabilidade e foco em entregas com qualidade.
+Empresa .....:  CODE GROUP</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>Curitiba - PR - 04/02/26 || Desenvolvedor ADVPL Pleno || Buscamos profissionais com experiência em desenvolvimento ADVPL Protheus, com boa comunicação e habilidade de relacionamento. Espera-se atuação próxima ao cliente, com postura consultiva, colaborativa e foco em solução, além de maturidade profissional para interação com diferentes áreas e forte espírito de equipe.  Detalhes da Vaga Modelo: Presencial – Curitiba/PR Contratação: Cooperado Carga horária: Full-time  Segunda a sexta-feira  Horário comercial  9Atividades Desenvolvimento e manutenção de aplicações em ADVPL/TL++ Criação de Jobs e Schedules Desenvolvimento de Webservices (SOAP e REST).  Requisitos Conhecimento em regras de negócio Banco de dados SQL Programação em ADVPL/TL++.  Perfil Comportamental Boa comunicação, atuação consultiva, perfil colaborativo, senso de responsabilidade e foco em entregas com qualidade. || Empresa .....:  CODE GROUP</t>
+        </is>
+      </c>
+      <c r="I703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>83579</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Arquiteto de Softwares</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>Gravataí - RS - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>Profissional generalista com capacidade de desenhar e evoluir arquiteturas escaláveis, seguras e operáveis, selecionando o estilo adequado ao contexto (monólito modular, microservices, SOA, event-driven, arquitetura hexagonal, DDD, serverless) com foco em NFRs  Linguagens e Ecossistema Principal: desejável com C e C++ e .NET (C#)  Cloud AWS: domínio de fundamentos de AWS Apoiar discovery e priorização, e estruturar soluções considerando roadmap de produto, reutilização (plataforma) e time-to-market.  Modelagem e Documentação de Arquitetura: produzir diagramas e documentação objetiva usando o Modelo C4 (Contexto, Contêiner, Componente) e UML.  DevOps: entendimento de CI/CD, automação de infraestrutura (IaC), containers (Docker) .  Dados e Integrações: conhecimento em bancos relacionais e não relacionais e em integração de sistemas.  Ambiente de engenharia: domínio de controle de versão (Git) e práticas de qualidade (code review, testes automatizados,
+Empresa .....:  Scope</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>Gravataí - RS - 04/02/26 || Arquiteto de Softwares || Profissional generalista com capacidade de desenhar e evoluir arquiteturas escaláveis, seguras e operáveis, selecionando o estilo adequado ao contexto (monólito modular, microservices, SOA, event-driven, arquitetura hexagonal, DDD, serverless) com foco em NFRs  Linguagens e Ecossistema Principal: desejável com C e C++ e .NET (C#)  Cloud AWS: domínio de fundamentos de AWS Apoiar discovery e priorização, e estruturar soluções considerando roadmap de produto, reutilização (plataforma) e time-to-market.  Modelagem e Documentação de Arquitetura: produzir diagramas e documentação objetiva usando o Modelo C4 (Contexto, Contêiner, Componente) e UML.  DevOps: entendimento de CI/CD, automação de infraestrutura (IaC), containers (Docker) .  Dados e Integrações: conhecimento em bancos relacionais e não relacionais e em integração de sistemas.  Ambiente de engenharia: domínio de controle de versão (Git) e práticas de qualidade (code review, testes automatizados, || Empresa .....:  Scope</t>
+        </is>
+      </c>
+      <c r="I704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>83580</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Desenvolvedor de Softwares</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>Gravataí - RS - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>Atuará  tanto no frontend quanto no backend e deverá participar da construção e evolução de sistemas robustos e modernos.  •	Criar e manter interfaces web utilizando Angular (preferencialmente versões recentes), •	Manter e evoluir sistemas legados baseados em ASP.NET e WINDOWS FORMS (.NET Framework e C#) •	Experiência com Angular, HTML5, CSS3 e TypeScript •	Conhecimento em C# com Windows Forms, .NET Framework (e desejável .NET Core •	Desenvolver e integrar middlewares e serviços REST para comunicação entre camadas de negócio e aplicações web •	Bancos de dados relacionais, especialmente Oracle (CRUD, Procedures, Views) •	Garantir a qualidade do código com boas práticas de desenvolvimento e testes unitários e funcionais •	Documentar requisitos, fluxos de dados, APIs e regras de negócio •	Participar de reuniões técnicas, revisões de código e contribuir com soluções inovadoras. •	Diferencial: Conhecimentos básicos de Docker, Git, DevOps ou CI
+Empresa .....:  Scope</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>Gravataí - RS - 04/02/26 || Desenvolvedor de Softwares || Atuará  tanto no frontend quanto no backend e deverá participar da construção e evolução de sistemas robustos e modernos.  •	Criar e manter interfaces web utilizando Angular (preferencialmente versões recentes), •	Manter e evoluir sistemas legados baseados em ASP.NET e WINDOWS FORMS (.NET Framework e C#) •	Experiência com Angular, HTML5, CSS3 e TypeScript •	Conhecimento em C# com Windows Forms, .NET Framework (e desejável .NET Core •	Desenvolver e integrar middlewares e serviços REST para comunicação entre camadas de negócio e aplicações web •	Bancos de dados relacionais, especialmente Oracle (CRUD, Procedures, Views) •	Garantir a qualidade do código com boas práticas de desenvolvimento e testes unitários e funcionais •	Documentar requisitos, fluxos de dados, APIs e regras de negócio •	Participar de reuniões técnicas, revisões de código e contribuir com soluções inovadoras. •	Diferencial: Conhecimentos básicos de Docker, Git, DevOps ou CI || Empresa .....:  Scope</t>
+        </is>
+      </c>
+      <c r="I705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>83571</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Analista de Configuração</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>Sólida experiência em controle de configuração de software, revisão de código (Code Review) e automação de pipelines em esteiras DevOps.  Experiência prática na definição e manutenção de processos de versionamento, gestão de branches, políticas de merge, padronização de commits e governança de código.  Superior completo em cursos relacionados a TI Atuação Totalmente remota
+Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Analista de Configuração || Sólida experiência em controle de configuração de software, revisão de código (Code Review) e automação de pipelines em esteiras DevOps.  Experiência prática na definição e manutenção de processos de versionamento, gestão de branches, políticas de merge, padronização de commits e governança de código.  Superior completo em cursos relacionados a TI Atuação Totalmente remota || Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="I706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>83060</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Analista Desenvolvedor Full Stack Sênior</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>Experiência Técnica:  Capacidade de elaborar e compreender System Design e arquiteturas de software. Forte compreensão dos princípios do Ciclo de Vida de Desenvolvimento de Software (SDLC). Conhecimentos sólidos em desenvolvimento seguro, incluindo práticas de pentest, SAST e DAST. Experiência na implementação de boas práticas de autenticação e autorização, incluindo OAuth 2.0. Conhecimento em IdentityServer / Keycloak. Vivência com soluções Multi-Tenant (multi-cliente). Conhecimento em padrões e boas práticas como Design Patterns, Cloud Patterns, SOA e Web Standards. Experiência comprovada em metodologias ágeis (Scrum e Kanban), além de DevOps e CI/CD. .NET (.NET Framework / .NET Core) – C# ASP.NET APIs REST JavaScript / jQuery AngularJS / Angular (2+) SQL Server NoSQL: ElasticSearch Entity Framework Core Redis Cache HTML5 / CSS Git IIS Implementação de controles de segurança alinhados ao OWASP Top 10  Superior Completo  Inglês Intermediário.
+Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Analista Desenvolvedor Full Stack Sênior || Experiência Técnica:  Capacidade de elaborar e compreender System Design e arquiteturas de software. Forte compreensão dos princípios do Ciclo de Vida de Desenvolvimento de Software (SDLC). Conhecimentos sólidos em desenvolvimento seguro, incluindo práticas de pentest, SAST e DAST. Experiência na implementação de boas práticas de autenticação e autorização, incluindo OAuth 2.0. Conhecimento em IdentityServer / Keycloak. Vivência com soluções Multi-Tenant (multi-cliente). Conhecimento em padrões e boas práticas como Design Patterns, Cloud Patterns, SOA e Web Standards. Experiência comprovada em metodologias ágeis (Scrum e Kanban), além de DevOps e CI/CD. .NET (.NET Framework / .NET Core) – C# ASP.NET APIs REST JavaScript / jQuery AngularJS / Angular (2+) SQL Server NoSQL: ElasticSearch Entity Framework Core Redis Cache HTML5 / CSS Git IIS Implementação de controles de segurança alinhados ao OWASP Top 10  Superior Completo  Inglês Intermediário. || Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="I707" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>83565</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Analista Funcional Salesforce (Industries) - SR</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>Analista Funcional Salesforce (Industries) – Sênior  Modelo: Totalmente remoto Localidade obrigatória do candidato(a): SP, Recife, Nova Lima/MG ou RJ Prazo de contrato: 1 ano (com possibilidade de efetivação) Horário: 9h às 18h Regime: PJ (precisa ter empresa aberta) ou CLT  Principais requisitos: Experiência como Analista Funcional Salesforce Atuação com Salesforce Industries (Communications Cloud) Levantamento de requisitos e documentação funcional Interface direta com o cliente Conhecimento em telecom (diferencial)  Observação: Para essa posição o candidato precisa ter experiência profissional comprovada em Salesforce Industries (Communications Cloud).  Enviar currículo atualizado.
+Empresa .....:  ITeam</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Analista Funcional Salesforce (Industries) - SR || Analista Funcional Salesforce (Industries) – Sênior  Modelo: Totalmente remoto Localidade obrigatória do candidato(a): SP, Recife, Nova Lima/MG ou RJ Prazo de contrato: 1 ano (com possibilidade de efetivação) Horário: 9h às 18h Regime: PJ (precisa ter empresa aberta) ou CLT  Principais requisitos: Experiência como Analista Funcional Salesforce Atuação com Salesforce Industries (Communications Cloud) Levantamento de requisitos e documentação funcional Interface direta com o cliente Conhecimento em telecom (diferencial)  Observação: Para essa posição o candidato precisa ter experiência profissional comprovada em Salesforce Industries (Communications Cloud).  Enviar currículo atualizado. || Empresa .....:  ITeam</t>
+        </is>
+      </c>
+      <c r="I708" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Desenvolvedor (Remoto)</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Desenvolvedor (Remoto)</t>
+        </is>
+      </c>
+      <c r="I709" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>83556</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Empresa .....:  Milkbox</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>Não Informado</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Empresa .....:  Milkbox</t>
+        </is>
+      </c>
+      <c r="I710" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>83169</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Back-end Sênior</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>Responsabilidades e requisitos: •Atuação principal em projetos de meios de pagamento, incluindo PIX (estático, dinâmico e automático), análise de dados e integrações com gateways como GetNet, Cielo e Stone. •Conhecimento sólido em .NET, Clean Code, SOLID, TDD e DDD. •Experiência prévia em empresas de pagamentos, bancos, fintechs ou consultorias do setor financeiro será altamente valorizada. •Perfil colaborativo, boa comunicação e maturidade para atuação em ambiente remoto. •Diferencial para quem já atuou com integração de sistemas, arquivos Febraban, transações em tempo real, análise de risco e prevenção a fraudes. •Espera-se senioridade técnica comprovada, autonomia e capacidade de adaptação a diferentes tribos e squads de tecnologia.
+Empresa .....:  Farol plus (Consultoria de RH)</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Desenvolvedor Back-end Sênior || Responsabilidades e requisitos: •Atuação principal em projetos de meios de pagamento, incluindo PIX (estático, dinâmico e automático), análise de dados e integrações com gateways como GetNet, Cielo e Stone. •Conhecimento sólido em .NET, Clean Code, SOLID, TDD e DDD. •Experiência prévia em empresas de pagamentos, bancos, fintechs ou consultorias do setor financeiro será altamente valorizada. •Perfil colaborativo, boa comunicação e maturidade para atuação em ambiente remoto. •Diferencial para quem já atuou com integração de sistemas, arquivos Febraban, transações em tempo real, análise de risco e prevenção a fraudes. •Espera-se senioridade técnica comprovada, autonomia e capacidade de adaptação a diferentes tribos e squads de tecnologia. || Empresa .....:  Farol plus (Consultoria de RH)</t>
+        </is>
+      </c>
+      <c r="I711" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>83047</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack - JAVA</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>A Pentacom IT Solutions, há mais de 20 anos no mercado, busca Desenvolvedor Full Stack -J AVA:  Requisitos e Conhecimentos Essenciais: - Experiência em Java (versão 8+), Spring framework (Springboot , Spring Cloud , Spring Batch) - Experiência em Angular (versão 8+, 20, 21) , CSS , TypeScript - Conhecimento em Jenkins e GitLab - Desejável conhecimento nos bancos de dados Oracle e MongoDB - Conhecimento em processos e ferramentas de automação de testes (Junit, Jasmine, Karma) - Desejável conhecimento em Openshift, Docker, Kubernetes, Kafka, Rabbit MQ - Desejável conhecimento em Redis - Experiência com integrações nos formatos de contrato: Swagger / Yaml - Experiência no desenvolvimento de micro serviços - Conhecimento de metodologia Ágil / Scrum - Conhecimento das práticas DevSecOps.  Período: Indeterminado Início: Imediato Contratação: CLT Atuação: Home Office  Profissionais interessados, enviar currículo informando disponibilidade para início
+Empresa .....:  Pentacom IT Solutions</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Desenvolvedor Full Stack - JAVA || A Pentacom IT Solutions, há mais de 20 anos no mercado, busca Desenvolvedor Full Stack -J AVA:  Requisitos e Conhecimentos Essenciais: - Experiência em Java (versão 8+), Spring framework (Springboot , Spring Cloud , Spring Batch) - Experiência em Angular (versão 8+, 20, 21) , CSS , TypeScript - Conhecimento em Jenkins e GitLab - Desejável conhecimento nos bancos de dados Oracle e MongoDB - Conhecimento em processos e ferramentas de automação de testes (Junit, Jasmine, Karma) - Desejável conhecimento em Openshift, Docker, Kubernetes, Kafka, Rabbit MQ - Desejável conhecimento em Redis - Experiência com integrações nos formatos de contrato: Swagger / Yaml - Experiência no desenvolvimento de micro serviços - Conhecimento de metodologia Ágil / Scrum - Conhecimento das práticas DevSecOps.  Período: Indeterminado Início: Imediato Contratação: CLT Atuação: Home Office  Profissionais interessados, enviar currículo informando disponibilidade para início || Empresa .....:  Pentacom IT Solutions</t>
+        </is>
+      </c>
+      <c r="I712" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>82741</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java Sênior</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Desenvolvedor(a) Java Back-end experiente para integrar nossa Squad de Negócios Digitais. Procuramos um profissional com forte atuação em Spring Boot e conhecimentos sólidos em Spring WebFlowm, WebFlux e programação reativa.  Requisitos e Conhecimentos Essenciais:  Linguagens e Frameworks: Forte experiência em Java (versão 17 ou superior) e Spring Boot. Conhecimentos em Spring WebFlux e programação reativa são diferenciais importantes.  Testes: Experiência com testes em Java e familiaridade com Cucumber. DevOps e Ferramentas: Conhecimento em Jenkins (CI/CD), Docker, Redis e sistemas de mensageria. Monitoramento e Observabilidade: Familiaridade com ferramentas de monitoramento e observabilidade.  Metodologias Ágeis: Experiência com Scrum e/ou Kanban.  Modalidade: CLT Local: Home Office
+Empresa .....:  Taking Results e Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Desenvolvedor Java Sênior || Estamos em busca de um(a) Desenvolvedor(a) Java Back-end experiente para integrar nossa Squad de Negócios Digitais. Procuramos um profissional com forte atuação em Spring Boot e conhecimentos sólidos em Spring WebFlowm, WebFlux e programação reativa.  Requisitos e Conhecimentos Essenciais:  Linguagens e Frameworks: Forte experiência em Java (versão 17 ou superior) e Spring Boot. Conhecimentos em Spring WebFlux e programação reativa são diferenciais importantes.  Testes: Experiência com testes em Java e familiaridade com Cucumber. DevOps e Ferramentas: Conhecimento em Jenkins (CI/CD), Docker, Redis e sistemas de mensageria. Monitoramento e Observabilidade: Familiaridade com ferramentas de monitoramento e observabilidade.  Metodologias Ágeis: Experiência com Scrum e/ou Kanban.  Modalidade: CLT Local: Home Office || Empresa .....:  Taking Results e Informatica Ltda</t>
+        </is>
+      </c>
+      <c r="I713" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>82774</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Desenvolvedor PL SQL</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>Graduação em curso de nível superior em TI Experiência sólida em PL/SQL (Oracle): criação de packages, procedures, otimização de queries e tunning. Experiência com ETL e processos de tratamento de dados. Conhecimento em modelagem de bancos relacionais. Habilidade com análise, debugging e resolução de incidentes em rotinas de dados. Experiência prévia como Analista de Sistemas/Desenvolvedor ou Analista de Dados. Boa comunicação e capacidade de interação com times multidisciplinares. Capacidade de trabalhar de forma autônoma e organizada. #8203  Remoto contratação PJ
+Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Desenvolvedor PL SQL || Graduação em curso de nível superior em TI Experiência sólida em PL/SQL (Oracle): criação de packages, procedures, otimização de queries e tunning. Experiência com ETL e processos de tratamento de dados. Conhecimento em modelagem de bancos relacionais. Habilidade com análise, debugging e resolução de incidentes em rotinas de dados. Experiência prévia como Analista de Sistemas/Desenvolvedor ou Analista de Dados. Boa comunicação e capacidade de interação com times multidisciplinares. Capacidade de trabalhar de forma autônoma e organizada. #8203  Remoto contratação PJ || Empresa .....:  TO Brasil</t>
+        </is>
+      </c>
+      <c r="I714" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>82842</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) Fullstack .NET Core / Angular</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>A 200DEV é uma consultoria de TI focada em Inovação e Transformação Digital, utilizando tecnologias de ponta e profissionais orientados a resultados.  VAGA REMOTA: Desenvolvedor(a) Fullstack .NET Core / Angular Sênior  REQUISITOS OBRIGATÓRIOS: Exp. em desenvolvimento com .NET Core (C#). Conhecimento avançado em Angular (versão 8 ou superior). Domínio de Entity Framework, Dapper e LINQ. Exp. no desenvolvimento de APIs REST. Conhecimento em bancos de dados relacionais, especialmente Oracle. Conhecimento em Arquitetura de Software, Design Patterns e Boas Práticas. Exp.com Controle de Versão (Git, etc.). Exp. com pelo menos uma das plataformas de Cloud Computing (Azure, AWS, Google Cloud). Exp.com Metodologias Ágeis (Scrum, Kanban).  Modelo: Remoto Contratação: PJ
+Empresa .....:  200DEV SVCS LTDA.</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Desenvolvedor(a) Fullstack .NET Core / Angular || A 200DEV é uma consultoria de TI focada em Inovação e Transformação Digital, utilizando tecnologias de ponta e profissionais orientados a resultados.  VAGA REMOTA: Desenvolvedor(a) Fullstack .NET Core / Angular Sênior  REQUISITOS OBRIGATÓRIOS: Exp. em desenvolvimento com .NET Core (C#). Conhecimento avançado em Angular (versão 8 ou superior). Domínio de Entity Framework, Dapper e LINQ. Exp. no desenvolvimento de APIs REST. Conhecimento em bancos de dados relacionais, especialmente Oracle. Conhecimento em Arquitetura de Software, Design Patterns e Boas Práticas. Exp.com Controle de Versão (Git, etc.). Exp. com pelo menos uma das plataformas de Cloud Computing (Azure, AWS, Google Cloud). Exp.com Metodologias Ágeis (Scrum, Kanban).  Modelo: Remoto Contratação: PJ || Empresa .....:  200DEV SVCS LTDA.</t>
+        </is>
+      </c>
+      <c r="I715" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>82180</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Engenheiro de Dados</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>Engenheiro de Dados Disponibilidade imediata Contratação PJ Período estimado de 06 a 12 meses (podendo ser prorrogado) Atuação Remoto  Experiência comprovada em projetos usando IA ( MLs, deep learning, LLMs) Engajamento, senso de dono, comunicação, capacidade de traduzir problemas de negócio em soluções praticas, fazer apresentações gerenciais, comunicação e trabalho em equipe.
+Empresa .....:  THERA CONSULTING</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Engenheiro de Dados || Engenheiro de Dados Disponibilidade imediata Contratação PJ Período estimado de 06 a 12 meses (podendo ser prorrogado) Atuação Remoto  Experiência comprovada em projetos usando IA ( MLs, deep learning, LLMs) Engajamento, senso de dono, comunicação, capacidade de traduzir problemas de negócio em soluções praticas, fazer apresentações gerenciais, comunicação e trabalho em equipe. || Empresa .....:  THERA CONSULTING</t>
+        </is>
+      </c>
+      <c r="I716" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>83573</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Gerente de Configuração e Mudança</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>Gerenciar os processos de Configuração e Mudança, assegurando aderência às boas práticas de ITIL. Planejar, avaliar, aprovar e acompanhar mudanças em ambientes Mainframe (z/OS). Garantir a integridade da CMDB, mantendo informações atualizadas e confiáveis. Experiência em ambientes de missão crítica (bancos, seguradoras, telecom, etc.). Forte atuação em ambientes Mainframe (z/OS, JCL, CICS, DB2, IMS, entre outros) Superior completo em cursos relacionados a TI Atuação Totalmente remota
+Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Gerente de Configuração e Mudança || Gerenciar os processos de Configuração e Mudança, assegurando aderência às boas práticas de ITIL. Planejar, avaliar, aprovar e acompanhar mudanças em ambientes Mainframe (z/OS). Garantir a integridade da CMDB, mantendo informações atualizadas e confiáveis. Experiência em ambientes de missão crítica (bancos, seguradoras, telecom, etc.). Forte atuação em ambientes Mainframe (z/OS, JCL, CICS, DB2, IMS, entre outros) Superior completo em cursos relacionados a TI Atuação Totalmente remota || Empresa .....:  Spassu Tecnologia</t>
+        </is>
+      </c>
+      <c r="I717" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>83576</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Gerente de Projetos</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>Requisitos: Graduação completa na área de Tecnologia da Informação, ou conclusão de qualquer curso superior acompanhado de certificado de curso de pós graduação (especialização, mestrado ou doutorado) na área de Tecnologia da Informação de, no mínimo, 360 horas.  Experiência comprovada com atuação em gestão de projetos de tecnologia, com liderança de equipes técnicas, planejamento de entregas e acompanhamento de escopo, custo, prazo e qualidade.  CONHECIMENTOS: Ter background técnico, experiência em projetos de desenvolvimento Experiência em Gerência de Projetos com base em PMBOK ou equivalente Métodos ágeis: Scrum, SAFe, Lean Kanban, Lean Startup Ferramentas: Jira, Confluence, MS Project, Planner, Trello ou equivalentes Técnicas de análise de valor agregado, EAP, curva S, matriz de stakeholders Noções de DevOps e integração continua Gestão de backlog e priorização em ciclos iterative.  Contratação CLT + benefícios  Favor enviar pretensão salarial CL
+Empresa .....:  Spassu</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Gerente de Projetos || Requisitos: Graduação completa na área de Tecnologia da Informação, ou conclusão de qualquer curso superior acompanhado de certificado de curso de pós graduação (especialização, mestrado ou doutorado) na área de Tecnologia da Informação de, no mínimo, 360 horas.  Experiência comprovada com atuação em gestão de projetos de tecnologia, com liderança de equipes técnicas, planejamento de entregas e acompanhamento de escopo, custo, prazo e qualidade.  CONHECIMENTOS: Ter background técnico, experiência em projetos de desenvolvimento Experiência em Gerência de Projetos com base em PMBOK ou equivalente Métodos ágeis: Scrum, SAFe, Lean Kanban, Lean Startup Ferramentas: Jira, Confluence, MS Project, Planner, Trello ou equivalentes Técnicas de análise de valor agregado, EAP, curva S, matriz de stakeholders Noções de DevOps e integração continua Gestão de backlog e priorização em ciclos iterative.  Contratação CLT + benefícios  Favor enviar pretensão salarial CL || Empresa .....:  Spassu</t>
+        </is>
+      </c>
+      <c r="I718" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>82537</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Support Operations Junior  c/ Inglês - Remoto</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>Support Operations Junior Remoto Contrato com prestação de serviços PJ Inglês  avançado Support Operations Junior  Fornecer suporte técnico de nível especializado para o conjunto de aplicativos, abordando problemas de usuários, solucionando incidentes e garantindo resolução oportuna para manter a alta disponibilidade do sistema.  Desenvolver planos de ação preventivos para atender as métricas dos Indicadores Chave de Desempenho (KPIs) e dos Acordos de Nível de Serviço (SLAs). Responsável por manter a documentação precisa do sistema enquanto segue as regulamentações Sarbanes-Oxley (SOX).  Gerenciar e solucionar problemas de sistemas de transporte de telemetria de enfileiramento de mensagens, garantindo comunicação de dados confiável e eficiente.  Mantenha integrações de mensagens com o Azure Service Bus e o EventHub, garantindo que os dados fluam de maneira suave e segura entre os sistemas. Utilização do Datadog para análise de registros e monitores
+Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 04/02/26 || Support Operations Junior  c/ Inglês - Remoto || Support Operations Junior Remoto Contrato com prestação de serviços PJ Inglês  avançado Support Operations Junior  Fornecer suporte técnico de nível especializado para o conjunto de aplicativos, abordando problemas de usuários, solucionando incidentes e garantindo resolução oportuna para manter a alta disponibilidade do sistema.  Desenvolver planos de ação preventivos para atender as métricas dos Indicadores Chave de Desempenho (KPIs) e dos Acordos de Nível de Serviço (SLAs). Responsável por manter a documentação precisa do sistema enquanto segue as regulamentações Sarbanes-Oxley (SOX).  Gerenciar e solucionar problemas de sistemas de transporte de telemetria de enfileiramento de mensagens, garantindo comunicação de dados confiável e eficiente.  Mantenha integrações de mensagens com o Azure Service Bus e o EventHub, garantindo que os dados fluam de maneira suave e segura entre os sistemas. Utilização do Datadog para análise de registros e monitores || Empresa .....:  k2 partnering Solutions</t>
+        </is>
+      </c>
+      <c r="I719" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>83572</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Estágio de Suporte</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Estágio</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>Osasco - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>REQUISITOS: Ensino Superior em cursos da área de TI. Disponibilidade para trabalhar 30 horas semanais, em formato presencial, das 08:00 às 14:00.  Conhecimentos desejados: Windows Gerenciamento de logins Gerenciamento de impressora Conhecimento no arquivo XML. Excel - Básico Gramática.  LOCAL: Escritório CBTECH - Osasco - Centro (Próximo à estação de trem Osasco)  BOLSA: R$ 1.000,00 + Auxílio-transporte  AÇÕES: - Auxiliar nas  demandas do suporte  em geral - Realizar atividades específicas ou massiva - Gerenciamento de itens de configuração.  SOFT SKILLS: - Boa comunicação - Proatividade - Trabalho em equipe - Organização
+Empresa .....:  COCO BAMBU RESTAURANTES</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>Osasco - SP - 04/02/26 || Estágio de Suporte || REQUISITOS: Ensino Superior em cursos da área de TI. Disponibilidade para trabalhar 30 horas semanais, em formato presencial, das 08:00 às 14:00.  Conhecimentos desejados: Windows Gerenciamento de logins Gerenciamento de impressora Conhecimento no arquivo XML. Excel - Básico Gramática.  LOCAL: Escritório CBTECH - Osasco - Centro (Próximo à estação de trem Osasco)  BOLSA: R$ 1.000,00 + Auxílio-transporte  AÇÕES: - Auxiliar nas  demandas do suporte  em geral - Realizar atividades específicas ou massiva - Gerenciamento de itens de configuração.  SOFT SKILLS: - Boa comunicação - Proatividade - Trabalho em equipe - Organização || Empresa .....:  COCO BAMBU RESTAURANTES</t>
+        </is>
+      </c>
+      <c r="I720" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>82232</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Gerente de Projetos Pleno</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>Paranapanema - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>WA FENIX contrata: Gerente de Projetos  Requisitos: Experiência como PMO ou com gerenciamento de projetos são bem vistas Necessário experiência com projetos de implantação SAP e do S4/hana Conhecimentos com Solution Manager,  ALM e Clean Core Necessário boa postura, boa comunicação e iniciativa  Local: Região de Avaré - SP - presencial Duração da contratação: 12 meses, podendo renovar, visto que projeto vai até Março 2028.
+Empresa .....:  WA FENIX IT SERVICES  SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>Paranapanema - SP - 04/02/26 || Gerente de Projetos Pleno || WA FENIX contrata: Gerente de Projetos  Requisitos: Experiência como PMO ou com gerenciamento de projetos são bem vistas Necessário experiência com projetos de implantação SAP e do S4/hana Conhecimentos com Solution Manager,  ALM e Clean Core Necessário boa postura, boa comunicação e iniciativa  Local: Região de Avaré - SP - presencial Duração da contratação: 12 meses, podendo renovar, visto que projeto vai até Março 2028. || Empresa .....:  WA FENIX IT SERVICES  SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="I721" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>82228</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Analista de Suporte Pleno</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>Realizar suporte técnico Nível 1 e Nível 2 ao usuário final, provendo soluções para incidentes e problemas em estações de trabalho Windows, Linux e MacOS e periféricos, como pacote Office e outros softwares Atender pronta e corretamente as solicitações dos clientes, registrando e acompanhando os chamados do início ao fim procurando sempre a melhor solução Manter atualizados os procedimentos técnicos Manter-se atualizado, lendo procedimentos operacionais, participando de reuniões, treinamentos, certificações e outros Manter atualizada a base de conhecimento: Acompanhar a revisão e atualização dos procedimentos operacionais (documentos), pesquisando novas soluções, analisando criticamente os processos e propondo melhorias Tratar as solicitações de serviço de forma rápida e eficiente, garantindo a satisfação dos clientes Interagir com outros colaboradores para resolução, tratativa e acompanhamento das solicitações pelo Cliente, incluindo equipes de servidores e redes
+Empresa .....:  RCV Soluções Tecnológicas LTDA</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 04/02/26 || Analista de Suporte Pleno || Realizar suporte técnico Nível 1 e Nível 2 ao usuário final, provendo soluções para incidentes e problemas em estações de trabalho Windows, Linux e MacOS e periféricos, como pacote Office e outros softwares Atender pronta e corretamente as solicitações dos clientes, registrando e acompanhando os chamados do início ao fim procurando sempre a melhor solução Manter atualizados os procedimentos técnicos Manter-se atualizado, lendo procedimentos operacionais, participando de reuniões, treinamentos, certificações e outros Manter atualizada a base de conhecimento: Acompanhar a revisão e atualização dos procedimentos operacionais (documentos), pesquisando novas soluções, analisando criticamente os processos e propondo melhorias Tratar as solicitações de serviço de forma rápida e eficiente, garantindo a satisfação dos clientes Interagir com outros colaboradores para resolução, tratativa e acompanhamento das solicitações pelo Cliente, incluindo equipes de servidores e redes || Empresa .....:  RCV Soluções Tecnológicas LTDA</t>
+        </is>
+      </c>
+      <c r="I722" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>82424</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Gerente de Programa (Agile e Waterfall)</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>Governança Estratégica Liderar o planejamento e evolução do programa Direcionar decisões do portfólio e do fórum de priorização Alinhar demandas com os objetivos estratégicos da empresa Trabalhar em sinergia com os Gerentes de Projetos das áreas envolvidas no Programa Atuar de maneira holística e consolidadora sobre as informações de projetos/programas Gestão de Interdependências Atuar como facilitador dos impedimentos entre projetos Apoiar o alinhamento entre executivos de negócios e TI Coordenar e comunicar a evolução do programa.  Gestão de Benefícios Garantir que projetos e features contribuam para o sucesso do programa Monitorar KPIs Atuar como líder estratégico para entrega de resultados de alta qualidade Comunicação Executiva Manter comunicação clara com stakeholders e patrocinadores Reportar status Acompanhar o Programa até sua entrega  Sólido Conhecimento de metodologia Agil e Preditiva. Azure Boards, Service Now e Ms Project  Botafogo - Hibrido / PJ
+Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ - 04/02/26 || Gerente de Programa (Agile e Waterfall) || Governança Estratégica Liderar o planejamento e evolução do programa Direcionar decisões do portfólio e do fórum de priorização Alinhar demandas com os objetivos estratégicos da empresa Trabalhar em sinergia com os Gerentes de Projetos das áreas envolvidas no Programa Atuar de maneira holística e consolidadora sobre as informações de projetos/programas Gestão de Interdependências Atuar como facilitador dos impedimentos entre projetos Apoiar o alinhamento entre executivos de negócios e TI Coordenar e comunicar a evolução do programa.  Gestão de Benefícios Garantir que projetos e features contribuam para o sucesso do programa Monitorar KPIs Atuar como líder estratégico para entrega de resultados de alta qualidade Comunicação Executiva Manter comunicação clara com stakeholders e patrocinadores Reportar status Acompanhar o Programa até sua entrega  Sólido Conhecimento de metodologia Agil e Preditiva. Azure Boards, Service Now e Ms Project  Botafogo - Hibrido / PJ || Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="I723" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>82495</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Técnico em informática</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>Técnico de Helpdesk N1 (Presencial – Alocado no Cliente)
+Horário: Segunda a sexta, 9h às 18h
+Local: Presencial – necessário residir no ABC
+Salário: R$ 2.500 + R$ 500 de ajuda de custo
+Buscamos um Técnico de Helpdesk N1 para atendimento inicial aos clientes, atuando
+presencialmente e remotamente na abertura e acompanhamento de chamados via GLPI, resolução de
+incidentes de primeiro nível e encaminhamento de casos ao N2 quando necessário.
+Responsabilidades:
+– Atendimento presencial e remoto;
+– Registro e acompanhamento de tickets no GLPI;
+– Suporte a Windows, Office 365, redes, hardware e software;
+– Instalação e configuração de computadores, impressoras e periféricos;
+– Manter comunicação clara e profissional.
+Conhecimentos necessários:
+Windows, Office 365, redes (IP, DNS), GLPI, atendimento remoto, Active Directory básico,
+manutenção de computadores, suporte a impressoras.
+Requisitos:
+Residir no ABC, ensino médio completo e experiência prévia em suporte técnico (diferencial).
+Empresa .....:  Confitec Tecnologia</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>São Bernardo do Campo - SP - 04/02/26 || Técnico em informática || Técnico de Helpdesk N1 (Presencial – Alocado no Cliente) || Horário: Segunda a sexta, 9h às 18h || Local: Presencial – necessário residir no ABC || Salário: R$ 2.500 + R$ 500 de ajuda de custo || Buscamos um Técnico de Helpdesk N1 para atendimento inicial aos clientes, atuando || presencialmente e remotamente na abertura e acompanhamento de chamados via GLPI, resolução de || incidentes de primeiro nível e encaminhamento de casos ao N2 quando necessário. || Responsabilidades: || – Atendimento presencial e remoto; || – Registro e acompanhamento de tickets no GLPI; || – Suporte a Windows, Office 365, redes, hardware e software; || – Instalação e configuração de computadores, impressoras e periféricos; || – Manter comunicação clara e profissional. || Conhecimentos necessários: || Windows, Office 365, redes (IP, DNS), GLPI, atendimento remoto, Active Directory básico, || manutenção de computadores, suporte a impressoras. || Requisitos: || Residir no ABC, ensino médio completo e experiência prévia em suporte técnico (diferencial). || Empresa .....:  Confitec Tecnologia</t>
+        </is>
+      </c>
+      <c r="I724" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>82287</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Analista Cloud - AWS</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>Buscamos um(a) Analista Cloud com sólida experiência em ambientes críticos e de alta disponibilidade, para atuar na sustentação, monitoramento e otimização de soluções em AWS. Esse(a) profissional será responsável por garantir estabilidade, segurança e performance das aplicações em nuvem, além de apoiar a evolução da arquitetura e das boas práticas de operação em ambientes produtivos. Administrar, monitorar e otimizar ambientes em AWS (EC2, S3, RDS, Lambda, ECS, CloudWatch, entre outros)  Implementar políticas de backup, recuperação e alta disponibilidade  Garantir resiliência, escalabilidade e segurança dos sistemas críticos  Automatizar processos de infraestrutura  Atuar em incidentes, problemas e mudanças, seguindo boas práticas de ITIL  Apoiar times de desenvolvimento e operações na melhoria contínua do ambiente  Gerenciar custos em AWS, propondo otimizações de recursos  Documentar procedimentos
+Empresa .....:  KYMO TECNOLOGIA E INOVAÇÃO EIRELI</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista Cloud - AWS || Buscamos um(a) Analista Cloud com sólida experiência em ambientes críticos e de alta disponibilidade, para atuar na sustentação, monitoramento e otimização de soluções em AWS. Esse(a) profissional será responsável por garantir estabilidade, segurança e performance das aplicações em nuvem, além de apoiar a evolução da arquitetura e das boas práticas de operação em ambientes produtivos. Administrar, monitorar e otimizar ambientes em AWS (EC2, S3, RDS, Lambda, ECS, CloudWatch, entre outros)  Implementar políticas de backup, recuperação e alta disponibilidade  Garantir resiliência, escalabilidade e segurança dos sistemas críticos  Automatizar processos de infraestrutura  Atuar em incidentes, problemas e mudanças, seguindo boas práticas de ITIL  Apoiar times de desenvolvimento e operações na melhoria contínua do ambiente  Gerenciar custos em AWS, propondo otimizações de recursos  Documentar procedimentos || Empresa .....:  KYMO TECNOLOGIA E INOVAÇÃO EIRELI</t>
+        </is>
+      </c>
+      <c r="I725" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>82358</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Analista de Business Intelligence</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>•	Levantar e entender necessidades de informação junto às áreas de negócio •	Extrair, tratar e consolidar dados de diferentes fontes (ERP, CRM, sistemas internos, etc.) •	Desenvolver, manter e aprimorar dashboards e relatórios gerenciais (ex: Power BI, Tableau) •	Garantir a qualidade, consistência e integridade dos dados •	Realizar análises exploratórias e diagnósticas para identificar tendências, padrões e oportunidades de melhoria •	Apoiar a definição de indicadores de desempenho (KPIs) e metas •	Automatizar processos de coleta e atualização de dados •	 Power BI (preferencial), Tableau...... QuickSight •	Raciocínio analítico e visão sistêmica •	Atenção a detalhes e qualidade das informações •	Boa comunicação e capacidade de traduzir dados em insights de negócio •	Proatividade e curiosidade para explorar dados e propor soluções •	Capacidade de trabalhar de forma colaborativa  Salário R$ 9.000,00 CLT PRESENCIAL + AMédica  AOdonto SVida VR e VT
+Empresa .....:  QUI VAGAS CONSULTORIA DE RH</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Business Intelligence || •	Levantar e entender necessidades de informação junto às áreas de negócio •	Extrair, tratar e consolidar dados de diferentes fontes (ERP, CRM, sistemas internos, etc.) •	Desenvolver, manter e aprimorar dashboards e relatórios gerenciais (ex: Power BI, Tableau) •	Garantir a qualidade, consistência e integridade dos dados •	Realizar análises exploratórias e diagnósticas para identificar tendências, padrões e oportunidades de melhoria •	Apoiar a definição de indicadores de desempenho (KPIs) e metas •	Automatizar processos de coleta e atualização de dados •	 Power BI (preferencial), Tableau...... QuickSight •	Raciocínio analítico e visão sistêmica •	Atenção a detalhes e qualidade das informações •	Boa comunicação e capacidade de traduzir dados em insights de negócio •	Proatividade e curiosidade para explorar dados e propor soluções •	Capacidade de trabalhar de forma colaborativa  Salário R$ 9.000,00 CLT PRESENCIAL + AMédica  AOdonto SVida VR e VT || Empresa .....:  QUI VAGAS CONSULTORIA DE RH</t>
+        </is>
+      </c>
+      <c r="I726" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>82222</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrura Sênior</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrura Sênior (Inglês Avançado)  Experiência em plataformas/operações em cloud (preferencialmente na plataforma OCI GEN2) Administração/gestão de ambiente Cloud Alocação de recursos Criação, configuração e gerenciamento de VMs Windows/Linux (VMs da OCI-Gen2 ou dentro de servidores bare metal) Procedimentos de snapshot/backup Configuração de rede na camada do IAAS Administração de Redes Windows Linux - Oracle Linux, Ubuntu, Debian Realizar troubleshooting de problemas relacionadas à rede e a infraestrutura Administração de proxy cache e reverso (Apache/Squid) Administração de Redes Windows Server Windows/Linux Gestão de Firewalls (IPtables) Virtualização por meio de KVM Criar e manter túneis VPN (Ipsec) Microsoft Active Directory Criar, Editar e Implementar GPOs Microsoft IIS Microsoft Windows TS Implantação, administração e manutenção de Microsofoft WSUS Aplicar atualizações e hoftotfix Implantação de Monitoramento de ambiente com Zabbix
+Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Infraestrura Sênior || Analista de Infraestrura Sênior (Inglês Avançado)  Experiência em plataformas/operações em cloud (preferencialmente na plataforma OCI GEN2) Administração/gestão de ambiente Cloud Alocação de recursos Criação, configuração e gerenciamento de VMs Windows/Linux (VMs da OCI-Gen2 ou dentro de servidores bare metal) Procedimentos de snapshot/backup Configuração de rede na camada do IAAS Administração de Redes Windows Linux - Oracle Linux, Ubuntu, Debian Realizar troubleshooting de problemas relacionadas à rede e a infraestrutura Administração de proxy cache e reverso (Apache/Squid) Administração de Redes Windows Server Windows/Linux Gestão de Firewalls (IPtables) Virtualização por meio de KVM Criar e manter túneis VPN (Ipsec) Microsoft Active Directory Criar, Editar e Implementar GPOs Microsoft IIS Microsoft Windows TS Implantação, administração e manutenção de Microsofoft WSUS Aplicar atualizações e hoftotfix Implantação de Monitoramento de ambiente com Zabbix || Empresa .....:  Entrust It</t>
+        </is>
+      </c>
+      <c r="I727" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>82409</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura Sênior</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>Experiência Técnica: Foco em implementação de projetos. Experiência na área de tecnologia, preferencialmente na área bancária/financeira. Administração de Windows Server (desejável/diferencial ter Certificação). Administração de Linux Server (RedHat). Básico de Telecom (Switches, Roteadores, Vlan, Link de Dados) - Telecom (manutenção de terminais IPC e testes de gravações Verint). DFS. Citrix e Virtualização (Vmware / Oracle OLVM). Ferramentas de backup: Veeam. Ferramentas de e-mail e ferramentas de monitoramento como: SCOM, HPOpenView for Linux, Fluke NetFlow, Cacti e NNMi. SCCM. Administração de Storage / servidores Blades. Noções de Cloud.  DESEJÁVEL certificação ITIL V3.  Formação Acadêmica: Superior Completo.  Idioma: Inglês avançado para conversação. Disponibilidade para trabalhar eventualmente fora do horário comercial e final de semana.  Observações: Local de trabalho: Morumbi. Vaga Híbrida uma vez por semana presencial.
+Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Infraestrutura Sênior || Experiência Técnica: Foco em implementação de projetos. Experiência na área de tecnologia, preferencialmente na área bancária/financeira. Administração de Windows Server (desejável/diferencial ter Certificação). Administração de Linux Server (RedHat). Básico de Telecom (Switches, Roteadores, Vlan, Link de Dados) - Telecom (manutenção de terminais IPC e testes de gravações Verint). DFS. Citrix e Virtualização (Vmware / Oracle OLVM). Ferramentas de backup: Veeam. Ferramentas de e-mail e ferramentas de monitoramento como: SCOM, HPOpenView for Linux, Fluke NetFlow, Cacti e NNMi. SCCM. Administração de Storage / servidores Blades. Noções de Cloud.  DESEJÁVEL certificação ITIL V3.  Formação Acadêmica: Superior Completo.  Idioma: Inglês avançado para conversação. Disponibilidade para trabalhar eventualmente fora do horário comercial e final de semana.  Observações: Local de trabalho: Morumbi. Vaga Híbrida uma vez por semana presencial. || Empresa .....:  Emphasys IT Services</t>
+        </is>
+      </c>
+      <c r="I728" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>82467</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Analista de Monitoramento</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>• Atender/resolver chamados clientes via telefone/e-mail/chat • Monitorar ambientes Ti através de ferramentas automáticas • Realizar análise/diagnóstico/testes p/resolução chamados e demandas • Formação Técnica/Superior completo ou em andamento p/cursos à área de TI • Inglês técnico para leitura/pesquisas em bases de conhecimento • Conhecimentos técnicos em: Windows Server, Linux, Oracle e SQLSERVER • Boa comunicação oral e escrita para trato por telefone e meios eletrônicos • Lidar bem com prazos, ter senso urgência e trabalhar sob pressão • Ser proativo, trabalhar em equipe  CONTRATACAO PJ - PRESENCIAL - ENVIAR PRETENSAO SALARIAL
+Empresa .....:  Traces Tecnologia</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Monitoramento || • Atender/resolver chamados clientes via telefone/e-mail/chat • Monitorar ambientes Ti através de ferramentas automáticas • Realizar análise/diagnóstico/testes p/resolução chamados e demandas • Formação Técnica/Superior completo ou em andamento p/cursos à área de TI • Inglês técnico para leitura/pesquisas em bases de conhecimento • Conhecimentos técnicos em: Windows Server, Linux, Oracle e SQLSERVER • Boa comunicação oral e escrita para trato por telefone e meios eletrônicos • Lidar bem com prazos, ter senso urgência e trabalhar sob pressão • Ser proativo, trabalhar em equipe  CONTRATACAO PJ - PRESENCIAL - ENVIAR PRETENSAO SALARIAL || Empresa .....:  Traces Tecnologia</t>
+        </is>
+      </c>
+      <c r="I729" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>83186</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Analista de Negócios TI</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>Oportunidade em uma das maiores operadoras de saúde do Brasil  Buscamos profissional para atuar em projetos e sustentação, apoiando squads multidisciplinares, com forte interface entre negócio e tecnologia. A atuação envolve análise e priorização de demandas, suporte N1 e N2, testes, homologações e GMUDs, além de participação em projetos de evolução sistêmica e adequações regulatórias, utilizando Waterfall, Scrum e Kanban.  Modelo híbrido: presencial 2x por semana (Zona Sul de SP) Horário: 8h às 18h  PJ – 44h semanais Formação: superior em TI (completo ou cursando) Diferencial: experiência no segmento de saúde  Se você busca desafios, ambiente colaborativo e impacto nacional, essa vaga pode ser para você
+Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Negócios TI || Oportunidade em uma das maiores operadoras de saúde do Brasil  Buscamos profissional para atuar em projetos e sustentação, apoiando squads multidisciplinares, com forte interface entre negócio e tecnologia. A atuação envolve análise e priorização de demandas, suporte N1 e N2, testes, homologações e GMUDs, além de participação em projetos de evolução sistêmica e adequações regulatórias, utilizando Waterfall, Scrum e Kanban.  Modelo híbrido: presencial 2x por semana (Zona Sul de SP) Horário: 8h às 18h  PJ – 44h semanais Formação: superior em TI (completo ou cursando) Diferencial: experiência no segmento de saúde  Se você busca desafios, ambiente colaborativo e impacto nacional, essa vaga pode ser para você || Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="I730" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>82219</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Analista de Operações Datacenter</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>Analista de Operações Datacenter / Presencial - São Paulo  Responsável por executar atividades operacionais em datacenters, garantindo a instalação física de equipamentos, organização da infraestrutura, suporte a fornecedores e controle de inventário. Este profissional atuará em um ambiente dinâmico, com foco em precisão, segurança e conformidade com os padrões técnicos.  Horário de Trabalho: Segunda a sexta-feira, das 11h às 20h  Realizará deslocamentos frequentes entre os 4 datacenters da empresa, localizados em Santana de Parnaíba e São Paulo - Centro, conforme demanda das operações. Experiência prévia em ambientes de datacenter ou infraestrutura de TI. Conhecimento básico/intermediário em hardware de servidores, redes e cabeamento. Inglês intermediário (leitura de manuais, comunicação básica com fornecedores internacionais). Organização, atenção a detalhes e capacidade de seguir procedimentos técnicos.
+Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Operações Datacenter || Analista de Operações Datacenter / Presencial - São Paulo  Responsável por executar atividades operacionais em datacenters, garantindo a instalação física de equipamentos, organização da infraestrutura, suporte a fornecedores e controle de inventário. Este profissional atuará em um ambiente dinâmico, com foco em precisão, segurança e conformidade com os padrões técnicos.  Horário de Trabalho: Segunda a sexta-feira, das 11h às 20h  Realizará deslocamentos frequentes entre os 4 datacenters da empresa, localizados em Santana de Parnaíba e São Paulo - Centro, conforme demanda das operações. Experiência prévia em ambientes de datacenter ou infraestrutura de TI. Conhecimento básico/intermediário em hardware de servidores, redes e cabeamento. Inglês intermediário (leitura de manuais, comunicação básica com fornecedores internacionais). Organização, atenção a detalhes e capacidade de seguir procedimentos técnicos. || Empresa .....:  Mazzatech</t>
+        </is>
+      </c>
+      <c r="I731" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>83557</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Analista de Processos – Pleno</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>Requisitos Obrigatórios: •	Domínio do Pacote Office com Excel avançado e SQL. •	atuando sem supervisão constante e com foco em resultados •	Experiência em logística e melhoria de processos. •	Conhecimento em ferramentas de formulários (Forms) para criação de checklists •	Boa comunicação, organização e capacidade analítica e autogestão.  Métodos e Ferramentas Utilizadas: •	Fluxograma,Checklist, 5W2H e Diagrama de Ishikawa  Atividades a serem desenvolvidas: •	Realizar o mapeamento de processos, dentro e fora da empresa em São Paulo, incluindo parceiros. •	Documentar processos mapeados, seguindo rigorosamente os padrões definidos pelo cliente. •	Conduzir auditorias de processos e procedimentos, interno ou externo, incluindo visitas técnicas e acompanhamentos em campo, garantindo aderência aos padrões de qualidade estabelecido.  Modelo de Trabalho: Híbrido em São Paulo: 4 dias presenciais e 1 dia home office Possuir carro próprio
+Empresa .....:  SEMPRE IT SERVICOS DE TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Processos – Pleno || Requisitos Obrigatórios: •	Domínio do Pacote Office com Excel avançado e SQL. •	atuando sem supervisão constante e com foco em resultados •	Experiência em logística e melhoria de processos. •	Conhecimento em ferramentas de formulários (Forms) para criação de checklists •	Boa comunicação, organização e capacidade analítica e autogestão.  Métodos e Ferramentas Utilizadas: •	Fluxograma,Checklist, 5W2H e Diagrama de Ishikawa  Atividades a serem desenvolvidas: •	Realizar o mapeamento de processos, dentro e fora da empresa em São Paulo, incluindo parceiros. •	Documentar processos mapeados, seguindo rigorosamente os padrões definidos pelo cliente. •	Conduzir auditorias de processos e procedimentos, interno ou externo, incluindo visitas técnicas e acompanhamentos em campo, garantindo aderência aos padrões de qualidade estabelecido.  Modelo de Trabalho: Híbrido em São Paulo: 4 dias presenciais e 1 dia home office Possuir carro próprio || Empresa .....:  SEMPRE IT SERVICOS DE TECNOLOGIA LTDA</t>
+        </is>
+      </c>
+      <c r="I732" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>82223</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Analista de Sistema SR</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>Elaborar documentação planejada para garantir a clareza das especificações do sistema. Identificar oportunidades de otimização de processos e automação. Depurar pacotes e validar implementações antes da disponibilização para os clientes internos. Trabalhar de forma colaborativa com equipes multidisciplinares utilizando metodologias ágeis (Scrum, Kanban). Suporte técnico avançado para sistemas internos, solucionando incidentes e garantindo a continuidade dos serviços. Monitorar o desempenho das aplicações e implementar ações preventivas. Manter uma comunicação clara e eficaz com clientes internos, traduzindo necessidades de negócio para a equipe técnica. Desenvolver e ministrar treinamentos para usuários finais, garantindo o uso correto das soluções inovadoras. Criar manuais e materiais de apoio para facilitar a adoção de novas funcionalidades.  Sólida experiência com SQL Server, MySQL ou PostgreSQL. Vivência no setor de câmbio.
+Empresa .....:  Advanced Corretora de Câmbio</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Sistema SR || Elaborar documentação planejada para garantir a clareza das especificações do sistema. Identificar oportunidades de otimização de processos e automação. Depurar pacotes e validar implementações antes da disponibilização para os clientes internos. Trabalhar de forma colaborativa com equipes multidisciplinares utilizando metodologias ágeis (Scrum, Kanban). Suporte técnico avançado para sistemas internos, solucionando incidentes e garantindo a continuidade dos serviços. Monitorar o desempenho das aplicações e implementar ações preventivas. Manter uma comunicação clara e eficaz com clientes internos, traduzindo necessidades de negócio para a equipe técnica. Desenvolver e ministrar treinamentos para usuários finais, garantindo o uso correto das soluções inovadoras. Criar manuais e materiais de apoio para facilitar a adoção de novas funcionalidades.  Sólida experiência com SQL Server, MySQL ou PostgreSQL. Vivência no setor de câmbio. || Empresa .....:  Advanced Corretora de Câmbio</t>
+        </is>
+      </c>
+      <c r="I733" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>83574</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Analista de Sistemas Sênior  Java  Angular</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>Buscamos Analista de Sistemas Sênior para atuar em um ambiente desafiador, com tecnologias modernas e espaço real para propor melhorias. Você fará parte de um time de TI que apoia áreas estratégicas do negócio.  Requisitos: Experiência sólida como Analista de Sistemas/Desenvolvedor(a) Sênior. Domínio de Java 8+ e Spring Boot 2+ em aplicações corporativas. Experiência prática com Angular 16+ em projetos relevantes. Conhecimento avançado em bancos de dados SQL e NoSQL. Vivência com uso de filas (mensageria) em integrações e sistemas distribuídos. Atuação em modelo de trabalho híbrido.  Diferenciais: Experiência aplicando Clean Architecture em projetos reais. Prática consistente de Clean Code e boas práticas de engenharia. Conhecimento de Design Patterns e sua aplicação no dia a dia. Vivência em ambientes de Governança de TI e boas práticas de qualidade. Perfil colaborativo, com foco em melhoria contínua.
+Empresa .....:  Topmind</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Sistemas Sênior  Java  Angular || Buscamos Analista de Sistemas Sênior para atuar em um ambiente desafiador, com tecnologias modernas e espaço real para propor melhorias. Você fará parte de um time de TI que apoia áreas estratégicas do negócio.  Requisitos: Experiência sólida como Analista de Sistemas/Desenvolvedor(a) Sênior. Domínio de Java 8+ e Spring Boot 2+ em aplicações corporativas. Experiência prática com Angular 16+ em projetos relevantes. Conhecimento avançado em bancos de dados SQL e NoSQL. Vivência com uso de filas (mensageria) em integrações e sistemas distribuídos. Atuação em modelo de trabalho híbrido.  Diferenciais: Experiência aplicando Clean Architecture em projetos reais. Prática consistente de Clean Code e boas práticas de engenharia. Conhecimento de Design Patterns e sua aplicação no dia a dia. Vivência em ambientes de Governança de TI e boas práticas de qualidade. Perfil colaborativo, com foco em melhoria contínua. || Empresa .....:  Topmind</t>
+        </is>
+      </c>
+      <c r="I734" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>83569</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Analista de Suporte / Onboarding Técnico (N1)</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>Vaga: Analista de Suporte / Onboarding Técnico (N1) Paulista - SP  #127970 Híbrido (3x/semana) Contrato Prestador de Serviço  Temporário (4 meses) – cobertura licença-maternidade  Atividades principais: • Onboarding de clientes e acompanhamento da fase inicial • Atendimento N1 via Help Desk (tickets, triagem e SLA) • Suporte técnico em integrações (APIs REST, CSV e JSON) • Análise de erros operacionais e sistêmicos • Interface entre clientes e áreas internas • Suporte multicanal (WhatsApp, e-mail e Slack)  Requisitos: • Experiência em suporte técnico/operacional • Conhecimento em APIs REST (Postman) • Análise de arquivos CSV e JSON • Excel intermediário • Boa comunicação e perfil analítico  Diferencial: Inglês intermediário
+Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Suporte / Onboarding Técnico (N1) || Vaga: Analista de Suporte / Onboarding Técnico (N1) Paulista - SP  #127970 Híbrido (3x/semana) Contrato Prestador de Serviço  Temporário (4 meses) – cobertura licença-maternidade  Atividades principais: • Onboarding de clientes e acompanhamento da fase inicial • Atendimento N1 via Help Desk (tickets, triagem e SLA) • Suporte técnico em integrações (APIs REST, CSV e JSON) • Análise de erros operacionais e sistêmicos • Interface entre clientes e áreas internas • Suporte multicanal (WhatsApp, e-mail e Slack)  Requisitos: • Experiência em suporte técnico/operacional • Conhecimento em APIs REST (Postman) • Análise de arquivos CSV e JSON • Excel intermediário • Boa comunicação e perfil analítico  Diferencial: Inglês intermediário || Empresa .....:  CBYK</t>
+        </is>
+      </c>
+      <c r="I735" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>82839</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Analista de Suporte Tecnico Junior -Liberdade</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>Analista de Suporte Junior - Noturno 12x36  Estamos buscando um profissional com experiência em suporte técnico voltado para voz e dados, incluindo configuração, implantação e manutenção de sistemas de telefonia e redes IP.  É essencial ter boa comunicação, habilidade para solucionar problemas e facilidade no relacionamento com clientes e equipe.  Diferenciais: • Certificações em Alcatel, Huawei, CCNA, Voice ou similares • Inglês desejável • CNH B será um diferencial  Perfil Ideal: • Comunicação clara • Raciocínio rápido • Organização e precisão • Abertura para aprender sempre  Remuneração 2.400,00+ Adicioal Noturno  VR de 33,00 ao Dia  Seguro de Vida  Previdência Privada  TotalPass  VT (Pago em Dinheiro)  Assistência Médica Bradesco ( pago 70  pela Empresa )  Assistência Odontológica Porto Seguro ( pago 50  pela Empresa )  Incentivos educacionais e parcerias com universidades  vaga Totalmente Presencial, Escala 12x36 -Noturno - Liberdade
+Empresa .....:  3CORPTECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de Suporte Tecnico Junior -Liberdade || Analista de Suporte Junior - Noturno 12x36  Estamos buscando um profissional com experiência em suporte técnico voltado para voz e dados, incluindo configuração, implantação e manutenção de sistemas de telefonia e redes IP.  É essencial ter boa comunicação, habilidade para solucionar problemas e facilidade no relacionamento com clientes e equipe.  Diferenciais: • Certificações em Alcatel, Huawei, CCNA, Voice ou similares • Inglês desejável • CNH B será um diferencial  Perfil Ideal: • Comunicação clara • Raciocínio rápido • Organização e precisão • Abertura para aprender sempre  Remuneração 2.400,00+ Adicioal Noturno  VR de 33,00 ao Dia  Seguro de Vida  Previdência Privada  TotalPass  VT (Pago em Dinheiro)  Assistência Médica Bradesco ( pago 70  pela Empresa )  Assistência Odontológica Porto Seguro ( pago 50  pela Empresa )  Incentivos educacionais e parcerias com universidades  vaga Totalmente Presencial, Escala 12x36 -Noturno - Liberdade || Empresa .....:  3CORPTECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="I736" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>82921</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Analista de TI</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>•	Atendimento a chamados, backups, instalação e manutenção de computadores, Windows, Linux, inventário de computadores, renovação de equipamentos, orçamentos, negociação com fornecedores, Fortigate, AD DC, DNS, Unify Ubiquiti, OCI, Oracle database, MDM, ibm, VPN. •   M365, Teams, Outlook, PowerBI, Banco de dados, Redes de computadores, Backup Veeam, Redes. •	Suporte em Infraestrutura. •	Avaliação de melhorias e performance de rede, segurança e inovações. •	Controle de contratos de infra, contas e pagamentos a fornecedores. •	Validação Backup semanal, inventário de parque de computadores e atualização semanal. •	Auditoria de acessos interno com revisão de redes, arquivos, dispositivos, auxiliando na segurança da infra. •	Participação de projetos globais de infra para atendimento de demandas da matriz.  Salário: R$ 3.450,00/mês. •	Seguro Saúde Bradesco Seguro Odonto Sul América, Seguro de Vida, VR 35,00 por dia, VT e PLR  Vaga presencial (próx a Paulista)
+Empresa .....:  QUI VAGAS CONSULTORIA DE RH</t>
+        </is>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Analista de TI || •	Atendimento a chamados, backups, instalação e manutenção de computadores, Windows, Linux, inventário de computadores, renovação de equipamentos, orçamentos, negociação com fornecedores, Fortigate, AD DC, DNS, Unify Ubiquiti, OCI, Oracle database, MDM, ibm, VPN. •   M365, Teams, Outlook, PowerBI, Banco de dados, Redes de computadores, Backup Veeam, Redes. •	Suporte em Infraestrutura. •	Avaliação de melhorias e performance de rede, segurança e inovações. •	Controle de contratos de infra, contas e pagamentos a fornecedores. •	Validação Backup semanal, inventário de parque de computadores e atualização semanal. •	Auditoria de acessos interno com revisão de redes, arquivos, dispositivos, auxiliando na segurança da infra. •	Participação de projetos globais de infra para atendimento de demandas da matriz.  Salário: R$ 3.450,00/mês. •	Seguro Saúde Bradesco Seguro Odonto Sul América, Seguro de Vida, VR 35,00 por dia, VT e PLR  Vaga presencial (próx a Paulista) || Empresa .....:  QUI VAGAS CONSULTORIA DE RH</t>
+        </is>
+      </c>
+      <c r="I737" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>82469</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>ANALISTA SISTEMAS SUSTENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>ANALISTA SUSTENTAÇÃO DE SISTEMAS SÊNIOR PRESENCIAL SÃO PAULO  Experiência em sustentação/implantação de sistemas críticos no mercado financeiro. Domínio de integrações (APIs REST, mensageria), bancos de dados (Oracle/SQL Server/MySQL), queries/otimização e leitura de logs. Sistemas Operacionais Linux e Windows. Experiência com Infraestrutura, segurança da informação e redes. Experiência nas áreas de Governança/Compliance (evidências, auditoria) e gestão de fornecedores/SLAs.  Contratação PJ: 4 dias presenciais e 1 dia home office
+Empresa .....:  ARTIUM SOLUÇÕES</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || ANALISTA SISTEMAS SUSTENTAÇÃO || ANALISTA SUSTENTAÇÃO DE SISTEMAS SÊNIOR PRESENCIAL SÃO PAULO  Experiência em sustentação/implantação de sistemas críticos no mercado financeiro. Domínio de integrações (APIs REST, mensageria), bancos de dados (Oracle/SQL Server/MySQL), queries/otimização e leitura de logs. Sistemas Operacionais Linux e Windows. Experiência com Infraestrutura, segurança da informação e redes. Experiência nas áreas de Governança/Compliance (evidências, auditoria) e gestão de fornecedores/SLAs.  Contratação PJ: 4 dias presenciais e 1 dia home office || Empresa .....:  ARTIUM SOLUÇÕES</t>
+        </is>
+      </c>
+      <c r="I738" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>82694</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Arquiteto de Integração</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>O Arquiteto de Integração é responsável por projetar, definir e supervisionar soluções de integração entre sistemas corporativos, produtivos e laboratoriais, garantindo que a troca de dados seja segura, rastreável, eficiente e aderente às diretrizes regulatórias e operacionais da indústria. Atua como referência técnica na arquitetura de integração, promovendo interoperabilidade, padronização e governança em todo o ecossistema tecnológico.  O QUE ESPERAMOS DE VOCÊ: Graduação Completa Engenharia da Computação, Ciência da Computação, Sistemas de Informação, Engenharia de Software ou áreas correlatas Conhecimento em Arquiteturas híbridas e integrações entre ambientes on-premise e cloud Padrões e tecnologias de integração (APIs REST/SOAP, mensageria, ESB, ETL, microsserviços) Boas práticas de arquitetura, segurança, governança e documentação.
+Empresa .....:  Biolab Sanus Farmacêutica</t>
+        </is>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Arquiteto de Integração || O Arquiteto de Integração é responsável por projetar, definir e supervisionar soluções de integração entre sistemas corporativos, produtivos e laboratoriais, garantindo que a troca de dados seja segura, rastreável, eficiente e aderente às diretrizes regulatórias e operacionais da indústria. Atua como referência técnica na arquitetura de integração, promovendo interoperabilidade, padronização e governança em todo o ecossistema tecnológico.  O QUE ESPERAMOS DE VOCÊ: Graduação Completa Engenharia da Computação, Ciência da Computação, Sistemas de Informação, Engenharia de Software ou áreas correlatas Conhecimento em Arquiteturas híbridas e integrações entre ambientes on-premise e cloud Padrões e tecnologias de integração (APIs REST/SOAP, mensageria, ESB, ETL, microsserviços) Boas práticas de arquitetura, segurança, governança e documentação. || Empresa .....:  Biolab Sanus Farmacêutica</t>
+        </is>
+      </c>
+      <c r="I739" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>83564</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Consultor(a) TOTVS Protheus Sênior</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>Consultor(a)TOTVS Protheus Sênior  Modelo: Híbrido (2x presencial na semana) – São Paulo/SP - Morumbi Prazo de Projeto: Até 31/05/2026 (com chance de renovação) Regime de contrato: PJ  Principais requisitos: Experiência sólida em TOTVS Protheus (implantação, suporte ou evolução) Conhecimento em ADVPL Vivência com banco de dados (SQL Server ou Oracle) Atuação em módulos financeiros, contábeis e fiscais Integrações via API / Webservice Disponibilidade para viagens  Inglês avançado/fluente para conversação  Enviar o currículo atualizado em inglês e português.
+Empresa .....:  ITeam</t>
+        </is>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Consultor(a) TOTVS Protheus Sênior || Consultor(a)TOTVS Protheus Sênior  Modelo: Híbrido (2x presencial na semana) – São Paulo/SP - Morumbi Prazo de Projeto: Até 31/05/2026 (com chance de renovação) Regime de contrato: PJ  Principais requisitos: Experiência sólida em TOTVS Protheus (implantação, suporte ou evolução) Conhecimento em ADVPL Vivência com banco de dados (SQL Server ou Oracle) Atuação em módulos financeiros, contábeis e fiscais Integrações via API / Webservice Disponibilidade para viagens  Inglês avançado/fluente para conversação  Enviar o currículo atualizado em inglês e português. || Empresa .....:  ITeam</t>
+        </is>
+      </c>
+      <c r="I740" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>82357</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Coordenador de Operações de TI - BILÍNGUE INGLÊS</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>Atividades: •       Gestão de Operações e Serviços Acompanhar o funcionamento dos serviços de TI utilizados nas lojas (servidores, redes, PDVs, sistemas corporativos etc.). Avaliar e priorizar incidentes críticos, assegurando tratativas rápidas e eficazes. Garantir cumprimento de SLAs e OLAs definidos com clientes internos ou externos. Distribuir tarefas diárias entre analistas e técnicos conforme criticidade e competência técnica. Acompanhar performance individual e coletiva, dando feedback e direcionamento. Promover reuniões rápidas de alinhamento (daily meetings) e reuniões semanais de planejamento. Identificar gaps de capacitação e planejar treinamentos técnicos ou comportamentais.  •       Gestão de Incidentes, Problemas e Requisições Garantir que a equipe efetue registro, categorização e acompanhamento de tickets na ferramenta ITSM. Propor planos de melhoria para incidentes recorrentes.
+Empresa .....:  Engemon IT</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Coordenador de Operações de TI - BILÍNGUE INGLÊS || Atividades: •       Gestão de Operações e Serviços Acompanhar o funcionamento dos serviços de TI utilizados nas lojas (servidores, redes, PDVs, sistemas corporativos etc.). Avaliar e priorizar incidentes críticos, assegurando tratativas rápidas e eficazes. Garantir cumprimento de SLAs e OLAs definidos com clientes internos ou externos. Distribuir tarefas diárias entre analistas e técnicos conforme criticidade e competência técnica. Acompanhar performance individual e coletiva, dando feedback e direcionamento. Promover reuniões rápidas de alinhamento (daily meetings) e reuniões semanais de planejamento. Identificar gaps de capacitação e planejar treinamentos técnicos ou comportamentais.  •       Gestão de Incidentes, Problemas e Requisições Garantir que a equipe efetue registro, categorização e acompanhamento de tickets na ferramenta ITSM. Propor planos de melhoria para incidentes recorrentes. || Empresa .....:  Engemon IT</t>
+        </is>
+      </c>
+      <c r="I741" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>82412</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Desenvolvedor .Net Pleno</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>Experiência com desenvolvimento em .NET Core. Domínio de C# e arquitetura de microserviços. Experiência com SQL Server e modelagem de dados. Conhecimento em Microsoft Visual Studio e GitHub/ Github actions. Facilidade em propor soluções técnicas e não apenas executá-las.  Desenvolver e aprimorar serviços em .NET 8 e C#. Projetar e otimizar bancos de dados SQL Server e Azure SQL. Participar de revisões de código, testes unitários e integração contínua. Colaborar com equipes multifuncionais em metodologias ágeis. Documentar soluções e manter boas práticas de desenvolvimento.  Atuar no modelo presencial, tendo 1 dia remoto por semana. CLT(Proximo da Consolação)
+Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvedor .Net Pleno || Experiência com desenvolvimento em .NET Core. Domínio de C# e arquitetura de microserviços. Experiência com SQL Server e modelagem de dados. Conhecimento em Microsoft Visual Studio e GitHub/ Github actions. Facilidade em propor soluções técnicas e não apenas executá-las.  Desenvolver e aprimorar serviços em .NET 8 e C#. Projetar e otimizar bancos de dados SQL Server e Azure SQL. Participar de revisões de código, testes unitários e integração contínua. Colaborar com equipes multifuncionais em metodologias ágeis. Documentar soluções e manter boas práticas de desenvolvimento.  Atuar no modelo presencial, tendo 1 dia remoto por semana. CLT(Proximo da Consolação) || Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="I742" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>82610</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Desenvolvedor .NET Pleno</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>.NET PLENO  Experiência com C# e .NET Framework/Core Atuação no desenvolvimento de APIs RESTful Experiência com bancos de dados relacionais e não relacionais (SQL Server, PostgreSQL, MongoDB) Experiência com mensageria PUB/SUB (RabbitMQ, entre outros) Uso de cache em aplicações (ex: Redis) Criação e otimização de queries complexas Conhecimentos sólidos em Docker e Kubernetes Experiência com ferramentas como OpenAPI (Swagger), Postman, Git, GitFlow e Jira Vivência em ambientes cloud (preferencialmente GCP) Experiência com observabilidade e monitoramento (ex: Datadog, Dynatrace) Conhecimento em microserviços (comunicação síncrona/assíncrona, Saga Pattern) Compreensão de arquiteturas de alta escala e performance.  Período de Alocação: 12 meses com possibilidade de renovação - PJ Modelo de Alocação: Remoto, com possíveis idas ao cliente pontuais - Zona Oeste/SP
+Empresa .....:  SOW Serviços</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvedor .NET Pleno || .NET PLENO  Experiência com C# e .NET Framework/Core Atuação no desenvolvimento de APIs RESTful Experiência com bancos de dados relacionais e não relacionais (SQL Server, PostgreSQL, MongoDB) Experiência com mensageria PUB/SUB (RabbitMQ, entre outros) Uso de cache em aplicações (ex: Redis) Criação e otimização de queries complexas Conhecimentos sólidos em Docker e Kubernetes Experiência com ferramentas como OpenAPI (Swagger), Postman, Git, GitFlow e Jira Vivência em ambientes cloud (preferencialmente GCP) Experiência com observabilidade e monitoramento (ex: Datadog, Dynatrace) Conhecimento em microserviços (comunicação síncrona/assíncrona, Saga Pattern) Compreensão de arquiteturas de alta escala e performance.  Período de Alocação: 12 meses com possibilidade de renovação - PJ Modelo de Alocação: Remoto, com possíveis idas ao cliente pontuais - Zona Oeste/SP || Empresa .....:  SOW Serviços</t>
+        </is>
+      </c>
+      <c r="I743" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>82325</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Desenvolvedor .NET Sênior</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>A Tech For está com oportunidade para Desenvolvedor (a) Sênior Full Stack .NET com forte atuação JavaScript,  em cliente do segmento bancário.  Modelo híbrido: 2 x semana presenciais situado na região oeste de SP, próximo ao Shopping Eldorado. PJ  Requisitos imprescindíveis: - À partir de 05 anos de experiência comprovada em desenvolvimento de software.  Proficiência em desenvolvimento com: - C# e .NET Framework/Core - MVC, HTML5, CSS3, JavaScript (ES6+) e TypeScript - Frameworks frontend como React ou Angular (diferencial) - SQL Server (Procedure, Function, Triggers, Views) - Web API - Domain-Driven Design (DDD) - Camada de persistência ORM (Dapper) - DevOps (Git/TFS - Azure DevOps). - Habilidades analíticas e conceituais, com capacidade de resolver problemas complexos. - Fortes habilidades didáticas, com capacidade de explicar conceitos técnicos de forma clara e acessível. - Objetividade, fluência verbal e escrita, e postura profissional.
+Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvedor .NET Sênior || A Tech For está com oportunidade para Desenvolvedor (a) Sênior Full Stack .NET com forte atuação JavaScript,  em cliente do segmento bancário.  Modelo híbrido: 2 x semana presenciais situado na região oeste de SP, próximo ao Shopping Eldorado. PJ  Requisitos imprescindíveis: - À partir de 05 anos de experiência comprovada em desenvolvimento de software.  Proficiência em desenvolvimento com: - C# e .NET Framework/Core - MVC, HTML5, CSS3, JavaScript (ES6+) e TypeScript - Frameworks frontend como React ou Angular (diferencial) - SQL Server (Procedure, Function, Triggers, Views) - Web API - Domain-Driven Design (DDD) - Camada de persistência ORM (Dapper) - DevOps (Git/TFS - Azure DevOps). - Habilidades analíticas e conceituais, com capacidade de resolver problemas complexos. - Fortes habilidades didáticas, com capacidade de explicar conceitos técnicos de forma clara e acessível. - Objetividade, fluência verbal e escrita, e postura profissional. || Empresa .....:  Tech For TI</t>
+        </is>
+      </c>
+      <c r="I744" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>82629</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Front End</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>Prazo: 3 meses. com chances de prorrogar Local: Remoto Contratação: PJ  Requisitos: Experiência em desenvolvimento Front End utilizando o framework Angular.
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvedor Front End || Prazo: 3 meses. com chances de prorrogar Local: Remoto Contratação: PJ  Requisitos: Experiência em desenvolvimento Front End utilizando o framework Angular. || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I745" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>83578</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack Python + React</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>Local: São Paulo/SP (Itaim Bibi) ou Curitiba/PR – Híbrido 3x/semana Horário: Comercial  Contrato: CLT  O que você vai fazer: Desenvolver aplicações full stack (Python/FastAPI + React/TypeScript) Trabalhar com bancos de dados relacionais (MySQL/PostgreSQL) Implantar apps em Docker e Kubernetes Integrar sistemas e APIs externas Aplicar DevSecOps e testes automatizados  Requisitos:  - 5+ anos de experiência em full stack  - Python + FastAPI / React + TypeScript  - Inglês avançado  - Docker/Kubernetes e bancos relacionais  Diferenciais: CI/CD, nuvem, DevSecOps, frameworks adicionais (Vue.js, Symfony)
+Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvedor Full Stack Python + React || Local: São Paulo/SP (Itaim Bibi) ou Curitiba/PR – Híbrido 3x/semana Horário: Comercial  Contrato: CLT  O que você vai fazer: Desenvolver aplicações full stack (Python/FastAPI + React/TypeScript) Trabalhar com bancos de dados relacionais (MySQL/PostgreSQL) Implantar apps em Docker e Kubernetes Integrar sistemas e APIs externas Aplicar DevSecOps e testes automatizados  Requisitos:  - 5+ anos de experiência em full stack  - Python + FastAPI / React + TypeScript  - Inglês avançado  - Docker/Kubernetes e bancos relacionais  Diferenciais: CI/CD, nuvem, DevSecOps, frameworks adicionais (Vue.js, Symfony) || Empresa .....:  Ultracon</t>
+        </is>
+      </c>
+      <c r="I746" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>82466</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Full Stack Sênior</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>Atue na sustentação e evolução de plataformas web, criando novas funcionalidades, revisando código e propondo melhorias contínuas.  Requisitos: Domínio em .NET Core (C#), React, JavaScript/TypeScript, MongoDB, SQL Server, CI/CD, Docker e Kubernetes. Certificação AWS é diferencial.
+Empresa .....:  NCM Sistemas e Consultoria Ltda</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvedor Full Stack Sênior || Atue na sustentação e evolução de plataformas web, criando novas funcionalidades, revisando código e propondo melhorias contínuas.  Requisitos: Domínio em .NET Core (C#), React, JavaScript/TypeScript, MongoDB, SQL Server, CI/CD, Docker e Kubernetes. Certificação AWS é diferencial. || Empresa .....:  NCM Sistemas e Consultoria Ltda</t>
+        </is>
+      </c>
+      <c r="I747" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>82635</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Fullstack (.Net Core + Angular)</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>• Back-end: • Experiência em desenvolvimento com .NET C#, versão (4,5, 6, 8) incluindo Framework e Core • Forte domínio de Redis, Oracle PL/SQL, com capacidade de modelar e otimizar grandes volumes de dados em sistemas complexos • Expertise na integração entre sistemas utilizando mensageria com IBM MQSeries, com conhecimento sobre padrões de design distribuído (como Pub/Sub).  • Front-end: • Proficiência em Angular, com habilidades para criar SPAs (Single-Page Applications) otimizadas. • Conhecimento de performance e boas práticas de UX/UI. • Ferramentas e Projetos: • Uso de ferramentas de gestão de projetos como Jira, CA Service Desk Manager (CA SDM) e Service Now futuramente, Confluence para organização e controle de tarefas.
+Empresa .....:  200DEV</t>
+        </is>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvedor Fullstack (.Net Core + Angular) || • Back-end: • Experiência em desenvolvimento com .NET C#, versão (4,5, 6, 8) incluindo Framework e Core • Forte domínio de Redis, Oracle PL/SQL, com capacidade de modelar e otimizar grandes volumes de dados em sistemas complexos • Expertise na integração entre sistemas utilizando mensageria com IBM MQSeries, com conhecimento sobre padrões de design distribuído (como Pub/Sub).  • Front-end: • Proficiência em Angular, com habilidades para criar SPAs (Single-Page Applications) otimizadas. • Conhecimento de performance e boas práticas de UX/UI. • Ferramentas e Projetos: • Uso de ferramentas de gestão de projetos como Jira, CA Service Desk Manager (CA SDM) e Service Now futuramente, Confluence para organização e controle de tarefas. || Empresa .....:  200DEV</t>
+        </is>
+      </c>
+      <c r="I748" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>82311</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Desenvolvedor FullStack Sênior - .Java/Angular</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>Principais Responsabilidades  Desenvolvimento e Arquitetura Implementar soluções utilizando Java 8+, Spring Boot e padrões modernos de arquitetura (Clean Architecture, Hexagonal). Projetar e desenvolver APIs RESTful com boas práticas de versionamento, segurança e escalabilidade. Criar e manter microserviços e contribuir para a migração de sistemas monolíticos para AWS.  Requisitos Técnicos (Hard Skills)  Java 8+ (streams, lambdas, API de datas). Angular 8+. Spring Boot (MVC, Data, Security). APIs RESTful com boas práticas. Bancos relacionais (PostgreSQL, desejável DB2). Git/GitHub, GitHub Actions, Maven, SonarQube, Nexus. Testes automatizados (JUnit, Mockito). Experiência com microserviços, arquitetura distribuída e cloud (AWS). Conhecimentos em segurança (criptografia, certificados digitais). Desejável: arquitetura orientada a eventos, ferramentas de transferência de arquivos (Connect Direct, XFB, CFT).
+Empresa .....:  RHTalentos</t>
+        </is>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvedor FullStack Sênior - .Java/Angular || Principais Responsabilidades  Desenvolvimento e Arquitetura Implementar soluções utilizando Java 8+, Spring Boot e padrões modernos de arquitetura (Clean Architecture, Hexagonal). Projetar e desenvolver APIs RESTful com boas práticas de versionamento, segurança e escalabilidade. Criar e manter microserviços e contribuir para a migração de sistemas monolíticos para AWS.  Requisitos Técnicos (Hard Skills)  Java 8+ (streams, lambdas, API de datas). Angular 8+. Spring Boot (MVC, Data, Security). APIs RESTful com boas práticas. Bancos relacionais (PostgreSQL, desejável DB2). Git/GitHub, GitHub Actions, Maven, SonarQube, Nexus. Testes automatizados (JUnit, Mockito). Experiência com microserviços, arquitetura distribuída e cloud (AWS). Conhecimentos em segurança (criptografia, certificados digitais). Desejável: arquitetura orientada a eventos, ferramentas de transferência de arquivos (Connect Direct, XFB, CFT). || Empresa .....:  RHTalentos</t>
+        </is>
+      </c>
+      <c r="I749" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>82436</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Java</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>REQUISITOS E QUALIFICAÇÕES  Como requisitos necessários, precisamos que você tenha:  Graduação em Ciência da Computação, Engenharia de Software ou áreas afins. Experiência com desenvolvimento em JAVA e nos frameworks Spring MVC e Spring Boot Histórico do projeto de varejo/comércio eletrônico Experiência com desenvolvimento orientado a testes e frameworks de testes automatizados, como JUnit. Familiaridade com Git, pipelines de CI/CD e metodologias de desenvolvimento Ágil Inglês Intermediário.  Será um diferencial se você tiver: Experiência com projeto de E-commerce desenvolvidos em plataforma Hybris (SAP Commerce Cloud) Experiência com plataformas de nuvem (AWS, Azure ou SAP Cloud Platform). Espanhol básico
+Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvedor Java || REQUISITOS E QUALIFICAÇÕES  Como requisitos necessários, precisamos que você tenha:  Graduação em Ciência da Computação, Engenharia de Software ou áreas afins. Experiência com desenvolvimento em JAVA e nos frameworks Spring MVC e Spring Boot Histórico do projeto de varejo/comércio eletrônico Experiência com desenvolvimento orientado a testes e frameworks de testes automatizados, como JUnit. Familiaridade com Git, pipelines de CI/CD e metodologias de desenvolvimento Ágil Inglês Intermediário.  Será um diferencial se você tiver: Experiência com projeto de E-commerce desenvolvidos em plataforma Hybris (SAP Commerce Cloud) Experiência com plataformas de nuvem (AWS, Azure ou SAP Cloud Platform). Espanhol básico || Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="I750" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>82772</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR JAVA JÚNIOR  - HÍBRIDO SÃO PAULO/SP</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT+ Benefícios  Objetivo do Cargo: Profissional Junior com base sólida em programação e forte adaptabilidade tecnológica. Possuir experiência inicial com Java, mas mantém postura flexível, aberta e orientada ao aprendizado, permitindo atuar com tranquilidade também em Python, C# e outras linguagens quando necessário. Demonstra curiosidade, boa comunicação e capacidade de colaboração, além de equilíbrio emocional em cenários de pressão.  Requisitos: •	Fundamentos de Programação: lógica bem estruturada, conhecimento de algoritmos, estruturas de dados e noções de arquitetura de software. •	Linguagens Principais: •	Java (nível júnior) •	Python (bom domínio para automações e scripts) •	C# (familiaridade com desenvolvimento desktop e serviços) •	Multiplataforma: •	Desenvolvimento web (HTML, CSS, JavaScript, APIs REST) •	Aplicações desktop (JavaFX, .NET WPF/WinForms)
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || DESENVOLVEDOR JAVA JÚNIOR  - HÍBRIDO SÃO PAULO/SP || ATUAÇÃO HÍBRIDA 3X POR SEMANA NO BAIRRO DO MORUMBI, ZONA SUL DE SÃO PAULO/SP Contratação CLT+ Benefícios  Objetivo do Cargo: Profissional Junior com base sólida em programação e forte adaptabilidade tecnológica. Possuir experiência inicial com Java, mas mantém postura flexível, aberta e orientada ao aprendizado, permitindo atuar com tranquilidade também em Python, C# e outras linguagens quando necessário. Demonstra curiosidade, boa comunicação e capacidade de colaboração, além de equilíbrio emocional em cenários de pressão.  Requisitos: •	Fundamentos de Programação: lógica bem estruturada, conhecimento de algoritmos, estruturas de dados e noções de arquitetura de software. •	Linguagens Principais: •	Java (nível júnior) •	Python (bom domínio para automações e scripts) •	C# (familiaridade com desenvolvimento desktop e serviços) •	Multiplataforma: •	Desenvolvimento web (HTML, CSS, JavaScript, APIs REST) •	Aplicações desktop (JavaFX, .NET WPF/WinForms) || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I751" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>83566</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR JUNIOR I / URGENTE</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Júnior</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>Atuar no desenvolvimento e manutenção de aplicações utilizando C# .NET (Web Forms). Criar e ajustar consultas e procedimentos em SQL Server. Implementar funcionalidades no front-end utilizando JavaScript e jQuery. Realizar correções de bugs, melhorias e novas implementações no sistema. Trabalhar em conjunto com outros desenvolvedores para evoluir aplicações internas.  Requisitos Técnicos: Conhecimentos básicos em C# .NET com foco em Web Forms e MVC. Experiência com SQL (consultas, inserts, updates e joins). Experiência em JavaScript e jQuery. Capacidade de compreender código legado e aplicar boas práticas.  IA será um diferencial.
+Empresa .....:  VIGNA ADVOGADOS ASSOCIADOS</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || DESENVOLVEDOR JUNIOR I / URGENTE || Atuar no desenvolvimento e manutenção de aplicações utilizando C# .NET (Web Forms). Criar e ajustar consultas e procedimentos em SQL Server. Implementar funcionalidades no front-end utilizando JavaScript e jQuery. Realizar correções de bugs, melhorias e novas implementações no sistema. Trabalhar em conjunto com outros desenvolvedores para evoluir aplicações internas.  Requisitos Técnicos: Conhecimentos básicos em C# .NET com foco em Web Forms e MVC. Experiência com SQL (consultas, inserts, updates e joins). Experiência em JavaScript e jQuery. Capacidade de compreender código legado e aplicar boas práticas.  IA será um diferencial. || Empresa .....:  VIGNA ADVOGADOS ASSOCIADOS</t>
+        </is>
+      </c>
+      <c r="I752" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>83568</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR REACT / REACT NATIVE SÊNIOR - INGLÊS</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>Atuação Totalmente remota Contratação PJ  Requisitos Mandatórios: •	INGLÊS AVANÇADO (MANDATÓRIO, INTERAÇÃO COM TIME GLOBAL) •	Imprescindível Experiência com React e React Native essenciais •	Experiência com Node Js •	Conhecimento nativo (iOS ou Android) diferencial •	Conhecimento de ciclo de vida •	Componentes •	Hooks •	Gerenciamento de estado •	Navegação •	Banco de Dados SQL •	APIs •	Arquitetura de boas práticas  Diferencial: - Ter atuado em um aplicativo móvel complexo - Conhecer TypeScript - Conhecer Expo, CI e CD também são diferenciais.  Atribuições: - Desenvolver e manter aplicativos móveis, alocações web e backend, utilizando React Native, React e node.js - Colaborar com times multidisciplinares, realizando a integração de novos recursos e soluções. - Participar de revisões de código e testes para garantir a entrega de soluções eficientes e escaláveis.
+Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || DESENVOLVEDOR REACT / REACT NATIVE SÊNIOR - INGLÊS || Atuação Totalmente remota Contratação PJ  Requisitos Mandatórios: •	INGLÊS AVANÇADO (MANDATÓRIO, INTERAÇÃO COM TIME GLOBAL) •	Imprescindível Experiência com React e React Native essenciais •	Experiência com Node Js •	Conhecimento nativo (iOS ou Android) diferencial •	Conhecimento de ciclo de vida •	Componentes •	Hooks •	Gerenciamento de estado •	Navegação •	Banco de Dados SQL •	APIs •	Arquitetura de boas práticas  Diferencial: - Ter atuado em um aplicativo móvel complexo - Conhecer TypeScript - Conhecer Expo, CI e CD também são diferenciais.  Atribuições: - Desenvolver e manter aplicativos móveis, alocações web e backend, utilizando React Native, React e node.js - Colaborar com times multidisciplinares, realizando a integração de novos recursos e soluções. - Participar de revisões de código e testes para garantir a entrega de soluções eficientes e escaláveis. || Empresa .....:  KLB Group</t>
+        </is>
+      </c>
+      <c r="I753" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>82233</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Desenvolvimento Fullstack Sênior</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>Alto conhecimento em ASP Classico .NET Framework (Asp .NET , C# , MVC),  iReport (Jaspter) Delphi 5 Familiaridade com Git e fluxo de CI/CD (preferencialmente no Azure DevOps) Conhecimento em Docker
+Empresa .....:  WTime</t>
+        </is>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Desenvolvimento Fullstack Sênior || Alto conhecimento em ASP Classico .NET Framework (Asp .NET , C# , MVC),  iReport (Jaspter) Delphi 5 Familiaridade com Git e fluxo de CI/CD (preferencialmente no Azure DevOps) Conhecimento em Docker || Empresa .....:  WTime</t>
+        </is>
+      </c>
+      <c r="I754" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>83562</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Engenheiro DevOps Pleno</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Pleno</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>Engenheiro DevOps Pleno Forma de atendimento: São Paulo – Zona Sul/Oeste Modelo de trabalho: Híbrido (2 presenciais, 3 remotos) Duração do contrato: 12 meses  Requisitos: Inglês: Avançado ou Fluente OpenShift - Intermediate Jenkins - Intermediate UNIX Shell - Intermediate Git -  Basic Ansible - Intermediate Kibana - Basic Windows- Intermediate JIRA - Intermediate Gradle -  Basic Dynatrace -  Basic AWS (Amazon Web Services) -  Basic
+Empresa .....:  WA FENIX IT SERVICES  SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Engenheiro DevOps Pleno || Engenheiro DevOps Pleno Forma de atendimento: São Paulo – Zona Sul/Oeste Modelo de trabalho: Híbrido (2 presenciais, 3 remotos) Duração do contrato: 12 meses  Requisitos: Inglês: Avançado ou Fluente OpenShift - Intermediate Jenkins - Intermediate UNIX Shell - Intermediate Git -  Basic Ansible - Intermediate Kibana - Basic Windows- Intermediate JIRA - Intermediate Gradle -  Basic Dynatrace -  Basic AWS (Amazon Web Services) -  Basic || Empresa .....:  WA FENIX IT SERVICES  SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="I755" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>83563</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Especialista DBA SQL</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Especialista DBA SQL  Modelo: Híbrido (3x presencial na semana) – São Paulo/SP - Morumbi Prazo de Projeto: 2 meses Regime de contrato: PJ  Principais requisitos: DBA SQL Server avançado Forte atuação em tuning e performance (queries, índices, particionamento) Experiência com configuração e otimização de ambiente SQL Server Conhecimento em SQL / T-SQL / PowerShell Experiência com criptografia de dados Vivência com SSIS e SSRS  Necessário: Inglês avançado para conversação  Enviar o currículo em português e inglês.
+Empresa .....:  ITeam</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Especialista DBA SQL || Especialista DBA SQL  Modelo: Híbrido (3x presencial na semana) – São Paulo/SP - Morumbi Prazo de Projeto: 2 meses Regime de contrato: PJ  Principais requisitos: DBA SQL Server avançado Forte atuação em tuning e performance (queries, índices, particionamento) Experiência com configuração e otimização de ambiente SQL Server Conhecimento em SQL / T-SQL / PowerShell Experiência com criptografia de dados Vivência com SSIS e SSRS  Necessário: Inglês avançado para conversação  Enviar o currículo em português e inglês. || Empresa .....:  ITeam</t>
+        </is>
+      </c>
+      <c r="I756" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>83561</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Especialista Desenvolvedor Java Sênior (híbrido)</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>Função: Especialista Desenvolvedor Java Sênior Nivel: Sênior Local: Híbrido  Idioma: Proficiência em inglês, escrito e falado, necessária para comunicação eficaz em um ambiente internacional (mínimo nível B2)  Período: 12 meses ( possibilidade de prorrogação)  Requisitos obrigatórios: •	Experiência prática em desenvolvimento Java em tempo real, com histórico comprovado na entrega de soluções robustas e de alto desempenho •	Experiência sólida com GitHub e JaCoCo (Java Code Coverage).  Experiência altamente desejável: •	Experiência comprovada na implementação de soluções utilizando o produto Caplin •	Experiência sólida com o protocolo FIX, incluindo desenho e implementação de integrações baseadas em FIX.  Competências desejáveis: •	Experiência prática com Node.js, especialmente em contextos financeiros
+Empresa .....:  WA Fênix IT Service  Solutions</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Especialista Desenvolvedor Java Sênior (híbrido) || Função: Especialista Desenvolvedor Java Sênior Nivel: Sênior Local: Híbrido  Idioma: Proficiência em inglês, escrito e falado, necessária para comunicação eficaz em um ambiente internacional (mínimo nível B2)  Período: 12 meses ( possibilidade de prorrogação)  Requisitos obrigatórios: •	Experiência prática em desenvolvimento Java em tempo real, com histórico comprovado na entrega de soluções robustas e de alto desempenho •	Experiência sólida com GitHub e JaCoCo (Java Code Coverage).  Experiência altamente desejável: •	Experiência comprovada na implementação de soluções utilizando o produto Caplin •	Experiência sólida com o protocolo FIX, incluindo desenho e implementação de integrações baseadas em FIX.  Competências desejáveis: •	Experiência prática com Node.js, especialmente em contextos financeiros || Empresa .....:  WA Fênix IT Service  Solutions</t>
+        </is>
+      </c>
+      <c r="I757" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>82961</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Gerente de Projeto de TI</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>Requisitos: Graduação obrigatória em áreas de Exatas: TI, Engenharia da Computação, Ciência da Computação, Física, Química, Matemática, Estatística, Análise de Sistemas ou correlatas  Conhecimentos técnicos: PMBOK (ênfase em WBS) Modelagem Relacional e Não Relacional (SQL / NoSQL) Métricas de Qualidade de Software e testes automatizados  Responsabilidades Planejar, executar e controlar projetos de TI (metodologia PMI) Gerenciar problemas, promovendo colaboração e comunicação eficaz Coleta de requisitos, gestão de escopo, WBS e cronogramas Interface entre TI e áreas de negócio / stakeholders Priorizar demandas junto à diretoria Gestão de portfólio de projetos (sistemas, infraestrutura e fornecedores) Reportes executivos semanais (status, riscos e recomendações) Garantir entregas, ajustando escopo, prazos e recursos Alinhamento de times internos e parceiros externos Condução de reuniões mensais de performance Atuação em Governança e Compliance
+Empresa .....:  Ivo Services</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Gerente de Projeto de TI || Requisitos: Graduação obrigatória em áreas de Exatas: TI, Engenharia da Computação, Ciência da Computação, Física, Química, Matemática, Estatística, Análise de Sistemas ou correlatas  Conhecimentos técnicos: PMBOK (ênfase em WBS) Modelagem Relacional e Não Relacional (SQL / NoSQL) Métricas de Qualidade de Software e testes automatizados  Responsabilidades Planejar, executar e controlar projetos de TI (metodologia PMI) Gerenciar problemas, promovendo colaboração e comunicação eficaz Coleta de requisitos, gestão de escopo, WBS e cronogramas Interface entre TI e áreas de negócio / stakeholders Priorizar demandas junto à diretoria Gestão de portfólio de projetos (sistemas, infraestrutura e fornecedores) Reportes executivos semanais (status, riscos e recomendações) Garantir entregas, ajustando escopo, prazos e recursos Alinhamento de times internos e parceiros externos Condução de reuniões mensais de performance Atuação em Governança e Compliance || Empresa .....:  Ivo Services</t>
+        </is>
+      </c>
+      <c r="I758" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>83570</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Gerente de Projeto de TI</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>Vaga: Especialista em Gestão de Projetos de TI Atuação híbrida (2 dias home office e 3 presenciais – Zona Leste e Zona Sul/SP), modelo cooperado, com informar pretensão salarial.  Responsável por planejar, executar e controlar projetos de TI com base na metodologia PMI, atuando na coleta de requisitos, gestão de escopo, WBS, cronograma, orçamento e riscos. Fará a interface entre TI e áreas de negócio, apoiando a diretoria na priorização de demandas e garantindo o alinhamento estratégico dos projetos.  Atuará na gestão do portfólio de projetos, acompanhamento de parceiros externos, governança e compliance, além da elaboração de reportes executivos semanais com indicadores, riscos e ajustes necessários para garantir a entrega dos projetos.  Requisitos: graduação em TI ou áreas de exatas, domínio de PMBOK/WBS, conhecimentos em SQL e NoSQL, métricas de qualidade de software, boa comunicação, organização, foco em resultados e inglês intermediário.
+Empresa .....:  IVO SERVICES TECH RECRUIT</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Gerente de Projeto de TI || Vaga: Especialista em Gestão de Projetos de TI Atuação híbrida (2 dias home office e 3 presenciais – Zona Leste e Zona Sul/SP), modelo cooperado, com informar pretensão salarial.  Responsável por planejar, executar e controlar projetos de TI com base na metodologia PMI, atuando na coleta de requisitos, gestão de escopo, WBS, cronograma, orçamento e riscos. Fará a interface entre TI e áreas de negócio, apoiando a diretoria na priorização de demandas e garantindo o alinhamento estratégico dos projetos.  Atuará na gestão do portfólio de projetos, acompanhamento de parceiros externos, governança e compliance, além da elaboração de reportes executivos semanais com indicadores, riscos e ajustes necessários para garantir a entrega dos projetos.  Requisitos: graduação em TI ou áreas de exatas, domínio de PMBOK/WBS, conhecimentos em SQL e NoSQL, métricas de qualidade de software, boa comunicação, organização, foco em resultados e inglês intermediário. || Empresa .....:  IVO SERVICES TECH RECRUIT</t>
+        </is>
+      </c>
+      <c r="I759" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>82246</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>PM / PO Especialista - Híbrido SP</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>Estamos em busca de um(a) Product Owner. Para atuar em uma das maiores empresas varejista farmacêutica do Brasil.  Profissional será responsável por liderar estratégias de produto e inovação, com foco em identificar oportunidades de crescimento, estruturar hipóteses de negócio e traduzir insights em soluções de alto impacto. Atuará na coordenação de múltiplos squads, garantindo alinhamento entre as áreas de produto, design e tecnologia, além de gerenciar indicadores (OKRs, KPIs) e assegurar entregas com eficiência e coerência estratégica. Deverá promover uma liderança colaborativa e orientada por dados, facilitando processos de discovery, prototipagem e validação de ideias, sempre equilibrando valor ao usuário e viabilidade técnica. O papel também exige forte capacidade de comunicação e influência, elaborando apresentações executivas, relatórios e narrativas estratégicas para o C-Level. Experiência com IA generativa, Team Topologies, DevOps, dual-track agile.
+Empresa .....:  3CON Consultoria e Sistemas S/A</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || PM / PO Especialista - Híbrido SP || Estamos em busca de um(a) Product Owner. Para atuar em uma das maiores empresas varejista farmacêutica do Brasil.  Profissional será responsável por liderar estratégias de produto e inovação, com foco em identificar oportunidades de crescimento, estruturar hipóteses de negócio e traduzir insights em soluções de alto impacto. Atuará na coordenação de múltiplos squads, garantindo alinhamento entre as áreas de produto, design e tecnologia, além de gerenciar indicadores (OKRs, KPIs) e assegurar entregas com eficiência e coerência estratégica. Deverá promover uma liderança colaborativa e orientada por dados, facilitando processos de discovery, prototipagem e validação de ideias, sempre equilibrando valor ao usuário e viabilidade técnica. O papel também exige forte capacidade de comunicação e influência, elaborando apresentações executivas, relatórios e narrativas estratégicas para o C-Level. Experiência com IA generativa, Team Topologies, DevOps, dual-track agile. || Empresa .....:  3CON Consultoria e Sistemas S/A</t>
+        </is>
+      </c>
+      <c r="I760" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>82414</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>PMO - Seguros</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>Experiência em PMO ou gestão de projetos no setor segurador. Conhecimento em ferramentas de gestão: MS Project, Jira, Confluence, Power BI. Familiaridade com normas regulatórias do setor de seguros (ex.: SUSEP, Solvência II).  Atuaando no planejamento, monitoramento e otimização de projetos, colaborando com equipes multidisciplinares e stakeholders de alto nível.  Responsabilidades principais: Atuar como ponto central para governança de projetos, garantindo alinhamento com as diretrizes corporativas e regulatórias do setor de seguros. Desenvolver e manter metodologias, templates e indicadores de performance (KPIs) para gestão de projetos. Coordenar reuniões de status, reportando progresso, riscos e planos de mitigação para stakeholders internos e externos. Garantir comunicação clara e eficaz em inglês e espanhol com equipes globais, fornecedores e parceiros. Apoiar a integração de sistemas e processos relacionados a seguros, compliance e gestão de riscos.  Presencial/PJ
+Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || PMO - Seguros || Experiência em PMO ou gestão de projetos no setor segurador. Conhecimento em ferramentas de gestão: MS Project, Jira, Confluence, Power BI. Familiaridade com normas regulatórias do setor de seguros (ex.: SUSEP, Solvência II).  Atuaando no planejamento, monitoramento e otimização de projetos, colaborando com equipes multidisciplinares e stakeholders de alto nível.  Responsabilidades principais: Atuar como ponto central para governança de projetos, garantindo alinhamento com as diretrizes corporativas e regulatórias do setor de seguros. Desenvolver e manter metodologias, templates e indicadores de performance (KPIs) para gestão de projetos. Coordenar reuniões de status, reportando progresso, riscos e planos de mitigação para stakeholders internos e externos. Garantir comunicação clara e eficaz em inglês e espanhol com equipes globais, fornecedores e parceiros. Apoiar a integração de sistemas e processos relacionados a seguros, compliance e gestão de riscos.  Presencial/PJ || Empresa .....:  GlobalTI</t>
+        </is>
+      </c>
+      <c r="I761" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>83560</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>PROGRAMADOR</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>Atuar no desenvolvimento e manutenção de sistemas, analisando as especificações funcionais e técnicas do produto para compreender as necessidades de desenvolvimento, esclarecer dúvidas e alinhar o escopo junto ao Analista de Sistemas. Desmembrar funcionalidades em etapas, estimar prazos, registrar tarefas no sistema SSA e elaborar código, banco de dados, tabelas, scripts e demais componentes necessários. Realizar testes unitários para garantir qualidade, consistência e integridade das funcionalidades, registrar comentários no código e no TFS, gerar versões do projeto, publicar, liberar para testes e realizar ajustes conforme especificações. Utilizar linguagens e tecnologias como ASP Clássico (VB), C#/.NET Core, ASP.NET MVC, Razor, WebForms, JavaScript, HTML5, CSS3, jQuery, SOAP, REST, Web APIs, Bootstrap, Entity Framework, Dapper e SQL Server.  Enviar cv com pretensão salarial CLT E PJ.
+Empresa .....:  CH MASTER DATA</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || PROGRAMADOR || Atuar no desenvolvimento e manutenção de sistemas, analisando as especificações funcionais e técnicas do produto para compreender as necessidades de desenvolvimento, esclarecer dúvidas e alinhar o escopo junto ao Analista de Sistemas. Desmembrar funcionalidades em etapas, estimar prazos, registrar tarefas no sistema SSA e elaborar código, banco de dados, tabelas, scripts e demais componentes necessários. Realizar testes unitários para garantir qualidade, consistência e integridade das funcionalidades, registrar comentários no código e no TFS, gerar versões do projeto, publicar, liberar para testes e realizar ajustes conforme especificações. Utilizar linguagens e tecnologias como ASP Clássico (VB), C#/.NET Core, ASP.NET MVC, Razor, WebForms, JavaScript, HTML5, CSS3, jQuery, SOAP, REST, Web APIs, Bootstrap, Entity Framework, Dapper e SQL Server.  Enviar cv com pretensão salarial CLT E PJ. || Empresa .....:  CH MASTER DATA</t>
+        </is>
+      </c>
+      <c r="I762" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>83559</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>PROGRAMADOR ASP.CLASSICO</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>Atuar no desenvolvimento e manutenção de sistemas, analisando as especificações funcionais e técnicas do produto para compreender as necessidades de desenvolvimento, esclarecer dúvidas e alinhar o escopo junto ao Analista de Sistemas. Desmembrar funcionalidades em etapas, estimar prazos, registrar tarefas no sistema SSA e elaborar código, banco de dados, tabelas, scripts e demais componentes necessários. Realizar testes unitários para garantir qualidade, consistência e integridade das funcionalidades, registrar comentários no código e no TFS, gerar versões do projeto, publicar, liberar para testes e realizar ajustes conforme especificações. Utilizar linguagens e tecnologias como ASP Clássico (VB), C#/.NET Core, ASP.NET MVC, Razor, WebForms, JavaScript, HTML5, CSS3, jQuery, SOAP, REST, Web APIs, Bootstrap, Entity Framework, Dapper e SQL Server.  Enviar cv com pretensão salarial CLT E PJ.
+Empresa .....:  CH MASTER DATA</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || PROGRAMADOR ASP.CLASSICO || Atuar no desenvolvimento e manutenção de sistemas, analisando as especificações funcionais e técnicas do produto para compreender as necessidades de desenvolvimento, esclarecer dúvidas e alinhar o escopo junto ao Analista de Sistemas. Desmembrar funcionalidades em etapas, estimar prazos, registrar tarefas no sistema SSA e elaborar código, banco de dados, tabelas, scripts e demais componentes necessários. Realizar testes unitários para garantir qualidade, consistência e integridade das funcionalidades, registrar comentários no código e no TFS, gerar versões do projeto, publicar, liberar para testes e realizar ajustes conforme especificações. Utilizar linguagens e tecnologias como ASP Clássico (VB), C#/.NET Core, ASP.NET MVC, Razor, WebForms, JavaScript, HTML5, CSS3, jQuery, SOAP, REST, Web APIs, Bootstrap, Entity Framework, Dapper e SQL Server.  Enviar cv com pretensão salarial CLT E PJ. || Empresa .....:  CH MASTER DATA</t>
+        </is>
+      </c>
+      <c r="I763" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>83575</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>SAP FICO - VERTEX</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>Oportunidade para atuar com foco em integração de soluções fiscais e configuração de módulos financeiros em ambiente SAP.  Principais Responsabilidades: Integração Vertex: Configurar e suportar o Vertex (Tax Product Category, Tax Assist Rules) no S/4HANA ou ECC para cálculos de Sales  Use Tax e VAT.  Configuração FICO: Atuar em nível avançado nos sub-módulos GL, AP, AR, Asset Accounting e CCA/CO-PA.  Gestão de Requisitos Fiscais: Traduzir necessidades de negócio em especificações técnicas, garantindo conformidade com regulamentações globais e locais.  Liderança Funcional: Comandar o design, testes (SIT/UAT) e troubleshoot de APIs e Web Services entre SAP e Vertex.  Colaboração: Alinhamento com os times de SD (O2C) e MM (P2P) para determinação de impostos.  Requisitos: Inglês Avançado (imprescindível para conversação).  Modelo de trabalho Híbrido em São Paulo (SP).
+Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || SAP FICO - VERTEX || Oportunidade para atuar com foco em integração de soluções fiscais e configuração de módulos financeiros em ambiente SAP.  Principais Responsabilidades: Integração Vertex: Configurar e suportar o Vertex (Tax Product Category, Tax Assist Rules) no S/4HANA ou ECC para cálculos de Sales  Use Tax e VAT.  Configuração FICO: Atuar em nível avançado nos sub-módulos GL, AP, AR, Asset Accounting e CCA/CO-PA.  Gestão de Requisitos Fiscais: Traduzir necessidades de negócio em especificações técnicas, garantindo conformidade com regulamentações globais e locais.  Liderança Funcional: Comandar o design, testes (SIT/UAT) e troubleshoot de APIs e Web Services entre SAP e Vertex.  Colaboração: Alinhamento com os times de SD (O2C) e MM (P2P) para determinação de impostos.  Requisitos: Inglês Avançado (imprescindível para conversação).  Modelo de trabalho Híbrido em São Paulo (SP). || Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="I764" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>82859</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Supervisor de Operações de TI</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>Gestão de Equipes: Liderar, treinar e coordenar Técnicos de Suporte Jr. l, ll, e lll. Conhecimento em gestão de quadro de funcionários, dimensionamento por demanda. Conhecimento em gestão de escala de trabalho de colaboradores. Infraestrutura: Supervisionar servidores, redes (LAN/WAN), bancos de dados, storage, backup e segurança (firewall, antivírus). Suporte Técnico: Gerenciar a equipe de suporte (help desk), garantindo a resolução rápida de problemas (preventiva e corretiva). Conhecimento em gestão de tickets e dimensionamento de chamados e SLA. Segurança da Informação: Fazer cumprir políticas de segurança e monitorar o controle de acesso e dados. Relacionamento com o Negócio: Identificar necessidades e propor soluções tecnológicas alinhadas aos objetivos da empresa.  Formação: Graduação em Ciência da Computação, Sistemas de Informação ou áreas correlatas. Metodologias: Conhecimento em ITIL e COBIT é um diferencial.
+Empresa .....:  randstad Brasil</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Supervisor de Operações de TI || Gestão de Equipes: Liderar, treinar e coordenar Técnicos de Suporte Jr. l, ll, e lll. Conhecimento em gestão de quadro de funcionários, dimensionamento por demanda. Conhecimento em gestão de escala de trabalho de colaboradores. Infraestrutura: Supervisionar servidores, redes (LAN/WAN), bancos de dados, storage, backup e segurança (firewall, antivírus). Suporte Técnico: Gerenciar a equipe de suporte (help desk), garantindo a resolução rápida de problemas (preventiva e corretiva). Conhecimento em gestão de tickets e dimensionamento de chamados e SLA. Segurança da Informação: Fazer cumprir políticas de segurança e monitorar o controle de acesso e dados. Relacionamento com o Negócio: Identificar necessidades e propor soluções tecnológicas alinhadas aos objetivos da empresa.  Formação: Graduação em Ciência da Computação, Sistemas de Informação ou áreas correlatas. Metodologias: Conhecimento em ITIL e COBIT é um diferencial. || Empresa .....:  randstad Brasil</t>
+        </is>
+      </c>
+      <c r="I765" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>82430</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Supervisor de Service Desk - DrJoe Technology</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>- Gestão de equipe: Liderar o time de Service Desk (Níveis 1 e 2) com foco em desenvolvimento e resultados - Monitoramento de SLA: Acompanhar indicadores de performance e garantir cumprimento dos acordos com clientes - Melhoria contínua: Garantir aderência aos procedimentos operacionais e propor melhorias nos processos - Suporte técnico ativo: Apoiar o time no atendimento de Nível 1 e 2 quando necessário - Controle de qualidade: Realizar análises de qualidade e gerar relatórios de performance - Relacionamento consultivo: Manter proximidade com clientes, atuando como braço direito nas demandas de TI  Perfil Ideal: - Formação: Curso técnico completo em TI (ou equivalente). Certificações ITIL, HDI ou similares, experiência em gestão de Service Desk e como você pode contribuiu serão diferenciais - Experiência: 2-3 anos em suporte técnico ou coordenação de Service Desk  Salário: R$ 3.000,00 / CLT / Plano Médico /  VR e VT /   Híbrido  Pleno (3-5 anos de experiência)
+Empresa .....:  DrJoe</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 04/02/26 || Supervisor de Service Desk - DrJoe Technology || - Gestão de equipe: Liderar o time de Service Desk (Níveis 1 e 2) com foco em desenvolvimento e resultados - Monitoramento de SLA: Acompanhar indicadores de performance e garantir cumprimento dos acordos com clientes - Melhoria contínua: Garantir aderência aos procedimentos operacionais e propor melhorias nos processos - Suporte técnico ativo: Apoiar o time no atendimento de Nível 1 e 2 quando necessário - Controle de qualidade: Realizar análises de qualidade e gerar relatórios de performance - Relacionamento consultivo: Manter proximidade com clientes, atuando como braço direito nas demandas de TI  Perfil Ideal: - Formação: Curso técnico completo em TI (ou equivalente). Certificações ITIL, HDI ou similares, experiência em gestão de Service Desk e como você pode contribuiu serão diferenciais - Experiência: 2-3 anos em suporte técnico ou coordenação de Service Desk  Salário: R$ 3.000,00 / CLT / Plano Médico /  VR e VT /   Híbrido  Pleno (3-5 anos de experiência) || Empresa .....:  DrJoe</t>
+        </is>
+      </c>
+      <c r="I766" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>83551</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Analista de Gestão de Ativos</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>Responsável pela gestão, controle e governança dos ativos de TI, assegurando a rastreabilidade, disponibilidade e uso adequado de equipamentos e recursos tecnológicos. Atuar de forma integrada com o time de TI, suprimentos e áreas de negócio, realizando o controle de estoque, ciclo de vida dos ativos e planejamento de necessidades, garantindo eficiência operacional, redução de custos e conformidade com políticas internas de forma Corporativa para todas as Unidades.
+Empresa .....:  Mk Tech</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>Barueri - SP - 03/02/26 || Analista de Gestão de Ativos || Responsável pela gestão, controle e governança dos ativos de TI, assegurando a rastreabilidade, disponibilidade e uso adequado de equipamentos e recursos tecnológicos. Atuar de forma integrada com o time de TI, suprimentos e áreas de negócio, realizando o controle de estoque, ciclo de vida dos ativos e planejamento de necessidades, garantindo eficiência operacional, redução de custos e conformidade com políticas internas de forma Corporativa para todas as Unidades. || Empresa .....:  Mk Tech</t>
+        </is>
+      </c>
+      <c r="I767" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>82613</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Arquiteto de Soluções  Oracle</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>Somos a Randstad, líder global em soluções de Recursos Humanos. Unimos tecnologia e paixão por pessoas para conectar talentos às melhores oportunidades no mundo todo.  Com mais de 65 anos de experiência, presença em 39 países e uma equipe de 40.000 profissionais, ajudamos milhões de pessoas a conquistar novos desafios e centenas de milhares de empresas a encontrar os talentos ideais.  Agora, temos uma oportunidade imperdível para um de nossos clientes e buscamos profissionais com o seguinte perfil: Arquiteto Oracle  O Arquiteto de Soluções Oracle liderará a estratégia, o design e a implementação de arquiteturas complexas baseadas em tecnologias Oracle, sendo responsável por garantir que as soluções de banco de dados, middleware e aplicações sejam escaláveis, seguras e alinhadas com as necessidades de negócio.  Tem interesse em saber mais? Envia seu curriculo
+Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26 || Arquiteto de Soluções  Oracle || Somos a Randstad, líder global em soluções de Recursos Humanos. Unimos tecnologia e paixão por pessoas para conectar talentos às melhores oportunidades no mundo todo.  Com mais de 65 anos de experiência, presença em 39 países e uma equipe de 40.000 profissionais, ajudamos milhões de pessoas a conquistar novos desafios e centenas de milhares de empresas a encontrar os talentos ideais.  Agora, temos uma oportunidade imperdível para um de nossos clientes e buscamos profissionais com o seguinte perfil: Arquiteto Oracle  O Arquiteto de Soluções Oracle liderará a estratégia, o design e a implementação de arquiteturas complexas baseadas em tecnologias Oracle, sendo responsável por garantir que as soluções de banco de dados, middleware e aplicações sejam escaláveis, seguras e alinhadas com as necessidades de negócio.  Tem interesse em saber mais? Envia seu curriculo || Empresa .....:  Randstad</t>
+        </is>
+      </c>
+      <c r="I768" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>82661</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Python com IA</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>Desenvolvimento de soluções avançadas de machine learning, incluindo modelos de processamento de linguagem natural (NLP) e modelos baseados em Inteligência Artificial Generativa (LLM, GPT, LLaMA etc).  Desenvolvimento de modelos utilizando APIs de IA Generativa, como OpenAI, Ollama, entre outras. Desenvolvimento de software em Python Criação de documentação detalhada dos projeto  Experiência com Machine Learning, com ênfase em Deep Learning e NLP/NLU. Familiaridade com APIs de IA Generativa, especialmente Azure OpenAI (GPT), Ollama. Experiência em Arquitetura de Retrieval Augmented Generation (RAG).  Conhecimento técnico abrangente de Machine Learning e Deep Learning, especialmente relacionado a LLMs. Experiência com o framework LangChain. Habilidade em programação Python e análise de dados.  Experiência com frameworks de aprendizado profundo como TensorFlow, PyTorch ou Scikit-learn. Experiência no deploy de modelos em produção.
+Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 03/02/26 || Desenvolvedor Python com IA || Desenvolvimento de soluções avançadas de machine learning, incluindo modelos de processamento de linguagem natural (NLP) e modelos baseados em Inteligência Artificial Generativa (LLM, GPT, LLaMA etc).  Desenvolvimento de modelos utilizando APIs de IA Generativa, como OpenAI, Ollama, entre outras. Desenvolvimento de software em Python Criação de documentação detalhada dos projeto  Experiência com Machine Learning, com ênfase em Deep Learning e NLP/NLU. Familiaridade com APIs de IA Generativa, especialmente Azure OpenAI (GPT), Ollama. Experiência em Arquitetura de Retrieval Augmented Generation (RAG).  Conhecimento técnico abrangente de Machine Learning e Deep Learning, especialmente relacionado a LLMs. Experiência com o framework LangChain. Habilidade em programação Python e análise de dados.  Experiência com frameworks de aprendizado profundo como TensorFlow, PyTorch ou Scikit-learn. Experiência no deploy de modelos em produção. || Empresa .....:  K2 Partnering</t>
+        </is>
+      </c>
+      <c r="I769" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>83549</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Analista de Suporte Jr</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>ATIVIDADES Atendimento a tickets de Suporte a Computadores e Usuários, ser o elo entre os usuários e o time de terceiro Nível para a resolução dos problemas, monitoramento de aplicações, manutenção preventiva em desktop e laptops, formatação de computadores, instalação de aplicativos/impressoras e atualizado da documentação.  FORMAÇÃO Estar cursando ou concluída a Graduação nas áreas de Tecnologia Curso de Montagem e Manutenção de Computadores (será um diferencial).  EXPERIÊNCIA 6 Meses no Mínimo  BENEFÍCIOS Salário: R$2.410,00 (mês) Vale Transporte, Vale Alimentação e Refeição, TotalPass (Gympass), Starbem (Plataforma de acesso a psicólogos e nutricionistas), Avus (descontos em consultas presenciais, exames e farmácias), Plano de Saúde e odontológico, Seguro de Vida, além de Treinamentos em cursos oficiais da Microsoft.  Local: Santo André – SP. Formato de trabalho: Presencial. Horário: Segunda à sexta-feira, das 09h00 às 18h00.
+Empresa .....:  TC do Brasil</t>
+        </is>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>Santo André - SP - 03/02/26 || Analista de Suporte Jr || ATIVIDADES Atendimento a tickets de Suporte a Computadores e Usuários, ser o elo entre os usuários e o time de terceiro Nível para a resolução dos problemas, monitoramento de aplicações, manutenção preventiva em desktop e laptops, formatação de computadores, instalação de aplicativos/impressoras e atualizado da documentação.  FORMAÇÃO Estar cursando ou concluída a Graduação nas áreas de Tecnologia Curso de Montagem e Manutenção de Computadores (será um diferencial).  EXPERIÊNCIA 6 Meses no Mínimo  BENEFÍCIOS Salário: R$2.410,00 (mês) Vale Transporte, Vale Alimentação e Refeição, TotalPass (Gympass), Starbem (Plataforma de acesso a psicólogos e nutricionistas), Avus (descontos em consultas presenciais, exames e farmácias), Plano de Saúde e odontológico, Seguro de Vida, além de Treinamentos em cursos oficiais da Microsoft.  Local: Santo André – SP. Formato de trabalho: Presencial. Horário: Segunda à sexta-feira, das 09h00 às 18h00. || Empresa .....:  TC do Brasil</t>
+        </is>
+      </c>
+      <c r="I770" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>82317</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Analista de Infraenstrutura Senior</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>Experiência em instalação, administração e manutenção de servidores nos sistemas operacionais Windows e Linux (RedHat/SuSE/Ubuntu – diferentes distribuições e versões) Experiência em administração de Windows Server: PowerShell Scripting, Active Directory, DNS, DHCP, Print Server, Terminal Server, IIS, File Server, Certificados Digitais, Load Balancers, GPO (Group Policy)  Experiência em administração de servidores Linux: BASH Scripting, LVM, SSH, SFTP, HTTP, HTTPS, NTP, SMTP, DNS, Clusters (Pace Maker / RHCL / SUSE Cluster), configuração de Multipath Experiência com storages DELL/EMC e switches SAN HPE/Brocade (será um diferencial)  Capacidade de identificar problemas, analisar causas e aplicar resolução Documentar configurações e implementações realizadas no dia a dia, relacionadas à administração de sistemas operacionais e mudanças implementadas  Conhecimento na elaboração de relatórios de capacidade dos ambientes Atendimento a chamados Inglês para conversação.
+Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Analista de Infraenstrutura Senior || Experiência em instalação, administração e manutenção de servidores nos sistemas operacionais Windows e Linux (RedHat/SuSE/Ubuntu – diferentes distribuições e versões) Experiência em administração de Windows Server: PowerShell Scripting, Active Directory, DNS, DHCP, Print Server, Terminal Server, IIS, File Server, Certificados Digitais, Load Balancers, GPO (Group Policy)  Experiência em administração de servidores Linux: BASH Scripting, LVM, SSH, SFTP, HTTP, HTTPS, NTP, SMTP, DNS, Clusters (Pace Maker / RHCL / SUSE Cluster), configuração de Multipath Experiência com storages DELL/EMC e switches SAN HPE/Brocade (será um diferencial)  Capacidade de identificar problemas, analisar causas e aplicar resolução Documentar configurações e implementações realizadas no dia a dia, relacionadas à administração de sistemas operacionais e mudanças implementadas  Conhecimento na elaboração de relatórios de capacidade dos ambientes Atendimento a chamados Inglês para conversação. || Empresa .....:  Ewave do Brasil</t>
+        </is>
+      </c>
+      <c r="I771" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>83541</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Analista de TI  (Infraestrutura e Sistemas)</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>Analista de Infraestrutura e Suporte  Sobre a Vaga: Buscamos um profissional dinâmico para gerir nossa infra e atuar como elo estratégico entre usuários e consultoria ERP. Ideal para quem deseja se especializar em TOTVS Protheus.  Responsabilidades: Gestão de Windows Server, AD, Azure e Microsoft 365. Segurança: Configuração de Firewall, regras de acesso e VPN. Interface Protheus: Suporte N1, diagnóstico de problemas e direcionamento técnico para consultoria externa. Suporte N2/N3 (Hardware/Software) e documentação técnica. Requisitos: Experiência mínima de 2 anos em servidores Windows e infraestrutura. Prática em Firewall e Redes (TCP/IP, DNS, DHCP). Perfil analítico e formação superior em TI. Disponibilidade para atuação Totalmente presencial em SP (Mooca).  Diferenciais: Interesse real em aprender MSSQL, linguagem ADVPL e rotinas Protheus. Proatividade e disciplina com processos.  Benefícios: VR/VA, VT, Assistência Médica/Odonto e Seguro de Vida.
+Empresa .....:  DVA COMERCIO</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Analista de TI  (Infraestrutura e Sistemas) || Analista de Infraestrutura e Suporte  Sobre a Vaga: Buscamos um profissional dinâmico para gerir nossa infra e atuar como elo estratégico entre usuários e consultoria ERP. Ideal para quem deseja se especializar em TOTVS Protheus.  Responsabilidades: Gestão de Windows Server, AD, Azure e Microsoft 365. Segurança: Configuração de Firewall, regras de acesso e VPN. Interface Protheus: Suporte N1, diagnóstico de problemas e direcionamento técnico para consultoria externa. Suporte N2/N3 (Hardware/Software) e documentação técnica. Requisitos: Experiência mínima de 2 anos em servidores Windows e infraestrutura. Prática em Firewall e Redes (TCP/IP, DNS, DHCP). Perfil analítico e formação superior em TI. Disponibilidade para atuação Totalmente presencial em SP (Mooca).  Diferenciais: Interesse real em aprender MSSQL, linguagem ADVPL e rotinas Protheus. Proatividade e disciplina com processos.  Benefícios: VR/VA, VT, Assistência Médica/Odonto e Seguro de Vida. || Empresa .....:  DVA COMERCIO</t>
+        </is>
+      </c>
+      <c r="I772" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>82559</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Desenvolvedor Fullstack</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>Prazo: 3 meses, com chance de prorrogação Local: Remoto Contratação: PJ  Conhecimentos nas Linguagens e Frameworks: C#, Typescript, .NetCore, Angular8+ e React Experiência com desenvolvimento de Microsserviços, CQRS e Kafka Conhecimentos em Banco de Dados relacionais e não relacionais (SQL Server/MongoDB) Conhecimentos em metodologias ágeis (Scrum) Conhecimentos em padrões de arquitetura e práticas como: Clean Code, DDD (Domain-Drive Design), Princípios SOLID, Design Patterns, ORM (Entity Framework/Dapper), Mensageria(Kafka/RabbitMQ), CQRS e Microsserviços Conhecimentos em Docker/Containers e Kubernetes  Será considerado um diferencial: Conhecimento em ambientes Cloud (AWS, GCP, Azure, Oracle,...) Conhecimento em desenvolvimento seguro Conhecimento em AKS, EKS, K8S, Rancher
+Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Desenvolvedor Fullstack || Prazo: 3 meses, com chance de prorrogação Local: Remoto Contratação: PJ  Conhecimentos nas Linguagens e Frameworks: C#, Typescript, .NetCore, Angular8+ e React Experiência com desenvolvimento de Microsserviços, CQRS e Kafka Conhecimentos em Banco de Dados relacionais e não relacionais (SQL Server/MongoDB) Conhecimentos em metodologias ágeis (Scrum) Conhecimentos em padrões de arquitetura e práticas como: Clean Code, DDD (Domain-Drive Design), Princípios SOLID, Design Patterns, ORM (Entity Framework/Dapper), Mensageria(Kafka/RabbitMQ), CQRS e Microsserviços Conhecimentos em Docker/Containers e Kubernetes  Será considerado um diferencial: Conhecimento em ambientes Cloud (AWS, GCP, Azure, Oracle,...) Conhecimento em desenvolvimento seguro Conhecimento em AKS, EKS, K8S, Rancher || Empresa .....:  Entrust IT</t>
+        </is>
+      </c>
+      <c r="I773" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>82686</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>Engenheiro de Dados</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>Presencial/Outros</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>Principais Atividades: Desenvolver e manter pipelines de dados usando Airflow Otimizar consultas e estruturas no BigQuery Implementar e documentar melhorias na arquitetura de dados existente Garantir qualidade, consistência e rastreabilidade das informações Integrar dados de diferentes origens (APIs, bancos de dados, planilhas, etc.) Apoiar iniciativas de melhorias na arquitetura e padronização de dados.  Pré-Requisitos: Ensino superior completo em Engenharia da Computação, Ciência da Computação, Sistemas de Informação, Matemática, Estatística ou áreas correlatas Experiência sólida em Python para desenvolvimento de pipelines e automações Conhecimento em Airflow Domínio de SQL e BigQuery Experiência com modelagem de dados (camadas raw, bronze, silver, gold) Conhecimento em boas práticas de desenvolvimento e versionamento (Git) Noções de monitoramento de pipelines e performance de queries no GCP
+Empresa .....:  Grupo H2</t>
+        </is>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || Engenheiro de Dados || Principais Atividades: Desenvolver e manter pipelines de dados usando Airflow Otimizar consultas e estruturas no BigQuery Implementar e documentar melhorias na arquitetura de dados existente Garantir qualidade, consistência e rastreabilidade das informações Integrar dados de diferentes origens (APIs, bancos de dados, planilhas, etc.) Apoiar iniciativas de melhorias na arquitetura e padronização de dados.  Pré-Requisitos: Ensino superior completo em Engenharia da Computação, Ciência da Computação, Sistemas de Informação, Matemática, Estatística ou áreas correlatas Experiência sólida em Python para desenvolvimento de pipelines e automações Conhecimento em Airflow Domínio de SQL e BigQuery Experiência com modelagem de dados (camadas raw, bronze, silver, gold) Conhecimento em boas práticas de desenvolvimento e versionamento (Git) Noções de monitoramento de pipelines e performance de queries no GCP || Empresa .....:  Grupo H2</t>
+        </is>
+      </c>
+      <c r="I774" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>83543</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>SAP VIM</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>O profissional será responsável por liderar o design, configuração e implementação de módulos OpenText SAP VIM (incluindo ICC, Enterprise Scan e OCR). O objetivo principal é otimizar o ciclo de Contas a Pagar e automação de faturas.  Principais Responsabilidades: Configurar SAP VIM e integrar com SAP ECC/S4HANA (FI/MM). Desenvolver especificações funcionais para customizações, interfaces e relatórios. Gerenciar fluxos de aprovação, exceções e suporte ponta a ponta (PO e Non-PO). Realizar testes (unitários, integrados e UAT) e ministrar treinamentos.  Requisitos Essenciais: Experiência sólida com SAP VIM/OpenText e tecnologias OCR. Domínio dos processos de SAP FI (AP) e SAP MM.  Inglês Avançado/Fluente.  Diferenciais: Conhecimento em S/4HANA, Fiori, Ariba e certificações OpenText.  Perfil: Mindset voltado à resolução de problemas, proatividade e habilidade em times multiculturais.  Híbrido em SP CLT
+Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>São Paulo - SP - 03/02/26 || SAP VIM || O profissional será responsável por liderar o design, configuração e implementação de módulos OpenText SAP VIM (incluindo ICC, Enterprise Scan e OCR). O objetivo principal é otimizar o ciclo de Contas a Pagar e automação de faturas.  Principais Responsabilidades: Configurar SAP VIM e integrar com SAP ECC/S4HANA (FI/MM). Desenvolver especificações funcionais para customizações, interfaces e relatórios. Gerenciar fluxos de aprovação, exceções e suporte ponta a ponta (PO e Non-PO). Realizar testes (unitários, integrados e UAT) e ministrar treinamentos.  Requisitos Essenciais: Experiência sólida com SAP VIM/OpenText e tecnologias OCR. Domínio dos processos de SAP FI (AP) e SAP MM.  Inglês Avançado/Fluente.  Diferenciais: Conhecimento em S/4HANA, Fiori, Ariba e certificações OpenText.  Perfil: Mindset voltado à resolução de problemas, proatividade e habilidade em times multiculturais.  Híbrido em SP CLT || Empresa .....:  Randstad Brasil Recursos Humanos LTDA</t>
+        </is>
+      </c>
+      <c r="I775" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>83538</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>Analista Desenvolvedor Pl-Sql Sênior</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>Sênior</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 02/02/26</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>Buscamos um(a) desenvolvedor(a) experiente para atuar em soluções estratégicas com PL/SQL, em uma das maiores operadoras de saúde do Brasil, em um ambiente desafiador e de alta complexidade.  Atuação com Oracle, PL/SQL, procedures, functions, triggers e packages, além de análise de performance e suporte às áreas de negócio. Desenvolvimento de rotinas de ETL, integrações e processamento de grandes volumes de dados. Criação e manutenção de jobs e schedulers no Oracle.  Contratação PJ – 44h semanais  contrato indeterminado Superior completo ou cursando (TI)  Imprescindível experiência com operadoras de Saúde ou sistemas na área da Saúde.
+Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>Home Office - HO - 02/02/26 || Analista Desenvolvedor Pl-Sql Sênior || Buscamos um(a) desenvolvedor(a) experiente para atuar em soluções estratégicas com PL/SQL, em uma das maiores operadoras de saúde do Brasil, em um ambiente desafiador e de alta complexidade.  Atuação com Oracle, PL/SQL, procedures, functions, triggers e packages, além de análise de performance e suporte às áreas de negócio. Desenvolvimento de rotinas de ETL, integrações e processamento de grandes volumes de dados. Criação e manutenção de jobs e schedulers no Oracle.  Contratação PJ – 44h semanais  contrato indeterminado Superior completo ou cursando (TI)  Imprescindível experiência com operadoras de Saúde ou sistemas na área da Saúde. || Empresa .....:  TalentGroup</t>
+        </is>
+      </c>
+      <c r="I776" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
